--- a/docs/鍵盤設計規格_台語方音V3.xlsx
+++ b/docs/鍵盤設計規格_台語方音V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAC6D1A-FFCA-4E56-BA85-87F063E5BF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63304651-8F09-4985-B2F7-AACA78D88F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="762" activeTab="2" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
   </bookViews>
@@ -3384,7 +3384,7 @@
     <numFmt numFmtId="176" formatCode="General;;\(&quot;空&quot;&quot;白&quot;&quot;字&quot;&quot;元&quot;\)"/>
     <numFmt numFmtId="177" formatCode="General;;"/>
   </numFmts>
-  <fonts count="175">
+  <fonts count="183">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -4566,6 +4566,59 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <name val="霞鶩文楷等寬 TC"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="霞鶩文楷等寬 TC"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="霞鶩文楷等寬 TC"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="霞鶩文楷等寬 TC"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="霞鶩文楷等寬 TC"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="霞鶩文楷等寬 TC"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="27">
     <fill>
@@ -5161,7 +5214,7 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="586">
+  <cellXfs count="592">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -6248,9 +6301,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6308,19 +6358,8 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="146" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6354,10 +6393,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6724,6 +6759,57 @@
     <xf numFmtId="0" fontId="141" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="141" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="7" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="73" fillId="16" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6733,15 +6819,6 @@
     <xf numFmtId="0" fontId="73" fillId="16" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="73" fillId="16" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6751,58 +6828,46 @@
     <xf numFmtId="9" fontId="73" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="7" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="150" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="179" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="180" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="84" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10965,146 +11030,146 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="442"/>
-    <col min="2" max="8" width="18.296875" style="442" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="442"/>
+    <col min="1" max="1" width="8.796875" style="437"/>
+    <col min="2" max="8" width="18.296875" style="437" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="437"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="442" t="s">
+      <c r="B1" s="437" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="446" t="s">
+      <c r="B3" s="441" t="s">
         <v>727</v>
       </c>
-      <c r="C3" s="447" t="s">
+      <c r="C3" s="442" t="s">
         <v>694</v>
       </c>
-      <c r="D3" s="447" t="s">
+      <c r="D3" s="442" t="s">
         <v>695</v>
       </c>
-      <c r="E3" s="447" t="s">
+      <c r="E3" s="442" t="s">
         <v>696</v>
       </c>
-      <c r="F3" s="447" t="s">
+      <c r="F3" s="442" t="s">
         <v>697</v>
       </c>
-      <c r="G3" s="447" t="s">
+      <c r="G3" s="442" t="s">
         <v>698</v>
       </c>
-      <c r="H3" s="448" t="s">
+      <c r="H3" s="443" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="443" t="s">
+      <c r="B4" s="438" t="s">
         <v>700</v>
       </c>
-      <c r="C4" s="453" t="s">
+      <c r="C4" s="448" t="s">
         <v>701</v>
       </c>
-      <c r="D4" s="453" t="s">
+      <c r="D4" s="448" t="s">
         <v>702</v>
       </c>
-      <c r="E4" s="453" t="s">
+      <c r="E4" s="448" t="s">
         <v>703</v>
       </c>
-      <c r="F4" s="453" t="s">
+      <c r="F4" s="448" t="s">
         <v>704</v>
       </c>
-      <c r="G4" s="453"/>
-      <c r="H4" s="454"/>
+      <c r="G4" s="448"/>
+      <c r="H4" s="449"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="443" t="s">
+      <c r="B5" s="438" t="s">
         <v>705</v>
       </c>
-      <c r="C5" s="453" t="s">
+      <c r="C5" s="448" t="s">
         <v>706</v>
       </c>
-      <c r="D5" s="453" t="s">
+      <c r="D5" s="448" t="s">
         <v>707</v>
       </c>
-      <c r="E5" s="453"/>
-      <c r="F5" s="453" t="s">
+      <c r="E5" s="448"/>
+      <c r="F5" s="448" t="s">
         <v>708</v>
       </c>
-      <c r="G5" s="453"/>
-      <c r="H5" s="454" t="s">
+      <c r="G5" s="448"/>
+      <c r="H5" s="449" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="443" t="s">
+      <c r="B6" s="438" t="s">
         <v>710</v>
       </c>
-      <c r="C6" s="453" t="s">
+      <c r="C6" s="448" t="s">
         <v>711</v>
       </c>
-      <c r="D6" s="453" t="s">
+      <c r="D6" s="448" t="s">
         <v>712</v>
       </c>
-      <c r="E6" s="453" t="s">
+      <c r="E6" s="448" t="s">
         <v>713</v>
       </c>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453" t="s">
+      <c r="F6" s="448"/>
+      <c r="G6" s="448" t="s">
         <v>714</v>
       </c>
-      <c r="H6" s="454"/>
+      <c r="H6" s="449"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="443" t="s">
+      <c r="B7" s="438" t="s">
         <v>715</v>
       </c>
-      <c r="C7" s="453" t="s">
+      <c r="C7" s="448" t="s">
         <v>716</v>
       </c>
-      <c r="D7" s="453" t="s">
+      <c r="D7" s="448" t="s">
         <v>717</v>
       </c>
-      <c r="E7" s="453" t="s">
+      <c r="E7" s="448" t="s">
         <v>718</v>
       </c>
-      <c r="F7" s="453"/>
-      <c r="G7" s="453" t="s">
+      <c r="F7" s="448"/>
+      <c r="G7" s="448" t="s">
         <v>719</v>
       </c>
-      <c r="H7" s="454"/>
+      <c r="H7" s="449"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="443" t="s">
+      <c r="B8" s="438" t="s">
         <v>720</v>
       </c>
-      <c r="C8" s="453" t="s">
+      <c r="C8" s="448" t="s">
         <v>721</v>
       </c>
-      <c r="D8" s="453" t="s">
+      <c r="D8" s="448" t="s">
         <v>722</v>
       </c>
-      <c r="E8" s="453" t="s">
+      <c r="E8" s="448" t="s">
         <v>723</v>
       </c>
-      <c r="F8" s="453" t="s">
+      <c r="F8" s="448" t="s">
         <v>724</v>
       </c>
-      <c r="G8" s="453"/>
-      <c r="H8" s="454"/>
+      <c r="G8" s="448"/>
+      <c r="H8" s="449"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="445" t="s">
+      <c r="B9" s="440" t="s">
         <v>725</v>
       </c>
-      <c r="C9" s="455"/>
-      <c r="D9" s="455"/>
-      <c r="E9" s="455"/>
-      <c r="F9" s="455"/>
-      <c r="G9" s="455" t="s">
+      <c r="C9" s="450"/>
+      <c r="D9" s="450"/>
+      <c r="E9" s="450"/>
+      <c r="F9" s="450"/>
+      <c r="G9" s="450" t="s">
         <v>726</v>
       </c>
-      <c r="H9" s="456"/>
+      <c r="H9" s="451"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -11125,286 +11190,286 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75"/>
   <cols>
-    <col min="1" max="1" width="2.19921875" style="442" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="442" customWidth="1"/>
-    <col min="3" max="21" width="9.19921875" style="442" customWidth="1"/>
-    <col min="22" max="16384" width="8.796875" style="442"/>
+    <col min="1" max="1" width="2.19921875" style="437" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="437" customWidth="1"/>
+    <col min="3" max="21" width="9.19921875" style="437" customWidth="1"/>
+    <col min="22" max="16384" width="8.796875" style="437"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21">
-      <c r="B1" s="442" t="s">
+      <c r="B1" s="437" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="3" spans="2:21" ht="30">
-      <c r="B3" s="444" t="s">
+      <c r="B3" s="439" t="s">
         <v>729</v>
       </c>
-      <c r="C3" s="515" t="s">
+      <c r="C3" s="510" t="s">
         <v>351</v>
       </c>
-      <c r="D3" s="515" t="s">
+      <c r="D3" s="510" t="s">
         <v>799</v>
       </c>
-      <c r="E3" s="515" t="s">
+      <c r="E3" s="510" t="s">
         <v>800</v>
       </c>
-      <c r="F3" s="515" t="s">
+      <c r="F3" s="510" t="s">
         <v>329</v>
       </c>
-      <c r="G3" s="515" t="s">
+      <c r="G3" s="510" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="515" t="s">
+      <c r="H3" s="510" t="s">
         <v>801</v>
       </c>
-      <c r="I3" s="517" t="s">
+      <c r="I3" s="512" t="s">
         <v>804</v>
       </c>
-      <c r="J3" s="515" t="s">
+      <c r="J3" s="510" t="s">
         <v>802</v>
       </c>
-      <c r="K3" s="515" t="s">
+      <c r="K3" s="510" t="s">
         <v>739</v>
       </c>
-      <c r="L3" s="515" t="s">
+      <c r="L3" s="510" t="s">
         <v>318</v>
       </c>
-      <c r="M3" s="515" t="s">
+      <c r="M3" s="510" t="s">
         <v>730</v>
       </c>
-      <c r="N3" s="515" t="s">
+      <c r="N3" s="510" t="s">
         <v>740</v>
       </c>
-      <c r="O3" s="515" t="s">
+      <c r="O3" s="510" t="s">
         <v>196</v>
       </c>
-      <c r="P3" s="515" t="s">
+      <c r="P3" s="510" t="s">
         <v>295</v>
       </c>
-      <c r="Q3" s="515" t="s">
+      <c r="Q3" s="510" t="s">
         <v>741</v>
       </c>
-      <c r="R3" s="515" t="s">
+      <c r="R3" s="510" t="s">
         <v>292</v>
       </c>
-      <c r="S3" s="515" t="s">
+      <c r="S3" s="510" t="s">
         <v>298</v>
       </c>
-      <c r="T3" s="515" t="s">
+      <c r="T3" s="510" t="s">
         <v>731</v>
       </c>
-      <c r="U3" s="516" t="s">
+      <c r="U3" s="511" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="4" spans="2:21">
-      <c r="B4" s="443" t="s">
+      <c r="B4" s="438" t="s">
         <v>732</v>
       </c>
-      <c r="C4" s="449" t="s">
+      <c r="C4" s="444" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="449" t="s">
+      <c r="D4" s="444" t="s">
         <v>241</v>
       </c>
-      <c r="E4" s="449" t="s">
+      <c r="E4" s="444" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="449" t="s">
+      <c r="F4" s="444" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="449" t="s">
+      <c r="G4" s="444" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="449" t="s">
+      <c r="H4" s="444" t="s">
         <v>315</v>
       </c>
-      <c r="I4" s="449" t="s">
+      <c r="I4" s="444" t="s">
         <v>304</v>
       </c>
-      <c r="J4" s="449" t="s">
+      <c r="J4" s="444" t="s">
         <v>308</v>
       </c>
-      <c r="K4" s="449" t="s">
+      <c r="K4" s="444" t="s">
         <v>733</v>
       </c>
-      <c r="L4" s="449" t="s">
+      <c r="L4" s="444" t="s">
         <v>320</v>
       </c>
-      <c r="M4" s="449" t="s">
+      <c r="M4" s="444" t="s">
         <v>473</v>
       </c>
-      <c r="N4" s="449" t="s">
+      <c r="N4" s="444" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="449" t="s">
+      <c r="O4" s="444" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="449" t="s">
+      <c r="P4" s="444" t="s">
         <v>297</v>
       </c>
-      <c r="Q4" s="449" t="s">
+      <c r="Q4" s="444" t="s">
         <v>291</v>
       </c>
-      <c r="R4" s="449" t="s">
+      <c r="R4" s="444" t="s">
         <v>734</v>
       </c>
-      <c r="S4" s="449" t="s">
+      <c r="S4" s="444" t="s">
         <v>300</v>
       </c>
-      <c r="T4" s="449" t="s">
+      <c r="T4" s="444" t="s">
         <v>145</v>
       </c>
-      <c r="U4" s="450" t="s">
+      <c r="U4" s="445" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:21">
-      <c r="B5" s="443" t="s">
+      <c r="B5" s="438" t="s">
         <v>735</v>
       </c>
-      <c r="C5" s="449" t="s">
+      <c r="C5" s="444" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="449" t="s">
+      <c r="D5" s="444" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="449"/>
-      <c r="F5" s="449" t="s">
+      <c r="E5" s="444"/>
+      <c r="F5" s="444" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="449" t="s">
+      <c r="G5" s="444" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="449" t="s">
+      <c r="H5" s="444" t="s">
         <v>258</v>
       </c>
-      <c r="I5" s="449" t="s">
+      <c r="I5" s="444" t="s">
         <v>248</v>
       </c>
-      <c r="J5" s="449"/>
-      <c r="K5" s="449" t="s">
+      <c r="J5" s="444"/>
+      <c r="K5" s="444" t="s">
         <v>252</v>
       </c>
-      <c r="L5" s="449" t="s">
+      <c r="L5" s="444" t="s">
         <v>262</v>
       </c>
-      <c r="M5" s="449"/>
-      <c r="N5" s="449" t="s">
+      <c r="M5" s="444"/>
+      <c r="N5" s="444" t="s">
         <v>121</v>
       </c>
-      <c r="O5" s="449"/>
-      <c r="P5" s="449" t="s">
+      <c r="O5" s="444"/>
+      <c r="P5" s="444" t="s">
         <v>238</v>
       </c>
-      <c r="Q5" s="449" t="s">
+      <c r="Q5" s="444" t="s">
         <v>229</v>
       </c>
-      <c r="R5" s="449"/>
-      <c r="S5" s="449"/>
-      <c r="T5" s="449"/>
-      <c r="U5" s="450"/>
+      <c r="R5" s="444"/>
+      <c r="S5" s="444"/>
+      <c r="T5" s="444"/>
+      <c r="U5" s="445"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="457" t="s">
+      <c r="B6" s="452" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="449" t="s">
+      <c r="C6" s="444" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="449"/>
-      <c r="E6" s="449"/>
-      <c r="F6" s="449"/>
-      <c r="G6" s="449" t="s">
+      <c r="D6" s="444"/>
+      <c r="E6" s="444"/>
+      <c r="F6" s="444"/>
+      <c r="G6" s="444" t="s">
         <v>736</v>
       </c>
-      <c r="H6" s="449" t="s">
+      <c r="H6" s="444" t="s">
         <v>737</v>
       </c>
-      <c r="I6" s="449"/>
-      <c r="J6" s="449"/>
-      <c r="K6" s="449"/>
-      <c r="L6" s="449"/>
-      <c r="M6" s="449"/>
-      <c r="N6" s="449" t="s">
+      <c r="I6" s="444"/>
+      <c r="J6" s="444"/>
+      <c r="K6" s="444"/>
+      <c r="L6" s="444"/>
+      <c r="M6" s="444"/>
+      <c r="N6" s="444" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="449"/>
-      <c r="P6" s="449"/>
-      <c r="Q6" s="449"/>
-      <c r="R6" s="449"/>
-      <c r="S6" s="449"/>
-      <c r="T6" s="449"/>
-      <c r="U6" s="450"/>
+      <c r="O6" s="444"/>
+      <c r="P6" s="444"/>
+      <c r="Q6" s="444"/>
+      <c r="R6" s="444"/>
+      <c r="S6" s="444"/>
+      <c r="T6" s="444"/>
+      <c r="U6" s="445"/>
     </row>
     <row r="7" spans="2:21">
-      <c r="B7" s="457" t="s">
+      <c r="B7" s="452" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="449" t="s">
+      <c r="C7" s="444" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="449"/>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449" t="s">
+      <c r="D7" s="444"/>
+      <c r="E7" s="444"/>
+      <c r="F7" s="444"/>
+      <c r="G7" s="444" t="s">
         <v>187</v>
       </c>
-      <c r="H7" s="449" t="s">
+      <c r="H7" s="444" t="s">
         <v>173</v>
       </c>
-      <c r="I7" s="449"/>
-      <c r="J7" s="449"/>
-      <c r="K7" s="449"/>
-      <c r="L7" s="449"/>
-      <c r="M7" s="449"/>
-      <c r="N7" s="449"/>
-      <c r="O7" s="449" t="s">
+      <c r="I7" s="444"/>
+      <c r="J7" s="444"/>
+      <c r="K7" s="444"/>
+      <c r="L7" s="444"/>
+      <c r="M7" s="444"/>
+      <c r="N7" s="444"/>
+      <c r="O7" s="444" t="s">
         <v>182</v>
       </c>
-      <c r="P7" s="449" t="s">
+      <c r="P7" s="444" t="s">
         <v>169</v>
       </c>
-      <c r="Q7" s="449"/>
-      <c r="R7" s="449"/>
-      <c r="S7" s="449"/>
-      <c r="T7" s="449"/>
-      <c r="U7" s="450"/>
+      <c r="Q7" s="444"/>
+      <c r="R7" s="444"/>
+      <c r="S7" s="444"/>
+      <c r="T7" s="444"/>
+      <c r="U7" s="445"/>
     </row>
     <row r="8" spans="2:21">
-      <c r="B8" s="458" t="s">
+      <c r="B8" s="453" t="s">
         <v>738</v>
       </c>
-      <c r="C8" s="451" t="s">
+      <c r="C8" s="446" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="451"/>
-      <c r="E8" s="451"/>
-      <c r="F8" s="451"/>
-      <c r="G8" s="451" t="s">
+      <c r="D8" s="446"/>
+      <c r="E8" s="446"/>
+      <c r="F8" s="446"/>
+      <c r="G8" s="446" t="s">
         <v>156</v>
       </c>
-      <c r="H8" s="451" t="s">
+      <c r="H8" s="446" t="s">
         <v>159</v>
       </c>
-      <c r="I8" s="451"/>
-      <c r="J8" s="451"/>
-      <c r="K8" s="451" t="s">
+      <c r="I8" s="446"/>
+      <c r="J8" s="446"/>
+      <c r="K8" s="446" t="s">
         <v>154</v>
       </c>
-      <c r="L8" s="451"/>
-      <c r="M8" s="451"/>
-      <c r="N8" s="451" t="s">
+      <c r="L8" s="446"/>
+      <c r="M8" s="446"/>
+      <c r="N8" s="446" t="s">
         <v>101</v>
       </c>
-      <c r="O8" s="451"/>
-      <c r="P8" s="451"/>
-      <c r="Q8" s="451"/>
-      <c r="R8" s="451"/>
-      <c r="S8" s="451"/>
-      <c r="T8" s="451"/>
-      <c r="U8" s="452"/>
+      <c r="O8" s="446"/>
+      <c r="P8" s="446"/>
+      <c r="Q8" s="446"/>
+      <c r="R8" s="446"/>
+      <c r="S8" s="446"/>
+      <c r="T8" s="446"/>
+      <c r="U8" s="447"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -11427,9 +11492,9 @@
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
     <col min="2" max="2" width="6.3984375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" style="398" customWidth="1"/>
+    <col min="3" max="5" width="10.59765625" style="397" customWidth="1"/>
     <col min="6" max="6" width="10.59765625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="512"/>
+    <col min="7" max="7" width="8.796875" style="507"/>
     <col min="8" max="8" width="10.59765625" style="11" customWidth="1"/>
     <col min="9" max="9" width="10.59765625" style="386" customWidth="1"/>
     <col min="13" max="18" width="9.69921875" customWidth="1"/>
@@ -11447,49 +11512,49 @@
       <c r="I1" s="138"/>
     </row>
     <row r="2" spans="2:17" ht="33">
-      <c r="B2" s="459" t="s">
+      <c r="B2" s="454" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="460" t="s">
+      <c r="C2" s="455" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="461" t="s">
+      <c r="D2" s="456" t="s">
         <v>585</v>
       </c>
-      <c r="E2" s="558" t="s">
+      <c r="E2" s="553" t="s">
         <v>386</v>
       </c>
-      <c r="F2" s="462" t="s">
+      <c r="F2" s="457" t="s">
         <v>385</v>
       </c>
-      <c r="G2" s="462" t="s">
+      <c r="G2" s="457" t="s">
         <v>816</v>
       </c>
-      <c r="H2" s="462" t="s">
+      <c r="H2" s="457" t="s">
         <v>744</v>
       </c>
-      <c r="I2" s="462" t="s">
+      <c r="I2" s="457" t="s">
         <v>388</v>
       </c>
-      <c r="K2" s="470" t="s">
+      <c r="K2" s="465" t="s">
         <v>727</v>
       </c>
-      <c r="L2" s="471" t="s">
+      <c r="L2" s="466" t="s">
         <v>742</v>
       </c>
-      <c r="M2" s="471" t="s">
+      <c r="M2" s="466" t="s">
         <v>743</v>
       </c>
-      <c r="N2" s="472" t="s">
+      <c r="N2" s="467" t="s">
         <v>696</v>
       </c>
-      <c r="O2" s="472" t="s">
+      <c r="O2" s="467" t="s">
         <v>697</v>
       </c>
-      <c r="P2" s="472" t="s">
+      <c r="P2" s="467" t="s">
         <v>698</v>
       </c>
-      <c r="Q2" s="473" t="s">
+      <c r="Q2" s="468" t="s">
         <v>699</v>
       </c>
     </row>
@@ -11501,39 +11566,39 @@
       <c r="C3" s="109" t="s">
         <v>361</v>
       </c>
-      <c r="D3" s="463" t="s">
+      <c r="D3" s="458" t="s">
         <v>217</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="464" t="s">
+      <c r="F3" s="459" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="464"/>
-      <c r="H3" s="503" t="s">
+      <c r="G3" s="459"/>
+      <c r="H3" s="498" t="s">
         <v>745</v>
       </c>
-      <c r="I3" s="465" t="s">
+      <c r="I3" s="460" t="s">
         <v>217</v>
       </c>
-      <c r="K3" s="478" t="s">
+      <c r="K3" s="473" t="s">
         <v>700</v>
       </c>
-      <c r="L3" s="474" t="s">
+      <c r="L3" s="469" t="s">
         <v>701</v>
       </c>
-      <c r="M3" s="474" t="s">
+      <c r="M3" s="469" t="s">
         <v>702</v>
       </c>
-      <c r="N3" s="474" t="s">
+      <c r="N3" s="469" t="s">
         <v>703</v>
       </c>
-      <c r="O3" s="474" t="s">
+      <c r="O3" s="469" t="s">
         <v>704</v>
       </c>
-      <c r="P3" s="474"/>
-      <c r="Q3" s="475"/>
+      <c r="P3" s="469"/>
+      <c r="Q3" s="470"/>
     </row>
     <row r="4" spans="2:17" ht="32.25">
       <c r="B4" s="31">
@@ -11549,31 +11614,31 @@
       <c r="E4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="436" t="s">
+      <c r="F4" s="431" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="436"/>
-      <c r="H4" s="504" t="s">
+      <c r="G4" s="431"/>
+      <c r="H4" s="499" t="s">
         <v>762</v>
       </c>
-      <c r="I4" s="466" t="s">
+      <c r="I4" s="461" t="s">
         <v>392</v>
       </c>
-      <c r="K4" s="478" t="s">
+      <c r="K4" s="473" t="s">
         <v>705</v>
       </c>
-      <c r="L4" s="474" t="s">
+      <c r="L4" s="469" t="s">
         <v>706</v>
       </c>
-      <c r="M4" s="474" t="s">
+      <c r="M4" s="469" t="s">
         <v>707</v>
       </c>
-      <c r="N4" s="474"/>
-      <c r="O4" s="474" t="s">
+      <c r="N4" s="469"/>
+      <c r="O4" s="469" t="s">
         <v>708</v>
       </c>
-      <c r="P4" s="474"/>
-      <c r="Q4" s="475" t="s">
+      <c r="P4" s="469"/>
+      <c r="Q4" s="470" t="s">
         <v>709</v>
       </c>
     </row>
@@ -11591,33 +11656,33 @@
       <c r="E5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="436" t="s">
+      <c r="F5" s="431" t="s">
         <v>651</v>
       </c>
-      <c r="G5" s="436"/>
-      <c r="H5" s="504" t="s">
+      <c r="G5" s="431"/>
+      <c r="H5" s="499" t="s">
         <v>747</v>
       </c>
-      <c r="I5" s="466" t="s">
+      <c r="I5" s="461" t="s">
         <v>190</v>
       </c>
-      <c r="K5" s="478" t="s">
+      <c r="K5" s="473" t="s">
         <v>710</v>
       </c>
-      <c r="L5" s="474" t="s">
+      <c r="L5" s="469" t="s">
         <v>711</v>
       </c>
-      <c r="M5" s="474" t="s">
+      <c r="M5" s="469" t="s">
         <v>712</v>
       </c>
-      <c r="N5" s="474" t="s">
+      <c r="N5" s="469" t="s">
         <v>713</v>
       </c>
-      <c r="O5" s="474"/>
-      <c r="P5" s="474" t="s">
+      <c r="O5" s="469"/>
+      <c r="P5" s="469" t="s">
         <v>714</v>
       </c>
-      <c r="Q5" s="475"/>
+      <c r="Q5" s="470"/>
     </row>
     <row r="6" spans="2:17" ht="32.25">
       <c r="B6" s="41">
@@ -11627,39 +11692,39 @@
       <c r="C6" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="D6" s="467" t="s">
+      <c r="D6" s="462" t="s">
         <v>143</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="468" t="s">
+      <c r="F6" s="463" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="468"/>
-      <c r="H6" s="505" t="s">
+      <c r="G6" s="463"/>
+      <c r="H6" s="500" t="s">
         <v>746</v>
       </c>
-      <c r="I6" s="469" t="s">
+      <c r="I6" s="464" t="s">
         <v>143</v>
       </c>
-      <c r="K6" s="478" t="s">
+      <c r="K6" s="473" t="s">
         <v>715</v>
       </c>
-      <c r="L6" s="474" t="s">
+      <c r="L6" s="469" t="s">
         <v>716</v>
       </c>
-      <c r="M6" s="474" t="s">
+      <c r="M6" s="469" t="s">
         <v>717</v>
       </c>
-      <c r="N6" s="474" t="s">
+      <c r="N6" s="469" t="s">
         <v>718</v>
       </c>
-      <c r="O6" s="474"/>
-      <c r="P6" s="474" t="s">
+      <c r="O6" s="469"/>
+      <c r="P6" s="469" t="s">
         <v>719</v>
       </c>
-      <c r="Q6" s="475"/>
+      <c r="Q6" s="470"/>
     </row>
     <row r="7" spans="2:17" ht="32.25">
       <c r="B7" s="25">
@@ -11669,39 +11734,39 @@
       <c r="C7" s="109" t="s">
         <v>347</v>
       </c>
-      <c r="D7" s="463" t="s">
+      <c r="D7" s="458" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="464" t="s">
+      <c r="F7" s="459" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="464"/>
-      <c r="H7" s="503" t="s">
+      <c r="G7" s="459"/>
+      <c r="H7" s="498" t="s">
         <v>748</v>
       </c>
-      <c r="I7" s="465" t="s">
+      <c r="I7" s="460" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="478" t="s">
+      <c r="K7" s="473" t="s">
         <v>720</v>
       </c>
-      <c r="L7" s="474" t="s">
+      <c r="L7" s="469" t="s">
         <v>721</v>
       </c>
-      <c r="M7" s="474" t="s">
+      <c r="M7" s="469" t="s">
         <v>722</v>
       </c>
-      <c r="N7" s="474" t="s">
+      <c r="N7" s="469" t="s">
         <v>723</v>
       </c>
-      <c r="O7" s="474" t="s">
+      <c r="O7" s="469" t="s">
         <v>724</v>
       </c>
-      <c r="P7" s="474"/>
-      <c r="Q7" s="475"/>
+      <c r="P7" s="469"/>
+      <c r="Q7" s="470"/>
     </row>
     <row r="8" spans="2:17" ht="32.25">
       <c r="B8" s="31">
@@ -11717,27 +11782,27 @@
       <c r="E8" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="436" t="s">
+      <c r="F8" s="431" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="436"/>
-      <c r="H8" s="504" t="s">
+      <c r="G8" s="431"/>
+      <c r="H8" s="499" t="s">
         <v>763</v>
       </c>
-      <c r="I8" s="466" t="s">
+      <c r="I8" s="461" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="479" t="s">
+      <c r="K8" s="474" t="s">
         <v>725</v>
       </c>
-      <c r="L8" s="476"/>
-      <c r="M8" s="476"/>
-      <c r="N8" s="476"/>
-      <c r="O8" s="476"/>
-      <c r="P8" s="476" t="s">
+      <c r="L8" s="471"/>
+      <c r="M8" s="471"/>
+      <c r="N8" s="471"/>
+      <c r="O8" s="471"/>
+      <c r="P8" s="471" t="s">
         <v>726</v>
       </c>
-      <c r="Q8" s="477"/>
+      <c r="Q8" s="472"/>
     </row>
     <row r="9" spans="2:17" ht="32.25">
       <c r="B9" s="31">
@@ -11753,14 +11818,14 @@
       <c r="E9" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="436" t="s">
+      <c r="F9" s="431" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="436"/>
-      <c r="H9" s="504" t="s">
+      <c r="G9" s="431"/>
+      <c r="H9" s="499" t="s">
         <v>749</v>
       </c>
-      <c r="I9" s="466" t="s">
+      <c r="I9" s="461" t="s">
         <v>34</v>
       </c>
     </row>
@@ -11772,20 +11837,20 @@
       <c r="C10" s="73" t="s">
         <v>332</v>
       </c>
-      <c r="D10" s="467" t="s">
+      <c r="D10" s="462" t="s">
         <v>86</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="468" t="s">
+      <c r="F10" s="463" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="468"/>
-      <c r="H10" s="505" t="s">
+      <c r="G10" s="463"/>
+      <c r="H10" s="500" t="s">
         <v>750</v>
       </c>
-      <c r="I10" s="469" t="s">
+      <c r="I10" s="464" t="s">
         <v>86</v>
       </c>
     </row>
@@ -11794,23 +11859,23 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="480" t="s">
+      <c r="C11" s="475" t="s">
         <v>590</v>
       </c>
-      <c r="D11" s="481" t="s">
+      <c r="D11" s="476" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="482" t="s">
+      <c r="E11" s="477" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="464" t="s">
+      <c r="F11" s="459" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="464"/>
-      <c r="H11" s="503" t="s">
+      <c r="G11" s="459"/>
+      <c r="H11" s="498" t="s">
         <v>752</v>
       </c>
-      <c r="I11" s="483" t="s">
+      <c r="I11" s="478" t="s">
         <v>179</v>
       </c>
     </row>
@@ -11819,23 +11884,23 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="484" t="s">
+      <c r="C12" s="479" t="s">
         <v>422</v>
       </c>
-      <c r="D12" s="485" t="s">
+      <c r="D12" s="480" t="s">
         <v>305</v>
       </c>
-      <c r="E12" s="486" t="s">
+      <c r="E12" s="481" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="436" t="s">
+      <c r="F12" s="431" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="436"/>
-      <c r="H12" s="504" t="s">
+      <c r="G12" s="431"/>
+      <c r="H12" s="499" t="s">
         <v>751</v>
       </c>
-      <c r="I12" s="487" t="s">
+      <c r="I12" s="482" t="s">
         <v>305</v>
       </c>
     </row>
@@ -11853,14 +11918,14 @@
       <c r="E13" s="32" t="s">
         <v>442</v>
       </c>
-      <c r="F13" s="436" t="s">
+      <c r="F13" s="431" t="s">
         <v>441</v>
       </c>
-      <c r="G13" s="436"/>
-      <c r="H13" s="504" t="s">
+      <c r="G13" s="431"/>
+      <c r="H13" s="499" t="s">
         <v>753</v>
       </c>
-      <c r="I13" s="466" t="s">
+      <c r="I13" s="461" t="s">
         <v>254</v>
       </c>
     </row>
@@ -11869,23 +11934,23 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="488" t="s">
+      <c r="C14" s="483" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="489" t="s">
+      <c r="D14" s="484" t="s">
         <v>338</v>
       </c>
-      <c r="E14" s="490" t="s">
+      <c r="E14" s="485" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="468" t="s">
+      <c r="F14" s="463" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="468"/>
-      <c r="H14" s="505" t="s">
+      <c r="G14" s="463"/>
+      <c r="H14" s="500" t="s">
         <v>754</v>
       </c>
-      <c r="I14" s="491" t="s">
+      <c r="I14" s="486" t="s">
         <v>338</v>
       </c>
     </row>
@@ -11897,20 +11962,20 @@
       <c r="C15" s="109" t="s">
         <v>329</v>
       </c>
-      <c r="D15" s="463" t="s">
+      <c r="D15" s="458" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="464" t="s">
+      <c r="F15" s="459" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="464"/>
-      <c r="H15" s="503" t="s">
+      <c r="G15" s="459"/>
+      <c r="H15" s="498" t="s">
         <v>759</v>
       </c>
-      <c r="I15" s="465" t="s">
+      <c r="I15" s="460" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11928,14 +11993,14 @@
       <c r="E16" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="436" t="s">
+      <c r="F16" s="431" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="436"/>
-      <c r="H16" s="504" t="s">
+      <c r="G16" s="431"/>
+      <c r="H16" s="499" t="s">
         <v>764</v>
       </c>
-      <c r="I16" s="466" t="s">
+      <c r="I16" s="461" t="s">
         <v>418</v>
       </c>
     </row>
@@ -11953,14 +12018,14 @@
       <c r="E17" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="436" t="s">
+      <c r="F17" s="431" t="s">
         <v>652</v>
       </c>
-      <c r="G17" s="436"/>
-      <c r="H17" s="504" t="s">
+      <c r="G17" s="431"/>
+      <c r="H17" s="499" t="s">
         <v>760</v>
       </c>
-      <c r="I17" s="466" t="s">
+      <c r="I17" s="461" t="s">
         <v>184</v>
       </c>
     </row>
@@ -11969,23 +12034,23 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="488" t="s">
+      <c r="C18" s="483" t="s">
         <v>760</v>
       </c>
-      <c r="D18" s="489" t="s">
+      <c r="D18" s="484" t="s">
         <v>341</v>
       </c>
-      <c r="E18" s="490" t="s">
+      <c r="E18" s="485" t="s">
         <v>647</v>
       </c>
-      <c r="F18" s="468" t="s">
+      <c r="F18" s="463" t="s">
         <v>648</v>
       </c>
-      <c r="G18" s="468"/>
-      <c r="H18" s="505" t="s">
+      <c r="G18" s="463"/>
+      <c r="H18" s="500" t="s">
         <v>765</v>
       </c>
-      <c r="I18" s="491" t="s">
+      <c r="I18" s="486" t="s">
         <v>613</v>
       </c>
     </row>
@@ -11994,23 +12059,23 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="492" t="s">
+      <c r="C19" s="487" t="s">
         <v>305</v>
       </c>
-      <c r="D19" s="493" t="s">
+      <c r="D19" s="488" t="s">
         <v>422</v>
       </c>
-      <c r="E19" s="494" t="s">
+      <c r="E19" s="489" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="495" t="s">
+      <c r="F19" s="490" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="495"/>
-      <c r="H19" s="506" t="s">
+      <c r="G19" s="490"/>
+      <c r="H19" s="501" t="s">
         <v>761</v>
       </c>
-      <c r="I19" s="496" t="s">
+      <c r="I19" s="491" t="s">
         <v>761</v>
       </c>
     </row>
@@ -12022,20 +12087,20 @@
       <c r="C20" s="109" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="463" t="s">
+      <c r="D20" s="458" t="s">
         <v>279</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="464" t="s">
+      <c r="F20" s="459" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="464"/>
-      <c r="H20" s="507" t="s">
+      <c r="G20" s="459"/>
+      <c r="H20" s="502" t="s">
         <v>766</v>
       </c>
-      <c r="I20" s="465" t="s">
+      <c r="I20" s="460" t="s">
         <v>279</v>
       </c>
     </row>
@@ -12044,23 +12109,23 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="497" t="s">
+      <c r="C21" s="492" t="s">
         <v>254</v>
       </c>
-      <c r="D21" s="498" t="s">
+      <c r="D21" s="493" t="s">
         <v>196</v>
       </c>
       <c r="E21" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="468" t="s">
+      <c r="F21" s="463" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="468"/>
-      <c r="H21" s="508" t="s">
+      <c r="G21" s="463"/>
+      <c r="H21" s="503" t="s">
         <v>767</v>
       </c>
-      <c r="I21" s="469" t="s">
+      <c r="I21" s="464" t="s">
         <v>196</v>
       </c>
     </row>
@@ -12072,20 +12137,20 @@
       <c r="C22" s="109" t="s">
         <v>591</v>
       </c>
-      <c r="D22" s="463" t="s">
+      <c r="D22" s="458" t="s">
         <v>351</v>
       </c>
       <c r="E22" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="464" t="s">
+      <c r="F22" s="459" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="464"/>
-      <c r="H22" s="507" t="s">
+      <c r="G22" s="459"/>
+      <c r="H22" s="502" t="s">
         <v>770</v>
       </c>
-      <c r="I22" s="465" t="s">
+      <c r="I22" s="460" t="s">
         <v>351</v>
       </c>
     </row>
@@ -12103,14 +12168,14 @@
       <c r="E23" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="436" t="s">
+      <c r="F23" s="431" t="s">
         <v>483</v>
       </c>
-      <c r="G23" s="436"/>
-      <c r="H23" s="509" t="s">
+      <c r="G23" s="431"/>
+      <c r="H23" s="504" t="s">
         <v>768</v>
       </c>
-      <c r="I23" s="466" t="s">
+      <c r="I23" s="461" t="s">
         <v>346</v>
       </c>
     </row>
@@ -12128,14 +12193,14 @@
       <c r="E24" s="32" t="s">
         <v>473</v>
       </c>
-      <c r="F24" s="436" t="s">
+      <c r="F24" s="431" t="s">
         <v>473</v>
       </c>
-      <c r="G24" s="436"/>
-      <c r="H24" s="509" t="s">
+      <c r="G24" s="431"/>
+      <c r="H24" s="504" t="s">
         <v>769</v>
       </c>
-      <c r="I24" s="466" t="s">
+      <c r="I24" s="461" t="s">
         <v>65</v>
       </c>
     </row>
@@ -12144,38 +12209,38 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="499" t="s">
+      <c r="C25" s="494" t="s">
         <v>225</v>
       </c>
-      <c r="D25" s="500" t="s">
+      <c r="D25" s="495" t="s">
         <v>329</v>
       </c>
-      <c r="E25" s="501" t="s">
+      <c r="E25" s="496" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="468" t="s">
+      <c r="F25" s="463" t="s">
         <v>637</v>
       </c>
-      <c r="G25" s="468"/>
-      <c r="H25" s="514" t="s">
+      <c r="G25" s="463"/>
+      <c r="H25" s="509" t="s">
         <v>786</v>
       </c>
-      <c r="I25" s="502" t="s">
+      <c r="I25" s="497" t="s">
         <v>329</v>
       </c>
-      <c r="K25" s="441" t="s">
+      <c r="K25" s="436" t="s">
         <v>143</v>
       </c>
-      <c r="L25" s="441" t="s">
+      <c r="L25" s="436" t="s">
         <v>525</v>
       </c>
-      <c r="M25" s="441" t="s">
+      <c r="M25" s="436" t="s">
         <v>145</v>
       </c>
-      <c r="N25" s="441" t="s">
+      <c r="N25" s="436" t="s">
         <v>83</v>
       </c>
-      <c r="O25" s="441" t="s">
+      <c r="O25" s="436" t="s">
         <v>608</v>
       </c>
     </row>
@@ -12184,38 +12249,38 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="409" t="s">
+      <c r="C26" s="408" t="s">
         <v>264</v>
       </c>
-      <c r="D26" s="411" t="s">
+      <c r="D26" s="410" t="s">
         <v>590</v>
       </c>
-      <c r="E26" s="410" t="s">
+      <c r="E26" s="409" t="s">
         <v>241</v>
       </c>
-      <c r="F26" s="436" t="s">
+      <c r="F26" s="431" t="s">
         <v>241</v>
       </c>
-      <c r="G26" s="436"/>
-      <c r="H26" s="509" t="s">
+      <c r="G26" s="431"/>
+      <c r="H26" s="504" t="s">
         <v>772</v>
       </c>
-      <c r="I26" s="412" t="s">
+      <c r="I26" s="411" t="s">
         <v>330</v>
       </c>
-      <c r="K26" s="441" t="s">
+      <c r="K26" s="436" t="s">
         <v>217</v>
       </c>
-      <c r="L26" s="441" t="s">
+      <c r="L26" s="436" t="s">
         <v>571</v>
       </c>
-      <c r="M26" s="441" t="s">
+      <c r="M26" s="436" t="s">
         <v>76</v>
       </c>
-      <c r="N26" s="441" t="s">
+      <c r="N26" s="436" t="s">
         <v>691</v>
       </c>
-      <c r="O26" s="441" t="s">
+      <c r="O26" s="436" t="s">
         <v>489</v>
       </c>
     </row>
@@ -12233,29 +12298,29 @@
       <c r="E27" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="436" t="s">
+      <c r="F27" s="431" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="436"/>
-      <c r="H27" s="509" t="s">
+      <c r="G27" s="431"/>
+      <c r="H27" s="504" t="s">
         <v>773</v>
       </c>
-      <c r="I27" s="407" t="s">
+      <c r="I27" s="406" t="s">
         <v>326</v>
       </c>
-      <c r="K27" s="441" t="s">
+      <c r="K27" s="436" t="s">
         <v>202</v>
       </c>
-      <c r="L27" s="441" t="s">
+      <c r="L27" s="436" t="s">
         <v>559</v>
       </c>
-      <c r="M27" s="441" t="s">
+      <c r="M27" s="436" t="s">
         <v>74</v>
       </c>
-      <c r="N27" s="441" t="s">
+      <c r="N27" s="436" t="s">
         <v>74</v>
       </c>
-      <c r="O27" s="441" t="s">
+      <c r="O27" s="436" t="s">
         <v>494</v>
       </c>
     </row>
@@ -12273,29 +12338,29 @@
       <c r="E28" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="436" t="s">
+      <c r="F28" s="431" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="436"/>
-      <c r="H28" s="509" t="s">
+      <c r="G28" s="431"/>
+      <c r="H28" s="504" t="s">
         <v>774</v>
       </c>
-      <c r="I28" s="407" t="s">
+      <c r="I28" s="406" t="s">
         <v>177</v>
       </c>
-      <c r="K28" s="441" t="s">
+      <c r="K28" s="436" t="s">
         <v>596</v>
       </c>
-      <c r="L28" s="441" t="s">
+      <c r="L28" s="436" t="s">
         <v>144</v>
       </c>
-      <c r="M28" s="441" t="s">
+      <c r="M28" s="436" t="s">
         <v>594</v>
       </c>
-      <c r="N28" s="441" t="s">
+      <c r="N28" s="436" t="s">
         <v>594</v>
       </c>
-      <c r="O28" s="441" t="s">
+      <c r="O28" s="436" t="s">
         <v>619</v>
       </c>
     </row>
@@ -12313,23 +12378,23 @@
       <c r="E29" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="436" t="s">
+      <c r="F29" s="431" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="436" t="s">
+      <c r="G29" s="431" t="s">
         <v>778</v>
       </c>
-      <c r="H29" s="509" t="s">
+      <c r="H29" s="504" t="s">
         <v>776</v>
       </c>
-      <c r="I29" s="407" t="s">
+      <c r="I29" s="406" t="s">
         <v>163</v>
       </c>
-      <c r="K29" s="441"/>
-      <c r="L29" s="441"/>
-      <c r="M29" s="441"/>
-      <c r="N29" s="441"/>
-      <c r="O29" s="441"/>
+      <c r="K29" s="436"/>
+      <c r="L29" s="436"/>
+      <c r="M29" s="436"/>
+      <c r="N29" s="436"/>
+      <c r="O29" s="436"/>
     </row>
     <row r="30" spans="2:15" ht="32.25">
       <c r="B30" s="98">
@@ -12345,21 +12410,21 @@
       <c r="E30" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="F30" s="436" t="s">
+      <c r="F30" s="431" t="s">
         <v>616</v>
       </c>
-      <c r="G30" s="436"/>
-      <c r="H30" s="509" t="s">
+      <c r="G30" s="431"/>
+      <c r="H30" s="504" t="s">
         <v>823</v>
       </c>
-      <c r="I30" s="407" t="s">
+      <c r="I30" s="406" t="s">
         <v>522</v>
       </c>
-      <c r="K30" s="441"/>
-      <c r="L30" s="441"/>
-      <c r="M30" s="441"/>
-      <c r="N30" s="441"/>
-      <c r="O30" s="441"/>
+      <c r="K30" s="436"/>
+      <c r="L30" s="436"/>
+      <c r="M30" s="436"/>
+      <c r="N30" s="436"/>
+      <c r="O30" s="436"/>
     </row>
     <row r="31" spans="2:15" ht="32.25">
       <c r="B31" s="98">
@@ -12375,21 +12440,21 @@
       <c r="E31" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="436" t="s">
+      <c r="F31" s="431" t="s">
         <v>669</v>
       </c>
-      <c r="G31" s="436"/>
-      <c r="H31" s="509" t="s">
+      <c r="G31" s="431"/>
+      <c r="H31" s="504" t="s">
         <v>784</v>
       </c>
-      <c r="I31" s="407" t="s">
+      <c r="I31" s="406" t="s">
         <v>513</v>
       </c>
-      <c r="K31" s="441"/>
-      <c r="L31" s="441"/>
-      <c r="M31" s="441"/>
-      <c r="N31" s="441"/>
-      <c r="O31" s="441"/>
+      <c r="K31" s="436"/>
+      <c r="L31" s="436"/>
+      <c r="M31" s="436"/>
+      <c r="N31" s="436"/>
+      <c r="O31" s="436"/>
     </row>
     <row r="32" spans="2:15" ht="32.25">
       <c r="B32" s="98">
@@ -12405,21 +12470,21 @@
       <c r="E32" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="F32" s="436" t="s">
+      <c r="F32" s="431" t="s">
         <v>640</v>
       </c>
-      <c r="G32" s="436"/>
-      <c r="H32" s="509" t="s">
+      <c r="G32" s="431"/>
+      <c r="H32" s="504" t="s">
         <v>783</v>
       </c>
-      <c r="I32" s="407" t="s">
+      <c r="I32" s="406" t="s">
         <v>518</v>
       </c>
-      <c r="K32" s="441"/>
-      <c r="L32" s="441"/>
-      <c r="M32" s="441"/>
-      <c r="N32" s="441"/>
-      <c r="O32" s="441"/>
+      <c r="K32" s="436"/>
+      <c r="L32" s="436"/>
+      <c r="M32" s="436"/>
+      <c r="N32" s="436"/>
+      <c r="O32" s="436"/>
     </row>
     <row r="33" spans="2:15" ht="32.25">
       <c r="B33" s="98">
@@ -12435,21 +12500,21 @@
       <c r="E33" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="436" t="s">
+      <c r="F33" s="431" t="s">
         <v>641</v>
       </c>
-      <c r="G33" s="436"/>
-      <c r="H33" s="509" t="s">
+      <c r="G33" s="431"/>
+      <c r="H33" s="504" t="s">
         <v>787</v>
       </c>
-      <c r="I33" s="407" t="s">
+      <c r="I33" s="406" t="s">
         <v>276</v>
       </c>
-      <c r="K33" s="441"/>
-      <c r="L33" s="441"/>
-      <c r="M33" s="441"/>
-      <c r="N33" s="441"/>
-      <c r="O33" s="441"/>
+      <c r="K33" s="436"/>
+      <c r="L33" s="436"/>
+      <c r="M33" s="436"/>
+      <c r="N33" s="436"/>
+      <c r="O33" s="436"/>
     </row>
     <row r="34" spans="2:15" ht="32.25">
       <c r="B34" s="98">
@@ -12465,21 +12530,21 @@
       <c r="E34" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="436" t="s">
+      <c r="F34" s="431" t="s">
         <v>642</v>
       </c>
-      <c r="G34" s="436"/>
-      <c r="H34" s="509" t="s">
+      <c r="G34" s="431"/>
+      <c r="H34" s="504" t="s">
         <v>788</v>
       </c>
-      <c r="I34" s="407" t="s">
+      <c r="I34" s="406" t="s">
         <v>273</v>
       </c>
-      <c r="K34" s="441"/>
-      <c r="L34" s="441"/>
-      <c r="M34" s="441"/>
-      <c r="N34" s="441"/>
-      <c r="O34" s="441"/>
+      <c r="K34" s="436"/>
+      <c r="L34" s="436"/>
+      <c r="M34" s="436"/>
+      <c r="N34" s="436"/>
+      <c r="O34" s="436"/>
     </row>
     <row r="35" spans="2:15" ht="32.25">
       <c r="B35" s="98">
@@ -12495,21 +12560,21 @@
       <c r="E35" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="436" t="s">
+      <c r="F35" s="431" t="s">
         <v>643</v>
       </c>
-      <c r="G35" s="436"/>
-      <c r="H35" s="509" t="s">
+      <c r="G35" s="431"/>
+      <c r="H35" s="504" t="s">
         <v>785</v>
       </c>
-      <c r="I35" s="407" t="s">
+      <c r="I35" s="406" t="s">
         <v>270</v>
       </c>
-      <c r="K35" s="441"/>
-      <c r="L35" s="441"/>
-      <c r="M35" s="441"/>
-      <c r="N35" s="441"/>
-      <c r="O35" s="441"/>
+      <c r="K35" s="436"/>
+      <c r="L35" s="436"/>
+      <c r="M35" s="436"/>
+      <c r="N35" s="436"/>
+      <c r="O35" s="436"/>
     </row>
     <row r="36" spans="2:15" ht="32.25">
       <c r="B36" s="98">
@@ -12525,21 +12590,21 @@
       <c r="E36" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="436" t="s">
+      <c r="F36" s="431" t="s">
         <v>644</v>
       </c>
-      <c r="G36" s="436"/>
-      <c r="H36" s="509" t="s">
+      <c r="G36" s="431"/>
+      <c r="H36" s="504" t="s">
         <v>813</v>
       </c>
-      <c r="I36" s="407" t="s">
+      <c r="I36" s="406" t="s">
         <v>268</v>
       </c>
-      <c r="K36" s="441"/>
-      <c r="L36" s="441"/>
-      <c r="M36" s="441"/>
-      <c r="N36" s="441"/>
-      <c r="O36" s="441"/>
+      <c r="K36" s="436"/>
+      <c r="L36" s="436"/>
+      <c r="M36" s="436"/>
+      <c r="N36" s="436"/>
+      <c r="O36" s="436"/>
     </row>
     <row r="37" spans="2:15" ht="32.25">
       <c r="B37" s="98">
@@ -12555,21 +12620,21 @@
       <c r="E37" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="F37" s="436" t="s">
+      <c r="F37" s="431" t="s">
         <v>645</v>
       </c>
-      <c r="G37" s="436"/>
-      <c r="H37" s="509" t="s">
+      <c r="G37" s="431"/>
+      <c r="H37" s="504" t="s">
         <v>814</v>
       </c>
-      <c r="I37" s="407" t="s">
+      <c r="I37" s="406" t="s">
         <v>265</v>
       </c>
-      <c r="K37" s="441"/>
-      <c r="L37" s="441"/>
-      <c r="M37" s="441"/>
-      <c r="N37" s="441"/>
-      <c r="O37" s="441"/>
+      <c r="K37" s="436"/>
+      <c r="L37" s="436"/>
+      <c r="M37" s="436"/>
+      <c r="N37" s="436"/>
+      <c r="O37" s="436"/>
     </row>
     <row r="38" spans="2:15" ht="32.25">
       <c r="B38" s="98">
@@ -12585,21 +12650,21 @@
       <c r="E38" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="436" t="s">
+      <c r="F38" s="431" t="s">
         <v>646</v>
       </c>
-      <c r="G38" s="436"/>
-      <c r="H38" s="509" t="s">
+      <c r="G38" s="431"/>
+      <c r="H38" s="504" t="s">
         <v>815</v>
       </c>
-      <c r="I38" s="407" t="s">
+      <c r="I38" s="406" t="s">
         <v>207</v>
       </c>
-      <c r="K38" s="441"/>
-      <c r="L38" s="441"/>
-      <c r="M38" s="441"/>
-      <c r="N38" s="441"/>
-      <c r="O38" s="441"/>
+      <c r="K38" s="436"/>
+      <c r="L38" s="436"/>
+      <c r="M38" s="436"/>
+      <c r="N38" s="436"/>
+      <c r="O38" s="436"/>
     </row>
     <row r="39" spans="2:15" ht="32.25">
       <c r="B39" s="98">
@@ -12615,21 +12680,21 @@
       <c r="E39" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="436" t="s">
+      <c r="F39" s="431" t="s">
         <v>812</v>
       </c>
-      <c r="G39" s="436"/>
-      <c r="H39" s="509" t="s">
+      <c r="G39" s="431"/>
+      <c r="H39" s="504" t="s">
         <v>811</v>
       </c>
-      <c r="I39" s="407" t="s">
+      <c r="I39" s="406" t="s">
         <v>160</v>
       </c>
-      <c r="K39" s="441"/>
-      <c r="L39" s="441"/>
-      <c r="M39" s="441"/>
-      <c r="N39" s="441"/>
-      <c r="O39" s="441"/>
+      <c r="K39" s="436"/>
+      <c r="L39" s="436"/>
+      <c r="M39" s="436"/>
+      <c r="N39" s="436"/>
+      <c r="O39" s="436"/>
     </row>
     <row r="40" spans="2:15" ht="32.25">
       <c r="B40" s="98">
@@ -12645,21 +12710,21 @@
       <c r="E40" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="436" t="s">
+      <c r="F40" s="431" t="s">
         <v>142</v>
       </c>
-      <c r="G40" s="436"/>
-      <c r="H40" s="509" t="s">
+      <c r="G40" s="431"/>
+      <c r="H40" s="504" t="s">
         <v>818</v>
       </c>
-      <c r="I40" s="407" t="s">
+      <c r="I40" s="406" t="s">
         <v>494</v>
       </c>
-      <c r="K40" s="441"/>
-      <c r="L40" s="441"/>
-      <c r="M40" s="441"/>
-      <c r="N40" s="441"/>
-      <c r="O40" s="441"/>
+      <c r="K40" s="436"/>
+      <c r="L40" s="436"/>
+      <c r="M40" s="436"/>
+      <c r="N40" s="436"/>
+      <c r="O40" s="436"/>
     </row>
     <row r="41" spans="2:15" ht="32.25">
       <c r="B41" s="98">
@@ -12675,21 +12740,21 @@
       <c r="E41" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="436" t="s">
+      <c r="F41" s="431" t="s">
         <v>692</v>
       </c>
-      <c r="G41" s="436"/>
-      <c r="H41" s="557" t="s">
+      <c r="G41" s="431"/>
+      <c r="H41" s="552" t="s">
         <v>749</v>
       </c>
-      <c r="I41" s="407" t="s">
+      <c r="I41" s="406" t="s">
         <v>489</v>
       </c>
-      <c r="K41" s="441"/>
-      <c r="L41" s="441"/>
-      <c r="M41" s="441"/>
-      <c r="N41" s="441"/>
-      <c r="O41" s="441"/>
+      <c r="K41" s="436"/>
+      <c r="L41" s="436"/>
+      <c r="M41" s="436"/>
+      <c r="N41" s="436"/>
+      <c r="O41" s="436"/>
     </row>
     <row r="42" spans="2:15" ht="32.25">
       <c r="B42" s="98">
@@ -12705,21 +12770,21 @@
       <c r="E42" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="F42" s="436" t="s">
+      <c r="F42" s="431" t="s">
         <v>638</v>
       </c>
-      <c r="G42" s="436"/>
-      <c r="H42" s="509" t="s">
+      <c r="G42" s="431"/>
+      <c r="H42" s="504" t="s">
         <v>817</v>
       </c>
-      <c r="I42" s="407" t="s">
+      <c r="I42" s="406" t="s">
         <v>608</v>
       </c>
-      <c r="K42" s="441"/>
-      <c r="L42" s="441"/>
-      <c r="M42" s="441"/>
-      <c r="N42" s="441"/>
-      <c r="O42" s="441"/>
+      <c r="K42" s="436"/>
+      <c r="L42" s="436"/>
+      <c r="M42" s="436"/>
+      <c r="N42" s="436"/>
+      <c r="O42" s="436"/>
     </row>
     <row r="43" spans="2:15" ht="32.25">
       <c r="B43" s="98">
@@ -12729,33 +12794,33 @@
       <c r="C43" s="71" t="s">
         <v>807</v>
       </c>
-      <c r="D43" s="555" t="s">
+      <c r="D43" s="550" t="s">
         <v>806</v>
       </c>
       <c r="E43" s="232" t="s">
         <v>805</v>
       </c>
-      <c r="F43" s="436" t="s">
+      <c r="F43" s="431" t="s">
         <v>808</v>
       </c>
-      <c r="G43" s="436"/>
-      <c r="H43" s="509" t="s">
+      <c r="G43" s="431"/>
+      <c r="H43" s="504" t="s">
         <v>824</v>
       </c>
-      <c r="I43" s="407" t="s">
+      <c r="I43" s="406" t="s">
         <v>619</v>
       </c>
-      <c r="K43" s="441">
+      <c r="K43" s="436">
         <f xml:space="preserve"> _xlfn.UNICODE(注音編碼對照表[[#This Row],[注音符號]])</f>
         <v>63732</v>
       </c>
-      <c r="L43" s="441" t="str">
+      <c r="L43" s="436" t="str">
         <f xml:space="preserve"> DEC2HEX(K43)</f>
         <v>F8F4</v>
       </c>
-      <c r="M43" s="441"/>
-      <c r="N43" s="441"/>
-      <c r="O43" s="441"/>
+      <c r="M43" s="436"/>
+      <c r="N43" s="436"/>
+      <c r="O43" s="436"/>
     </row>
     <row r="44" spans="2:15" ht="32.25">
       <c r="B44" s="98">
@@ -12772,19 +12837,19 @@
       <c r="E44" s="32" t="s">
         <v>532</v>
       </c>
-      <c r="F44" s="436" t="s">
+      <c r="F44" s="431" t="s">
         <v>532</v>
       </c>
-      <c r="G44" s="436"/>
-      <c r="H44" s="509"/>
-      <c r="I44" s="407">
+      <c r="G44" s="431"/>
+      <c r="H44" s="504"/>
+      <c r="I44" s="406">
         <v>1</v>
       </c>
-      <c r="K44" s="441"/>
-      <c r="L44" s="441"/>
-      <c r="M44" s="441"/>
-      <c r="N44" s="441"/>
-      <c r="O44" s="441"/>
+      <c r="K44" s="436"/>
+      <c r="L44" s="436"/>
+      <c r="M44" s="436"/>
+      <c r="N44" s="436"/>
+      <c r="O44" s="436"/>
     </row>
     <row r="45" spans="2:15" ht="32.25">
       <c r="B45" s="98">
@@ -12800,19 +12865,19 @@
       <c r="E45" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="436" t="s">
+      <c r="F45" s="431" t="s">
         <v>104</v>
       </c>
-      <c r="G45" s="436"/>
-      <c r="H45" s="509"/>
-      <c r="I45" s="407">
+      <c r="G45" s="431"/>
+      <c r="H45" s="504"/>
+      <c r="I45" s="406">
         <v>2</v>
       </c>
-      <c r="K45" s="441"/>
-      <c r="L45" s="441"/>
-      <c r="M45" s="441"/>
-      <c r="N45" s="441"/>
-      <c r="O45" s="441"/>
+      <c r="K45" s="436"/>
+      <c r="L45" s="436"/>
+      <c r="M45" s="436"/>
+      <c r="N45" s="436"/>
+      <c r="O45" s="436"/>
     </row>
     <row r="46" spans="2:15" ht="32.25">
       <c r="B46" s="98">
@@ -12828,19 +12893,19 @@
       <c r="E46" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="436" t="s">
+      <c r="F46" s="431" t="s">
         <v>105</v>
       </c>
-      <c r="G46" s="436"/>
-      <c r="H46" s="509"/>
-      <c r="I46" s="407">
+      <c r="G46" s="431"/>
+      <c r="H46" s="504"/>
+      <c r="I46" s="406">
         <v>3</v>
       </c>
-      <c r="K46" s="441"/>
-      <c r="L46" s="441"/>
-      <c r="M46" s="441"/>
-      <c r="N46" s="441"/>
-      <c r="O46" s="441"/>
+      <c r="K46" s="436"/>
+      <c r="L46" s="436"/>
+      <c r="M46" s="436"/>
+      <c r="N46" s="436"/>
+      <c r="O46" s="436"/>
     </row>
     <row r="47" spans="2:15" ht="32.25">
       <c r="B47" s="98">
@@ -12856,19 +12921,19 @@
       <c r="E47" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F47" s="436" t="s">
+      <c r="F47" s="431" t="s">
         <v>106</v>
       </c>
-      <c r="G47" s="436"/>
-      <c r="H47" s="509"/>
-      <c r="I47" s="407">
+      <c r="G47" s="431"/>
+      <c r="H47" s="504"/>
+      <c r="I47" s="406">
         <v>5</v>
       </c>
-      <c r="K47" s="441"/>
-      <c r="L47" s="441"/>
-      <c r="M47" s="441"/>
-      <c r="N47" s="441"/>
-      <c r="O47" s="441"/>
+      <c r="K47" s="436"/>
+      <c r="L47" s="436"/>
+      <c r="M47" s="436"/>
+      <c r="N47" s="436"/>
+      <c r="O47" s="436"/>
     </row>
     <row r="48" spans="2:15" ht="32.25">
       <c r="B48" s="98">
@@ -12884,12 +12949,12 @@
       <c r="E48" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="436" t="s">
+      <c r="F48" s="431" t="s">
         <v>107</v>
       </c>
-      <c r="G48" s="436"/>
-      <c r="H48" s="509"/>
-      <c r="I48" s="407">
+      <c r="G48" s="431"/>
+      <c r="H48" s="504"/>
+      <c r="I48" s="406">
         <v>7</v>
       </c>
       <c r="J48" t="s">
@@ -12919,24 +12984,24 @@
       <c r="E49" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="436" t="s">
+      <c r="F49" s="431" t="s">
         <v>108</v>
       </c>
-      <c r="G49" s="436"/>
-      <c r="H49" s="509"/>
-      <c r="I49" s="407" t="s">
+      <c r="G49" s="431"/>
+      <c r="H49" s="504"/>
+      <c r="I49" s="406" t="s">
         <v>609</v>
       </c>
       <c r="J49" s="347">
         <v>1</v>
       </c>
-      <c r="K49" s="438" t="s">
+      <c r="K49" s="433" t="s">
         <v>532</v>
       </c>
-      <c r="L49" s="438" t="s">
+      <c r="L49" s="433" t="s">
         <v>532</v>
       </c>
-      <c r="M49" s="438" t="s">
+      <c r="M49" s="433" t="s">
         <v>532</v>
       </c>
     </row>
@@ -12956,26 +13021,26 @@
       <c r="E50" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="F50" s="437" t="s">
+      <c r="F50" s="432" t="s">
         <v>128</v>
       </c>
-      <c r="G50" s="437"/>
-      <c r="H50" s="510" t="s">
+      <c r="G50" s="432"/>
+      <c r="H50" s="505" t="s">
         <v>819</v>
       </c>
-      <c r="I50" s="408" t="s">
+      <c r="I50" s="407" t="s">
         <v>629</v>
       </c>
       <c r="J50" s="347">
         <v>2</v>
       </c>
-      <c r="K50" s="438" t="s">
+      <c r="K50" s="433" t="s">
         <v>104</v>
       </c>
-      <c r="L50" s="438" t="s">
+      <c r="L50" s="433" t="s">
         <v>104</v>
       </c>
-      <c r="M50" s="438" t="s">
+      <c r="M50" s="433" t="s">
         <v>104</v>
       </c>
     </row>
@@ -12995,26 +13060,26 @@
       <c r="E51" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="F51" s="437" t="s">
+      <c r="F51" s="432" t="s">
         <v>130</v>
       </c>
-      <c r="G51" s="437"/>
-      <c r="H51" s="510" t="s">
+      <c r="G51" s="432"/>
+      <c r="H51" s="505" t="s">
         <v>820</v>
       </c>
-      <c r="I51" s="408" t="s">
+      <c r="I51" s="407" t="s">
         <v>630</v>
       </c>
       <c r="J51" s="347">
         <v>5</v>
       </c>
-      <c r="K51" s="439" t="s">
+      <c r="K51" s="434" t="s">
         <v>660</v>
       </c>
-      <c r="L51" s="439" t="s">
+      <c r="L51" s="434" t="s">
         <v>661</v>
       </c>
-      <c r="M51" s="439" t="s">
+      <c r="M51" s="434" t="s">
         <v>663</v>
       </c>
     </row>
@@ -13034,26 +13099,26 @@
       <c r="E52" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="F52" s="437" t="s">
+      <c r="F52" s="432" t="s">
         <v>132</v>
       </c>
-      <c r="G52" s="437"/>
-      <c r="H52" s="510" t="s">
+      <c r="G52" s="432"/>
+      <c r="H52" s="505" t="s">
         <v>821</v>
       </c>
-      <c r="I52" s="408" t="s">
+      <c r="I52" s="407" t="s">
         <v>631</v>
       </c>
       <c r="J52" s="347">
         <v>3</v>
       </c>
-      <c r="K52" s="438" t="s">
+      <c r="K52" s="433" t="s">
         <v>106</v>
       </c>
-      <c r="L52" s="438" t="s">
+      <c r="L52" s="433" t="s">
         <v>106</v>
       </c>
-      <c r="M52" s="438" t="s">
+      <c r="M52" s="433" t="s">
         <v>106</v>
       </c>
     </row>
@@ -13073,26 +13138,26 @@
       <c r="E53" s="32" t="s">
         <v>650</v>
       </c>
-      <c r="F53" s="437" t="s">
+      <c r="F53" s="432" t="s">
         <v>134</v>
       </c>
-      <c r="G53" s="437"/>
-      <c r="H53" s="510" t="s">
+      <c r="G53" s="432"/>
+      <c r="H53" s="505" t="s">
         <v>822</v>
       </c>
-      <c r="I53" s="408" t="s">
+      <c r="I53" s="407" t="s">
         <v>632</v>
       </c>
       <c r="J53" s="347">
         <v>7</v>
       </c>
-      <c r="K53" s="439" t="s">
+      <c r="K53" s="434" t="s">
         <v>659</v>
       </c>
-      <c r="L53" s="439" t="s">
+      <c r="L53" s="434" t="s">
         <v>662</v>
       </c>
-      <c r="M53" s="439" t="s">
+      <c r="M53" s="434" t="s">
         <v>664</v>
       </c>
     </row>
@@ -13100,105 +13165,105 @@
       <c r="J54" s="347">
         <v>8</v>
       </c>
-      <c r="K54" s="438" t="s">
+      <c r="K54" s="433" t="s">
         <v>108</v>
       </c>
-      <c r="L54" s="438" t="s">
+      <c r="L54" s="433" t="s">
         <v>108</v>
       </c>
-      <c r="M54" s="438" t="s">
+      <c r="M54" s="433" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="55" spans="2:13" ht="32.25">
-      <c r="B55" s="530">
+      <c r="B55" s="525">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C55" s="531"/>
-      <c r="D55" s="532" t="s">
+      <c r="C55" s="526"/>
+      <c r="D55" s="527" t="s">
         <v>449</v>
       </c>
-      <c r="E55" s="533" t="s">
+      <c r="E55" s="528" t="s">
         <v>89</v>
       </c>
-      <c r="F55" s="534" t="s">
+      <c r="F55" s="529" t="s">
         <v>89</v>
       </c>
-      <c r="G55" s="535"/>
-      <c r="H55" s="536" t="s">
+      <c r="G55" s="530"/>
+      <c r="H55" s="531" t="s">
         <v>755</v>
       </c>
-      <c r="I55" s="537" t="s">
+      <c r="I55" s="532" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="56" spans="2:13" ht="32.25">
-      <c r="B56" s="538">
+      <c r="B56" s="533">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C56" s="539"/>
-      <c r="D56" s="540" t="s">
+      <c r="C56" s="534"/>
+      <c r="D56" s="535" t="s">
         <v>456</v>
       </c>
-      <c r="E56" s="541" t="s">
+      <c r="E56" s="536" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="525" t="s">
+      <c r="F56" s="520" t="s">
         <v>91</v>
       </c>
-      <c r="G56" s="542"/>
-      <c r="H56" s="543" t="s">
+      <c r="G56" s="537"/>
+      <c r="H56" s="538" t="s">
         <v>756</v>
       </c>
-      <c r="I56" s="544" t="s">
+      <c r="I56" s="539" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="57" spans="2:13" ht="32.25">
-      <c r="B57" s="538">
+      <c r="B57" s="533">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C57" s="522"/>
-      <c r="D57" s="523" t="s">
+      <c r="C57" s="517"/>
+      <c r="D57" s="518" t="s">
         <v>249</v>
       </c>
-      <c r="E57" s="524" t="s">
+      <c r="E57" s="519" t="s">
         <v>109</v>
       </c>
-      <c r="F57" s="525" t="s">
+      <c r="F57" s="520" t="s">
         <v>441</v>
       </c>
-      <c r="G57" s="535"/>
-      <c r="H57" s="543" t="s">
+      <c r="G57" s="530"/>
+      <c r="H57" s="538" t="s">
         <v>757</v>
       </c>
-      <c r="I57" s="545" t="s">
+      <c r="I57" s="540" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="32.25">
-      <c r="B58" s="546">
+      <c r="B58" s="541">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C58" s="547"/>
-      <c r="D58" s="548" t="s">
+      <c r="C58" s="542"/>
+      <c r="D58" s="543" t="s">
         <v>460</v>
       </c>
-      <c r="E58" s="549" t="s">
+      <c r="E58" s="544" t="s">
         <v>284</v>
       </c>
-      <c r="F58" s="550" t="s">
+      <c r="F58" s="545" t="s">
         <v>284</v>
       </c>
-      <c r="G58" s="542"/>
-      <c r="H58" s="551" t="s">
+      <c r="G58" s="537"/>
+      <c r="H58" s="546" t="s">
         <v>758</v>
       </c>
-      <c r="I58" s="552" t="s">
+      <c r="I58" s="547" t="s">
         <v>461</v>
       </c>
     </row>
@@ -13213,200 +13278,200 @@
       <c r="I59"/>
     </row>
     <row r="60" spans="2:13" ht="32.25">
-      <c r="B60" s="521">
+      <c r="B60" s="516">
         <f>ROW() - 2</f>
         <v>58</v>
       </c>
-      <c r="C60" s="522" t="str">
+      <c r="C60" s="517" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC30,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="D60" s="523" t="str">
+      <c r="D60" s="518" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC30,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="E60" s="524"/>
-      <c r="F60" s="525" t="s">
+      <c r="E60" s="519"/>
+      <c r="F60" s="520" t="s">
         <v>810</v>
       </c>
-      <c r="G60" s="542" t="s">
+      <c r="G60" s="537" t="s">
         <v>777</v>
       </c>
-      <c r="H60" s="527" t="s">
+      <c r="H60" s="522" t="s">
         <v>775</v>
       </c>
-      <c r="I60" s="556" t="s">
+      <c r="I60" s="551" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="61" spans="2:13" ht="32.25">
-      <c r="B61" s="521">
+      <c r="B61" s="516">
         <f>ROW() - 2</f>
         <v>59</v>
       </c>
-      <c r="C61" s="522" t="str">
+      <c r="C61" s="517" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC31,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="D61" s="523" t="str">
+      <c r="D61" s="518" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC31,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="E61" s="524"/>
-      <c r="F61" s="525" t="s">
+      <c r="E61" s="519"/>
+      <c r="F61" s="520" t="s">
         <v>796</v>
       </c>
-      <c r="G61" s="526"/>
-      <c r="H61" s="527" t="s">
+      <c r="G61" s="521"/>
+      <c r="H61" s="522" t="s">
         <v>797</v>
       </c>
-      <c r="I61" s="528" t="s">
+      <c r="I61" s="523" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="62" spans="2:13" ht="32.25">
-      <c r="B62" s="521">
+      <c r="B62" s="516">
         <f>ROW() - 2</f>
         <v>60</v>
       </c>
-      <c r="C62" s="522" t="str">
+      <c r="C62" s="517" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC32,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="D62" s="523" t="str">
+      <c r="D62" s="518" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC32,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="E62" s="524"/>
-      <c r="F62" s="525" t="s">
+      <c r="E62" s="519"/>
+      <c r="F62" s="520" t="s">
         <v>793</v>
       </c>
-      <c r="G62" s="529"/>
-      <c r="H62" s="527" t="s">
+      <c r="G62" s="524"/>
+      <c r="H62" s="522" t="s">
         <v>794</v>
       </c>
-      <c r="I62" s="528" t="s">
+      <c r="I62" s="523" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="63" spans="2:13" ht="32.25">
-      <c r="B63" s="521">
+      <c r="B63" s="516">
         <f>ROW() - 2</f>
         <v>61</v>
       </c>
-      <c r="C63" s="522" t="str">
+      <c r="C63" s="517" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC34,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="D63" s="523" t="str">
+      <c r="D63" s="518" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC34,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="E63" s="524"/>
-      <c r="F63" s="525" t="s">
+      <c r="E63" s="519"/>
+      <c r="F63" s="520" t="s">
         <v>782</v>
       </c>
-      <c r="G63" s="526" t="s">
+      <c r="G63" s="521" t="s">
         <v>779</v>
       </c>
-      <c r="H63" s="527" t="s">
+      <c r="H63" s="522" t="s">
         <v>780</v>
       </c>
-      <c r="I63" s="528" t="s">
+      <c r="I63" s="523" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="64" spans="2:13" ht="32.25">
-      <c r="B64" s="521">
+      <c r="B64" s="516">
         <f t="shared" ref="B64:B65" si="1">ROW() - 2</f>
         <v>62</v>
       </c>
-      <c r="C64" s="522" t="str">
+      <c r="C64" s="517" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC36,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="D64" s="523" t="str">
+      <c r="D64" s="518" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC36,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="E64" s="524"/>
-      <c r="F64" s="525" t="s">
+      <c r="E64" s="519"/>
+      <c r="F64" s="520" t="s">
         <v>789</v>
       </c>
-      <c r="G64" s="529"/>
-      <c r="H64" s="527" t="s">
+      <c r="G64" s="524"/>
+      <c r="H64" s="522" t="s">
         <v>769</v>
       </c>
-      <c r="I64" s="528" t="s">
+      <c r="I64" s="523" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="32.25">
-      <c r="B65" s="521">
+      <c r="B65" s="516">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="C65" s="522" t="str">
+      <c r="C65" s="517" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC37,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="D65" s="523" t="str">
+      <c r="D65" s="518" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC37,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="E65" s="524"/>
-      <c r="F65" s="525" t="s">
+      <c r="E65" s="519"/>
+      <c r="F65" s="520" t="s">
         <v>790</v>
       </c>
-      <c r="G65" s="526"/>
-      <c r="H65" s="527" t="s">
+      <c r="G65" s="521"/>
+      <c r="H65" s="522" t="s">
         <v>771</v>
       </c>
-      <c r="I65" s="528" t="s">
+      <c r="I65" s="523" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="32.25">
-      <c r="B66" s="521">
+      <c r="B66" s="516">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C66" s="522" t="s">
+      <c r="C66" s="517" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="523" t="s">
+      <c r="D66" s="518" t="s">
         <v>426</v>
       </c>
-      <c r="E66" s="524" t="s">
+      <c r="E66" s="519" t="s">
         <v>125</v>
       </c>
-      <c r="F66" s="525" t="s">
+      <c r="F66" s="520" t="s">
         <v>639</v>
       </c>
-      <c r="G66" s="535"/>
-      <c r="H66" s="527"/>
-      <c r="I66" s="528" t="s">
+      <c r="G66" s="530"/>
+      <c r="H66" s="522"/>
+      <c r="I66" s="523" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="25.5">
-      <c r="D67" s="405"/>
-      <c r="E67" s="440" t="s">
+      <c r="D67" s="404"/>
+      <c r="E67" s="435" t="s">
         <v>670</v>
       </c>
-      <c r="F67" s="434" t="s">
+      <c r="F67" s="429" t="s">
         <v>680</v>
       </c>
-      <c r="G67" s="513" t="s">
+      <c r="G67" s="508" t="s">
         <v>691</v>
       </c>
-      <c r="H67" s="434"/>
-      <c r="I67" s="406" t="s">
+      <c r="H67" s="429"/>
+      <c r="I67" s="405" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="68" spans="2:9">
-      <c r="E68" s="440" t="s">
+      <c r="E68" s="435" t="s">
         <v>671</v>
       </c>
       <c r="F68" s="11" t="s">
@@ -13414,7 +13479,7 @@
       </c>
     </row>
     <row r="69" spans="2:9">
-      <c r="E69" s="440" t="s">
+      <c r="E69" s="435" t="s">
         <v>672</v>
       </c>
       <c r="F69" s="11" t="s">
@@ -13422,7 +13487,7 @@
       </c>
     </row>
     <row r="70" spans="2:9">
-      <c r="E70" s="440" t="s">
+      <c r="E70" s="435" t="s">
         <v>673</v>
       </c>
       <c r="F70" s="11" t="s">
@@ -13430,7 +13495,7 @@
       </c>
     </row>
     <row r="72" spans="2:9">
-      <c r="E72" s="440" t="s">
+      <c r="E72" s="435" t="s">
         <v>674</v>
       </c>
       <c r="F72" s="11" t="s">
@@ -13438,7 +13503,7 @@
       </c>
     </row>
     <row r="73" spans="2:9">
-      <c r="E73" s="440" t="s">
+      <c r="E73" s="435" t="s">
         <v>675</v>
       </c>
       <c r="F73" s="11" t="s">
@@ -13446,7 +13511,7 @@
       </c>
     </row>
     <row r="75" spans="2:9">
-      <c r="E75" s="440" t="s">
+      <c r="E75" s="435" t="s">
         <v>676</v>
       </c>
       <c r="F75" s="11" t="s">
@@ -13454,7 +13519,7 @@
       </c>
     </row>
     <row r="76" spans="2:9">
-      <c r="E76" s="440" t="s">
+      <c r="E76" s="435" t="s">
         <v>677</v>
       </c>
       <c r="F76" s="11" t="s">
@@ -13462,7 +13527,7 @@
       </c>
     </row>
     <row r="77" spans="2:9">
-      <c r="E77" s="440" t="s">
+      <c r="E77" s="435" t="s">
         <v>678</v>
       </c>
       <c r="F77" s="11" t="s">
@@ -13470,7 +13535,7 @@
       </c>
     </row>
     <row r="78" spans="2:9">
-      <c r="E78" s="440" t="s">
+      <c r="E78" s="435" t="s">
         <v>679</v>
       </c>
       <c r="F78" s="11" t="s">
@@ -13524,10 +13589,10 @@
   </sheetPr>
   <dimension ref="B1:DA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="AK17" sqref="AK17"/>
+      <selection pane="bottomLeft" activeCell="BG11" sqref="BG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" outlineLevelCol="1"/>
@@ -13554,19 +13619,19 @@
     <col min="25" max="25" width="9.796875" style="386" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="5.59765625" customWidth="1"/>
     <col min="27" max="27" width="10.296875" style="2" customWidth="1"/>
-    <col min="28" max="29" width="10.296875" style="398" customWidth="1"/>
-    <col min="30" max="30" width="10.296875" style="511" customWidth="1"/>
-    <col min="31" max="31" width="10.296875" style="398" customWidth="1"/>
+    <col min="28" max="29" width="10.296875" style="397" customWidth="1"/>
+    <col min="30" max="30" width="10.296875" style="506" customWidth="1"/>
+    <col min="31" max="31" width="10.296875" style="397" customWidth="1"/>
     <col min="33" max="33" width="14.19921875" customWidth="1"/>
     <col min="34" max="34" width="10.59765625" style="386" customWidth="1"/>
     <col min="35" max="35" width="11.69921875" style="2" customWidth="1"/>
-    <col min="36" max="36" width="13.5" style="398" customWidth="1"/>
+    <col min="36" max="36" width="13.5" style="397" customWidth="1"/>
     <col min="37" max="37" width="4.296875" style="2" customWidth="1"/>
     <col min="38" max="38" width="5.5" style="2" customWidth="1"/>
     <col min="39" max="52" width="8.796875" style="2"/>
     <col min="53" max="53" width="8.796875" style="11"/>
-    <col min="54" max="54" width="12.8984375" style="2" customWidth="1"/>
-    <col min="55" max="57" width="3.69921875" style="414" customWidth="1"/>
+    <col min="54" max="54" width="7.69921875" style="2" customWidth="1"/>
+    <col min="55" max="57" width="3.69921875" style="413" customWidth="1"/>
     <col min="58" max="106" width="3.69921875" style="2" customWidth="1"/>
     <col min="107" max="16384" width="8.796875" style="2"/>
   </cols>
@@ -13595,20 +13660,20 @@
       <c r="AA1" s="139"/>
       <c r="AB1" s="139"/>
       <c r="AC1" s="8"/>
-      <c r="AD1" s="518"/>
+      <c r="AD1" s="513"/>
       <c r="AE1" s="138"/>
       <c r="AF1" s="386"/>
       <c r="AG1" s="386"/>
       <c r="AH1" s="2"/>
-      <c r="AI1" s="398"/>
+      <c r="AI1" s="397"/>
       <c r="AJ1" s="2"/>
       <c r="AY1" s="11"/>
       <c r="BA1" s="2"/>
-      <c r="BB1" s="414"/>
+      <c r="BB1" s="413"/>
       <c r="BE1" s="2"/>
     </row>
     <row r="2" spans="2:105" ht="26.25" thickBot="1">
-      <c r="B2" s="435" t="s">
+      <c r="B2" s="430" t="s">
         <v>653</v>
       </c>
       <c r="I2" s="13" t="s">
@@ -13629,20 +13694,20 @@
       <c r="R2" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="U2" s="397" t="s">
+      <c r="U2" s="396" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="397" t="s">
+      <c r="V2" s="396" t="s">
         <v>628</v>
       </c>
-      <c r="W2" s="397" t="s">
+      <c r="W2" s="396" t="s">
         <v>627</v>
       </c>
-      <c r="X2" s="397" t="s">
+      <c r="X2" s="396" t="s">
         <v>665</v>
       </c>
-      <c r="Y2" s="397"/>
-      <c r="Z2" s="580" t="s">
+      <c r="Y2" s="396"/>
+      <c r="Z2" s="554" t="s">
         <v>14</v>
       </c>
       <c r="AA2" s="380" t="s">
@@ -13654,20 +13719,20 @@
       <c r="AC2" s="381" t="s">
         <v>666</v>
       </c>
-      <c r="AD2" s="519" t="s">
+      <c r="AD2" s="514" t="s">
         <v>667</v>
       </c>
-      <c r="AE2" s="581" t="s">
+      <c r="AE2" s="555" t="s">
         <v>388</v>
       </c>
-      <c r="AF2" s="397"/>
-      <c r="AG2" s="397"/>
+      <c r="AF2" s="396"/>
+      <c r="AG2" s="396"/>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="398"/>
+      <c r="AI2" s="397"/>
       <c r="AJ2" s="2"/>
       <c r="AY2" s="11"/>
       <c r="BA2" s="2"/>
-      <c r="BB2" s="414"/>
+      <c r="BB2" s="413"/>
       <c r="BE2" s="2"/>
     </row>
     <row r="3" spans="2:105" ht="33" thickTop="1">
@@ -13733,23 +13798,23 @@
         <f>ROW() - 2</f>
         <v>1</v>
       </c>
-      <c r="AA3" s="582" t="str">
+      <c r="AA3" s="71" t="str">
         <f>注音編碼對照表!$C3</f>
         <v>1</v>
       </c>
-      <c r="AB3" s="583" t="str" cm="1">
+      <c r="AB3" s="379" t="str" cm="1">
         <f t="array" ref="AB3" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA3, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>p</v>
       </c>
-      <c r="AC3" s="584" t="str" cm="1">
+      <c r="AC3" s="32" t="str" cm="1">
         <f t="array" ref="AC3" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA3, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄅ</v>
       </c>
-      <c r="AD3" s="585" t="str" cm="1">
+      <c r="AD3" s="515" t="str" cm="1">
         <f t="array" ref="AD3" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA3, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄅ</v>
       </c>
-      <c r="AE3" s="466" t="str" cm="1">
+      <c r="AE3" s="461" t="str" cm="1">
         <f t="array" ref="AE3" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA3, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>p</v>
       </c>
@@ -13763,17 +13828,17 @@
         <f xml:space="preserve"> "  alphabet: '" &amp; _xlfn.CONCAT(AA$3:AA$49) &amp; "'"</f>
         <v xml:space="preserve">  alphabet: '1q!a2wsxyhbnedEgcuj8ik,9l0;-UJ*I&lt;(LMo/pm. 43657'</v>
       </c>
-      <c r="AJ3" s="413"/>
-      <c r="AK3" s="413"/>
-      <c r="AL3" s="413"/>
-      <c r="AM3" s="413"/>
-      <c r="AN3" s="413"/>
-      <c r="AO3" s="413"/>
-      <c r="AP3" s="413"/>
-      <c r="AQ3" s="413"/>
+      <c r="AJ3" s="412"/>
+      <c r="AK3" s="412"/>
+      <c r="AL3" s="412"/>
+      <c r="AM3" s="412"/>
+      <c r="AN3" s="412"/>
+      <c r="AO3" s="412"/>
+      <c r="AP3" s="412"/>
+      <c r="AQ3" s="412"/>
       <c r="AY3" s="11"/>
       <c r="BA3" s="2"/>
-      <c r="BB3" s="414"/>
+      <c r="BB3" s="413"/>
       <c r="BE3" s="2"/>
     </row>
     <row r="4" spans="2:105" ht="32.25">
@@ -13839,23 +13904,23 @@
         <f t="shared" ref="Z4:Z58" si="10">ROW() - 2</f>
         <v>2</v>
       </c>
-      <c r="AA4" s="582" t="str">
+      <c r="AA4" s="71" t="str">
         <f>注音編碼對照表!$C4</f>
         <v>q</v>
       </c>
-      <c r="AB4" s="583" t="str" cm="1">
+      <c r="AB4" s="379" t="str" cm="1">
         <f t="array" ref="AB4" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA4, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>P</v>
       </c>
-      <c r="AC4" s="584" t="str" cm="1">
+      <c r="AC4" s="32" t="str" cm="1">
         <f t="array" ref="AC4" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA4, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄆ</v>
       </c>
-      <c r="AD4" s="585" t="str" cm="1">
+      <c r="AD4" s="515" t="str" cm="1">
         <f t="array" ref="AD4" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA4, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄆ</v>
       </c>
-      <c r="AE4" s="466" t="str" cm="1">
+      <c r="AE4" s="461" t="str" cm="1">
         <f t="array" ref="AE4" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA4, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ph</v>
       </c>
@@ -13869,17 +13934,17 @@
         <f xml:space="preserve"> "  initials: '" &amp; _xlfn.CONCAT(AA$3:AA$43) &amp; "'"</f>
         <v xml:space="preserve">  initials: '1q!a2wsxyhbnedEgcuj8ik,9l0;-UJ*I&lt;(LMo/pm.'</v>
       </c>
-      <c r="AJ4" s="413"/>
-      <c r="AK4" s="413"/>
-      <c r="AL4" s="413"/>
-      <c r="AM4" s="413"/>
-      <c r="AN4" s="413"/>
-      <c r="AO4" s="413"/>
-      <c r="AP4" s="413"/>
-      <c r="AQ4" s="413"/>
+      <c r="AJ4" s="412"/>
+      <c r="AK4" s="412"/>
+      <c r="AL4" s="412"/>
+      <c r="AM4" s="412"/>
+      <c r="AN4" s="412"/>
+      <c r="AO4" s="412"/>
+      <c r="AP4" s="412"/>
+      <c r="AQ4" s="412"/>
       <c r="AY4" s="11"/>
       <c r="BA4" s="2"/>
-      <c r="BB4" s="414"/>
+      <c r="BB4" s="413"/>
       <c r="BE4" s="2"/>
     </row>
     <row r="5" spans="2:105" ht="32.25">
@@ -13945,23 +14010,23 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="AA5" s="582" t="str">
+      <c r="AA5" s="71" t="str">
         <f>注音編碼對照表!$C5</f>
         <v>!</v>
       </c>
-      <c r="AB5" s="583" t="str" cm="1">
+      <c r="AB5" s="379" t="str" cm="1">
         <f t="array" ref="AB5" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA5, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>b</v>
       </c>
-      <c r="AC5" s="584" t="str" cm="1">
+      <c r="AC5" s="32" t="str" cm="1">
         <f t="array" ref="AC5" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA5, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㆠ</v>
       </c>
-      <c r="AD5" s="585" t="str" cm="1">
+      <c r="AD5" s="515" t="str" cm="1">
         <f t="array" ref="AD5" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA5, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄅㆷ</v>
       </c>
-      <c r="AE5" s="466" t="str" cm="1">
+      <c r="AE5" s="461" t="str" cm="1">
         <f t="array" ref="AE5" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA5, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>b</v>
       </c>
@@ -13975,17 +14040,17 @@
         <f xml:space="preserve"> "  finals:   '" &amp; _xlfn.CONCAT(AA$44:AA$49) &amp; "'"</f>
         <v xml:space="preserve">  finals:   ' 43657'</v>
       </c>
-      <c r="AJ5" s="413"/>
-      <c r="AK5" s="413"/>
-      <c r="AL5" s="413"/>
-      <c r="AM5" s="413"/>
-      <c r="AN5" s="413"/>
-      <c r="AO5" s="413"/>
-      <c r="AP5" s="413"/>
-      <c r="AQ5" s="413"/>
+      <c r="AJ5" s="412"/>
+      <c r="AK5" s="412"/>
+      <c r="AL5" s="412"/>
+      <c r="AM5" s="412"/>
+      <c r="AN5" s="412"/>
+      <c r="AO5" s="412"/>
+      <c r="AP5" s="412"/>
+      <c r="AQ5" s="412"/>
       <c r="AY5" s="11"/>
       <c r="BA5" s="2"/>
-      <c r="BB5" s="414"/>
+      <c r="BB5" s="413"/>
       <c r="BE5" s="2"/>
     </row>
     <row r="6" spans="2:105" ht="32.25">
@@ -14055,23 +14120,23 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="AA6" s="582" t="str">
+      <c r="AA6" s="71" t="str">
         <f>注音編碼對照表!$C6</f>
         <v>a</v>
       </c>
-      <c r="AB6" s="583" t="str" cm="1">
+      <c r="AB6" s="379" t="str" cm="1">
         <f t="array" ref="AB6" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA6, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>m</v>
       </c>
-      <c r="AC6" s="584" t="str" cm="1">
+      <c r="AC6" s="32" t="str" cm="1">
         <f t="array" ref="AC6" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA6, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄇ</v>
       </c>
-      <c r="AD6" s="585" t="str" cm="1">
+      <c r="AD6" s="515" t="str" cm="1">
         <f t="array" ref="AD6" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA6, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄇ</v>
       </c>
-      <c r="AE6" s="466" t="str" cm="1">
+      <c r="AE6" s="461" t="str" cm="1">
         <f t="array" ref="AE6" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA6, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>m</v>
       </c>
@@ -14081,11 +14146,11 @@
         <v>"a" : ㄇ</v>
       </c>
       <c r="AH6" s="2"/>
-      <c r="AI6" s="398"/>
+      <c r="AI6" s="397"/>
       <c r="AJ6" s="2"/>
       <c r="AY6" s="11"/>
       <c r="BA6" s="2"/>
-      <c r="BB6" s="414"/>
+      <c r="BB6" s="413"/>
       <c r="BE6" s="2"/>
     </row>
     <row r="7" spans="2:105" ht="32.25">
@@ -14155,23 +14220,23 @@
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="AA7" s="582" t="str">
+      <c r="AA7" s="71" t="str">
         <f>注音編碼對照表!$C7</f>
         <v>2</v>
       </c>
-      <c r="AB7" s="583" t="str" cm="1">
+      <c r="AB7" s="379" t="str" cm="1">
         <f t="array" ref="AB7" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA7, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>t</v>
       </c>
-      <c r="AC7" s="584" t="str" cm="1">
+      <c r="AC7" s="32" t="str" cm="1">
         <f t="array" ref="AC7" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA7, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄉ</v>
       </c>
-      <c r="AD7" s="585" t="str" cm="1">
+      <c r="AD7" s="515" t="str" cm="1">
         <f t="array" ref="AD7" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA7, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄉ</v>
       </c>
-      <c r="AE7" s="466" t="str" cm="1">
+      <c r="AE7" s="461" t="str" cm="1">
         <f t="array" ref="AE7" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA7, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>t</v>
       </c>
@@ -14181,11 +14246,11 @@
         <v>"2" : ㄉ</v>
       </c>
       <c r="AH7" s="2"/>
-      <c r="AI7" s="398"/>
+      <c r="AI7" s="397"/>
       <c r="AJ7" s="2"/>
       <c r="AY7" s="11"/>
       <c r="BA7" s="2"/>
-      <c r="BB7" s="414"/>
+      <c r="BB7" s="413"/>
       <c r="BE7" s="2"/>
     </row>
     <row r="8" spans="2:105" ht="32.25">
@@ -14247,23 +14312,23 @@
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="AA8" s="582" t="str">
+      <c r="AA8" s="71" t="str">
         <f>注音編碼對照表!$C8</f>
         <v>w</v>
       </c>
-      <c r="AB8" s="583" t="str" cm="1">
+      <c r="AB8" s="379" t="str" cm="1">
         <f t="array" ref="AB8" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA8, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>T</v>
       </c>
-      <c r="AC8" s="584" t="str" cm="1">
+      <c r="AC8" s="32" t="str" cm="1">
         <f t="array" ref="AC8" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA8, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄊ</v>
       </c>
-      <c r="AD8" s="585" t="str" cm="1">
+      <c r="AD8" s="515" t="str" cm="1">
         <f t="array" ref="AD8" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA8, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄊ</v>
       </c>
-      <c r="AE8" s="466" t="str" cm="1">
+      <c r="AE8" s="461" t="str" cm="1">
         <f t="array" ref="AE8" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA8, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>th</v>
       </c>
@@ -14273,11 +14338,11 @@
         <v>"w" : ㄊ</v>
       </c>
       <c r="AH8" s="2"/>
-      <c r="AI8" s="399" t="s">
+      <c r="AI8" s="398" t="s">
         <v>636</v>
       </c>
       <c r="AJ8" s="2"/>
-      <c r="AK8" s="427" t="str">
+      <c r="AK8" s="423" t="str">
         <f xml:space="preserve"> """xlit|" &amp; AK9 &amp; "|" &amp; AK10 &amp; "|"""</f>
         <v>"xlit|pPbmtTnlzcjskKgwhiuaOoeyx@GRIUAQEYXVHWNMB123570|1q!a2wsxyhbnedEgcuj8ik,9l0;-UJ*I&lt;(LMo/pm. 43657|"</v>
       </c>
@@ -14294,213 +14359,213 @@
       <c r="AV8" s="47"/>
       <c r="AW8" s="47"/>
       <c r="AX8" s="47"/>
-      <c r="AY8" s="430"/>
+      <c r="AY8" s="426"/>
       <c r="BA8" s="2"/>
-      <c r="BB8" s="419" cm="1">
+      <c r="BB8" s="587" cm="1">
         <f t="array" ref="BB8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>0</v>
       </c>
-      <c r="BC8" s="419" cm="1">
+      <c r="BC8" s="587" cm="1">
         <f t="array" ref="BC8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>1</v>
       </c>
-      <c r="BD8" s="419" cm="1">
+      <c r="BD8" s="587" cm="1">
         <f t="array" ref="BD8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>2</v>
       </c>
-      <c r="BE8" s="419" cm="1">
+      <c r="BE8" s="587" cm="1">
         <f t="array" ref="BE8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>3</v>
       </c>
-      <c r="BF8" s="419" cm="1">
+      <c r="BF8" s="587" cm="1">
         <f t="array" ref="BF8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>4</v>
       </c>
-      <c r="BG8" s="419" cm="1">
+      <c r="BG8" s="587" cm="1">
         <f t="array" ref="BG8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>5</v>
       </c>
-      <c r="BH8" s="419" cm="1">
+      <c r="BH8" s="587" cm="1">
         <f t="array" ref="BH8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>6</v>
       </c>
-      <c r="BI8" s="419" cm="1">
+      <c r="BI8" s="587" cm="1">
         <f t="array" ref="BI8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>7</v>
       </c>
-      <c r="BJ8" s="419" cm="1">
+      <c r="BJ8" s="587" cm="1">
         <f t="array" ref="BJ8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>8</v>
       </c>
-      <c r="BK8" s="419" cm="1">
+      <c r="BK8" s="587" cm="1">
         <f t="array" ref="BK8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>9</v>
       </c>
-      <c r="BL8" s="419" cm="1">
+      <c r="BL8" s="587" cm="1">
         <f t="array" ref="BL8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>10</v>
       </c>
-      <c r="BM8" s="419" cm="1">
+      <c r="BM8" s="587" cm="1">
         <f t="array" ref="BM8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>11</v>
       </c>
-      <c r="BN8" s="419" cm="1">
+      <c r="BN8" s="587" cm="1">
         <f t="array" ref="BN8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>12</v>
       </c>
-      <c r="BO8" s="419" cm="1">
+      <c r="BO8" s="587" cm="1">
         <f t="array" ref="BO8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>13</v>
       </c>
-      <c r="BP8" s="419" cm="1">
+      <c r="BP8" s="587" cm="1">
         <f t="array" ref="BP8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>14</v>
       </c>
-      <c r="BQ8" s="419" cm="1">
+      <c r="BQ8" s="587" cm="1">
         <f t="array" ref="BQ8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>15</v>
       </c>
-      <c r="BR8" s="419" cm="1">
+      <c r="BR8" s="587" cm="1">
         <f t="array" ref="BR8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>16</v>
       </c>
-      <c r="BS8" s="419" cm="1">
+      <c r="BS8" s="587" cm="1">
         <f t="array" ref="BS8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>17</v>
       </c>
-      <c r="BT8" s="419" cm="1">
+      <c r="BT8" s="587" cm="1">
         <f t="array" ref="BT8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>18</v>
       </c>
-      <c r="BU8" s="419" cm="1">
+      <c r="BU8" s="587" cm="1">
         <f t="array" ref="BU8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>19</v>
       </c>
-      <c r="BV8" s="419" cm="1">
+      <c r="BV8" s="587" cm="1">
         <f t="array" ref="BV8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>20</v>
       </c>
-      <c r="BW8" s="419" cm="1">
+      <c r="BW8" s="587" cm="1">
         <f t="array" ref="BW8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>21</v>
       </c>
-      <c r="BX8" s="419" cm="1">
+      <c r="BX8" s="587" cm="1">
         <f t="array" ref="BX8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>22</v>
       </c>
-      <c r="BY8" s="419" cm="1">
+      <c r="BY8" s="587" cm="1">
         <f t="array" ref="BY8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>23</v>
       </c>
-      <c r="BZ8" s="419" cm="1">
+      <c r="BZ8" s="587" cm="1">
         <f t="array" ref="BZ8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>24</v>
       </c>
-      <c r="CA8" s="419" cm="1">
+      <c r="CA8" s="587" cm="1">
         <f t="array" ref="CA8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>25</v>
       </c>
-      <c r="CB8" s="419" cm="1">
+      <c r="CB8" s="587" cm="1">
         <f t="array" ref="CB8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>26</v>
       </c>
-      <c r="CC8" s="419" cm="1">
+      <c r="CC8" s="587" cm="1">
         <f t="array" ref="CC8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>27</v>
       </c>
-      <c r="CD8" s="419" cm="1">
+      <c r="CD8" s="587" cm="1">
         <f t="array" ref="CD8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>28</v>
       </c>
-      <c r="CE8" s="419" cm="1">
+      <c r="CE8" s="587" cm="1">
         <f t="array" ref="CE8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>29</v>
       </c>
-      <c r="CF8" s="419" cm="1">
+      <c r="CF8" s="587" cm="1">
         <f t="array" ref="CF8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>30</v>
       </c>
-      <c r="CG8" s="419" cm="1">
+      <c r="CG8" s="587" cm="1">
         <f t="array" ref="CG8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>31</v>
       </c>
-      <c r="CH8" s="419" cm="1">
+      <c r="CH8" s="587" cm="1">
         <f t="array" ref="CH8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>32</v>
       </c>
-      <c r="CI8" s="419" cm="1">
+      <c r="CI8" s="587" cm="1">
         <f t="array" ref="CI8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>33</v>
       </c>
-      <c r="CJ8" s="419" cm="1">
+      <c r="CJ8" s="587" cm="1">
         <f t="array" ref="CJ8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>34</v>
       </c>
-      <c r="CK8" s="419" cm="1">
+      <c r="CK8" s="587" cm="1">
         <f t="array" ref="CK8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>35</v>
       </c>
-      <c r="CL8" s="419" cm="1">
+      <c r="CL8" s="587" cm="1">
         <f t="array" ref="CL8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>36</v>
       </c>
-      <c r="CM8" s="419" cm="1">
+      <c r="CM8" s="587" cm="1">
         <f t="array" ref="CM8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>37</v>
       </c>
-      <c r="CN8" s="419" cm="1">
+      <c r="CN8" s="587" cm="1">
         <f t="array" ref="CN8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>38</v>
       </c>
-      <c r="CO8" s="419" cm="1">
+      <c r="CO8" s="587" cm="1">
         <f t="array" ref="CO8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>39</v>
       </c>
-      <c r="CP8" s="419" cm="1">
+      <c r="CP8" s="587" cm="1">
         <f t="array" ref="CP8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>40</v>
       </c>
-      <c r="CQ8" s="419" cm="1">
+      <c r="CQ8" s="587" cm="1">
         <f t="array" ref="CQ8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>41</v>
       </c>
-      <c r="CR8" s="419" cm="1">
+      <c r="CR8" s="587" cm="1">
         <f t="array" ref="CR8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>42</v>
       </c>
-      <c r="CS8" s="419" cm="1">
+      <c r="CS8" s="587" cm="1">
         <f t="array" ref="CS8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>43</v>
       </c>
-      <c r="CT8" s="419" cm="1">
+      <c r="CT8" s="587" cm="1">
         <f t="array" ref="CT8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>44</v>
       </c>
-      <c r="CU8" s="419" cm="1">
+      <c r="CU8" s="587" cm="1">
         <f t="array" ref="CU8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>45</v>
       </c>
-      <c r="CV8" s="419" cm="1">
+      <c r="CV8" s="587" cm="1">
         <f t="array" ref="CV8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>46</v>
       </c>
-      <c r="CW8" s="419" cm="1">
+      <c r="CW8" s="587" cm="1">
         <f t="array" ref="CW8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>47</v>
       </c>
-      <c r="CX8" s="419" cm="1">
+      <c r="CX8" s="587" cm="1">
         <f t="array" ref="CX8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>48</v>
       </c>
-      <c r="CY8" s="419" cm="1">
+      <c r="CY8" s="587" cm="1">
         <f t="array" ref="CY8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>49</v>
       </c>
-      <c r="CZ8" s="419" cm="1">
+      <c r="CZ8" s="587" cm="1">
         <f t="array" ref="CZ8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>50</v>
       </c>
-      <c r="DA8" s="419" cm="1">
+      <c r="DA8" s="587" cm="1">
         <f t="array" ref="DA8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>51</v>
       </c>
@@ -14564,23 +14629,23 @@
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="AA9" s="582" t="str">
+      <c r="AA9" s="71" t="str">
         <f>注音編碼對照表!$C9</f>
         <v>s</v>
       </c>
-      <c r="AB9" s="583" t="str" cm="1">
+      <c r="AB9" s="379" t="str" cm="1">
         <f t="array" ref="AB9" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA9, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>n</v>
       </c>
-      <c r="AC9" s="584" t="str" cm="1">
+      <c r="AC9" s="32" t="str" cm="1">
         <f t="array" ref="AC9" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA9, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄋ</v>
       </c>
-      <c r="AD9" s="585" t="str" cm="1">
+      <c r="AD9" s="515" t="str" cm="1">
         <f t="array" ref="AD9" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA9, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄋ</v>
       </c>
-      <c r="AE9" s="466" t="str" cm="1">
+      <c r="AE9" s="461" t="str" cm="1">
         <f t="array" ref="AE9" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA9, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>n</v>
       </c>
@@ -14590,233 +14655,242 @@
         <v>"s" : ㄋ</v>
       </c>
       <c r="AH9" s="2"/>
-      <c r="AI9" s="400" t="s">
+      <c r="AI9" s="399" t="s">
         <v>628</v>
       </c>
       <c r="AJ9" s="1">
         <f xml:space="preserve"> LEN(AK9)</f>
         <v>47</v>
       </c>
-      <c r="AK9" s="37" t="str">
+      <c r="AK9" s="577" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(AB$3:AB$49)</f>
         <v>pPbmtTnlzcjskKgwhiuaOoeyx@GRIUAQEYXVHWNMB123570</v>
       </c>
+      <c r="AL9" s="578"/>
+      <c r="AM9" s="578"/>
+      <c r="AN9" s="578"/>
+      <c r="AO9" s="578"/>
+      <c r="AP9" s="578"/>
+      <c r="AQ9" s="578"/>
+      <c r="AR9" s="578"/>
+      <c r="AS9" s="578"/>
+      <c r="AT9" s="578"/>
+      <c r="AU9" s="578"/>
+      <c r="AV9" s="578"/>
+      <c r="AW9" s="578"/>
       <c r="AX9" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AY9" s="431" t="s">
-        <v>365</v>
+      <c r="AY9" s="427" t="s">
+        <v>230</v>
       </c>
       <c r="AZ9" s="40">
         <f xml:space="preserve"> FIND(AY9, AK9)</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="BA9" s="2"/>
-      <c r="BB9" s="415" t="e">
-        <f t="shared" ref="BB9:CG9" si="11" xml:space="preserve"> MID($AK$9, BB$13, 1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BC9" s="415" t="str">
-        <f t="shared" si="11"/>
+      <c r="BB9" s="588"/>
+      <c r="BC9" s="589" t="str">
+        <f xml:space="preserve"> MID($AK$9, BC$8, 1)</f>
         <v>p</v>
       </c>
-      <c r="BD9" s="415" t="str">
-        <f t="shared" si="11"/>
+      <c r="BD9" s="589" t="str">
+        <f t="shared" ref="BD9:CX9" si="11" xml:space="preserve"> MID($AK$9, BD$8, 1)</f>
         <v>P</v>
       </c>
-      <c r="BE9" s="415" t="str">
+      <c r="BE9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>b</v>
       </c>
-      <c r="BF9" s="415" t="str">
+      <c r="BF9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>m</v>
       </c>
-      <c r="BG9" s="415" t="str">
+      <c r="BG9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>t</v>
       </c>
-      <c r="BH9" s="415" t="str">
+      <c r="BH9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>T</v>
       </c>
-      <c r="BI9" s="415" t="str">
+      <c r="BI9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>n</v>
       </c>
-      <c r="BJ9" s="415" t="str">
+      <c r="BJ9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>l</v>
       </c>
-      <c r="BK9" s="415" t="str">
+      <c r="BK9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>z</v>
       </c>
-      <c r="BL9" s="415" t="str">
+      <c r="BL9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>c</v>
       </c>
-      <c r="BM9" s="415" t="str">
+      <c r="BM9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>j</v>
       </c>
-      <c r="BN9" s="415" t="str">
+      <c r="BN9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>s</v>
       </c>
-      <c r="BO9" s="415" t="str">
+      <c r="BO9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>k</v>
       </c>
-      <c r="BP9" s="415" t="str">
+      <c r="BP9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>K</v>
       </c>
-      <c r="BQ9" s="415" t="str">
+      <c r="BQ9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>g</v>
       </c>
-      <c r="BR9" s="415" t="str">
+      <c r="BR9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>w</v>
       </c>
-      <c r="BS9" s="415" t="str">
+      <c r="BS9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>h</v>
       </c>
-      <c r="BT9" s="415" t="str">
+      <c r="BT9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>i</v>
       </c>
-      <c r="BU9" s="415" t="str">
+      <c r="BU9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>u</v>
       </c>
-      <c r="BV9" s="415" t="str">
+      <c r="BV9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>a</v>
       </c>
-      <c r="BW9" s="415" t="str">
+      <c r="BW9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>O</v>
       </c>
-      <c r="BX9" s="415" t="str">
+      <c r="BX9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>o</v>
       </c>
-      <c r="BY9" s="415" t="str">
+      <c r="BY9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>e</v>
       </c>
-      <c r="BZ9" s="415" t="str">
+      <c r="BZ9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>y</v>
       </c>
-      <c r="CA9" s="415" t="str">
+      <c r="CA9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="CB9" s="415" t="str">
+      <c r="CB9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>@</v>
       </c>
-      <c r="CC9" s="415" t="str">
+      <c r="CC9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>G</v>
       </c>
-      <c r="CD9" s="415" t="str">
+      <c r="CD9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>R</v>
       </c>
-      <c r="CE9" s="418" t="str">
+      <c r="CE9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>I</v>
       </c>
-      <c r="CF9" s="415" t="str">
+      <c r="CF9" s="590" t="str">
         <f t="shared" si="11"/>
         <v>U</v>
       </c>
-      <c r="CG9" s="415" t="str">
+      <c r="CG9" s="589" t="str">
         <f t="shared" si="11"/>
         <v>A</v>
       </c>
-      <c r="CH9" s="415" t="str">
-        <f t="shared" ref="CH9:DA9" si="12" xml:space="preserve"> MID($AK$9, CH$13, 1)</f>
+      <c r="CH9" s="589" t="str">
+        <f t="shared" si="11"/>
         <v>Q</v>
       </c>
-      <c r="CI9" s="415" t="str">
-        <f t="shared" si="12"/>
+      <c r="CI9" s="589" t="str">
+        <f t="shared" si="11"/>
         <v>E</v>
       </c>
-      <c r="CJ9" s="415" t="str">
-        <f t="shared" si="12"/>
+      <c r="CJ9" s="589" t="str">
+        <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="CK9" s="415" t="str">
-        <f t="shared" si="12"/>
+      <c r="CK9" s="589" t="str">
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="CL9" s="415" t="str">
-        <f t="shared" si="12"/>
+      <c r="CL9" s="589" t="str">
+        <f t="shared" si="11"/>
         <v>V</v>
       </c>
-      <c r="CM9" s="415" t="str">
-        <f t="shared" si="12"/>
+      <c r="CM9" s="589" t="str">
+        <f t="shared" si="11"/>
         <v>H</v>
       </c>
-      <c r="CN9" s="415" t="str">
-        <f t="shared" si="12"/>
+      <c r="CN9" s="589" t="str">
+        <f t="shared" si="11"/>
         <v>W</v>
       </c>
-      <c r="CO9" s="415" t="str">
-        <f t="shared" si="12"/>
+      <c r="CO9" s="589" t="str">
+        <f t="shared" si="11"/>
         <v>N</v>
       </c>
-      <c r="CP9" s="418" t="str">
-        <f t="shared" si="12"/>
+      <c r="CP9" s="589" t="str">
+        <f t="shared" si="11"/>
         <v>M</v>
       </c>
-      <c r="CQ9" s="418" t="str">
-        <f t="shared" si="12"/>
+      <c r="CQ9" s="590" t="str">
+        <f t="shared" si="11"/>
         <v>B</v>
       </c>
-      <c r="CR9" s="418" t="str">
-        <f t="shared" si="12"/>
+      <c r="CR9" s="589" t="str">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="CS9" s="418" t="str">
-        <f t="shared" si="12"/>
+      <c r="CS9" s="589" t="str">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="CT9" s="418" t="str">
-        <f t="shared" si="12"/>
+      <c r="CT9" s="589" t="str">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="CU9" s="433" t="str">
-        <f t="shared" si="12"/>
+      <c r="CU9" s="589" t="str">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="CV9" s="415" t="str">
-        <f t="shared" si="12"/>
+      <c r="CV9" s="589" t="str">
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="CW9" s="415" t="str">
-        <f t="shared" si="12"/>
+      <c r="CW9" s="589" t="str">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="CX9" s="415" t="str">
+      <c r="CX9" s="591" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="CY9" s="591" t="str">
+        <f t="shared" ref="CH9:DA9" si="12" xml:space="preserve"> MID($AK$9, CY$13, 1)</f>
+        <v/>
+      </c>
+      <c r="CZ9" s="591" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="CY9" s="415" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="CZ9" s="415" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="DA9" s="415" t="str">
+      <c r="DA9" s="591" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -14883,23 +14957,23 @@
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="AA10" s="582" t="str">
+      <c r="AA10" s="71" t="str">
         <f>注音編碼對照表!$C10</f>
         <v>x</v>
       </c>
-      <c r="AB10" s="583" t="str" cm="1">
+      <c r="AB10" s="379" t="str" cm="1">
         <f t="array" ref="AB10" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA10, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>l</v>
       </c>
-      <c r="AC10" s="584" t="str" cm="1">
+      <c r="AC10" s="32" t="str" cm="1">
         <f t="array" ref="AC10" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA10, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄌ</v>
       </c>
-      <c r="AD10" s="585" t="str" cm="1">
+      <c r="AD10" s="515" t="str" cm="1">
         <f t="array" ref="AD10" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA10, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄌ</v>
       </c>
-      <c r="AE10" s="466" t="str" cm="1">
+      <c r="AE10" s="461" t="str" cm="1">
         <f t="array" ref="AE10" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA10, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>l</v>
       </c>
@@ -14909,232 +14983,240 @@
         <v>"x" : ㄌ</v>
       </c>
       <c r="AH10" s="2"/>
-      <c r="AI10" s="401" t="s">
+      <c r="AI10" s="400" t="s">
         <v>11</v>
       </c>
       <c r="AJ10" s="1">
         <f xml:space="preserve"> LEN(AK10)</f>
         <v>47</v>
       </c>
-      <c r="AK10" s="37" t="str">
+      <c r="AK10" s="577" t="str">
         <f>_xlfn.CONCAT(AA3:AA49)</f>
         <v>1q!a2wsxyhbnedEgcuj8ik,9l0;-UJ*I&lt;(LMo/pm. 43657</v>
       </c>
-      <c r="AT10" s="48" t="str">
+      <c r="AL10" s="578"/>
+      <c r="AM10" s="578"/>
+      <c r="AN10" s="578"/>
+      <c r="AO10" s="578"/>
+      <c r="AP10" s="578"/>
+      <c r="AQ10" s="578"/>
+      <c r="AR10" s="578"/>
+      <c r="AS10" s="578"/>
+      <c r="AT10" s="579" t="str">
         <f xml:space="preserve"> MID("/", AJ9, 1)</f>
         <v/>
       </c>
+      <c r="AU10" s="578"/>
+      <c r="AV10" s="578"/>
+      <c r="AW10" s="578"/>
       <c r="AY10" s="49" t="str">
         <f xml:space="preserve"> MID(AK10, AZ9, 1)</f>
-        <v>5</v>
+        <v>J</v>
       </c>
       <c r="AZ10" s="40"/>
       <c r="BA10" s="2"/>
-      <c r="BB10" s="415" t="e">
-        <f t="shared" ref="BB10:CG10" si="13" xml:space="preserve"> MID($AK$10, BB$13, 1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BC10" s="415" t="str">
-        <f t="shared" si="13"/>
+      <c r="BB10" s="588"/>
+      <c r="BC10" s="589" t="str">
+        <f xml:space="preserve"> MID($AK$10, BC$8, 1)</f>
         <v>1</v>
       </c>
-      <c r="BD10" s="415" t="str">
-        <f t="shared" si="13"/>
+      <c r="BD10" s="589" t="str">
+        <f t="shared" ref="BD10:CX10" si="13" xml:space="preserve"> MID($AK$10, BD$8, 1)</f>
         <v>q</v>
       </c>
-      <c r="BE10" s="415" t="str">
+      <c r="BE10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>!</v>
       </c>
-      <c r="BF10" s="415" t="str">
+      <c r="BF10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>a</v>
       </c>
-      <c r="BG10" s="415" t="str">
+      <c r="BG10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="BH10" s="415" t="str">
+      <c r="BH10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>w</v>
       </c>
-      <c r="BI10" s="415" t="str">
+      <c r="BI10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>s</v>
       </c>
-      <c r="BJ10" s="415" t="str">
+      <c r="BJ10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>x</v>
       </c>
-      <c r="BK10" s="415" t="str">
+      <c r="BK10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>y</v>
       </c>
-      <c r="BL10" s="415" t="str">
+      <c r="BL10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>h</v>
       </c>
-      <c r="BM10" s="415" t="str">
+      <c r="BM10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>b</v>
       </c>
-      <c r="BN10" s="415" t="str">
+      <c r="BN10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>n</v>
       </c>
-      <c r="BO10" s="415" t="str">
+      <c r="BO10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>e</v>
       </c>
-      <c r="BP10" s="415" t="str">
+      <c r="BP10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>d</v>
       </c>
-      <c r="BQ10" s="415" t="str">
+      <c r="BQ10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>E</v>
       </c>
-      <c r="BR10" s="415" t="str">
+      <c r="BR10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>g</v>
       </c>
-      <c r="BS10" s="415" t="str">
+      <c r="BS10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>c</v>
       </c>
-      <c r="BT10" s="415" t="str">
+      <c r="BT10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>u</v>
       </c>
-      <c r="BU10" s="415" t="str">
+      <c r="BU10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>j</v>
       </c>
-      <c r="BV10" s="415" t="str">
+      <c r="BV10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="BW10" s="415" t="str">
+      <c r="BW10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>i</v>
       </c>
-      <c r="BX10" s="415" t="str">
+      <c r="BX10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>k</v>
       </c>
-      <c r="BY10" s="415" t="str">
+      <c r="BY10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>,</v>
       </c>
-      <c r="BZ10" s="415" t="str">
+      <c r="BZ10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="CA10" s="415" t="str">
+      <c r="CA10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>l</v>
       </c>
-      <c r="CB10" s="415" t="str">
+      <c r="CB10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="CC10" s="415" t="str">
+      <c r="CC10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>;</v>
       </c>
-      <c r="CD10" s="415" t="str">
+      <c r="CD10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
-      <c r="CE10" s="418" t="str">
+      <c r="CE10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>U</v>
       </c>
-      <c r="CF10" s="415" t="str">
+      <c r="CF10" s="590" t="str">
         <f t="shared" si="13"/>
         <v>J</v>
       </c>
-      <c r="CG10" s="415" t="str">
+      <c r="CG10" s="589" t="str">
         <f t="shared" si="13"/>
         <v>*</v>
       </c>
-      <c r="CH10" s="415" t="str">
-        <f t="shared" ref="CH10:DA10" si="14" xml:space="preserve"> MID($AK$10, CH$13, 1)</f>
+      <c r="CH10" s="589" t="str">
+        <f t="shared" si="13"/>
         <v>I</v>
       </c>
-      <c r="CI10" s="415" t="str">
-        <f t="shared" si="14"/>
+      <c r="CI10" s="589" t="str">
+        <f t="shared" si="13"/>
         <v>&lt;</v>
       </c>
-      <c r="CJ10" s="415" t="str">
-        <f t="shared" si="14"/>
+      <c r="CJ10" s="589" t="str">
+        <f t="shared" si="13"/>
         <v>(</v>
       </c>
-      <c r="CK10" s="415" t="str">
-        <f t="shared" si="14"/>
+      <c r="CK10" s="589" t="str">
+        <f t="shared" si="13"/>
         <v>L</v>
       </c>
-      <c r="CL10" s="415" t="str">
-        <f t="shared" si="14"/>
+      <c r="CL10" s="589" t="str">
+        <f t="shared" si="13"/>
         <v>M</v>
       </c>
-      <c r="CM10" s="415" t="str">
-        <f t="shared" si="14"/>
+      <c r="CM10" s="589" t="str">
+        <f t="shared" si="13"/>
         <v>o</v>
       </c>
-      <c r="CN10" s="415" t="str">
-        <f t="shared" si="14"/>
+      <c r="CN10" s="589" t="str">
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
-      <c r="CO10" s="415" t="str">
-        <f t="shared" si="14"/>
+      <c r="CO10" s="589" t="str">
+        <f t="shared" si="13"/>
         <v>p</v>
       </c>
-      <c r="CP10" s="418" t="str">
-        <f t="shared" si="14"/>
+      <c r="CP10" s="589" t="str">
+        <f t="shared" si="13"/>
         <v>m</v>
       </c>
-      <c r="CQ10" s="418" t="str">
-        <f t="shared" si="14"/>
+      <c r="CQ10" s="590" t="str">
+        <f t="shared" si="13"/>
         <v>.</v>
       </c>
-      <c r="CR10" s="418" t="str">
-        <f t="shared" si="14"/>
+      <c r="CR10" s="589" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CS10" s="418" t="str">
-        <f t="shared" si="14"/>
+      <c r="CS10" s="589" t="str">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="CT10" s="418" t="str">
-        <f t="shared" si="14"/>
+      <c r="CT10" s="589" t="str">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="CU10" s="433" t="str">
-        <f t="shared" si="14"/>
+      <c r="CU10" s="589" t="str">
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="CV10" s="415" t="str">
-        <f t="shared" si="14"/>
+      <c r="CV10" s="589" t="str">
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="CW10" s="415" t="str">
-        <f t="shared" si="14"/>
+      <c r="CW10" s="589" t="str">
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="CX10" s="415" t="str">
+      <c r="CX10" s="591" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CY10" s="591" t="str">
+        <f t="shared" ref="CH10:DA10" si="14" xml:space="preserve"> MID($AK$10, CY$13, 1)</f>
+        <v/>
+      </c>
+      <c r="CZ10" s="591" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="CY10" s="415" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="CZ10" s="415" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="DA10" s="415" t="str">
+      <c r="DA10" s="591" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
@@ -15201,23 +15283,23 @@
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="AA11" s="582" t="str">
+      <c r="AA11" s="71" t="str">
         <f>注音編碼對照表!$C11</f>
         <v>y</v>
       </c>
-      <c r="AB11" s="583" t="str" cm="1">
+      <c r="AB11" s="379" t="str" cm="1">
         <f t="array" ref="AB11" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA11, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>z</v>
       </c>
-      <c r="AC11" s="584" t="str" cm="1">
+      <c r="AC11" s="32" t="str" cm="1">
         <f t="array" ref="AC11" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA11, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄗ</v>
       </c>
-      <c r="AD11" s="585" t="str" cm="1">
+      <c r="AD11" s="515" t="str" cm="1">
         <f t="array" ref="AD11" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA11, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄗ</v>
       </c>
-      <c r="AE11" s="466" t="str" cm="1">
+      <c r="AE11" s="461" t="str" cm="1">
         <f t="array" ref="AE11" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA11, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>z</v>
       </c>
@@ -15227,13 +15309,13 @@
         <v>"y" : ㄗ</v>
       </c>
       <c r="AH11" s="2"/>
-      <c r="AI11" s="402"/>
+      <c r="AI11" s="401"/>
       <c r="AJ11" s="37"/>
       <c r="AK11" s="37"/>
       <c r="AT11" s="48"/>
       <c r="AY11" s="11"/>
       <c r="BA11" s="2"/>
-      <c r="BB11" s="414"/>
+      <c r="BB11" s="413"/>
       <c r="BE11" s="2"/>
     </row>
     <row r="12" spans="2:105" ht="32.25">
@@ -15299,23 +15381,23 @@
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="AA12" s="582" t="str">
+      <c r="AA12" s="71" t="str">
         <f>注音編碼對照表!$C12</f>
         <v>h</v>
       </c>
-      <c r="AB12" s="583" t="str" cm="1">
+      <c r="AB12" s="379" t="str" cm="1">
         <f t="array" ref="AB12" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA12, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>c</v>
       </c>
-      <c r="AC12" s="584" t="str" cm="1">
+      <c r="AC12" s="32" t="str" cm="1">
         <f t="array" ref="AC12" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA12, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄘ</v>
       </c>
-      <c r="AD12" s="585" t="str" cm="1">
+      <c r="AD12" s="515" t="str" cm="1">
         <f t="array" ref="AD12" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA12, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄘ</v>
       </c>
-      <c r="AE12" s="466" t="str" cm="1">
+      <c r="AE12" s="461" t="str" cm="1">
         <f t="array" ref="AE12" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA12, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>c</v>
       </c>
@@ -15325,12 +15407,12 @@
         <v>"h" : ㄘ</v>
       </c>
       <c r="AH12" s="2"/>
-      <c r="AI12" s="398"/>
+      <c r="AI12" s="397"/>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="48"/>
       <c r="AY12" s="11"/>
       <c r="BA12" s="2"/>
-      <c r="BB12" s="414"/>
+      <c r="BB12" s="413"/>
       <c r="BE12" s="2"/>
     </row>
     <row r="13" spans="2:105" ht="32.25">
@@ -15396,23 +15478,23 @@
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="AA13" s="582" t="str">
+      <c r="AA13" s="71" t="str">
         <f>注音編碼對照表!$C13</f>
         <v>b</v>
       </c>
-      <c r="AB13" s="583" t="str" cm="1">
+      <c r="AB13" s="379" t="str" cm="1">
         <f t="array" ref="AB13" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA13, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>j</v>
       </c>
-      <c r="AC13" s="584" t="str" cm="1">
+      <c r="AC13" s="32" t="str" cm="1">
         <f t="array" ref="AC13" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA13, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㆡ</v>
       </c>
-      <c r="AD13" s="585" t="str" cm="1">
+      <c r="AD13" s="515" t="str" cm="1">
         <f t="array" ref="AD13" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA13, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄖ</v>
       </c>
-      <c r="AE13" s="466" t="str" cm="1">
+      <c r="AE13" s="461" t="str" cm="1">
         <f t="array" ref="AE13" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA13, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>j</v>
       </c>
@@ -15422,11 +15504,11 @@
         <v>"b" : ㄖ</v>
       </c>
       <c r="AH13" s="2"/>
-      <c r="AI13" s="399" t="s">
+      <c r="AI13" s="398" t="s">
         <v>35</v>
       </c>
       <c r="AJ13" s="2"/>
-      <c r="AK13" s="428" t="str">
+      <c r="AK13" s="424" t="str">
         <f xml:space="preserve"> """xlit|" &amp; AK14 &amp; "|" &amp; AK15 &amp; "|"""</f>
         <v>"xlit|1q!a2wsxyhbnedEgcuj8ik,9l0;-UJ*I&lt;(LMo/pm. 43657|ㄅㄆㆠㄇㄉㄊㄋㄌㄗㄘㆡㄙㄍㄎㆣㄫㄏㄧㄨㄚㆦㄜㆤㄞㄠㄢㄤㆨㆪㆫㆩㆧㆥㆮㆯㆰㆲㆭㄣㆬㄬˉˋ˪ˊ˫˙|"</v>
       </c>
@@ -15443,213 +15525,213 @@
       <c r="AV13" s="47"/>
       <c r="AW13" s="47"/>
       <c r="AX13" s="47"/>
-      <c r="AY13" s="430"/>
+      <c r="AY13" s="426"/>
       <c r="BA13" s="2"/>
-      <c r="BB13" s="419" cm="1">
+      <c r="BB13" s="587" cm="1">
         <f t="array" ref="BB13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>0</v>
       </c>
-      <c r="BC13" s="419" cm="1">
+      <c r="BC13" s="587" cm="1">
         <f t="array" ref="BC13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>1</v>
       </c>
-      <c r="BD13" s="419" cm="1">
+      <c r="BD13" s="587" cm="1">
         <f t="array" ref="BD13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>2</v>
       </c>
-      <c r="BE13" s="419" cm="1">
+      <c r="BE13" s="587" cm="1">
         <f t="array" ref="BE13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>3</v>
       </c>
-      <c r="BF13" s="419" cm="1">
+      <c r="BF13" s="587" cm="1">
         <f t="array" ref="BF13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>4</v>
       </c>
-      <c r="BG13" s="419" cm="1">
+      <c r="BG13" s="587" cm="1">
         <f t="array" ref="BG13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>5</v>
       </c>
-      <c r="BH13" s="419" cm="1">
+      <c r="BH13" s="587" cm="1">
         <f t="array" ref="BH13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>6</v>
       </c>
-      <c r="BI13" s="419" cm="1">
+      <c r="BI13" s="587" cm="1">
         <f t="array" ref="BI13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>7</v>
       </c>
-      <c r="BJ13" s="419" cm="1">
+      <c r="BJ13" s="587" cm="1">
         <f t="array" ref="BJ13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>8</v>
       </c>
-      <c r="BK13" s="419" cm="1">
+      <c r="BK13" s="587" cm="1">
         <f t="array" ref="BK13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>9</v>
       </c>
-      <c r="BL13" s="419" cm="1">
+      <c r="BL13" s="587" cm="1">
         <f t="array" ref="BL13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>10</v>
       </c>
-      <c r="BM13" s="419" cm="1">
+      <c r="BM13" s="587" cm="1">
         <f t="array" ref="BM13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>11</v>
       </c>
-      <c r="BN13" s="419" cm="1">
+      <c r="BN13" s="587" cm="1">
         <f t="array" ref="BN13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>12</v>
       </c>
-      <c r="BO13" s="419" cm="1">
+      <c r="BO13" s="587" cm="1">
         <f t="array" ref="BO13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>13</v>
       </c>
-      <c r="BP13" s="419" cm="1">
+      <c r="BP13" s="587" cm="1">
         <f t="array" ref="BP13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>14</v>
       </c>
-      <c r="BQ13" s="419" cm="1">
+      <c r="BQ13" s="587" cm="1">
         <f t="array" ref="BQ13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>15</v>
       </c>
-      <c r="BR13" s="419" cm="1">
+      <c r="BR13" s="587" cm="1">
         <f t="array" ref="BR13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>16</v>
       </c>
-      <c r="BS13" s="419" cm="1">
+      <c r="BS13" s="587" cm="1">
         <f t="array" ref="BS13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>17</v>
       </c>
-      <c r="BT13" s="419" cm="1">
+      <c r="BT13" s="587" cm="1">
         <f t="array" ref="BT13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>18</v>
       </c>
-      <c r="BU13" s="419" cm="1">
+      <c r="BU13" s="587" cm="1">
         <f t="array" ref="BU13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>19</v>
       </c>
-      <c r="BV13" s="419" cm="1">
+      <c r="BV13" s="587" cm="1">
         <f t="array" ref="BV13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>20</v>
       </c>
-      <c r="BW13" s="419" cm="1">
+      <c r="BW13" s="587" cm="1">
         <f t="array" ref="BW13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>21</v>
       </c>
-      <c r="BX13" s="419" cm="1">
+      <c r="BX13" s="587" cm="1">
         <f t="array" ref="BX13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>22</v>
       </c>
-      <c r="BY13" s="419" cm="1">
+      <c r="BY13" s="587" cm="1">
         <f t="array" ref="BY13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>23</v>
       </c>
-      <c r="BZ13" s="419" cm="1">
+      <c r="BZ13" s="587" cm="1">
         <f t="array" ref="BZ13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>24</v>
       </c>
-      <c r="CA13" s="419" cm="1">
+      <c r="CA13" s="587" cm="1">
         <f t="array" ref="CA13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>25</v>
       </c>
-      <c r="CB13" s="419" cm="1">
+      <c r="CB13" s="587" cm="1">
         <f t="array" ref="CB13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>26</v>
       </c>
-      <c r="CC13" s="419" cm="1">
+      <c r="CC13" s="587" cm="1">
         <f t="array" ref="CC13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>27</v>
       </c>
-      <c r="CD13" s="419" cm="1">
+      <c r="CD13" s="587" cm="1">
         <f t="array" ref="CD13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>28</v>
       </c>
-      <c r="CE13" s="419" cm="1">
+      <c r="CE13" s="587" cm="1">
         <f t="array" ref="CE13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>29</v>
       </c>
-      <c r="CF13" s="419" cm="1">
+      <c r="CF13" s="587" cm="1">
         <f t="array" ref="CF13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>30</v>
       </c>
-      <c r="CG13" s="419" cm="1">
+      <c r="CG13" s="587" cm="1">
         <f t="array" ref="CG13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>31</v>
       </c>
-      <c r="CH13" s="419" cm="1">
+      <c r="CH13" s="587" cm="1">
         <f t="array" ref="CH13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>32</v>
       </c>
-      <c r="CI13" s="419" cm="1">
+      <c r="CI13" s="587" cm="1">
         <f t="array" ref="CI13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>33</v>
       </c>
-      <c r="CJ13" s="419" cm="1">
+      <c r="CJ13" s="587" cm="1">
         <f t="array" ref="CJ13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>34</v>
       </c>
-      <c r="CK13" s="419" cm="1">
+      <c r="CK13" s="587" cm="1">
         <f t="array" ref="CK13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>35</v>
       </c>
-      <c r="CL13" s="419" cm="1">
+      <c r="CL13" s="587" cm="1">
         <f t="array" ref="CL13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>36</v>
       </c>
-      <c r="CM13" s="419" cm="1">
+      <c r="CM13" s="587" cm="1">
         <f t="array" ref="CM13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>37</v>
       </c>
-      <c r="CN13" s="419" cm="1">
+      <c r="CN13" s="587" cm="1">
         <f t="array" ref="CN13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>38</v>
       </c>
-      <c r="CO13" s="419" cm="1">
+      <c r="CO13" s="587" cm="1">
         <f t="array" ref="CO13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>39</v>
       </c>
-      <c r="CP13" s="419" cm="1">
+      <c r="CP13" s="587" cm="1">
         <f t="array" ref="CP13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>40</v>
       </c>
-      <c r="CQ13" s="419" cm="1">
+      <c r="CQ13" s="587" cm="1">
         <f t="array" ref="CQ13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>41</v>
       </c>
-      <c r="CR13" s="419" cm="1">
+      <c r="CR13" s="587" cm="1">
         <f t="array" ref="CR13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>42</v>
       </c>
-      <c r="CS13" s="419" cm="1">
+      <c r="CS13" s="587" cm="1">
         <f t="array" ref="CS13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>43</v>
       </c>
-      <c r="CT13" s="419" cm="1">
+      <c r="CT13" s="587" cm="1">
         <f t="array" ref="CT13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>44</v>
       </c>
-      <c r="CU13" s="419" cm="1">
+      <c r="CU13" s="587" cm="1">
         <f t="array" ref="CU13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>45</v>
       </c>
-      <c r="CV13" s="419" cm="1">
+      <c r="CV13" s="587" cm="1">
         <f t="array" ref="CV13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>46</v>
       </c>
-      <c r="CW13" s="419" cm="1">
+      <c r="CW13" s="587" cm="1">
         <f t="array" ref="CW13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>47</v>
       </c>
-      <c r="CX13" s="419" cm="1">
+      <c r="CX13" s="587" cm="1">
         <f t="array" ref="CX13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>48</v>
       </c>
-      <c r="CY13" s="419" cm="1">
+      <c r="CY13" s="587" cm="1">
         <f t="array" ref="CY13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>49</v>
       </c>
-      <c r="CZ13" s="419" cm="1">
+      <c r="CZ13" s="587" cm="1">
         <f t="array" ref="CZ13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>50</v>
       </c>
-      <c r="DA13" s="419" cm="1">
+      <c r="DA13" s="587" cm="1">
         <f t="array" ref="DA13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>51</v>
       </c>
@@ -15717,23 +15799,23 @@
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="AA14" s="582" t="str">
+      <c r="AA14" s="71" t="str">
         <f>注音編碼對照表!$C14</f>
         <v>n</v>
       </c>
-      <c r="AB14" s="583" t="str" cm="1">
+      <c r="AB14" s="379" t="str" cm="1">
         <f t="array" ref="AB14" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA14, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>s</v>
       </c>
-      <c r="AC14" s="584" t="str" cm="1">
+      <c r="AC14" s="32" t="str" cm="1">
         <f t="array" ref="AC14" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA14, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄙ</v>
       </c>
-      <c r="AD14" s="585" t="str" cm="1">
+      <c r="AD14" s="515" t="str" cm="1">
         <f t="array" ref="AD14" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA14, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄙ</v>
       </c>
-      <c r="AE14" s="466" t="str" cm="1">
+      <c r="AE14" s="461" t="str" cm="1">
         <f t="array" ref="AE14" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA14, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>s</v>
       </c>
@@ -15743,234 +15825,231 @@
         <v>"n" : ㄙ</v>
       </c>
       <c r="AH14" s="2"/>
-      <c r="AI14" s="401" t="s">
+      <c r="AI14" s="400" t="s">
         <v>11</v>
       </c>
       <c r="AJ14" s="1">
         <f xml:space="preserve"> LEN(AK14)</f>
         <v>47</v>
       </c>
-      <c r="AK14" s="37" t="str">
+      <c r="AK14" s="577" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT($AA3:$AA$49)</f>
         <v>1q!a2wsxyhbnedEgcuj8ik,9l0;-UJ*I&lt;(LMo/pm. 43657</v>
       </c>
       <c r="AX14" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AY14" s="432" t="str">
+      <c r="AY14" s="428" t="str">
         <f>AY10</f>
-        <v>5</v>
+        <v>J</v>
       </c>
       <c r="AZ14" s="40">
         <f xml:space="preserve"> FIND(AY14, AK14)</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="BA14" s="2"/>
-      <c r="BB14" s="415" t="e">
-        <f t="shared" ref="BB14:CG14" si="15" xml:space="preserve"> MID($AK$14, BB$13, 1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BC14" s="416" t="str">
-        <f t="shared" si="15"/>
+      <c r="BB14" s="414"/>
+      <c r="BC14" s="586" t="str">
+        <f t="shared" ref="BB14:CG14" si="15" xml:space="preserve"> MID($AK$14, BC$13, 1)</f>
         <v>1</v>
       </c>
-      <c r="BD14" s="416" t="str">
+      <c r="BD14" s="581" t="str">
         <f t="shared" si="15"/>
         <v>q</v>
       </c>
-      <c r="BE14" s="417" t="str">
+      <c r="BE14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>!</v>
       </c>
-      <c r="BF14" s="417" t="str">
+      <c r="BF14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>a</v>
       </c>
-      <c r="BG14" s="417" t="str">
+      <c r="BG14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="BH14" s="417" t="str">
+      <c r="BH14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>w</v>
       </c>
-      <c r="BI14" s="417" t="str">
+      <c r="BI14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>s</v>
       </c>
-      <c r="BJ14" s="417" t="str">
+      <c r="BJ14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>x</v>
       </c>
-      <c r="BK14" s="417" t="str">
+      <c r="BK14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>y</v>
       </c>
-      <c r="BL14" s="417" t="str">
+      <c r="BL14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>h</v>
       </c>
-      <c r="BM14" s="417" t="str">
+      <c r="BM14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>b</v>
       </c>
-      <c r="BN14" s="417" t="str">
+      <c r="BN14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>n</v>
       </c>
-      <c r="BO14" s="417" t="str">
+      <c r="BO14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>e</v>
       </c>
-      <c r="BP14" s="417" t="str">
+      <c r="BP14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>d</v>
       </c>
-      <c r="BQ14" s="417" t="str">
+      <c r="BQ14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>E</v>
       </c>
-      <c r="BR14" s="417" t="str">
+      <c r="BR14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>g</v>
       </c>
-      <c r="BS14" s="417" t="str">
+      <c r="BS14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>c</v>
       </c>
-      <c r="BT14" s="417" t="str">
+      <c r="BT14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>u</v>
       </c>
-      <c r="BU14" s="417" t="str">
+      <c r="BU14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>j</v>
       </c>
-      <c r="BV14" s="417" t="str">
+      <c r="BV14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="BW14" s="417" t="str">
+      <c r="BW14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>i</v>
       </c>
-      <c r="BX14" s="417" t="str">
+      <c r="BX14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>k</v>
       </c>
-      <c r="BY14" s="417" t="str">
+      <c r="BY14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>,</v>
       </c>
-      <c r="BZ14" s="417" t="str">
+      <c r="BZ14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>9</v>
       </c>
-      <c r="CA14" s="417" t="str">
+      <c r="CA14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>l</v>
       </c>
-      <c r="CB14" s="417" t="str">
+      <c r="CB14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="CC14" s="417" t="str">
+      <c r="CC14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>;</v>
       </c>
-      <c r="CD14" s="417" t="str">
+      <c r="CD14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="CE14" s="418" t="str">
+      <c r="CE14" s="585" t="str">
         <f t="shared" si="15"/>
         <v>U</v>
       </c>
-      <c r="CF14" s="417" t="str">
+      <c r="CF14" s="584" t="str">
         <f t="shared" si="15"/>
         <v>J</v>
       </c>
-      <c r="CG14" s="417" t="str">
+      <c r="CG14" s="582" t="str">
         <f t="shared" si="15"/>
         <v>*</v>
       </c>
-      <c r="CH14" s="417" t="str">
+      <c r="CH14" s="582" t="str">
         <f t="shared" ref="CH14:DA14" si="16" xml:space="preserve"> MID($AK$14, CH$13, 1)</f>
         <v>I</v>
       </c>
-      <c r="CI14" s="417" t="str">
+      <c r="CI14" s="582" t="str">
         <f t="shared" si="16"/>
         <v>&lt;</v>
       </c>
-      <c r="CJ14" s="417" t="str">
+      <c r="CJ14" s="582" t="str">
         <f t="shared" si="16"/>
         <v>(</v>
       </c>
-      <c r="CK14" s="417" t="str">
+      <c r="CK14" s="582" t="str">
         <f t="shared" si="16"/>
         <v>L</v>
       </c>
-      <c r="CL14" s="417" t="str">
+      <c r="CL14" s="582" t="str">
         <f t="shared" si="16"/>
         <v>M</v>
       </c>
-      <c r="CM14" s="417" t="str">
+      <c r="CM14" s="582" t="str">
         <f t="shared" si="16"/>
         <v>o</v>
       </c>
-      <c r="CN14" s="417" t="str">
+      <c r="CN14" s="582" t="str">
         <f t="shared" si="16"/>
         <v>/</v>
       </c>
-      <c r="CO14" s="417" t="str">
+      <c r="CO14" s="582" t="str">
         <f t="shared" si="16"/>
         <v>p</v>
       </c>
-      <c r="CP14" s="418" t="str">
+      <c r="CP14" s="583" t="str">
         <f t="shared" si="16"/>
         <v>m</v>
       </c>
-      <c r="CQ14" s="418" t="str">
+      <c r="CQ14" s="583" t="str">
         <f t="shared" si="16"/>
         <v>.</v>
       </c>
-      <c r="CR14" s="418" t="str">
+      <c r="CR14" s="583" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CS14" s="418" t="str">
+      <c r="CS14" s="583" t="str">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="CT14" s="418" t="str">
+      <c r="CT14" s="583" t="str">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="CU14" s="418" t="str">
+      <c r="CU14" s="583" t="str">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="CV14" s="417" t="str">
+      <c r="CV14" s="582" t="str">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="CW14" s="417" t="str">
+      <c r="CW14" s="582" t="str">
         <f t="shared" si="16"/>
         <v>7</v>
       </c>
-      <c r="CX14" s="417" t="str">
+      <c r="CX14" s="415" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="CY14" s="417" t="str">
+      <c r="CY14" s="415" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="CZ14" s="417" t="str">
+      <c r="CZ14" s="415" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="DA14" s="417" t="str">
+      <c r="DA14" s="415" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -16042,23 +16121,23 @@
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="AA15" s="582" t="str">
+      <c r="AA15" s="71" t="str">
         <f>注音編碼對照表!$C15</f>
         <v>e</v>
       </c>
-      <c r="AB15" s="583" t="str" cm="1">
+      <c r="AB15" s="379" t="str" cm="1">
         <f t="array" ref="AB15" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA15, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>k</v>
       </c>
-      <c r="AC15" s="584" t="str" cm="1">
+      <c r="AC15" s="32" t="str" cm="1">
         <f t="array" ref="AC15" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA15, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄍ</v>
       </c>
-      <c r="AD15" s="585" t="str" cm="1">
+      <c r="AD15" s="515" t="str" cm="1">
         <f t="array" ref="AD15" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA15, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄍ</v>
       </c>
-      <c r="AE15" s="466" t="str" cm="1">
+      <c r="AE15" s="461" t="str" cm="1">
         <f t="array" ref="AE15" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA15, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>k</v>
       </c>
@@ -16068,228 +16147,225 @@
         <v>"e" : ㄍ</v>
       </c>
       <c r="AH15" s="2"/>
-      <c r="AI15" s="403" t="s">
+      <c r="AI15" s="402" t="s">
         <v>13</v>
       </c>
       <c r="AJ15" s="1">
         <f xml:space="preserve"> LEN(AK15)</f>
         <v>47</v>
       </c>
-      <c r="AK15" s="396" t="str">
+      <c r="AK15" s="580" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT($AC3:$AC$49)</f>
         <v>ㄅㄆㆠㄇㄉㄊㄋㄌㄗㄘㆡㄙㄍㄎㆣㄫㄏㄧㄨㄚㆦㄜㆤㄞㄠㄢㄤㆨㆪㆫㆩㆧㆥㆮㆯㆰㆲㆭㄣㆬㄬˉˋ˪ˊ˫˙</v>
       </c>
       <c r="AY15" s="49" t="str">
         <f xml:space="preserve"> MID(AK15, AZ14, 1)</f>
-        <v>˫</v>
+        <v>ㆫ</v>
       </c>
       <c r="AZ15" s="40"/>
       <c r="BA15" s="2"/>
-      <c r="BB15" s="415" t="e">
-        <f t="shared" ref="BB15:CG15" si="17" xml:space="preserve"> MID($AK$15, BB$13, 1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BC15" s="416" t="str">
-        <f t="shared" si="17"/>
+      <c r="BB15" s="414"/>
+      <c r="BC15" s="586" t="str">
+        <f t="shared" ref="BB15:CG15" si="17" xml:space="preserve"> MID($AK$15, BC$13, 1)</f>
         <v>ㄅ</v>
       </c>
-      <c r="BD15" s="416" t="str">
+      <c r="BD15" s="586" t="str">
         <f t="shared" si="17"/>
         <v>ㄆ</v>
       </c>
-      <c r="BE15" s="417" t="str">
+      <c r="BE15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㆠ</v>
       </c>
-      <c r="BF15" s="417" t="str">
+      <c r="BF15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㄇ</v>
       </c>
-      <c r="BG15" s="417" t="str">
+      <c r="BG15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㄉ</v>
       </c>
-      <c r="BH15" s="417" t="str">
+      <c r="BH15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㄊ</v>
       </c>
-      <c r="BI15" s="417" t="str">
+      <c r="BI15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㄋ</v>
       </c>
-      <c r="BJ15" s="417" t="str">
+      <c r="BJ15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㄌ</v>
       </c>
-      <c r="BK15" s="417" t="str">
+      <c r="BK15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㄗ</v>
       </c>
-      <c r="BL15" s="417" t="str">
+      <c r="BL15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㄘ</v>
       </c>
-      <c r="BM15" s="417" t="str">
+      <c r="BM15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㆡ</v>
       </c>
-      <c r="BN15" s="417" t="str">
+      <c r="BN15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㄙ</v>
       </c>
-      <c r="BO15" s="417" t="str">
+      <c r="BO15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㄍ</v>
       </c>
-      <c r="BP15" s="417" t="str">
+      <c r="BP15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㄎ</v>
       </c>
-      <c r="BQ15" s="417" t="str">
+      <c r="BQ15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㆣ</v>
       </c>
-      <c r="BR15" s="417" t="str">
+      <c r="BR15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㄫ</v>
       </c>
-      <c r="BS15" s="417" t="str">
+      <c r="BS15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㄏ</v>
       </c>
-      <c r="BT15" s="417" t="str">
+      <c r="BT15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㄧ</v>
       </c>
-      <c r="BU15" s="417" t="str">
+      <c r="BU15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㄨ</v>
       </c>
-      <c r="BV15" s="417" t="str">
+      <c r="BV15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㄚ</v>
       </c>
-      <c r="BW15" s="417" t="str">
+      <c r="BW15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㆦ</v>
       </c>
-      <c r="BX15" s="417" t="str">
+      <c r="BX15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㄜ</v>
       </c>
-      <c r="BY15" s="417" t="str">
+      <c r="BY15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㆤ</v>
       </c>
-      <c r="BZ15" s="417" t="str">
+      <c r="BZ15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㄞ</v>
       </c>
-      <c r="CA15" s="417" t="str">
+      <c r="CA15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㄠ</v>
       </c>
-      <c r="CB15" s="417" t="str">
+      <c r="CB15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㄢ</v>
       </c>
-      <c r="CC15" s="417" t="str">
+      <c r="CC15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㄤ</v>
       </c>
-      <c r="CD15" s="417" t="str">
+      <c r="CD15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㆨ</v>
       </c>
-      <c r="CE15" s="418" t="str">
+      <c r="CE15" s="585" t="str">
         <f t="shared" si="17"/>
         <v>ㆪ</v>
       </c>
-      <c r="CF15" s="417" t="str">
+      <c r="CF15" s="584" t="str">
         <f t="shared" si="17"/>
         <v>ㆫ</v>
       </c>
-      <c r="CG15" s="417" t="str">
+      <c r="CG15" s="582" t="str">
         <f t="shared" si="17"/>
         <v>ㆩ</v>
       </c>
-      <c r="CH15" s="417" t="str">
+      <c r="CH15" s="582" t="str">
         <f t="shared" ref="CH15:DA15" si="18" xml:space="preserve"> MID($AK$15, CH$13, 1)</f>
         <v>ㆧ</v>
       </c>
-      <c r="CI15" s="417" t="str">
+      <c r="CI15" s="582" t="str">
         <f t="shared" si="18"/>
         <v>ㆥ</v>
       </c>
-      <c r="CJ15" s="417" t="str">
+      <c r="CJ15" s="582" t="str">
         <f t="shared" si="18"/>
         <v>ㆮ</v>
       </c>
-      <c r="CK15" s="417" t="str">
+      <c r="CK15" s="582" t="str">
         <f t="shared" si="18"/>
         <v>ㆯ</v>
       </c>
-      <c r="CL15" s="417" t="str">
+      <c r="CL15" s="582" t="str">
         <f t="shared" si="18"/>
         <v>ㆰ</v>
       </c>
-      <c r="CM15" s="417" t="str">
+      <c r="CM15" s="582" t="str">
         <f t="shared" si="18"/>
         <v>ㆲ</v>
       </c>
-      <c r="CN15" s="417" t="str">
+      <c r="CN15" s="582" t="str">
         <f t="shared" si="18"/>
         <v>ㆭ</v>
       </c>
-      <c r="CO15" s="417" t="str">
+      <c r="CO15" s="582" t="str">
         <f t="shared" si="18"/>
         <v>ㄣ</v>
       </c>
-      <c r="CP15" s="418" t="str">
+      <c r="CP15" s="583" t="str">
         <f t="shared" si="18"/>
         <v>ㆬ</v>
       </c>
-      <c r="CQ15" s="418" t="str">
+      <c r="CQ15" s="583" t="str">
         <f t="shared" si="18"/>
         <v>ㄬ</v>
       </c>
-      <c r="CR15" s="418" t="str">
+      <c r="CR15" s="583" t="str">
         <f t="shared" si="18"/>
         <v>ˉ</v>
       </c>
-      <c r="CS15" s="418" t="str">
+      <c r="CS15" s="583" t="str">
         <f t="shared" si="18"/>
         <v>ˋ</v>
       </c>
-      <c r="CT15" s="418" t="str">
+      <c r="CT15" s="583" t="str">
         <f t="shared" si="18"/>
         <v>˪</v>
       </c>
-      <c r="CU15" s="418" t="str">
+      <c r="CU15" s="583" t="str">
         <f t="shared" si="18"/>
         <v>ˊ</v>
       </c>
-      <c r="CV15" s="417" t="str">
+      <c r="CV15" s="582" t="str">
         <f t="shared" si="18"/>
         <v>˫</v>
       </c>
-      <c r="CW15" s="417" t="str">
+      <c r="CW15" s="582" t="str">
         <f t="shared" si="18"/>
         <v>˙</v>
       </c>
-      <c r="CX15" s="417" t="str">
+      <c r="CX15" s="415" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="CY15" s="417" t="str">
+      <c r="CY15" s="415" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="CZ15" s="417" t="str">
+      <c r="CZ15" s="415" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DA15" s="417" t="str">
+      <c r="DA15" s="415" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -16361,23 +16437,23 @@
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="AA16" s="582" t="str">
+      <c r="AA16" s="71" t="str">
         <f>注音編碼對照表!$C16</f>
         <v>d</v>
       </c>
-      <c r="AB16" s="583" t="str" cm="1">
+      <c r="AB16" s="379" t="str" cm="1">
         <f t="array" ref="AB16" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA16, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>K</v>
       </c>
-      <c r="AC16" s="584" t="str" cm="1">
+      <c r="AC16" s="32" t="str" cm="1">
         <f t="array" ref="AC16" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA16, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄎ</v>
       </c>
-      <c r="AD16" s="585" t="str" cm="1">
+      <c r="AD16" s="515" t="str" cm="1">
         <f t="array" ref="AD16" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA16, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄎ</v>
       </c>
-      <c r="AE16" s="466" t="str" cm="1">
+      <c r="AE16" s="461" t="str" cm="1">
         <f t="array" ref="AE16" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA16, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>kh</v>
       </c>
@@ -16387,12 +16463,12 @@
         <v>"d" : ㄎ</v>
       </c>
       <c r="AH16" s="2"/>
-      <c r="AI16" s="398"/>
+      <c r="AI16" s="397"/>
       <c r="AJ16" s="2"/>
       <c r="AL16" s="54"/>
       <c r="AY16" s="11"/>
       <c r="BA16" s="2"/>
-      <c r="BB16" s="414"/>
+      <c r="BB16" s="413"/>
       <c r="BE16" s="2"/>
     </row>
     <row r="17" spans="2:57" ht="32.25">
@@ -16454,23 +16530,23 @@
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="AA17" s="582" t="str">
+      <c r="AA17" s="71" t="str">
         <f>注音編碼對照表!$C17</f>
         <v>E</v>
       </c>
-      <c r="AB17" s="583" t="str" cm="1">
+      <c r="AB17" s="379" t="str" cm="1">
         <f t="array" ref="AB17" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA17, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>g</v>
       </c>
-      <c r="AC17" s="584" t="str" cm="1">
+      <c r="AC17" s="32" t="str" cm="1">
         <f t="array" ref="AC17" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA17, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㆣ</v>
       </c>
-      <c r="AD17" s="585" t="str" cm="1">
+      <c r="AD17" s="515" t="str" cm="1">
         <f t="array" ref="AD17" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA17, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄍㆷ</v>
       </c>
-      <c r="AE17" s="466" t="str" cm="1">
+      <c r="AE17" s="461" t="str" cm="1">
         <f t="array" ref="AE17" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA17, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>g</v>
       </c>
@@ -16480,11 +16556,11 @@
         <v>"E" : ㄍㆷ</v>
       </c>
       <c r="AH17" s="2"/>
-      <c r="AI17" s="399" t="s">
+      <c r="AI17" s="398" t="s">
         <v>45</v>
       </c>
       <c r="AJ17" s="2"/>
-      <c r="AK17" s="429" t="str">
+      <c r="AK17" s="425" t="str">
         <f xml:space="preserve"> """xlit|" &amp; AK18 &amp; "|" &amp; AK19 &amp; "|"""</f>
         <v>"xlit|pPbmtTnlzcjskKgwhiuaOoeyx@GRIUAQEYXVHWNMB123570|ㄅㄆㆠㄇㄉㄊㄋㄌㄗㄘㆡㄙㄍㄎㆣㄫㄏㄧㄨㄚㆦㄜㆤㄞㄠㄢㄤㆨㆪㆫㆩㆧㆥㆮㆯㆰㆲㆭㄣㆬㄬˉˋ˪ˊ˫˙|"</v>
       </c>
@@ -16501,9 +16577,9 @@
       <c r="AV17" s="47"/>
       <c r="AW17" s="47"/>
       <c r="AX17" s="47"/>
-      <c r="AY17" s="430"/>
+      <c r="AY17" s="426"/>
       <c r="BA17" s="2"/>
-      <c r="BB17" s="414"/>
+      <c r="BB17" s="413"/>
       <c r="BE17" s="2"/>
     </row>
     <row r="18" spans="2:57" ht="32.25">
@@ -16565,23 +16641,23 @@
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="AA18" s="582" t="str">
+      <c r="AA18" s="71" t="str">
         <f>注音編碼對照表!$C18</f>
         <v>g</v>
       </c>
-      <c r="AB18" s="583" t="str" cm="1">
+      <c r="AB18" s="379" t="str" cm="1">
         <f t="array" ref="AB18" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA18, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>w</v>
       </c>
-      <c r="AC18" s="584" t="str" cm="1">
+      <c r="AC18" s="32" t="str" cm="1">
         <f t="array" ref="AC18" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA18, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄫ</v>
       </c>
-      <c r="AD18" s="585" t="str" cm="1">
+      <c r="AD18" s="515" t="str" cm="1">
         <f t="array" ref="AD18" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA18, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄥ</v>
       </c>
-      <c r="AE18" s="466" t="str" cm="1">
+      <c r="AE18" s="461" t="str" cm="1">
         <f t="array" ref="AE18" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA18, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ng-</v>
       </c>
@@ -16591,7 +16667,7 @@
         <v>"g" : ㄥ</v>
       </c>
       <c r="AH18" s="2"/>
-      <c r="AI18" s="400" t="s">
+      <c r="AI18" s="399" t="s">
         <v>585</v>
       </c>
       <c r="AJ18" s="1">
@@ -16605,16 +16681,16 @@
       <c r="AX18" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AY18" s="432" t="str">
+      <c r="AY18" s="428" t="str">
         <f>AY9</f>
-        <v>7</v>
+        <v>U</v>
       </c>
       <c r="AZ18" s="40">
         <f xml:space="preserve"> FIND(AY18, AK18)</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="BA18" s="2"/>
-      <c r="BB18" s="414"/>
+      <c r="BB18" s="413"/>
       <c r="BE18" s="2"/>
     </row>
     <row r="19" spans="2:57" ht="32.25">
@@ -16676,23 +16752,23 @@
         <f t="shared" si="10"/>
         <v>17</v>
       </c>
-      <c r="AA19" s="582" t="str">
+      <c r="AA19" s="71" t="str">
         <f>注音編碼對照表!$C19</f>
         <v>c</v>
       </c>
-      <c r="AB19" s="583" t="str" cm="1">
+      <c r="AB19" s="379" t="str" cm="1">
         <f t="array" ref="AB19" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA19, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>h</v>
       </c>
-      <c r="AC19" s="584" t="str" cm="1">
+      <c r="AC19" s="32" t="str" cm="1">
         <f t="array" ref="AC19" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA19, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄏ</v>
       </c>
-      <c r="AD19" s="585" t="str" cm="1">
+      <c r="AD19" s="515" t="str" cm="1">
         <f t="array" ref="AD19" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA19, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄏ</v>
       </c>
-      <c r="AE19" s="466" t="str" cm="1">
+      <c r="AE19" s="461" t="str" cm="1">
         <f t="array" ref="AE19" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA19, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>h</v>
       </c>
@@ -16702,24 +16778,24 @@
         <v>"c" : ㄏ</v>
       </c>
       <c r="AH19" s="2"/>
-      <c r="AI19" s="403" t="s">
+      <c r="AI19" s="402" t="s">
         <v>627</v>
       </c>
       <c r="AJ19" s="1">
         <f xml:space="preserve"> LEN(AK19)</f>
         <v>47</v>
       </c>
-      <c r="AK19" s="404" t="str">
+      <c r="AK19" s="403" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(AC3:AC49)</f>
         <v>ㄅㄆㆠㄇㄉㄊㄋㄌㄗㄘㆡㄙㄍㄎㆣㄫㄏㄧㄨㄚㆦㄜㆤㄞㄠㄢㄤㆨㆪㆫㆩㆧㆥㆮㆯㆰㆲㆭㄣㆬㄬˉˋ˪ˊ˫˙</v>
       </c>
       <c r="AY19" s="49" t="str">
         <f xml:space="preserve"> MID(AK19, AZ18, 1)</f>
-        <v>˫</v>
+        <v>ㆫ</v>
       </c>
       <c r="AZ19" s="40"/>
       <c r="BA19" s="2"/>
-      <c r="BB19" s="414"/>
+      <c r="BB19" s="413"/>
       <c r="BE19" s="2"/>
     </row>
     <row r="20" spans="2:57" ht="32.25">
@@ -16784,23 +16860,23 @@
         <f t="shared" si="10"/>
         <v>18</v>
       </c>
-      <c r="AA20" s="582" t="str">
+      <c r="AA20" s="71" t="str">
         <f>注音編碼對照表!$C20</f>
         <v>u</v>
       </c>
-      <c r="AB20" s="583" t="str" cm="1">
+      <c r="AB20" s="379" t="str" cm="1">
         <f t="array" ref="AB20" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA20, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>i</v>
       </c>
-      <c r="AC20" s="584" t="str" cm="1">
+      <c r="AC20" s="32" t="str" cm="1">
         <f t="array" ref="AC20" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA20, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄧ</v>
       </c>
-      <c r="AD20" s="585" t="str" cm="1">
+      <c r="AD20" s="515" t="str" cm="1">
         <f t="array" ref="AD20" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA20, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄧ</v>
       </c>
-      <c r="AE20" s="466" t="str" cm="1">
+      <c r="AE20" s="461" t="str" cm="1">
         <f t="array" ref="AE20" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA20, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>i</v>
       </c>
@@ -16810,11 +16886,11 @@
         <v>"u" : ㄧ</v>
       </c>
       <c r="AH20" s="2"/>
-      <c r="AI20" s="398"/>
+      <c r="AI20" s="397"/>
       <c r="AJ20" s="2"/>
       <c r="AY20" s="11"/>
       <c r="BA20" s="2"/>
-      <c r="BB20" s="414"/>
+      <c r="BB20" s="413"/>
       <c r="BE20" s="2"/>
     </row>
     <row r="21" spans="2:57" ht="32.25">
@@ -16879,23 +16955,23 @@
         <f t="shared" si="10"/>
         <v>19</v>
       </c>
-      <c r="AA21" s="582" t="str">
+      <c r="AA21" s="71" t="str">
         <f>注音編碼對照表!$C21</f>
         <v>j</v>
       </c>
-      <c r="AB21" s="583" t="str" cm="1">
+      <c r="AB21" s="379" t="str" cm="1">
         <f t="array" ref="AB21" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA21, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>u</v>
       </c>
-      <c r="AC21" s="584" t="str" cm="1">
+      <c r="AC21" s="32" t="str" cm="1">
         <f t="array" ref="AC21" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA21, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄨ</v>
       </c>
-      <c r="AD21" s="585" t="str" cm="1">
+      <c r="AD21" s="515" t="str" cm="1">
         <f t="array" ref="AD21" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA21, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄨ</v>
       </c>
-      <c r="AE21" s="466" t="str" cm="1">
+      <c r="AE21" s="461" t="str" cm="1">
         <f t="array" ref="AE21" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA21, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>u</v>
       </c>
@@ -16905,11 +16981,11 @@
         <v>"j" : ㄨ</v>
       </c>
       <c r="AH21" s="2"/>
-      <c r="AI21" s="398"/>
+      <c r="AI21" s="397"/>
       <c r="AJ21" s="2"/>
       <c r="AY21" s="11"/>
       <c r="BA21" s="2"/>
-      <c r="BB21" s="414"/>
+      <c r="BB21" s="413"/>
       <c r="BE21" s="2"/>
     </row>
     <row r="22" spans="2:57" ht="32.25">
@@ -16975,23 +17051,23 @@
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="AA22" s="582" t="str">
+      <c r="AA22" s="71" t="str">
         <f>注音編碼對照表!$C22</f>
         <v>8</v>
       </c>
-      <c r="AB22" s="583" t="str" cm="1">
+      <c r="AB22" s="379" t="str" cm="1">
         <f t="array" ref="AB22" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA22, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>a</v>
       </c>
-      <c r="AC22" s="584" t="str" cm="1">
+      <c r="AC22" s="32" t="str" cm="1">
         <f t="array" ref="AC22" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA22, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄚ</v>
       </c>
-      <c r="AD22" s="585" t="str" cm="1">
+      <c r="AD22" s="515" t="str" cm="1">
         <f t="array" ref="AD22" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA22, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄚ</v>
       </c>
-      <c r="AE22" s="466" t="str" cm="1">
+      <c r="AE22" s="461" t="str" cm="1">
         <f t="array" ref="AE22" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA22, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>a</v>
       </c>
@@ -17001,11 +17077,11 @@
         <v>"8" : ㄚ</v>
       </c>
       <c r="AH22" s="2"/>
-      <c r="AI22" s="398"/>
+      <c r="AI22" s="397"/>
       <c r="AJ22" s="2"/>
       <c r="AY22" s="11"/>
       <c r="BA22" s="2"/>
-      <c r="BB22" s="414"/>
+      <c r="BB22" s="413"/>
       <c r="BE22" s="2"/>
     </row>
     <row r="23" spans="2:57" ht="32.25">
@@ -17071,23 +17147,23 @@
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="AA23" s="582" t="str">
+      <c r="AA23" s="71" t="str">
         <f>注音編碼對照表!$C23</f>
         <v>i</v>
       </c>
-      <c r="AB23" s="583" t="str" cm="1">
+      <c r="AB23" s="379" t="str" cm="1">
         <f t="array" ref="AB23" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA23, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>O</v>
       </c>
-      <c r="AC23" s="584" t="str" cm="1">
+      <c r="AC23" s="32" t="str" cm="1">
         <f t="array" ref="AC23" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA23, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㆦ</v>
       </c>
-      <c r="AD23" s="585" t="str" cm="1">
+      <c r="AD23" s="515" t="str" cm="1">
         <f t="array" ref="AD23" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA23, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄛ</v>
       </c>
-      <c r="AE23" s="466" t="str" cm="1">
+      <c r="AE23" s="461" t="str" cm="1">
         <f t="array" ref="AE23" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA23, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>oo</v>
       </c>
@@ -17097,11 +17173,11 @@
         <v>"i" : ㄛ</v>
       </c>
       <c r="AH23" s="2"/>
-      <c r="AI23" s="398"/>
+      <c r="AI23" s="397"/>
       <c r="AJ23" s="2"/>
       <c r="AY23" s="11"/>
       <c r="BA23" s="2"/>
-      <c r="BB23" s="414"/>
+      <c r="BB23" s="413"/>
       <c r="BE23" s="2"/>
     </row>
     <row r="24" spans="2:57" ht="32.25">
@@ -17167,23 +17243,23 @@
         <f t="shared" si="10"/>
         <v>22</v>
       </c>
-      <c r="AA24" s="582" t="str">
+      <c r="AA24" s="71" t="str">
         <f>注音編碼對照表!$C24</f>
         <v>k</v>
       </c>
-      <c r="AB24" s="583" t="str" cm="1">
+      <c r="AB24" s="379" t="str" cm="1">
         <f t="array" ref="AB24" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA24, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>o</v>
       </c>
-      <c r="AC24" s="584" t="str" cm="1">
+      <c r="AC24" s="32" t="str" cm="1">
         <f t="array" ref="AC24" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA24, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄜ</v>
       </c>
-      <c r="AD24" s="585" t="str" cm="1">
+      <c r="AD24" s="515" t="str" cm="1">
         <f t="array" ref="AD24" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA24, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄜ</v>
       </c>
-      <c r="AE24" s="466" t="str" cm="1">
+      <c r="AE24" s="461" t="str" cm="1">
         <f t="array" ref="AE24" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA24, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>o</v>
       </c>
@@ -17193,11 +17269,11 @@
         <v>"k" : ㄜ</v>
       </c>
       <c r="AH24" s="2"/>
-      <c r="AI24" s="398"/>
+      <c r="AI24" s="397"/>
       <c r="AJ24" s="2"/>
       <c r="AY24" s="11"/>
       <c r="BA24" s="2"/>
-      <c r="BB24" s="414"/>
+      <c r="BB24" s="413"/>
       <c r="BE24" s="2"/>
     </row>
     <row r="25" spans="2:57" ht="32.25">
@@ -17267,23 +17343,23 @@
         <f t="shared" si="10"/>
         <v>23</v>
       </c>
-      <c r="AA25" s="582" t="str">
+      <c r="AA25" s="71" t="str">
         <f>注音編碼對照表!$C25</f>
         <v>,</v>
       </c>
-      <c r="AB25" s="583" t="str" cm="1">
+      <c r="AB25" s="379" t="str" cm="1">
         <f t="array" ref="AB25" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA25, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>e</v>
       </c>
-      <c r="AC25" s="584" t="str" cm="1">
+      <c r="AC25" s="32" t="str" cm="1">
         <f t="array" ref="AC25" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA25, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㆤ</v>
       </c>
-      <c r="AD25" s="585" t="str" cm="1">
+      <c r="AD25" s="515" t="str" cm="1">
         <f t="array" ref="AD25" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA25, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄝ</v>
       </c>
-      <c r="AE25" s="466" t="str" cm="1">
+      <c r="AE25" s="461" t="str" cm="1">
         <f t="array" ref="AE25" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA25, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>e</v>
       </c>
@@ -17293,11 +17369,11 @@
         <v>"," : ㄝ</v>
       </c>
       <c r="AH25" s="2"/>
-      <c r="AI25" s="398"/>
+      <c r="AI25" s="397"/>
       <c r="AJ25" s="2"/>
       <c r="AY25" s="11"/>
       <c r="BA25" s="2"/>
-      <c r="BB25" s="414"/>
+      <c r="BB25" s="413"/>
       <c r="BE25" s="2"/>
     </row>
     <row r="26" spans="2:57" ht="32.25">
@@ -17367,23 +17443,23 @@
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="AA26" s="582" t="str">
+      <c r="AA26" s="71" t="str">
         <f>注音編碼對照表!$C26</f>
         <v>9</v>
       </c>
-      <c r="AB26" s="583" t="str" cm="1">
+      <c r="AB26" s="379" t="str" cm="1">
         <f t="array" ref="AB26" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA26, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>y</v>
       </c>
-      <c r="AC26" s="584" t="str" cm="1">
+      <c r="AC26" s="32" t="str" cm="1">
         <f t="array" ref="AC26" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA26, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄞ</v>
       </c>
-      <c r="AD26" s="585" t="str" cm="1">
+      <c r="AD26" s="515" t="str" cm="1">
         <f t="array" ref="AD26" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA26, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄞ</v>
       </c>
-      <c r="AE26" s="466" t="str" cm="1">
+      <c r="AE26" s="461" t="str" cm="1">
         <f t="array" ref="AE26" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA26, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ai</v>
       </c>
@@ -17393,13 +17469,13 @@
         <v>"U" : ㄥㄧ</v>
       </c>
       <c r="AH26" s="2"/>
-      <c r="AI26" s="398" t="s">
+      <c r="AI26" s="397" t="s">
         <v>67</v>
       </c>
       <c r="AJ26" s="2"/>
       <c r="AY26" s="11"/>
       <c r="BA26" s="2"/>
-      <c r="BB26" s="414"/>
+      <c r="BB26" s="413"/>
       <c r="BE26" s="2"/>
     </row>
     <row r="27" spans="2:57" ht="32.25">
@@ -17461,23 +17537,23 @@
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="AA27" s="582" t="str">
+      <c r="AA27" s="71" t="str">
         <f>注音編碼對照表!$C27</f>
         <v>l</v>
       </c>
-      <c r="AB27" s="583" t="str" cm="1">
+      <c r="AB27" s="379" t="str" cm="1">
         <f t="array" ref="AB27" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA27, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>x</v>
       </c>
-      <c r="AC27" s="584" t="str" cm="1">
+      <c r="AC27" s="32" t="str" cm="1">
         <f t="array" ref="AC27" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA27, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄠ</v>
       </c>
-      <c r="AD27" s="585" t="str" cm="1">
+      <c r="AD27" s="515" t="str" cm="1">
         <f t="array" ref="AD27" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA27, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄠ</v>
       </c>
-      <c r="AE27" s="466" t="str" cm="1">
+      <c r="AE27" s="461" t="str" cm="1">
         <f t="array" ref="AE27" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA27, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>au</v>
       </c>
@@ -17487,13 +17563,13 @@
         <v>"9" : ㄞ</v>
       </c>
       <c r="AH27" s="2"/>
-      <c r="AI27" s="398" t="s">
+      <c r="AI27" s="397" t="s">
         <v>121</v>
       </c>
       <c r="AJ27" s="2"/>
       <c r="AY27" s="11"/>
       <c r="BA27" s="2"/>
-      <c r="BB27" s="414"/>
+      <c r="BB27" s="413"/>
       <c r="BE27" s="2"/>
     </row>
     <row r="28" spans="2:57" ht="32.25">
@@ -17555,23 +17631,23 @@
         <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="AA28" s="582" t="str">
+      <c r="AA28" s="71" t="str">
         <f>注音編碼對照表!$C28</f>
         <v>0</v>
       </c>
-      <c r="AB28" s="583" t="str" cm="1">
+      <c r="AB28" s="379" t="str" cm="1">
         <f t="array" ref="AB28" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA28, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>@</v>
       </c>
-      <c r="AC28" s="584" t="str" cm="1">
+      <c r="AC28" s="32" t="str" cm="1">
         <f t="array" ref="AC28" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA28, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄢ</v>
       </c>
-      <c r="AD28" s="585" t="str" cm="1">
+      <c r="AD28" s="515" t="str" cm="1">
         <f t="array" ref="AD28" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA28, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄢ</v>
       </c>
-      <c r="AE28" s="466" t="str" cm="1">
+      <c r="AE28" s="461" t="str" cm="1">
         <f t="array" ref="AE28" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA28, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>an</v>
       </c>
@@ -17581,13 +17657,13 @@
         <v>"l" : ㄠ</v>
       </c>
       <c r="AH28" s="2"/>
-      <c r="AI28" s="398" t="s">
+      <c r="AI28" s="397" t="s">
         <v>473</v>
       </c>
       <c r="AJ28" s="2"/>
       <c r="AY28" s="11"/>
       <c r="BA28" s="2"/>
-      <c r="BB28" s="414"/>
+      <c r="BB28" s="413"/>
       <c r="BE28" s="2"/>
     </row>
     <row r="29" spans="2:57" ht="32.25">
@@ -17649,23 +17725,23 @@
         <f t="shared" si="10"/>
         <v>27</v>
       </c>
-      <c r="AA29" s="582" t="str">
+      <c r="AA29" s="71" t="str">
         <f>注音編碼對照表!$C29</f>
         <v>;</v>
       </c>
-      <c r="AB29" s="583" t="str" cm="1">
+      <c r="AB29" s="379" t="str" cm="1">
         <f t="array" ref="AB29" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA29, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>G</v>
       </c>
-      <c r="AC29" s="584" t="str" cm="1">
+      <c r="AC29" s="32" t="str" cm="1">
         <f t="array" ref="AC29" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA29, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄤ</v>
       </c>
-      <c r="AD29" s="585" t="str" cm="1">
+      <c r="AD29" s="515" t="str" cm="1">
         <f t="array" ref="AD29" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA29, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄤ</v>
       </c>
-      <c r="AE29" s="466" t="str" cm="1">
+      <c r="AE29" s="461" t="str" cm="1">
         <f t="array" ref="AE29" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA29, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ang</v>
       </c>
@@ -17675,13 +17751,13 @@
         <v>"0" : ㄢ</v>
       </c>
       <c r="AH29" s="2"/>
-      <c r="AI29" s="398" t="s">
+      <c r="AI29" s="397" t="s">
         <v>61</v>
       </c>
       <c r="AJ29" s="2"/>
       <c r="AY29" s="11"/>
       <c r="BA29" s="2"/>
-      <c r="BB29" s="414"/>
+      <c r="BB29" s="413"/>
       <c r="BE29" s="2"/>
     </row>
     <row r="30" spans="2:57" ht="32.25">
@@ -17743,23 +17819,23 @@
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="AA30" s="582" t="str">
+      <c r="AA30" s="71" t="str">
         <f>注音編碼對照表!$C30</f>
         <v>-</v>
       </c>
-      <c r="AB30" s="583" t="str" cm="1">
+      <c r="AB30" s="379" t="str" cm="1">
         <f t="array" ref="AB30" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA30, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>R</v>
       </c>
-      <c r="AC30" s="584" t="str" cm="1">
+      <c r="AC30" s="32" t="str" cm="1">
         <f t="array" ref="AC30" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA30, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㆨ</v>
       </c>
-      <c r="AD30" s="585" t="str" cm="1">
+      <c r="AD30" s="515" t="str" cm="1">
         <f t="array" ref="AD30" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA30, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄦ</v>
       </c>
-      <c r="AE30" s="466" t="str" cm="1">
+      <c r="AE30" s="461" t="str" cm="1">
         <f t="array" ref="AE30" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA30, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ir</v>
       </c>
@@ -17769,13 +17845,13 @@
         <v>";" : ㄤ</v>
       </c>
       <c r="AH30" s="2"/>
-      <c r="AI30" s="398" t="s">
+      <c r="AI30" s="397" t="s">
         <v>119</v>
       </c>
       <c r="AJ30" s="2"/>
       <c r="AY30" s="11"/>
       <c r="BA30" s="2"/>
-      <c r="BB30" s="414"/>
+      <c r="BB30" s="413"/>
       <c r="BE30" s="2"/>
     </row>
     <row r="31" spans="2:57" ht="32.25">
@@ -17837,23 +17913,23 @@
         <f t="shared" si="10"/>
         <v>29</v>
       </c>
-      <c r="AA31" s="582" t="str">
+      <c r="AA31" s="71" t="str">
         <f>注音編碼對照表!$C31</f>
         <v>U</v>
       </c>
-      <c r="AB31" s="583" t="str" cm="1">
+      <c r="AB31" s="379" t="str" cm="1">
         <f t="array" ref="AB31" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA31, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>I</v>
       </c>
-      <c r="AC31" s="584" t="str" cm="1">
+      <c r="AC31" s="32" t="str" cm="1">
         <f t="array" ref="AC31" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA31, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㆪ</v>
       </c>
-      <c r="AD31" s="585" t="str" cm="1">
+      <c r="AD31" s="515" t="str" cm="1">
         <f t="array" ref="AD31" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA31, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄥㄧ</v>
       </c>
-      <c r="AE31" s="466" t="str" cm="1">
+      <c r="AE31" s="461" t="str" cm="1">
         <f t="array" ref="AE31" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA31, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>inn</v>
       </c>
@@ -17863,13 +17939,13 @@
         <v>"-" : ㄦ</v>
       </c>
       <c r="AH31" s="2"/>
-      <c r="AI31" s="398" t="s">
+      <c r="AI31" s="397" t="s">
         <v>241</v>
       </c>
       <c r="AJ31" s="2"/>
       <c r="AY31" s="11"/>
       <c r="BA31" s="2"/>
-      <c r="BB31" s="414"/>
+      <c r="BB31" s="413"/>
       <c r="BE31" s="2"/>
     </row>
     <row r="32" spans="2:57" ht="32.25">
@@ -17931,23 +18007,23 @@
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="AA32" s="582" t="str">
+      <c r="AA32" s="71" t="str">
         <f>注音編碼對照表!$C32</f>
         <v>J</v>
       </c>
-      <c r="AB32" s="583" t="str" cm="1">
+      <c r="AB32" s="379" t="str" cm="1">
         <f t="array" ref="AB32" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA32, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>U</v>
       </c>
-      <c r="AC32" s="584" t="str" cm="1">
+      <c r="AC32" s="32" t="str" cm="1">
         <f t="array" ref="AC32" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA32, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㆫ</v>
       </c>
-      <c r="AD32" s="585" t="str" cm="1">
+      <c r="AD32" s="515" t="str" cm="1">
         <f t="array" ref="AD32" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA32, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄥㄨ</v>
       </c>
-      <c r="AE32" s="466" t="str" cm="1">
+      <c r="AE32" s="461" t="str" cm="1">
         <f t="array" ref="AE32" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA32, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>unn</v>
       </c>
@@ -17957,12 +18033,12 @@
         <v>"J" : ㄥㄨ</v>
       </c>
       <c r="AH32" s="2"/>
-      <c r="AI32" s="398" t="s">
+      <c r="AI32" s="397" t="s">
         <v>117</v>
       </c>
       <c r="AY32" s="11"/>
       <c r="BA32" s="2"/>
-      <c r="BB32" s="414"/>
+      <c r="BB32" s="413"/>
       <c r="BE32" s="2"/>
     </row>
     <row r="33" spans="2:57" ht="32.25">
@@ -18024,23 +18100,23 @@
         <f t="shared" si="10"/>
         <v>31</v>
       </c>
-      <c r="AA33" s="582" t="str">
+      <c r="AA33" s="71" t="str">
         <f>注音編碼對照表!$C33</f>
         <v>*</v>
       </c>
-      <c r="AB33" s="583" t="str" cm="1">
+      <c r="AB33" s="379" t="str" cm="1">
         <f t="array" ref="AB33" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA33, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>A</v>
       </c>
-      <c r="AC33" s="584" t="str" cm="1">
+      <c r="AC33" s="32" t="str" cm="1">
         <f t="array" ref="AC33" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA33, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㆩ</v>
       </c>
-      <c r="AD33" s="585" t="str" cm="1">
+      <c r="AD33" s="515" t="str" cm="1">
         <f t="array" ref="AD33" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA33, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄥㄚ</v>
       </c>
-      <c r="AE33" s="466" t="str" cm="1">
+      <c r="AE33" s="461" t="str" cm="1">
         <f t="array" ref="AE33" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA33, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ann</v>
       </c>
@@ -18050,13 +18126,13 @@
         <v>"*" : ㄥㄚ</v>
       </c>
       <c r="AH33" s="2"/>
-      <c r="AI33" s="398" t="s">
+      <c r="AI33" s="397" t="s">
         <v>72</v>
       </c>
       <c r="AJ33" s="2"/>
       <c r="AY33" s="11"/>
       <c r="BA33" s="2"/>
-      <c r="BB33" s="414"/>
+      <c r="BB33" s="413"/>
       <c r="BE33" s="2"/>
     </row>
     <row r="34" spans="2:57" ht="32.25">
@@ -18118,23 +18194,23 @@
         <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="AA34" s="582" t="str">
+      <c r="AA34" s="71" t="str">
         <f>注音編碼對照表!$C34</f>
         <v>I</v>
       </c>
-      <c r="AB34" s="583" t="str" cm="1">
+      <c r="AB34" s="379" t="str" cm="1">
         <f t="array" ref="AB34" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA34, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>Q</v>
       </c>
-      <c r="AC34" s="584" t="str" cm="1">
+      <c r="AC34" s="32" t="str" cm="1">
         <f t="array" ref="AC34" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA34, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㆧ</v>
       </c>
-      <c r="AD34" s="585" t="str" cm="1">
+      <c r="AD34" s="515" t="str" cm="1">
         <f t="array" ref="AD34" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA34, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄥㄛ</v>
       </c>
-      <c r="AE34" s="466" t="str" cm="1">
+      <c r="AE34" s="461" t="str" cm="1">
         <f t="array" ref="AE34" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA34, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>onn</v>
       </c>
@@ -18144,13 +18220,13 @@
         <v>"I" : ㄥㄛ</v>
       </c>
       <c r="AH34" s="2"/>
-      <c r="AI34" s="398" t="s">
+      <c r="AI34" s="397" t="s">
         <v>123</v>
       </c>
       <c r="AJ34" s="2"/>
       <c r="AY34" s="11"/>
       <c r="BA34" s="2"/>
-      <c r="BB34" s="414"/>
+      <c r="BB34" s="413"/>
       <c r="BE34" s="2"/>
     </row>
     <row r="35" spans="2:57" ht="32.25">
@@ -18212,23 +18288,23 @@
         <f t="shared" si="10"/>
         <v>33</v>
       </c>
-      <c r="AA35" s="582" t="str">
+      <c r="AA35" s="71" t="str">
         <f>注音編碼對照表!$C35</f>
         <v>&lt;</v>
       </c>
-      <c r="AB35" s="583" t="str" cm="1">
+      <c r="AB35" s="379" t="str" cm="1">
         <f t="array" ref="AB35" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA35, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>E</v>
       </c>
-      <c r="AC35" s="584" t="str" cm="1">
+      <c r="AC35" s="32" t="str" cm="1">
         <f t="array" ref="AC35" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA35, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㆥ</v>
       </c>
-      <c r="AD35" s="585" t="str" cm="1">
+      <c r="AD35" s="515" t="str" cm="1">
         <f t="array" ref="AD35" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA35, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄥㄝ</v>
       </c>
-      <c r="AE35" s="466" t="str" cm="1">
+      <c r="AE35" s="461" t="str" cm="1">
         <f t="array" ref="AE35" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA35, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>enn</v>
       </c>
@@ -18238,13 +18314,13 @@
         <v>"&lt;" : ㄥㄝ</v>
       </c>
       <c r="AH35" s="2"/>
-      <c r="AI35" s="398" t="s">
+      <c r="AI35" s="397" t="s">
         <v>97</v>
       </c>
       <c r="AJ35" s="2"/>
       <c r="AY35" s="11"/>
       <c r="BA35" s="2"/>
-      <c r="BB35" s="414"/>
+      <c r="BB35" s="413"/>
       <c r="BE35" s="2"/>
     </row>
     <row r="36" spans="2:57" ht="32.25">
@@ -18306,23 +18382,23 @@
         <f t="shared" si="10"/>
         <v>34</v>
       </c>
-      <c r="AA36" s="582" t="str">
+      <c r="AA36" s="71" t="str">
         <f>注音編碼對照表!$C36</f>
         <v>(</v>
       </c>
-      <c r="AB36" s="583" t="str" cm="1">
+      <c r="AB36" s="379" t="str" cm="1">
         <f t="array" ref="AB36" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA36, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>Y</v>
       </c>
-      <c r="AC36" s="584" t="str" cm="1">
+      <c r="AC36" s="32" t="str" cm="1">
         <f t="array" ref="AC36" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA36, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㆮ</v>
       </c>
-      <c r="AD36" s="585" t="str" cm="1">
+      <c r="AD36" s="515" t="str" cm="1">
         <f t="array" ref="AD36" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA36, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄥㄞ</v>
       </c>
-      <c r="AE36" s="466" t="str" cm="1">
+      <c r="AE36" s="461" t="str" cm="1">
         <f t="array" ref="AE36" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA36, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ainn</v>
       </c>
@@ -18332,13 +18408,13 @@
         <v>"(" : ㄥㄞ</v>
       </c>
       <c r="AH36" s="2"/>
-      <c r="AI36" s="398" t="s">
+      <c r="AI36" s="397" t="s">
         <v>95</v>
       </c>
       <c r="AJ36" s="2"/>
       <c r="AY36" s="11"/>
       <c r="BA36" s="2"/>
-      <c r="BB36" s="414"/>
+      <c r="BB36" s="413"/>
       <c r="BE36" s="2"/>
     </row>
     <row r="37" spans="2:57" ht="32.25">
@@ -18400,23 +18476,23 @@
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="AA37" s="582" t="str">
+      <c r="AA37" s="71" t="str">
         <f>注音編碼對照表!$C37</f>
         <v>L</v>
       </c>
-      <c r="AB37" s="583" t="str" cm="1">
+      <c r="AB37" s="379" t="str" cm="1">
         <f t="array" ref="AB37" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA37, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>X</v>
       </c>
-      <c r="AC37" s="584" t="str" cm="1">
+      <c r="AC37" s="32" t="str" cm="1">
         <f t="array" ref="AC37" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA37, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㆯ</v>
       </c>
-      <c r="AD37" s="585" t="str" cm="1">
+      <c r="AD37" s="515" t="str" cm="1">
         <f t="array" ref="AD37" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA37, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄥㄠ</v>
       </c>
-      <c r="AE37" s="466" t="str" cm="1">
+      <c r="AE37" s="461" t="str" cm="1">
         <f t="array" ref="AE37" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA37, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>aunn</v>
       </c>
@@ -18426,13 +18502,13 @@
         <v>"L" : ㄥㄠ</v>
       </c>
       <c r="AH37" s="2"/>
-      <c r="AI37" s="398" t="s">
+      <c r="AI37" s="397" t="s">
         <v>101</v>
       </c>
       <c r="AJ37" s="2"/>
       <c r="AY37" s="11"/>
       <c r="BA37" s="2"/>
-      <c r="BB37" s="414"/>
+      <c r="BB37" s="413"/>
       <c r="BE37" s="2"/>
     </row>
     <row r="38" spans="2:57" ht="32.25">
@@ -18494,23 +18570,23 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="AA38" s="582" t="str">
+      <c r="AA38" s="71" t="str">
         <f>注音編碼對照表!$C38</f>
         <v>M</v>
       </c>
-      <c r="AB38" s="583" t="str" cm="1">
+      <c r="AB38" s="379" t="str" cm="1">
         <f t="array" ref="AB38" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA38, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>V</v>
       </c>
-      <c r="AC38" s="584" t="str" cm="1">
+      <c r="AC38" s="32" t="str" cm="1">
         <f t="array" ref="AC38" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA38, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㆰ</v>
       </c>
-      <c r="AD38" s="585" t="str" cm="1">
+      <c r="AD38" s="515" t="str" cm="1">
         <f t="array" ref="AD38" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA38, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄚㄇ</v>
       </c>
-      <c r="AE38" s="466" t="str" cm="1">
+      <c r="AE38" s="461" t="str" cm="1">
         <f t="array" ref="AE38" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA38, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>am</v>
       </c>
@@ -18520,13 +18596,13 @@
         <v>"M" : ㄚㄇ</v>
       </c>
       <c r="AH38" s="2"/>
-      <c r="AI38" s="398" t="s">
+      <c r="AI38" s="397" t="s">
         <v>593</v>
       </c>
       <c r="AJ38" s="2"/>
       <c r="AY38" s="11"/>
       <c r="BA38" s="2"/>
-      <c r="BB38" s="414"/>
+      <c r="BB38" s="413"/>
       <c r="BE38" s="2"/>
     </row>
     <row r="39" spans="2:57" ht="32.25">
@@ -18588,23 +18664,23 @@
         <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="AA39" s="582" t="str">
+      <c r="AA39" s="71" t="str">
         <f>注音編碼對照表!$C39</f>
         <v>o</v>
       </c>
-      <c r="AB39" s="583" t="str" cm="1">
+      <c r="AB39" s="379" t="str" cm="1">
         <f t="array" ref="AB39" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA39, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>H</v>
       </c>
-      <c r="AC39" s="584" t="str" cm="1">
+      <c r="AC39" s="32" t="str" cm="1">
         <f t="array" ref="AC39" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA39, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㆲ</v>
       </c>
-      <c r="AD39" s="585" t="str" cm="1">
+      <c r="AD39" s="515" t="str" cm="1">
         <f t="array" ref="AD39" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA39, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄛㆭ</v>
       </c>
-      <c r="AE39" s="466" t="str" cm="1">
+      <c r="AE39" s="461" t="str" cm="1">
         <f t="array" ref="AE39" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA39, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ong</v>
       </c>
@@ -18614,13 +18690,13 @@
         <v>"o" : ㄛㆭ</v>
       </c>
       <c r="AH39" s="2"/>
-      <c r="AI39" s="398" t="s">
+      <c r="AI39" s="397" t="s">
         <v>125</v>
       </c>
       <c r="AJ39" s="2"/>
       <c r="AY39" s="11"/>
       <c r="BA39" s="2"/>
-      <c r="BB39" s="414"/>
+      <c r="BB39" s="413"/>
       <c r="BE39" s="2"/>
     </row>
     <row r="40" spans="2:57" ht="32.25">
@@ -18682,23 +18758,23 @@
         <f t="shared" si="10"/>
         <v>38</v>
       </c>
-      <c r="AA40" s="582" t="str">
+      <c r="AA40" s="71" t="str">
         <f>注音編碼對照表!$C40</f>
         <v>/</v>
       </c>
-      <c r="AB40" s="583" t="str" cm="1">
+      <c r="AB40" s="379" t="str" cm="1">
         <f t="array" ref="AB40" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA40, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>W</v>
       </c>
-      <c r="AC40" s="584" t="str" cm="1">
+      <c r="AC40" s="32" t="str" cm="1">
         <f t="array" ref="AC40" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA40, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㆭ</v>
       </c>
-      <c r="AD40" s="585" t="str" cm="1">
+      <c r="AD40" s="515" t="str" cm="1">
         <f t="array" ref="AD40" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA40, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㆭ</v>
       </c>
-      <c r="AE40" s="466" t="str" cm="1">
+      <c r="AE40" s="461" t="str" cm="1">
         <f t="array" ref="AE40" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA40, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>-ng</v>
       </c>
@@ -18708,13 +18784,13 @@
         <v xml:space="preserve">"" : </v>
       </c>
       <c r="AH40" s="2"/>
-      <c r="AI40" s="398" t="s">
+      <c r="AI40" s="397" t="s">
         <v>99</v>
       </c>
       <c r="AJ40" s="2"/>
       <c r="AY40" s="11"/>
       <c r="BA40" s="2"/>
-      <c r="BB40" s="414"/>
+      <c r="BB40" s="413"/>
       <c r="BE40" s="2"/>
     </row>
     <row r="41" spans="2:57" ht="32.25">
@@ -18776,23 +18852,23 @@
         <f t="shared" si="10"/>
         <v>39</v>
       </c>
-      <c r="AA41" s="582" t="str">
+      <c r="AA41" s="71" t="str">
         <f>注音編碼對照表!$C41</f>
         <v>p</v>
       </c>
-      <c r="AB41" s="583" t="str" cm="1">
+      <c r="AB41" s="379" t="str" cm="1">
         <f t="array" ref="AB41" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA41, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>N</v>
       </c>
-      <c r="AC41" s="584" t="str" cm="1">
+      <c r="AC41" s="32" t="str" cm="1">
         <f t="array" ref="AC41" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA41, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄣ</v>
       </c>
-      <c r="AD41" s="585" t="str" cm="1">
+      <c r="AD41" s="515" t="str" cm="1">
         <f t="array" ref="AD41" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA41, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄯ</v>
       </c>
-      <c r="AE41" s="466" t="str" cm="1">
+      <c r="AE41" s="461" t="str" cm="1">
         <f t="array" ref="AE41" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA41, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>-n</v>
       </c>
@@ -18802,13 +18878,13 @@
         <v>"/" : ㆭ</v>
       </c>
       <c r="AH41" s="2"/>
-      <c r="AI41" s="398" t="s">
+      <c r="AI41" s="397" t="s">
         <v>145</v>
       </c>
       <c r="AJ41" s="2"/>
       <c r="AY41" s="11"/>
       <c r="BA41" s="2"/>
-      <c r="BB41" s="414"/>
+      <c r="BB41" s="413"/>
       <c r="BE41" s="2"/>
     </row>
     <row r="42" spans="2:57" ht="32.25">
@@ -18870,23 +18946,23 @@
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="AA42" s="582" t="str">
+      <c r="AA42" s="71" t="str">
         <f>注音編碼對照表!$C42</f>
         <v>m</v>
       </c>
-      <c r="AB42" s="583" t="str" cm="1">
+      <c r="AB42" s="379" t="str" cm="1">
         <f t="array" ref="AB42" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA42, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>M</v>
       </c>
-      <c r="AC42" s="584" t="str" cm="1">
+      <c r="AC42" s="32" t="str" cm="1">
         <f t="array" ref="AC42" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA42, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㆬ</v>
       </c>
-      <c r="AD42" s="585" t="str" cm="1">
+      <c r="AD42" s="515" t="str" cm="1">
         <f t="array" ref="AD42" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA42, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄇ</v>
       </c>
-      <c r="AE42" s="466" t="str" cm="1">
+      <c r="AE42" s="461" t="str" cm="1">
         <f t="array" ref="AE42" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA42, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>-m</v>
       </c>
@@ -18896,13 +18972,13 @@
         <v>"p" : ㄯ</v>
       </c>
       <c r="AH42" s="2"/>
-      <c r="AI42" s="398" t="s">
+      <c r="AI42" s="397" t="s">
         <v>74</v>
       </c>
       <c r="AJ42" s="2"/>
       <c r="AY42" s="11"/>
       <c r="BA42" s="2"/>
-      <c r="BB42" s="414"/>
+      <c r="BB42" s="413"/>
       <c r="BE42" s="2"/>
     </row>
     <row r="43" spans="2:57" ht="32.25">
@@ -18964,23 +19040,23 @@
         <f t="shared" si="10"/>
         <v>41</v>
       </c>
-      <c r="AA43" s="582" t="str">
+      <c r="AA43" s="71" t="str">
         <f>注音編碼對照表!$C43</f>
         <v>.</v>
       </c>
-      <c r="AB43" s="583" t="str" cm="1">
+      <c r="AB43" s="379" t="str" cm="1">
         <f t="array" ref="AB43" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA43, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>B</v>
       </c>
-      <c r="AC43" s="584" t="str" cm="1">
+      <c r="AC43" s="32" t="str" cm="1">
         <f t="array" ref="AC43" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA43, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ㄬ</v>
       </c>
-      <c r="AD43" s="585" t="str" cm="1">
+      <c r="AD43" s="515" t="str" cm="1">
         <f t="array" ref="AD43" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA43, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v></v>
       </c>
-      <c r="AE43" s="466" t="str" cm="1">
+      <c r="AE43" s="461" t="str" cm="1">
         <f t="array" ref="AE43" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA43, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>-nn</v>
       </c>
@@ -18990,13 +19066,13 @@
         <v>"m" : ㄇ</v>
       </c>
       <c r="AH43" s="2"/>
-      <c r="AI43" s="398" t="s">
+      <c r="AI43" s="397" t="s">
         <v>76</v>
       </c>
       <c r="AJ43" s="2"/>
       <c r="AY43" s="11"/>
       <c r="BA43" s="2"/>
-      <c r="BB43" s="414"/>
+      <c r="BB43" s="413"/>
       <c r="BE43" s="2"/>
     </row>
     <row r="44" spans="2:57" ht="32.25">
@@ -19058,11 +19134,11 @@
         <f t="shared" si="10"/>
         <v>42</v>
       </c>
-      <c r="AA44" s="582" t="str">
+      <c r="AA44" s="71" t="str">
         <f>注音編碼對照表!$C44</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB44" s="463" t="str" cm="1">
+      <c r="AB44" s="458" t="str" cm="1">
         <f t="array" ref="AB44" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA44, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>1</v>
       </c>
@@ -19070,11 +19146,11 @@
         <f t="array" ref="AC44" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA44, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ˉ</v>
       </c>
-      <c r="AD44" s="553" t="str" cm="1">
+      <c r="AD44" s="548" t="str" cm="1">
         <f t="array" ref="AD44" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA44, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ˉ</v>
       </c>
-      <c r="AE44" s="465" cm="1">
+      <c r="AE44" s="460" cm="1">
         <f t="array" ref="AE44" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA44, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>1</v>
       </c>
@@ -19084,13 +19160,13 @@
         <v>"." : </v>
       </c>
       <c r="AH44" s="2"/>
-      <c r="AI44" s="398" t="s">
+      <c r="AI44" s="397" t="s">
         <v>594</v>
       </c>
       <c r="AJ44" s="2"/>
       <c r="AY44" s="11"/>
       <c r="BA44" s="2"/>
-      <c r="BB44" s="414"/>
+      <c r="BB44" s="413"/>
       <c r="BE44" s="2"/>
     </row>
     <row r="45" spans="2:57" ht="32.25">
@@ -19142,23 +19218,23 @@
         <f t="shared" si="10"/>
         <v>43</v>
       </c>
-      <c r="AA45" s="582" t="str">
+      <c r="AA45" s="71" t="str">
         <f>注音編碼對照表!$C45</f>
         <v>4</v>
       </c>
-      <c r="AB45" s="583" t="str" cm="1">
+      <c r="AB45" s="379" t="str" cm="1">
         <f t="array" ref="AB45" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA45, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>2</v>
       </c>
-      <c r="AC45" s="584" t="str" cm="1">
+      <c r="AC45" s="32" t="str" cm="1">
         <f t="array" ref="AC45" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA45, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ˋ</v>
       </c>
-      <c r="AD45" s="585" t="str" cm="1">
+      <c r="AD45" s="515" t="str" cm="1">
         <f t="array" ref="AD45" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA45, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ˋ</v>
       </c>
-      <c r="AE45" s="466" cm="1">
+      <c r="AE45" s="461" cm="1">
         <f t="array" ref="AE45" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA45, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>2</v>
       </c>
@@ -19168,11 +19244,11 @@
         <v>" " : ˉ</v>
       </c>
       <c r="AH45" s="2"/>
-      <c r="AI45" s="398"/>
+      <c r="AI45" s="397"/>
       <c r="AJ45" s="2"/>
       <c r="AY45" s="11"/>
       <c r="BA45" s="2"/>
-      <c r="BB45" s="414"/>
+      <c r="BB45" s="413"/>
       <c r="BE45" s="2"/>
     </row>
     <row r="46" spans="2:57" ht="32.25">
@@ -19237,23 +19313,23 @@
         <f t="shared" si="10"/>
         <v>44</v>
       </c>
-      <c r="AA46" s="582" t="str">
+      <c r="AA46" s="71" t="str">
         <f>注音編碼對照表!$C46</f>
         <v>3</v>
       </c>
-      <c r="AB46" s="583" t="str" cm="1">
+      <c r="AB46" s="379" t="str" cm="1">
         <f t="array" ref="AB46" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA46, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>3</v>
       </c>
-      <c r="AC46" s="584" t="str" cm="1">
+      <c r="AC46" s="32" t="str" cm="1">
         <f t="array" ref="AC46" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA46, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>˪</v>
       </c>
-      <c r="AD46" s="585" t="str" cm="1">
+      <c r="AD46" s="515" t="str" cm="1">
         <f t="array" ref="AD46" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA46, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>˪</v>
       </c>
-      <c r="AE46" s="466" cm="1">
+      <c r="AE46" s="461" cm="1">
         <f t="array" ref="AE46" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA46, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>3</v>
       </c>
@@ -19263,11 +19339,11 @@
         <v>"4" : ˋ</v>
       </c>
       <c r="AH46" s="2"/>
-      <c r="AI46" s="398"/>
+      <c r="AI46" s="397"/>
       <c r="AJ46" s="2"/>
       <c r="AY46" s="11"/>
       <c r="BA46" s="2"/>
-      <c r="BB46" s="414"/>
+      <c r="BB46" s="413"/>
       <c r="BE46" s="2"/>
     </row>
     <row r="47" spans="2:57" ht="32.25">
@@ -19338,23 +19414,23 @@
         <f t="shared" si="10"/>
         <v>45</v>
       </c>
-      <c r="AA47" s="582" t="str">
+      <c r="AA47" s="71" t="str">
         <f>注音編碼對照表!$C47</f>
         <v>6</v>
       </c>
-      <c r="AB47" s="583" t="str" cm="1">
+      <c r="AB47" s="379" t="str" cm="1">
         <f t="array" ref="AB47" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA47, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>5</v>
       </c>
-      <c r="AC47" s="584" t="str" cm="1">
+      <c r="AC47" s="32" t="str" cm="1">
         <f t="array" ref="AC47" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA47, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ˊ</v>
       </c>
-      <c r="AD47" s="585" t="str" cm="1">
+      <c r="AD47" s="515" t="str" cm="1">
         <f t="array" ref="AD47" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA47, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ˊ</v>
       </c>
-      <c r="AE47" s="466" cm="1">
+      <c r="AE47" s="461" cm="1">
         <f t="array" ref="AE47" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA47, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>5</v>
       </c>
@@ -19364,11 +19440,11 @@
         <v>"3" : ˪</v>
       </c>
       <c r="AH47" s="2"/>
-      <c r="AI47" s="398"/>
+      <c r="AI47" s="397"/>
       <c r="AJ47" s="2"/>
       <c r="AY47" s="11"/>
       <c r="BA47" s="2"/>
-      <c r="BB47" s="414"/>
+      <c r="BB47" s="413"/>
       <c r="BE47" s="2"/>
     </row>
     <row r="48" spans="2:57" ht="32.25">
@@ -19440,23 +19516,23 @@
         <f t="shared" si="10"/>
         <v>46</v>
       </c>
-      <c r="AA48" s="582" t="str">
+      <c r="AA48" s="71" t="str">
         <f>注音編碼對照表!$C48</f>
         <v>5</v>
       </c>
-      <c r="AB48" s="583" t="str" cm="1">
+      <c r="AB48" s="379" t="str" cm="1">
         <f t="array" ref="AB48" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA48, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>7</v>
       </c>
-      <c r="AC48" s="584" t="str" cm="1">
+      <c r="AC48" s="32" t="str" cm="1">
         <f t="array" ref="AC48" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA48, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>˫</v>
       </c>
-      <c r="AD48" s="585" t="str" cm="1">
+      <c r="AD48" s="515" t="str" cm="1">
         <f t="array" ref="AD48" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA48, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>˫</v>
       </c>
-      <c r="AE48" s="466" cm="1">
+      <c r="AE48" s="461" cm="1">
         <f t="array" ref="AE48" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA48, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>7</v>
       </c>
@@ -19466,11 +19542,11 @@
         <v>"6" : ˊ</v>
       </c>
       <c r="AH48" s="2"/>
-      <c r="AI48" s="398"/>
+      <c r="AI48" s="397"/>
       <c r="AJ48" s="2"/>
       <c r="AY48" s="11"/>
       <c r="BA48" s="2"/>
-      <c r="BB48" s="414"/>
+      <c r="BB48" s="413"/>
       <c r="BE48" s="2"/>
     </row>
     <row r="49" spans="2:57" ht="32.25">
@@ -19542,7 +19618,7 @@
         <f>注音編碼對照表!$C49</f>
         <v>7</v>
       </c>
-      <c r="AB49" s="467" t="str" cm="1">
+      <c r="AB49" s="462" t="str" cm="1">
         <f t="array" ref="AB49" xml:space="preserve"> INDEX(注音編碼對照表[注音編碼], MATCH(TRUE, EXACT(RIME設定解析!$AA49, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>0</v>
       </c>
@@ -19550,11 +19626,11 @@
         <f t="array" ref="AC49" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA49, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>˙</v>
       </c>
-      <c r="AD49" s="554" t="str" cm="1">
+      <c r="AD49" s="549" t="str" cm="1">
         <f t="array" ref="AD49" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA49, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>˙</v>
       </c>
-      <c r="AE49" s="469" t="str" cm="1">
+      <c r="AE49" s="464" t="str" cm="1">
         <f t="array" ref="AE49" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA49, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>[48]</v>
       </c>
@@ -19564,11 +19640,11 @@
         <v>"5" : ˫</v>
       </c>
       <c r="AH49" s="2"/>
-      <c r="AI49" s="398"/>
+      <c r="AI49" s="397"/>
       <c r="AJ49" s="2"/>
       <c r="AY49" s="11"/>
       <c r="BA49" s="2"/>
-      <c r="BB49" s="414"/>
+      <c r="BB49" s="413"/>
       <c r="BE49" s="2"/>
     </row>
     <row r="50" spans="2:57" ht="32.25">
@@ -19639,19 +19715,19 @@
       <c r="AA50" s="71"/>
       <c r="AB50" s="379"/>
       <c r="AC50" s="32"/>
-      <c r="AD50" s="520"/>
-      <c r="AE50" s="407"/>
+      <c r="AD50" s="515"/>
+      <c r="AE50" s="406"/>
       <c r="AF50" s="391"/>
       <c r="AG50" s="391" t="str">
         <f t="shared" si="26"/>
         <v>"7" : ˙</v>
       </c>
       <c r="AH50" s="2"/>
-      <c r="AI50" s="398"/>
+      <c r="AI50" s="397"/>
       <c r="AJ50" s="2"/>
       <c r="AY50" s="11"/>
       <c r="BA50" s="2"/>
-      <c r="BB50" s="414"/>
+      <c r="BB50" s="413"/>
       <c r="BE50" s="2"/>
     </row>
     <row r="51" spans="2:57" ht="32.25">
@@ -19725,19 +19801,19 @@
       <c r="AA51" s="71"/>
       <c r="AB51" s="379"/>
       <c r="AC51" s="32"/>
-      <c r="AD51" s="520"/>
-      <c r="AE51" s="407"/>
+      <c r="AD51" s="515"/>
+      <c r="AE51" s="406"/>
       <c r="AF51" s="391"/>
       <c r="AG51" s="391" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">"" : </v>
       </c>
       <c r="AH51" s="2"/>
-      <c r="AI51" s="398"/>
+      <c r="AI51" s="397"/>
       <c r="AJ51" s="2"/>
       <c r="AY51" s="11"/>
       <c r="BA51" s="2"/>
-      <c r="BB51" s="414"/>
+      <c r="BB51" s="413"/>
       <c r="BE51" s="2"/>
     </row>
     <row r="52" spans="2:57" ht="32.25">
@@ -19811,19 +19887,19 @@
       <c r="AA52" s="71"/>
       <c r="AB52" s="379"/>
       <c r="AC52" s="32"/>
-      <c r="AD52" s="520"/>
-      <c r="AE52" s="407"/>
+      <c r="AD52" s="515"/>
+      <c r="AE52" s="406"/>
       <c r="AF52" s="391"/>
       <c r="AG52" s="391" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">"" : </v>
       </c>
       <c r="AH52" s="2"/>
-      <c r="AI52" s="398"/>
+      <c r="AI52" s="397"/>
       <c r="AJ52" s="2"/>
       <c r="AY52" s="11"/>
       <c r="BA52" s="2"/>
-      <c r="BB52" s="414"/>
+      <c r="BB52" s="413"/>
       <c r="BE52" s="2"/>
     </row>
     <row r="53" spans="2:57" ht="32.25">
@@ -19894,19 +19970,19 @@
       <c r="AA53" s="71"/>
       <c r="AB53" s="379"/>
       <c r="AC53" s="32"/>
-      <c r="AD53" s="520"/>
-      <c r="AE53" s="407"/>
+      <c r="AD53" s="515"/>
+      <c r="AE53" s="406"/>
       <c r="AF53" s="391"/>
       <c r="AG53" s="391" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">"" : </v>
       </c>
       <c r="AH53" s="2"/>
-      <c r="AI53" s="398"/>
+      <c r="AI53" s="397"/>
       <c r="AJ53" s="2"/>
       <c r="AY53" s="11"/>
       <c r="BA53" s="2"/>
-      <c r="BB53" s="414"/>
+      <c r="BB53" s="413"/>
       <c r="BE53" s="2"/>
     </row>
     <row r="54" spans="2:57" ht="32.25">
@@ -19965,8 +20041,8 @@
       <c r="AA54" s="71"/>
       <c r="AB54" s="379"/>
       <c r="AC54" s="32"/>
-      <c r="AD54" s="520"/>
-      <c r="AE54" s="407"/>
+      <c r="AD54" s="515"/>
+      <c r="AE54" s="406"/>
       <c r="AF54" s="391"/>
       <c r="AG54" s="391"/>
       <c r="AH54" s="2"/>
@@ -19974,7 +20050,7 @@
       <c r="AJ54" s="2"/>
       <c r="AY54" s="11"/>
       <c r="BA54" s="2"/>
-      <c r="BB54" s="414"/>
+      <c r="BB54" s="413"/>
       <c r="BE54" s="2"/>
     </row>
     <row r="55" spans="2:57" ht="32.25">
@@ -20004,8 +20080,8 @@
       <c r="AA55" s="71"/>
       <c r="AB55" s="379"/>
       <c r="AC55" s="32"/>
-      <c r="AD55" s="520"/>
-      <c r="AE55" s="408"/>
+      <c r="AD55" s="515"/>
+      <c r="AE55" s="407"/>
       <c r="AF55" s="391"/>
       <c r="AG55" s="391"/>
       <c r="AH55" s="2"/>
@@ -20013,7 +20089,7 @@
       <c r="AJ55" s="2"/>
       <c r="AY55" s="11"/>
       <c r="BA55" s="2"/>
-      <c r="BB55" s="414"/>
+      <c r="BB55" s="413"/>
       <c r="BE55" s="2"/>
     </row>
     <row r="56" spans="2:57" ht="32.25">
@@ -20043,8 +20119,8 @@
       <c r="AA56" s="71"/>
       <c r="AB56" s="379"/>
       <c r="AC56" s="32"/>
-      <c r="AD56" s="520"/>
-      <c r="AE56" s="407"/>
+      <c r="AD56" s="515"/>
+      <c r="AE56" s="406"/>
       <c r="AF56" s="391"/>
       <c r="AG56" s="391"/>
       <c r="AH56" s="2"/>
@@ -20052,7 +20128,7 @@
       <c r="AJ56" s="2"/>
       <c r="AY56" s="11"/>
       <c r="BA56" s="2"/>
-      <c r="BB56" s="414"/>
+      <c r="BB56" s="413"/>
       <c r="BE56" s="2"/>
     </row>
     <row r="57" spans="2:57" ht="32.25">
@@ -20075,16 +20151,16 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="R57" s="2"/>
-      <c r="U57" s="420" t="s">
+      <c r="U57" s="416" t="s">
         <v>11</v>
       </c>
-      <c r="V57" s="421" t="s">
+      <c r="V57" s="417" t="s">
         <v>628</v>
       </c>
-      <c r="W57" s="421" t="s">
+      <c r="W57" s="417" t="s">
         <v>627</v>
       </c>
-      <c r="X57" s="422" t="s">
+      <c r="X57" s="418" t="s">
         <v>383</v>
       </c>
       <c r="Y57" s="24"/>
@@ -20095,8 +20171,8 @@
       <c r="AA57" s="71"/>
       <c r="AB57" s="379"/>
       <c r="AC57" s="32"/>
-      <c r="AD57" s="520"/>
-      <c r="AE57" s="408"/>
+      <c r="AD57" s="515"/>
+      <c r="AE57" s="407"/>
       <c r="AF57" s="391"/>
       <c r="AG57" s="391"/>
       <c r="AH57" s="2"/>
@@ -20104,7 +20180,7 @@
       <c r="AJ57" s="2"/>
       <c r="AY57" s="11"/>
       <c r="BA57" s="2"/>
-      <c r="BB57" s="414"/>
+      <c r="BB57" s="413"/>
       <c r="BE57" s="2"/>
     </row>
     <row r="58" spans="2:57" ht="32.25">
@@ -20127,7 +20203,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="R58" s="2"/>
-      <c r="U58" s="423" t="s">
+      <c r="U58" s="419" t="s">
         <v>267</v>
       </c>
       <c r="V58" s="390" t="s">
@@ -20136,7 +20212,7 @@
       <c r="W58" s="389" t="s">
         <v>125</v>
       </c>
-      <c r="X58" s="424" t="s">
+      <c r="X58" s="420" t="s">
         <v>203</v>
       </c>
       <c r="Y58" s="24"/>
@@ -20147,8 +20223,8 @@
       <c r="AA58" s="71"/>
       <c r="AB58" s="379"/>
       <c r="AC58" s="32"/>
-      <c r="AD58" s="520"/>
-      <c r="AE58" s="408"/>
+      <c r="AD58" s="515"/>
+      <c r="AE58" s="407"/>
       <c r="AF58" s="391"/>
       <c r="AG58" s="391"/>
       <c r="AH58" s="2"/>
@@ -20156,7 +20232,7 @@
       <c r="AJ58" s="2"/>
       <c r="AY58" s="11"/>
       <c r="BA58" s="2"/>
-      <c r="BB58" s="414"/>
+      <c r="BB58" s="413"/>
       <c r="BE58" s="2"/>
     </row>
     <row r="59" spans="2:57">
@@ -20179,7 +20255,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="R59" s="2"/>
-      <c r="U59" s="425" t="s">
+      <c r="U59" s="421" t="s">
         <v>612</v>
       </c>
       <c r="V59" s="390" t="s">
@@ -20188,12 +20264,12 @@
       <c r="W59" s="389" t="s">
         <v>99</v>
       </c>
-      <c r="X59" s="426" t="s">
+      <c r="X59" s="422" t="s">
         <v>207</v>
       </c>
       <c r="Y59" s="24"/>
       <c r="Z59" s="2"/>
-      <c r="AA59" s="398"/>
+      <c r="AA59" s="397"/>
       <c r="AE59" s="386"/>
       <c r="AF59" s="391"/>
       <c r="AG59" s="391"/>
@@ -20202,7 +20278,7 @@
       <c r="AJ59" s="2"/>
       <c r="AY59" s="11"/>
       <c r="BA59" s="2"/>
-      <c r="BB59" s="414"/>
+      <c r="BB59" s="413"/>
       <c r="BE59" s="2"/>
     </row>
     <row r="60" spans="2:57">
@@ -20225,7 +20301,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="R60" s="2"/>
-      <c r="U60" s="423" t="s">
+      <c r="U60" s="419" t="s">
         <v>206</v>
       </c>
       <c r="V60" s="390" t="s">
@@ -20234,14 +20310,14 @@
       <c r="W60" s="389" t="s">
         <v>101</v>
       </c>
-      <c r="X60" s="424" t="s">
+      <c r="X60" s="420" t="s">
         <v>160</v>
       </c>
       <c r="Y60" s="24"/>
       <c r="Z60" s="2"/>
-      <c r="AA60" s="405"/>
-      <c r="AC60" s="405"/>
-      <c r="AE60" s="406" t="s">
+      <c r="AA60" s="404"/>
+      <c r="AC60" s="404"/>
+      <c r="AE60" s="405" t="s">
         <v>633</v>
       </c>
       <c r="AF60" s="391"/>
@@ -20251,7 +20327,7 @@
       <c r="AJ60" s="2"/>
       <c r="AY60" s="11"/>
       <c r="BA60" s="2"/>
-      <c r="BB60" s="414"/>
+      <c r="BB60" s="413"/>
       <c r="BE60" s="2"/>
     </row>
     <row r="61" spans="2:57">
@@ -20277,7 +20353,7 @@
       <c r="X61" s="386"/>
       <c r="Y61" s="24"/>
       <c r="Z61" s="2"/>
-      <c r="AA61" s="398"/>
+      <c r="AA61" s="397"/>
       <c r="AE61" s="386"/>
       <c r="AF61" s="391"/>
       <c r="AG61" s="391"/>
@@ -20286,7 +20362,7 @@
       <c r="AJ61" s="2"/>
       <c r="AY61" s="11"/>
       <c r="BA61" s="2"/>
-      <c r="BB61" s="414"/>
+      <c r="BB61" s="413"/>
       <c r="BE61" s="2"/>
     </row>
     <row r="62" spans="2:57">
@@ -21032,6 +21108,9 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{C267B5D8-933D-4568-8FDC-4B918ECFFC95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="BD14" unlockedFormula="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -21129,56 +21208,56 @@
       </c>
       <c r="F2" s="563"/>
       <c r="G2" s="564"/>
-      <c r="H2" s="559" t="s">
+      <c r="H2" s="571" t="s">
         <v>541</v>
       </c>
-      <c r="I2" s="560"/>
-      <c r="J2" s="561"/>
-      <c r="K2" s="559" t="s">
+      <c r="I2" s="572"/>
+      <c r="J2" s="573"/>
+      <c r="K2" s="571" t="s">
         <v>542</v>
       </c>
-      <c r="L2" s="560"/>
-      <c r="M2" s="561"/>
-      <c r="N2" s="565">
+      <c r="L2" s="572"/>
+      <c r="M2" s="573"/>
+      <c r="N2" s="574">
         <v>0.05</v>
       </c>
-      <c r="O2" s="566"/>
-      <c r="P2" s="567"/>
-      <c r="Q2" s="559" t="s">
+      <c r="O2" s="575"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="571" t="s">
         <v>543</v>
       </c>
-      <c r="R2" s="560"/>
-      <c r="S2" s="561"/>
-      <c r="T2" s="559" t="s">
+      <c r="R2" s="572"/>
+      <c r="S2" s="573"/>
+      <c r="T2" s="571" t="s">
         <v>544</v>
       </c>
-      <c r="U2" s="560"/>
-      <c r="V2" s="561"/>
-      <c r="W2" s="570" t="s">
+      <c r="U2" s="572"/>
+      <c r="V2" s="573"/>
+      <c r="W2" s="556" t="s">
         <v>545</v>
       </c>
-      <c r="X2" s="571"/>
-      <c r="Y2" s="572"/>
-      <c r="Z2" s="570" t="s">
+      <c r="X2" s="557"/>
+      <c r="Y2" s="558"/>
+      <c r="Z2" s="556" t="s">
         <v>546</v>
       </c>
-      <c r="AA2" s="571"/>
-      <c r="AB2" s="572"/>
-      <c r="AC2" s="570" t="s">
+      <c r="AA2" s="557"/>
+      <c r="AB2" s="558"/>
+      <c r="AC2" s="556" t="s">
         <v>547</v>
       </c>
-      <c r="AD2" s="571"/>
-      <c r="AE2" s="572"/>
-      <c r="AF2" s="573" t="s">
+      <c r="AD2" s="557"/>
+      <c r="AE2" s="558"/>
+      <c r="AF2" s="559" t="s">
         <v>548</v>
       </c>
-      <c r="AG2" s="574"/>
-      <c r="AH2" s="575"/>
-      <c r="AI2" s="573" t="s">
+      <c r="AG2" s="560"/>
+      <c r="AH2" s="561"/>
+      <c r="AI2" s="559" t="s">
         <v>549</v>
       </c>
-      <c r="AJ2" s="574"/>
-      <c r="AK2" s="575"/>
+      <c r="AJ2" s="560"/>
+      <c r="AK2" s="561"/>
       <c r="AL2" s="239"/>
       <c r="AM2" s="239"/>
       <c r="AN2" s="239"/>
@@ -21310,38 +21389,38 @@
       <c r="G4" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="576" t="s">
+      <c r="H4" s="567" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="577"/>
+      <c r="I4" s="568"/>
       <c r="J4" s="272" t="s">
         <v>552</v>
       </c>
-      <c r="K4" s="578" t="s">
+      <c r="K4" s="569" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="579"/>
+      <c r="L4" s="570"/>
       <c r="M4" s="272" t="s">
         <v>553</v>
       </c>
-      <c r="N4" s="576" t="s">
+      <c r="N4" s="567" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="577"/>
+      <c r="O4" s="568"/>
       <c r="P4" s="272" t="s">
         <v>554</v>
       </c>
-      <c r="Q4" s="578" t="s">
+      <c r="Q4" s="569" t="s">
         <v>106</v>
       </c>
-      <c r="R4" s="579"/>
+      <c r="R4" s="570"/>
       <c r="S4" s="272" t="s">
         <v>555</v>
       </c>
-      <c r="T4" s="576" t="s">
+      <c r="T4" s="567" t="s">
         <v>556</v>
       </c>
-      <c r="U4" s="577"/>
+      <c r="U4" s="568"/>
       <c r="V4" s="272" t="s">
         <v>557</v>
       </c>
@@ -21381,8 +21460,8 @@
         <f ca="1">AW20</f>
         <v>N</v>
       </c>
-      <c r="AI4" s="568"/>
-      <c r="AJ4" s="569"/>
+      <c r="AI4" s="565"/>
+      <c r="AJ4" s="566"/>
       <c r="AK4" s="279"/>
       <c r="AL4" s="267"/>
       <c r="AM4" s="267"/>
@@ -21470,41 +21549,41 @@
       </c>
       <c r="S5" s="563"/>
       <c r="T5" s="564"/>
-      <c r="U5" s="570" t="s">
+      <c r="U5" s="556" t="s">
         <v>259</v>
       </c>
-      <c r="V5" s="571"/>
-      <c r="W5" s="572"/>
-      <c r="X5" s="570" t="s">
+      <c r="V5" s="557"/>
+      <c r="W5" s="558"/>
+      <c r="X5" s="556" t="s">
         <v>275</v>
       </c>
-      <c r="Y5" s="571"/>
-      <c r="Z5" s="572"/>
-      <c r="AA5" s="570" t="s">
+      <c r="Y5" s="557"/>
+      <c r="Z5" s="558"/>
+      <c r="AA5" s="556" t="s">
         <v>267</v>
       </c>
-      <c r="AB5" s="571"/>
-      <c r="AC5" s="572"/>
-      <c r="AD5" s="570" t="s">
+      <c r="AB5" s="557"/>
+      <c r="AC5" s="558"/>
+      <c r="AD5" s="556" t="s">
         <v>400</v>
       </c>
-      <c r="AE5" s="571"/>
-      <c r="AF5" s="572"/>
-      <c r="AG5" s="570" t="s">
+      <c r="AE5" s="557"/>
+      <c r="AF5" s="558"/>
+      <c r="AG5" s="556" t="s">
         <v>561</v>
       </c>
-      <c r="AH5" s="571"/>
-      <c r="AI5" s="572"/>
-      <c r="AJ5" s="570" t="s">
+      <c r="AH5" s="557"/>
+      <c r="AI5" s="558"/>
+      <c r="AJ5" s="556" t="s">
         <v>562</v>
       </c>
-      <c r="AK5" s="571"/>
-      <c r="AL5" s="572"/>
-      <c r="AM5" s="573" t="s">
+      <c r="AK5" s="557"/>
+      <c r="AL5" s="558"/>
+      <c r="AM5" s="559" t="s">
         <v>563</v>
       </c>
-      <c r="AN5" s="574"/>
-      <c r="AO5" s="575"/>
+      <c r="AN5" s="560"/>
+      <c r="AO5" s="561"/>
       <c r="AP5" s="239"/>
       <c r="AQ5" s="239"/>
       <c r="AR5" s="240"/>
@@ -21752,14 +21831,14 @@
         <f ca="1">AV20</f>
         <v>n</v>
       </c>
-      <c r="AG7" s="568"/>
-      <c r="AH7" s="569"/>
+      <c r="AG7" s="565"/>
+      <c r="AH7" s="566"/>
       <c r="AI7" s="279"/>
-      <c r="AJ7" s="568"/>
-      <c r="AK7" s="569"/>
+      <c r="AJ7" s="565"/>
+      <c r="AK7" s="566"/>
       <c r="AL7" s="279"/>
-      <c r="AM7" s="568"/>
-      <c r="AN7" s="569"/>
+      <c r="AM7" s="565"/>
+      <c r="AN7" s="566"/>
       <c r="AO7" s="279"/>
       <c r="AP7" s="267"/>
       <c r="AQ7" s="267"/>
@@ -21844,31 +21923,31 @@
       </c>
       <c r="T8" s="563"/>
       <c r="U8" s="564"/>
-      <c r="V8" s="570" t="s">
+      <c r="V8" s="556" t="s">
         <v>249</v>
       </c>
-      <c r="W8" s="571"/>
-      <c r="X8" s="572"/>
-      <c r="Y8" s="570" t="s">
+      <c r="W8" s="557"/>
+      <c r="X8" s="558"/>
+      <c r="Y8" s="556" t="s">
         <v>425</v>
       </c>
-      <c r="Z8" s="571"/>
-      <c r="AA8" s="572"/>
-      <c r="AB8" s="570" t="s">
+      <c r="Z8" s="557"/>
+      <c r="AA8" s="558"/>
+      <c r="AB8" s="556" t="s">
         <v>231</v>
       </c>
-      <c r="AC8" s="571"/>
-      <c r="AD8" s="572"/>
-      <c r="AE8" s="570" t="s">
+      <c r="AC8" s="557"/>
+      <c r="AD8" s="558"/>
+      <c r="AE8" s="556" t="s">
         <v>567</v>
       </c>
-      <c r="AF8" s="571"/>
-      <c r="AG8" s="572"/>
-      <c r="AH8" s="573" t="s">
+      <c r="AF8" s="557"/>
+      <c r="AG8" s="558"/>
+      <c r="AH8" s="559" t="s">
         <v>568</v>
       </c>
-      <c r="AI8" s="574"/>
-      <c r="AJ8" s="575"/>
+      <c r="AI8" s="560"/>
+      <c r="AJ8" s="561"/>
       <c r="AK8" s="239"/>
       <c r="AL8" s="239"/>
       <c r="AM8" s="239"/>
@@ -22120,8 +22199,8 @@
         <f ca="1">AR20</f>
         <v>ang</v>
       </c>
-      <c r="AH10" s="568"/>
-      <c r="AI10" s="569"/>
+      <c r="AH10" s="565"/>
+      <c r="AI10" s="566"/>
       <c r="AJ10" s="279"/>
       <c r="AK10" s="267"/>
       <c r="AL10" s="267"/>
@@ -22212,26 +22291,26 @@
       </c>
       <c r="U11" s="563"/>
       <c r="V11" s="564"/>
-      <c r="W11" s="570" t="s">
+      <c r="W11" s="556" t="s">
         <v>525</v>
       </c>
-      <c r="X11" s="571"/>
-      <c r="Y11" s="572"/>
-      <c r="Z11" s="570" t="s">
+      <c r="X11" s="557"/>
+      <c r="Y11" s="558"/>
+      <c r="Z11" s="556" t="s">
         <v>572</v>
       </c>
-      <c r="AA11" s="571"/>
-      <c r="AB11" s="572"/>
-      <c r="AC11" s="570" t="s">
+      <c r="AA11" s="557"/>
+      <c r="AB11" s="558"/>
+      <c r="AC11" s="556" t="s">
         <v>573</v>
       </c>
-      <c r="AD11" s="571"/>
-      <c r="AE11" s="572"/>
-      <c r="AF11" s="573" t="s">
+      <c r="AD11" s="557"/>
+      <c r="AE11" s="558"/>
+      <c r="AF11" s="559" t="s">
         <v>574</v>
       </c>
-      <c r="AG11" s="574"/>
-      <c r="AH11" s="575"/>
+      <c r="AG11" s="560"/>
+      <c r="AH11" s="561"/>
       <c r="AI11" s="239"/>
       <c r="AJ11" s="239"/>
       <c r="AK11" s="239"/>
@@ -28290,6 +28369,52 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="W11:Y11"/>
     <mergeCell ref="Z11:AB11"/>
     <mergeCell ref="AC11:AE11"/>
@@ -28300,52 +28425,6 @@
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="T11:V11"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/鍵盤設計規格_台語方音V3.xlsx
+++ b/docs/鍵盤設計規格_台語方音V3.xlsx
@@ -8,61 +8,62 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63304651-8F09-4985-B2F7-AACA78D88F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0657B2-C93F-4C96-B263-74AD79BAEDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="762" activeTab="2" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="762" activeTab="3" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
   </bookViews>
   <sheets>
     <sheet name="使用按鍵解析" sheetId="9" r:id="rId1"/>
     <sheet name="注音編碼對照表" sheetId="12" r:id="rId2"/>
     <sheet name="RIME設定解析" sheetId="10" r:id="rId3"/>
-    <sheet name="鍵盤設計" sheetId="5" r:id="rId4"/>
-    <sheet name="注音符號、電腦鍵盤與音標編碼" sheetId="4" r:id="rId5"/>
-    <sheet name="台語方音字典編碼" sheetId="3" r:id="rId6"/>
-    <sheet name="RIME對映編碼 (台語方音)" sheetId="1" r:id="rId7"/>
-    <sheet name="參考鍵盤" sheetId="2" r:id="rId8"/>
-    <sheet name="方音符號" sheetId="7" r:id="rId9"/>
-    <sheet name="方音聲母" sheetId="13" r:id="rId10"/>
-    <sheet name="方音韻母" sheetId="14" r:id="rId11"/>
+    <sheet name=" 所有入聲韻" sheetId="15" r:id="rId4"/>
+    <sheet name="鍵盤設計" sheetId="5" r:id="rId5"/>
+    <sheet name="注音符號、電腦鍵盤與音標編碼" sheetId="4" r:id="rId6"/>
+    <sheet name="台語方音字典編碼" sheetId="3" r:id="rId7"/>
+    <sheet name="RIME對映編碼 (台語方音)" sheetId="1" r:id="rId8"/>
+    <sheet name="參考鍵盤" sheetId="2" r:id="rId9"/>
+    <sheet name="方音符號" sheetId="7" r:id="rId10"/>
+    <sheet name="方音聲母" sheetId="13" r:id="rId11"/>
+    <sheet name="方音韻母" sheetId="14" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RIME設定解析!$Z$2:$AE$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">方音符號!$P$2:$T$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'注音符號、電腦鍵盤與音標編碼'!$B$2:$K$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">方音符號!$P$2:$T$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'注音符號、電腦鍵盤與音標編碼'!$B$2:$K$56</definedName>
     <definedName name="方音符號" localSheetId="2">RIME設定解析!$W$3:$W$53</definedName>
-    <definedName name="方音符號" localSheetId="6">'RIME對映編碼 (台語方音)'!$U$3:$U$44</definedName>
-    <definedName name="方音符號" localSheetId="8">#REF!</definedName>
+    <definedName name="方音符號" localSheetId="7">'RIME對映編碼 (台語方音)'!$U$3:$U$44</definedName>
+    <definedName name="方音符號" localSheetId="9">#REF!</definedName>
+    <definedName name="方音符號" localSheetId="5">#REF!</definedName>
     <definedName name="方音符號" localSheetId="4">#REF!</definedName>
-    <definedName name="方音符號" localSheetId="3">#REF!</definedName>
     <definedName name="方音符號">[1]RIME編碼!$AA$3:$AA$45</definedName>
-    <definedName name="字典編碼" localSheetId="8">#REF!</definedName>
+    <definedName name="字典編碼" localSheetId="9">#REF!</definedName>
+    <definedName name="字典編碼" localSheetId="5">#REF!</definedName>
     <definedName name="字典編碼" localSheetId="4">#REF!</definedName>
-    <definedName name="字典編碼" localSheetId="3">#REF!</definedName>
     <definedName name="字典編碼">[1]RIME編碼!$AB$3:$AB$45</definedName>
     <definedName name="注音符號" localSheetId="2">RIME設定解析!$W$3:$W$53</definedName>
-    <definedName name="注音符號" localSheetId="8">#REF!</definedName>
+    <definedName name="注音符號" localSheetId="9">#REF!</definedName>
     <definedName name="注音符號">#REF!</definedName>
     <definedName name="注音編碼" localSheetId="2">RIME設定解析!$V$3:$V$53</definedName>
     <definedName name="注音編碼" localSheetId="0">[2]RIME設定解析!$W$3:$W$54</definedName>
     <definedName name="注音編碼">#REF!</definedName>
     <definedName name="拼音字母" localSheetId="2">RIME設定解析!$X$3:$X$53</definedName>
-    <definedName name="拼音字母" localSheetId="6">'RIME對映編碼 (台語方音)'!#REF!</definedName>
-    <definedName name="拼音字母" localSheetId="8">#REF!</definedName>
+    <definedName name="拼音字母" localSheetId="7">'RIME對映編碼 (台語方音)'!#REF!</definedName>
+    <definedName name="拼音字母" localSheetId="9">#REF!</definedName>
+    <definedName name="拼音字母" localSheetId="5">#REF!</definedName>
     <definedName name="拼音字母" localSheetId="4">#REF!</definedName>
-    <definedName name="拼音字母" localSheetId="3">#REF!</definedName>
     <definedName name="拼音字母">[1]RIME編碼!$AC$3:$AC$45</definedName>
     <definedName name="按鍵編碼" localSheetId="2">RIME設定解析!$V$3:$V$53</definedName>
-    <definedName name="按鍵編碼" localSheetId="6">'RIME對映編碼 (台語方音)'!$T$3:$T$44</definedName>
-    <definedName name="國際音標" localSheetId="6">'RIME對映編碼 (台語方音)'!#REF!</definedName>
+    <definedName name="按鍵編碼" localSheetId="7">'RIME對映編碼 (台語方音)'!$T$3:$T$44</definedName>
+    <definedName name="國際音標" localSheetId="7">'RIME對映編碼 (台語方音)'!#REF!</definedName>
     <definedName name="鍵盤位置" localSheetId="2">RIME設定解析!$U$3:$U$53</definedName>
-    <definedName name="鍵盤位置" localSheetId="6">'RIME對映編碼 (台語方音)'!$S$3:$S$44</definedName>
-    <definedName name="鍵盤位置" localSheetId="8">#REF!</definedName>
+    <definedName name="鍵盤位置" localSheetId="7">'RIME對映編碼 (台語方音)'!$S$3:$S$44</definedName>
+    <definedName name="鍵盤位置" localSheetId="9">#REF!</definedName>
+    <definedName name="鍵盤位置" localSheetId="5">#REF!</definedName>
     <definedName name="鍵盤位置" localSheetId="4">#REF!</definedName>
-    <definedName name="鍵盤位置" localSheetId="3">#REF!</definedName>
     <definedName name="鍵盤位置">[1]RIME編碼!$W$3:$W$40</definedName>
     <definedName name="鍵盤按鍵" localSheetId="2">RIME設定解析!$U$3:$U$53</definedName>
     <definedName name="鍵盤按鍵" localSheetId="0">[2]RIME設定解析!$U$3:$U$54</definedName>
@@ -111,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="906">
   <si>
     <t>Speller:</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -3375,6 +3376,249 @@
     <t>ɲ</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>陽聲韻</t>
+  </si>
+  <si>
+    <t>入聲韻</t>
+  </si>
+  <si>
+    <t>[p̚]</t>
+  </si>
+  <si>
+    <t>[t̚]</t>
+  </si>
+  <si>
+    <t>[k̚]</t>
+  </si>
+  <si>
+    <t>[ʔ]</t>
+  </si>
+  <si>
+    <t>ak</t>
+  </si>
+  <si>
+    <t>annh</t>
+  </si>
+  <si>
+    <t>[aɪ]</t>
+  </si>
+  <si>
+    <t>aih</t>
+  </si>
+  <si>
+    <t>ainnh</t>
+  </si>
+  <si>
+    <t>[aʊ]</t>
+  </si>
+  <si>
+    <t>auh</t>
+  </si>
+  <si>
+    <t>aunnh</t>
+  </si>
+  <si>
+    <t>[ɛ]</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>ek</t>
+  </si>
+  <si>
+    <t>eeh</t>
+  </si>
+  <si>
+    <t>eh</t>
+  </si>
+  <si>
+    <t>ennh</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>ik</t>
+  </si>
+  <si>
+    <t>ih</t>
+  </si>
+  <si>
+    <t>innh</t>
+  </si>
+  <si>
+    <t>[ɪa]</t>
+  </si>
+  <si>
+    <t>iap</t>
+  </si>
+  <si>
+    <t>iat</t>
+  </si>
+  <si>
+    <t>iak</t>
+  </si>
+  <si>
+    <t>iah</t>
+  </si>
+  <si>
+    <t>iannh</t>
+  </si>
+  <si>
+    <t>[ɪaʊ]</t>
+  </si>
+  <si>
+    <t>iaunn</t>
+  </si>
+  <si>
+    <t>iauh</t>
+  </si>
+  <si>
+    <t>[io]</t>
+  </si>
+  <si>
+    <t>ioh</t>
+  </si>
+  <si>
+    <t>[iɔ]</t>
+  </si>
+  <si>
+    <t>ioo</t>
+  </si>
+  <si>
+    <t>iok</t>
+  </si>
+  <si>
+    <t>iooh</t>
+  </si>
+  <si>
+    <t>[iu]</t>
+  </si>
+  <si>
+    <t>iuh</t>
+  </si>
+  <si>
+    <t>iunnh</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>erh</t>
+  </si>
+  <si>
+    <t>[o]</t>
+  </si>
+  <si>
+    <t>oh</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>ooh</t>
+  </si>
+  <si>
+    <t>onnh</t>
+  </si>
+  <si>
+    <t>[ɯ]</t>
+  </si>
+  <si>
+    <t>irm</t>
+  </si>
+  <si>
+    <t>irn</t>
+  </si>
+  <si>
+    <t>irng</t>
+  </si>
+  <si>
+    <t>irp</t>
+  </si>
+  <si>
+    <t>irt</t>
+  </si>
+  <si>
+    <t>irk</t>
+  </si>
+  <si>
+    <t>irh</t>
+  </si>
+  <si>
+    <t>ut</t>
+  </si>
+  <si>
+    <t>uh</t>
+  </si>
+  <si>
+    <t>[ua]</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>uah</t>
+  </si>
+  <si>
+    <t>[uai]</t>
+  </si>
+  <si>
+    <t>uainn</t>
+  </si>
+  <si>
+    <t>[uɛ]</t>
+  </si>
+  <si>
+    <t>uee</t>
+  </si>
+  <si>
+    <t>ueeh</t>
+  </si>
+  <si>
+    <t>[ue]</t>
+  </si>
+  <si>
+    <t>ueh</t>
+  </si>
+  <si>
+    <t>[ui]</t>
+  </si>
+  <si>
+    <t>[ɯi]</t>
+  </si>
+  <si>
+    <t>irinn</t>
+  </si>
+  <si>
+    <t>[əe]</t>
+  </si>
+  <si>
+    <t>ere</t>
+  </si>
+  <si>
+    <t>ereh</t>
+  </si>
+  <si>
+    <t>－</t>
+  </si>
+  <si>
+    <t>mh</t>
+  </si>
+  <si>
+    <t>ngh</t>
+  </si>
 </sst>
 </file>
 
@@ -3384,7 +3628,7 @@
     <numFmt numFmtId="176" formatCode="General;;\(&quot;空&quot;&quot;白&quot;&quot;字&quot;&quot;元&quot;\)"/>
     <numFmt numFmtId="177" formatCode="General;;"/>
   </numFmts>
-  <fonts count="183">
+  <fonts count="184">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -4619,6 +4863,13 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="芫荽 0.94"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="27">
     <fill>
@@ -5214,7 +5465,7 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="592">
+  <cellXfs count="603">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -6870,6 +7121,35 @@
     <xf numFmtId="49" fontId="84" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -11021,6 +11301,3749 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5071FD87-44AE-4789-9C3B-6156A4BF1897}">
+  <dimension ref="B2:BQ116"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5"/>
+  <cols>
+    <col min="1" max="1" width="2.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.296875" style="345" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.19921875" customWidth="1"/>
+    <col min="6" max="6" width="4.296875" style="345" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.19921875" customWidth="1"/>
+    <col min="10" max="10" width="4.296875" style="345" customWidth="1"/>
+    <col min="12" max="12" width="8.796875" style="346"/>
+    <col min="14" max="14" width="10.19921875" style="365" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.19921875" customWidth="1"/>
+    <col min="16" max="16" width="4.296875" style="345" customWidth="1"/>
+    <col min="20" max="20" width="8.796875" style="371"/>
+    <col min="21" max="21" width="5.796875" customWidth="1"/>
+    <col min="22" max="65" width="3.19921875" style="355" customWidth="1"/>
+    <col min="66" max="67" width="3.19921875" style="356" customWidth="1"/>
+    <col min="68" max="69" width="8.796875" style="356"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:69">
+      <c r="C2" s="376" t="s">
+        <v>585</v>
+      </c>
+      <c r="D2" s="376" t="s">
+        <v>586</v>
+      </c>
+      <c r="E2" s="377"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="376" t="s">
+        <v>586</v>
+      </c>
+      <c r="H2" s="376" t="s">
+        <v>385</v>
+      </c>
+      <c r="I2" s="377"/>
+      <c r="J2" s="378"/>
+      <c r="K2" s="376" t="s">
+        <v>586</v>
+      </c>
+      <c r="L2" s="376" t="s">
+        <v>385</v>
+      </c>
+      <c r="M2" s="376" t="s">
+        <v>585</v>
+      </c>
+      <c r="N2" s="376" t="s">
+        <v>604</v>
+      </c>
+      <c r="O2" s="377"/>
+      <c r="P2" s="378"/>
+      <c r="Q2" s="376" t="s">
+        <v>586</v>
+      </c>
+      <c r="R2" s="376" t="s">
+        <v>385</v>
+      </c>
+      <c r="S2" s="376" t="s">
+        <v>585</v>
+      </c>
+      <c r="T2" s="376" t="s">
+        <v>604</v>
+      </c>
+      <c r="V2" s="361" t="str">
+        <f ca="1" xml:space="preserve"> "  alphabet: '" &amp; _xlfn.CONCAT(Q$3:Q$48, Q$49:Q$54) &amp; "'"</f>
+        <v xml:space="preserve">  alphabet: '1q!a2wsxedEcyhnYrfvbuUjJm8*iIk,&lt;9(lL0p;:/?-AO. 43657'</v>
+      </c>
+      <c r="W2" s="359"/>
+      <c r="X2" s="359"/>
+      <c r="Y2" s="359"/>
+      <c r="Z2" s="359"/>
+      <c r="AA2" s="359"/>
+      <c r="AB2" s="359"/>
+      <c r="AC2" s="359"/>
+      <c r="AD2" s="359"/>
+      <c r="AE2" s="359"/>
+      <c r="AF2" s="359"/>
+      <c r="AG2" s="359"/>
+      <c r="AH2" s="359"/>
+      <c r="AI2" s="359"/>
+      <c r="AJ2" s="359"/>
+      <c r="AK2" s="359"/>
+      <c r="AL2" s="359"/>
+      <c r="AM2" s="359"/>
+      <c r="AN2" s="359"/>
+      <c r="AO2" s="359"/>
+      <c r="AP2" s="359"/>
+    </row>
+    <row r="3" spans="2:69">
+      <c r="B3" s="348">
+        <f xml:space="preserve"> ROW() - 2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="375" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="349" t="s">
+        <v>361</v>
+      </c>
+      <c r="F3" s="348">
+        <f xml:space="preserve"> ROW() - 2</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="349" t="s">
+        <v>361</v>
+      </c>
+      <c r="H3" s="369" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="348">
+        <f xml:space="preserve"> ROW() - 2</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K3" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F3,COLUMN(G:G)))</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L3" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K3,$G$3:$G$54), 0)), "")</f>
+        <v>ㄅ</v>
+      </c>
+      <c r="M3" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M3" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K3,$D$3:$D$54), 0)), "")</f>
+        <v>p</v>
+      </c>
+      <c r="N3" s="366" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="348">
+        <f xml:space="preserve"> ROW() - 2</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="372" t="str">
+        <f t="shared" ref="Q3:Q34" ca="1" si="0">K3</f>
+        <v>1</v>
+      </c>
+      <c r="R3" s="374" t="str">
+        <f t="shared" ref="R3:R34" ca="1" si="1">L3</f>
+        <v>ㄅ</v>
+      </c>
+      <c r="S3" s="372" t="str">
+        <f t="shared" ref="S3:S34" ca="1" si="2">M3</f>
+        <v>p</v>
+      </c>
+      <c r="T3" s="370" t="str">
+        <f>N3</f>
+        <v>p</v>
+      </c>
+      <c r="V3" s="361" t="str">
+        <f ca="1" xml:space="preserve"> "  initials: '" &amp; _xlfn.CONCAT(Q$3:Q$48) &amp; "'"</f>
+        <v xml:space="preserve">  initials: '1q!a2wsxedEcyhnYrfvbuUjJm8*iIk,&lt;9(lL0p;:/?-AO.'</v>
+      </c>
+      <c r="W3" s="359"/>
+      <c r="X3" s="359"/>
+      <c r="Y3" s="359"/>
+      <c r="Z3" s="359"/>
+      <c r="AA3" s="359"/>
+      <c r="AB3" s="359"/>
+      <c r="AC3" s="359"/>
+      <c r="AD3" s="359"/>
+      <c r="AE3" s="359"/>
+      <c r="AF3" s="359"/>
+      <c r="AG3" s="359"/>
+      <c r="AH3" s="359"/>
+      <c r="AI3" s="359"/>
+      <c r="AJ3" s="359"/>
+      <c r="AK3" s="359"/>
+      <c r="AL3" s="359"/>
+      <c r="AM3" s="359"/>
+      <c r="AN3" s="359"/>
+      <c r="AO3" s="359"/>
+      <c r="AP3" s="359"/>
+    </row>
+    <row r="4" spans="2:69">
+      <c r="B4" s="348">
+        <f t="shared" ref="B4:B54" si="3" xml:space="preserve"> ROW() - 2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="375" t="s">
+        <v>400</v>
+      </c>
+      <c r="D4" s="349" t="s">
+        <v>353</v>
+      </c>
+      <c r="F4" s="348">
+        <f t="shared" ref="F4:F54" si="4" xml:space="preserve"> ROW() - 2</f>
+        <v>2</v>
+      </c>
+      <c r="G4" s="349" t="s">
+        <v>353</v>
+      </c>
+      <c r="H4" s="369" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="348">
+        <f t="shared" ref="J4:J54" si="5" xml:space="preserve"> ROW() - 2</f>
+        <v>2</v>
+      </c>
+      <c r="K4" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K4" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F4,COLUMN(G:G)))</f>
+        <v>q</v>
+      </c>
+      <c r="L4" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L4" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K4,$G$3:$G$54), 0)), "")</f>
+        <v>ㄆ</v>
+      </c>
+      <c r="M4" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M4" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K4,$D$3:$D$54), 0)), "")</f>
+        <v>P</v>
+      </c>
+      <c r="N4" s="366" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="348">
+        <f t="shared" ref="P4:P54" si="6" xml:space="preserve"> ROW() - 2</f>
+        <v>2</v>
+      </c>
+      <c r="Q4" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>q</v>
+      </c>
+      <c r="R4" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㄆ</v>
+      </c>
+      <c r="S4" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>P</v>
+      </c>
+      <c r="T4" s="370" t="str">
+        <f t="shared" ref="T4:T54" si="7">N4</f>
+        <v>ph</v>
+      </c>
+      <c r="V4" s="361"/>
+      <c r="W4" s="359"/>
+      <c r="X4" s="359"/>
+      <c r="Y4" s="359"/>
+      <c r="Z4" s="359"/>
+      <c r="AA4" s="359"/>
+      <c r="AB4" s="359"/>
+      <c r="AC4" s="359"/>
+      <c r="AD4" s="359"/>
+      <c r="AE4" s="359"/>
+      <c r="AF4" s="359"/>
+      <c r="AG4" s="359"/>
+      <c r="AH4" s="359"/>
+      <c r="AI4" s="359"/>
+      <c r="AJ4" s="359"/>
+      <c r="AK4" s="359"/>
+      <c r="AL4" s="359"/>
+      <c r="AM4" s="359"/>
+      <c r="AN4" s="359"/>
+      <c r="AO4" s="359"/>
+      <c r="AP4" s="359"/>
+    </row>
+    <row r="5" spans="2:69">
+      <c r="B5" s="348">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="375" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="349" t="s">
+        <v>394</v>
+      </c>
+      <c r="F5" s="348">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G5" s="351" t="s">
+        <v>394</v>
+      </c>
+      <c r="H5" s="369" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="348">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K5" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K5" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F5,COLUMN(G:G)))</f>
+        <v>!</v>
+      </c>
+      <c r="L5" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L5" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K5,$G$3:$G$54), 0)), "")</f>
+        <v>ㆠ</v>
+      </c>
+      <c r="M5" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M5" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K5,$D$3:$D$54), 0)), "")</f>
+        <v>b</v>
+      </c>
+      <c r="N5" s="366" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="348">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q5" s="373" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>!</v>
+      </c>
+      <c r="R5" s="364" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㆠ</v>
+      </c>
+      <c r="S5" s="373" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>b</v>
+      </c>
+      <c r="T5" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="6" spans="2:69">
+      <c r="B6" s="348">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="375" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="349" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" s="348">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G6" s="349" t="s">
+        <v>351</v>
+      </c>
+      <c r="H6" s="369" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="348">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K6" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K6" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F6,COLUMN(G:G)))</f>
+        <v>a</v>
+      </c>
+      <c r="L6" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L6" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K6,$G$3:$G$54), 0)), "")</f>
+        <v>ㄇ</v>
+      </c>
+      <c r="M6" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M6" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K6,$D$3:$D$54), 0)), "")</f>
+        <v>m</v>
+      </c>
+      <c r="N6" s="366" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="348">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Q6" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>a</v>
+      </c>
+      <c r="R6" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㄇ</v>
+      </c>
+      <c r="S6" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>m</v>
+      </c>
+      <c r="T6" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>m</v>
+      </c>
+    </row>
+    <row r="7" spans="2:69">
+      <c r="B7" s="348">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="375" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="349" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" s="348">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G7" s="349" t="s">
+        <v>347</v>
+      </c>
+      <c r="H7" s="369" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="348">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K7" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K7" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F7,COLUMN(G:G)))</f>
+        <v>2</v>
+      </c>
+      <c r="L7" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L7" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K7,$G$3:$G$54), 0)), "")</f>
+        <v>ㄉ</v>
+      </c>
+      <c r="M7" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M7" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K7,$D$3:$D$54), 0)), "")</f>
+        <v>t</v>
+      </c>
+      <c r="N7" s="366" t="s">
+        <v>340</v>
+      </c>
+      <c r="P7" s="348">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q7" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R7" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㄉ</v>
+      </c>
+      <c r="S7" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>t</v>
+      </c>
+      <c r="T7" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>t</v>
+      </c>
+      <c r="V7" s="357" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="8" spans="2:69">
+      <c r="B8" s="348">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="375" t="s">
+        <v>408</v>
+      </c>
+      <c r="D8" s="349" t="s">
+        <v>341</v>
+      </c>
+      <c r="F8" s="348">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="349" t="s">
+        <v>341</v>
+      </c>
+      <c r="H8" s="369" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="348">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K8" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K8" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F8,COLUMN(G:G)))</f>
+        <v>w</v>
+      </c>
+      <c r="L8" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L8" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K8,$G$3:$G$54), 0)), "")</f>
+        <v>ㄊ</v>
+      </c>
+      <c r="M8" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M8" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K8,$D$3:$D$54), 0)), "")</f>
+        <v>T</v>
+      </c>
+      <c r="N8" s="366" t="s">
+        <v>605</v>
+      </c>
+      <c r="P8" s="348">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Q8" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>w</v>
+      </c>
+      <c r="R8" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㄊ</v>
+      </c>
+      <c r="S8" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="T8" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>th</v>
+      </c>
+      <c r="V8" s="358" t="str">
+        <f ca="1" xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(S3:S54) &amp; "|" &amp; _xlfn.CONCAT(Q3:Q54) &amp; "|"""</f>
+        <v>- "xlit|pPbmtTndkKghzcsjZCSJiIuUBaAOQoeEIYUX@DHFWwRVLN123570|1q!a2wsxedEcyhnYrfvbuUjJm8*iIk,&lt;9(lL0p;:/?-AO. 43657|"</v>
+      </c>
+      <c r="W8" s="359"/>
+      <c r="X8" s="359"/>
+      <c r="Y8" s="359"/>
+      <c r="Z8" s="359"/>
+      <c r="AA8" s="359"/>
+      <c r="AB8" s="359"/>
+      <c r="AC8" s="359"/>
+      <c r="AD8" s="359"/>
+      <c r="AE8" s="359"/>
+      <c r="AF8" s="359"/>
+      <c r="AG8" s="359"/>
+      <c r="AH8" s="359"/>
+      <c r="AI8" s="359"/>
+      <c r="AJ8" s="359"/>
+      <c r="AK8" s="359"/>
+      <c r="AL8" s="359"/>
+      <c r="AM8" s="359"/>
+      <c r="AN8" s="359"/>
+      <c r="AO8" s="359"/>
+      <c r="AP8" s="359"/>
+      <c r="AQ8" s="359"/>
+      <c r="AR8" s="359"/>
+      <c r="AS8" s="359"/>
+      <c r="AT8" s="359"/>
+      <c r="AU8" s="359"/>
+      <c r="AV8" s="359"/>
+      <c r="AW8" s="359"/>
+      <c r="AX8" s="359"/>
+      <c r="AY8" s="359"/>
+      <c r="AZ8" s="359"/>
+      <c r="BA8" s="359"/>
+      <c r="BB8" s="359"/>
+      <c r="BC8" s="359"/>
+      <c r="BD8" s="359"/>
+      <c r="BE8" s="359"/>
+      <c r="BF8" s="359"/>
+      <c r="BG8" s="359"/>
+      <c r="BH8" s="359"/>
+      <c r="BI8" s="359"/>
+      <c r="BJ8" s="359"/>
+      <c r="BK8" s="359"/>
+      <c r="BL8" s="359"/>
+      <c r="BM8" s="359"/>
+      <c r="BN8" s="360"/>
+      <c r="BO8" s="360"/>
+      <c r="BP8" s="360"/>
+      <c r="BQ8" s="360"/>
+    </row>
+    <row r="9" spans="2:69">
+      <c r="B9" s="348">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="375" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="349" t="s">
+        <v>338</v>
+      </c>
+      <c r="F9" s="348">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G9" s="349" t="s">
+        <v>338</v>
+      </c>
+      <c r="H9" s="369" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="348">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="K9" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K9" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F9,COLUMN(G:G)))</f>
+        <v>s</v>
+      </c>
+      <c r="L9" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L9" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K9,$G$3:$G$54), 0)), "")</f>
+        <v>ㄋ</v>
+      </c>
+      <c r="M9" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M9" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K9,$D$3:$D$54), 0)), "")</f>
+        <v>n</v>
+      </c>
+      <c r="N9" s="366" t="s">
+        <v>611</v>
+      </c>
+      <c r="P9" s="348">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="Q9" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>s</v>
+      </c>
+      <c r="R9" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㄋ</v>
+      </c>
+      <c r="S9" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>n</v>
+      </c>
+      <c r="T9" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>n-</v>
+      </c>
+    </row>
+    <row r="10" spans="2:69">
+      <c r="B10" s="348">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="375" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" s="349" t="s">
+        <v>332</v>
+      </c>
+      <c r="F10" s="348">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G10" s="349" t="s">
+        <v>332</v>
+      </c>
+      <c r="H10" s="369" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="348">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="K10" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K10" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F10,COLUMN(G:G)))</f>
+        <v>x</v>
+      </c>
+      <c r="L10" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L10" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K10,$G$3:$G$54), 0)), "")</f>
+        <v>ㄌ</v>
+      </c>
+      <c r="M10" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M10" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K10,$D$3:$D$54), 0)), "")</f>
+        <v>d</v>
+      </c>
+      <c r="N10" s="366" t="s">
+        <v>496</v>
+      </c>
+      <c r="P10" s="348">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Q10" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="R10" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㄌ</v>
+      </c>
+      <c r="S10" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>d</v>
+      </c>
+      <c r="T10" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>l</v>
+      </c>
+    </row>
+    <row r="11" spans="2:69">
+      <c r="B11" s="348">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="375" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="349" t="s">
+        <v>329</v>
+      </c>
+      <c r="F11" s="348">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G11" s="349" t="s">
+        <v>329</v>
+      </c>
+      <c r="H11" s="369" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="348">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="K11" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K11" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F11,COLUMN(G:G)))</f>
+        <v>e</v>
+      </c>
+      <c r="L11" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L11" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K11,$G$3:$G$54), 0)), "")</f>
+        <v>ㄍ</v>
+      </c>
+      <c r="M11" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M11" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K11,$D$3:$D$54), 0)), "")</f>
+        <v>k</v>
+      </c>
+      <c r="N11" s="366" t="s">
+        <v>321</v>
+      </c>
+      <c r="P11" s="348">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Q11" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="R11" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㄍ</v>
+      </c>
+      <c r="S11" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>k</v>
+      </c>
+      <c r="T11" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>k</v>
+      </c>
+      <c r="V11" s="357" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="12" spans="2:69">
+      <c r="B12" s="348">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="375" t="s">
+        <v>425</v>
+      </c>
+      <c r="D12" s="349" t="s">
+        <v>309</v>
+      </c>
+      <c r="F12" s="348">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G12" s="349" t="s">
+        <v>309</v>
+      </c>
+      <c r="H12" s="369" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="348">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K12" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F12,COLUMN(G:G)))</f>
+        <v>d</v>
+      </c>
+      <c r="L12" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L12" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K12,$G$3:$G$54), 0)), "")</f>
+        <v>ㄎ</v>
+      </c>
+      <c r="M12" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M12" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K12,$D$3:$D$54), 0)), "")</f>
+        <v>K</v>
+      </c>
+      <c r="N12" s="366" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="348">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q12" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>d</v>
+      </c>
+      <c r="R12" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㄎ</v>
+      </c>
+      <c r="S12" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>K</v>
+      </c>
+      <c r="T12" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>kh</v>
+      </c>
+      <c r="V12" s="358" t="str">
+        <f ca="1" xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(Q3:Q54) &amp; "|" &amp; _xlfn.CONCAT(R3:R54) &amp; "|"""</f>
+        <v>- "xlit|1q!a2wsxedEcyhnYrfvbuUjJm8*iIk,&lt;9(lL0p;:/?-AO. 43657|ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄏㄗㄘㄙㆡㄐㄑㄒㆢㄧㆪㄨㆫㆬㄚㆩㆦㆧㄜㆤㆥㄞㆮㄠㆯㄢㄣㄤㆲㆭㄫㆨㆰㆱｎˉˋ˪ˊ˫．|"</v>
+      </c>
+      <c r="W12" s="359"/>
+      <c r="X12" s="359"/>
+      <c r="Y12" s="359"/>
+      <c r="Z12" s="359"/>
+      <c r="AA12" s="359"/>
+      <c r="AB12" s="359"/>
+      <c r="AC12" s="359"/>
+      <c r="AD12" s="359"/>
+      <c r="AE12" s="359"/>
+      <c r="AF12" s="359"/>
+      <c r="AG12" s="359"/>
+      <c r="AH12" s="359"/>
+      <c r="AI12" s="359"/>
+      <c r="AJ12" s="359"/>
+      <c r="AK12" s="359"/>
+      <c r="AL12" s="359"/>
+      <c r="AM12" s="359"/>
+      <c r="AN12" s="359"/>
+      <c r="AO12" s="359"/>
+      <c r="AP12" s="359"/>
+      <c r="AQ12" s="359"/>
+      <c r="AR12" s="359"/>
+      <c r="AS12" s="359"/>
+      <c r="AT12" s="359"/>
+      <c r="AU12" s="359"/>
+      <c r="AV12" s="359"/>
+      <c r="AW12" s="359"/>
+      <c r="AX12" s="359"/>
+      <c r="AY12" s="359"/>
+      <c r="AZ12" s="359"/>
+      <c r="BA12" s="359"/>
+      <c r="BB12" s="359"/>
+      <c r="BC12" s="359"/>
+      <c r="BD12" s="359"/>
+      <c r="BE12" s="359"/>
+      <c r="BF12" s="359"/>
+      <c r="BG12" s="359"/>
+      <c r="BH12" s="359"/>
+      <c r="BI12" s="359"/>
+      <c r="BJ12" s="359"/>
+      <c r="BK12" s="359"/>
+      <c r="BL12" s="359"/>
+      <c r="BM12" s="359"/>
+      <c r="BN12" s="360"/>
+      <c r="BO12" s="360"/>
+      <c r="BP12" s="360"/>
+      <c r="BQ12" s="360"/>
+    </row>
+    <row r="13" spans="2:69">
+      <c r="B13" s="348">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="375" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="349" t="s">
+        <v>322</v>
+      </c>
+      <c r="F13" s="348">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G13" s="349" t="s">
+        <v>322</v>
+      </c>
+      <c r="H13" s="369" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="348">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="K13" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K13" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F13,COLUMN(G:G)))</f>
+        <v>E</v>
+      </c>
+      <c r="L13" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L13" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K13,$G$3:$G$54), 0)), "")</f>
+        <v>ㆣ</v>
+      </c>
+      <c r="M13" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M13" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K13,$D$3:$D$54), 0)), "")</f>
+        <v>g</v>
+      </c>
+      <c r="N13" s="366" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="348">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="Q13" s="373" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="R13" s="364" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㆣ</v>
+      </c>
+      <c r="S13" s="373" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>g</v>
+      </c>
+      <c r="T13" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>g</v>
+      </c>
+    </row>
+    <row r="14" spans="2:69">
+      <c r="B14" s="348">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="375" t="s">
+        <v>422</v>
+      </c>
+      <c r="D14" s="349" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14" s="348">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G14" s="349" t="s">
+        <v>305</v>
+      </c>
+      <c r="H14" s="369" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="348">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="K14" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K14" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F14,COLUMN(G:G)))</f>
+        <v>c</v>
+      </c>
+      <c r="L14" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L14" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K14,$G$3:$G$54), 0)), "")</f>
+        <v>ㄏ</v>
+      </c>
+      <c r="M14" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M14" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K14,$D$3:$D$54), 0)), "")</f>
+        <v>h</v>
+      </c>
+      <c r="N14" s="366" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="348">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="Q14" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>c</v>
+      </c>
+      <c r="R14" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㄏ</v>
+      </c>
+      <c r="S14" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>h</v>
+      </c>
+      <c r="T14" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>h</v>
+      </c>
+    </row>
+    <row r="15" spans="2:69">
+      <c r="B15" s="348">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="375" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="349" t="s">
+        <v>590</v>
+      </c>
+      <c r="F15" s="348">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G15" s="349" t="s">
+        <v>590</v>
+      </c>
+      <c r="H15" s="368" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="348">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="K15" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K15" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F15,COLUMN(G:G)))</f>
+        <v>y</v>
+      </c>
+      <c r="L15" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L15" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K15,$G$3:$G$54), 0)), "")</f>
+        <v>ㄗ</v>
+      </c>
+      <c r="M15" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M15" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K15,$D$3:$D$54), 0)), "")</f>
+        <v>z</v>
+      </c>
+      <c r="N15" s="366" t="s">
+        <v>366</v>
+      </c>
+      <c r="P15" s="348">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="Q15" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>y</v>
+      </c>
+      <c r="R15" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㄗ</v>
+      </c>
+      <c r="S15" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>z</v>
+      </c>
+      <c r="T15" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>z</v>
+      </c>
+      <c r="V15" s="357" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="16" spans="2:69">
+      <c r="B16" s="348">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="375" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" s="349" t="s">
+        <v>422</v>
+      </c>
+      <c r="F16" s="348">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="G16" s="349" t="s">
+        <v>422</v>
+      </c>
+      <c r="H16" s="369" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="348">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="K16" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K16" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F16,COLUMN(G:G)))</f>
+        <v>h</v>
+      </c>
+      <c r="L16" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L16" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K16,$G$3:$G$54), 0)), "")</f>
+        <v>ㄘ</v>
+      </c>
+      <c r="M16" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M16" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K16,$D$3:$D$54), 0)), "")</f>
+        <v>c</v>
+      </c>
+      <c r="N16" s="366" t="s">
+        <v>287</v>
+      </c>
+      <c r="P16" s="348">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="Q16" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>h</v>
+      </c>
+      <c r="R16" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㄘ</v>
+      </c>
+      <c r="S16" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>c</v>
+      </c>
+      <c r="T16" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>c</v>
+      </c>
+      <c r="V16" s="358" t="str">
+        <f ca="1" xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(S3:S54) &amp; "|" &amp; _xlfn.CONCAT(R3:R54) &amp; "|"""</f>
+        <v>- "xlit|pPbmtTndkKghzcsjZCSJiIuUBaAOQoeEIYUX@DHFWwRVLN123570|ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄏㄗㄘㄙㆡㄐㄑㄒㆢㄧㆪㄨㆫㆬㄚㆩㆦㆧㄜㆤㆥㄞㆮㄠㆯㄢㄣㄤㆲㆭㄫㆨㆰㆱｎˉˋ˪ˊ˫．|"</v>
+      </c>
+      <c r="W16" s="359"/>
+      <c r="X16" s="359"/>
+      <c r="Y16" s="359"/>
+      <c r="Z16" s="359"/>
+      <c r="AA16" s="359"/>
+      <c r="AB16" s="359"/>
+      <c r="AC16" s="359"/>
+      <c r="AD16" s="359"/>
+      <c r="AE16" s="359"/>
+      <c r="AF16" s="359"/>
+      <c r="AG16" s="359"/>
+      <c r="AH16" s="359"/>
+      <c r="AI16" s="359"/>
+      <c r="AJ16" s="359"/>
+      <c r="AK16" s="359"/>
+      <c r="AL16" s="359"/>
+      <c r="AM16" s="359"/>
+      <c r="AN16" s="359"/>
+      <c r="AO16" s="359"/>
+      <c r="AP16" s="359"/>
+      <c r="AQ16" s="359"/>
+      <c r="AR16" s="359"/>
+      <c r="AS16" s="359"/>
+      <c r="AT16" s="359"/>
+      <c r="AU16" s="359"/>
+      <c r="AV16" s="359"/>
+      <c r="AW16" s="359"/>
+      <c r="AX16" s="359"/>
+      <c r="AY16" s="359"/>
+      <c r="AZ16" s="359"/>
+      <c r="BA16" s="359"/>
+      <c r="BB16" s="359"/>
+      <c r="BC16" s="359"/>
+      <c r="BD16" s="359"/>
+      <c r="BE16" s="359"/>
+      <c r="BF16" s="359"/>
+      <c r="BG16" s="359"/>
+      <c r="BH16" s="359"/>
+      <c r="BI16" s="359"/>
+      <c r="BJ16" s="359"/>
+      <c r="BK16" s="359"/>
+      <c r="BL16" s="359"/>
+      <c r="BM16" s="359"/>
+      <c r="BN16" s="360"/>
+      <c r="BO16" s="360"/>
+      <c r="BP16" s="360"/>
+      <c r="BQ16" s="360"/>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="348">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="375" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17" s="349" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="348">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="G17" s="349" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="369" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="348">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="K17" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K17" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F17,COLUMN(G:G)))</f>
+        <v>n</v>
+      </c>
+      <c r="L17" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L17" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K17,$G$3:$G$54), 0)), "")</f>
+        <v>ㄙ</v>
+      </c>
+      <c r="M17" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M17" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K17,$D$3:$D$54), 0)), "")</f>
+        <v>s</v>
+      </c>
+      <c r="N17" s="366" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="348">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="Q17" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>n</v>
+      </c>
+      <c r="R17" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㄙ</v>
+      </c>
+      <c r="S17" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>s</v>
+      </c>
+      <c r="T17" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>s</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="348">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="375" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" s="349" t="s">
+        <v>374</v>
+      </c>
+      <c r="F18" s="348">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="G18" s="349" t="s">
+        <v>374</v>
+      </c>
+      <c r="H18" s="368" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="348">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="K18" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K18" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F18,COLUMN(G:G)))</f>
+        <v>Y</v>
+      </c>
+      <c r="L18" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L18" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K18,$G$3:$G$54), 0)), "")</f>
+        <v>ㆡ</v>
+      </c>
+      <c r="M18" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M18" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K18,$D$3:$D$54), 0)), "")</f>
+        <v>j</v>
+      </c>
+      <c r="N18" s="366" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" s="348">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="Q18" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="R18" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㆡ</v>
+      </c>
+      <c r="S18" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>j</v>
+      </c>
+      <c r="T18" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>j</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="348">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="375" t="s">
+        <v>367</v>
+      </c>
+      <c r="D19" s="349" t="s">
+        <v>435</v>
+      </c>
+      <c r="F19" s="348">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="G19" s="349" t="s">
+        <v>283</v>
+      </c>
+      <c r="H19" s="369" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="348">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="K19" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K19" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F19,COLUMN(G:G)))</f>
+        <v>r</v>
+      </c>
+      <c r="L19" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L19" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K19,$G$3:$G$54), 0)), "")</f>
+        <v>ㄐ</v>
+      </c>
+      <c r="M19" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M19" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K19,$D$3:$D$54), 0)), "")</f>
+        <v>Z</v>
+      </c>
+      <c r="N19" s="366" t="s">
+        <v>450</v>
+      </c>
+      <c r="P19" s="348">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="Q19" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>r</v>
+      </c>
+      <c r="R19" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㄐ</v>
+      </c>
+      <c r="S19" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Z</v>
+      </c>
+      <c r="T19" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>zi-</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="348">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="375" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" s="349" t="s">
+        <v>438</v>
+      </c>
+      <c r="F20" s="348">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="G20" s="349" t="s">
+        <v>602</v>
+      </c>
+      <c r="H20" s="369" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="348">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="K20" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K20" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F20,COLUMN(G:G)))</f>
+        <v>f</v>
+      </c>
+      <c r="L20" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L20" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K20,$G$3:$G$54), 0)), "")</f>
+        <v>ㄑ</v>
+      </c>
+      <c r="M20" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M20" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K20,$D$3:$D$54), 0)), "")</f>
+        <v>C</v>
+      </c>
+      <c r="N20" s="366" t="s">
+        <v>457</v>
+      </c>
+      <c r="P20" s="348">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="Q20" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="R20" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㄑ</v>
+      </c>
+      <c r="S20" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="T20" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>ci-</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="348">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="375" t="s">
+        <v>369</v>
+      </c>
+      <c r="D21" s="349" t="s">
+        <v>443</v>
+      </c>
+      <c r="F21" s="348">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="G21" s="349" t="s">
+        <v>603</v>
+      </c>
+      <c r="H21" s="369" t="s">
+        <v>284</v>
+      </c>
+      <c r="J21" s="348">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="K21" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K21" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F21,COLUMN(G:G)))</f>
+        <v>v</v>
+      </c>
+      <c r="L21" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L21" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K21,$G$3:$G$54), 0)), "")</f>
+        <v>ㄒ</v>
+      </c>
+      <c r="M21" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M21" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K21,$D$3:$D$54), 0)), "")</f>
+        <v>S</v>
+      </c>
+      <c r="N21" s="366" t="s">
+        <v>606</v>
+      </c>
+      <c r="P21" s="348">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="Q21" s="373" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>v</v>
+      </c>
+      <c r="R21" s="364" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㄒ</v>
+      </c>
+      <c r="S21" s="373" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="T21" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>si-</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="348">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="375" t="s">
+        <v>368</v>
+      </c>
+      <c r="D22" s="349" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="348">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="G22" s="349" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="369" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="348">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="K22" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K22" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F22,COLUMN(G:G)))</f>
+        <v>b</v>
+      </c>
+      <c r="L22" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L22" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K22,$G$3:$G$54), 0)), "")</f>
+        <v>ㆢ</v>
+      </c>
+      <c r="M22" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M22" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K22,$D$3:$D$54), 0)), "")</f>
+        <v>J</v>
+      </c>
+      <c r="N22" s="366" t="s">
+        <v>583</v>
+      </c>
+      <c r="P22" s="348">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="Q22" s="373" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="R22" s="364" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㆢ</v>
+      </c>
+      <c r="S22" s="373" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>J</v>
+      </c>
+      <c r="T22" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>ji-</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23" s="348">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="375" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23" s="349" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="348">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="G23" s="349" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" s="369" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="348">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="K23" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K23" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F23,COLUMN(G:G)))</f>
+        <v>u</v>
+      </c>
+      <c r="L23" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L23" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K23,$G$3:$G$54), 0)), "")</f>
+        <v>ㄧ</v>
+      </c>
+      <c r="M23" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M23" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K23,$D$3:$D$54), 0)), "")</f>
+        <v>i</v>
+      </c>
+      <c r="N23" s="366" t="s">
+        <v>55</v>
+      </c>
+      <c r="P23" s="348">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="Q23" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>u</v>
+      </c>
+      <c r="R23" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㄧ</v>
+      </c>
+      <c r="S23" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>i</v>
+      </c>
+      <c r="T23" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>i</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="348">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="375" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" s="349" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" s="348">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="G24" s="349" t="s">
+        <v>230</v>
+      </c>
+      <c r="H24" s="369" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" s="348">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="K24" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K24" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F24,COLUMN(G:G)))</f>
+        <v>U</v>
+      </c>
+      <c r="L24" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L24" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K24,$G$3:$G$54), 0)), "")</f>
+        <v>ㆪ</v>
+      </c>
+      <c r="M24" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M24" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K24,$D$3:$D$54), 0)), "")</f>
+        <v>I</v>
+      </c>
+      <c r="N24" s="366" t="s">
+        <v>112</v>
+      </c>
+      <c r="P24" s="348">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="Q24" s="373" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>U</v>
+      </c>
+      <c r="R24" s="364" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㆪ</v>
+      </c>
+      <c r="S24" s="373" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>I</v>
+      </c>
+      <c r="T24" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>inn</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="B25" s="348">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="375" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" s="349" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="348">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="G25" s="349" t="s">
+        <v>254</v>
+      </c>
+      <c r="H25" s="369" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="348">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="K25" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K25" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F25,COLUMN(G:G)))</f>
+        <v>j</v>
+      </c>
+      <c r="L25" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L25" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K25,$G$3:$G$54), 0)), "")</f>
+        <v>ㄨ</v>
+      </c>
+      <c r="M25" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M25" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K25,$D$3:$D$54), 0)), "")</f>
+        <v>u</v>
+      </c>
+      <c r="N25" s="366" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25" s="348">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="Q25" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>j</v>
+      </c>
+      <c r="R25" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㄨ</v>
+      </c>
+      <c r="S25" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>u</v>
+      </c>
+      <c r="T25" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>u</v>
+      </c>
+      <c r="U25" s="347"/>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26" s="348">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="375" t="s">
+        <v>230</v>
+      </c>
+      <c r="D26" s="349" t="s">
+        <v>368</v>
+      </c>
+      <c r="F26" s="348">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="G26" s="349" t="s">
+        <v>368</v>
+      </c>
+      <c r="H26" s="369" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26" s="348">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="K26" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K26" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F26,COLUMN(G:G)))</f>
+        <v>J</v>
+      </c>
+      <c r="L26" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L26" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K26,$G$3:$G$54), 0)), "")</f>
+        <v>ㆫ</v>
+      </c>
+      <c r="M26" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M26" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K26,$D$3:$D$54), 0)), "")</f>
+        <v>U</v>
+      </c>
+      <c r="N26" s="366" t="s">
+        <v>114</v>
+      </c>
+      <c r="P26" s="348">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="Q26" s="373" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>J</v>
+      </c>
+      <c r="R26" s="364" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㆫ</v>
+      </c>
+      <c r="S26" s="373" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>U</v>
+      </c>
+      <c r="T26" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>unn</v>
+      </c>
+      <c r="U26" s="347"/>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" s="348">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="375" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="349" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="348">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="G27" s="349" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="369" t="s">
+        <v>145</v>
+      </c>
+      <c r="J27" s="348">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="K27" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K27" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F27,COLUMN(G:G)))</f>
+        <v>m</v>
+      </c>
+      <c r="L27" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L27" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K27,$G$3:$G$54), 0)), "")</f>
+        <v>ㆬ</v>
+      </c>
+      <c r="M27" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M27" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K27,$D$3:$D$54), 0)), "")</f>
+        <v>B</v>
+      </c>
+      <c r="N27" s="367" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" s="348">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="Q27" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>m</v>
+      </c>
+      <c r="R27" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㆬ</v>
+      </c>
+      <c r="S27" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="T27" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>-m</v>
+      </c>
+      <c r="U27" s="347"/>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28" s="348">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="375" t="s">
+        <v>351</v>
+      </c>
+      <c r="D28" s="349" t="s">
+        <v>591</v>
+      </c>
+      <c r="F28" s="348">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="G28" s="349" t="s">
+        <v>591</v>
+      </c>
+      <c r="H28" s="369" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="348">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="K28" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K28" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F28,COLUMN(G:G)))</f>
+        <v>8</v>
+      </c>
+      <c r="L28" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L28" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K28,$G$3:$G$54), 0)), "")</f>
+        <v>ㄚ</v>
+      </c>
+      <c r="M28" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M28" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K28,$D$3:$D$54), 0)), "")</f>
+        <v>a</v>
+      </c>
+      <c r="N28" s="366" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" s="348">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="Q28" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R28" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㄚ</v>
+      </c>
+      <c r="S28" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>a</v>
+      </c>
+      <c r="T28" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>a</v>
+      </c>
+      <c r="U28" s="347"/>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" s="348">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="375" t="s">
+        <v>401</v>
+      </c>
+      <c r="D29" s="349" t="s">
+        <v>484</v>
+      </c>
+      <c r="F29" s="348">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="G29" s="349" t="s">
+        <v>484</v>
+      </c>
+      <c r="H29" s="369" t="s">
+        <v>115</v>
+      </c>
+      <c r="J29" s="348">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="K29" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K29" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F29,COLUMN(G:G)))</f>
+        <v>*</v>
+      </c>
+      <c r="L29" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L29" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K29,$G$3:$G$54), 0)), "")</f>
+        <v>ㆩ</v>
+      </c>
+      <c r="M29" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M29" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K29,$D$3:$D$54), 0)), "")</f>
+        <v>A</v>
+      </c>
+      <c r="N29" s="366" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" s="348">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="Q29" s="373" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>*</v>
+      </c>
+      <c r="R29" s="364" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㆩ</v>
+      </c>
+      <c r="S29" s="373" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="T29" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>ann</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21">
+      <c r="B30" s="348">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="375" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="349" t="s">
+        <v>279</v>
+      </c>
+      <c r="F30" s="348">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="G30" s="349" t="s">
+        <v>279</v>
+      </c>
+      <c r="H30" s="369" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="348">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="K30" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K30" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F30,COLUMN(G:G)))</f>
+        <v>i</v>
+      </c>
+      <c r="L30" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L30" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K30,$G$3:$G$54), 0)), "")</f>
+        <v>ㆦ</v>
+      </c>
+      <c r="M30" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M30" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K30,$D$3:$D$54), 0)), "")</f>
+        <v>O</v>
+      </c>
+      <c r="N30" s="366" t="s">
+        <v>68</v>
+      </c>
+      <c r="P30" s="348">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="Q30" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>i</v>
+      </c>
+      <c r="R30" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㆦ</v>
+      </c>
+      <c r="S30" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>O</v>
+      </c>
+      <c r="T30" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>oo</v>
+      </c>
+      <c r="U30" s="347"/>
+    </row>
+    <row r="31" spans="2:21">
+      <c r="B31" s="348">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="375" t="s">
+        <v>397</v>
+      </c>
+      <c r="D31" s="349" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" s="348">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="G31" s="349" t="s">
+        <v>239</v>
+      </c>
+      <c r="H31" s="369" t="s">
+        <v>597</v>
+      </c>
+      <c r="J31" s="348">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="K31" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K31" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F31,COLUMN(G:G)))</f>
+        <v>I</v>
+      </c>
+      <c r="L31" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L31" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K31,$G$3:$G$54), 0)), "")</f>
+        <v>ㆧ</v>
+      </c>
+      <c r="M31" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M31" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K31,$D$3:$D$54), 0)), "")</f>
+        <v>Q</v>
+      </c>
+      <c r="N31" s="366" t="s">
+        <v>122</v>
+      </c>
+      <c r="P31" s="348">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="Q31" s="373" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>I</v>
+      </c>
+      <c r="R31" s="364" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㆧ</v>
+      </c>
+      <c r="S31" s="373" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Q</v>
+      </c>
+      <c r="T31" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>onn</v>
+      </c>
+      <c r="U31" s="347"/>
+    </row>
+    <row r="32" spans="2:21">
+      <c r="B32" s="348">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="375" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="349" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="348">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="G32" s="349" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="369" t="s">
+        <v>473</v>
+      </c>
+      <c r="J32" s="348">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="K32" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K32" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F32,COLUMN(G:G)))</f>
+        <v>k</v>
+      </c>
+      <c r="L32" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L32" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K32,$G$3:$G$54), 0)), "")</f>
+        <v>ㄜ</v>
+      </c>
+      <c r="M32" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M32" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K32,$D$3:$D$54), 0)), "")</f>
+        <v>o</v>
+      </c>
+      <c r="N32" s="366" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" s="348">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="Q32" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>k</v>
+      </c>
+      <c r="R32" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㄜ</v>
+      </c>
+      <c r="S32" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>o</v>
+      </c>
+      <c r="T32" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>o</v>
+      </c>
+      <c r="U32" s="347"/>
+    </row>
+    <row r="33" spans="2:21">
+      <c r="B33" s="348">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="375" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="349" t="s">
+        <v>225</v>
+      </c>
+      <c r="F33" s="348">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="G33" s="349" t="s">
+        <v>225</v>
+      </c>
+      <c r="H33" s="369" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" s="348">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="K33" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K33" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F33,COLUMN(G:G)))</f>
+        <v>,</v>
+      </c>
+      <c r="L33" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L33" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K33,$G$3:$G$54), 0)), "")</f>
+        <v>ㆤ</v>
+      </c>
+      <c r="M33" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M33" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K33,$D$3:$D$54), 0)), "")</f>
+        <v>e</v>
+      </c>
+      <c r="N33" s="366" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" s="348">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="Q33" s="372" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="R33" s="374" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㆤ</v>
+      </c>
+      <c r="S33" s="372" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>e</v>
+      </c>
+      <c r="T33" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>e</v>
+      </c>
+      <c r="U33" s="347"/>
+    </row>
+    <row r="34" spans="2:21">
+      <c r="B34" s="348">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="375" t="s">
+        <v>421</v>
+      </c>
+      <c r="D34" s="349" t="s">
+        <v>598</v>
+      </c>
+      <c r="F34" s="348">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="G34" s="349" t="s">
+        <v>598</v>
+      </c>
+      <c r="H34" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="J34" s="348">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="K34" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K34" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F34,COLUMN(G:G)))</f>
+        <v>&lt;</v>
+      </c>
+      <c r="L34" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L34" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K34,$G$3:$G$54), 0)), "")</f>
+        <v>ㆥ</v>
+      </c>
+      <c r="M34" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M34" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K34,$D$3:$D$54), 0)), "")</f>
+        <v>E</v>
+      </c>
+      <c r="N34" s="366" t="s">
+        <v>120</v>
+      </c>
+      <c r="P34" s="348">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="Q34" s="373" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>&lt;</v>
+      </c>
+      <c r="R34" s="364" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ㆥ</v>
+      </c>
+      <c r="S34" s="373" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>E</v>
+      </c>
+      <c r="T34" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>enn</v>
+      </c>
+      <c r="U34" s="347"/>
+    </row>
+    <row r="35" spans="2:21">
+      <c r="B35" s="348">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="375" t="s">
+        <v>275</v>
+      </c>
+      <c r="D35" s="349" t="s">
+        <v>264</v>
+      </c>
+      <c r="F35" s="348">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="G35" s="349" t="s">
+        <v>264</v>
+      </c>
+      <c r="H35" s="369" t="s">
+        <v>241</v>
+      </c>
+      <c r="J35" s="348">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="K35" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K35" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F35,COLUMN(G:G)))</f>
+        <v>9</v>
+      </c>
+      <c r="L35" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L35" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K35,$G$3:$G$54), 0)), "")</f>
+        <v>ㄞ</v>
+      </c>
+      <c r="M35" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M35" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K35,$D$3:$D$54), 0)), "")</f>
+        <v>I</v>
+      </c>
+      <c r="N35" s="366" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" s="348">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="Q35" s="372" t="str">
+        <f t="shared" ref="Q35:Q54" ca="1" si="8">K35</f>
+        <v>9</v>
+      </c>
+      <c r="R35" s="374" t="str">
+        <f t="shared" ref="R35:R54" ca="1" si="9">L35</f>
+        <v>ㄞ</v>
+      </c>
+      <c r="S35" s="372" t="str">
+        <f t="shared" ref="S35:S54" ca="1" si="10">M35</f>
+        <v>I</v>
+      </c>
+      <c r="T35" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>ai</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21">
+      <c r="B36" s="348">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="375" t="s">
+        <v>374</v>
+      </c>
+      <c r="D36" s="349" t="s">
+        <v>491</v>
+      </c>
+      <c r="F36" s="348">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="G36" s="349" t="s">
+        <v>491</v>
+      </c>
+      <c r="H36" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" s="348">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="K36" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K36" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F36,COLUMN(G:G)))</f>
+        <v>(</v>
+      </c>
+      <c r="L36" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L36" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K36,$G$3:$G$54), 0)), "")</f>
+        <v>ㆮ</v>
+      </c>
+      <c r="M36" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M36" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K36,$D$3:$D$54), 0)), "")</f>
+        <v>Y</v>
+      </c>
+      <c r="N36" s="366" t="s">
+        <v>118</v>
+      </c>
+      <c r="P36" s="348">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="Q36" s="373" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>(</v>
+      </c>
+      <c r="R36" s="364" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>ㆮ</v>
+      </c>
+      <c r="S36" s="373" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Y</v>
+      </c>
+      <c r="T36" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>ainn</v>
+      </c>
+      <c r="U36" s="347"/>
+    </row>
+    <row r="37" spans="2:21">
+      <c r="B37" s="348">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="375" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="349" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="348">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="G37" s="349" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" s="369" t="s">
+        <v>72</v>
+      </c>
+      <c r="J37" s="348">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="K37" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K37" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F37,COLUMN(G:G)))</f>
+        <v>l</v>
+      </c>
+      <c r="L37" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L37" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K37,$G$3:$G$54), 0)), "")</f>
+        <v>ㄠ</v>
+      </c>
+      <c r="M37" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M37" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K37,$D$3:$D$54), 0)), "")</f>
+        <v>U</v>
+      </c>
+      <c r="N37" s="366" t="s">
+        <v>73</v>
+      </c>
+      <c r="P37" s="348">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="Q37" s="372" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>l</v>
+      </c>
+      <c r="R37" s="374" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>ㄠ</v>
+      </c>
+      <c r="S37" s="372" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>U</v>
+      </c>
+      <c r="T37" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>au</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21">
+      <c r="B38" s="348">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="375" t="s">
+        <v>414</v>
+      </c>
+      <c r="D38" s="349" t="s">
+        <v>497</v>
+      </c>
+      <c r="F38" s="348">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="G38" s="349" t="s">
+        <v>497</v>
+      </c>
+      <c r="H38" s="369" t="s">
+        <v>123</v>
+      </c>
+      <c r="J38" s="348">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="K38" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K38" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F38,COLUMN(G:G)))</f>
+        <v>L</v>
+      </c>
+      <c r="L38" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L38" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K38,$G$3:$G$54), 0)), "")</f>
+        <v>ㆯ</v>
+      </c>
+      <c r="M38" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M38" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K38,$D$3:$D$54), 0)), "")</f>
+        <v>X</v>
+      </c>
+      <c r="N38" s="366" t="s">
+        <v>124</v>
+      </c>
+      <c r="P38" s="348">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="Q38" s="373" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>L</v>
+      </c>
+      <c r="R38" s="364" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>ㆯ</v>
+      </c>
+      <c r="S38" s="373" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="T38" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>aunn</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21">
+      <c r="B39" s="348">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="375" t="s">
+        <v>404</v>
+      </c>
+      <c r="D39" s="349" t="s">
+        <v>219</v>
+      </c>
+      <c r="F39" s="348">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="G39" s="349">
+        <v>0</v>
+      </c>
+      <c r="H39" s="369" t="s">
+        <v>97</v>
+      </c>
+      <c r="J39" s="348">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="K39" s="354" cm="1">
+        <f t="array" aca="1" ref="K39" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F39,COLUMN(G:G)))</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L39" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K39,$G$3:$G$54), 0)), "")</f>
+        <v>ㄢ</v>
+      </c>
+      <c r="M39" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M39" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K39,$D$3:$D$54), 0)), "")</f>
+        <v>@</v>
+      </c>
+      <c r="N39" s="366" t="s">
+        <v>98</v>
+      </c>
+      <c r="P39" s="348">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="Q39" s="372">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="374" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>ㄢ</v>
+      </c>
+      <c r="S39" s="372" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>@</v>
+      </c>
+      <c r="T39" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>an</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21">
+      <c r="B40" s="348">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="375" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="349" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" s="348">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="G40" s="349" t="s">
+        <v>217</v>
+      </c>
+      <c r="H40" s="369" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" s="348">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="K40" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K40" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F40,COLUMN(G:G)))</f>
+        <v>p</v>
+      </c>
+      <c r="L40" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L40" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K40,$G$3:$G$54), 0)), "")</f>
+        <v>ㄣ</v>
+      </c>
+      <c r="M40" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M40" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K40,$D$3:$D$54), 0)), "")</f>
+        <v>D</v>
+      </c>
+      <c r="N40" s="367" t="s">
+        <v>77</v>
+      </c>
+      <c r="P40" s="348">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="Q40" s="372" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>p</v>
+      </c>
+      <c r="R40" s="374" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>ㄣ</v>
+      </c>
+      <c r="S40" s="372" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>D</v>
+      </c>
+      <c r="T40" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>-n</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21">
+      <c r="B41" s="348">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="375" t="s">
+        <v>375</v>
+      </c>
+      <c r="D41" s="349" t="s">
+        <v>512</v>
+      </c>
+      <c r="F41" s="348">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="G41" s="349" t="s">
+        <v>512</v>
+      </c>
+      <c r="H41" s="369" t="s">
+        <v>95</v>
+      </c>
+      <c r="J41" s="348">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="K41" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K41" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F41,COLUMN(G:G)))</f>
+        <v>;</v>
+      </c>
+      <c r="L41" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L41" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K41,$G$3:$G$54), 0)), "")</f>
+        <v>ㄤ</v>
+      </c>
+      <c r="M41" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M41" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K41,$D$3:$D$54), 0)), "")</f>
+        <v>H</v>
+      </c>
+      <c r="N41" s="366" t="s">
+        <v>96</v>
+      </c>
+      <c r="P41" s="348">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="Q41" s="372" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>;</v>
+      </c>
+      <c r="R41" s="374" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>ㄤ</v>
+      </c>
+      <c r="S41" s="372" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>H</v>
+      </c>
+      <c r="T41" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>ang</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21">
+      <c r="B42" s="348">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="375" t="s">
+        <v>439</v>
+      </c>
+      <c r="D42" s="349" t="s">
+        <v>206</v>
+      </c>
+      <c r="F42" s="348">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="G42" s="349" t="s">
+        <v>206</v>
+      </c>
+      <c r="H42" s="369" t="s">
+        <v>101</v>
+      </c>
+      <c r="J42" s="348">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="K42" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K42" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F42,COLUMN(G:G)))</f>
+        <v>:</v>
+      </c>
+      <c r="L42" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L42" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K42,$G$3:$G$54), 0)), "")</f>
+        <v>ㆲ</v>
+      </c>
+      <c r="M42" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M42" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K42,$D$3:$D$54), 0)), "")</f>
+        <v>F</v>
+      </c>
+      <c r="N42" s="366" t="s">
+        <v>102</v>
+      </c>
+      <c r="P42" s="348">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="Q42" s="372" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>:</v>
+      </c>
+      <c r="R42" s="374" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>ㆲ</v>
+      </c>
+      <c r="S42" s="372" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>F</v>
+      </c>
+      <c r="T42" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>ong</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21">
+      <c r="B43" s="348">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="375" t="s">
+        <v>559</v>
+      </c>
+      <c r="D43" s="349" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" s="348">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="G43" s="349" t="s">
+        <v>202</v>
+      </c>
+      <c r="H43" s="369" t="s">
+        <v>74</v>
+      </c>
+      <c r="J43" s="348">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="K43" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K43" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F43,COLUMN(G:G)))</f>
+        <v>/</v>
+      </c>
+      <c r="L43" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L43" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K43,$G$3:$G$54), 0)), "")</f>
+        <v>ㆭ</v>
+      </c>
+      <c r="M43" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M43" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K43,$D$3:$D$54), 0)), "")</f>
+        <v>W</v>
+      </c>
+      <c r="N43" s="367" t="s">
+        <v>75</v>
+      </c>
+      <c r="P43" s="348">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="Q43" s="372" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>/</v>
+      </c>
+      <c r="R43" s="374" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>ㆭ</v>
+      </c>
+      <c r="S43" s="372" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>W</v>
+      </c>
+      <c r="T43" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>-ng</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21">
+      <c r="B44" s="348">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="375" t="s">
+        <v>341</v>
+      </c>
+      <c r="D44" s="349" t="s">
+        <v>429</v>
+      </c>
+      <c r="F44" s="348">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="G44" s="349" t="s">
+        <v>429</v>
+      </c>
+      <c r="H44" s="369" t="s">
+        <v>87</v>
+      </c>
+      <c r="J44" s="348">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="K44" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K44" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F44,COLUMN(G:G)))</f>
+        <v>?</v>
+      </c>
+      <c r="L44" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L44" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K44,$G$3:$G$54), 0)), "")</f>
+        <v>ㄫ</v>
+      </c>
+      <c r="M44" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M44" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K44,$D$3:$D$54), 0)), "")</f>
+        <v>w</v>
+      </c>
+      <c r="N44" s="366" t="s">
+        <v>599</v>
+      </c>
+      <c r="P44" s="348">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="Q44" s="372" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>?</v>
+      </c>
+      <c r="R44" s="374" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>ㄫ</v>
+      </c>
+      <c r="S44" s="372" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>w</v>
+      </c>
+      <c r="T44" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>ng-</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21">
+      <c r="B45" s="348">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="375" t="s">
+        <v>560</v>
+      </c>
+      <c r="D45" s="349" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45" s="348">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="G45" s="349" t="s">
+        <v>198</v>
+      </c>
+      <c r="H45" s="369" t="s">
+        <v>593</v>
+      </c>
+      <c r="J45" s="348">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="K45" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K45" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F45,COLUMN(G:G)))</f>
+        <v>-</v>
+      </c>
+      <c r="L45" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L45" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K45,$G$3:$G$54), 0)), "")</f>
+        <v>ㆨ</v>
+      </c>
+      <c r="M45" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M45" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K45,$D$3:$D$54), 0)), "")</f>
+        <v>R</v>
+      </c>
+      <c r="N45" s="366" t="s">
+        <v>600</v>
+      </c>
+      <c r="P45" s="348">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="Q45" s="372" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="R45" s="374" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>ㆨ</v>
+      </c>
+      <c r="S45" s="372" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>R</v>
+      </c>
+      <c r="T45" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>ir</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21">
+      <c r="B46" s="348">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="375" t="s">
+        <v>444</v>
+      </c>
+      <c r="D46" s="349" t="s">
+        <v>401</v>
+      </c>
+      <c r="F46" s="348">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="G46" s="349" t="s">
+        <v>401</v>
+      </c>
+      <c r="H46" s="369" t="s">
+        <v>99</v>
+      </c>
+      <c r="J46" s="348">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="K46" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K46" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F46,COLUMN(G:G)))</f>
+        <v>A</v>
+      </c>
+      <c r="L46" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L46" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K46,$G$3:$G$54), 0)), "")</f>
+        <v>ㆰ</v>
+      </c>
+      <c r="M46" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M46" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K46,$D$3:$D$54), 0)), "")</f>
+        <v>V</v>
+      </c>
+      <c r="N46" s="366" t="s">
+        <v>100</v>
+      </c>
+      <c r="P46" s="348">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="Q46" s="372" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="R46" s="374" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>ㆰ</v>
+      </c>
+      <c r="S46" s="372" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>V</v>
+      </c>
+      <c r="T46" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>am</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21">
+      <c r="B47" s="348">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="375" t="s">
+        <v>497</v>
+      </c>
+      <c r="D47" s="349" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="348">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="G47" s="349" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" s="369" t="s">
+        <v>125</v>
+      </c>
+      <c r="J47" s="348">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="K47" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K47" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F47,COLUMN(G:G)))</f>
+        <v>O</v>
+      </c>
+      <c r="L47" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L47" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K47,$G$3:$G$54), 0)), "")</f>
+        <v>ㆱ</v>
+      </c>
+      <c r="M47" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M47" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K47,$D$3:$D$54), 0)), "")</f>
+        <v>L</v>
+      </c>
+      <c r="N47" s="366" t="s">
+        <v>126</v>
+      </c>
+      <c r="P47" s="348">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="Q47" s="372" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>O</v>
+      </c>
+      <c r="R47" s="374" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>ㆱ</v>
+      </c>
+      <c r="S47" s="372" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>L</v>
+      </c>
+      <c r="T47" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>om</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21">
+      <c r="B48" s="348">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="375" t="s">
+        <v>571</v>
+      </c>
+      <c r="D48" s="349" t="s">
+        <v>596</v>
+      </c>
+      <c r="F48" s="348">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="G48" s="351" t="s">
+        <v>596</v>
+      </c>
+      <c r="H48" s="369" t="s">
+        <v>594</v>
+      </c>
+      <c r="I48" s="350"/>
+      <c r="J48" s="348">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="K48" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K48" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F48,COLUMN(G:G)))</f>
+        <v>.</v>
+      </c>
+      <c r="L48" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L48" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K48,$G$3:$G$54), 0)), "")</f>
+        <v>ｎ</v>
+      </c>
+      <c r="M48" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M48" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K48,$D$3:$D$54), 0)), "")</f>
+        <v>N</v>
+      </c>
+      <c r="N48" s="367" t="s">
+        <v>601</v>
+      </c>
+      <c r="P48" s="348">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="Q48" s="372" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>.</v>
+      </c>
+      <c r="R48" s="374" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>ｎ</v>
+      </c>
+      <c r="S48" s="372" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="T48" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>-nn</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20">
+      <c r="B49" s="348">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="375" t="s">
+        <v>361</v>
+      </c>
+      <c r="D49" s="349" t="str">
+        <f xml:space="preserve"> CHAR(32)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E49" s="352" t="s">
+        <v>592</v>
+      </c>
+      <c r="F49" s="348">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="G49" s="349" t="str">
+        <f xml:space="preserve"> CHAR(32)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H49" s="369" t="s">
+        <v>532</v>
+      </c>
+      <c r="J49" s="348">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="K49" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K49" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F49,COLUMN(G:G)))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L49" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L49" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K49,$G$3:$G$54), 0)), "")</f>
+        <v>ˉ</v>
+      </c>
+      <c r="M49" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M49" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K49,$D$3:$D$54), 0)), "")</f>
+        <v>1</v>
+      </c>
+      <c r="N49" s="366">
+        <v>1</v>
+      </c>
+      <c r="P49" s="348">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="Q49" s="349" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R49" s="374" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>ˉ</v>
+      </c>
+      <c r="S49" s="372" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T49" s="370">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20">
+      <c r="B50" s="348">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="375" t="s">
+        <v>347</v>
+      </c>
+      <c r="D50" s="349" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" s="348">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="G50" s="349" t="s">
+        <v>193</v>
+      </c>
+      <c r="H50" s="369" t="s">
+        <v>104</v>
+      </c>
+      <c r="J50" s="348">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="K50" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K50" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F50,COLUMN(G:G)))</f>
+        <v>4</v>
+      </c>
+      <c r="L50" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L50" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K50,$G$3:$G$54), 0)), "")</f>
+        <v>ˋ</v>
+      </c>
+      <c r="M50" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M50" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K50,$D$3:$D$54), 0)), "")</f>
+        <v>2</v>
+      </c>
+      <c r="N50" s="366">
+        <v>2</v>
+      </c>
+      <c r="P50" s="348">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="Q50" s="372" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="R50" s="374" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>ˋ</v>
+      </c>
+      <c r="S50" s="372" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="T50" s="370">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20">
+      <c r="B51" s="348">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="375" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" s="349" t="s">
+        <v>191</v>
+      </c>
+      <c r="F51" s="348">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="G51" s="351" t="s">
+        <v>191</v>
+      </c>
+      <c r="H51" s="369" t="s">
+        <v>105</v>
+      </c>
+      <c r="J51" s="348">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="K51" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K51" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F51,COLUMN(G:G)))</f>
+        <v>3</v>
+      </c>
+      <c r="L51" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L51" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K51,$G$3:$G$54), 0)), "")</f>
+        <v>˪</v>
+      </c>
+      <c r="M51" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M51" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K51,$D$3:$D$54), 0)), "")</f>
+        <v>3</v>
+      </c>
+      <c r="N51" s="366">
+        <v>3</v>
+      </c>
+      <c r="P51" s="348">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="Q51" s="372" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="R51" s="374" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>˪</v>
+      </c>
+      <c r="S51" s="372" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="T51" s="370">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20">
+      <c r="B52" s="348">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="375" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="351" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" s="348">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="G52" s="349" t="s">
+        <v>175</v>
+      </c>
+      <c r="H52" s="368" t="s">
+        <v>106</v>
+      </c>
+      <c r="J52" s="348">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="K52" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K52" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F52,COLUMN(G:G)))</f>
+        <v>6</v>
+      </c>
+      <c r="L52" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L52" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K52,$G$3:$G$54), 0)), "")</f>
+        <v>ˊ</v>
+      </c>
+      <c r="M52" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M52" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K52,$D$3:$D$54), 0)), "")</f>
+        <v>5</v>
+      </c>
+      <c r="N52" s="366">
+        <v>5</v>
+      </c>
+      <c r="P52" s="348">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="Q52" s="372" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="R52" s="374" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>ˊ</v>
+      </c>
+      <c r="S52" s="372" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="T52" s="370">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20">
+      <c r="B53" s="348">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="375" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="353" t="s">
+        <v>170</v>
+      </c>
+      <c r="F53" s="348">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="G53" s="353" t="s">
+        <v>170</v>
+      </c>
+      <c r="H53" s="369" t="s">
+        <v>107</v>
+      </c>
+      <c r="J53" s="348">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="K53" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K53" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F53,COLUMN(G:G)))</f>
+        <v>5</v>
+      </c>
+      <c r="L53" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L53" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K53,$G$3:$G$54), 0)), "")</f>
+        <v>˫</v>
+      </c>
+      <c r="M53" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M53" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K53,$D$3:$D$54), 0)), "")</f>
+        <v>7</v>
+      </c>
+      <c r="N53" s="366">
+        <v>7</v>
+      </c>
+      <c r="P53" s="348">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="Q53" s="372" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="R53" s="374" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>˫</v>
+      </c>
+      <c r="S53" s="372" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="T53" s="370">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20">
+      <c r="B54" s="348">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="375" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="349">
+        <v>7</v>
+      </c>
+      <c r="F54" s="348">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="G54" s="349" t="s">
+        <v>166</v>
+      </c>
+      <c r="H54" s="369" t="s">
+        <v>530</v>
+      </c>
+      <c r="J54" s="348">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="K54" s="354" t="str" cm="1">
+        <f t="array" aca="1" ref="K54" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F54,COLUMN(G:G)))</f>
+        <v>7</v>
+      </c>
+      <c r="L54" s="363" t="str" cm="1">
+        <f t="array" aca="1" ref="L54" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K54,$G$3:$G$54), 0)), "")</f>
+        <v>．</v>
+      </c>
+      <c r="M54" s="362" t="str" cm="1">
+        <f t="array" aca="1" ref="M54" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K54,$D$3:$D$54), 0)), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="366" t="s">
+        <v>610</v>
+      </c>
+      <c r="P54" s="348">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="Q54" s="372" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="R54" s="374" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>．</v>
+      </c>
+      <c r="S54" s="372" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="370" t="str">
+        <f t="shared" si="7"/>
+        <v>[48]</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20">
+      <c r="B55"/>
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="2:20">
+      <c r="B56"/>
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="2:20">
+      <c r="B57"/>
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="2:20">
+      <c r="F58"/>
+    </row>
+    <row r="61" spans="2:20">
+      <c r="C61" s="347"/>
+      <c r="D61" s="347"/>
+    </row>
+    <row r="62" spans="2:20">
+      <c r="C62" s="347"/>
+      <c r="D62" s="347"/>
+    </row>
+    <row r="63" spans="2:20">
+      <c r="C63" s="347"/>
+      <c r="D63" s="347"/>
+    </row>
+    <row r="64" spans="2:20">
+      <c r="C64" s="347"/>
+      <c r="D64" s="347"/>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" s="347"/>
+      <c r="D65" s="347"/>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66" s="347"/>
+      <c r="D66" s="347"/>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67" s="347"/>
+      <c r="D67" s="347"/>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" s="347"/>
+      <c r="D68" s="347"/>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69" s="347"/>
+      <c r="D69" s="347"/>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="C70" s="347"/>
+      <c r="D70" s="347"/>
+    </row>
+    <row r="71" spans="3:4">
+      <c r="C71" s="347"/>
+      <c r="D71" s="347"/>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" s="347"/>
+      <c r="D72" s="347"/>
+    </row>
+    <row r="73" spans="3:4">
+      <c r="C73" s="347"/>
+      <c r="D73" s="347"/>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" s="347"/>
+      <c r="D74" s="347"/>
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" s="347"/>
+      <c r="D75" s="347"/>
+    </row>
+    <row r="76" spans="3:4">
+      <c r="C76" s="347"/>
+      <c r="D76" s="347"/>
+    </row>
+    <row r="77" spans="3:4">
+      <c r="C77" s="347"/>
+      <c r="D77" s="347"/>
+    </row>
+    <row r="78" spans="3:4">
+      <c r="C78" s="347"/>
+      <c r="D78" s="347"/>
+    </row>
+    <row r="79" spans="3:4">
+      <c r="C79" s="347"/>
+      <c r="D79" s="347"/>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" s="347"/>
+      <c r="D80" s="347"/>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="C81" s="347"/>
+      <c r="D81" s="347"/>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82" s="347"/>
+      <c r="D82" s="347"/>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="C83" s="347"/>
+      <c r="D83" s="347"/>
+    </row>
+    <row r="84" spans="3:4">
+      <c r="C84" s="347"/>
+      <c r="D84" s="347"/>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="C85" s="347"/>
+      <c r="D85" s="347"/>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86" s="347"/>
+      <c r="D86" s="347"/>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="C87" s="347"/>
+      <c r="D87" s="347"/>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="C88" s="347"/>
+      <c r="D88" s="347"/>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="C89" s="347"/>
+      <c r="D89" s="347"/>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="C90" s="347"/>
+      <c r="D90" s="347"/>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="C91" s="347"/>
+      <c r="D91" s="347"/>
+    </row>
+    <row r="92" spans="3:4">
+      <c r="C92" s="347"/>
+      <c r="D92" s="347"/>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="C93" s="347"/>
+      <c r="D93" s="347"/>
+    </row>
+    <row r="94" spans="3:4">
+      <c r="C94" s="347"/>
+      <c r="D94" s="347"/>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="C95" s="347"/>
+      <c r="D95" s="347"/>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="C96" s="347"/>
+      <c r="D96" s="347"/>
+    </row>
+    <row r="97" spans="3:4">
+      <c r="C97" s="347"/>
+      <c r="D97" s="347"/>
+    </row>
+    <row r="98" spans="3:4">
+      <c r="C98" s="347"/>
+      <c r="D98" s="347"/>
+    </row>
+    <row r="99" spans="3:4">
+      <c r="C99" s="347"/>
+      <c r="D99" s="347"/>
+    </row>
+    <row r="100" spans="3:4">
+      <c r="C100" s="347"/>
+      <c r="D100" s="347"/>
+    </row>
+    <row r="101" spans="3:4">
+      <c r="C101" s="347"/>
+      <c r="D101" s="347"/>
+    </row>
+    <row r="102" spans="3:4">
+      <c r="C102" s="347"/>
+      <c r="D102" s="347"/>
+    </row>
+    <row r="103" spans="3:4">
+      <c r="C103" s="347"/>
+      <c r="D103" s="347"/>
+    </row>
+    <row r="104" spans="3:4">
+      <c r="C104" s="347"/>
+      <c r="D104" s="347"/>
+    </row>
+    <row r="105" spans="3:4">
+      <c r="C105" s="347"/>
+      <c r="D105" s="347"/>
+    </row>
+    <row r="106" spans="3:4">
+      <c r="C106" s="347"/>
+      <c r="D106" s="347"/>
+    </row>
+    <row r="107" spans="3:4">
+      <c r="C107" s="347"/>
+      <c r="D107" s="347"/>
+    </row>
+    <row r="108" spans="3:4">
+      <c r="C108" s="347"/>
+      <c r="D108" s="347"/>
+    </row>
+    <row r="109" spans="3:4">
+      <c r="C109" s="347"/>
+      <c r="D109" s="347"/>
+    </row>
+    <row r="110" spans="3:4">
+      <c r="C110" s="347"/>
+      <c r="D110" s="347"/>
+    </row>
+    <row r="111" spans="3:4">
+      <c r="C111" s="347"/>
+      <c r="D111" s="347"/>
+    </row>
+    <row r="112" spans="3:4">
+      <c r="C112" s="347"/>
+      <c r="D112" s="347"/>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="C113" s="347"/>
+      <c r="D113" s="347"/>
+    </row>
+    <row r="114" spans="3:4">
+      <c r="C114" s="347"/>
+      <c r="D114" s="347"/>
+    </row>
+    <row r="115" spans="3:4">
+      <c r="C115" s="347"/>
+      <c r="D115" s="347"/>
+    </row>
+    <row r="116" spans="3:4">
+      <c r="C116" s="347"/>
+      <c r="D116" s="347"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="P2:T54" xr:uid="{5071FD87-44AE-4789-9C3B-6156A4BF1897}"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="D3:D54 G3:G54 K3:L54 Q3:R54">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula xml:space="preserve"> CHAR(32)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5264AD8-A487-4558-A467-9475A22FFA19}">
   <dimension ref="B1:H9"/>
   <sheetViews>
@@ -11180,7 +15203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A957C941-707B-43B5-A2ED-6EBC07AA803C}">
   <dimension ref="B1:U8"/>
   <sheetViews>
@@ -13589,8 +17612,8 @@
   </sheetPr>
   <dimension ref="B1:DA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="BG11" sqref="BG11"/>
     </sheetView>
@@ -21118,6 +25141,691 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89D2E94-4130-4A3D-B1E3-92D62D716D1A}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B4:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetData>
+    <row r="4" spans="2:12">
+      <c r="B4" s="597" t="s">
+        <v>729</v>
+      </c>
+      <c r="C4" s="597" t="s">
+        <v>732</v>
+      </c>
+      <c r="D4" s="597"/>
+      <c r="E4" s="593" t="s">
+        <v>825</v>
+      </c>
+      <c r="F4" s="594"/>
+      <c r="G4" s="595"/>
+      <c r="H4" s="598" t="s">
+        <v>826</v>
+      </c>
+      <c r="I4" s="599"/>
+      <c r="J4" s="599"/>
+      <c r="K4" s="599"/>
+      <c r="L4" s="600"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="597"/>
+      <c r="C5" s="597"/>
+      <c r="D5" s="597"/>
+      <c r="E5" s="596" t="s">
+        <v>398</v>
+      </c>
+      <c r="F5" s="596" t="s">
+        <v>411</v>
+      </c>
+      <c r="G5" s="596" t="s">
+        <v>440</v>
+      </c>
+      <c r="H5" s="601" t="s">
+        <v>827</v>
+      </c>
+      <c r="I5" s="601" t="s">
+        <v>828</v>
+      </c>
+      <c r="J5" s="601" t="s">
+        <v>829</v>
+      </c>
+      <c r="K5" s="598" t="s">
+        <v>830</v>
+      </c>
+      <c r="L5" s="600"/>
+    </row>
+    <row r="6" spans="2:12" ht="22.5">
+      <c r="B6" s="592" t="s">
+        <v>471</v>
+      </c>
+      <c r="C6" s="592" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="592" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="592" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="592" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="592" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="602" t="s">
+        <v>333</v>
+      </c>
+      <c r="I6" s="602" t="s">
+        <v>323</v>
+      </c>
+      <c r="J6" s="602" t="s">
+        <v>831</v>
+      </c>
+      <c r="K6" s="602" t="s">
+        <v>355</v>
+      </c>
+      <c r="L6" s="602" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="22.5">
+      <c r="B7" s="592" t="s">
+        <v>833</v>
+      </c>
+      <c r="C7" s="592" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" s="592" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="602"/>
+      <c r="J7" s="602"/>
+      <c r="K7" s="602" t="s">
+        <v>834</v>
+      </c>
+      <c r="L7" s="602" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="22.5">
+      <c r="B8" s="592" t="s">
+        <v>836</v>
+      </c>
+      <c r="C8" s="592" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="592"/>
+      <c r="E8" s="592"/>
+      <c r="F8" s="592"/>
+      <c r="G8" s="592"/>
+      <c r="H8" s="602"/>
+      <c r="I8" s="602"/>
+      <c r="J8" s="602"/>
+      <c r="K8" s="602" t="s">
+        <v>837</v>
+      </c>
+      <c r="L8" s="602" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="22.5">
+      <c r="B9" s="592" t="s">
+        <v>839</v>
+      </c>
+      <c r="C9" s="592" t="s">
+        <v>840</v>
+      </c>
+      <c r="D9" s="592"/>
+      <c r="E9" s="592"/>
+      <c r="F9" s="592"/>
+      <c r="G9" s="592" t="s">
+        <v>841</v>
+      </c>
+      <c r="H9" s="602"/>
+      <c r="I9" s="602"/>
+      <c r="J9" s="602" t="s">
+        <v>842</v>
+      </c>
+      <c r="K9" s="602" t="s">
+        <v>843</v>
+      </c>
+      <c r="L9" s="602"/>
+    </row>
+    <row r="10" spans="2:12" ht="22.5">
+      <c r="B10" s="592" t="s">
+        <v>482</v>
+      </c>
+      <c r="C10" s="592" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" s="592" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="592"/>
+      <c r="F10" s="592"/>
+      <c r="G10" s="592"/>
+      <c r="H10" s="602"/>
+      <c r="I10" s="602"/>
+      <c r="J10" s="602"/>
+      <c r="K10" s="602" t="s">
+        <v>844</v>
+      </c>
+      <c r="L10" s="602" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="22.5">
+      <c r="B11" s="592" t="s">
+        <v>468</v>
+      </c>
+      <c r="C11" s="592" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" s="592" t="s">
+        <v>513</v>
+      </c>
+      <c r="E11" s="592" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="592" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="592" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="602" t="s">
+        <v>846</v>
+      </c>
+      <c r="I11" s="602" t="s">
+        <v>847</v>
+      </c>
+      <c r="J11" s="602" t="s">
+        <v>848</v>
+      </c>
+      <c r="K11" s="602" t="s">
+        <v>849</v>
+      </c>
+      <c r="L11" s="602" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="22.5">
+      <c r="B12" s="592" t="s">
+        <v>851</v>
+      </c>
+      <c r="C12" s="592" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="592" t="s">
+        <v>255</v>
+      </c>
+      <c r="E12" s="592" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="592" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="592" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="602" t="s">
+        <v>852</v>
+      </c>
+      <c r="I12" s="602" t="s">
+        <v>853</v>
+      </c>
+      <c r="J12" s="602" t="s">
+        <v>854</v>
+      </c>
+      <c r="K12" s="602" t="s">
+        <v>855</v>
+      </c>
+      <c r="L12" s="602" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="22.5">
+      <c r="B13" s="592" t="s">
+        <v>857</v>
+      </c>
+      <c r="C13" s="592" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="592" t="s">
+        <v>858</v>
+      </c>
+      <c r="E13" s="592"/>
+      <c r="F13" s="592"/>
+      <c r="G13" s="592"/>
+      <c r="H13" s="602"/>
+      <c r="I13" s="602"/>
+      <c r="J13" s="602"/>
+      <c r="K13" s="602" t="s">
+        <v>859</v>
+      </c>
+      <c r="L13" s="602"/>
+    </row>
+    <row r="14" spans="2:12" ht="22.5">
+      <c r="B14" s="592" t="s">
+        <v>860</v>
+      </c>
+      <c r="C14" s="592" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" s="592"/>
+      <c r="E14" s="592"/>
+      <c r="F14" s="592"/>
+      <c r="G14" s="592"/>
+      <c r="H14" s="602"/>
+      <c r="I14" s="602"/>
+      <c r="J14" s="602"/>
+      <c r="K14" s="602" t="s">
+        <v>861</v>
+      </c>
+      <c r="L14" s="602"/>
+    </row>
+    <row r="15" spans="2:12" ht="22.5">
+      <c r="B15" s="592" t="s">
+        <v>862</v>
+      </c>
+      <c r="C15" s="592" t="s">
+        <v>863</v>
+      </c>
+      <c r="D15" s="592" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" s="592"/>
+      <c r="F15" s="592"/>
+      <c r="G15" s="592" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="602"/>
+      <c r="I15" s="602"/>
+      <c r="J15" s="602" t="s">
+        <v>864</v>
+      </c>
+      <c r="K15" s="602" t="s">
+        <v>865</v>
+      </c>
+      <c r="L15" s="602"/>
+    </row>
+    <row r="16" spans="2:12" ht="22.5">
+      <c r="B16" s="592" t="s">
+        <v>866</v>
+      </c>
+      <c r="C16" s="592" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" s="592" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" s="592"/>
+      <c r="F16" s="592"/>
+      <c r="G16" s="592"/>
+      <c r="H16" s="602"/>
+      <c r="I16" s="602"/>
+      <c r="J16" s="602"/>
+      <c r="K16" s="602" t="s">
+        <v>867</v>
+      </c>
+      <c r="L16" s="602" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="22.5">
+      <c r="B17" s="592" t="s">
+        <v>475</v>
+      </c>
+      <c r="C17" s="592" t="s">
+        <v>869</v>
+      </c>
+      <c r="D17" s="592"/>
+      <c r="E17" s="592"/>
+      <c r="F17" s="592"/>
+      <c r="G17" s="592"/>
+      <c r="H17" s="602"/>
+      <c r="I17" s="602"/>
+      <c r="J17" s="602"/>
+      <c r="K17" s="602" t="s">
+        <v>870</v>
+      </c>
+      <c r="L17" s="602"/>
+    </row>
+    <row r="18" spans="2:12" ht="22.5">
+      <c r="B18" s="592" t="s">
+        <v>871</v>
+      </c>
+      <c r="C18" s="592" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="592"/>
+      <c r="E18" s="592"/>
+      <c r="F18" s="592"/>
+      <c r="G18" s="592"/>
+      <c r="H18" s="602"/>
+      <c r="I18" s="602"/>
+      <c r="J18" s="602"/>
+      <c r="K18" s="602" t="s">
+        <v>872</v>
+      </c>
+      <c r="L18" s="602"/>
+    </row>
+    <row r="19" spans="2:12" ht="22.5">
+      <c r="B19" s="592"/>
+      <c r="C19" s="592"/>
+      <c r="D19" s="592"/>
+      <c r="E19" s="592" t="s">
+        <v>398</v>
+      </c>
+      <c r="F19" s="592" t="s">
+        <v>411</v>
+      </c>
+      <c r="G19" s="592" t="s">
+        <v>440</v>
+      </c>
+      <c r="H19" s="602" t="s">
+        <v>827</v>
+      </c>
+      <c r="I19" s="602" t="s">
+        <v>828</v>
+      </c>
+      <c r="J19" s="602" t="s">
+        <v>829</v>
+      </c>
+      <c r="K19" s="602" t="s">
+        <v>830</v>
+      </c>
+      <c r="L19" s="602"/>
+    </row>
+    <row r="20" spans="2:12" ht="22.5">
+      <c r="B20" s="592" t="s">
+        <v>474</v>
+      </c>
+      <c r="C20" s="592" t="s">
+        <v>346</v>
+      </c>
+      <c r="D20" s="592" t="s">
+        <v>273</v>
+      </c>
+      <c r="E20" s="592" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="592"/>
+      <c r="G20" s="592" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="602" t="s">
+        <v>873</v>
+      </c>
+      <c r="I20" s="602"/>
+      <c r="J20" s="602" t="s">
+        <v>874</v>
+      </c>
+      <c r="K20" s="602" t="s">
+        <v>875</v>
+      </c>
+      <c r="L20" s="602" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="22.5">
+      <c r="B21" s="592" t="s">
+        <v>877</v>
+      </c>
+      <c r="C21" s="592" t="s">
+        <v>522</v>
+      </c>
+      <c r="D21" s="592"/>
+      <c r="E21" s="592" t="s">
+        <v>878</v>
+      </c>
+      <c r="F21" s="592" t="s">
+        <v>879</v>
+      </c>
+      <c r="G21" s="592" t="s">
+        <v>880</v>
+      </c>
+      <c r="H21" s="602" t="s">
+        <v>881</v>
+      </c>
+      <c r="I21" s="602" t="s">
+        <v>882</v>
+      </c>
+      <c r="J21" s="602" t="s">
+        <v>883</v>
+      </c>
+      <c r="K21" s="602" t="s">
+        <v>884</v>
+      </c>
+      <c r="L21" s="602"/>
+    </row>
+    <row r="22" spans="2:12" ht="22.5">
+      <c r="B22" s="592" t="s">
+        <v>469</v>
+      </c>
+      <c r="C22" s="592" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="592"/>
+      <c r="E22" s="592"/>
+      <c r="F22" s="592" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" s="592"/>
+      <c r="H22" s="602"/>
+      <c r="I22" s="602" t="s">
+        <v>885</v>
+      </c>
+      <c r="J22" s="602"/>
+      <c r="K22" s="602" t="s">
+        <v>886</v>
+      </c>
+      <c r="L22" s="602"/>
+    </row>
+    <row r="23" spans="2:12" ht="22.5">
+      <c r="B23" s="592" t="s">
+        <v>887</v>
+      </c>
+      <c r="C23" s="592" t="s">
+        <v>295</v>
+      </c>
+      <c r="D23" s="592" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="592"/>
+      <c r="F23" s="592" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="592" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="602"/>
+      <c r="I23" s="602" t="s">
+        <v>888</v>
+      </c>
+      <c r="J23" s="602"/>
+      <c r="K23" s="602" t="s">
+        <v>889</v>
+      </c>
+      <c r="L23" s="602"/>
+    </row>
+    <row r="24" spans="2:12" ht="22.5">
+      <c r="B24" s="592" t="s">
+        <v>890</v>
+      </c>
+      <c r="C24" s="592" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" s="592" t="s">
+        <v>891</v>
+      </c>
+      <c r="E24" s="592"/>
+      <c r="F24" s="592"/>
+      <c r="G24" s="592"/>
+      <c r="H24" s="602"/>
+      <c r="I24" s="602"/>
+      <c r="J24" s="602"/>
+      <c r="K24" s="602"/>
+      <c r="L24" s="602"/>
+    </row>
+    <row r="25" spans="2:12" ht="22.5">
+      <c r="B25" s="592" t="s">
+        <v>892</v>
+      </c>
+      <c r="C25" s="592" t="s">
+        <v>893</v>
+      </c>
+      <c r="D25" s="592"/>
+      <c r="E25" s="592"/>
+      <c r="F25" s="592"/>
+      <c r="G25" s="592"/>
+      <c r="H25" s="602"/>
+      <c r="I25" s="602"/>
+      <c r="J25" s="602"/>
+      <c r="K25" s="602" t="s">
+        <v>894</v>
+      </c>
+      <c r="L25" s="602"/>
+    </row>
+    <row r="26" spans="2:12" ht="22.5">
+      <c r="B26" s="592" t="s">
+        <v>895</v>
+      </c>
+      <c r="C26" s="592" t="s">
+        <v>292</v>
+      </c>
+      <c r="D26" s="592"/>
+      <c r="E26" s="592"/>
+      <c r="F26" s="592"/>
+      <c r="G26" s="592"/>
+      <c r="H26" s="602"/>
+      <c r="I26" s="602"/>
+      <c r="J26" s="602"/>
+      <c r="K26" s="602" t="s">
+        <v>896</v>
+      </c>
+      <c r="L26" s="602"/>
+    </row>
+    <row r="27" spans="2:12" ht="22.5">
+      <c r="B27" s="592" t="s">
+        <v>897</v>
+      </c>
+      <c r="C27" s="592" t="s">
+        <v>298</v>
+      </c>
+      <c r="D27" s="592"/>
+      <c r="E27" s="592"/>
+      <c r="F27" s="592"/>
+      <c r="G27" s="592"/>
+      <c r="H27" s="602"/>
+      <c r="I27" s="602"/>
+      <c r="J27" s="602"/>
+      <c r="K27" s="602"/>
+      <c r="L27" s="602"/>
+    </row>
+    <row r="28" spans="2:12" ht="22.5">
+      <c r="B28" s="592" t="s">
+        <v>898</v>
+      </c>
+      <c r="C28" s="592"/>
+      <c r="D28" s="592" t="s">
+        <v>899</v>
+      </c>
+      <c r="E28" s="592"/>
+      <c r="F28" s="592"/>
+      <c r="G28" s="592"/>
+      <c r="H28" s="602"/>
+      <c r="I28" s="602"/>
+      <c r="J28" s="602"/>
+      <c r="K28" s="602"/>
+      <c r="L28" s="602"/>
+    </row>
+    <row r="29" spans="2:12" ht="22.5">
+      <c r="B29" s="592" t="s">
+        <v>900</v>
+      </c>
+      <c r="C29" s="592" t="s">
+        <v>901</v>
+      </c>
+      <c r="D29" s="592"/>
+      <c r="E29" s="592"/>
+      <c r="F29" s="592"/>
+      <c r="G29" s="592"/>
+      <c r="H29" s="602"/>
+      <c r="I29" s="602"/>
+      <c r="J29" s="602"/>
+      <c r="K29" s="602" t="s">
+        <v>902</v>
+      </c>
+      <c r="L29" s="602"/>
+    </row>
+    <row r="30" spans="2:12" ht="22.5">
+      <c r="B30" s="592" t="s">
+        <v>470</v>
+      </c>
+      <c r="C30" s="592" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="592"/>
+      <c r="E30" s="592" t="s">
+        <v>903</v>
+      </c>
+      <c r="F30" s="592"/>
+      <c r="G30" s="592"/>
+      <c r="H30" s="602"/>
+      <c r="I30" s="602"/>
+      <c r="J30" s="602"/>
+      <c r="K30" s="602" t="s">
+        <v>904</v>
+      </c>
+      <c r="L30" s="602"/>
+    </row>
+    <row r="31" spans="2:12" ht="22.5">
+      <c r="B31" s="592" t="s">
+        <v>498</v>
+      </c>
+      <c r="C31" s="592" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="592"/>
+      <c r="E31" s="592" t="s">
+        <v>903</v>
+      </c>
+      <c r="F31" s="592"/>
+      <c r="G31" s="592"/>
+      <c r="H31" s="602"/>
+      <c r="I31" s="602"/>
+      <c r="J31" s="602"/>
+      <c r="K31" s="602" t="s">
+        <v>905</v>
+      </c>
+      <c r="L31" s="602"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="H4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B783E999-75E3-4E19-90D8-DB3A33B9C175}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -28431,7 +33139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C35B75-B358-4C95-B0C2-96EE4C4358A0}">
   <dimension ref="A1:AV76"/>
   <sheetViews>
@@ -34137,7 +38845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CCF233-E069-4C88-B15E-9EE0BAC6ED53}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -37660,7 +42368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB83FFDB-DA3B-4DC3-9ABB-CC495E031F87}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -42540,7 +47248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243B4770-EDD3-48C6-8D52-251F7D676A0A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -42554,3747 +47262,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5071FD87-44AE-4789-9C3B-6156A4BF1897}">
-  <dimension ref="B2:BQ116"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.5"/>
-  <cols>
-    <col min="1" max="1" width="2.19921875" customWidth="1"/>
-    <col min="2" max="2" width="4.296875" style="345" customWidth="1"/>
-    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.19921875" customWidth="1"/>
-    <col min="6" max="6" width="4.296875" style="345" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.19921875" customWidth="1"/>
-    <col min="10" max="10" width="4.296875" style="345" customWidth="1"/>
-    <col min="12" max="12" width="8.796875" style="346"/>
-    <col min="14" max="14" width="10.19921875" style="365" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.19921875" customWidth="1"/>
-    <col min="16" max="16" width="4.296875" style="345" customWidth="1"/>
-    <col min="20" max="20" width="8.796875" style="371"/>
-    <col min="21" max="21" width="5.796875" customWidth="1"/>
-    <col min="22" max="65" width="3.19921875" style="355" customWidth="1"/>
-    <col min="66" max="67" width="3.19921875" style="356" customWidth="1"/>
-    <col min="68" max="69" width="8.796875" style="356"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:69">
-      <c r="C2" s="376" t="s">
-        <v>585</v>
-      </c>
-      <c r="D2" s="376" t="s">
-        <v>586</v>
-      </c>
-      <c r="E2" s="377"/>
-      <c r="F2" s="378"/>
-      <c r="G2" s="376" t="s">
-        <v>586</v>
-      </c>
-      <c r="H2" s="376" t="s">
-        <v>385</v>
-      </c>
-      <c r="I2" s="377"/>
-      <c r="J2" s="378"/>
-      <c r="K2" s="376" t="s">
-        <v>586</v>
-      </c>
-      <c r="L2" s="376" t="s">
-        <v>385</v>
-      </c>
-      <c r="M2" s="376" t="s">
-        <v>585</v>
-      </c>
-      <c r="N2" s="376" t="s">
-        <v>604</v>
-      </c>
-      <c r="O2" s="377"/>
-      <c r="P2" s="378"/>
-      <c r="Q2" s="376" t="s">
-        <v>586</v>
-      </c>
-      <c r="R2" s="376" t="s">
-        <v>385</v>
-      </c>
-      <c r="S2" s="376" t="s">
-        <v>585</v>
-      </c>
-      <c r="T2" s="376" t="s">
-        <v>604</v>
-      </c>
-      <c r="V2" s="361" t="str">
-        <f ca="1" xml:space="preserve"> "  alphabet: '" &amp; _xlfn.CONCAT(Q$3:Q$48, Q$49:Q$54) &amp; "'"</f>
-        <v xml:space="preserve">  alphabet: '1q!a2wsxedEcyhnYrfvbuUjJm8*iIk,&lt;9(lL0p;:/?-AO. 43657'</v>
-      </c>
-      <c r="W2" s="359"/>
-      <c r="X2" s="359"/>
-      <c r="Y2" s="359"/>
-      <c r="Z2" s="359"/>
-      <c r="AA2" s="359"/>
-      <c r="AB2" s="359"/>
-      <c r="AC2" s="359"/>
-      <c r="AD2" s="359"/>
-      <c r="AE2" s="359"/>
-      <c r="AF2" s="359"/>
-      <c r="AG2" s="359"/>
-      <c r="AH2" s="359"/>
-      <c r="AI2" s="359"/>
-      <c r="AJ2" s="359"/>
-      <c r="AK2" s="359"/>
-      <c r="AL2" s="359"/>
-      <c r="AM2" s="359"/>
-      <c r="AN2" s="359"/>
-      <c r="AO2" s="359"/>
-      <c r="AP2" s="359"/>
-    </row>
-    <row r="3" spans="2:69">
-      <c r="B3" s="348">
-        <f xml:space="preserve"> ROW() - 2</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="375" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" s="349" t="s">
-        <v>361</v>
-      </c>
-      <c r="F3" s="348">
-        <f xml:space="preserve"> ROW() - 2</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="349" t="s">
-        <v>361</v>
-      </c>
-      <c r="H3" s="369" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="348">
-        <f xml:space="preserve"> ROW() - 2</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K3" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F3,COLUMN(G:G)))</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L3" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K3,$G$3:$G$54), 0)), "")</f>
-        <v>ㄅ</v>
-      </c>
-      <c r="M3" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M3" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K3,$D$3:$D$54), 0)), "")</f>
-        <v>p</v>
-      </c>
-      <c r="N3" s="366" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="348">
-        <f xml:space="preserve"> ROW() - 2</f>
-        <v>1</v>
-      </c>
-      <c r="Q3" s="372" t="str">
-        <f t="shared" ref="Q3:Q34" ca="1" si="0">K3</f>
-        <v>1</v>
-      </c>
-      <c r="R3" s="374" t="str">
-        <f t="shared" ref="R3:R34" ca="1" si="1">L3</f>
-        <v>ㄅ</v>
-      </c>
-      <c r="S3" s="372" t="str">
-        <f t="shared" ref="S3:S34" ca="1" si="2">M3</f>
-        <v>p</v>
-      </c>
-      <c r="T3" s="370" t="str">
-        <f>N3</f>
-        <v>p</v>
-      </c>
-      <c r="V3" s="361" t="str">
-        <f ca="1" xml:space="preserve"> "  initials: '" &amp; _xlfn.CONCAT(Q$3:Q$48) &amp; "'"</f>
-        <v xml:space="preserve">  initials: '1q!a2wsxedEcyhnYrfvbuUjJm8*iIk,&lt;9(lL0p;:/?-AO.'</v>
-      </c>
-      <c r="W3" s="359"/>
-      <c r="X3" s="359"/>
-      <c r="Y3" s="359"/>
-      <c r="Z3" s="359"/>
-      <c r="AA3" s="359"/>
-      <c r="AB3" s="359"/>
-      <c r="AC3" s="359"/>
-      <c r="AD3" s="359"/>
-      <c r="AE3" s="359"/>
-      <c r="AF3" s="359"/>
-      <c r="AG3" s="359"/>
-      <c r="AH3" s="359"/>
-      <c r="AI3" s="359"/>
-      <c r="AJ3" s="359"/>
-      <c r="AK3" s="359"/>
-      <c r="AL3" s="359"/>
-      <c r="AM3" s="359"/>
-      <c r="AN3" s="359"/>
-      <c r="AO3" s="359"/>
-      <c r="AP3" s="359"/>
-    </row>
-    <row r="4" spans="2:69">
-      <c r="B4" s="348">
-        <f t="shared" ref="B4:B54" si="3" xml:space="preserve"> ROW() - 2</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="375" t="s">
-        <v>400</v>
-      </c>
-      <c r="D4" s="349" t="s">
-        <v>353</v>
-      </c>
-      <c r="F4" s="348">
-        <f t="shared" ref="F4:F54" si="4" xml:space="preserve"> ROW() - 2</f>
-        <v>2</v>
-      </c>
-      <c r="G4" s="349" t="s">
-        <v>353</v>
-      </c>
-      <c r="H4" s="369" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="348">
-        <f t="shared" ref="J4:J54" si="5" xml:space="preserve"> ROW() - 2</f>
-        <v>2</v>
-      </c>
-      <c r="K4" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K4" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F4,COLUMN(G:G)))</f>
-        <v>q</v>
-      </c>
-      <c r="L4" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L4" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K4,$G$3:$G$54), 0)), "")</f>
-        <v>ㄆ</v>
-      </c>
-      <c r="M4" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M4" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K4,$D$3:$D$54), 0)), "")</f>
-        <v>P</v>
-      </c>
-      <c r="N4" s="366" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="348">
-        <f t="shared" ref="P4:P54" si="6" xml:space="preserve"> ROW() - 2</f>
-        <v>2</v>
-      </c>
-      <c r="Q4" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>q</v>
-      </c>
-      <c r="R4" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㄆ</v>
-      </c>
-      <c r="S4" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>P</v>
-      </c>
-      <c r="T4" s="370" t="str">
-        <f t="shared" ref="T4:T54" si="7">N4</f>
-        <v>ph</v>
-      </c>
-      <c r="V4" s="361"/>
-      <c r="W4" s="359"/>
-      <c r="X4" s="359"/>
-      <c r="Y4" s="359"/>
-      <c r="Z4" s="359"/>
-      <c r="AA4" s="359"/>
-      <c r="AB4" s="359"/>
-      <c r="AC4" s="359"/>
-      <c r="AD4" s="359"/>
-      <c r="AE4" s="359"/>
-      <c r="AF4" s="359"/>
-      <c r="AG4" s="359"/>
-      <c r="AH4" s="359"/>
-      <c r="AI4" s="359"/>
-      <c r="AJ4" s="359"/>
-      <c r="AK4" s="359"/>
-      <c r="AL4" s="359"/>
-      <c r="AM4" s="359"/>
-      <c r="AN4" s="359"/>
-      <c r="AO4" s="359"/>
-      <c r="AP4" s="359"/>
-    </row>
-    <row r="5" spans="2:69">
-      <c r="B5" s="348">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="375" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="349" t="s">
-        <v>394</v>
-      </c>
-      <c r="F5" s="348">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="G5" s="351" t="s">
-        <v>394</v>
-      </c>
-      <c r="H5" s="369" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="348">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="K5" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K5" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F5,COLUMN(G:G)))</f>
-        <v>!</v>
-      </c>
-      <c r="L5" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L5" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K5,$G$3:$G$54), 0)), "")</f>
-        <v>ㆠ</v>
-      </c>
-      <c r="M5" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M5" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K5,$D$3:$D$54), 0)), "")</f>
-        <v>b</v>
-      </c>
-      <c r="N5" s="366" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="348">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Q5" s="373" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>!</v>
-      </c>
-      <c r="R5" s="364" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㆠ</v>
-      </c>
-      <c r="S5" s="373" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>b</v>
-      </c>
-      <c r="T5" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>b</v>
-      </c>
-    </row>
-    <row r="6" spans="2:69">
-      <c r="B6" s="348">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="375" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="349" t="s">
-        <v>351</v>
-      </c>
-      <c r="F6" s="348">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="G6" s="349" t="s">
-        <v>351</v>
-      </c>
-      <c r="H6" s="369" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="348">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="K6" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K6" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F6,COLUMN(G:G)))</f>
-        <v>a</v>
-      </c>
-      <c r="L6" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L6" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K6,$G$3:$G$54), 0)), "")</f>
-        <v>ㄇ</v>
-      </c>
-      <c r="M6" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M6" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K6,$D$3:$D$54), 0)), "")</f>
-        <v>m</v>
-      </c>
-      <c r="N6" s="366" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6" s="348">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="Q6" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>a</v>
-      </c>
-      <c r="R6" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㄇ</v>
-      </c>
-      <c r="S6" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>m</v>
-      </c>
-      <c r="T6" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>m</v>
-      </c>
-    </row>
-    <row r="7" spans="2:69">
-      <c r="B7" s="348">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="375" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="349" t="s">
-        <v>347</v>
-      </c>
-      <c r="F7" s="348">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="G7" s="349" t="s">
-        <v>347</v>
-      </c>
-      <c r="H7" s="369" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="348">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="K7" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K7" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F7,COLUMN(G:G)))</f>
-        <v>2</v>
-      </c>
-      <c r="L7" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L7" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K7,$G$3:$G$54), 0)), "")</f>
-        <v>ㄉ</v>
-      </c>
-      <c r="M7" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M7" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K7,$D$3:$D$54), 0)), "")</f>
-        <v>t</v>
-      </c>
-      <c r="N7" s="366" t="s">
-        <v>340</v>
-      </c>
-      <c r="P7" s="348">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="Q7" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R7" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㄉ</v>
-      </c>
-      <c r="S7" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>t</v>
-      </c>
-      <c r="T7" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>t</v>
-      </c>
-      <c r="V7" s="357" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="8" spans="2:69">
-      <c r="B8" s="348">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="375" t="s">
-        <v>408</v>
-      </c>
-      <c r="D8" s="349" t="s">
-        <v>341</v>
-      </c>
-      <c r="F8" s="348">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="G8" s="349" t="s">
-        <v>341</v>
-      </c>
-      <c r="H8" s="369" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="348">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="K8" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K8" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F8,COLUMN(G:G)))</f>
-        <v>w</v>
-      </c>
-      <c r="L8" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L8" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K8,$G$3:$G$54), 0)), "")</f>
-        <v>ㄊ</v>
-      </c>
-      <c r="M8" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M8" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K8,$D$3:$D$54), 0)), "")</f>
-        <v>T</v>
-      </c>
-      <c r="N8" s="366" t="s">
-        <v>605</v>
-      </c>
-      <c r="P8" s="348">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="Q8" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>w</v>
-      </c>
-      <c r="R8" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㄊ</v>
-      </c>
-      <c r="S8" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>T</v>
-      </c>
-      <c r="T8" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>th</v>
-      </c>
-      <c r="V8" s="358" t="str">
-        <f ca="1" xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(S3:S54) &amp; "|" &amp; _xlfn.CONCAT(Q3:Q54) &amp; "|"""</f>
-        <v>- "xlit|pPbmtTndkKghzcsjZCSJiIuUBaAOQoeEIYUX@DHFWwRVLN123570|1q!a2wsxedEcyhnYrfvbuUjJm8*iIk,&lt;9(lL0p;:/?-AO. 43657|"</v>
-      </c>
-      <c r="W8" s="359"/>
-      <c r="X8" s="359"/>
-      <c r="Y8" s="359"/>
-      <c r="Z8" s="359"/>
-      <c r="AA8" s="359"/>
-      <c r="AB8" s="359"/>
-      <c r="AC8" s="359"/>
-      <c r="AD8" s="359"/>
-      <c r="AE8" s="359"/>
-      <c r="AF8" s="359"/>
-      <c r="AG8" s="359"/>
-      <c r="AH8" s="359"/>
-      <c r="AI8" s="359"/>
-      <c r="AJ8" s="359"/>
-      <c r="AK8" s="359"/>
-      <c r="AL8" s="359"/>
-      <c r="AM8" s="359"/>
-      <c r="AN8" s="359"/>
-      <c r="AO8" s="359"/>
-      <c r="AP8" s="359"/>
-      <c r="AQ8" s="359"/>
-      <c r="AR8" s="359"/>
-      <c r="AS8" s="359"/>
-      <c r="AT8" s="359"/>
-      <c r="AU8" s="359"/>
-      <c r="AV8" s="359"/>
-      <c r="AW8" s="359"/>
-      <c r="AX8" s="359"/>
-      <c r="AY8" s="359"/>
-      <c r="AZ8" s="359"/>
-      <c r="BA8" s="359"/>
-      <c r="BB8" s="359"/>
-      <c r="BC8" s="359"/>
-      <c r="BD8" s="359"/>
-      <c r="BE8" s="359"/>
-      <c r="BF8" s="359"/>
-      <c r="BG8" s="359"/>
-      <c r="BH8" s="359"/>
-      <c r="BI8" s="359"/>
-      <c r="BJ8" s="359"/>
-      <c r="BK8" s="359"/>
-      <c r="BL8" s="359"/>
-      <c r="BM8" s="359"/>
-      <c r="BN8" s="360"/>
-      <c r="BO8" s="360"/>
-      <c r="BP8" s="360"/>
-      <c r="BQ8" s="360"/>
-    </row>
-    <row r="9" spans="2:69">
-      <c r="B9" s="348">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="375" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="349" t="s">
-        <v>338</v>
-      </c>
-      <c r="F9" s="348">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="G9" s="349" t="s">
-        <v>338</v>
-      </c>
-      <c r="H9" s="369" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="348">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="K9" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K9" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F9,COLUMN(G:G)))</f>
-        <v>s</v>
-      </c>
-      <c r="L9" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L9" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K9,$G$3:$G$54), 0)), "")</f>
-        <v>ㄋ</v>
-      </c>
-      <c r="M9" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M9" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K9,$D$3:$D$54), 0)), "")</f>
-        <v>n</v>
-      </c>
-      <c r="N9" s="366" t="s">
-        <v>611</v>
-      </c>
-      <c r="P9" s="348">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="Q9" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>s</v>
-      </c>
-      <c r="R9" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㄋ</v>
-      </c>
-      <c r="S9" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>n</v>
-      </c>
-      <c r="T9" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>n-</v>
-      </c>
-    </row>
-    <row r="10" spans="2:69">
-      <c r="B10" s="348">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="375" t="s">
-        <v>309</v>
-      </c>
-      <c r="D10" s="349" t="s">
-        <v>332</v>
-      </c>
-      <c r="F10" s="348">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="G10" s="349" t="s">
-        <v>332</v>
-      </c>
-      <c r="H10" s="369" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="348">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="K10" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K10" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F10,COLUMN(G:G)))</f>
-        <v>x</v>
-      </c>
-      <c r="L10" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L10" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K10,$G$3:$G$54), 0)), "")</f>
-        <v>ㄌ</v>
-      </c>
-      <c r="M10" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M10" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K10,$D$3:$D$54), 0)), "")</f>
-        <v>d</v>
-      </c>
-      <c r="N10" s="366" t="s">
-        <v>496</v>
-      </c>
-      <c r="P10" s="348">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="Q10" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="R10" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㄌ</v>
-      </c>
-      <c r="S10" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>d</v>
-      </c>
-      <c r="T10" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>l</v>
-      </c>
-    </row>
-    <row r="11" spans="2:69">
-      <c r="B11" s="348">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="375" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="349" t="s">
-        <v>329</v>
-      </c>
-      <c r="F11" s="348">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="G11" s="349" t="s">
-        <v>329</v>
-      </c>
-      <c r="H11" s="369" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="348">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="K11" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K11" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F11,COLUMN(G:G)))</f>
-        <v>e</v>
-      </c>
-      <c r="L11" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L11" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K11,$G$3:$G$54), 0)), "")</f>
-        <v>ㄍ</v>
-      </c>
-      <c r="M11" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M11" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K11,$D$3:$D$54), 0)), "")</f>
-        <v>k</v>
-      </c>
-      <c r="N11" s="366" t="s">
-        <v>321</v>
-      </c>
-      <c r="P11" s="348">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="Q11" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>e</v>
-      </c>
-      <c r="R11" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㄍ</v>
-      </c>
-      <c r="S11" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>k</v>
-      </c>
-      <c r="T11" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>k</v>
-      </c>
-      <c r="V11" s="357" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="12" spans="2:69">
-      <c r="B12" s="348">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="375" t="s">
-        <v>425</v>
-      </c>
-      <c r="D12" s="349" t="s">
-        <v>309</v>
-      </c>
-      <c r="F12" s="348">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="G12" s="349" t="s">
-        <v>309</v>
-      </c>
-      <c r="H12" s="369" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="348">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K12" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F12,COLUMN(G:G)))</f>
-        <v>d</v>
-      </c>
-      <c r="L12" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L12" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K12,$G$3:$G$54), 0)), "")</f>
-        <v>ㄎ</v>
-      </c>
-      <c r="M12" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M12" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K12,$D$3:$D$54), 0)), "")</f>
-        <v>K</v>
-      </c>
-      <c r="N12" s="366" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="348">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="Q12" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>d</v>
-      </c>
-      <c r="R12" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㄎ</v>
-      </c>
-      <c r="S12" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>K</v>
-      </c>
-      <c r="T12" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>kh</v>
-      </c>
-      <c r="V12" s="358" t="str">
-        <f ca="1" xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(Q3:Q54) &amp; "|" &amp; _xlfn.CONCAT(R3:R54) &amp; "|"""</f>
-        <v>- "xlit|1q!a2wsxedEcyhnYrfvbuUjJm8*iIk,&lt;9(lL0p;:/?-AO. 43657|ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄏㄗㄘㄙㆡㄐㄑㄒㆢㄧㆪㄨㆫㆬㄚㆩㆦㆧㄜㆤㆥㄞㆮㄠㆯㄢㄣㄤㆲㆭㄫㆨㆰㆱｎˉˋ˪ˊ˫．|"</v>
-      </c>
-      <c r="W12" s="359"/>
-      <c r="X12" s="359"/>
-      <c r="Y12" s="359"/>
-      <c r="Z12" s="359"/>
-      <c r="AA12" s="359"/>
-      <c r="AB12" s="359"/>
-      <c r="AC12" s="359"/>
-      <c r="AD12" s="359"/>
-      <c r="AE12" s="359"/>
-      <c r="AF12" s="359"/>
-      <c r="AG12" s="359"/>
-      <c r="AH12" s="359"/>
-      <c r="AI12" s="359"/>
-      <c r="AJ12" s="359"/>
-      <c r="AK12" s="359"/>
-      <c r="AL12" s="359"/>
-      <c r="AM12" s="359"/>
-      <c r="AN12" s="359"/>
-      <c r="AO12" s="359"/>
-      <c r="AP12" s="359"/>
-      <c r="AQ12" s="359"/>
-      <c r="AR12" s="359"/>
-      <c r="AS12" s="359"/>
-      <c r="AT12" s="359"/>
-      <c r="AU12" s="359"/>
-      <c r="AV12" s="359"/>
-      <c r="AW12" s="359"/>
-      <c r="AX12" s="359"/>
-      <c r="AY12" s="359"/>
-      <c r="AZ12" s="359"/>
-      <c r="BA12" s="359"/>
-      <c r="BB12" s="359"/>
-      <c r="BC12" s="359"/>
-      <c r="BD12" s="359"/>
-      <c r="BE12" s="359"/>
-      <c r="BF12" s="359"/>
-      <c r="BG12" s="359"/>
-      <c r="BH12" s="359"/>
-      <c r="BI12" s="359"/>
-      <c r="BJ12" s="359"/>
-      <c r="BK12" s="359"/>
-      <c r="BL12" s="359"/>
-      <c r="BM12" s="359"/>
-      <c r="BN12" s="360"/>
-      <c r="BO12" s="360"/>
-      <c r="BP12" s="360"/>
-      <c r="BQ12" s="360"/>
-    </row>
-    <row r="13" spans="2:69">
-      <c r="B13" s="348">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="375" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="349" t="s">
-        <v>322</v>
-      </c>
-      <c r="F13" s="348">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="G13" s="349" t="s">
-        <v>322</v>
-      </c>
-      <c r="H13" s="369" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="348">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="K13" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K13" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F13,COLUMN(G:G)))</f>
-        <v>E</v>
-      </c>
-      <c r="L13" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L13" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K13,$G$3:$G$54), 0)), "")</f>
-        <v>ㆣ</v>
-      </c>
-      <c r="M13" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M13" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K13,$D$3:$D$54), 0)), "")</f>
-        <v>g</v>
-      </c>
-      <c r="N13" s="366" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" s="348">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="Q13" s="373" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>E</v>
-      </c>
-      <c r="R13" s="364" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㆣ</v>
-      </c>
-      <c r="S13" s="373" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>g</v>
-      </c>
-      <c r="T13" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>g</v>
-      </c>
-    </row>
-    <row r="14" spans="2:69">
-      <c r="B14" s="348">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="375" t="s">
-        <v>422</v>
-      </c>
-      <c r="D14" s="349" t="s">
-        <v>305</v>
-      </c>
-      <c r="F14" s="348">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="G14" s="349" t="s">
-        <v>305</v>
-      </c>
-      <c r="H14" s="369" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="348">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="K14" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K14" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F14,COLUMN(G:G)))</f>
-        <v>c</v>
-      </c>
-      <c r="L14" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L14" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K14,$G$3:$G$54), 0)), "")</f>
-        <v>ㄏ</v>
-      </c>
-      <c r="M14" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M14" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K14,$D$3:$D$54), 0)), "")</f>
-        <v>h</v>
-      </c>
-      <c r="N14" s="366" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" s="348">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="Q14" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>c</v>
-      </c>
-      <c r="R14" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㄏ</v>
-      </c>
-      <c r="S14" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="T14" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>h</v>
-      </c>
-    </row>
-    <row r="15" spans="2:69">
-      <c r="B15" s="348">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="375" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="349" t="s">
-        <v>590</v>
-      </c>
-      <c r="F15" s="348">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="G15" s="349" t="s">
-        <v>590</v>
-      </c>
-      <c r="H15" s="368" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="348">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="K15" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K15" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F15,COLUMN(G:G)))</f>
-        <v>y</v>
-      </c>
-      <c r="L15" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L15" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K15,$G$3:$G$54), 0)), "")</f>
-        <v>ㄗ</v>
-      </c>
-      <c r="M15" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M15" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K15,$D$3:$D$54), 0)), "")</f>
-        <v>z</v>
-      </c>
-      <c r="N15" s="366" t="s">
-        <v>366</v>
-      </c>
-      <c r="P15" s="348">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="Q15" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>y</v>
-      </c>
-      <c r="R15" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㄗ</v>
-      </c>
-      <c r="S15" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>z</v>
-      </c>
-      <c r="T15" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>z</v>
-      </c>
-      <c r="V15" s="357" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="16" spans="2:69">
-      <c r="B16" s="348">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="375" t="s">
-        <v>305</v>
-      </c>
-      <c r="D16" s="349" t="s">
-        <v>422</v>
-      </c>
-      <c r="F16" s="348">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="G16" s="349" t="s">
-        <v>422</v>
-      </c>
-      <c r="H16" s="369" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" s="348">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="K16" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K16" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F16,COLUMN(G:G)))</f>
-        <v>h</v>
-      </c>
-      <c r="L16" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L16" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K16,$G$3:$G$54), 0)), "")</f>
-        <v>ㄘ</v>
-      </c>
-      <c r="M16" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M16" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K16,$D$3:$D$54), 0)), "")</f>
-        <v>c</v>
-      </c>
-      <c r="N16" s="366" t="s">
-        <v>287</v>
-      </c>
-      <c r="P16" s="348">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="Q16" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>h</v>
-      </c>
-      <c r="R16" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㄘ</v>
-      </c>
-      <c r="S16" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>c</v>
-      </c>
-      <c r="T16" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>c</v>
-      </c>
-      <c r="V16" s="358" t="str">
-        <f ca="1" xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(S3:S54) &amp; "|" &amp; _xlfn.CONCAT(R3:R54) &amp; "|"""</f>
-        <v>- "xlit|pPbmtTndkKghzcsjZCSJiIuUBaAOQoeEIYUX@DHFWwRVLN123570|ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄏㄗㄘㄙㆡㄐㄑㄒㆢㄧㆪㄨㆫㆬㄚㆩㆦㆧㄜㆤㆥㄞㆮㄠㆯㄢㄣㄤㆲㆭㄫㆨㆰㆱｎˉˋ˪ˊ˫．|"</v>
-      </c>
-      <c r="W16" s="359"/>
-      <c r="X16" s="359"/>
-      <c r="Y16" s="359"/>
-      <c r="Z16" s="359"/>
-      <c r="AA16" s="359"/>
-      <c r="AB16" s="359"/>
-      <c r="AC16" s="359"/>
-      <c r="AD16" s="359"/>
-      <c r="AE16" s="359"/>
-      <c r="AF16" s="359"/>
-      <c r="AG16" s="359"/>
-      <c r="AH16" s="359"/>
-      <c r="AI16" s="359"/>
-      <c r="AJ16" s="359"/>
-      <c r="AK16" s="359"/>
-      <c r="AL16" s="359"/>
-      <c r="AM16" s="359"/>
-      <c r="AN16" s="359"/>
-      <c r="AO16" s="359"/>
-      <c r="AP16" s="359"/>
-      <c r="AQ16" s="359"/>
-      <c r="AR16" s="359"/>
-      <c r="AS16" s="359"/>
-      <c r="AT16" s="359"/>
-      <c r="AU16" s="359"/>
-      <c r="AV16" s="359"/>
-      <c r="AW16" s="359"/>
-      <c r="AX16" s="359"/>
-      <c r="AY16" s="359"/>
-      <c r="AZ16" s="359"/>
-      <c r="BA16" s="359"/>
-      <c r="BB16" s="359"/>
-      <c r="BC16" s="359"/>
-      <c r="BD16" s="359"/>
-      <c r="BE16" s="359"/>
-      <c r="BF16" s="359"/>
-      <c r="BG16" s="359"/>
-      <c r="BH16" s="359"/>
-      <c r="BI16" s="359"/>
-      <c r="BJ16" s="359"/>
-      <c r="BK16" s="359"/>
-      <c r="BL16" s="359"/>
-      <c r="BM16" s="359"/>
-      <c r="BN16" s="360"/>
-      <c r="BO16" s="360"/>
-      <c r="BP16" s="360"/>
-      <c r="BQ16" s="360"/>
-    </row>
-    <row r="17" spans="2:21">
-      <c r="B17" s="348">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="375" t="s">
-        <v>338</v>
-      </c>
-      <c r="D17" s="349" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="348">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="G17" s="349" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="369" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="348">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="K17" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K17" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F17,COLUMN(G:G)))</f>
-        <v>n</v>
-      </c>
-      <c r="L17" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L17" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K17,$G$3:$G$54), 0)), "")</f>
-        <v>ㄙ</v>
-      </c>
-      <c r="M17" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M17" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K17,$D$3:$D$54), 0)), "")</f>
-        <v>s</v>
-      </c>
-      <c r="N17" s="366" t="s">
-        <v>51</v>
-      </c>
-      <c r="P17" s="348">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="Q17" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>n</v>
-      </c>
-      <c r="R17" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㄙ</v>
-      </c>
-      <c r="S17" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>s</v>
-      </c>
-      <c r="T17" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>s</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21">
-      <c r="B18" s="348">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="375" t="s">
-        <v>254</v>
-      </c>
-      <c r="D18" s="349" t="s">
-        <v>374</v>
-      </c>
-      <c r="F18" s="348">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="G18" s="349" t="s">
-        <v>374</v>
-      </c>
-      <c r="H18" s="368" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="348">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="K18" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K18" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F18,COLUMN(G:G)))</f>
-        <v>Y</v>
-      </c>
-      <c r="L18" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L18" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K18,$G$3:$G$54), 0)), "")</f>
-        <v>ㆡ</v>
-      </c>
-      <c r="M18" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M18" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K18,$D$3:$D$54), 0)), "")</f>
-        <v>j</v>
-      </c>
-      <c r="N18" s="366" t="s">
-        <v>49</v>
-      </c>
-      <c r="P18" s="348">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="Q18" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Y</v>
-      </c>
-      <c r="R18" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㆡ</v>
-      </c>
-      <c r="S18" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>j</v>
-      </c>
-      <c r="T18" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>j</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21">
-      <c r="B19" s="348">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="C19" s="375" t="s">
-        <v>367</v>
-      </c>
-      <c r="D19" s="349" t="s">
-        <v>435</v>
-      </c>
-      <c r="F19" s="348">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="G19" s="349" t="s">
-        <v>283</v>
-      </c>
-      <c r="H19" s="369" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="348">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="K19" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K19" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F19,COLUMN(G:G)))</f>
-        <v>r</v>
-      </c>
-      <c r="L19" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L19" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K19,$G$3:$G$54), 0)), "")</f>
-        <v>ㄐ</v>
-      </c>
-      <c r="M19" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M19" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K19,$D$3:$D$54), 0)), "")</f>
-        <v>Z</v>
-      </c>
-      <c r="N19" s="366" t="s">
-        <v>450</v>
-      </c>
-      <c r="P19" s="348">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="Q19" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>r</v>
-      </c>
-      <c r="R19" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㄐ</v>
-      </c>
-      <c r="S19" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Z</v>
-      </c>
-      <c r="T19" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>zi-</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21">
-      <c r="B20" s="348">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="375" t="s">
-        <v>286</v>
-      </c>
-      <c r="D20" s="349" t="s">
-        <v>438</v>
-      </c>
-      <c r="F20" s="348">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="G20" s="349" t="s">
-        <v>602</v>
-      </c>
-      <c r="H20" s="369" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="348">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="K20" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K20" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F20,COLUMN(G:G)))</f>
-        <v>f</v>
-      </c>
-      <c r="L20" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L20" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K20,$G$3:$G$54), 0)), "")</f>
-        <v>ㄑ</v>
-      </c>
-      <c r="M20" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M20" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K20,$D$3:$D$54), 0)), "")</f>
-        <v>C</v>
-      </c>
-      <c r="N20" s="366" t="s">
-        <v>457</v>
-      </c>
-      <c r="P20" s="348">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="Q20" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>f</v>
-      </c>
-      <c r="R20" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㄑ</v>
-      </c>
-      <c r="S20" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="T20" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>ci-</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21">
-      <c r="B21" s="348">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="C21" s="375" t="s">
-        <v>369</v>
-      </c>
-      <c r="D21" s="349" t="s">
-        <v>443</v>
-      </c>
-      <c r="F21" s="348">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="G21" s="349" t="s">
-        <v>603</v>
-      </c>
-      <c r="H21" s="369" t="s">
-        <v>284</v>
-      </c>
-      <c r="J21" s="348">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="K21" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K21" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F21,COLUMN(G:G)))</f>
-        <v>v</v>
-      </c>
-      <c r="L21" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L21" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K21,$G$3:$G$54), 0)), "")</f>
-        <v>ㄒ</v>
-      </c>
-      <c r="M21" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M21" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K21,$D$3:$D$54), 0)), "")</f>
-        <v>S</v>
-      </c>
-      <c r="N21" s="366" t="s">
-        <v>606</v>
-      </c>
-      <c r="P21" s="348">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="Q21" s="373" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>v</v>
-      </c>
-      <c r="R21" s="364" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㄒ</v>
-      </c>
-      <c r="S21" s="373" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>S</v>
-      </c>
-      <c r="T21" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>si-</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21">
-      <c r="B22" s="348">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="C22" s="375" t="s">
-        <v>368</v>
-      </c>
-      <c r="D22" s="349" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="348">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="G22" s="349" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="369" t="s">
-        <v>109</v>
-      </c>
-      <c r="J22" s="348">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="K22" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K22" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F22,COLUMN(G:G)))</f>
-        <v>b</v>
-      </c>
-      <c r="L22" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L22" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K22,$G$3:$G$54), 0)), "")</f>
-        <v>ㆢ</v>
-      </c>
-      <c r="M22" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M22" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K22,$D$3:$D$54), 0)), "")</f>
-        <v>J</v>
-      </c>
-      <c r="N22" s="366" t="s">
-        <v>583</v>
-      </c>
-      <c r="P22" s="348">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="Q22" s="373" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>b</v>
-      </c>
-      <c r="R22" s="364" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㆢ</v>
-      </c>
-      <c r="S22" s="373" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>J</v>
-      </c>
-      <c r="T22" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>ji-</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21">
-      <c r="B23" s="348">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="C23" s="375" t="s">
-        <v>279</v>
-      </c>
-      <c r="D23" s="349" t="s">
-        <v>196</v>
-      </c>
-      <c r="F23" s="348">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="G23" s="349" t="s">
-        <v>196</v>
-      </c>
-      <c r="H23" s="369" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="348">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="K23" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K23" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F23,COLUMN(G:G)))</f>
-        <v>u</v>
-      </c>
-      <c r="L23" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L23" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K23,$G$3:$G$54), 0)), "")</f>
-        <v>ㄧ</v>
-      </c>
-      <c r="M23" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M23" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K23,$D$3:$D$54), 0)), "")</f>
-        <v>i</v>
-      </c>
-      <c r="N23" s="366" t="s">
-        <v>55</v>
-      </c>
-      <c r="P23" s="348">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="Q23" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>u</v>
-      </c>
-      <c r="R23" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㄧ</v>
-      </c>
-      <c r="S23" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>i</v>
-      </c>
-      <c r="T23" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>i</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21">
-      <c r="B24" s="348">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="375" t="s">
-        <v>239</v>
-      </c>
-      <c r="D24" s="349" t="s">
-        <v>230</v>
-      </c>
-      <c r="F24" s="348">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="G24" s="349" t="s">
-        <v>230</v>
-      </c>
-      <c r="H24" s="369" t="s">
-        <v>111</v>
-      </c>
-      <c r="J24" s="348">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="K24" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K24" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F24,COLUMN(G:G)))</f>
-        <v>U</v>
-      </c>
-      <c r="L24" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L24" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K24,$G$3:$G$54), 0)), "")</f>
-        <v>ㆪ</v>
-      </c>
-      <c r="M24" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M24" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K24,$D$3:$D$54), 0)), "")</f>
-        <v>I</v>
-      </c>
-      <c r="N24" s="366" t="s">
-        <v>112</v>
-      </c>
-      <c r="P24" s="348">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="Q24" s="373" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>U</v>
-      </c>
-      <c r="R24" s="364" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㆪ</v>
-      </c>
-      <c r="S24" s="373" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>I</v>
-      </c>
-      <c r="T24" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>inn</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21">
-      <c r="B25" s="348">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="C25" s="375" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25" s="349" t="s">
-        <v>254</v>
-      </c>
-      <c r="F25" s="348">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="G25" s="349" t="s">
-        <v>254</v>
-      </c>
-      <c r="H25" s="369" t="s">
-        <v>56</v>
-      </c>
-      <c r="J25" s="348">
-        <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="K25" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K25" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F25,COLUMN(G:G)))</f>
-        <v>j</v>
-      </c>
-      <c r="L25" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L25" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K25,$G$3:$G$54), 0)), "")</f>
-        <v>ㄨ</v>
-      </c>
-      <c r="M25" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M25" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K25,$D$3:$D$54), 0)), "")</f>
-        <v>u</v>
-      </c>
-      <c r="N25" s="366" t="s">
-        <v>57</v>
-      </c>
-      <c r="P25" s="348">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="Q25" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>j</v>
-      </c>
-      <c r="R25" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㄨ</v>
-      </c>
-      <c r="S25" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>u</v>
-      </c>
-      <c r="T25" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>u</v>
-      </c>
-      <c r="U25" s="347"/>
-    </row>
-    <row r="26" spans="2:21">
-      <c r="B26" s="348">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="375" t="s">
-        <v>230</v>
-      </c>
-      <c r="D26" s="349" t="s">
-        <v>368</v>
-      </c>
-      <c r="F26" s="348">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="G26" s="349" t="s">
-        <v>368</v>
-      </c>
-      <c r="H26" s="369" t="s">
-        <v>113</v>
-      </c>
-      <c r="J26" s="348">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="K26" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K26" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F26,COLUMN(G:G)))</f>
-        <v>J</v>
-      </c>
-      <c r="L26" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L26" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K26,$G$3:$G$54), 0)), "")</f>
-        <v>ㆫ</v>
-      </c>
-      <c r="M26" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M26" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K26,$D$3:$D$54), 0)), "")</f>
-        <v>U</v>
-      </c>
-      <c r="N26" s="366" t="s">
-        <v>114</v>
-      </c>
-      <c r="P26" s="348">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="Q26" s="373" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>J</v>
-      </c>
-      <c r="R26" s="364" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㆫ</v>
-      </c>
-      <c r="S26" s="373" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>U</v>
-      </c>
-      <c r="T26" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>unn</v>
-      </c>
-      <c r="U26" s="347"/>
-    </row>
-    <row r="27" spans="2:21">
-      <c r="B27" s="348">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="C27" s="375" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="349" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" s="348">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="G27" s="349" t="s">
-        <v>143</v>
-      </c>
-      <c r="H27" s="369" t="s">
-        <v>145</v>
-      </c>
-      <c r="J27" s="348">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="K27" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K27" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F27,COLUMN(G:G)))</f>
-        <v>m</v>
-      </c>
-      <c r="L27" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L27" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K27,$G$3:$G$54), 0)), "")</f>
-        <v>ㆬ</v>
-      </c>
-      <c r="M27" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M27" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K27,$D$3:$D$54), 0)), "")</f>
-        <v>B</v>
-      </c>
-      <c r="N27" s="367" t="s">
-        <v>79</v>
-      </c>
-      <c r="P27" s="348">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="Q27" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>m</v>
-      </c>
-      <c r="R27" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㆬ</v>
-      </c>
-      <c r="S27" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>B</v>
-      </c>
-      <c r="T27" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>-m</v>
-      </c>
-      <c r="U27" s="347"/>
-    </row>
-    <row r="28" spans="2:21">
-      <c r="B28" s="348">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="C28" s="375" t="s">
-        <v>351</v>
-      </c>
-      <c r="D28" s="349" t="s">
-        <v>591</v>
-      </c>
-      <c r="F28" s="348">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="G28" s="349" t="s">
-        <v>591</v>
-      </c>
-      <c r="H28" s="369" t="s">
-        <v>58</v>
-      </c>
-      <c r="J28" s="348">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="K28" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K28" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F28,COLUMN(G:G)))</f>
-        <v>8</v>
-      </c>
-      <c r="L28" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L28" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K28,$G$3:$G$54), 0)), "")</f>
-        <v>ㄚ</v>
-      </c>
-      <c r="M28" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M28" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K28,$D$3:$D$54), 0)), "")</f>
-        <v>a</v>
-      </c>
-      <c r="N28" s="366" t="s">
-        <v>59</v>
-      </c>
-      <c r="P28" s="348">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="Q28" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="R28" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㄚ</v>
-      </c>
-      <c r="S28" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>a</v>
-      </c>
-      <c r="T28" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>a</v>
-      </c>
-      <c r="U28" s="347"/>
-    </row>
-    <row r="29" spans="2:21">
-      <c r="B29" s="348">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="375" t="s">
-        <v>401</v>
-      </c>
-      <c r="D29" s="349" t="s">
-        <v>484</v>
-      </c>
-      <c r="F29" s="348">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="G29" s="349" t="s">
-        <v>484</v>
-      </c>
-      <c r="H29" s="369" t="s">
-        <v>115</v>
-      </c>
-      <c r="J29" s="348">
-        <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="K29" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K29" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F29,COLUMN(G:G)))</f>
-        <v>*</v>
-      </c>
-      <c r="L29" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L29" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K29,$G$3:$G$54), 0)), "")</f>
-        <v>ㆩ</v>
-      </c>
-      <c r="M29" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M29" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K29,$D$3:$D$54), 0)), "")</f>
-        <v>A</v>
-      </c>
-      <c r="N29" s="366" t="s">
-        <v>116</v>
-      </c>
-      <c r="P29" s="348">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="Q29" s="373" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>*</v>
-      </c>
-      <c r="R29" s="364" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㆩ</v>
-      </c>
-      <c r="S29" s="373" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>A</v>
-      </c>
-      <c r="T29" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>ann</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21">
-      <c r="B30" s="348">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="C30" s="375" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="349" t="s">
-        <v>279</v>
-      </c>
-      <c r="F30" s="348">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="G30" s="349" t="s">
-        <v>279</v>
-      </c>
-      <c r="H30" s="369" t="s">
-        <v>67</v>
-      </c>
-      <c r="J30" s="348">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="K30" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K30" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F30,COLUMN(G:G)))</f>
-        <v>i</v>
-      </c>
-      <c r="L30" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L30" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K30,$G$3:$G$54), 0)), "")</f>
-        <v>ㆦ</v>
-      </c>
-      <c r="M30" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M30" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K30,$D$3:$D$54), 0)), "")</f>
-        <v>O</v>
-      </c>
-      <c r="N30" s="366" t="s">
-        <v>68</v>
-      </c>
-      <c r="P30" s="348">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="Q30" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>i</v>
-      </c>
-      <c r="R30" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㆦ</v>
-      </c>
-      <c r="S30" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>O</v>
-      </c>
-      <c r="T30" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>oo</v>
-      </c>
-      <c r="U30" s="347"/>
-    </row>
-    <row r="31" spans="2:21">
-      <c r="B31" s="348">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="C31" s="375" t="s">
-        <v>397</v>
-      </c>
-      <c r="D31" s="349" t="s">
-        <v>239</v>
-      </c>
-      <c r="F31" s="348">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="G31" s="349" t="s">
-        <v>239</v>
-      </c>
-      <c r="H31" s="369" t="s">
-        <v>597</v>
-      </c>
-      <c r="J31" s="348">
-        <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="K31" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K31" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F31,COLUMN(G:G)))</f>
-        <v>I</v>
-      </c>
-      <c r="L31" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L31" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K31,$G$3:$G$54), 0)), "")</f>
-        <v>ㆧ</v>
-      </c>
-      <c r="M31" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M31" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K31,$D$3:$D$54), 0)), "")</f>
-        <v>Q</v>
-      </c>
-      <c r="N31" s="366" t="s">
-        <v>122</v>
-      </c>
-      <c r="P31" s="348">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="Q31" s="373" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I</v>
-      </c>
-      <c r="R31" s="364" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㆧ</v>
-      </c>
-      <c r="S31" s="373" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Q</v>
-      </c>
-      <c r="T31" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>onn</v>
-      </c>
-      <c r="U31" s="347"/>
-    </row>
-    <row r="32" spans="2:21">
-      <c r="B32" s="348">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="C32" s="375" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="349" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="348">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="G32" s="349" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="369" t="s">
-        <v>473</v>
-      </c>
-      <c r="J32" s="348">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="K32" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K32" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F32,COLUMN(G:G)))</f>
-        <v>k</v>
-      </c>
-      <c r="L32" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L32" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K32,$G$3:$G$54), 0)), "")</f>
-        <v>ㄜ</v>
-      </c>
-      <c r="M32" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M32" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K32,$D$3:$D$54), 0)), "")</f>
-        <v>o</v>
-      </c>
-      <c r="N32" s="366" t="s">
-        <v>66</v>
-      </c>
-      <c r="P32" s="348">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="Q32" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>k</v>
-      </c>
-      <c r="R32" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㄜ</v>
-      </c>
-      <c r="S32" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>o</v>
-      </c>
-      <c r="T32" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>o</v>
-      </c>
-      <c r="U32" s="347"/>
-    </row>
-    <row r="33" spans="2:21">
-      <c r="B33" s="348">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="C33" s="375" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="349" t="s">
-        <v>225</v>
-      </c>
-      <c r="F33" s="348">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="G33" s="349" t="s">
-        <v>225</v>
-      </c>
-      <c r="H33" s="369" t="s">
-        <v>61</v>
-      </c>
-      <c r="J33" s="348">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="K33" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K33" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F33,COLUMN(G:G)))</f>
-        <v>,</v>
-      </c>
-      <c r="L33" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L33" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K33,$G$3:$G$54), 0)), "")</f>
-        <v>ㆤ</v>
-      </c>
-      <c r="M33" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M33" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K33,$D$3:$D$54), 0)), "")</f>
-        <v>e</v>
-      </c>
-      <c r="N33" s="366" t="s">
-        <v>62</v>
-      </c>
-      <c r="P33" s="348">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="Q33" s="372" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>,</v>
-      </c>
-      <c r="R33" s="374" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㆤ</v>
-      </c>
-      <c r="S33" s="372" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>e</v>
-      </c>
-      <c r="T33" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>e</v>
-      </c>
-      <c r="U33" s="347"/>
-    </row>
-    <row r="34" spans="2:21">
-      <c r="B34" s="348">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="C34" s="375" t="s">
-        <v>421</v>
-      </c>
-      <c r="D34" s="349" t="s">
-        <v>598</v>
-      </c>
-      <c r="F34" s="348">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="G34" s="349" t="s">
-        <v>598</v>
-      </c>
-      <c r="H34" s="369" t="s">
-        <v>119</v>
-      </c>
-      <c r="J34" s="348">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="K34" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K34" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F34,COLUMN(G:G)))</f>
-        <v>&lt;</v>
-      </c>
-      <c r="L34" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L34" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K34,$G$3:$G$54), 0)), "")</f>
-        <v>ㆥ</v>
-      </c>
-      <c r="M34" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M34" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K34,$D$3:$D$54), 0)), "")</f>
-        <v>E</v>
-      </c>
-      <c r="N34" s="366" t="s">
-        <v>120</v>
-      </c>
-      <c r="P34" s="348">
-        <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="Q34" s="373" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>&lt;</v>
-      </c>
-      <c r="R34" s="364" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ㆥ</v>
-      </c>
-      <c r="S34" s="373" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>E</v>
-      </c>
-      <c r="T34" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>enn</v>
-      </c>
-      <c r="U34" s="347"/>
-    </row>
-    <row r="35" spans="2:21">
-      <c r="B35" s="348">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="C35" s="375" t="s">
-        <v>275</v>
-      </c>
-      <c r="D35" s="349" t="s">
-        <v>264</v>
-      </c>
-      <c r="F35" s="348">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="G35" s="349" t="s">
-        <v>264</v>
-      </c>
-      <c r="H35" s="369" t="s">
-        <v>241</v>
-      </c>
-      <c r="J35" s="348">
-        <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="K35" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K35" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F35,COLUMN(G:G)))</f>
-        <v>9</v>
-      </c>
-      <c r="L35" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L35" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K35,$G$3:$G$54), 0)), "")</f>
-        <v>ㄞ</v>
-      </c>
-      <c r="M35" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M35" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K35,$D$3:$D$54), 0)), "")</f>
-        <v>I</v>
-      </c>
-      <c r="N35" s="366" t="s">
-        <v>71</v>
-      </c>
-      <c r="P35" s="348">
-        <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="Q35" s="372" t="str">
-        <f t="shared" ref="Q35:Q54" ca="1" si="8">K35</f>
-        <v>9</v>
-      </c>
-      <c r="R35" s="374" t="str">
-        <f t="shared" ref="R35:R54" ca="1" si="9">L35</f>
-        <v>ㄞ</v>
-      </c>
-      <c r="S35" s="372" t="str">
-        <f t="shared" ref="S35:S54" ca="1" si="10">M35</f>
-        <v>I</v>
-      </c>
-      <c r="T35" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>ai</v>
-      </c>
-    </row>
-    <row r="36" spans="2:21">
-      <c r="B36" s="348">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="C36" s="375" t="s">
-        <v>374</v>
-      </c>
-      <c r="D36" s="349" t="s">
-        <v>491</v>
-      </c>
-      <c r="F36" s="348">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="G36" s="349" t="s">
-        <v>491</v>
-      </c>
-      <c r="H36" s="369" t="s">
-        <v>117</v>
-      </c>
-      <c r="J36" s="348">
-        <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="K36" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K36" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F36,COLUMN(G:G)))</f>
-        <v>(</v>
-      </c>
-      <c r="L36" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L36" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K36,$G$3:$G$54), 0)), "")</f>
-        <v>ㆮ</v>
-      </c>
-      <c r="M36" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M36" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K36,$D$3:$D$54), 0)), "")</f>
-        <v>Y</v>
-      </c>
-      <c r="N36" s="366" t="s">
-        <v>118</v>
-      </c>
-      <c r="P36" s="348">
-        <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="Q36" s="373" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>(</v>
-      </c>
-      <c r="R36" s="364" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>ㆮ</v>
-      </c>
-      <c r="S36" s="373" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Y</v>
-      </c>
-      <c r="T36" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>ainn</v>
-      </c>
-      <c r="U36" s="347"/>
-    </row>
-    <row r="37" spans="2:21">
-      <c r="B37" s="348">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="C37" s="375" t="s">
-        <v>259</v>
-      </c>
-      <c r="D37" s="349" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="348">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="G37" s="349" t="s">
-        <v>86</v>
-      </c>
-      <c r="H37" s="369" t="s">
-        <v>72</v>
-      </c>
-      <c r="J37" s="348">
-        <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="K37" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K37" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F37,COLUMN(G:G)))</f>
-        <v>l</v>
-      </c>
-      <c r="L37" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L37" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K37,$G$3:$G$54), 0)), "")</f>
-        <v>ㄠ</v>
-      </c>
-      <c r="M37" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M37" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K37,$D$3:$D$54), 0)), "")</f>
-        <v>U</v>
-      </c>
-      <c r="N37" s="366" t="s">
-        <v>73</v>
-      </c>
-      <c r="P37" s="348">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="Q37" s="372" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>l</v>
-      </c>
-      <c r="R37" s="374" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>ㄠ</v>
-      </c>
-      <c r="S37" s="372" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>U</v>
-      </c>
-      <c r="T37" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>au</v>
-      </c>
-    </row>
-    <row r="38" spans="2:21">
-      <c r="B38" s="348">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="C38" s="375" t="s">
-        <v>414</v>
-      </c>
-      <c r="D38" s="349" t="s">
-        <v>497</v>
-      </c>
-      <c r="F38" s="348">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="G38" s="349" t="s">
-        <v>497</v>
-      </c>
-      <c r="H38" s="369" t="s">
-        <v>123</v>
-      </c>
-      <c r="J38" s="348">
-        <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-      <c r="K38" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K38" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F38,COLUMN(G:G)))</f>
-        <v>L</v>
-      </c>
-      <c r="L38" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L38" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K38,$G$3:$G$54), 0)), "")</f>
-        <v>ㆯ</v>
-      </c>
-      <c r="M38" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M38" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K38,$D$3:$D$54), 0)), "")</f>
-        <v>X</v>
-      </c>
-      <c r="N38" s="366" t="s">
-        <v>124</v>
-      </c>
-      <c r="P38" s="348">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="Q38" s="373" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>L</v>
-      </c>
-      <c r="R38" s="364" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>ㆯ</v>
-      </c>
-      <c r="S38" s="373" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T38" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>aunn</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21">
-      <c r="B39" s="348">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="C39" s="375" t="s">
-        <v>404</v>
-      </c>
-      <c r="D39" s="349" t="s">
-        <v>219</v>
-      </c>
-      <c r="F39" s="348">
-        <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-      <c r="G39" s="349">
-        <v>0</v>
-      </c>
-      <c r="H39" s="369" t="s">
-        <v>97</v>
-      </c>
-      <c r="J39" s="348">
-        <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="K39" s="354" cm="1">
-        <f t="array" aca="1" ref="K39" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F39,COLUMN(G:G)))</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L39" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K39,$G$3:$G$54), 0)), "")</f>
-        <v>ㄢ</v>
-      </c>
-      <c r="M39" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M39" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K39,$D$3:$D$54), 0)), "")</f>
-        <v>@</v>
-      </c>
-      <c r="N39" s="366" t="s">
-        <v>98</v>
-      </c>
-      <c r="P39" s="348">
-        <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="Q39" s="372">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="374" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>ㄢ</v>
-      </c>
-      <c r="S39" s="372" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>@</v>
-      </c>
-      <c r="T39" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>an</v>
-      </c>
-    </row>
-    <row r="40" spans="2:21">
-      <c r="B40" s="348">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="C40" s="375" t="s">
-        <v>189</v>
-      </c>
-      <c r="D40" s="349" t="s">
-        <v>217</v>
-      </c>
-      <c r="F40" s="348">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="G40" s="349" t="s">
-        <v>217</v>
-      </c>
-      <c r="H40" s="369" t="s">
-        <v>76</v>
-      </c>
-      <c r="J40" s="348">
-        <f t="shared" si="5"/>
-        <v>38</v>
-      </c>
-      <c r="K40" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K40" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F40,COLUMN(G:G)))</f>
-        <v>p</v>
-      </c>
-      <c r="L40" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L40" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K40,$G$3:$G$54), 0)), "")</f>
-        <v>ㄣ</v>
-      </c>
-      <c r="M40" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M40" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K40,$D$3:$D$54), 0)), "")</f>
-        <v>D</v>
-      </c>
-      <c r="N40" s="367" t="s">
-        <v>77</v>
-      </c>
-      <c r="P40" s="348">
-        <f t="shared" si="6"/>
-        <v>38</v>
-      </c>
-      <c r="Q40" s="372" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>p</v>
-      </c>
-      <c r="R40" s="374" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>ㄣ</v>
-      </c>
-      <c r="S40" s="372" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>D</v>
-      </c>
-      <c r="T40" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>-n</v>
-      </c>
-    </row>
-    <row r="41" spans="2:21">
-      <c r="B41" s="348">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="C41" s="375" t="s">
-        <v>375</v>
-      </c>
-      <c r="D41" s="349" t="s">
-        <v>512</v>
-      </c>
-      <c r="F41" s="348">
-        <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="G41" s="349" t="s">
-        <v>512</v>
-      </c>
-      <c r="H41" s="369" t="s">
-        <v>95</v>
-      </c>
-      <c r="J41" s="348">
-        <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-      <c r="K41" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K41" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F41,COLUMN(G:G)))</f>
-        <v>;</v>
-      </c>
-      <c r="L41" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L41" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K41,$G$3:$G$54), 0)), "")</f>
-        <v>ㄤ</v>
-      </c>
-      <c r="M41" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M41" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K41,$D$3:$D$54), 0)), "")</f>
-        <v>H</v>
-      </c>
-      <c r="N41" s="366" t="s">
-        <v>96</v>
-      </c>
-      <c r="P41" s="348">
-        <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="Q41" s="372" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>;</v>
-      </c>
-      <c r="R41" s="374" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>ㄤ</v>
-      </c>
-      <c r="S41" s="372" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>H</v>
-      </c>
-      <c r="T41" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>ang</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21">
-      <c r="B42" s="348">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="C42" s="375" t="s">
-        <v>439</v>
-      </c>
-      <c r="D42" s="349" t="s">
-        <v>206</v>
-      </c>
-      <c r="F42" s="348">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="G42" s="349" t="s">
-        <v>206</v>
-      </c>
-      <c r="H42" s="369" t="s">
-        <v>101</v>
-      </c>
-      <c r="J42" s="348">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="K42" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K42" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F42,COLUMN(G:G)))</f>
-        <v>:</v>
-      </c>
-      <c r="L42" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L42" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K42,$G$3:$G$54), 0)), "")</f>
-        <v>ㆲ</v>
-      </c>
-      <c r="M42" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M42" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K42,$D$3:$D$54), 0)), "")</f>
-        <v>F</v>
-      </c>
-      <c r="N42" s="366" t="s">
-        <v>102</v>
-      </c>
-      <c r="P42" s="348">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-      <c r="Q42" s="372" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>:</v>
-      </c>
-      <c r="R42" s="374" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>ㆲ</v>
-      </c>
-      <c r="S42" s="372" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>F</v>
-      </c>
-      <c r="T42" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>ong</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21">
-      <c r="B43" s="348">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="C43" s="375" t="s">
-        <v>559</v>
-      </c>
-      <c r="D43" s="349" t="s">
-        <v>202</v>
-      </c>
-      <c r="F43" s="348">
-        <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="G43" s="349" t="s">
-        <v>202</v>
-      </c>
-      <c r="H43" s="369" t="s">
-        <v>74</v>
-      </c>
-      <c r="J43" s="348">
-        <f t="shared" si="5"/>
-        <v>41</v>
-      </c>
-      <c r="K43" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K43" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F43,COLUMN(G:G)))</f>
-        <v>/</v>
-      </c>
-      <c r="L43" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L43" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K43,$G$3:$G$54), 0)), "")</f>
-        <v>ㆭ</v>
-      </c>
-      <c r="M43" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M43" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K43,$D$3:$D$54), 0)), "")</f>
-        <v>W</v>
-      </c>
-      <c r="N43" s="367" t="s">
-        <v>75</v>
-      </c>
-      <c r="P43" s="348">
-        <f t="shared" si="6"/>
-        <v>41</v>
-      </c>
-      <c r="Q43" s="372" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>/</v>
-      </c>
-      <c r="R43" s="374" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>ㆭ</v>
-      </c>
-      <c r="S43" s="372" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>W</v>
-      </c>
-      <c r="T43" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>-ng</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21">
-      <c r="B44" s="348">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="C44" s="375" t="s">
-        <v>341</v>
-      </c>
-      <c r="D44" s="349" t="s">
-        <v>429</v>
-      </c>
-      <c r="F44" s="348">
-        <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="G44" s="349" t="s">
-        <v>429</v>
-      </c>
-      <c r="H44" s="369" t="s">
-        <v>87</v>
-      </c>
-      <c r="J44" s="348">
-        <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="K44" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K44" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F44,COLUMN(G:G)))</f>
-        <v>?</v>
-      </c>
-      <c r="L44" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L44" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K44,$G$3:$G$54), 0)), "")</f>
-        <v>ㄫ</v>
-      </c>
-      <c r="M44" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M44" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K44,$D$3:$D$54), 0)), "")</f>
-        <v>w</v>
-      </c>
-      <c r="N44" s="366" t="s">
-        <v>599</v>
-      </c>
-      <c r="P44" s="348">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="Q44" s="372" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>?</v>
-      </c>
-      <c r="R44" s="374" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>ㄫ</v>
-      </c>
-      <c r="S44" s="372" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>w</v>
-      </c>
-      <c r="T44" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>ng-</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21">
-      <c r="B45" s="348">
-        <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="C45" s="375" t="s">
-        <v>560</v>
-      </c>
-      <c r="D45" s="349" t="s">
-        <v>198</v>
-      </c>
-      <c r="F45" s="348">
-        <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="G45" s="349" t="s">
-        <v>198</v>
-      </c>
-      <c r="H45" s="369" t="s">
-        <v>593</v>
-      </c>
-      <c r="J45" s="348">
-        <f t="shared" si="5"/>
-        <v>43</v>
-      </c>
-      <c r="K45" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K45" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F45,COLUMN(G:G)))</f>
-        <v>-</v>
-      </c>
-      <c r="L45" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L45" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K45,$G$3:$G$54), 0)), "")</f>
-        <v>ㆨ</v>
-      </c>
-      <c r="M45" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M45" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K45,$D$3:$D$54), 0)), "")</f>
-        <v>R</v>
-      </c>
-      <c r="N45" s="366" t="s">
-        <v>600</v>
-      </c>
-      <c r="P45" s="348">
-        <f t="shared" si="6"/>
-        <v>43</v>
-      </c>
-      <c r="Q45" s="372" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="R45" s="374" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>ㆨ</v>
-      </c>
-      <c r="S45" s="372" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>R</v>
-      </c>
-      <c r="T45" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>ir</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21">
-      <c r="B46" s="348">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="C46" s="375" t="s">
-        <v>444</v>
-      </c>
-      <c r="D46" s="349" t="s">
-        <v>401</v>
-      </c>
-      <c r="F46" s="348">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="G46" s="349" t="s">
-        <v>401</v>
-      </c>
-      <c r="H46" s="369" t="s">
-        <v>99</v>
-      </c>
-      <c r="J46" s="348">
-        <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="K46" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K46" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F46,COLUMN(G:G)))</f>
-        <v>A</v>
-      </c>
-      <c r="L46" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L46" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K46,$G$3:$G$54), 0)), "")</f>
-        <v>ㆰ</v>
-      </c>
-      <c r="M46" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M46" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K46,$D$3:$D$54), 0)), "")</f>
-        <v>V</v>
-      </c>
-      <c r="N46" s="366" t="s">
-        <v>100</v>
-      </c>
-      <c r="P46" s="348">
-        <f t="shared" si="6"/>
-        <v>44</v>
-      </c>
-      <c r="Q46" s="372" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="R46" s="374" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>ㆰ</v>
-      </c>
-      <c r="S46" s="372" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>V</v>
-      </c>
-      <c r="T46" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>am</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21">
-      <c r="B47" s="348">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="C47" s="375" t="s">
-        <v>497</v>
-      </c>
-      <c r="D47" s="349" t="s">
-        <v>69</v>
-      </c>
-      <c r="F47" s="348">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="G47" s="349" t="s">
-        <v>69</v>
-      </c>
-      <c r="H47" s="369" t="s">
-        <v>125</v>
-      </c>
-      <c r="J47" s="348">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="K47" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K47" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F47,COLUMN(G:G)))</f>
-        <v>O</v>
-      </c>
-      <c r="L47" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L47" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K47,$G$3:$G$54), 0)), "")</f>
-        <v>ㆱ</v>
-      </c>
-      <c r="M47" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M47" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K47,$D$3:$D$54), 0)), "")</f>
-        <v>L</v>
-      </c>
-      <c r="N47" s="366" t="s">
-        <v>126</v>
-      </c>
-      <c r="P47" s="348">
-        <f t="shared" si="6"/>
-        <v>45</v>
-      </c>
-      <c r="Q47" s="372" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>O</v>
-      </c>
-      <c r="R47" s="374" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>ㆱ</v>
-      </c>
-      <c r="S47" s="372" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>L</v>
-      </c>
-      <c r="T47" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>om</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21">
-      <c r="B48" s="348">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="C48" s="375" t="s">
-        <v>571</v>
-      </c>
-      <c r="D48" s="349" t="s">
-        <v>596</v>
-      </c>
-      <c r="F48" s="348">
-        <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="G48" s="351" t="s">
-        <v>596</v>
-      </c>
-      <c r="H48" s="369" t="s">
-        <v>594</v>
-      </c>
-      <c r="I48" s="350"/>
-      <c r="J48" s="348">
-        <f t="shared" si="5"/>
-        <v>46</v>
-      </c>
-      <c r="K48" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K48" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F48,COLUMN(G:G)))</f>
-        <v>.</v>
-      </c>
-      <c r="L48" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L48" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K48,$G$3:$G$54), 0)), "")</f>
-        <v>ｎ</v>
-      </c>
-      <c r="M48" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M48" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K48,$D$3:$D$54), 0)), "")</f>
-        <v>N</v>
-      </c>
-      <c r="N48" s="367" t="s">
-        <v>601</v>
-      </c>
-      <c r="P48" s="348">
-        <f t="shared" si="6"/>
-        <v>46</v>
-      </c>
-      <c r="Q48" s="372" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>.</v>
-      </c>
-      <c r="R48" s="374" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>ｎ</v>
-      </c>
-      <c r="S48" s="372" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>N</v>
-      </c>
-      <c r="T48" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>-nn</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20">
-      <c r="B49" s="348">
-        <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-      <c r="C49" s="375" t="s">
-        <v>361</v>
-      </c>
-      <c r="D49" s="349" t="str">
-        <f xml:space="preserve"> CHAR(32)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E49" s="352" t="s">
-        <v>592</v>
-      </c>
-      <c r="F49" s="348">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="G49" s="349" t="str">
-        <f xml:space="preserve"> CHAR(32)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H49" s="369" t="s">
-        <v>532</v>
-      </c>
-      <c r="J49" s="348">
-        <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-      <c r="K49" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K49" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F49,COLUMN(G:G)))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L49" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L49" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K49,$G$3:$G$54), 0)), "")</f>
-        <v>ˉ</v>
-      </c>
-      <c r="M49" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M49" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K49,$D$3:$D$54), 0)), "")</f>
-        <v>1</v>
-      </c>
-      <c r="N49" s="366">
-        <v>1</v>
-      </c>
-      <c r="P49" s="348">
-        <f t="shared" si="6"/>
-        <v>47</v>
-      </c>
-      <c r="Q49" s="349" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R49" s="374" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>ˉ</v>
-      </c>
-      <c r="S49" s="372" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="T49" s="370">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20">
-      <c r="B50" s="348">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="C50" s="375" t="s">
-        <v>347</v>
-      </c>
-      <c r="D50" s="349" t="s">
-        <v>193</v>
-      </c>
-      <c r="F50" s="348">
-        <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="G50" s="349" t="s">
-        <v>193</v>
-      </c>
-      <c r="H50" s="369" t="s">
-        <v>104</v>
-      </c>
-      <c r="J50" s="348">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="K50" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K50" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F50,COLUMN(G:G)))</f>
-        <v>4</v>
-      </c>
-      <c r="L50" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L50" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K50,$G$3:$G$54), 0)), "")</f>
-        <v>ˋ</v>
-      </c>
-      <c r="M50" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M50" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K50,$D$3:$D$54), 0)), "")</f>
-        <v>2</v>
-      </c>
-      <c r="N50" s="366">
-        <v>2</v>
-      </c>
-      <c r="P50" s="348">
-        <f t="shared" si="6"/>
-        <v>48</v>
-      </c>
-      <c r="Q50" s="372" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="R50" s="374" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>ˋ</v>
-      </c>
-      <c r="S50" s="372" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="T50" s="370">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20">
-      <c r="B51" s="348">
-        <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="C51" s="375" t="s">
-        <v>191</v>
-      </c>
-      <c r="D51" s="349" t="s">
-        <v>191</v>
-      </c>
-      <c r="F51" s="348">
-        <f t="shared" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="G51" s="351" t="s">
-        <v>191</v>
-      </c>
-      <c r="H51" s="369" t="s">
-        <v>105</v>
-      </c>
-      <c r="J51" s="348">
-        <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-      <c r="K51" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K51" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F51,COLUMN(G:G)))</f>
-        <v>3</v>
-      </c>
-      <c r="L51" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L51" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K51,$G$3:$G$54), 0)), "")</f>
-        <v>˪</v>
-      </c>
-      <c r="M51" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M51" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K51,$D$3:$D$54), 0)), "")</f>
-        <v>3</v>
-      </c>
-      <c r="N51" s="366">
-        <v>3</v>
-      </c>
-      <c r="P51" s="348">
-        <f t="shared" si="6"/>
-        <v>49</v>
-      </c>
-      <c r="Q51" s="372" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="R51" s="374" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>˪</v>
-      </c>
-      <c r="S51" s="372" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="T51" s="370">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:20">
-      <c r="B52" s="348">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="C52" s="375" t="s">
-        <v>170</v>
-      </c>
-      <c r="D52" s="351" t="s">
-        <v>175</v>
-      </c>
-      <c r="F52" s="348">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="G52" s="349" t="s">
-        <v>175</v>
-      </c>
-      <c r="H52" s="368" t="s">
-        <v>106</v>
-      </c>
-      <c r="J52" s="348">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="K52" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K52" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F52,COLUMN(G:G)))</f>
-        <v>6</v>
-      </c>
-      <c r="L52" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L52" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K52,$G$3:$G$54), 0)), "")</f>
-        <v>ˊ</v>
-      </c>
-      <c r="M52" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M52" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K52,$D$3:$D$54), 0)), "")</f>
-        <v>5</v>
-      </c>
-      <c r="N52" s="366">
-        <v>5</v>
-      </c>
-      <c r="P52" s="348">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="Q52" s="372" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="R52" s="374" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>ˊ</v>
-      </c>
-      <c r="S52" s="372" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="T52" s="370">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="2:20">
-      <c r="B53" s="348">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="C53" s="375" t="s">
-        <v>166</v>
-      </c>
-      <c r="D53" s="353" t="s">
-        <v>170</v>
-      </c>
-      <c r="F53" s="348">
-        <f t="shared" si="4"/>
-        <v>51</v>
-      </c>
-      <c r="G53" s="353" t="s">
-        <v>170</v>
-      </c>
-      <c r="H53" s="369" t="s">
-        <v>107</v>
-      </c>
-      <c r="J53" s="348">
-        <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-      <c r="K53" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K53" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F53,COLUMN(G:G)))</f>
-        <v>5</v>
-      </c>
-      <c r="L53" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L53" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K53,$G$3:$G$54), 0)), "")</f>
-        <v>˫</v>
-      </c>
-      <c r="M53" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M53" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K53,$D$3:$D$54), 0)), "")</f>
-        <v>7</v>
-      </c>
-      <c r="N53" s="366">
-        <v>7</v>
-      </c>
-      <c r="P53" s="348">
-        <f t="shared" si="6"/>
-        <v>51</v>
-      </c>
-      <c r="Q53" s="372" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="R53" s="374" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>˫</v>
-      </c>
-      <c r="S53" s="372" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="T53" s="370">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="2:20">
-      <c r="B54" s="348">
-        <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="C54" s="375" t="s">
-        <v>219</v>
-      </c>
-      <c r="D54" s="349">
-        <v>7</v>
-      </c>
-      <c r="F54" s="348">
-        <f t="shared" si="4"/>
-        <v>52</v>
-      </c>
-      <c r="G54" s="349" t="s">
-        <v>166</v>
-      </c>
-      <c r="H54" s="369" t="s">
-        <v>530</v>
-      </c>
-      <c r="J54" s="348">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-      <c r="K54" s="354" t="str" cm="1">
-        <f t="array" aca="1" ref="K54" ca="1" xml:space="preserve"> INDIRECT(ADDRESS(2+$F54,COLUMN(G:G)))</f>
-        <v>7</v>
-      </c>
-      <c r="L54" s="363" t="str" cm="1">
-        <f t="array" aca="1" ref="L54" ca="1" xml:space="preserve"> IFERROR( INDEX($H$3:$H$54, MATCH(TRUE, EXACT($K54,$G$3:$G$54), 0)), "")</f>
-        <v>．</v>
-      </c>
-      <c r="M54" s="362" t="str" cm="1">
-        <f t="array" aca="1" ref="M54" ca="1" xml:space="preserve"> IFERROR( INDEX($C$3:$C$54, MATCH(TRUE, EXACT($K54,$D$3:$D$54), 0)), "")</f>
-        <v>0</v>
-      </c>
-      <c r="N54" s="366" t="s">
-        <v>610</v>
-      </c>
-      <c r="P54" s="348">
-        <f t="shared" si="6"/>
-        <v>52</v>
-      </c>
-      <c r="Q54" s="372" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="R54" s="374" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>．</v>
-      </c>
-      <c r="S54" s="372" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T54" s="370" t="str">
-        <f t="shared" si="7"/>
-        <v>[48]</v>
-      </c>
-    </row>
-    <row r="55" spans="2:20">
-      <c r="B55"/>
-      <c r="F55"/>
-    </row>
-    <row r="56" spans="2:20">
-      <c r="B56"/>
-      <c r="F56"/>
-    </row>
-    <row r="57" spans="2:20">
-      <c r="B57"/>
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="2:20">
-      <c r="F58"/>
-    </row>
-    <row r="61" spans="2:20">
-      <c r="C61" s="347"/>
-      <c r="D61" s="347"/>
-    </row>
-    <row r="62" spans="2:20">
-      <c r="C62" s="347"/>
-      <c r="D62" s="347"/>
-    </row>
-    <row r="63" spans="2:20">
-      <c r="C63" s="347"/>
-      <c r="D63" s="347"/>
-    </row>
-    <row r="64" spans="2:20">
-      <c r="C64" s="347"/>
-      <c r="D64" s="347"/>
-    </row>
-    <row r="65" spans="3:4">
-      <c r="C65" s="347"/>
-      <c r="D65" s="347"/>
-    </row>
-    <row r="66" spans="3:4">
-      <c r="C66" s="347"/>
-      <c r="D66" s="347"/>
-    </row>
-    <row r="67" spans="3:4">
-      <c r="C67" s="347"/>
-      <c r="D67" s="347"/>
-    </row>
-    <row r="68" spans="3:4">
-      <c r="C68" s="347"/>
-      <c r="D68" s="347"/>
-    </row>
-    <row r="69" spans="3:4">
-      <c r="C69" s="347"/>
-      <c r="D69" s="347"/>
-    </row>
-    <row r="70" spans="3:4">
-      <c r="C70" s="347"/>
-      <c r="D70" s="347"/>
-    </row>
-    <row r="71" spans="3:4">
-      <c r="C71" s="347"/>
-      <c r="D71" s="347"/>
-    </row>
-    <row r="72" spans="3:4">
-      <c r="C72" s="347"/>
-      <c r="D72" s="347"/>
-    </row>
-    <row r="73" spans="3:4">
-      <c r="C73" s="347"/>
-      <c r="D73" s="347"/>
-    </row>
-    <row r="74" spans="3:4">
-      <c r="C74" s="347"/>
-      <c r="D74" s="347"/>
-    </row>
-    <row r="75" spans="3:4">
-      <c r="C75" s="347"/>
-      <c r="D75" s="347"/>
-    </row>
-    <row r="76" spans="3:4">
-      <c r="C76" s="347"/>
-      <c r="D76" s="347"/>
-    </row>
-    <row r="77" spans="3:4">
-      <c r="C77" s="347"/>
-      <c r="D77" s="347"/>
-    </row>
-    <row r="78" spans="3:4">
-      <c r="C78" s="347"/>
-      <c r="D78" s="347"/>
-    </row>
-    <row r="79" spans="3:4">
-      <c r="C79" s="347"/>
-      <c r="D79" s="347"/>
-    </row>
-    <row r="80" spans="3:4">
-      <c r="C80" s="347"/>
-      <c r="D80" s="347"/>
-    </row>
-    <row r="81" spans="3:4">
-      <c r="C81" s="347"/>
-      <c r="D81" s="347"/>
-    </row>
-    <row r="82" spans="3:4">
-      <c r="C82" s="347"/>
-      <c r="D82" s="347"/>
-    </row>
-    <row r="83" spans="3:4">
-      <c r="C83" s="347"/>
-      <c r="D83" s="347"/>
-    </row>
-    <row r="84" spans="3:4">
-      <c r="C84" s="347"/>
-      <c r="D84" s="347"/>
-    </row>
-    <row r="85" spans="3:4">
-      <c r="C85" s="347"/>
-      <c r="D85" s="347"/>
-    </row>
-    <row r="86" spans="3:4">
-      <c r="C86" s="347"/>
-      <c r="D86" s="347"/>
-    </row>
-    <row r="87" spans="3:4">
-      <c r="C87" s="347"/>
-      <c r="D87" s="347"/>
-    </row>
-    <row r="88" spans="3:4">
-      <c r="C88" s="347"/>
-      <c r="D88" s="347"/>
-    </row>
-    <row r="89" spans="3:4">
-      <c r="C89" s="347"/>
-      <c r="D89" s="347"/>
-    </row>
-    <row r="90" spans="3:4">
-      <c r="C90" s="347"/>
-      <c r="D90" s="347"/>
-    </row>
-    <row r="91" spans="3:4">
-      <c r="C91" s="347"/>
-      <c r="D91" s="347"/>
-    </row>
-    <row r="92" spans="3:4">
-      <c r="C92" s="347"/>
-      <c r="D92" s="347"/>
-    </row>
-    <row r="93" spans="3:4">
-      <c r="C93" s="347"/>
-      <c r="D93" s="347"/>
-    </row>
-    <row r="94" spans="3:4">
-      <c r="C94" s="347"/>
-      <c r="D94" s="347"/>
-    </row>
-    <row r="95" spans="3:4">
-      <c r="C95" s="347"/>
-      <c r="D95" s="347"/>
-    </row>
-    <row r="96" spans="3:4">
-      <c r="C96" s="347"/>
-      <c r="D96" s="347"/>
-    </row>
-    <row r="97" spans="3:4">
-      <c r="C97" s="347"/>
-      <c r="D97" s="347"/>
-    </row>
-    <row r="98" spans="3:4">
-      <c r="C98" s="347"/>
-      <c r="D98" s="347"/>
-    </row>
-    <row r="99" spans="3:4">
-      <c r="C99" s="347"/>
-      <c r="D99" s="347"/>
-    </row>
-    <row r="100" spans="3:4">
-      <c r="C100" s="347"/>
-      <c r="D100" s="347"/>
-    </row>
-    <row r="101" spans="3:4">
-      <c r="C101" s="347"/>
-      <c r="D101" s="347"/>
-    </row>
-    <row r="102" spans="3:4">
-      <c r="C102" s="347"/>
-      <c r="D102" s="347"/>
-    </row>
-    <row r="103" spans="3:4">
-      <c r="C103" s="347"/>
-      <c r="D103" s="347"/>
-    </row>
-    <row r="104" spans="3:4">
-      <c r="C104" s="347"/>
-      <c r="D104" s="347"/>
-    </row>
-    <row r="105" spans="3:4">
-      <c r="C105" s="347"/>
-      <c r="D105" s="347"/>
-    </row>
-    <row r="106" spans="3:4">
-      <c r="C106" s="347"/>
-      <c r="D106" s="347"/>
-    </row>
-    <row r="107" spans="3:4">
-      <c r="C107" s="347"/>
-      <c r="D107" s="347"/>
-    </row>
-    <row r="108" spans="3:4">
-      <c r="C108" s="347"/>
-      <c r="D108" s="347"/>
-    </row>
-    <row r="109" spans="3:4">
-      <c r="C109" s="347"/>
-      <c r="D109" s="347"/>
-    </row>
-    <row r="110" spans="3:4">
-      <c r="C110" s="347"/>
-      <c r="D110" s="347"/>
-    </row>
-    <row r="111" spans="3:4">
-      <c r="C111" s="347"/>
-      <c r="D111" s="347"/>
-    </row>
-    <row r="112" spans="3:4">
-      <c r="C112" s="347"/>
-      <c r="D112" s="347"/>
-    </row>
-    <row r="113" spans="3:4">
-      <c r="C113" s="347"/>
-      <c r="D113" s="347"/>
-    </row>
-    <row r="114" spans="3:4">
-      <c r="C114" s="347"/>
-      <c r="D114" s="347"/>
-    </row>
-    <row r="115" spans="3:4">
-      <c r="C115" s="347"/>
-      <c r="D115" s="347"/>
-    </row>
-    <row r="116" spans="3:4">
-      <c r="C116" s="347"/>
-      <c r="D116" s="347"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="P2:T54" xr:uid="{5071FD87-44AE-4789-9C3B-6156A4BF1897}"/>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D54 G3:G54 K3:L54 Q3:R54">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula xml:space="preserve"> CHAR(32)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/docs/鍵盤設計規格_台語方音V3.xlsx
+++ b/docs/鍵盤設計規格_台語方音V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0657B2-C93F-4C96-B263-74AD79BAEDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0622EC-0178-437B-963B-72F6B97E902A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="762" activeTab="3" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
+    <workbookView xWindow="-28815" yWindow="2955" windowWidth="28800" windowHeight="11295" tabRatio="762" activeTab="1" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
   </bookViews>
   <sheets>
     <sheet name="使用按鍵解析" sheetId="9" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="909">
   <si>
     <t>Speller:</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -3309,10 +3309,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t></t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>en</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3618,6 +3614,22 @@
   </si>
   <si>
     <t>ngh</t>
+  </si>
+  <si>
+    <t>ㆴ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆵ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆻ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆷ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5465,7 +5477,7 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="603">
+  <cellXfs count="601">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -7016,69 +7028,6 @@
     <xf numFmtId="0" fontId="141" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="7" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="73" fillId="16" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="73" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="73" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7103,22 +7052,16 @@
     <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="150" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="179" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="180" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="179" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="180" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="84" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="84" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="158" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
@@ -7134,22 +7077,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="117" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="117" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="117" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="117" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="73" fillId="16" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="73" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="73" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="7" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -15507,9 +15513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B49A970-BE57-43FE-A6CF-9D1B3551DB21}">
   <dimension ref="B1:Q82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
@@ -15551,7 +15557,7 @@
         <v>385</v>
       </c>
       <c r="G2" s="457" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H2" s="457" t="s">
         <v>744</v>
@@ -16438,7 +16444,7 @@
       </c>
       <c r="G30" s="431"/>
       <c r="H30" s="504" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I30" s="406" t="s">
         <v>522</v>
@@ -16618,7 +16624,7 @@
       </c>
       <c r="G36" s="431"/>
       <c r="H36" s="504" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I36" s="406" t="s">
         <v>268</v>
@@ -16648,7 +16654,7 @@
       </c>
       <c r="G37" s="431"/>
       <c r="H37" s="504" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I37" s="406" t="s">
         <v>265</v>
@@ -16678,7 +16684,7 @@
       </c>
       <c r="G38" s="431"/>
       <c r="H38" s="504" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I38" s="406" t="s">
         <v>207</v>
@@ -16704,11 +16710,11 @@
         <v>101</v>
       </c>
       <c r="F39" s="431" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G39" s="431"/>
       <c r="H39" s="504" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I39" s="406" t="s">
         <v>160</v>
@@ -16738,7 +16744,7 @@
       </c>
       <c r="G40" s="431"/>
       <c r="H40" s="504" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I40" s="406" t="s">
         <v>494</v>
@@ -16798,7 +16804,7 @@
       </c>
       <c r="G42" s="431"/>
       <c r="H42" s="504" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I42" s="406" t="s">
         <v>608</v>
@@ -16824,22 +16830,22 @@
         <v>805</v>
       </c>
       <c r="F43" s="431" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G43" s="431"/>
       <c r="H43" s="504" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I43" s="406" t="s">
         <v>619</v>
       </c>
       <c r="K43" s="436">
         <f xml:space="preserve"> _xlfn.UNICODE(注音編碼對照表[[#This Row],[注音符號]])</f>
-        <v>63732</v>
+        <v>12588</v>
       </c>
       <c r="L43" s="436" t="str">
         <f xml:space="preserve"> DEC2HEX(K43)</f>
-        <v>F8F4</v>
+        <v>312C</v>
       </c>
       <c r="M43" s="436"/>
       <c r="N43" s="436"/>
@@ -17049,7 +17055,7 @@
       </c>
       <c r="G50" s="432"/>
       <c r="H50" s="505" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I50" s="407" t="s">
         <v>629</v>
@@ -17088,7 +17094,7 @@
       </c>
       <c r="G51" s="432"/>
       <c r="H51" s="505" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I51" s="407" t="s">
         <v>630</v>
@@ -17127,7 +17133,7 @@
       </c>
       <c r="G52" s="432"/>
       <c r="H52" s="505" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I52" s="407" t="s">
         <v>631</v>
@@ -17166,7 +17172,7 @@
       </c>
       <c r="G53" s="432"/>
       <c r="H53" s="505" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I53" s="407" t="s">
         <v>632</v>
@@ -17315,7 +17321,7 @@
       </c>
       <c r="E60" s="519"/>
       <c r="F60" s="520" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G60" s="537" t="s">
         <v>777</v>
@@ -17324,7 +17330,7 @@
         <v>775</v>
       </c>
       <c r="I60" s="551" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="61" spans="2:13" ht="32.25">
@@ -17565,24 +17571,24 @@
         <v>689</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
-      <c r="F79" s="11" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9">
-      <c r="F80" s="11" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="81" spans="6:6">
-      <c r="F81" s="11" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6">
-      <c r="F82" s="11" t="s">
-        <v>683</v>
+    <row r="79" spans="2:9" ht="25.5">
+      <c r="F79" s="508" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="25.5">
+      <c r="F80" s="508" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" ht="25.5">
+      <c r="F81" s="508" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" ht="25.5">
+      <c r="F82" s="508" t="s">
+        <v>908</v>
       </c>
     </row>
   </sheetData>
@@ -17612,8 +17618,8 @@
   </sheetPr>
   <dimension ref="B1:DA99"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="BG11" sqref="BG11"/>
     </sheetView>
@@ -18384,211 +18390,211 @@
       <c r="AX8" s="47"/>
       <c r="AY8" s="426"/>
       <c r="BA8" s="2"/>
-      <c r="BB8" s="587" cm="1">
+      <c r="BB8" s="565" cm="1">
         <f t="array" ref="BB8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>0</v>
       </c>
-      <c r="BC8" s="587" cm="1">
+      <c r="BC8" s="565" cm="1">
         <f t="array" ref="BC8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>1</v>
       </c>
-      <c r="BD8" s="587" cm="1">
+      <c r="BD8" s="565" cm="1">
         <f t="array" ref="BD8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>2</v>
       </c>
-      <c r="BE8" s="587" cm="1">
+      <c r="BE8" s="565" cm="1">
         <f t="array" ref="BE8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>3</v>
       </c>
-      <c r="BF8" s="587" cm="1">
+      <c r="BF8" s="565" cm="1">
         <f t="array" ref="BF8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>4</v>
       </c>
-      <c r="BG8" s="587" cm="1">
+      <c r="BG8" s="565" cm="1">
         <f t="array" ref="BG8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>5</v>
       </c>
-      <c r="BH8" s="587" cm="1">
+      <c r="BH8" s="565" cm="1">
         <f t="array" ref="BH8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>6</v>
       </c>
-      <c r="BI8" s="587" cm="1">
+      <c r="BI8" s="565" cm="1">
         <f t="array" ref="BI8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>7</v>
       </c>
-      <c r="BJ8" s="587" cm="1">
+      <c r="BJ8" s="565" cm="1">
         <f t="array" ref="BJ8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>8</v>
       </c>
-      <c r="BK8" s="587" cm="1">
+      <c r="BK8" s="565" cm="1">
         <f t="array" ref="BK8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>9</v>
       </c>
-      <c r="BL8" s="587" cm="1">
+      <c r="BL8" s="565" cm="1">
         <f t="array" ref="BL8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>10</v>
       </c>
-      <c r="BM8" s="587" cm="1">
+      <c r="BM8" s="565" cm="1">
         <f t="array" ref="BM8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>11</v>
       </c>
-      <c r="BN8" s="587" cm="1">
+      <c r="BN8" s="565" cm="1">
         <f t="array" ref="BN8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>12</v>
       </c>
-      <c r="BO8" s="587" cm="1">
+      <c r="BO8" s="565" cm="1">
         <f t="array" ref="BO8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>13</v>
       </c>
-      <c r="BP8" s="587" cm="1">
+      <c r="BP8" s="565" cm="1">
         <f t="array" ref="BP8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>14</v>
       </c>
-      <c r="BQ8" s="587" cm="1">
+      <c r="BQ8" s="565" cm="1">
         <f t="array" ref="BQ8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>15</v>
       </c>
-      <c r="BR8" s="587" cm="1">
+      <c r="BR8" s="565" cm="1">
         <f t="array" ref="BR8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>16</v>
       </c>
-      <c r="BS8" s="587" cm="1">
+      <c r="BS8" s="565" cm="1">
         <f t="array" ref="BS8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>17</v>
       </c>
-      <c r="BT8" s="587" cm="1">
+      <c r="BT8" s="565" cm="1">
         <f t="array" ref="BT8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>18</v>
       </c>
-      <c r="BU8" s="587" cm="1">
+      <c r="BU8" s="565" cm="1">
         <f t="array" ref="BU8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>19</v>
       </c>
-      <c r="BV8" s="587" cm="1">
+      <c r="BV8" s="565" cm="1">
         <f t="array" ref="BV8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>20</v>
       </c>
-      <c r="BW8" s="587" cm="1">
+      <c r="BW8" s="565" cm="1">
         <f t="array" ref="BW8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>21</v>
       </c>
-      <c r="BX8" s="587" cm="1">
+      <c r="BX8" s="565" cm="1">
         <f t="array" ref="BX8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>22</v>
       </c>
-      <c r="BY8" s="587" cm="1">
+      <c r="BY8" s="565" cm="1">
         <f t="array" ref="BY8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>23</v>
       </c>
-      <c r="BZ8" s="587" cm="1">
+      <c r="BZ8" s="565" cm="1">
         <f t="array" ref="BZ8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>24</v>
       </c>
-      <c r="CA8" s="587" cm="1">
+      <c r="CA8" s="565" cm="1">
         <f t="array" ref="CA8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>25</v>
       </c>
-      <c r="CB8" s="587" cm="1">
+      <c r="CB8" s="565" cm="1">
         <f t="array" ref="CB8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>26</v>
       </c>
-      <c r="CC8" s="587" cm="1">
+      <c r="CC8" s="565" cm="1">
         <f t="array" ref="CC8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>27</v>
       </c>
-      <c r="CD8" s="587" cm="1">
+      <c r="CD8" s="565" cm="1">
         <f t="array" ref="CD8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>28</v>
       </c>
-      <c r="CE8" s="587" cm="1">
+      <c r="CE8" s="565" cm="1">
         <f t="array" ref="CE8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>29</v>
       </c>
-      <c r="CF8" s="587" cm="1">
+      <c r="CF8" s="565" cm="1">
         <f t="array" ref="CF8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>30</v>
       </c>
-      <c r="CG8" s="587" cm="1">
+      <c r="CG8" s="565" cm="1">
         <f t="array" ref="CG8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>31</v>
       </c>
-      <c r="CH8" s="587" cm="1">
+      <c r="CH8" s="565" cm="1">
         <f t="array" ref="CH8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>32</v>
       </c>
-      <c r="CI8" s="587" cm="1">
+      <c r="CI8" s="565" cm="1">
         <f t="array" ref="CI8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>33</v>
       </c>
-      <c r="CJ8" s="587" cm="1">
+      <c r="CJ8" s="565" cm="1">
         <f t="array" ref="CJ8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>34</v>
       </c>
-      <c r="CK8" s="587" cm="1">
+      <c r="CK8" s="565" cm="1">
         <f t="array" ref="CK8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>35</v>
       </c>
-      <c r="CL8" s="587" cm="1">
+      <c r="CL8" s="565" cm="1">
         <f t="array" ref="CL8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>36</v>
       </c>
-      <c r="CM8" s="587" cm="1">
+      <c r="CM8" s="565" cm="1">
         <f t="array" ref="CM8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>37</v>
       </c>
-      <c r="CN8" s="587" cm="1">
+      <c r="CN8" s="565" cm="1">
         <f t="array" ref="CN8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>38</v>
       </c>
-      <c r="CO8" s="587" cm="1">
+      <c r="CO8" s="565" cm="1">
         <f t="array" ref="CO8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>39</v>
       </c>
-      <c r="CP8" s="587" cm="1">
+      <c r="CP8" s="565" cm="1">
         <f t="array" ref="CP8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>40</v>
       </c>
-      <c r="CQ8" s="587" cm="1">
+      <c r="CQ8" s="565" cm="1">
         <f t="array" ref="CQ8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>41</v>
       </c>
-      <c r="CR8" s="587" cm="1">
+      <c r="CR8" s="565" cm="1">
         <f t="array" ref="CR8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>42</v>
       </c>
-      <c r="CS8" s="587" cm="1">
+      <c r="CS8" s="565" cm="1">
         <f t="array" ref="CS8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>43</v>
       </c>
-      <c r="CT8" s="587" cm="1">
+      <c r="CT8" s="565" cm="1">
         <f t="array" ref="CT8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>44</v>
       </c>
-      <c r="CU8" s="587" cm="1">
+      <c r="CU8" s="565" cm="1">
         <f t="array" ref="CU8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>45</v>
       </c>
-      <c r="CV8" s="587" cm="1">
+      <c r="CV8" s="565" cm="1">
         <f t="array" ref="CV8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>46</v>
       </c>
-      <c r="CW8" s="587" cm="1">
+      <c r="CW8" s="565" cm="1">
         <f t="array" ref="CW8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>47</v>
       </c>
-      <c r="CX8" s="587" cm="1">
+      <c r="CX8" s="565" cm="1">
         <f t="array" ref="CX8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>48</v>
       </c>
-      <c r="CY8" s="587" cm="1">
+      <c r="CY8" s="565" cm="1">
         <f t="array" ref="CY8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>49</v>
       </c>
-      <c r="CZ8" s="587" cm="1">
+      <c r="CZ8" s="565" cm="1">
         <f t="array" ref="CZ8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>50</v>
       </c>
-      <c r="DA8" s="587" cm="1">
+      <c r="DA8" s="565" cm="1">
         <f t="array" ref="DA8" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>51</v>
       </c>
@@ -18685,22 +18691,22 @@
         <f xml:space="preserve"> LEN(AK9)</f>
         <v>47</v>
       </c>
-      <c r="AK9" s="577" t="str">
+      <c r="AK9" s="556" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(AB$3:AB$49)</f>
         <v>pPbmtTnlzcjskKgwhiuaOoeyx@GRIUAQEYXVHWNMB123570</v>
       </c>
-      <c r="AL9" s="578"/>
-      <c r="AM9" s="578"/>
-      <c r="AN9" s="578"/>
-      <c r="AO9" s="578"/>
-      <c r="AP9" s="578"/>
-      <c r="AQ9" s="578"/>
-      <c r="AR9" s="578"/>
-      <c r="AS9" s="578"/>
-      <c r="AT9" s="578"/>
-      <c r="AU9" s="578"/>
-      <c r="AV9" s="578"/>
-      <c r="AW9" s="578"/>
+      <c r="AL9" s="557"/>
+      <c r="AM9" s="557"/>
+      <c r="AN9" s="557"/>
+      <c r="AO9" s="557"/>
+      <c r="AP9" s="557"/>
+      <c r="AQ9" s="557"/>
+      <c r="AR9" s="557"/>
+      <c r="AS9" s="557"/>
+      <c r="AT9" s="557"/>
+      <c r="AU9" s="557"/>
+      <c r="AV9" s="557"/>
+      <c r="AW9" s="557"/>
       <c r="AX9" s="38" t="s">
         <v>25</v>
       </c>
@@ -18712,208 +18718,208 @@
         <v>30</v>
       </c>
       <c r="BA9" s="2"/>
-      <c r="BB9" s="588"/>
-      <c r="BC9" s="589" t="str">
+      <c r="BB9" s="388"/>
+      <c r="BC9" s="566" t="str">
         <f xml:space="preserve"> MID($AK$9, BC$8, 1)</f>
         <v>p</v>
       </c>
-      <c r="BD9" s="589" t="str">
+      <c r="BD9" s="566" t="str">
         <f t="shared" ref="BD9:CX9" si="11" xml:space="preserve"> MID($AK$9, BD$8, 1)</f>
         <v>P</v>
       </c>
-      <c r="BE9" s="589" t="str">
+      <c r="BE9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>b</v>
       </c>
-      <c r="BF9" s="589" t="str">
+      <c r="BF9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>m</v>
       </c>
-      <c r="BG9" s="589" t="str">
+      <c r="BG9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>t</v>
       </c>
-      <c r="BH9" s="589" t="str">
+      <c r="BH9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>T</v>
       </c>
-      <c r="BI9" s="589" t="str">
+      <c r="BI9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>n</v>
       </c>
-      <c r="BJ9" s="589" t="str">
+      <c r="BJ9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>l</v>
       </c>
-      <c r="BK9" s="589" t="str">
+      <c r="BK9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>z</v>
       </c>
-      <c r="BL9" s="589" t="str">
+      <c r="BL9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>c</v>
       </c>
-      <c r="BM9" s="589" t="str">
+      <c r="BM9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>j</v>
       </c>
-      <c r="BN9" s="589" t="str">
+      <c r="BN9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>s</v>
       </c>
-      <c r="BO9" s="589" t="str">
+      <c r="BO9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>k</v>
       </c>
-      <c r="BP9" s="589" t="str">
+      <c r="BP9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>K</v>
       </c>
-      <c r="BQ9" s="589" t="str">
+      <c r="BQ9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>g</v>
       </c>
-      <c r="BR9" s="589" t="str">
+      <c r="BR9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>w</v>
       </c>
-      <c r="BS9" s="589" t="str">
+      <c r="BS9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>h</v>
       </c>
-      <c r="BT9" s="589" t="str">
+      <c r="BT9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>i</v>
       </c>
-      <c r="BU9" s="589" t="str">
+      <c r="BU9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>u</v>
       </c>
-      <c r="BV9" s="589" t="str">
+      <c r="BV9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>a</v>
       </c>
-      <c r="BW9" s="589" t="str">
+      <c r="BW9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>O</v>
       </c>
-      <c r="BX9" s="589" t="str">
+      <c r="BX9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>o</v>
       </c>
-      <c r="BY9" s="589" t="str">
+      <c r="BY9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>e</v>
       </c>
-      <c r="BZ9" s="589" t="str">
+      <c r="BZ9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>y</v>
       </c>
-      <c r="CA9" s="589" t="str">
+      <c r="CA9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="CB9" s="589" t="str">
+      <c r="CB9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>@</v>
       </c>
-      <c r="CC9" s="589" t="str">
+      <c r="CC9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>G</v>
       </c>
-      <c r="CD9" s="589" t="str">
+      <c r="CD9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>R</v>
       </c>
-      <c r="CE9" s="589" t="str">
+      <c r="CE9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>I</v>
       </c>
-      <c r="CF9" s="590" t="str">
+      <c r="CF9" s="567" t="str">
         <f t="shared" si="11"/>
         <v>U</v>
       </c>
-      <c r="CG9" s="589" t="str">
+      <c r="CG9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>A</v>
       </c>
-      <c r="CH9" s="589" t="str">
+      <c r="CH9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>Q</v>
       </c>
-      <c r="CI9" s="589" t="str">
+      <c r="CI9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>E</v>
       </c>
-      <c r="CJ9" s="589" t="str">
+      <c r="CJ9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="CK9" s="589" t="str">
+      <c r="CK9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="CL9" s="589" t="str">
+      <c r="CL9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>V</v>
       </c>
-      <c r="CM9" s="589" t="str">
+      <c r="CM9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>H</v>
       </c>
-      <c r="CN9" s="589" t="str">
+      <c r="CN9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>W</v>
       </c>
-      <c r="CO9" s="589" t="str">
+      <c r="CO9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>N</v>
       </c>
-      <c r="CP9" s="589" t="str">
+      <c r="CP9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>M</v>
       </c>
-      <c r="CQ9" s="590" t="str">
+      <c r="CQ9" s="567" t="str">
         <f t="shared" si="11"/>
         <v>B</v>
       </c>
-      <c r="CR9" s="589" t="str">
+      <c r="CR9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="CS9" s="589" t="str">
+      <c r="CS9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="CT9" s="589" t="str">
+      <c r="CT9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="CU9" s="589" t="str">
+      <c r="CU9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="CV9" s="589" t="str">
+      <c r="CV9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="CW9" s="589" t="str">
+      <c r="CW9" s="566" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="CX9" s="591" t="str">
+      <c r="CX9" s="568" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="CY9" s="591" t="str">
-        <f t="shared" ref="CH9:DA9" si="12" xml:space="preserve"> MID($AK$9, CY$13, 1)</f>
+      <c r="CY9" s="568" t="str">
+        <f t="shared" ref="CY9:DA9" si="12" xml:space="preserve"> MID($AK$9, CY$13, 1)</f>
         <v/>
       </c>
-      <c r="CZ9" s="591" t="str">
+      <c r="CZ9" s="568" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="DA9" s="591" t="str">
+      <c r="DA9" s="568" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -19013,233 +19019,233 @@
         <f xml:space="preserve"> LEN(AK10)</f>
         <v>47</v>
       </c>
-      <c r="AK10" s="577" t="str">
+      <c r="AK10" s="556" t="str">
         <f>_xlfn.CONCAT(AA3:AA49)</f>
         <v>1q!a2wsxyhbnedEgcuj8ik,9l0;-UJ*I&lt;(LMo/pm. 43657</v>
       </c>
-      <c r="AL10" s="578"/>
-      <c r="AM10" s="578"/>
-      <c r="AN10" s="578"/>
-      <c r="AO10" s="578"/>
-      <c r="AP10" s="578"/>
-      <c r="AQ10" s="578"/>
-      <c r="AR10" s="578"/>
-      <c r="AS10" s="578"/>
-      <c r="AT10" s="579" t="str">
+      <c r="AL10" s="557"/>
+      <c r="AM10" s="557"/>
+      <c r="AN10" s="557"/>
+      <c r="AO10" s="557"/>
+      <c r="AP10" s="557"/>
+      <c r="AQ10" s="557"/>
+      <c r="AR10" s="557"/>
+      <c r="AS10" s="557"/>
+      <c r="AT10" s="558" t="str">
         <f xml:space="preserve"> MID("/", AJ9, 1)</f>
         <v/>
       </c>
-      <c r="AU10" s="578"/>
-      <c r="AV10" s="578"/>
-      <c r="AW10" s="578"/>
+      <c r="AU10" s="557"/>
+      <c r="AV10" s="557"/>
+      <c r="AW10" s="557"/>
       <c r="AY10" s="49" t="str">
         <f xml:space="preserve"> MID(AK10, AZ9, 1)</f>
         <v>J</v>
       </c>
       <c r="AZ10" s="40"/>
       <c r="BA10" s="2"/>
-      <c r="BB10" s="588"/>
-      <c r="BC10" s="589" t="str">
+      <c r="BB10" s="388"/>
+      <c r="BC10" s="566" t="str">
         <f xml:space="preserve"> MID($AK$10, BC$8, 1)</f>
         <v>1</v>
       </c>
-      <c r="BD10" s="589" t="str">
+      <c r="BD10" s="566" t="str">
         <f t="shared" ref="BD10:CX10" si="13" xml:space="preserve"> MID($AK$10, BD$8, 1)</f>
         <v>q</v>
       </c>
-      <c r="BE10" s="589" t="str">
+      <c r="BE10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>!</v>
       </c>
-      <c r="BF10" s="589" t="str">
+      <c r="BF10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>a</v>
       </c>
-      <c r="BG10" s="589" t="str">
+      <c r="BG10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="BH10" s="589" t="str">
+      <c r="BH10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>w</v>
       </c>
-      <c r="BI10" s="589" t="str">
+      <c r="BI10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>s</v>
       </c>
-      <c r="BJ10" s="589" t="str">
+      <c r="BJ10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>x</v>
       </c>
-      <c r="BK10" s="589" t="str">
+      <c r="BK10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>y</v>
       </c>
-      <c r="BL10" s="589" t="str">
+      <c r="BL10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>h</v>
       </c>
-      <c r="BM10" s="589" t="str">
+      <c r="BM10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>b</v>
       </c>
-      <c r="BN10" s="589" t="str">
+      <c r="BN10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>n</v>
       </c>
-      <c r="BO10" s="589" t="str">
+      <c r="BO10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>e</v>
       </c>
-      <c r="BP10" s="589" t="str">
+      <c r="BP10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>d</v>
       </c>
-      <c r="BQ10" s="589" t="str">
+      <c r="BQ10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>E</v>
       </c>
-      <c r="BR10" s="589" t="str">
+      <c r="BR10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>g</v>
       </c>
-      <c r="BS10" s="589" t="str">
+      <c r="BS10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>c</v>
       </c>
-      <c r="BT10" s="589" t="str">
+      <c r="BT10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>u</v>
       </c>
-      <c r="BU10" s="589" t="str">
+      <c r="BU10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>j</v>
       </c>
-      <c r="BV10" s="589" t="str">
+      <c r="BV10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="BW10" s="589" t="str">
+      <c r="BW10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>i</v>
       </c>
-      <c r="BX10" s="589" t="str">
+      <c r="BX10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>k</v>
       </c>
-      <c r="BY10" s="589" t="str">
+      <c r="BY10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>,</v>
       </c>
-      <c r="BZ10" s="589" t="str">
+      <c r="BZ10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="CA10" s="589" t="str">
+      <c r="CA10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>l</v>
       </c>
-      <c r="CB10" s="589" t="str">
+      <c r="CB10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="CC10" s="589" t="str">
+      <c r="CC10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>;</v>
       </c>
-      <c r="CD10" s="589" t="str">
+      <c r="CD10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
-      <c r="CE10" s="589" t="str">
+      <c r="CE10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>U</v>
       </c>
-      <c r="CF10" s="590" t="str">
+      <c r="CF10" s="567" t="str">
         <f t="shared" si="13"/>
         <v>J</v>
       </c>
-      <c r="CG10" s="589" t="str">
+      <c r="CG10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>*</v>
       </c>
-      <c r="CH10" s="589" t="str">
+      <c r="CH10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>I</v>
       </c>
-      <c r="CI10" s="589" t="str">
+      <c r="CI10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>&lt;</v>
       </c>
-      <c r="CJ10" s="589" t="str">
+      <c r="CJ10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>(</v>
       </c>
-      <c r="CK10" s="589" t="str">
+      <c r="CK10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>L</v>
       </c>
-      <c r="CL10" s="589" t="str">
+      <c r="CL10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>M</v>
       </c>
-      <c r="CM10" s="589" t="str">
+      <c r="CM10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>o</v>
       </c>
-      <c r="CN10" s="589" t="str">
+      <c r="CN10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>/</v>
       </c>
-      <c r="CO10" s="589" t="str">
+      <c r="CO10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>p</v>
       </c>
-      <c r="CP10" s="589" t="str">
+      <c r="CP10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>m</v>
       </c>
-      <c r="CQ10" s="590" t="str">
+      <c r="CQ10" s="567" t="str">
         <f t="shared" si="13"/>
         <v>.</v>
       </c>
-      <c r="CR10" s="589" t="str">
+      <c r="CR10" s="566" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CS10" s="589" t="str">
+      <c r="CS10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="CT10" s="589" t="str">
+      <c r="CT10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="CU10" s="589" t="str">
+      <c r="CU10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="CV10" s="589" t="str">
+      <c r="CV10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="CW10" s="589" t="str">
+      <c r="CW10" s="566" t="str">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="CX10" s="591" t="str">
+      <c r="CX10" s="568" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="CY10" s="591" t="str">
-        <f t="shared" ref="CH10:DA10" si="14" xml:space="preserve"> MID($AK$10, CY$13, 1)</f>
+      <c r="CY10" s="568" t="str">
+        <f t="shared" ref="CY10:DA10" si="14" xml:space="preserve"> MID($AK$10, CY$13, 1)</f>
         <v/>
       </c>
-      <c r="CZ10" s="591" t="str">
+      <c r="CZ10" s="568" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="DA10" s="591" t="str">
+      <c r="DA10" s="568" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
@@ -19550,211 +19556,211 @@
       <c r="AX13" s="47"/>
       <c r="AY13" s="426"/>
       <c r="BA13" s="2"/>
-      <c r="BB13" s="587" cm="1">
+      <c r="BB13" s="565" cm="1">
         <f t="array" ref="BB13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>0</v>
       </c>
-      <c r="BC13" s="587" cm="1">
+      <c r="BC13" s="565" cm="1">
         <f t="array" ref="BC13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>1</v>
       </c>
-      <c r="BD13" s="587" cm="1">
+      <c r="BD13" s="565" cm="1">
         <f t="array" ref="BD13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>2</v>
       </c>
-      <c r="BE13" s="587" cm="1">
+      <c r="BE13" s="565" cm="1">
         <f t="array" ref="BE13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>3</v>
       </c>
-      <c r="BF13" s="587" cm="1">
+      <c r="BF13" s="565" cm="1">
         <f t="array" ref="BF13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>4</v>
       </c>
-      <c r="BG13" s="587" cm="1">
+      <c r="BG13" s="565" cm="1">
         <f t="array" ref="BG13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>5</v>
       </c>
-      <c r="BH13" s="587" cm="1">
+      <c r="BH13" s="565" cm="1">
         <f t="array" ref="BH13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>6</v>
       </c>
-      <c r="BI13" s="587" cm="1">
+      <c r="BI13" s="565" cm="1">
         <f t="array" ref="BI13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>7</v>
       </c>
-      <c r="BJ13" s="587" cm="1">
+      <c r="BJ13" s="565" cm="1">
         <f t="array" ref="BJ13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>8</v>
       </c>
-      <c r="BK13" s="587" cm="1">
+      <c r="BK13" s="565" cm="1">
         <f t="array" ref="BK13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>9</v>
       </c>
-      <c r="BL13" s="587" cm="1">
+      <c r="BL13" s="565" cm="1">
         <f t="array" ref="BL13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>10</v>
       </c>
-      <c r="BM13" s="587" cm="1">
+      <c r="BM13" s="565" cm="1">
         <f t="array" ref="BM13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>11</v>
       </c>
-      <c r="BN13" s="587" cm="1">
+      <c r="BN13" s="565" cm="1">
         <f t="array" ref="BN13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>12</v>
       </c>
-      <c r="BO13" s="587" cm="1">
+      <c r="BO13" s="565" cm="1">
         <f t="array" ref="BO13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>13</v>
       </c>
-      <c r="BP13" s="587" cm="1">
+      <c r="BP13" s="565" cm="1">
         <f t="array" ref="BP13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>14</v>
       </c>
-      <c r="BQ13" s="587" cm="1">
+      <c r="BQ13" s="565" cm="1">
         <f t="array" ref="BQ13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>15</v>
       </c>
-      <c r="BR13" s="587" cm="1">
+      <c r="BR13" s="565" cm="1">
         <f t="array" ref="BR13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>16</v>
       </c>
-      <c r="BS13" s="587" cm="1">
+      <c r="BS13" s="565" cm="1">
         <f t="array" ref="BS13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>17</v>
       </c>
-      <c r="BT13" s="587" cm="1">
+      <c r="BT13" s="565" cm="1">
         <f t="array" ref="BT13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>18</v>
       </c>
-      <c r="BU13" s="587" cm="1">
+      <c r="BU13" s="565" cm="1">
         <f t="array" ref="BU13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>19</v>
       </c>
-      <c r="BV13" s="587" cm="1">
+      <c r="BV13" s="565" cm="1">
         <f t="array" ref="BV13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>20</v>
       </c>
-      <c r="BW13" s="587" cm="1">
+      <c r="BW13" s="565" cm="1">
         <f t="array" ref="BW13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>21</v>
       </c>
-      <c r="BX13" s="587" cm="1">
+      <c r="BX13" s="565" cm="1">
         <f t="array" ref="BX13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>22</v>
       </c>
-      <c r="BY13" s="587" cm="1">
+      <c r="BY13" s="565" cm="1">
         <f t="array" ref="BY13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>23</v>
       </c>
-      <c r="BZ13" s="587" cm="1">
+      <c r="BZ13" s="565" cm="1">
         <f t="array" ref="BZ13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>24</v>
       </c>
-      <c r="CA13" s="587" cm="1">
+      <c r="CA13" s="565" cm="1">
         <f t="array" ref="CA13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>25</v>
       </c>
-      <c r="CB13" s="587" cm="1">
+      <c r="CB13" s="565" cm="1">
         <f t="array" ref="CB13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>26</v>
       </c>
-      <c r="CC13" s="587" cm="1">
+      <c r="CC13" s="565" cm="1">
         <f t="array" ref="CC13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>27</v>
       </c>
-      <c r="CD13" s="587" cm="1">
+      <c r="CD13" s="565" cm="1">
         <f t="array" ref="CD13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>28</v>
       </c>
-      <c r="CE13" s="587" cm="1">
+      <c r="CE13" s="565" cm="1">
         <f t="array" ref="CE13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>29</v>
       </c>
-      <c r="CF13" s="587" cm="1">
+      <c r="CF13" s="565" cm="1">
         <f t="array" ref="CF13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>30</v>
       </c>
-      <c r="CG13" s="587" cm="1">
+      <c r="CG13" s="565" cm="1">
         <f t="array" ref="CG13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>31</v>
       </c>
-      <c r="CH13" s="587" cm="1">
+      <c r="CH13" s="565" cm="1">
         <f t="array" ref="CH13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>32</v>
       </c>
-      <c r="CI13" s="587" cm="1">
+      <c r="CI13" s="565" cm="1">
         <f t="array" ref="CI13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>33</v>
       </c>
-      <c r="CJ13" s="587" cm="1">
+      <c r="CJ13" s="565" cm="1">
         <f t="array" ref="CJ13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>34</v>
       </c>
-      <c r="CK13" s="587" cm="1">
+      <c r="CK13" s="565" cm="1">
         <f t="array" ref="CK13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>35</v>
       </c>
-      <c r="CL13" s="587" cm="1">
+      <c r="CL13" s="565" cm="1">
         <f t="array" ref="CL13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>36</v>
       </c>
-      <c r="CM13" s="587" cm="1">
+      <c r="CM13" s="565" cm="1">
         <f t="array" ref="CM13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>37</v>
       </c>
-      <c r="CN13" s="587" cm="1">
+      <c r="CN13" s="565" cm="1">
         <f t="array" ref="CN13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>38</v>
       </c>
-      <c r="CO13" s="587" cm="1">
+      <c r="CO13" s="565" cm="1">
         <f t="array" ref="CO13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>39</v>
       </c>
-      <c r="CP13" s="587" cm="1">
+      <c r="CP13" s="565" cm="1">
         <f t="array" ref="CP13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>40</v>
       </c>
-      <c r="CQ13" s="587" cm="1">
+      <c r="CQ13" s="565" cm="1">
         <f t="array" ref="CQ13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>41</v>
       </c>
-      <c r="CR13" s="587" cm="1">
+      <c r="CR13" s="565" cm="1">
         <f t="array" ref="CR13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>42</v>
       </c>
-      <c r="CS13" s="587" cm="1">
+      <c r="CS13" s="565" cm="1">
         <f t="array" ref="CS13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>43</v>
       </c>
-      <c r="CT13" s="587" cm="1">
+      <c r="CT13" s="565" cm="1">
         <f t="array" ref="CT13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>44</v>
       </c>
-      <c r="CU13" s="587" cm="1">
+      <c r="CU13" s="565" cm="1">
         <f t="array" ref="CU13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>45</v>
       </c>
-      <c r="CV13" s="587" cm="1">
+      <c r="CV13" s="565" cm="1">
         <f t="array" ref="CV13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>46</v>
       </c>
-      <c r="CW13" s="587" cm="1">
+      <c r="CW13" s="565" cm="1">
         <f t="array" ref="CW13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>47</v>
       </c>
-      <c r="CX13" s="587" cm="1">
+      <c r="CX13" s="565" cm="1">
         <f t="array" ref="CX13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>48</v>
       </c>
-      <c r="CY13" s="587" cm="1">
+      <c r="CY13" s="565" cm="1">
         <f t="array" ref="CY13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>49</v>
       </c>
-      <c r="CZ13" s="587" cm="1">
+      <c r="CZ13" s="565" cm="1">
         <f t="array" ref="CZ13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>50</v>
       </c>
-      <c r="DA13" s="587" cm="1">
+      <c r="DA13" s="565" cm="1">
         <f t="array" ref="DA13" xml:space="preserve"> COLUMN() - COLUMN($BB:$BB)</f>
         <v>51</v>
       </c>
@@ -19855,7 +19861,7 @@
         <f xml:space="preserve"> LEN(AK14)</f>
         <v>47</v>
       </c>
-      <c r="AK14" s="577" t="str">
+      <c r="AK14" s="556" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT($AA3:$AA$49)</f>
         <v>1q!a2wsxyhbnedEgcuj8ik,9l0;-UJ*I&lt;(LMo/pm. 43657</v>
       </c>
@@ -19872,191 +19878,191 @@
       </c>
       <c r="BA14" s="2"/>
       <c r="BB14" s="414"/>
-      <c r="BC14" s="586" t="str">
-        <f t="shared" ref="BB14:CG14" si="15" xml:space="preserve"> MID($AK$14, BC$13, 1)</f>
+      <c r="BC14" s="561" t="str">
+        <f t="shared" ref="BC14:CG14" si="15" xml:space="preserve"> MID($AK$14, BC$13, 1)</f>
         <v>1</v>
       </c>
-      <c r="BD14" s="581" t="str">
+      <c r="BD14" s="560" t="str">
         <f t="shared" si="15"/>
         <v>q</v>
       </c>
-      <c r="BE14" s="582" t="str">
+      <c r="BE14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>!</v>
       </c>
-      <c r="BF14" s="582" t="str">
+      <c r="BF14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>a</v>
       </c>
-      <c r="BG14" s="582" t="str">
+      <c r="BG14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="BH14" s="582" t="str">
+      <c r="BH14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>w</v>
       </c>
-      <c r="BI14" s="582" t="str">
+      <c r="BI14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>s</v>
       </c>
-      <c r="BJ14" s="582" t="str">
+      <c r="BJ14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>x</v>
       </c>
-      <c r="BK14" s="582" t="str">
+      <c r="BK14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>y</v>
       </c>
-      <c r="BL14" s="582" t="str">
+      <c r="BL14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>h</v>
       </c>
-      <c r="BM14" s="582" t="str">
+      <c r="BM14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>b</v>
       </c>
-      <c r="BN14" s="582" t="str">
+      <c r="BN14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>n</v>
       </c>
-      <c r="BO14" s="582" t="str">
+      <c r="BO14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>e</v>
       </c>
-      <c r="BP14" s="582" t="str">
+      <c r="BP14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>d</v>
       </c>
-      <c r="BQ14" s="582" t="str">
+      <c r="BQ14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>E</v>
       </c>
-      <c r="BR14" s="582" t="str">
+      <c r="BR14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>g</v>
       </c>
-      <c r="BS14" s="582" t="str">
+      <c r="BS14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>c</v>
       </c>
-      <c r="BT14" s="582" t="str">
+      <c r="BT14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>u</v>
       </c>
-      <c r="BU14" s="582" t="str">
+      <c r="BU14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>j</v>
       </c>
-      <c r="BV14" s="582" t="str">
+      <c r="BV14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="BW14" s="582" t="str">
+      <c r="BW14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>i</v>
       </c>
-      <c r="BX14" s="582" t="str">
+      <c r="BX14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>k</v>
       </c>
-      <c r="BY14" s="582" t="str">
+      <c r="BY14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>,</v>
       </c>
-      <c r="BZ14" s="582" t="str">
+      <c r="BZ14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>9</v>
       </c>
-      <c r="CA14" s="582" t="str">
+      <c r="CA14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>l</v>
       </c>
-      <c r="CB14" s="582" t="str">
+      <c r="CB14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="CC14" s="582" t="str">
+      <c r="CC14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>;</v>
       </c>
-      <c r="CD14" s="582" t="str">
+      <c r="CD14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="CE14" s="585" t="str">
+      <c r="CE14" s="564" t="str">
         <f t="shared" si="15"/>
         <v>U</v>
       </c>
-      <c r="CF14" s="584" t="str">
+      <c r="CF14" s="563" t="str">
         <f t="shared" si="15"/>
         <v>J</v>
       </c>
-      <c r="CG14" s="582" t="str">
+      <c r="CG14" s="561" t="str">
         <f t="shared" si="15"/>
         <v>*</v>
       </c>
-      <c r="CH14" s="582" t="str">
+      <c r="CH14" s="561" t="str">
         <f t="shared" ref="CH14:DA14" si="16" xml:space="preserve"> MID($AK$14, CH$13, 1)</f>
         <v>I</v>
       </c>
-      <c r="CI14" s="582" t="str">
+      <c r="CI14" s="561" t="str">
         <f t="shared" si="16"/>
         <v>&lt;</v>
       </c>
-      <c r="CJ14" s="582" t="str">
+      <c r="CJ14" s="561" t="str">
         <f t="shared" si="16"/>
         <v>(</v>
       </c>
-      <c r="CK14" s="582" t="str">
+      <c r="CK14" s="561" t="str">
         <f t="shared" si="16"/>
         <v>L</v>
       </c>
-      <c r="CL14" s="582" t="str">
+      <c r="CL14" s="561" t="str">
         <f t="shared" si="16"/>
         <v>M</v>
       </c>
-      <c r="CM14" s="582" t="str">
+      <c r="CM14" s="561" t="str">
         <f t="shared" si="16"/>
         <v>o</v>
       </c>
-      <c r="CN14" s="582" t="str">
+      <c r="CN14" s="561" t="str">
         <f t="shared" si="16"/>
         <v>/</v>
       </c>
-      <c r="CO14" s="582" t="str">
+      <c r="CO14" s="561" t="str">
         <f t="shared" si="16"/>
         <v>p</v>
       </c>
-      <c r="CP14" s="583" t="str">
+      <c r="CP14" s="562" t="str">
         <f t="shared" si="16"/>
         <v>m</v>
       </c>
-      <c r="CQ14" s="583" t="str">
+      <c r="CQ14" s="562" t="str">
         <f t="shared" si="16"/>
         <v>.</v>
       </c>
-      <c r="CR14" s="583" t="str">
+      <c r="CR14" s="562" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CS14" s="583" t="str">
+      <c r="CS14" s="562" t="str">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="CT14" s="583" t="str">
+      <c r="CT14" s="562" t="str">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="CU14" s="583" t="str">
+      <c r="CU14" s="562" t="str">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="CV14" s="582" t="str">
+      <c r="CV14" s="561" t="str">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="CW14" s="582" t="str">
+      <c r="CW14" s="561" t="str">
         <f t="shared" si="16"/>
         <v>7</v>
       </c>
@@ -20177,7 +20183,7 @@
         <f xml:space="preserve"> LEN(AK15)</f>
         <v>47</v>
       </c>
-      <c r="AK15" s="580" t="str">
+      <c r="AK15" s="559" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT($AC3:$AC$49)</f>
         <v>ㄅㄆㆠㄇㄉㄊㄋㄌㄗㄘㆡㄙㄍㄎㆣㄫㄏㄧㄨㄚㆦㄜㆤㄞㄠㄢㄤㆨㆪㆫㆩㆧㆥㆮㆯㆰㆲㆭㄣㆬㄬˉˋ˪ˊ˫˙</v>
       </c>
@@ -20188,191 +20194,191 @@
       <c r="AZ15" s="40"/>
       <c r="BA15" s="2"/>
       <c r="BB15" s="414"/>
-      <c r="BC15" s="586" t="str">
-        <f t="shared" ref="BB15:CG15" si="17" xml:space="preserve"> MID($AK$15, BC$13, 1)</f>
+      <c r="BC15" s="561" t="str">
+        <f t="shared" ref="BC15:CG15" si="17" xml:space="preserve"> MID($AK$15, BC$13, 1)</f>
         <v>ㄅ</v>
       </c>
-      <c r="BD15" s="586" t="str">
+      <c r="BD15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄆ</v>
       </c>
-      <c r="BE15" s="582" t="str">
+      <c r="BE15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㆠ</v>
       </c>
-      <c r="BF15" s="582" t="str">
+      <c r="BF15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄇ</v>
       </c>
-      <c r="BG15" s="582" t="str">
+      <c r="BG15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄉ</v>
       </c>
-      <c r="BH15" s="582" t="str">
+      <c r="BH15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄊ</v>
       </c>
-      <c r="BI15" s="582" t="str">
+      <c r="BI15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄋ</v>
       </c>
-      <c r="BJ15" s="582" t="str">
+      <c r="BJ15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄌ</v>
       </c>
-      <c r="BK15" s="582" t="str">
+      <c r="BK15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄗ</v>
       </c>
-      <c r="BL15" s="582" t="str">
+      <c r="BL15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄘ</v>
       </c>
-      <c r="BM15" s="582" t="str">
+      <c r="BM15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㆡ</v>
       </c>
-      <c r="BN15" s="582" t="str">
+      <c r="BN15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄙ</v>
       </c>
-      <c r="BO15" s="582" t="str">
+      <c r="BO15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄍ</v>
       </c>
-      <c r="BP15" s="582" t="str">
+      <c r="BP15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄎ</v>
       </c>
-      <c r="BQ15" s="582" t="str">
+      <c r="BQ15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㆣ</v>
       </c>
-      <c r="BR15" s="582" t="str">
+      <c r="BR15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄫ</v>
       </c>
-      <c r="BS15" s="582" t="str">
+      <c r="BS15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄏ</v>
       </c>
-      <c r="BT15" s="582" t="str">
+      <c r="BT15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄧ</v>
       </c>
-      <c r="BU15" s="582" t="str">
+      <c r="BU15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄨ</v>
       </c>
-      <c r="BV15" s="582" t="str">
+      <c r="BV15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄚ</v>
       </c>
-      <c r="BW15" s="582" t="str">
+      <c r="BW15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㆦ</v>
       </c>
-      <c r="BX15" s="582" t="str">
+      <c r="BX15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄜ</v>
       </c>
-      <c r="BY15" s="582" t="str">
+      <c r="BY15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㆤ</v>
       </c>
-      <c r="BZ15" s="582" t="str">
+      <c r="BZ15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄞ</v>
       </c>
-      <c r="CA15" s="582" t="str">
+      <c r="CA15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄠ</v>
       </c>
-      <c r="CB15" s="582" t="str">
+      <c r="CB15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄢ</v>
       </c>
-      <c r="CC15" s="582" t="str">
+      <c r="CC15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㄤ</v>
       </c>
-      <c r="CD15" s="582" t="str">
+      <c r="CD15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㆨ</v>
       </c>
-      <c r="CE15" s="585" t="str">
+      <c r="CE15" s="564" t="str">
         <f t="shared" si="17"/>
         <v>ㆪ</v>
       </c>
-      <c r="CF15" s="584" t="str">
+      <c r="CF15" s="563" t="str">
         <f t="shared" si="17"/>
         <v>ㆫ</v>
       </c>
-      <c r="CG15" s="582" t="str">
+      <c r="CG15" s="561" t="str">
         <f t="shared" si="17"/>
         <v>ㆩ</v>
       </c>
-      <c r="CH15" s="582" t="str">
+      <c r="CH15" s="561" t="str">
         <f t="shared" ref="CH15:DA15" si="18" xml:space="preserve"> MID($AK$15, CH$13, 1)</f>
         <v>ㆧ</v>
       </c>
-      <c r="CI15" s="582" t="str">
+      <c r="CI15" s="561" t="str">
         <f t="shared" si="18"/>
         <v>ㆥ</v>
       </c>
-      <c r="CJ15" s="582" t="str">
+      <c r="CJ15" s="561" t="str">
         <f t="shared" si="18"/>
         <v>ㆮ</v>
       </c>
-      <c r="CK15" s="582" t="str">
+      <c r="CK15" s="561" t="str">
         <f t="shared" si="18"/>
         <v>ㆯ</v>
       </c>
-      <c r="CL15" s="582" t="str">
+      <c r="CL15" s="561" t="str">
         <f t="shared" si="18"/>
         <v>ㆰ</v>
       </c>
-      <c r="CM15" s="582" t="str">
+      <c r="CM15" s="561" t="str">
         <f t="shared" si="18"/>
         <v>ㆲ</v>
       </c>
-      <c r="CN15" s="582" t="str">
+      <c r="CN15" s="561" t="str">
         <f t="shared" si="18"/>
         <v>ㆭ</v>
       </c>
-      <c r="CO15" s="582" t="str">
+      <c r="CO15" s="561" t="str">
         <f t="shared" si="18"/>
         <v>ㄣ</v>
       </c>
-      <c r="CP15" s="583" t="str">
+      <c r="CP15" s="562" t="str">
         <f t="shared" si="18"/>
         <v>ㆬ</v>
       </c>
-      <c r="CQ15" s="583" t="str">
+      <c r="CQ15" s="562" t="str">
         <f t="shared" si="18"/>
         <v>ㄬ</v>
       </c>
-      <c r="CR15" s="583" t="str">
+      <c r="CR15" s="562" t="str">
         <f t="shared" si="18"/>
         <v>ˉ</v>
       </c>
-      <c r="CS15" s="583" t="str">
+      <c r="CS15" s="562" t="str">
         <f t="shared" si="18"/>
         <v>ˋ</v>
       </c>
-      <c r="CT15" s="583" t="str">
+      <c r="CT15" s="562" t="str">
         <f t="shared" si="18"/>
         <v>˪</v>
       </c>
-      <c r="CU15" s="583" t="str">
+      <c r="CU15" s="562" t="str">
         <f t="shared" si="18"/>
         <v>ˊ</v>
       </c>
-      <c r="CV15" s="582" t="str">
+      <c r="CV15" s="561" t="str">
         <f t="shared" si="18"/>
         <v>˫</v>
       </c>
-      <c r="CW15" s="582" t="str">
+      <c r="CW15" s="561" t="str">
         <f t="shared" si="18"/>
         <v>˙</v>
       </c>
@@ -22019,7 +22025,7 @@
       </c>
       <c r="W32" s="389" t="str" cm="1">
         <f t="array" ref="W32" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表[注音編碼]), 0))</f>
-        <v></v>
+        <v>ㄬ</v>
       </c>
       <c r="X32" s="391" t="str" cm="1">
         <f t="array" ref="X32" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
@@ -23077,7 +23083,7 @@
       </c>
       <c r="AD43" s="515" t="str" cm="1">
         <f t="array" ref="AD43" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(RIME設定解析!$AA43, 注音編碼對照表[鍵盤按鍵] ),0))</f>
-        <v></v>
+        <v>ㄬ</v>
       </c>
       <c r="AE43" s="461" t="str" cm="1">
         <f t="array" ref="AE43" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA43, 注音編碼對照表[鍵盤按鍵] ),0))</f>
@@ -23180,7 +23186,7 @@
       <c r="AF44" s="391"/>
       <c r="AG44" s="391" t="str">
         <f t="shared" si="26"/>
-        <v>"." : </v>
+        <v>"." : ㄬ</v>
       </c>
       <c r="AH44" s="2"/>
       <c r="AI44" s="397" t="s">
@@ -25147,671 +25153,671 @@
   </sheetPr>
   <dimension ref="B4:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
   <sheetData>
     <row r="4" spans="2:12">
-      <c r="B4" s="597" t="s">
+      <c r="B4" s="576" t="s">
         <v>729</v>
       </c>
-      <c r="C4" s="597" t="s">
+      <c r="C4" s="576" t="s">
         <v>732</v>
       </c>
-      <c r="D4" s="597"/>
-      <c r="E4" s="593" t="s">
+      <c r="D4" s="576"/>
+      <c r="E4" s="570" t="s">
+        <v>824</v>
+      </c>
+      <c r="F4" s="571"/>
+      <c r="G4" s="572"/>
+      <c r="H4" s="577" t="s">
         <v>825</v>
       </c>
-      <c r="F4" s="594"/>
-      <c r="G4" s="595"/>
-      <c r="H4" s="598" t="s">
+      <c r="I4" s="579"/>
+      <c r="J4" s="579"/>
+      <c r="K4" s="579"/>
+      <c r="L4" s="578"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="576"/>
+      <c r="C5" s="576"/>
+      <c r="D5" s="576"/>
+      <c r="E5" s="573" t="s">
+        <v>398</v>
+      </c>
+      <c r="F5" s="573" t="s">
+        <v>411</v>
+      </c>
+      <c r="G5" s="573" t="s">
+        <v>440</v>
+      </c>
+      <c r="H5" s="574" t="s">
         <v>826</v>
       </c>
-      <c r="I4" s="599"/>
-      <c r="J4" s="599"/>
-      <c r="K4" s="599"/>
-      <c r="L4" s="600"/>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="597"/>
-      <c r="C5" s="597"/>
-      <c r="D5" s="597"/>
-      <c r="E5" s="596" t="s">
+      <c r="I5" s="574" t="s">
+        <v>827</v>
+      </c>
+      <c r="J5" s="574" t="s">
+        <v>828</v>
+      </c>
+      <c r="K5" s="577" t="s">
+        <v>829</v>
+      </c>
+      <c r="L5" s="578"/>
+    </row>
+    <row r="6" spans="2:12" ht="22.5">
+      <c r="B6" s="569" t="s">
+        <v>471</v>
+      </c>
+      <c r="C6" s="569" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="569" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="569" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="569" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="569" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="575" t="s">
+        <v>333</v>
+      </c>
+      <c r="I6" s="575" t="s">
+        <v>323</v>
+      </c>
+      <c r="J6" s="575" t="s">
+        <v>830</v>
+      </c>
+      <c r="K6" s="575" t="s">
+        <v>355</v>
+      </c>
+      <c r="L6" s="575" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="22.5">
+      <c r="B7" s="569" t="s">
+        <v>832</v>
+      </c>
+      <c r="C7" s="569" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" s="569" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="569"/>
+      <c r="F7" s="569"/>
+      <c r="G7" s="569"/>
+      <c r="H7" s="575"/>
+      <c r="I7" s="575"/>
+      <c r="J7" s="575"/>
+      <c r="K7" s="575" t="s">
+        <v>833</v>
+      </c>
+      <c r="L7" s="575" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="22.5">
+      <c r="B8" s="569" t="s">
+        <v>835</v>
+      </c>
+      <c r="C8" s="569" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="569"/>
+      <c r="E8" s="569"/>
+      <c r="F8" s="569"/>
+      <c r="G8" s="569"/>
+      <c r="H8" s="575"/>
+      <c r="I8" s="575"/>
+      <c r="J8" s="575"/>
+      <c r="K8" s="575" t="s">
+        <v>836</v>
+      </c>
+      <c r="L8" s="575" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="22.5">
+      <c r="B9" s="569" t="s">
+        <v>838</v>
+      </c>
+      <c r="C9" s="569" t="s">
+        <v>839</v>
+      </c>
+      <c r="D9" s="569"/>
+      <c r="E9" s="569"/>
+      <c r="F9" s="569"/>
+      <c r="G9" s="569" t="s">
+        <v>840</v>
+      </c>
+      <c r="H9" s="575"/>
+      <c r="I9" s="575"/>
+      <c r="J9" s="575" t="s">
+        <v>841</v>
+      </c>
+      <c r="K9" s="575" t="s">
+        <v>842</v>
+      </c>
+      <c r="L9" s="575"/>
+    </row>
+    <row r="10" spans="2:12" ht="22.5">
+      <c r="B10" s="569" t="s">
+        <v>482</v>
+      </c>
+      <c r="C10" s="569" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" s="569" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="569"/>
+      <c r="F10" s="569"/>
+      <c r="G10" s="569"/>
+      <c r="H10" s="575"/>
+      <c r="I10" s="575"/>
+      <c r="J10" s="575"/>
+      <c r="K10" s="575" t="s">
+        <v>843</v>
+      </c>
+      <c r="L10" s="575" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="22.5">
+      <c r="B11" s="569" t="s">
+        <v>468</v>
+      </c>
+      <c r="C11" s="569" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" s="569" t="s">
+        <v>513</v>
+      </c>
+      <c r="E11" s="569" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="569" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="569" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="575" t="s">
+        <v>845</v>
+      </c>
+      <c r="I11" s="575" t="s">
+        <v>846</v>
+      </c>
+      <c r="J11" s="575" t="s">
+        <v>847</v>
+      </c>
+      <c r="K11" s="575" t="s">
+        <v>848</v>
+      </c>
+      <c r="L11" s="575" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="22.5">
+      <c r="B12" s="569" t="s">
+        <v>850</v>
+      </c>
+      <c r="C12" s="569" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="569" t="s">
+        <v>255</v>
+      </c>
+      <c r="E12" s="569" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="569" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="569" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="575" t="s">
+        <v>851</v>
+      </c>
+      <c r="I12" s="575" t="s">
+        <v>852</v>
+      </c>
+      <c r="J12" s="575" t="s">
+        <v>853</v>
+      </c>
+      <c r="K12" s="575" t="s">
+        <v>854</v>
+      </c>
+      <c r="L12" s="575" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="22.5">
+      <c r="B13" s="569" t="s">
+        <v>856</v>
+      </c>
+      <c r="C13" s="569" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="569" t="s">
+        <v>857</v>
+      </c>
+      <c r="E13" s="569"/>
+      <c r="F13" s="569"/>
+      <c r="G13" s="569"/>
+      <c r="H13" s="575"/>
+      <c r="I13" s="575"/>
+      <c r="J13" s="575"/>
+      <c r="K13" s="575" t="s">
+        <v>858</v>
+      </c>
+      <c r="L13" s="575"/>
+    </row>
+    <row r="14" spans="2:12" ht="22.5">
+      <c r="B14" s="569" t="s">
+        <v>859</v>
+      </c>
+      <c r="C14" s="569" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" s="569"/>
+      <c r="E14" s="569"/>
+      <c r="F14" s="569"/>
+      <c r="G14" s="569"/>
+      <c r="H14" s="575"/>
+      <c r="I14" s="575"/>
+      <c r="J14" s="575"/>
+      <c r="K14" s="575" t="s">
+        <v>860</v>
+      </c>
+      <c r="L14" s="575"/>
+    </row>
+    <row r="15" spans="2:12" ht="22.5">
+      <c r="B15" s="569" t="s">
+        <v>861</v>
+      </c>
+      <c r="C15" s="569" t="s">
+        <v>862</v>
+      </c>
+      <c r="D15" s="569" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" s="569"/>
+      <c r="F15" s="569"/>
+      <c r="G15" s="569" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="575"/>
+      <c r="I15" s="575"/>
+      <c r="J15" s="575" t="s">
+        <v>863</v>
+      </c>
+      <c r="K15" s="575" t="s">
+        <v>864</v>
+      </c>
+      <c r="L15" s="575"/>
+    </row>
+    <row r="16" spans="2:12" ht="22.5">
+      <c r="B16" s="569" t="s">
+        <v>865</v>
+      </c>
+      <c r="C16" s="569" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" s="569" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" s="569"/>
+      <c r="F16" s="569"/>
+      <c r="G16" s="569"/>
+      <c r="H16" s="575"/>
+      <c r="I16" s="575"/>
+      <c r="J16" s="575"/>
+      <c r="K16" s="575" t="s">
+        <v>866</v>
+      </c>
+      <c r="L16" s="575" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="22.5">
+      <c r="B17" s="569" t="s">
+        <v>475</v>
+      </c>
+      <c r="C17" s="569" t="s">
+        <v>868</v>
+      </c>
+      <c r="D17" s="569"/>
+      <c r="E17" s="569"/>
+      <c r="F17" s="569"/>
+      <c r="G17" s="569"/>
+      <c r="H17" s="575"/>
+      <c r="I17" s="575"/>
+      <c r="J17" s="575"/>
+      <c r="K17" s="575" t="s">
+        <v>869</v>
+      </c>
+      <c r="L17" s="575"/>
+    </row>
+    <row r="18" spans="2:12" ht="22.5">
+      <c r="B18" s="569" t="s">
+        <v>870</v>
+      </c>
+      <c r="C18" s="569" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="569"/>
+      <c r="E18" s="569"/>
+      <c r="F18" s="569"/>
+      <c r="G18" s="569"/>
+      <c r="H18" s="575"/>
+      <c r="I18" s="575"/>
+      <c r="J18" s="575"/>
+      <c r="K18" s="575" t="s">
+        <v>871</v>
+      </c>
+      <c r="L18" s="575"/>
+    </row>
+    <row r="19" spans="2:12" ht="22.5">
+      <c r="B19" s="569"/>
+      <c r="C19" s="569"/>
+      <c r="D19" s="569"/>
+      <c r="E19" s="569" t="s">
         <v>398</v>
       </c>
-      <c r="F5" s="596" t="s">
+      <c r="F19" s="569" t="s">
         <v>411</v>
       </c>
-      <c r="G5" s="596" t="s">
+      <c r="G19" s="569" t="s">
         <v>440</v>
       </c>
-      <c r="H5" s="601" t="s">
+      <c r="H19" s="575" t="s">
+        <v>826</v>
+      </c>
+      <c r="I19" s="575" t="s">
         <v>827</v>
       </c>
-      <c r="I5" s="601" t="s">
+      <c r="J19" s="575" t="s">
         <v>828</v>
       </c>
-      <c r="J5" s="601" t="s">
+      <c r="K19" s="575" t="s">
         <v>829</v>
       </c>
-      <c r="K5" s="598" t="s">
-        <v>830</v>
-      </c>
-      <c r="L5" s="600"/>
-    </row>
-    <row r="6" spans="2:12" ht="22.5">
-      <c r="B6" s="592" t="s">
-        <v>471</v>
-      </c>
-      <c r="C6" s="592" t="s">
-        <v>351</v>
-      </c>
-      <c r="D6" s="592" t="s">
-        <v>276</v>
-      </c>
-      <c r="E6" s="592" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="592" t="s">
-        <v>177</v>
-      </c>
-      <c r="G6" s="592" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" s="602" t="s">
-        <v>333</v>
-      </c>
-      <c r="I6" s="602" t="s">
-        <v>323</v>
-      </c>
-      <c r="J6" s="602" t="s">
-        <v>831</v>
-      </c>
-      <c r="K6" s="602" t="s">
-        <v>355</v>
-      </c>
-      <c r="L6" s="602" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="22.5">
-      <c r="B7" s="592" t="s">
-        <v>833</v>
-      </c>
-      <c r="C7" s="592" t="s">
-        <v>330</v>
-      </c>
-      <c r="D7" s="592" t="s">
-        <v>268</v>
-      </c>
-      <c r="E7" s="592"/>
-      <c r="F7" s="592"/>
-      <c r="G7" s="592"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="602"/>
-      <c r="J7" s="602"/>
-      <c r="K7" s="602" t="s">
-        <v>834</v>
-      </c>
-      <c r="L7" s="602" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="22.5">
-      <c r="B8" s="592" t="s">
-        <v>836</v>
-      </c>
-      <c r="C8" s="592" t="s">
-        <v>326</v>
-      </c>
-      <c r="D8" s="592"/>
-      <c r="E8" s="592"/>
-      <c r="F8" s="592"/>
-      <c r="G8" s="592"/>
-      <c r="H8" s="602"/>
-      <c r="I8" s="602"/>
-      <c r="J8" s="602"/>
-      <c r="K8" s="602" t="s">
-        <v>837</v>
-      </c>
-      <c r="L8" s="602" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="22.5">
-      <c r="B9" s="592" t="s">
-        <v>839</v>
-      </c>
-      <c r="C9" s="592" t="s">
-        <v>840</v>
-      </c>
-      <c r="D9" s="592"/>
-      <c r="E9" s="592"/>
-      <c r="F9" s="592"/>
-      <c r="G9" s="592" t="s">
-        <v>841</v>
-      </c>
-      <c r="H9" s="602"/>
-      <c r="I9" s="602"/>
-      <c r="J9" s="602" t="s">
-        <v>842</v>
-      </c>
-      <c r="K9" s="602" t="s">
-        <v>843</v>
-      </c>
-      <c r="L9" s="602"/>
-    </row>
-    <row r="10" spans="2:12" ht="22.5">
-      <c r="B10" s="592" t="s">
-        <v>482</v>
-      </c>
-      <c r="C10" s="592" t="s">
-        <v>329</v>
-      </c>
-      <c r="D10" s="592" t="s">
-        <v>270</v>
-      </c>
-      <c r="E10" s="592"/>
-      <c r="F10" s="592"/>
-      <c r="G10" s="592"/>
-      <c r="H10" s="602"/>
-      <c r="I10" s="602"/>
-      <c r="J10" s="602"/>
-      <c r="K10" s="602" t="s">
-        <v>844</v>
-      </c>
-      <c r="L10" s="602" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="22.5">
-      <c r="B11" s="592" t="s">
-        <v>468</v>
-      </c>
-      <c r="C11" s="592" t="s">
-        <v>279</v>
-      </c>
-      <c r="D11" s="592" t="s">
-        <v>513</v>
-      </c>
-      <c r="E11" s="592" t="s">
-        <v>213</v>
-      </c>
-      <c r="F11" s="592" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="592" t="s">
-        <v>155</v>
-      </c>
-      <c r="H11" s="602" t="s">
-        <v>846</v>
-      </c>
-      <c r="I11" s="602" t="s">
-        <v>847</v>
-      </c>
-      <c r="J11" s="602" t="s">
-        <v>848</v>
-      </c>
-      <c r="K11" s="602" t="s">
-        <v>849</v>
-      </c>
-      <c r="L11" s="602" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="22.5">
-      <c r="B12" s="592" t="s">
-        <v>851</v>
-      </c>
-      <c r="C12" s="592" t="s">
-        <v>313</v>
-      </c>
-      <c r="D12" s="592" t="s">
-        <v>255</v>
-      </c>
-      <c r="E12" s="592" t="s">
-        <v>199</v>
-      </c>
-      <c r="F12" s="592" t="s">
-        <v>172</v>
-      </c>
-      <c r="G12" s="592" t="s">
-        <v>157</v>
-      </c>
-      <c r="H12" s="602" t="s">
-        <v>852</v>
-      </c>
-      <c r="I12" s="602" t="s">
-        <v>853</v>
-      </c>
-      <c r="J12" s="602" t="s">
-        <v>854</v>
-      </c>
-      <c r="K12" s="602" t="s">
-        <v>855</v>
-      </c>
-      <c r="L12" s="602" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="22.5">
-      <c r="B13" s="592" t="s">
-        <v>857</v>
-      </c>
-      <c r="C13" s="592" t="s">
-        <v>301</v>
-      </c>
-      <c r="D13" s="592" t="s">
-        <v>858</v>
-      </c>
-      <c r="E13" s="592"/>
-      <c r="F13" s="592"/>
-      <c r="G13" s="592"/>
-      <c r="H13" s="602"/>
-      <c r="I13" s="602"/>
-      <c r="J13" s="602"/>
-      <c r="K13" s="602" t="s">
-        <v>859</v>
-      </c>
-      <c r="L13" s="602"/>
-    </row>
-    <row r="14" spans="2:12" ht="22.5">
-      <c r="B14" s="592" t="s">
-        <v>860</v>
-      </c>
-      <c r="C14" s="592" t="s">
-        <v>306</v>
-      </c>
-      <c r="D14" s="592"/>
-      <c r="E14" s="592"/>
-      <c r="F14" s="592"/>
-      <c r="G14" s="592"/>
-      <c r="H14" s="602"/>
-      <c r="I14" s="602"/>
-      <c r="J14" s="602"/>
-      <c r="K14" s="602" t="s">
-        <v>861</v>
-      </c>
-      <c r="L14" s="602"/>
-    </row>
-    <row r="15" spans="2:12" ht="22.5">
-      <c r="B15" s="592" t="s">
-        <v>862</v>
-      </c>
-      <c r="C15" s="592" t="s">
-        <v>863</v>
-      </c>
-      <c r="D15" s="592" t="s">
-        <v>250</v>
-      </c>
-      <c r="E15" s="592"/>
-      <c r="F15" s="592"/>
-      <c r="G15" s="592" t="s">
-        <v>152</v>
-      </c>
-      <c r="H15" s="602"/>
-      <c r="I15" s="602"/>
-      <c r="J15" s="602" t="s">
-        <v>864</v>
-      </c>
-      <c r="K15" s="602" t="s">
-        <v>865</v>
-      </c>
-      <c r="L15" s="602"/>
-    </row>
-    <row r="16" spans="2:12" ht="22.5">
-      <c r="B16" s="592" t="s">
-        <v>866</v>
-      </c>
-      <c r="C16" s="592" t="s">
-        <v>318</v>
-      </c>
-      <c r="D16" s="592" t="s">
-        <v>260</v>
-      </c>
-      <c r="E16" s="592"/>
-      <c r="F16" s="592"/>
-      <c r="G16" s="592"/>
-      <c r="H16" s="602"/>
-      <c r="I16" s="602"/>
-      <c r="J16" s="602"/>
-      <c r="K16" s="602" t="s">
-        <v>867</v>
-      </c>
-      <c r="L16" s="602" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="22.5">
-      <c r="B17" s="592" t="s">
-        <v>475</v>
-      </c>
-      <c r="C17" s="592" t="s">
-        <v>869</v>
-      </c>
-      <c r="D17" s="592"/>
-      <c r="E17" s="592"/>
-      <c r="F17" s="592"/>
-      <c r="G17" s="592"/>
-      <c r="H17" s="602"/>
-      <c r="I17" s="602"/>
-      <c r="J17" s="602"/>
-      <c r="K17" s="602" t="s">
-        <v>870</v>
-      </c>
-      <c r="L17" s="602"/>
-    </row>
-    <row r="18" spans="2:12" ht="22.5">
-      <c r="B18" s="592" t="s">
-        <v>871</v>
-      </c>
-      <c r="C18" s="592" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="592"/>
-      <c r="E18" s="592"/>
-      <c r="F18" s="592"/>
-      <c r="G18" s="592"/>
-      <c r="H18" s="602"/>
-      <c r="I18" s="602"/>
-      <c r="J18" s="602"/>
-      <c r="K18" s="602" t="s">
+      <c r="L19" s="575"/>
+    </row>
+    <row r="20" spans="2:12" ht="22.5">
+      <c r="B20" s="569" t="s">
+        <v>474</v>
+      </c>
+      <c r="C20" s="569" t="s">
+        <v>346</v>
+      </c>
+      <c r="D20" s="569" t="s">
+        <v>273</v>
+      </c>
+      <c r="E20" s="569" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="569"/>
+      <c r="G20" s="569" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="575" t="s">
         <v>872</v>
       </c>
-      <c r="L18" s="602"/>
-    </row>
-    <row r="19" spans="2:12" ht="22.5">
-      <c r="B19" s="592"/>
-      <c r="C19" s="592"/>
-      <c r="D19" s="592"/>
-      <c r="E19" s="592" t="s">
-        <v>398</v>
-      </c>
-      <c r="F19" s="592" t="s">
-        <v>411</v>
-      </c>
-      <c r="G19" s="592" t="s">
-        <v>440</v>
-      </c>
-      <c r="H19" s="602" t="s">
-        <v>827</v>
-      </c>
-      <c r="I19" s="602" t="s">
-        <v>828</v>
-      </c>
-      <c r="J19" s="602" t="s">
-        <v>829</v>
-      </c>
-      <c r="K19" s="602" t="s">
-        <v>830</v>
-      </c>
-      <c r="L19" s="602"/>
-    </row>
-    <row r="20" spans="2:12" ht="22.5">
-      <c r="B20" s="592" t="s">
-        <v>474</v>
-      </c>
-      <c r="C20" s="592" t="s">
-        <v>346</v>
-      </c>
-      <c r="D20" s="592" t="s">
-        <v>273</v>
-      </c>
-      <c r="E20" s="592" t="s">
-        <v>203</v>
-      </c>
-      <c r="F20" s="592"/>
-      <c r="G20" s="592" t="s">
-        <v>160</v>
-      </c>
-      <c r="H20" s="602" t="s">
+      <c r="I20" s="575"/>
+      <c r="J20" s="575" t="s">
         <v>873</v>
       </c>
-      <c r="I20" s="602"/>
-      <c r="J20" s="602" t="s">
+      <c r="K20" s="575" t="s">
         <v>874</v>
       </c>
-      <c r="K20" s="602" t="s">
+      <c r="L20" s="575" t="s">
         <v>875</v>
       </c>
-      <c r="L20" s="602" t="s">
+    </row>
+    <row r="21" spans="2:12" ht="22.5">
+      <c r="B21" s="569" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" ht="22.5">
-      <c r="B21" s="592" t="s">
+      <c r="C21" s="569" t="s">
+        <v>522</v>
+      </c>
+      <c r="D21" s="569"/>
+      <c r="E21" s="569" t="s">
         <v>877</v>
       </c>
-      <c r="C21" s="592" t="s">
-        <v>522</v>
-      </c>
-      <c r="D21" s="592"/>
-      <c r="E21" s="592" t="s">
+      <c r="F21" s="569" t="s">
         <v>878</v>
       </c>
-      <c r="F21" s="592" t="s">
+      <c r="G21" s="569" t="s">
         <v>879</v>
       </c>
-      <c r="G21" s="592" t="s">
+      <c r="H21" s="575" t="s">
         <v>880</v>
       </c>
-      <c r="H21" s="602" t="s">
+      <c r="I21" s="575" t="s">
         <v>881</v>
       </c>
-      <c r="I21" s="602" t="s">
+      <c r="J21" s="575" t="s">
         <v>882</v>
       </c>
-      <c r="J21" s="602" t="s">
+      <c r="K21" s="575" t="s">
         <v>883</v>
       </c>
-      <c r="K21" s="602" t="s">
+      <c r="L21" s="575"/>
+    </row>
+    <row r="22" spans="2:12" ht="22.5">
+      <c r="B22" s="569" t="s">
+        <v>469</v>
+      </c>
+      <c r="C22" s="569" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="569"/>
+      <c r="E22" s="569"/>
+      <c r="F22" s="569" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" s="569"/>
+      <c r="H22" s="575"/>
+      <c r="I22" s="575" t="s">
         <v>884</v>
       </c>
-      <c r="L21" s="602"/>
-    </row>
-    <row r="22" spans="2:12" ht="22.5">
-      <c r="B22" s="592" t="s">
-        <v>469</v>
-      </c>
-      <c r="C22" s="592" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="592"/>
-      <c r="E22" s="592"/>
-      <c r="F22" s="592" t="s">
-        <v>181</v>
-      </c>
-      <c r="G22" s="592"/>
-      <c r="H22" s="602"/>
-      <c r="I22" s="602" t="s">
+      <c r="J22" s="575"/>
+      <c r="K22" s="575" t="s">
         <v>885</v>
       </c>
-      <c r="J22" s="602"/>
-      <c r="K22" s="602" t="s">
+      <c r="L22" s="575"/>
+    </row>
+    <row r="23" spans="2:12" ht="22.5">
+      <c r="B23" s="569" t="s">
         <v>886</v>
       </c>
-      <c r="L22" s="602"/>
-    </row>
-    <row r="23" spans="2:12" ht="22.5">
-      <c r="B23" s="592" t="s">
+      <c r="C23" s="569" t="s">
+        <v>295</v>
+      </c>
+      <c r="D23" s="569" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="569"/>
+      <c r="F23" s="569" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="569" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="575"/>
+      <c r="I23" s="575" t="s">
         <v>887</v>
       </c>
-      <c r="C23" s="592" t="s">
-        <v>295</v>
-      </c>
-      <c r="D23" s="592" t="s">
-        <v>236</v>
-      </c>
-      <c r="E23" s="592"/>
-      <c r="F23" s="592" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" s="592" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" s="602"/>
-      <c r="I23" s="602" t="s">
+      <c r="J23" s="575"/>
+      <c r="K23" s="575" t="s">
         <v>888</v>
       </c>
-      <c r="J23" s="602"/>
-      <c r="K23" s="602" t="s">
+      <c r="L23" s="575"/>
+    </row>
+    <row r="24" spans="2:12" ht="22.5">
+      <c r="B24" s="569" t="s">
         <v>889</v>
       </c>
-      <c r="L23" s="602"/>
-    </row>
-    <row r="24" spans="2:12" ht="22.5">
-      <c r="B24" s="592" t="s">
+      <c r="C24" s="569" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" s="569" t="s">
         <v>890</v>
       </c>
-      <c r="C24" s="592" t="s">
-        <v>288</v>
-      </c>
-      <c r="D24" s="592" t="s">
+      <c r="E24" s="569"/>
+      <c r="F24" s="569"/>
+      <c r="G24" s="569"/>
+      <c r="H24" s="575"/>
+      <c r="I24" s="575"/>
+      <c r="J24" s="575"/>
+      <c r="K24" s="575"/>
+      <c r="L24" s="575"/>
+    </row>
+    <row r="25" spans="2:12" ht="22.5">
+      <c r="B25" s="569" t="s">
         <v>891</v>
       </c>
-      <c r="E24" s="592"/>
-      <c r="F24" s="592"/>
-      <c r="G24" s="592"/>
-      <c r="H24" s="602"/>
-      <c r="I24" s="602"/>
-      <c r="J24" s="602"/>
-      <c r="K24" s="602"/>
-      <c r="L24" s="602"/>
-    </row>
-    <row r="25" spans="2:12" ht="22.5">
-      <c r="B25" s="592" t="s">
+      <c r="C25" s="569" t="s">
         <v>892</v>
       </c>
-      <c r="C25" s="592" t="s">
+      <c r="D25" s="569"/>
+      <c r="E25" s="569"/>
+      <c r="F25" s="569"/>
+      <c r="G25" s="569"/>
+      <c r="H25" s="575"/>
+      <c r="I25" s="575"/>
+      <c r="J25" s="575"/>
+      <c r="K25" s="575" t="s">
         <v>893</v>
       </c>
-      <c r="D25" s="592"/>
-      <c r="E25" s="592"/>
-      <c r="F25" s="592"/>
-      <c r="G25" s="592"/>
-      <c r="H25" s="602"/>
-      <c r="I25" s="602"/>
-      <c r="J25" s="602"/>
-      <c r="K25" s="602" t="s">
+      <c r="L25" s="575"/>
+    </row>
+    <row r="26" spans="2:12" ht="22.5">
+      <c r="B26" s="569" t="s">
         <v>894</v>
       </c>
-      <c r="L25" s="602"/>
-    </row>
-    <row r="26" spans="2:12" ht="22.5">
-      <c r="B26" s="592" t="s">
+      <c r="C26" s="569" t="s">
+        <v>292</v>
+      </c>
+      <c r="D26" s="569"/>
+      <c r="E26" s="569"/>
+      <c r="F26" s="569"/>
+      <c r="G26" s="569"/>
+      <c r="H26" s="575"/>
+      <c r="I26" s="575"/>
+      <c r="J26" s="575"/>
+      <c r="K26" s="575" t="s">
         <v>895</v>
       </c>
-      <c r="C26" s="592" t="s">
-        <v>292</v>
-      </c>
-      <c r="D26" s="592"/>
-      <c r="E26" s="592"/>
-      <c r="F26" s="592"/>
-      <c r="G26" s="592"/>
-      <c r="H26" s="602"/>
-      <c r="I26" s="602"/>
-      <c r="J26" s="602"/>
-      <c r="K26" s="602" t="s">
+      <c r="L26" s="575"/>
+    </row>
+    <row r="27" spans="2:12" ht="22.5">
+      <c r="B27" s="569" t="s">
         <v>896</v>
       </c>
-      <c r="L26" s="602"/>
-    </row>
-    <row r="27" spans="2:12" ht="22.5">
-      <c r="B27" s="592" t="s">
+      <c r="C27" s="569" t="s">
+        <v>298</v>
+      </c>
+      <c r="D27" s="569"/>
+      <c r="E27" s="569"/>
+      <c r="F27" s="569"/>
+      <c r="G27" s="569"/>
+      <c r="H27" s="575"/>
+      <c r="I27" s="575"/>
+      <c r="J27" s="575"/>
+      <c r="K27" s="575"/>
+      <c r="L27" s="575"/>
+    </row>
+    <row r="28" spans="2:12" ht="22.5">
+      <c r="B28" s="569" t="s">
         <v>897</v>
       </c>
-      <c r="C27" s="592" t="s">
-        <v>298</v>
-      </c>
-      <c r="D27" s="592"/>
-      <c r="E27" s="592"/>
-      <c r="F27" s="592"/>
-      <c r="G27" s="592"/>
-      <c r="H27" s="602"/>
-      <c r="I27" s="602"/>
-      <c r="J27" s="602"/>
-      <c r="K27" s="602"/>
-      <c r="L27" s="602"/>
-    </row>
-    <row r="28" spans="2:12" ht="22.5">
-      <c r="B28" s="592" t="s">
+      <c r="C28" s="569"/>
+      <c r="D28" s="569" t="s">
         <v>898</v>
       </c>
-      <c r="C28" s="592"/>
-      <c r="D28" s="592" t="s">
+      <c r="E28" s="569"/>
+      <c r="F28" s="569"/>
+      <c r="G28" s="569"/>
+      <c r="H28" s="575"/>
+      <c r="I28" s="575"/>
+      <c r="J28" s="575"/>
+      <c r="K28" s="575"/>
+      <c r="L28" s="575"/>
+    </row>
+    <row r="29" spans="2:12" ht="22.5">
+      <c r="B29" s="569" t="s">
         <v>899</v>
       </c>
-      <c r="E28" s="592"/>
-      <c r="F28" s="592"/>
-      <c r="G28" s="592"/>
-      <c r="H28" s="602"/>
-      <c r="I28" s="602"/>
-      <c r="J28" s="602"/>
-      <c r="K28" s="602"/>
-      <c r="L28" s="602"/>
-    </row>
-    <row r="29" spans="2:12" ht="22.5">
-      <c r="B29" s="592" t="s">
+      <c r="C29" s="569" t="s">
         <v>900</v>
       </c>
-      <c r="C29" s="592" t="s">
+      <c r="D29" s="569"/>
+      <c r="E29" s="569"/>
+      <c r="F29" s="569"/>
+      <c r="G29" s="569"/>
+      <c r="H29" s="575"/>
+      <c r="I29" s="575"/>
+      <c r="J29" s="575"/>
+      <c r="K29" s="575" t="s">
         <v>901</v>
       </c>
-      <c r="D29" s="592"/>
-      <c r="E29" s="592"/>
-      <c r="F29" s="592"/>
-      <c r="G29" s="592"/>
-      <c r="H29" s="602"/>
-      <c r="I29" s="602"/>
-      <c r="J29" s="602"/>
-      <c r="K29" s="602" t="s">
+      <c r="L29" s="575"/>
+    </row>
+    <row r="30" spans="2:12" ht="22.5">
+      <c r="B30" s="569" t="s">
+        <v>470</v>
+      </c>
+      <c r="C30" s="569" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="569"/>
+      <c r="E30" s="569" t="s">
         <v>902</v>
       </c>
-      <c r="L29" s="602"/>
-    </row>
-    <row r="30" spans="2:12" ht="22.5">
-      <c r="B30" s="592" t="s">
-        <v>470</v>
-      </c>
-      <c r="C30" s="592" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="592"/>
-      <c r="E30" s="592" t="s">
+      <c r="F30" s="569"/>
+      <c r="G30" s="569"/>
+      <c r="H30" s="575"/>
+      <c r="I30" s="575"/>
+      <c r="J30" s="575"/>
+      <c r="K30" s="575" t="s">
         <v>903</v>
       </c>
-      <c r="F30" s="592"/>
-      <c r="G30" s="592"/>
-      <c r="H30" s="602"/>
-      <c r="I30" s="602"/>
-      <c r="J30" s="602"/>
-      <c r="K30" s="602" t="s">
+      <c r="L30" s="575"/>
+    </row>
+    <row r="31" spans="2:12" ht="22.5">
+      <c r="B31" s="569" t="s">
+        <v>498</v>
+      </c>
+      <c r="C31" s="569" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="569"/>
+      <c r="E31" s="569" t="s">
+        <v>902</v>
+      </c>
+      <c r="F31" s="569"/>
+      <c r="G31" s="569"/>
+      <c r="H31" s="575"/>
+      <c r="I31" s="575"/>
+      <c r="J31" s="575"/>
+      <c r="K31" s="575" t="s">
         <v>904</v>
       </c>
-      <c r="L30" s="602"/>
-    </row>
-    <row r="31" spans="2:12" ht="22.5">
-      <c r="B31" s="592" t="s">
-        <v>498</v>
-      </c>
-      <c r="C31" s="592" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="592"/>
-      <c r="E31" s="592" t="s">
-        <v>903</v>
-      </c>
-      <c r="F31" s="592"/>
-      <c r="G31" s="592"/>
-      <c r="H31" s="602"/>
-      <c r="I31" s="602"/>
-      <c r="J31" s="602"/>
-      <c r="K31" s="602" t="s">
-        <v>905</v>
-      </c>
-      <c r="L31" s="602"/>
+      <c r="L31" s="575"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -25906,66 +25912,66 @@
     </row>
     <row r="2" spans="1:75" s="147" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="239"/>
-      <c r="B2" s="562" t="s">
+      <c r="B2" s="583" t="s">
         <v>539</v>
       </c>
-      <c r="C2" s="563"/>
-      <c r="D2" s="564"/>
-      <c r="E2" s="562" t="s">
+      <c r="C2" s="584"/>
+      <c r="D2" s="585"/>
+      <c r="E2" s="583" t="s">
         <v>540</v>
       </c>
-      <c r="F2" s="563"/>
-      <c r="G2" s="564"/>
-      <c r="H2" s="571" t="s">
+      <c r="F2" s="584"/>
+      <c r="G2" s="585"/>
+      <c r="H2" s="580" t="s">
         <v>541</v>
       </c>
-      <c r="I2" s="572"/>
-      <c r="J2" s="573"/>
-      <c r="K2" s="571" t="s">
+      <c r="I2" s="581"/>
+      <c r="J2" s="582"/>
+      <c r="K2" s="580" t="s">
         <v>542</v>
       </c>
-      <c r="L2" s="572"/>
-      <c r="M2" s="573"/>
-      <c r="N2" s="574">
+      <c r="L2" s="581"/>
+      <c r="M2" s="582"/>
+      <c r="N2" s="586">
         <v>0.05</v>
       </c>
-      <c r="O2" s="575"/>
-      <c r="P2" s="576"/>
-      <c r="Q2" s="571" t="s">
+      <c r="O2" s="587"/>
+      <c r="P2" s="588"/>
+      <c r="Q2" s="580" t="s">
         <v>543</v>
       </c>
-      <c r="R2" s="572"/>
-      <c r="S2" s="573"/>
-      <c r="T2" s="571" t="s">
+      <c r="R2" s="581"/>
+      <c r="S2" s="582"/>
+      <c r="T2" s="580" t="s">
         <v>544</v>
       </c>
-      <c r="U2" s="572"/>
-      <c r="V2" s="573"/>
-      <c r="W2" s="556" t="s">
+      <c r="U2" s="581"/>
+      <c r="V2" s="582"/>
+      <c r="W2" s="591" t="s">
         <v>545</v>
       </c>
-      <c r="X2" s="557"/>
-      <c r="Y2" s="558"/>
-      <c r="Z2" s="556" t="s">
+      <c r="X2" s="592"/>
+      <c r="Y2" s="593"/>
+      <c r="Z2" s="591" t="s">
         <v>546</v>
       </c>
-      <c r="AA2" s="557"/>
-      <c r="AB2" s="558"/>
-      <c r="AC2" s="556" t="s">
+      <c r="AA2" s="592"/>
+      <c r="AB2" s="593"/>
+      <c r="AC2" s="591" t="s">
         <v>547</v>
       </c>
-      <c r="AD2" s="557"/>
-      <c r="AE2" s="558"/>
-      <c r="AF2" s="559" t="s">
+      <c r="AD2" s="592"/>
+      <c r="AE2" s="593"/>
+      <c r="AF2" s="594" t="s">
         <v>548</v>
       </c>
-      <c r="AG2" s="560"/>
-      <c r="AH2" s="561"/>
-      <c r="AI2" s="559" t="s">
+      <c r="AG2" s="595"/>
+      <c r="AH2" s="596"/>
+      <c r="AI2" s="594" t="s">
         <v>549</v>
       </c>
-      <c r="AJ2" s="560"/>
-      <c r="AK2" s="561"/>
+      <c r="AJ2" s="595"/>
+      <c r="AK2" s="596"/>
       <c r="AL2" s="239"/>
       <c r="AM2" s="239"/>
       <c r="AN2" s="239"/>
@@ -26097,38 +26103,38 @@
       <c r="G4" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="567" t="s">
+      <c r="H4" s="597" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="568"/>
+      <c r="I4" s="598"/>
       <c r="J4" s="272" t="s">
         <v>552</v>
       </c>
-      <c r="K4" s="569" t="s">
+      <c r="K4" s="599" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="570"/>
+      <c r="L4" s="600"/>
       <c r="M4" s="272" t="s">
         <v>553</v>
       </c>
-      <c r="N4" s="567" t="s">
+      <c r="N4" s="597" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="568"/>
+      <c r="O4" s="598"/>
       <c r="P4" s="272" t="s">
         <v>554</v>
       </c>
-      <c r="Q4" s="569" t="s">
+      <c r="Q4" s="599" t="s">
         <v>106</v>
       </c>
-      <c r="R4" s="570"/>
+      <c r="R4" s="600"/>
       <c r="S4" s="272" t="s">
         <v>555</v>
       </c>
-      <c r="T4" s="567" t="s">
+      <c r="T4" s="597" t="s">
         <v>556</v>
       </c>
-      <c r="U4" s="568"/>
+      <c r="U4" s="598"/>
       <c r="V4" s="272" t="s">
         <v>557</v>
       </c>
@@ -26168,8 +26174,8 @@
         <f ca="1">AW20</f>
         <v>N</v>
       </c>
-      <c r="AI4" s="565"/>
-      <c r="AJ4" s="566"/>
+      <c r="AI4" s="589"/>
+      <c r="AJ4" s="590"/>
       <c r="AK4" s="279"/>
       <c r="AL4" s="267"/>
       <c r="AM4" s="267"/>
@@ -26227,71 +26233,71 @@
     <row r="5" spans="1:75" s="147" customFormat="1" ht="45" customHeight="1">
       <c r="A5" s="239"/>
       <c r="B5" s="239"/>
-      <c r="C5" s="562" t="s">
+      <c r="C5" s="583" t="s">
         <v>558</v>
       </c>
-      <c r="D5" s="563"/>
-      <c r="E5" s="564"/>
-      <c r="F5" s="562" t="s">
+      <c r="D5" s="584"/>
+      <c r="E5" s="585"/>
+      <c r="F5" s="583" t="s">
         <v>559</v>
       </c>
-      <c r="G5" s="563"/>
-      <c r="H5" s="564"/>
-      <c r="I5" s="562" t="s">
+      <c r="G5" s="584"/>
+      <c r="H5" s="585"/>
+      <c r="I5" s="583" t="s">
         <v>322</v>
       </c>
-      <c r="J5" s="563"/>
-      <c r="K5" s="564"/>
-      <c r="L5" s="562" t="s">
+      <c r="J5" s="584"/>
+      <c r="K5" s="585"/>
+      <c r="L5" s="583" t="s">
         <v>560</v>
       </c>
-      <c r="M5" s="563"/>
-      <c r="N5" s="564"/>
-      <c r="O5" s="562" t="s">
+      <c r="M5" s="584"/>
+      <c r="N5" s="585"/>
+      <c r="O5" s="583" t="s">
         <v>408</v>
       </c>
-      <c r="P5" s="563"/>
-      <c r="Q5" s="564"/>
-      <c r="R5" s="562" t="s">
+      <c r="P5" s="584"/>
+      <c r="Q5" s="585"/>
+      <c r="R5" s="583" t="s">
         <v>447</v>
       </c>
-      <c r="S5" s="563"/>
-      <c r="T5" s="564"/>
-      <c r="U5" s="556" t="s">
+      <c r="S5" s="584"/>
+      <c r="T5" s="585"/>
+      <c r="U5" s="591" t="s">
         <v>259</v>
       </c>
-      <c r="V5" s="557"/>
-      <c r="W5" s="558"/>
-      <c r="X5" s="556" t="s">
+      <c r="V5" s="592"/>
+      <c r="W5" s="593"/>
+      <c r="X5" s="591" t="s">
         <v>275</v>
       </c>
-      <c r="Y5" s="557"/>
-      <c r="Z5" s="558"/>
-      <c r="AA5" s="556" t="s">
+      <c r="Y5" s="592"/>
+      <c r="Z5" s="593"/>
+      <c r="AA5" s="591" t="s">
         <v>267</v>
       </c>
-      <c r="AB5" s="557"/>
-      <c r="AC5" s="558"/>
-      <c r="AD5" s="556" t="s">
+      <c r="AB5" s="592"/>
+      <c r="AC5" s="593"/>
+      <c r="AD5" s="591" t="s">
         <v>400</v>
       </c>
-      <c r="AE5" s="557"/>
-      <c r="AF5" s="558"/>
-      <c r="AG5" s="556" t="s">
+      <c r="AE5" s="592"/>
+      <c r="AF5" s="593"/>
+      <c r="AG5" s="591" t="s">
         <v>561</v>
       </c>
-      <c r="AH5" s="557"/>
-      <c r="AI5" s="558"/>
-      <c r="AJ5" s="556" t="s">
+      <c r="AH5" s="592"/>
+      <c r="AI5" s="593"/>
+      <c r="AJ5" s="591" t="s">
         <v>562</v>
       </c>
-      <c r="AK5" s="557"/>
-      <c r="AL5" s="558"/>
-      <c r="AM5" s="559" t="s">
+      <c r="AK5" s="592"/>
+      <c r="AL5" s="593"/>
+      <c r="AM5" s="594" t="s">
         <v>563</v>
       </c>
-      <c r="AN5" s="560"/>
-      <c r="AO5" s="561"/>
+      <c r="AN5" s="595"/>
+      <c r="AO5" s="596"/>
       <c r="AP5" s="239"/>
       <c r="AQ5" s="239"/>
       <c r="AR5" s="240"/>
@@ -26539,14 +26545,14 @@
         <f ca="1">AV20</f>
         <v>n</v>
       </c>
-      <c r="AG7" s="565"/>
-      <c r="AH7" s="566"/>
+      <c r="AG7" s="589"/>
+      <c r="AH7" s="590"/>
       <c r="AI7" s="279"/>
-      <c r="AJ7" s="565"/>
-      <c r="AK7" s="566"/>
+      <c r="AJ7" s="589"/>
+      <c r="AK7" s="590"/>
       <c r="AL7" s="279"/>
-      <c r="AM7" s="565"/>
-      <c r="AN7" s="566"/>
+      <c r="AM7" s="589"/>
+      <c r="AN7" s="590"/>
       <c r="AO7" s="279"/>
       <c r="AP7" s="267"/>
       <c r="AQ7" s="267"/>
@@ -26601,61 +26607,61 @@
       <c r="A8" s="239"/>
       <c r="B8" s="239"/>
       <c r="C8" s="289"/>
-      <c r="D8" s="562" t="s">
+      <c r="D8" s="583" t="s">
         <v>401</v>
       </c>
-      <c r="E8" s="563"/>
-      <c r="F8" s="564"/>
-      <c r="G8" s="562" t="s">
+      <c r="E8" s="584"/>
+      <c r="F8" s="585"/>
+      <c r="G8" s="583" t="s">
         <v>460</v>
       </c>
-      <c r="H8" s="563"/>
-      <c r="I8" s="564"/>
-      <c r="J8" s="562" t="s">
+      <c r="H8" s="584"/>
+      <c r="I8" s="585"/>
+      <c r="J8" s="583" t="s">
         <v>189</v>
       </c>
-      <c r="K8" s="563"/>
-      <c r="L8" s="564"/>
-      <c r="M8" s="562" t="s">
+      <c r="K8" s="584"/>
+      <c r="L8" s="585"/>
+      <c r="M8" s="583" t="s">
         <v>566</v>
       </c>
-      <c r="N8" s="563"/>
-      <c r="O8" s="564"/>
-      <c r="P8" s="562" t="s">
+      <c r="N8" s="584"/>
+      <c r="O8" s="585"/>
+      <c r="P8" s="583" t="s">
         <v>141</v>
       </c>
-      <c r="Q8" s="563"/>
-      <c r="R8" s="564"/>
-      <c r="S8" s="562" t="s">
+      <c r="Q8" s="584"/>
+      <c r="R8" s="585"/>
+      <c r="S8" s="583" t="s">
         <v>454</v>
       </c>
-      <c r="T8" s="563"/>
-      <c r="U8" s="564"/>
-      <c r="V8" s="556" t="s">
+      <c r="T8" s="584"/>
+      <c r="U8" s="585"/>
+      <c r="V8" s="591" t="s">
         <v>249</v>
       </c>
-      <c r="W8" s="557"/>
-      <c r="X8" s="558"/>
-      <c r="Y8" s="556" t="s">
+      <c r="W8" s="592"/>
+      <c r="X8" s="593"/>
+      <c r="Y8" s="591" t="s">
         <v>425</v>
       </c>
-      <c r="Z8" s="557"/>
-      <c r="AA8" s="558"/>
-      <c r="AB8" s="556" t="s">
+      <c r="Z8" s="592"/>
+      <c r="AA8" s="593"/>
+      <c r="AB8" s="591" t="s">
         <v>231</v>
       </c>
-      <c r="AC8" s="557"/>
-      <c r="AD8" s="558"/>
-      <c r="AE8" s="556" t="s">
+      <c r="AC8" s="592"/>
+      <c r="AD8" s="593"/>
+      <c r="AE8" s="591" t="s">
         <v>567</v>
       </c>
-      <c r="AF8" s="557"/>
-      <c r="AG8" s="558"/>
-      <c r="AH8" s="559" t="s">
+      <c r="AF8" s="592"/>
+      <c r="AG8" s="593"/>
+      <c r="AH8" s="594" t="s">
         <v>568</v>
       </c>
-      <c r="AI8" s="560"/>
-      <c r="AJ8" s="561"/>
+      <c r="AI8" s="595"/>
+      <c r="AJ8" s="596"/>
       <c r="AK8" s="239"/>
       <c r="AL8" s="239"/>
       <c r="AM8" s="239"/>
@@ -26907,8 +26913,8 @@
         <f ca="1">AR20</f>
         <v>ang</v>
       </c>
-      <c r="AH10" s="565"/>
-      <c r="AI10" s="566"/>
+      <c r="AH10" s="589"/>
+      <c r="AI10" s="590"/>
       <c r="AJ10" s="279"/>
       <c r="AK10" s="267"/>
       <c r="AL10" s="267"/>
@@ -26969,56 +26975,56 @@
       <c r="B11" s="239"/>
       <c r="C11" s="239"/>
       <c r="D11" s="239"/>
-      <c r="E11" s="562" t="s">
+      <c r="E11" s="583" t="s">
         <v>449</v>
       </c>
-      <c r="F11" s="563"/>
-      <c r="G11" s="564"/>
-      <c r="H11" s="562" t="s">
+      <c r="F11" s="584"/>
+      <c r="G11" s="585"/>
+      <c r="H11" s="583" t="s">
         <v>569</v>
       </c>
-      <c r="I11" s="563"/>
-      <c r="J11" s="564"/>
-      <c r="K11" s="562" t="s">
+      <c r="I11" s="584"/>
+      <c r="J11" s="585"/>
+      <c r="K11" s="583" t="s">
         <v>456</v>
       </c>
-      <c r="L11" s="563"/>
-      <c r="M11" s="564"/>
-      <c r="N11" s="562" t="s">
+      <c r="L11" s="584"/>
+      <c r="M11" s="585"/>
+      <c r="N11" s="583" t="s">
         <v>570</v>
       </c>
-      <c r="O11" s="563"/>
-      <c r="P11" s="564"/>
-      <c r="Q11" s="562" t="s">
+      <c r="O11" s="584"/>
+      <c r="P11" s="585"/>
+      <c r="Q11" s="583" t="s">
         <v>144</v>
       </c>
-      <c r="R11" s="563"/>
-      <c r="S11" s="564"/>
-      <c r="T11" s="562" t="s">
+      <c r="R11" s="584"/>
+      <c r="S11" s="585"/>
+      <c r="T11" s="583" t="s">
         <v>571</v>
       </c>
-      <c r="U11" s="563"/>
-      <c r="V11" s="564"/>
-      <c r="W11" s="556" t="s">
+      <c r="U11" s="584"/>
+      <c r="V11" s="585"/>
+      <c r="W11" s="591" t="s">
         <v>525</v>
       </c>
-      <c r="X11" s="557"/>
-      <c r="Y11" s="558"/>
-      <c r="Z11" s="556" t="s">
+      <c r="X11" s="592"/>
+      <c r="Y11" s="593"/>
+      <c r="Z11" s="591" t="s">
         <v>572</v>
       </c>
-      <c r="AA11" s="557"/>
-      <c r="AB11" s="558"/>
-      <c r="AC11" s="556" t="s">
+      <c r="AA11" s="592"/>
+      <c r="AB11" s="593"/>
+      <c r="AC11" s="591" t="s">
         <v>573</v>
       </c>
-      <c r="AD11" s="557"/>
-      <c r="AE11" s="558"/>
-      <c r="AF11" s="559" t="s">
+      <c r="AD11" s="592"/>
+      <c r="AE11" s="593"/>
+      <c r="AF11" s="594" t="s">
         <v>574</v>
       </c>
-      <c r="AG11" s="560"/>
-      <c r="AH11" s="561"/>
+      <c r="AG11" s="595"/>
+      <c r="AH11" s="596"/>
       <c r="AI11" s="239"/>
       <c r="AJ11" s="239"/>
       <c r="AK11" s="239"/>
@@ -33077,52 +33083,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="W11:Y11"/>
     <mergeCell ref="Z11:AB11"/>
     <mergeCell ref="AC11:AE11"/>
@@ -33133,6 +33093,52 @@
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/鍵盤設計規格_台語方音V3.xlsx
+++ b/docs/鍵盤設計規格_台語方音V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0622EC-0178-437B-963B-72F6B97E902A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E5AE68-7232-4C03-A151-28800C4A9357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28815" yWindow="2955" windowWidth="28800" windowHeight="11295" tabRatio="762" activeTab="1" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="762" activeTab="1" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
   </bookViews>
   <sheets>
     <sheet name="使用按鍵解析" sheetId="9" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="930">
   <si>
     <t>Speller:</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2397,9 +2397,6 @@
   </si>
   <si>
     <t>]</t>
-  </si>
-  <si>
-    <t>ㄦ</t>
   </si>
   <si>
     <t>}</t>
@@ -3631,6 +3628,124 @@
     <t>ㆷ</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>台語音標</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>台語音標2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄬ</t>
+  </si>
+  <si>
+    <t>万</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄖ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>兀</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="18"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="254"/>
+      </rPr>
+      <t>兀</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄛ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄜ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄝ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄦ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄭ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>⁰ㄨ</t>
+  </si>
+  <si>
+    <t>⁰ㄚ</t>
+  </si>
+  <si>
+    <t>⁰ㆦ</t>
+  </si>
+  <si>
+    <t>⁰ㄝ</t>
+  </si>
+  <si>
+    <t>⁰ㄞ</t>
+  </si>
+  <si>
+    <t>⁰ㄠ</t>
+  </si>
+  <si>
+    <t>ㄥ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ㄛ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄥ</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄇ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3640,7 +3755,7 @@
     <numFmt numFmtId="176" formatCode="General;;\(&quot;空&quot;&quot;白&quot;&quot;字&quot;&quot;元&quot;\)"/>
     <numFmt numFmtId="177" formatCode="General;;"/>
   </numFmts>
-  <fonts count="184">
+  <fonts count="195">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -4882,6 +4997,75 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="254"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="254"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="18"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Microsoft JhengHei"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFC00000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="霞鶩文楷 TC"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="27">
     <fill>
@@ -5477,7 +5661,7 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="601">
+  <cellXfs count="610">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -7093,6 +7277,51 @@
     <xf numFmtId="0" fontId="117" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="7" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="73" fillId="16" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7102,15 +7331,6 @@
     <xf numFmtId="0" fontId="73" fillId="16" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="73" fillId="16" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7120,41 +7340,32 @@
     <xf numFmtId="9" fontId="73" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="7" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="184" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="185" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="186" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7163,7 +7374,7 @@
     <cellStyle name="一般 4" xfId="1" xr:uid="{D00E67AF-1809-4A9B-A488-D9A10688594D}"/>
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="81">
     <dxf>
       <fill>
         <patternFill>
@@ -7207,6 +7418,31 @@
           <bgColor theme="6"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDAEEF3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -10226,61 +10462,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{779076CF-6DEF-4E4E-89FE-E37B7352A3DC}" name="注音編碼對照表" displayName="注音編碼對照表" ref="B2:I53" totalsRowShown="0" headerRowBorderDxfId="79" tableBorderDxfId="78">
-  <autoFilter ref="B2:I53" xr:uid="{779076CF-6DEF-4E4E-89FE-E37B7352A3DC}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7ED75D5E-652B-4A3F-A63F-E28CD639A2D8}" name="序號" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{779076CF-6DEF-4E4E-89FE-E37B7352A3DC}" name="注音編碼對照表" displayName="注音編碼對照表" ref="B2:J53" totalsRowShown="0" headerRowBorderDxfId="80" tableBorderDxfId="79">
+  <autoFilter ref="B2:J53" xr:uid="{779076CF-6DEF-4E4E-89FE-E37B7352A3DC}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{7ED75D5E-652B-4A3F-A63F-E28CD639A2D8}" name="序號" dataDxfId="78">
       <calculatedColumnFormula>ROW() - 2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A7CD0E37-FA88-4B7F-9344-02DCFD03CA57}" name="鍵盤按鍵" dataDxfId="76">
-      <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC3,#REF!, 0)), "")</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{A7CD0E37-FA88-4B7F-9344-02DCFD03CA57}" name="鍵盤按鍵" dataDxfId="77">
+      <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD3,#REF!, 0)), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5803CFB3-58F1-42C5-8A9B-67D4C055A271}" name="注音編碼" dataDxfId="75">
-      <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC3,#REF!, 0)), "")</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{5803CFB3-58F1-42C5-8A9B-67D4C055A271}" name="注音編碼" dataDxfId="76">
+      <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD3,#REF!, 0)), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{529434D2-88AB-4124-93AE-208E9AF52CB4}" name="方音符號" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{A0645D5D-DBED-4761-A763-4D6D5538C014}" name="注音符號" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{66F8B891-9FE4-45B3-8BD8-51BA7DD3D43F}" name="組合符號" dataDxfId="72"/>
-    <tableColumn id="7" xr3:uid="{F4C14CB4-A82C-41D9-AF30-BE553CA46FA3}" name="國際音標" dataDxfId="71"/>
-    <tableColumn id="6" xr3:uid="{5020FE3A-F6A8-4B02-9B83-6BADE97A0BE0}" name="台語音標" dataDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{09D9CE2F-FF7F-4954-9029-DC42E2224DD4}" name="台語音標" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{529434D2-88AB-4124-93AE-208E9AF52CB4}" name="方音符號" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{A0645D5D-DBED-4761-A763-4D6D5538C014}" name="注音符號" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{66F8B891-9FE4-45B3-8BD8-51BA7DD3D43F}" name="組合符號" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{F4C14CB4-A82C-41D9-AF30-BE553CA46FA3}" name="國際音標" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{5020FE3A-F6A8-4B02-9B83-6BADE97A0BE0}" name="台語音標2" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6A40958B-9384-4E59-AE7A-3C944257DC11}" name="方音聲母表格9" displayName="方音聲母表格9" ref="K2:Q8" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66" totalsRowBorderDxfId="65">
-  <autoFilter ref="K2:Q8" xr:uid="{6A40958B-9384-4E59-AE7A-3C944257DC11}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6A40958B-9384-4E59-AE7A-3C944257DC11}" name="方音聲母表格9" displayName="方音聲母表格9" ref="L2:R8" totalsRowShown="0" headerRowDxfId="70" dataDxfId="68" headerRowBorderDxfId="69" tableBorderDxfId="67" totalsRowBorderDxfId="66">
+  <autoFilter ref="L2:R8" xr:uid="{6A40958B-9384-4E59-AE7A-3C944257DC11}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8F368751-5DB2-45B7-AEA8-1EA789D18D9E}" name="發音部位" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{565C2DE6-6770-43E6-8E08-95DB3D74F449}" name="塞音_x000a_(不送氣)" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{C60AB197-3C88-4553-AC8F-FA44CBAED771}" name="塞音_x000a_(送氣)" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{D3AC809B-436F-4540-B125-7D7963B95663}" name="濁音" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{E45EF470-ADED-4F00-ADA7-0F1E5230D10E}" name="鼻音" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{67CD2B7D-B586-43C6-A726-BDF60FE9AE6C}" name="擦音" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{0BF3A333-A1A0-4499-BCC9-FE62942F95E5}" name="邊音" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{8F368751-5DB2-45B7-AEA8-1EA789D18D9E}" name="發音部位" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{565C2DE6-6770-43E6-8E08-95DB3D74F449}" name="塞音_x000a_(不送氣)" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{C60AB197-3C88-4553-AC8F-FA44CBAED771}" name="塞音_x000a_(送氣)" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{D3AC809B-436F-4540-B125-7D7963B95663}" name="濁音" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{E45EF470-ADED-4F00-ADA7-0F1E5230D10E}" name="鼻音" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{67CD2B7D-B586-43C6-A726-BDF60FE9AE6C}" name="擦音" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{0BF3A333-A1A0-4499-BCC9-FE62942F95E5}" name="邊音" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F95EEBA-DAA3-4529-9F77-47C4D0A27E24}" name="表格1_33411" displayName="表格1_33411" ref="U2:X53" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F95EEBA-DAA3-4529-9F77-47C4D0A27E24}" name="表格1_33411" displayName="表格1_33411" ref="U2:X53" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U3:X54">
     <sortCondition ref="U3:U54" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{039C6BD6-DD3C-423D-A3C9-F25D72737C8D}" name="鍵盤按鍵" dataDxfId="55">
+    <tableColumn id="1" xr3:uid="{039C6BD6-DD3C-423D-A3C9-F25D72737C8D}" name="鍵盤按鍵" dataDxfId="56">
       <calculatedColumnFormula xml:space="preserve"> J3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7407D282-3312-489C-B29B-19D43E4E79D6}" name="注音編碼" dataDxfId="54" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{7407D282-3312-489C-B29B-19D43E4E79D6}" name="注音編碼" dataDxfId="55" dataCellStyle="一般 4">
       <calculatedColumnFormula>I3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DAFEC160-B656-4EE0-9837-61A87BB277BC}" name="注音符號" dataDxfId="53" dataCellStyle="一般 4">
+    <tableColumn id="2" xr3:uid="{DAFEC160-B656-4EE0-9837-61A87BB277BC}" name="注音符號" dataDxfId="54" dataCellStyle="一般 4">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表[注音編碼]), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{716636BA-FE9C-4F70-80B3-61C875130210}" name="台語音標" dataDxfId="52" dataCellStyle="一般 4">
-      <calculatedColumnFormula array="1" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{716636BA-FE9C-4F70-80B3-61C875130210}" name="台語音標" dataDxfId="53" dataCellStyle="一般 4">
+      <calculatedColumnFormula array="1" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10288,33 +10525,33 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8316A4BE-CA72-47DE-AE0C-9F97AD29E366}" name="表格1" displayName="表格1" ref="C4:G56" totalsRowShown="0" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8316A4BE-CA72-47DE-AE0C-9F97AD29E366}" name="表格1" displayName="表格1" ref="C4:G56" totalsRowShown="0" tableBorderDxfId="52">
   <autoFilter ref="C4:G56" xr:uid="{CBD99B6E-1695-45CA-A35A-919D424705A0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{23C441A4-A9BF-4AF3-9A00-C54EFA849863}" name="按鍵字元" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{BF68382C-29B0-42B3-B1E7-6BBFB43FDBF8}" name="注音符號" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{53638260-1BF6-4965-A4AE-956982740802}" name="方音符號" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{DCF6B5DB-F2BF-4A75-8F81-445A20F5EFEC}" name="音標編碼" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{138EEA27-F029-4B76-B6E7-B073EAAE87F1}" name="台語音標" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{23C441A4-A9BF-4AF3-9A00-C54EFA849863}" name="按鍵字元" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{BF68382C-29B0-42B3-B1E7-6BBFB43FDBF8}" name="注音符號" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{53638260-1BF6-4965-A4AE-956982740802}" name="方音符號" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{DCF6B5DB-F2BF-4A75-8F81-445A20F5EFEC}" name="音標編碼" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{138EEA27-F029-4B76-B6E7-B073EAAE87F1}" name="台語音標" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77F4D247-1923-4E49-B92A-50848D28AF83}" name="表格1_334" displayName="表格1_334" ref="S2:U44" totalsRowShown="0" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77F4D247-1923-4E49-B92A-50848D28AF83}" name="表格1_334" displayName="表格1_334" ref="S2:U44" totalsRowShown="0" headerRowDxfId="46">
   <autoFilter ref="S2:U44" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S3:U44">
     <sortCondition ref="S3:S44" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2CDC81F5-DBE5-45CF-8D10-9B558D6422EC}" name="鍵盤按鍵" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{2CDC81F5-DBE5-45CF-8D10-9B558D6422EC}" name="鍵盤按鍵" dataDxfId="45">
       <calculatedColumnFormula>H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{52141FD4-4282-4655-8FDB-25D018179FEA}" name="字典編碼" dataDxfId="43" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{52141FD4-4282-4655-8FDB-25D018179FEA}" name="字典編碼" dataDxfId="44" dataCellStyle="一般 4">
       <calculatedColumnFormula>G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{59B967E3-C71C-4CF6-991D-C8F093BAB101}" name="方音符號" dataDxfId="42">
+    <tableColumn id="2" xr3:uid="{59B967E3-C71C-4CF6-991D-C8F093BAB101}" name="方音符號" dataDxfId="43">
       <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10323,44 +10560,44 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CB332761-5FFA-4AA1-A510-7EB68827E47D}" name="方音聲母表格" displayName="方音聲母表格" ref="B3:H9" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CB332761-5FFA-4AA1-A510-7EB68827E47D}" name="方音聲母表格" displayName="方音聲母表格" ref="B3:H9" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39" totalsRowBorderDxfId="38">
   <autoFilter ref="B3:H9" xr:uid="{CB332761-5FFA-4AA1-A510-7EB68827E47D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D99DF20F-51FB-47D5-B4CC-DA04A48AAC2D}" name="發音部位" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{6BC15A71-E0D5-404C-A6A6-8B01367E9B89}" name="塞音(不送氣)" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{44295C3E-0304-4D25-AA15-E5C51BA36FD4}" name="塞音(送氣)" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{F4CC72CD-7170-4DE4-8D5A-C18C426CA527}" name="濁音" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{CE151E5C-E9DA-4A02-AD63-353CCFA6087C}" name="鼻音" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{69AB656D-E99F-4EEB-9854-42DF77ECEB05}" name="擦音" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{F61BA027-9E56-47A1-8224-3F0734C11F32}" name="邊音" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{D99DF20F-51FB-47D5-B4CC-DA04A48AAC2D}" name="發音部位" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{6BC15A71-E0D5-404C-A6A6-8B01367E9B89}" name="塞音(不送氣)" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{44295C3E-0304-4D25-AA15-E5C51BA36FD4}" name="塞音(送氣)" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{F4CC72CD-7170-4DE4-8D5A-C18C426CA527}" name="濁音" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{CE151E5C-E9DA-4A02-AD63-353CCFA6087C}" name="鼻音" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{69AB656D-E99F-4EEB-9854-42DF77ECEB05}" name="擦音" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{F61BA027-9E56-47A1-8224-3F0734C11F32}" name="邊音" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{279C6517-7F6D-480E-B1F2-0C6C64BD340C}" name="方音韻母表格" displayName="方音韻母表格" ref="B3:U8" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{279C6517-7F6D-480E-B1F2-0C6C64BD340C}" name="方音韻母表格" displayName="方音韻母表格" ref="B3:U8" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{D5BB5D32-B8B3-4985-99FE-4CAE416F8896}" name="韻腹" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{2E75F452-C9EB-485A-898D-31B0B52F386A}" name="a" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{232D45FA-6A65-4DC6-83E0-957B07FDBA26}" name="aɪ" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{70955649-D6B5-40D6-8690-B978B91DB6A6}" name="aʊ" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{17517C7F-5843-41D1-B4A0-D822E2A05A3F}" name="e" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{A32FB388-F51D-4A09-8143-A8FE8C2735DE}" name="i" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{0E349367-F4AB-4C53-8AD3-78E3A14DA801}" name="ɪa" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{79DEC6A5-E8D0-4D21-9F9D-F46FE120B69D}" name="ɪaʊ" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{9744BF02-11F5-4A49-94C9-F7ABD46F3CF7}" name="ɪə" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{7ECBA68D-4E2D-4AE6-95E9-14B150FB60F3}" name="ɪɔ" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{AA74AB0B-66F4-4084-A3FE-D313C4537337}" name="iu" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{952CA3C9-B72B-4B4A-8975-0116A219DC35}" name="ə" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{889BAAAD-336F-4D7B-A274-546C3C9BAC2F}" name="ɔ" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{91C2AF01-8439-4A47-A026-6CDF055DF255}" name="u" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{5AC88F01-3D1A-4AB5-A9A0-C569C4DDA3AA}" name="ua" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{53FD8BAA-0AD0-4BA5-A488-E8FBF6E3B776}" name="uaɪ" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{AA997DB6-667B-42B6-9983-F5C6536CECFC}" name="ue" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{07146182-EDC0-48F7-B098-DF65D5099290}" name="ui" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{C0F0792E-1F02-4269-AD48-9C7CAC2FFDA8}" name="m̩" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{CC92EBF2-6977-48AE-A3D3-E116BF9C29F9}" name="ŋ̍" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{D5BB5D32-B8B3-4985-99FE-4CAE416F8896}" name="韻腹" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{2E75F452-C9EB-485A-898D-31B0B52F386A}" name="a" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{232D45FA-6A65-4DC6-83E0-957B07FDBA26}" name="aɪ" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{70955649-D6B5-40D6-8690-B978B91DB6A6}" name="aʊ" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{17517C7F-5843-41D1-B4A0-D822E2A05A3F}" name="e" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{A32FB388-F51D-4A09-8143-A8FE8C2735DE}" name="i" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{0E349367-F4AB-4C53-8AD3-78E3A14DA801}" name="ɪa" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{79DEC6A5-E8D0-4D21-9F9D-F46FE120B69D}" name="ɪaʊ" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{9744BF02-11F5-4A49-94C9-F7ABD46F3CF7}" name="ɪə" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{7ECBA68D-4E2D-4AE6-95E9-14B150FB60F3}" name="ɪɔ" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{AA74AB0B-66F4-4084-A3FE-D313C4537337}" name="iu" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{952CA3C9-B72B-4B4A-8975-0116A219DC35}" name="ə" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{889BAAAD-336F-4D7B-A274-546C3C9BAC2F}" name="ɔ" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{91C2AF01-8439-4A47-A026-6CDF055DF255}" name="u" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{5AC88F01-3D1A-4AB5-A9A0-C569C4DDA3AA}" name="ua" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{53FD8BAA-0AD0-4BA5-A488-E8FBF6E3B776}" name="uaɪ" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{AA997DB6-667B-42B6-9983-F5C6536CECFC}" name="ue" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{07146182-EDC0-48F7-B098-DF65D5099290}" name="ui" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{C0F0792E-1F02-4269-AD48-9C7CAC2FFDA8}" name="m̩" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{CC92EBF2-6977-48AE-A3D3-E116BF9C29F9}" name="ŋ̍" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10697,10 +10934,10 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C2" s="383" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D2" s="383"/>
       <c r="E2" s="383"/>
@@ -10712,7 +10949,7 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C4" s="384" t="s">
         <v>526</v>
@@ -10720,7 +10957,7 @@
     </row>
     <row r="5" spans="2:10" ht="23.25">
       <c r="B5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C5" s="11">
         <f xml:space="preserve"> SEARCH($C$4,$C$2,1) + 1</f>
@@ -10730,7 +10967,7 @@
     </row>
     <row r="6" spans="2:10" ht="23.25">
       <c r="B6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C6" s="11">
         <f xml:space="preserve"> SEARCH($C$4,$C$2,C5+1) - 1</f>
@@ -10740,7 +10977,7 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C7" s="383" t="str">
         <f xml:space="preserve"> MID(C2, C5, C6-C5+1)</f>
@@ -10756,7 +10993,7 @@
     </row>
     <row r="8" spans="2:10" ht="25.5">
       <c r="B8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C8" s="385">
         <f xml:space="preserve"> LEN(C7)</f>
@@ -11219,7 +11456,7 @@
         <v>46</v>
       </c>
       <c r="C56" s="375" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -11232,7 +11469,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D57" s="352" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -15066,137 +15303,137 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="437" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="441" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C3" s="442" t="s">
+        <v>693</v>
+      </c>
+      <c r="D3" s="442" t="s">
         <v>694</v>
       </c>
-      <c r="D3" s="442" t="s">
+      <c r="E3" s="442" t="s">
         <v>695</v>
       </c>
-      <c r="E3" s="442" t="s">
+      <c r="F3" s="442" t="s">
         <v>696</v>
       </c>
-      <c r="F3" s="442" t="s">
+      <c r="G3" s="442" t="s">
         <v>697</v>
       </c>
-      <c r="G3" s="442" t="s">
+      <c r="H3" s="443" t="s">
         <v>698</v>
-      </c>
-      <c r="H3" s="443" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="438" t="s">
+        <v>699</v>
+      </c>
+      <c r="C4" s="448" t="s">
         <v>700</v>
       </c>
-      <c r="C4" s="448" t="s">
+      <c r="D4" s="448" t="s">
         <v>701</v>
       </c>
-      <c r="D4" s="448" t="s">
+      <c r="E4" s="448" t="s">
         <v>702</v>
       </c>
-      <c r="E4" s="448" t="s">
+      <c r="F4" s="448" t="s">
         <v>703</v>
-      </c>
-      <c r="F4" s="448" t="s">
-        <v>704</v>
       </c>
       <c r="G4" s="448"/>
       <c r="H4" s="449"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="438" t="s">
+        <v>704</v>
+      </c>
+      <c r="C5" s="448" t="s">
         <v>705</v>
       </c>
-      <c r="C5" s="448" t="s">
+      <c r="D5" s="448" t="s">
         <v>706</v>
-      </c>
-      <c r="D5" s="448" t="s">
-        <v>707</v>
       </c>
       <c r="E5" s="448"/>
       <c r="F5" s="448" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G5" s="448"/>
       <c r="H5" s="449" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="438" t="s">
+        <v>709</v>
+      </c>
+      <c r="C6" s="448" t="s">
         <v>710</v>
       </c>
-      <c r="C6" s="448" t="s">
+      <c r="D6" s="448" t="s">
         <v>711</v>
       </c>
-      <c r="D6" s="448" t="s">
+      <c r="E6" s="448" t="s">
         <v>712</v>
-      </c>
-      <c r="E6" s="448" t="s">
-        <v>713</v>
       </c>
       <c r="F6" s="448"/>
       <c r="G6" s="448" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H6" s="449"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="438" t="s">
+        <v>714</v>
+      </c>
+      <c r="C7" s="448" t="s">
         <v>715</v>
       </c>
-      <c r="C7" s="448" t="s">
+      <c r="D7" s="448" t="s">
         <v>716</v>
       </c>
-      <c r="D7" s="448" t="s">
+      <c r="E7" s="448" t="s">
         <v>717</v>
-      </c>
-      <c r="E7" s="448" t="s">
-        <v>718</v>
       </c>
       <c r="F7" s="448"/>
       <c r="G7" s="448" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H7" s="449"/>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="438" t="s">
+        <v>719</v>
+      </c>
+      <c r="C8" s="448" t="s">
         <v>720</v>
       </c>
-      <c r="C8" s="448" t="s">
+      <c r="D8" s="448" t="s">
         <v>721</v>
       </c>
-      <c r="D8" s="448" t="s">
+      <c r="E8" s="448" t="s">
         <v>722</v>
       </c>
-      <c r="E8" s="448" t="s">
+      <c r="F8" s="448" t="s">
         <v>723</v>
-      </c>
-      <c r="F8" s="448" t="s">
-        <v>724</v>
       </c>
       <c r="G8" s="448"/>
       <c r="H8" s="449"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="440" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C9" s="450"/>
       <c r="D9" s="450"/>
       <c r="E9" s="450"/>
       <c r="F9" s="450"/>
       <c r="G9" s="450" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H9" s="451"/>
     </row>
@@ -15227,21 +15464,21 @@
   <sheetData>
     <row r="1" spans="2:21">
       <c r="B1" s="437" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3" spans="2:21" ht="30">
       <c r="B3" s="439" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C3" s="510" t="s">
         <v>351</v>
       </c>
       <c r="D3" s="510" t="s">
+        <v>798</v>
+      </c>
+      <c r="E3" s="510" t="s">
         <v>799</v>
-      </c>
-      <c r="E3" s="510" t="s">
-        <v>800</v>
       </c>
       <c r="F3" s="510" t="s">
         <v>329</v>
@@ -15250,25 +15487,25 @@
         <v>279</v>
       </c>
       <c r="H3" s="510" t="s">
+        <v>800</v>
+      </c>
+      <c r="I3" s="512" t="s">
+        <v>803</v>
+      </c>
+      <c r="J3" s="510" t="s">
         <v>801</v>
       </c>
-      <c r="I3" s="512" t="s">
-        <v>804</v>
-      </c>
-      <c r="J3" s="510" t="s">
-        <v>802</v>
-      </c>
       <c r="K3" s="510" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="L3" s="510" t="s">
         <v>318</v>
       </c>
       <c r="M3" s="510" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="N3" s="510" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="O3" s="510" t="s">
         <v>196</v>
@@ -15277,7 +15514,7 @@
         <v>295</v>
       </c>
       <c r="Q3" s="510" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R3" s="510" t="s">
         <v>292</v>
@@ -15286,15 +15523,15 @@
         <v>298</v>
       </c>
       <c r="T3" s="510" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U3" s="511" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="4" spans="2:21">
       <c r="B4" s="438" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C4" s="444" t="s">
         <v>58</v>
@@ -15321,7 +15558,7 @@
         <v>308</v>
       </c>
       <c r="K4" s="444" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L4" s="444" t="s">
         <v>320</v>
@@ -15342,7 +15579,7 @@
         <v>291</v>
       </c>
       <c r="R4" s="444" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="S4" s="444" t="s">
         <v>300</v>
@@ -15356,7 +15593,7 @@
     </row>
     <row r="5" spans="2:21">
       <c r="B5" s="438" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C5" s="444" t="s">
         <v>115</v>
@@ -15411,10 +15648,10 @@
       <c r="E6" s="444"/>
       <c r="F6" s="444"/>
       <c r="G6" s="444" t="s">
+        <v>735</v>
+      </c>
+      <c r="H6" s="444" t="s">
         <v>736</v>
-      </c>
-      <c r="H6" s="444" t="s">
-        <v>737</v>
       </c>
       <c r="I6" s="444"/>
       <c r="J6" s="444"/>
@@ -15468,7 +15705,7 @@
     </row>
     <row r="8" spans="2:21">
       <c r="B8" s="453" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C8" s="446" t="s">
         <v>95</v>
@@ -15511,36 +15748,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B49A970-BE57-43FE-A6CF-9D1B3551DB21}">
-  <dimension ref="B1:Q82"/>
+  <dimension ref="B1:R82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
     <col min="2" max="2" width="6.3984375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" style="397" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="507"/>
-    <col min="8" max="8" width="10.59765625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" style="386" customWidth="1"/>
-    <col min="13" max="18" width="9.69921875" customWidth="1"/>
+    <col min="3" max="6" width="10.59765625" style="397" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="8.796875" style="507"/>
+    <col min="9" max="9" width="10.59765625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" style="386" customWidth="1"/>
+    <col min="14" max="19" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="32.25">
+    <row r="1" spans="2:18" ht="32.25">
       <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="139"/>
       <c r="D1" s="139"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="138"/>
-    </row>
-    <row r="2" spans="2:17" ht="33">
+      <c r="E1" s="139"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="138"/>
+    </row>
+    <row r="2" spans="2:18" ht="33">
       <c r="B2" s="454" t="s">
         <v>14</v>
       </c>
@@ -15550,44 +15788,47 @@
       <c r="D2" s="456" t="s">
         <v>585</v>
       </c>
-      <c r="E2" s="553" t="s">
+      <c r="E2" s="456" t="s">
+        <v>908</v>
+      </c>
+      <c r="F2" s="553" t="s">
         <v>386</v>
       </c>
-      <c r="F2" s="457" t="s">
+      <c r="G2" s="457" t="s">
         <v>385</v>
       </c>
-      <c r="G2" s="457" t="s">
-        <v>815</v>
-      </c>
       <c r="H2" s="457" t="s">
-        <v>744</v>
+        <v>814</v>
       </c>
       <c r="I2" s="457" t="s">
-        <v>388</v>
-      </c>
-      <c r="K2" s="465" t="s">
-        <v>727</v>
-      </c>
-      <c r="L2" s="466" t="s">
+        <v>743</v>
+      </c>
+      <c r="J2" s="457" t="s">
+        <v>909</v>
+      </c>
+      <c r="L2" s="465" t="s">
+        <v>726</v>
+      </c>
+      <c r="M2" s="466" t="s">
+        <v>741</v>
+      </c>
+      <c r="N2" s="466" t="s">
         <v>742</v>
       </c>
-      <c r="M2" s="466" t="s">
-        <v>743</v>
-      </c>
-      <c r="N2" s="467" t="s">
+      <c r="O2" s="467" t="s">
+        <v>695</v>
+      </c>
+      <c r="P2" s="467" t="s">
         <v>696</v>
       </c>
-      <c r="O2" s="467" t="s">
+      <c r="Q2" s="467" t="s">
         <v>697</v>
       </c>
-      <c r="P2" s="467" t="s">
+      <c r="R2" s="468" t="s">
         <v>698</v>
       </c>
-      <c r="Q2" s="468" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" ht="32.25">
+    </row>
+    <row r="3" spans="2:18" ht="32.25">
       <c r="B3" s="25">
         <f>ROW() - 2</f>
         <v>1</v>
@@ -15598,38 +15839,41 @@
       <c r="D3" s="458" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="458" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="459" t="s">
+      <c r="F3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="459"/>
-      <c r="H3" s="498" t="s">
-        <v>745</v>
-      </c>
-      <c r="I3" s="460" t="s">
+      <c r="G3" s="459" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="459"/>
+      <c r="I3" s="498" t="s">
+        <v>744</v>
+      </c>
+      <c r="J3" s="460" t="s">
         <v>217</v>
       </c>
-      <c r="K3" s="473" t="s">
+      <c r="L3" s="473" t="s">
+        <v>699</v>
+      </c>
+      <c r="M3" s="469" t="s">
         <v>700</v>
       </c>
-      <c r="L3" s="469" t="s">
+      <c r="N3" s="469" t="s">
         <v>701</v>
       </c>
-      <c r="M3" s="469" t="s">
+      <c r="O3" s="469" t="s">
         <v>702</v>
       </c>
-      <c r="N3" s="469" t="s">
+      <c r="P3" s="469" t="s">
         <v>703</v>
       </c>
-      <c r="O3" s="469" t="s">
-        <v>704</v>
-      </c>
-      <c r="P3" s="469"/>
-      <c r="Q3" s="470"/>
-    </row>
-    <row r="4" spans="2:17" ht="32.25">
+      <c r="Q3" s="469"/>
+      <c r="R3" s="470"/>
+    </row>
+    <row r="4" spans="2:18" ht="32.25">
       <c r="B4" s="31">
         <f t="shared" ref="B4:B66" si="0">ROW() - 2</f>
         <v>2</v>
@@ -15640,38 +15884,41 @@
       <c r="D4" s="379" t="s">
         <v>400</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="379" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="431" t="s">
+      <c r="F4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="431"/>
-      <c r="H4" s="499" t="s">
-        <v>762</v>
-      </c>
-      <c r="I4" s="461" t="s">
+      <c r="G4" s="431" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="431"/>
+      <c r="I4" s="499" t="s">
+        <v>761</v>
+      </c>
+      <c r="J4" s="461" t="s">
         <v>392</v>
       </c>
-      <c r="K4" s="473" t="s">
+      <c r="L4" s="473" t="s">
+        <v>704</v>
+      </c>
+      <c r="M4" s="469" t="s">
         <v>705</v>
       </c>
-      <c r="L4" s="469" t="s">
+      <c r="N4" s="469" t="s">
         <v>706</v>
       </c>
-      <c r="M4" s="469" t="s">
+      <c r="O4" s="469"/>
+      <c r="P4" s="469" t="s">
         <v>707</v>
       </c>
-      <c r="N4" s="469"/>
-      <c r="O4" s="469" t="s">
+      <c r="Q4" s="469"/>
+      <c r="R4" s="470" t="s">
         <v>708</v>
       </c>
-      <c r="P4" s="469"/>
-      <c r="Q4" s="470" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" ht="32.25">
+    </row>
+    <row r="5" spans="2:18" ht="32.25">
       <c r="B5" s="31">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -15682,38 +15929,41 @@
       <c r="D5" s="379" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="601" t="s">
+        <v>911</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="431" t="s">
-        <v>651</v>
-      </c>
-      <c r="G5" s="431"/>
-      <c r="H5" s="499" t="s">
-        <v>747</v>
-      </c>
-      <c r="I5" s="461" t="s">
+      <c r="G5" s="431" t="s">
+        <v>650</v>
+      </c>
+      <c r="H5" s="431"/>
+      <c r="I5" s="499" t="s">
+        <v>746</v>
+      </c>
+      <c r="J5" s="461" t="s">
         <v>190</v>
       </c>
-      <c r="K5" s="473" t="s">
+      <c r="L5" s="473" t="s">
+        <v>709</v>
+      </c>
+      <c r="M5" s="469" t="s">
         <v>710</v>
       </c>
-      <c r="L5" s="469" t="s">
+      <c r="N5" s="469" t="s">
         <v>711</v>
       </c>
-      <c r="M5" s="469" t="s">
+      <c r="O5" s="469" t="s">
         <v>712</v>
       </c>
-      <c r="N5" s="469" t="s">
+      <c r="P5" s="469"/>
+      <c r="Q5" s="469" t="s">
         <v>713</v>
       </c>
-      <c r="O5" s="469"/>
-      <c r="P5" s="469" t="s">
-        <v>714</v>
-      </c>
-      <c r="Q5" s="470"/>
-    </row>
-    <row r="6" spans="2:17" ht="32.25">
+      <c r="R5" s="470"/>
+    </row>
+    <row r="6" spans="2:18" ht="32.25">
       <c r="B6" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -15724,38 +15974,41 @@
       <c r="D6" s="462" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="462" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="463" t="s">
+      <c r="F6" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="463"/>
-      <c r="H6" s="500" t="s">
-        <v>746</v>
-      </c>
-      <c r="I6" s="464" t="s">
+      <c r="G6" s="463" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="463"/>
+      <c r="I6" s="500" t="s">
+        <v>745</v>
+      </c>
+      <c r="J6" s="464" t="s">
         <v>143</v>
       </c>
-      <c r="K6" s="473" t="s">
+      <c r="L6" s="473" t="s">
+        <v>714</v>
+      </c>
+      <c r="M6" s="469" t="s">
         <v>715</v>
       </c>
-      <c r="L6" s="469" t="s">
+      <c r="N6" s="469" t="s">
         <v>716</v>
       </c>
-      <c r="M6" s="469" t="s">
+      <c r="O6" s="469" t="s">
         <v>717</v>
       </c>
-      <c r="N6" s="469" t="s">
+      <c r="P6" s="469"/>
+      <c r="Q6" s="469" t="s">
         <v>718</v>
       </c>
-      <c r="O6" s="469"/>
-      <c r="P6" s="469" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q6" s="470"/>
-    </row>
-    <row r="7" spans="2:17" ht="32.25">
+      <c r="R6" s="470"/>
+    </row>
+    <row r="7" spans="2:18" ht="32.25">
       <c r="B7" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -15766,38 +16019,41 @@
       <c r="D7" s="458" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="458" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="459" t="s">
+      <c r="F7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="459"/>
-      <c r="H7" s="498" t="s">
-        <v>748</v>
-      </c>
-      <c r="I7" s="460" t="s">
+      <c r="G7" s="459" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="459"/>
+      <c r="I7" s="498" t="s">
+        <v>747</v>
+      </c>
+      <c r="J7" s="460" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="473" t="s">
+      <c r="L7" s="473" t="s">
+        <v>719</v>
+      </c>
+      <c r="M7" s="469" t="s">
         <v>720</v>
       </c>
-      <c r="L7" s="469" t="s">
+      <c r="N7" s="469" t="s">
         <v>721</v>
       </c>
-      <c r="M7" s="469" t="s">
+      <c r="O7" s="469" t="s">
         <v>722</v>
       </c>
-      <c r="N7" s="469" t="s">
+      <c r="P7" s="469" t="s">
         <v>723</v>
       </c>
-      <c r="O7" s="469" t="s">
-        <v>724</v>
-      </c>
-      <c r="P7" s="469"/>
-      <c r="Q7" s="470"/>
-    </row>
-    <row r="8" spans="2:17" ht="32.25">
+      <c r="Q7" s="469"/>
+      <c r="R7" s="470"/>
+    </row>
+    <row r="8" spans="2:18" ht="32.25">
       <c r="B8" s="31">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -15808,32 +16064,35 @@
       <c r="D8" s="379" t="s">
         <v>408</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="379" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="431" t="s">
+      <c r="F8" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="431"/>
-      <c r="H8" s="499" t="s">
-        <v>763</v>
-      </c>
-      <c r="I8" s="461" t="s">
+      <c r="G8" s="431" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="431"/>
+      <c r="I8" s="499" t="s">
+        <v>762</v>
+      </c>
+      <c r="J8" s="461" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="474" t="s">
-        <v>725</v>
-      </c>
-      <c r="L8" s="471"/>
+      <c r="L8" s="474" t="s">
+        <v>724</v>
+      </c>
       <c r="M8" s="471"/>
       <c r="N8" s="471"/>
       <c r="O8" s="471"/>
-      <c r="P8" s="471" t="s">
-        <v>726</v>
-      </c>
-      <c r="Q8" s="472"/>
-    </row>
-    <row r="9" spans="2:17" ht="32.25">
+      <c r="P8" s="471"/>
+      <c r="Q8" s="471" t="s">
+        <v>725</v>
+      </c>
+      <c r="R8" s="472"/>
+    </row>
+    <row r="9" spans="2:18" ht="32.25">
       <c r="B9" s="31">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -15844,21 +16103,24 @@
       <c r="D9" s="379" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="379" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="431" t="s">
+      <c r="F9" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="431"/>
-      <c r="H9" s="499" t="s">
-        <v>749</v>
-      </c>
-      <c r="I9" s="461" t="s">
+      <c r="G9" s="431" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="431"/>
+      <c r="I9" s="499" t="s">
+        <v>748</v>
+      </c>
+      <c r="J9" s="461" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="32.25">
+    <row r="10" spans="2:18" ht="32.25">
       <c r="B10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -15869,21 +16131,24 @@
       <c r="D10" s="462" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="462" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="463" t="s">
+      <c r="F10" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="463"/>
-      <c r="H10" s="500" t="s">
-        <v>750</v>
-      </c>
-      <c r="I10" s="464" t="s">
+      <c r="G10" s="463" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="463"/>
+      <c r="I10" s="500" t="s">
+        <v>749</v>
+      </c>
+      <c r="J10" s="464" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="32.25">
+    <row r="11" spans="2:18" ht="32.25">
       <c r="B11" s="25">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -15894,21 +16159,24 @@
       <c r="D11" s="476" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="477" t="s">
+      <c r="E11" s="476" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="459" t="s">
+      <c r="F11" s="477" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="459"/>
-      <c r="H11" s="498" t="s">
-        <v>752</v>
-      </c>
-      <c r="I11" s="478" t="s">
+      <c r="G11" s="459" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="459"/>
+      <c r="I11" s="498" t="s">
+        <v>751</v>
+      </c>
+      <c r="J11" s="478" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="32.25">
+    <row r="12" spans="2:18" ht="32.25">
       <c r="B12" s="31">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -15919,21 +16187,24 @@
       <c r="D12" s="480" t="s">
         <v>305</v>
       </c>
-      <c r="E12" s="481" t="s">
+      <c r="E12" s="480" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="431" t="s">
+      <c r="F12" s="481" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="431"/>
-      <c r="H12" s="499" t="s">
-        <v>751</v>
-      </c>
-      <c r="I12" s="482" t="s">
+      <c r="G12" s="431" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="431"/>
+      <c r="I12" s="499" t="s">
+        <v>750</v>
+      </c>
+      <c r="J12" s="482" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="32.25">
+    <row r="13" spans="2:18" ht="32.25">
       <c r="B13" s="31">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -15944,21 +16215,24 @@
       <c r="D13" s="379" t="s">
         <v>254</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="602" t="s">
+        <v>912</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>442</v>
       </c>
-      <c r="F13" s="431" t="s">
+      <c r="G13" s="431" t="s">
         <v>441</v>
       </c>
-      <c r="G13" s="431"/>
-      <c r="H13" s="499" t="s">
-        <v>753</v>
-      </c>
-      <c r="I13" s="461" t="s">
+      <c r="H13" s="431"/>
+      <c r="I13" s="499" t="s">
+        <v>752</v>
+      </c>
+      <c r="J13" s="461" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="32.25">
+    <row r="14" spans="2:18" ht="32.25">
       <c r="B14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -15969,21 +16243,24 @@
       <c r="D14" s="484" t="s">
         <v>338</v>
       </c>
-      <c r="E14" s="485" t="s">
+      <c r="E14" s="484" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="463" t="s">
+      <c r="F14" s="485" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="463"/>
-      <c r="H14" s="500" t="s">
-        <v>754</v>
-      </c>
-      <c r="I14" s="486" t="s">
+      <c r="G14" s="463" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="463"/>
+      <c r="I14" s="500" t="s">
+        <v>753</v>
+      </c>
+      <c r="J14" s="486" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="32.25">
+    <row r="15" spans="2:18" ht="32.25">
       <c r="B15" s="25">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -15994,21 +16271,24 @@
       <c r="D15" s="458" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="458" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="459" t="s">
+      <c r="F15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="459"/>
-      <c r="H15" s="498" t="s">
-        <v>759</v>
-      </c>
-      <c r="I15" s="460" t="s">
+      <c r="G15" s="459" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="459"/>
+      <c r="I15" s="498" t="s">
+        <v>758</v>
+      </c>
+      <c r="J15" s="460" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="32.25">
+    <row r="16" spans="2:18" ht="32.25">
       <c r="B16" s="31">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -16019,21 +16299,24 @@
       <c r="D16" s="379" t="s">
         <v>425</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="603" t="s">
+        <v>913</v>
+      </c>
+      <c r="F16" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="431" t="s">
+      <c r="G16" s="431" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="431"/>
-      <c r="H16" s="499" t="s">
-        <v>764</v>
-      </c>
-      <c r="I16" s="461" t="s">
+      <c r="H16" s="431"/>
+      <c r="I16" s="499" t="s">
+        <v>763</v>
+      </c>
+      <c r="J16" s="461" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="32.25">
+    <row r="17" spans="2:16" ht="32.25">
       <c r="B17" s="31">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -16044,46 +16327,52 @@
       <c r="D17" s="379" t="s">
         <v>184</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="601" t="s">
+        <v>914</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="431" t="s">
-        <v>652</v>
-      </c>
-      <c r="G17" s="431"/>
-      <c r="H17" s="499" t="s">
-        <v>760</v>
-      </c>
-      <c r="I17" s="461" t="s">
+      <c r="G17" s="431" t="s">
+        <v>651</v>
+      </c>
+      <c r="H17" s="431"/>
+      <c r="I17" s="499" t="s">
+        <v>759</v>
+      </c>
+      <c r="J17" s="461" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="32.25">
+    <row r="18" spans="2:16" ht="32.25">
       <c r="B18" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C18" s="483" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D18" s="484" t="s">
         <v>341</v>
       </c>
-      <c r="E18" s="485" t="s">
+      <c r="E18" s="604" t="s">
+        <v>915</v>
+      </c>
+      <c r="F18" s="485" t="s">
+        <v>646</v>
+      </c>
+      <c r="G18" s="463" t="s">
         <v>647</v>
       </c>
-      <c r="F18" s="463" t="s">
-        <v>648</v>
-      </c>
-      <c r="G18" s="463"/>
-      <c r="H18" s="500" t="s">
-        <v>765</v>
-      </c>
-      <c r="I18" s="486" t="s">
+      <c r="H18" s="463"/>
+      <c r="I18" s="500" t="s">
+        <v>764</v>
+      </c>
+      <c r="J18" s="486" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="32.25">
+    <row r="19" spans="2:16" ht="32.25">
       <c r="B19" s="55">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -16094,21 +16383,24 @@
       <c r="D19" s="488" t="s">
         <v>422</v>
       </c>
-      <c r="E19" s="489" t="s">
+      <c r="E19" s="488" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="490" t="s">
+      <c r="F19" s="489" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="490"/>
-      <c r="H19" s="501" t="s">
-        <v>761</v>
-      </c>
-      <c r="I19" s="491" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="32.25">
+      <c r="G19" s="490" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="490"/>
+      <c r="I19" s="501" t="s">
+        <v>760</v>
+      </c>
+      <c r="J19" s="491" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="32.25">
       <c r="B20" s="87">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -16119,21 +16411,24 @@
       <c r="D20" s="458" t="s">
         <v>279</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="458" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="459" t="s">
+      <c r="F20" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="459"/>
-      <c r="H20" s="502" t="s">
-        <v>766</v>
-      </c>
-      <c r="I20" s="460" t="s">
+      <c r="G20" s="459" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="459"/>
+      <c r="I20" s="502" t="s">
+        <v>765</v>
+      </c>
+      <c r="J20" s="460" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="32.25">
+    <row r="21" spans="2:16" ht="32.25">
       <c r="B21" s="78">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -16144,21 +16439,24 @@
       <c r="D21" s="493" t="s">
         <v>196</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="493" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="463" t="s">
+      <c r="F21" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="463"/>
-      <c r="H21" s="503" t="s">
-        <v>767</v>
-      </c>
-      <c r="I21" s="464" t="s">
+      <c r="G21" s="463" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="463"/>
+      <c r="I21" s="503" t="s">
+        <v>766</v>
+      </c>
+      <c r="J21" s="464" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="32.25">
+    <row r="22" spans="2:16" ht="32.25">
       <c r="B22" s="87">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -16169,21 +16467,24 @@
       <c r="D22" s="458" t="s">
         <v>351</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="458" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="459" t="s">
+      <c r="F22" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="459"/>
-      <c r="H22" s="502" t="s">
-        <v>770</v>
-      </c>
-      <c r="I22" s="460" t="s">
+      <c r="G22" s="459" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="459"/>
+      <c r="I22" s="502" t="s">
+        <v>769</v>
+      </c>
+      <c r="J22" s="460" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="32.25">
+    <row r="23" spans="2:16" ht="32.25">
       <c r="B23" s="77">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -16194,21 +16495,24 @@
       <c r="D23" s="379" t="s">
         <v>267</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="602" t="s">
+        <v>916</v>
+      </c>
+      <c r="F23" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="431" t="s">
+      <c r="G23" s="431" t="s">
         <v>483</v>
       </c>
-      <c r="G23" s="431"/>
-      <c r="H23" s="504" t="s">
-        <v>768</v>
-      </c>
-      <c r="I23" s="461" t="s">
+      <c r="H23" s="431"/>
+      <c r="I23" s="504" t="s">
+        <v>767</v>
+      </c>
+      <c r="J23" s="461" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="32.25">
+    <row r="24" spans="2:16" ht="32.25">
       <c r="B24" s="77">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -16219,21 +16523,24 @@
       <c r="D24" s="379" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="605" t="s">
+        <v>917</v>
+      </c>
+      <c r="F24" s="32" t="s">
         <v>473</v>
       </c>
-      <c r="F24" s="431" t="s">
-        <v>473</v>
-      </c>
-      <c r="G24" s="431"/>
-      <c r="H24" s="504" t="s">
-        <v>769</v>
-      </c>
-      <c r="I24" s="461" t="s">
+      <c r="G24" s="431" t="s">
+        <v>917</v>
+      </c>
+      <c r="H24" s="431"/>
+      <c r="I24" s="504" t="s">
+        <v>768</v>
+      </c>
+      <c r="J24" s="461" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="32.25">
+    <row r="25" spans="2:16" ht="32.25">
       <c r="B25" s="78">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -16244,36 +16551,39 @@
       <c r="D25" s="495" t="s">
         <v>329</v>
       </c>
-      <c r="E25" s="496" t="s">
+      <c r="E25" s="606" t="s">
+        <v>918</v>
+      </c>
+      <c r="F25" s="496" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="463" t="s">
-        <v>637</v>
-      </c>
-      <c r="G25" s="463"/>
-      <c r="H25" s="509" t="s">
-        <v>786</v>
-      </c>
-      <c r="I25" s="497" t="s">
+      <c r="G25" s="463" t="s">
+        <v>636</v>
+      </c>
+      <c r="H25" s="463"/>
+      <c r="I25" s="509" t="s">
+        <v>785</v>
+      </c>
+      <c r="J25" s="497" t="s">
         <v>329</v>
       </c>
-      <c r="K25" s="436" t="s">
+      <c r="L25" s="436" t="s">
         <v>143</v>
       </c>
-      <c r="L25" s="436" t="s">
+      <c r="M25" s="436" t="s">
         <v>525</v>
       </c>
-      <c r="M25" s="436" t="s">
+      <c r="N25" s="436" t="s">
         <v>145</v>
       </c>
-      <c r="N25" s="436" t="s">
+      <c r="O25" s="436" t="s">
         <v>83</v>
       </c>
-      <c r="O25" s="436" t="s">
+      <c r="P25" s="436" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="32.25">
+    <row r="26" spans="2:16" ht="32.25">
       <c r="B26" s="98">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -16284,36 +16594,39 @@
       <c r="D26" s="410" t="s">
         <v>590</v>
       </c>
-      <c r="E26" s="409" t="s">
+      <c r="E26" s="410" t="s">
         <v>241</v>
       </c>
-      <c r="F26" s="431" t="s">
+      <c r="F26" s="409" t="s">
         <v>241</v>
       </c>
-      <c r="G26" s="431"/>
-      <c r="H26" s="504" t="s">
-        <v>772</v>
-      </c>
-      <c r="I26" s="411" t="s">
+      <c r="G26" s="431" t="s">
+        <v>241</v>
+      </c>
+      <c r="H26" s="431"/>
+      <c r="I26" s="504" t="s">
+        <v>771</v>
+      </c>
+      <c r="J26" s="411" t="s">
         <v>330</v>
       </c>
-      <c r="K26" s="436" t="s">
+      <c r="L26" s="436" t="s">
         <v>217</v>
       </c>
-      <c r="L26" s="436" t="s">
+      <c r="M26" s="436" t="s">
         <v>571</v>
       </c>
-      <c r="M26" s="436" t="s">
+      <c r="N26" s="436" t="s">
         <v>76</v>
       </c>
-      <c r="N26" s="436" t="s">
-        <v>691</v>
-      </c>
       <c r="O26" s="436" t="s">
+        <v>690</v>
+      </c>
+      <c r="P26" s="436" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="32.25">
+    <row r="27" spans="2:16" ht="32.25">
       <c r="B27" s="98">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -16324,36 +16637,39 @@
       <c r="D27" s="379" t="s">
         <v>332</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="379" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="431" t="s">
+      <c r="F27" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="431"/>
-      <c r="H27" s="504" t="s">
-        <v>773</v>
-      </c>
-      <c r="I27" s="406" t="s">
+      <c r="G27" s="431" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="431"/>
+      <c r="I27" s="504" t="s">
+        <v>772</v>
+      </c>
+      <c r="J27" s="406" t="s">
         <v>326</v>
       </c>
-      <c r="K27" s="436" t="s">
+      <c r="L27" s="436" t="s">
         <v>202</v>
       </c>
-      <c r="L27" s="436" t="s">
+      <c r="M27" s="436" t="s">
         <v>559</v>
-      </c>
-      <c r="M27" s="436" t="s">
-        <v>74</v>
       </c>
       <c r="N27" s="436" t="s">
         <v>74</v>
       </c>
       <c r="O27" s="436" t="s">
+        <v>74</v>
+      </c>
+      <c r="P27" s="436" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="32.25">
+    <row r="28" spans="2:16" ht="32.25">
       <c r="B28" s="98">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -16364,36 +16680,39 @@
       <c r="D28" s="379" t="s">
         <v>614</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="379" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="431" t="s">
+      <c r="F28" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="431"/>
-      <c r="H28" s="504" t="s">
-        <v>774</v>
-      </c>
-      <c r="I28" s="406" t="s">
+      <c r="G28" s="431" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="431"/>
+      <c r="I28" s="504" t="s">
+        <v>773</v>
+      </c>
+      <c r="J28" s="406" t="s">
         <v>177</v>
       </c>
-      <c r="K28" s="436" t="s">
+      <c r="L28" s="436" t="s">
         <v>596</v>
       </c>
-      <c r="L28" s="436" t="s">
+      <c r="M28" s="436" t="s">
         <v>144</v>
-      </c>
-      <c r="M28" s="436" t="s">
-        <v>594</v>
       </c>
       <c r="N28" s="436" t="s">
         <v>594</v>
       </c>
       <c r="O28" s="436" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" ht="32.25">
+        <v>594</v>
+      </c>
+      <c r="P28" s="436" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="32.25">
       <c r="B29" s="98">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -16404,28 +16723,31 @@
       <c r="D29" s="379" t="s">
         <v>195</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="379" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="431" t="s">
+      <c r="F29" s="32" t="s">
         <v>95</v>
       </c>
       <c r="G29" s="431" t="s">
-        <v>778</v>
-      </c>
-      <c r="H29" s="504" t="s">
-        <v>776</v>
-      </c>
-      <c r="I29" s="406" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="431" t="s">
+        <v>777</v>
+      </c>
+      <c r="I29" s="504" t="s">
+        <v>775</v>
+      </c>
+      <c r="J29" s="406" t="s">
         <v>163</v>
       </c>
-      <c r="K29" s="436"/>
       <c r="L29" s="436"/>
       <c r="M29" s="436"/>
       <c r="N29" s="436"/>
       <c r="O29" s="436"/>
-    </row>
-    <row r="30" spans="2:15" ht="32.25">
+      <c r="P29" s="436"/>
+    </row>
+    <row r="30" spans="2:16" ht="32.25">
       <c r="B30" s="98">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -16436,26 +16758,33 @@
       <c r="D30" s="379" t="s">
         <v>560</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="607" t="s">
+        <v>920</v>
+      </c>
+      <c r="F30" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="F30" s="431" t="s">
-        <v>616</v>
-      </c>
-      <c r="G30" s="431"/>
-      <c r="H30" s="504" t="s">
-        <v>822</v>
-      </c>
-      <c r="I30" s="406" t="s">
+      <c r="G30" s="431" t="s">
+        <v>919</v>
+      </c>
+      <c r="H30" s="431"/>
+      <c r="I30" s="504" t="s">
+        <v>821</v>
+      </c>
+      <c r="J30" s="406" t="s">
         <v>522</v>
       </c>
-      <c r="K30" s="436"/>
-      <c r="L30" s="436"/>
-      <c r="M30" s="436"/>
+      <c r="L30" s="436">
+        <v>2070</v>
+      </c>
+      <c r="M30" s="436">
+        <v>8304</v>
+      </c>
       <c r="N30" s="436"/>
       <c r="O30" s="436"/>
-    </row>
-    <row r="31" spans="2:15" ht="32.25">
+      <c r="P30" s="436"/>
+    </row>
+    <row r="31" spans="2:16" ht="32.25">
       <c r="B31" s="98">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -16466,26 +16795,36 @@
       <c r="D31" s="379" t="s">
         <v>275</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="608" t="str">
+        <f xml:space="preserve"> _xlfn.UNICHAR(8304) &amp; "ㄧ"</f>
+        <v>⁰ㄧ</v>
+      </c>
+      <c r="F31" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="431" t="s">
-        <v>669</v>
-      </c>
-      <c r="G31" s="431"/>
-      <c r="H31" s="504" t="s">
-        <v>784</v>
-      </c>
-      <c r="I31" s="406" t="s">
+      <c r="G31" s="431" t="s">
+        <v>668</v>
+      </c>
+      <c r="H31" s="431"/>
+      <c r="I31" s="504" t="s">
+        <v>783</v>
+      </c>
+      <c r="J31" s="406" t="s">
         <v>513</v>
       </c>
-      <c r="K31" s="436"/>
-      <c r="L31" s="436"/>
-      <c r="M31" s="436"/>
+      <c r="L31" s="436" t="str">
+        <f xml:space="preserve"> _xlfn.UNICHAR(8304)</f>
+        <v>⁰</v>
+      </c>
+      <c r="M31" s="436" t="str">
+        <f xml:space="preserve"> L31 &amp; RIGHT(E32)</f>
+        <v>⁰ㄨ</v>
+      </c>
       <c r="N31" s="436"/>
       <c r="O31" s="436"/>
-    </row>
-    <row r="32" spans="2:15" ht="32.25">
+      <c r="P31" s="436"/>
+    </row>
+    <row r="32" spans="2:16" ht="32.25">
       <c r="B32" s="98">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -16496,26 +16835,35 @@
       <c r="D32" s="379" t="s">
         <v>259</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="608" t="s">
+        <v>921</v>
+      </c>
+      <c r="F32" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="F32" s="431" t="s">
-        <v>640</v>
-      </c>
-      <c r="G32" s="431"/>
-      <c r="H32" s="504" t="s">
-        <v>783</v>
-      </c>
-      <c r="I32" s="406" t="s">
+      <c r="G32" s="431" t="s">
+        <v>639</v>
+      </c>
+      <c r="H32" s="431"/>
+      <c r="I32" s="504" t="s">
+        <v>782</v>
+      </c>
+      <c r="J32" s="406" t="s">
         <v>518</v>
       </c>
-      <c r="K32" s="436"/>
-      <c r="L32" s="436"/>
-      <c r="M32" s="436"/>
+      <c r="L32" s="436" t="str">
+        <f t="shared" ref="L32:L37" si="1" xml:space="preserve"> _xlfn.UNICHAR(8304)</f>
+        <v>⁰</v>
+      </c>
+      <c r="M32" s="436" t="str">
+        <f t="shared" ref="M32:M37" si="2" xml:space="preserve"> L32 &amp; RIGHT(E33)</f>
+        <v>⁰ㄚ</v>
+      </c>
       <c r="N32" s="436"/>
       <c r="O32" s="436"/>
-    </row>
-    <row r="33" spans="2:15" ht="32.25">
+      <c r="P32" s="436"/>
+    </row>
+    <row r="33" spans="2:16" ht="32.25">
       <c r="B33" s="98">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -16526,26 +16874,35 @@
       <c r="D33" s="379" t="s">
         <v>612</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="608" t="s">
+        <v>922</v>
+      </c>
+      <c r="F33" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="431" t="s">
-        <v>641</v>
-      </c>
-      <c r="G33" s="431"/>
-      <c r="H33" s="504" t="s">
-        <v>787</v>
-      </c>
-      <c r="I33" s="406" t="s">
+      <c r="G33" s="431" t="s">
+        <v>640</v>
+      </c>
+      <c r="H33" s="431"/>
+      <c r="I33" s="504" t="s">
+        <v>786</v>
+      </c>
+      <c r="J33" s="406" t="s">
         <v>276</v>
       </c>
-      <c r="K33" s="436"/>
-      <c r="L33" s="436"/>
-      <c r="M33" s="436"/>
+      <c r="L33" s="436" t="str">
+        <f t="shared" si="1"/>
+        <v>⁰</v>
+      </c>
+      <c r="M33" s="436" t="str">
+        <f t="shared" si="2"/>
+        <v>⁰ㆦ</v>
+      </c>
       <c r="N33" s="436"/>
       <c r="O33" s="436"/>
-    </row>
-    <row r="34" spans="2:15" ht="32.25">
+      <c r="P33" s="436"/>
+    </row>
+    <row r="34" spans="2:16" ht="32.25">
       <c r="B34" s="98">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -16556,26 +16913,35 @@
       <c r="D34" s="379" t="s">
         <v>558</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="608" t="s">
+        <v>923</v>
+      </c>
+      <c r="F34" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="431" t="s">
-        <v>642</v>
-      </c>
-      <c r="G34" s="431"/>
-      <c r="H34" s="504" t="s">
-        <v>788</v>
-      </c>
-      <c r="I34" s="406" t="s">
+      <c r="G34" s="431" t="s">
+        <v>641</v>
+      </c>
+      <c r="H34" s="431"/>
+      <c r="I34" s="504" t="s">
+        <v>787</v>
+      </c>
+      <c r="J34" s="406" t="s">
         <v>273</v>
       </c>
-      <c r="K34" s="436"/>
-      <c r="L34" s="436"/>
-      <c r="M34" s="436"/>
+      <c r="L34" s="436" t="str">
+        <f t="shared" si="1"/>
+        <v>⁰</v>
+      </c>
+      <c r="M34" s="436" t="str">
+        <f t="shared" si="2"/>
+        <v>⁰ㄝ</v>
+      </c>
       <c r="N34" s="436"/>
       <c r="O34" s="436"/>
-    </row>
-    <row r="35" spans="2:15" ht="32.25">
+      <c r="P34" s="436"/>
+    </row>
+    <row r="35" spans="2:16" ht="32.25">
       <c r="B35" s="98">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -16586,26 +16952,35 @@
       <c r="D35" s="379" t="s">
         <v>322</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="608" t="s">
+        <v>924</v>
+      </c>
+      <c r="F35" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="431" t="s">
-        <v>643</v>
-      </c>
-      <c r="G35" s="431"/>
-      <c r="H35" s="504" t="s">
-        <v>785</v>
-      </c>
-      <c r="I35" s="406" t="s">
+      <c r="G35" s="431" t="s">
+        <v>642</v>
+      </c>
+      <c r="H35" s="431"/>
+      <c r="I35" s="504" t="s">
+        <v>784</v>
+      </c>
+      <c r="J35" s="406" t="s">
         <v>270</v>
       </c>
-      <c r="K35" s="436"/>
-      <c r="L35" s="436"/>
-      <c r="M35" s="436"/>
+      <c r="L35" s="436" t="str">
+        <f t="shared" si="1"/>
+        <v>⁰</v>
+      </c>
+      <c r="M35" s="436" t="str">
+        <f t="shared" si="2"/>
+        <v>⁰ㄞ</v>
+      </c>
       <c r="N35" s="436"/>
       <c r="O35" s="436"/>
-    </row>
-    <row r="36" spans="2:15" ht="32.25">
+      <c r="P35" s="436"/>
+    </row>
+    <row r="36" spans="2:16" ht="32.25">
       <c r="B36" s="98">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -16616,26 +16991,35 @@
       <c r="D36" s="379" t="s">
         <v>447</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="608" t="s">
+        <v>925</v>
+      </c>
+      <c r="F36" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="431" t="s">
-        <v>644</v>
-      </c>
-      <c r="G36" s="431"/>
-      <c r="H36" s="504" t="s">
-        <v>812</v>
-      </c>
-      <c r="I36" s="406" t="s">
+      <c r="G36" s="431" t="s">
+        <v>643</v>
+      </c>
+      <c r="H36" s="431"/>
+      <c r="I36" s="504" t="s">
+        <v>811</v>
+      </c>
+      <c r="J36" s="406" t="s">
         <v>268</v>
       </c>
-      <c r="K36" s="436"/>
-      <c r="L36" s="436"/>
-      <c r="M36" s="436"/>
+      <c r="L36" s="436" t="str">
+        <f t="shared" si="1"/>
+        <v>⁰</v>
+      </c>
+      <c r="M36" s="436" t="str">
+        <f t="shared" si="2"/>
+        <v>⁰ㄠ</v>
+      </c>
       <c r="N36" s="436"/>
       <c r="O36" s="436"/>
-    </row>
-    <row r="37" spans="2:15" ht="32.25">
+      <c r="P36" s="436"/>
+    </row>
+    <row r="37" spans="2:16" ht="32.25">
       <c r="B37" s="98">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -16646,26 +17030,35 @@
       <c r="D37" s="379" t="s">
         <v>569</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="608" t="s">
+        <v>926</v>
+      </c>
+      <c r="F37" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="F37" s="431" t="s">
-        <v>645</v>
-      </c>
-      <c r="G37" s="431"/>
-      <c r="H37" s="504" t="s">
-        <v>813</v>
-      </c>
-      <c r="I37" s="406" t="s">
+      <c r="G37" s="431" t="s">
+        <v>644</v>
+      </c>
+      <c r="H37" s="431"/>
+      <c r="I37" s="504" t="s">
+        <v>812</v>
+      </c>
+      <c r="J37" s="406" t="s">
         <v>265</v>
       </c>
-      <c r="K37" s="436"/>
-      <c r="L37" s="436"/>
-      <c r="M37" s="436"/>
+      <c r="L37" s="436" t="str">
+        <f t="shared" si="1"/>
+        <v>⁰</v>
+      </c>
+      <c r="M37" s="436" t="str">
+        <f t="shared" si="2"/>
+        <v>⁰ㄇ</v>
+      </c>
       <c r="N37" s="436"/>
       <c r="O37" s="436"/>
-    </row>
-    <row r="38" spans="2:15" ht="32.25">
+      <c r="P37" s="436"/>
+    </row>
+    <row r="38" spans="2:16" ht="32.25">
       <c r="B38" s="98">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -16676,26 +17069,29 @@
       <c r="D38" s="379" t="s">
         <v>444</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="379" t="s">
+        <v>506</v>
+      </c>
+      <c r="F38" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="431" t="s">
-        <v>646</v>
-      </c>
-      <c r="G38" s="431"/>
-      <c r="H38" s="504" t="s">
-        <v>814</v>
-      </c>
-      <c r="I38" s="406" t="s">
+      <c r="G38" s="431" t="s">
+        <v>645</v>
+      </c>
+      <c r="H38" s="431"/>
+      <c r="I38" s="504" t="s">
+        <v>813</v>
+      </c>
+      <c r="J38" s="406" t="s">
         <v>207</v>
       </c>
-      <c r="K38" s="436"/>
       <c r="L38" s="436"/>
       <c r="M38" s="436"/>
       <c r="N38" s="436"/>
       <c r="O38" s="436"/>
-    </row>
-    <row r="39" spans="2:15" ht="32.25">
+      <c r="P38" s="436"/>
+    </row>
+    <row r="39" spans="2:16" ht="32.25">
       <c r="B39" s="98">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -16706,26 +17102,29 @@
       <c r="D39" s="379" t="s">
         <v>375</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="609" t="s">
+        <v>928</v>
+      </c>
+      <c r="F39" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="431" t="s">
-        <v>811</v>
-      </c>
-      <c r="G39" s="431"/>
-      <c r="H39" s="504" t="s">
+      <c r="G39" s="431" t="s">
         <v>810</v>
       </c>
-      <c r="I39" s="406" t="s">
+      <c r="H39" s="431"/>
+      <c r="I39" s="504" t="s">
+        <v>809</v>
+      </c>
+      <c r="J39" s="406" t="s">
         <v>160</v>
       </c>
-      <c r="K39" s="436"/>
       <c r="L39" s="436"/>
       <c r="M39" s="436"/>
       <c r="N39" s="436"/>
       <c r="O39" s="436"/>
-    </row>
-    <row r="40" spans="2:15" ht="32.25">
+      <c r="P39" s="436"/>
+    </row>
+    <row r="40" spans="2:16" ht="32.25">
       <c r="B40" s="98">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -16736,26 +17135,29 @@
       <c r="D40" s="379" t="s">
         <v>559</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="602" t="s">
+        <v>927</v>
+      </c>
+      <c r="F40" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="431" t="s">
+      <c r="G40" s="431" t="s">
         <v>142</v>
       </c>
-      <c r="G40" s="431"/>
-      <c r="H40" s="504" t="s">
-        <v>817</v>
-      </c>
-      <c r="I40" s="406" t="s">
+      <c r="H40" s="431"/>
+      <c r="I40" s="504" t="s">
+        <v>816</v>
+      </c>
+      <c r="J40" s="406" t="s">
         <v>494</v>
       </c>
-      <c r="K40" s="436"/>
       <c r="L40" s="436"/>
       <c r="M40" s="436"/>
       <c r="N40" s="436"/>
       <c r="O40" s="436"/>
-    </row>
-    <row r="41" spans="2:15" ht="32.25">
+      <c r="P40" s="436"/>
+    </row>
+    <row r="41" spans="2:16" ht="32.25">
       <c r="B41" s="98">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -16766,26 +17168,29 @@
       <c r="D41" s="379" t="s">
         <v>571</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="379" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="431" t="s">
-        <v>692</v>
-      </c>
-      <c r="G41" s="431"/>
-      <c r="H41" s="552" t="s">
-        <v>749</v>
-      </c>
-      <c r="I41" s="406" t="s">
+      <c r="F41" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="431" t="s">
+        <v>691</v>
+      </c>
+      <c r="H41" s="431"/>
+      <c r="I41" s="552" t="s">
+        <v>748</v>
+      </c>
+      <c r="J41" s="406" t="s">
         <v>489</v>
       </c>
-      <c r="K41" s="436"/>
       <c r="L41" s="436"/>
       <c r="M41" s="436"/>
       <c r="N41" s="436"/>
       <c r="O41" s="436"/>
-    </row>
-    <row r="42" spans="2:15" ht="32.25">
+      <c r="P41" s="436"/>
+    </row>
+    <row r="42" spans="2:16" ht="32.25">
       <c r="B42" s="98">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -16796,62 +17201,68 @@
       <c r="D42" s="379" t="s">
         <v>525</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="602" t="s">
+        <v>929</v>
+      </c>
+      <c r="F42" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="F42" s="431" t="s">
-        <v>638</v>
-      </c>
-      <c r="G42" s="431"/>
-      <c r="H42" s="504" t="s">
-        <v>816</v>
-      </c>
-      <c r="I42" s="406" t="s">
+      <c r="G42" s="431" t="s">
+        <v>637</v>
+      </c>
+      <c r="H42" s="431"/>
+      <c r="I42" s="504" t="s">
+        <v>815</v>
+      </c>
+      <c r="J42" s="406" t="s">
         <v>608</v>
       </c>
-      <c r="K42" s="436"/>
       <c r="L42" s="436"/>
       <c r="M42" s="436"/>
       <c r="N42" s="436"/>
       <c r="O42" s="436"/>
-    </row>
-    <row r="43" spans="2:15" ht="32.25">
+      <c r="P42" s="436"/>
+    </row>
+    <row r="43" spans="2:16" ht="32.25">
       <c r="B43" s="98">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C43" s="71" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D43" s="550" t="s">
-        <v>806</v>
-      </c>
-      <c r="E43" s="232" t="s">
         <v>805</v>
       </c>
-      <c r="F43" s="431" t="s">
-        <v>805</v>
-      </c>
-      <c r="G43" s="431"/>
-      <c r="H43" s="504" t="s">
-        <v>823</v>
-      </c>
-      <c r="I43" s="406" t="s">
-        <v>619</v>
-      </c>
-      <c r="K43" s="436">
+      <c r="E43" s="550" t="s">
+        <v>910</v>
+      </c>
+      <c r="F43" s="232" t="s">
+        <v>804</v>
+      </c>
+      <c r="G43" s="431" t="s">
+        <v>804</v>
+      </c>
+      <c r="H43" s="431"/>
+      <c r="I43" s="504" t="s">
+        <v>822</v>
+      </c>
+      <c r="J43" s="406" t="s">
+        <v>618</v>
+      </c>
+      <c r="L43" s="436">
         <f xml:space="preserve"> _xlfn.UNICODE(注音編碼對照表[[#This Row],[注音符號]])</f>
         <v>12588</v>
       </c>
-      <c r="L43" s="436" t="str">
-        <f xml:space="preserve"> DEC2HEX(K43)</f>
+      <c r="M43" s="436" t="str">
+        <f xml:space="preserve"> DEC2HEX(L43)</f>
         <v>312C</v>
       </c>
-      <c r="M43" s="436"/>
       <c r="N43" s="436"/>
       <c r="O43" s="436"/>
-    </row>
-    <row r="44" spans="2:15" ht="32.25">
+      <c r="P43" s="436"/>
+    </row>
+    <row r="44" spans="2:16" ht="32.25">
       <c r="B44" s="98">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -16863,24 +17274,25 @@
       <c r="D44" s="379" t="s">
         <v>361</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="379"/>
+      <c r="F44" s="32" t="s">
         <v>532</v>
       </c>
-      <c r="F44" s="431" t="s">
+      <c r="G44" s="431" t="s">
         <v>532</v>
       </c>
-      <c r="G44" s="431"/>
-      <c r="H44" s="504"/>
-      <c r="I44" s="406">
+      <c r="H44" s="431"/>
+      <c r="I44" s="504"/>
+      <c r="J44" s="406">
         <v>1</v>
       </c>
-      <c r="K44" s="436"/>
       <c r="L44" s="436"/>
       <c r="M44" s="436"/>
       <c r="N44" s="436"/>
       <c r="O44" s="436"/>
-    </row>
-    <row r="45" spans="2:15" ht="32.25">
+      <c r="P44" s="436"/>
+    </row>
+    <row r="45" spans="2:16" ht="32.25">
       <c r="B45" s="98">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -16891,24 +17303,25 @@
       <c r="D45" s="379" t="s">
         <v>347</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="379"/>
+      <c r="F45" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="431" t="s">
+      <c r="G45" s="431" t="s">
         <v>104</v>
       </c>
-      <c r="G45" s="431"/>
-      <c r="H45" s="504"/>
-      <c r="I45" s="406">
+      <c r="H45" s="431"/>
+      <c r="I45" s="504"/>
+      <c r="J45" s="406">
         <v>2</v>
       </c>
-      <c r="K45" s="436"/>
       <c r="L45" s="436"/>
       <c r="M45" s="436"/>
       <c r="N45" s="436"/>
       <c r="O45" s="436"/>
-    </row>
-    <row r="46" spans="2:15" ht="32.25">
+      <c r="P45" s="436"/>
+    </row>
+    <row r="46" spans="2:16" ht="32.25">
       <c r="B46" s="98">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -16919,24 +17332,25 @@
       <c r="D46" s="379" t="s">
         <v>191</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="379"/>
+      <c r="F46" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="431" t="s">
+      <c r="G46" s="431" t="s">
         <v>105</v>
       </c>
-      <c r="G46" s="431"/>
-      <c r="H46" s="504"/>
-      <c r="I46" s="406">
+      <c r="H46" s="431"/>
+      <c r="I46" s="504"/>
+      <c r="J46" s="406">
         <v>3</v>
       </c>
-      <c r="K46" s="436"/>
       <c r="L46" s="436"/>
       <c r="M46" s="436"/>
       <c r="N46" s="436"/>
       <c r="O46" s="436"/>
-    </row>
-    <row r="47" spans="2:15" ht="32.25">
+      <c r="P46" s="436"/>
+    </row>
+    <row r="47" spans="2:16" ht="32.25">
       <c r="B47" s="98">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -16947,24 +17361,25 @@
       <c r="D47" s="379" t="s">
         <v>170</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="E47" s="379"/>
+      <c r="F47" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F47" s="431" t="s">
+      <c r="G47" s="431" t="s">
         <v>106</v>
       </c>
-      <c r="G47" s="431"/>
-      <c r="H47" s="504"/>
-      <c r="I47" s="406">
+      <c r="H47" s="431"/>
+      <c r="I47" s="504"/>
+      <c r="J47" s="406">
         <v>5</v>
       </c>
-      <c r="K47" s="436"/>
       <c r="L47" s="436"/>
       <c r="M47" s="436"/>
       <c r="N47" s="436"/>
       <c r="O47" s="436"/>
-    </row>
-    <row r="48" spans="2:15" ht="32.25">
+      <c r="P47" s="436"/>
+    </row>
+    <row r="48" spans="2:16" ht="32.25">
       <c r="B48" s="98">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -16975,31 +17390,32 @@
       <c r="D48" s="379" t="s">
         <v>166</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="379"/>
+      <c r="F48" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="431" t="s">
+      <c r="G48" s="431" t="s">
         <v>107</v>
       </c>
-      <c r="G48" s="431"/>
-      <c r="H48" s="504"/>
-      <c r="I48" s="406">
+      <c r="H48" s="431"/>
+      <c r="I48" s="504"/>
+      <c r="J48" s="406">
         <v>7</v>
       </c>
-      <c r="J48" t="s">
-        <v>658</v>
-      </c>
       <c r="K48" t="s">
+        <v>657</v>
+      </c>
+      <c r="L48" t="s">
+        <v>654</v>
+      </c>
+      <c r="M48" t="s">
         <v>655</v>
       </c>
-      <c r="L48" t="s">
+      <c r="N48" t="s">
         <v>656</v>
       </c>
-      <c r="M48" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" ht="32.25">
+    </row>
+    <row r="49" spans="2:14" ht="32.25">
       <c r="B49" s="98">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -17010,22 +17426,20 @@
       <c r="D49" s="379" t="s">
         <v>219</v>
       </c>
-      <c r="E49" s="32" t="s">
+      <c r="E49" s="379"/>
+      <c r="F49" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="431" t="s">
+      <c r="G49" s="431" t="s">
         <v>108</v>
       </c>
-      <c r="G49" s="431"/>
-      <c r="H49" s="504"/>
-      <c r="I49" s="406" t="s">
+      <c r="H49" s="431"/>
+      <c r="I49" s="504"/>
+      <c r="J49" s="406" t="s">
         <v>609</v>
       </c>
-      <c r="J49" s="347">
+      <c r="K49" s="347">
         <v>1</v>
-      </c>
-      <c r="K49" s="433" t="s">
-        <v>532</v>
       </c>
       <c r="L49" s="433" t="s">
         <v>532</v>
@@ -17033,38 +17447,39 @@
       <c r="M49" s="433" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" ht="32.25">
+      <c r="N49" s="433" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="32.25">
       <c r="B50" s="98">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C50" s="71" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC55,#REF!, 0)), "")</f>
+        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD55,#REF!, 0)), "")</f>
         <v/>
       </c>
       <c r="D50" s="379" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC55,#REF!, 0)), "")</f>
+        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD55,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="379"/>
+      <c r="F50" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="F50" s="432" t="s">
+      <c r="G50" s="432" t="s">
         <v>128</v>
       </c>
-      <c r="G50" s="432"/>
-      <c r="H50" s="505" t="s">
-        <v>818</v>
-      </c>
-      <c r="I50" s="407" t="s">
-        <v>629</v>
-      </c>
-      <c r="J50" s="347">
+      <c r="H50" s="432"/>
+      <c r="I50" s="505" t="s">
+        <v>817</v>
+      </c>
+      <c r="J50" s="407" t="s">
+        <v>628</v>
+      </c>
+      <c r="K50" s="347">
         <v>2</v>
-      </c>
-      <c r="K50" s="433" t="s">
-        <v>104</v>
       </c>
       <c r="L50" s="433" t="s">
         <v>104</v>
@@ -17072,77 +17487,79 @@
       <c r="M50" s="433" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" ht="32.25">
+      <c r="N50" s="433" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" ht="32.25">
       <c r="B51" s="98">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="C51" s="71" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC56,#REF!, 0)), "")</f>
+        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD56,#REF!, 0)), "")</f>
         <v/>
       </c>
       <c r="D51" s="379" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC56,#REF!, 0)), "")</f>
+        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD56,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="E51" s="32" t="s">
+      <c r="E51" s="379"/>
+      <c r="F51" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="F51" s="432" t="s">
+      <c r="G51" s="432" t="s">
         <v>130</v>
       </c>
-      <c r="G51" s="432"/>
-      <c r="H51" s="505" t="s">
-        <v>819</v>
-      </c>
-      <c r="I51" s="407" t="s">
-        <v>630</v>
-      </c>
-      <c r="J51" s="347">
+      <c r="H51" s="432"/>
+      <c r="I51" s="505" t="s">
+        <v>818</v>
+      </c>
+      <c r="J51" s="407" t="s">
+        <v>629</v>
+      </c>
+      <c r="K51" s="347">
         <v>5</v>
       </c>
-      <c r="K51" s="434" t="s">
+      <c r="L51" s="434" t="s">
+        <v>659</v>
+      </c>
+      <c r="M51" s="434" t="s">
         <v>660</v>
       </c>
-      <c r="L51" s="434" t="s">
-        <v>661</v>
-      </c>
-      <c r="M51" s="434" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" ht="32.25">
+      <c r="N51" s="434" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="32.25">
       <c r="B52" s="98">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="C52" s="71" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC57,#REF!, 0)), "")</f>
+        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD57,#REF!, 0)), "")</f>
         <v/>
       </c>
       <c r="D52" s="379" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC57,#REF!, 0)), "")</f>
+        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD57,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="E52" s="379"/>
+      <c r="F52" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="F52" s="432" t="s">
+      <c r="G52" s="432" t="s">
         <v>132</v>
       </c>
-      <c r="G52" s="432"/>
-      <c r="H52" s="505" t="s">
-        <v>820</v>
-      </c>
-      <c r="I52" s="407" t="s">
-        <v>631</v>
-      </c>
-      <c r="J52" s="347">
+      <c r="H52" s="432"/>
+      <c r="I52" s="505" t="s">
+        <v>819</v>
+      </c>
+      <c r="J52" s="407" t="s">
+        <v>630</v>
+      </c>
+      <c r="K52" s="347">
         <v>3</v>
-      </c>
-      <c r="K52" s="433" t="s">
-        <v>106</v>
       </c>
       <c r="L52" s="433" t="s">
         <v>106</v>
@@ -17150,52 +17567,53 @@
       <c r="M52" s="433" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" ht="32.25">
+      <c r="N52" s="433" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" ht="32.25">
       <c r="B53" s="98">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="C53" s="71" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC58,#REF!, 0)), "")</f>
+        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD58,#REF!, 0)), "")</f>
         <v/>
       </c>
       <c r="D53" s="379" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC58,#REF!, 0)), "")</f>
+        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD58,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="E53" s="32" t="s">
-        <v>650</v>
-      </c>
-      <c r="F53" s="432" t="s">
+      <c r="E53" s="379"/>
+      <c r="F53" s="32" t="s">
+        <v>649</v>
+      </c>
+      <c r="G53" s="432" t="s">
         <v>134</v>
       </c>
-      <c r="G53" s="432"/>
-      <c r="H53" s="505" t="s">
-        <v>821</v>
-      </c>
-      <c r="I53" s="407" t="s">
-        <v>632</v>
-      </c>
-      <c r="J53" s="347">
+      <c r="H53" s="432"/>
+      <c r="I53" s="505" t="s">
+        <v>820</v>
+      </c>
+      <c r="J53" s="407" t="s">
+        <v>631</v>
+      </c>
+      <c r="K53" s="347">
         <v>7</v>
       </c>
-      <c r="K53" s="434" t="s">
-        <v>659</v>
-      </c>
       <c r="L53" s="434" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="M53" s="434" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" ht="30">
-      <c r="J54" s="347">
+        <v>661</v>
+      </c>
+      <c r="N53" s="434" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="30">
+      <c r="K54" s="347">
         <v>8</v>
-      </c>
-      <c r="K54" s="433" t="s">
-        <v>108</v>
       </c>
       <c r="L54" s="433" t="s">
         <v>108</v>
@@ -17203,8 +17621,11 @@
       <c r="M54" s="433" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="55" spans="2:13" ht="32.25">
+      <c r="N54" s="433" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="32.25">
       <c r="B55" s="525">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -17213,21 +17634,22 @@
       <c r="D55" s="527" t="s">
         <v>449</v>
       </c>
-      <c r="E55" s="528" t="s">
+      <c r="E55" s="527"/>
+      <c r="F55" s="528" t="s">
         <v>89</v>
       </c>
-      <c r="F55" s="529" t="s">
+      <c r="G55" s="529" t="s">
         <v>89</v>
       </c>
-      <c r="G55" s="530"/>
-      <c r="H55" s="531" t="s">
-        <v>755</v>
-      </c>
-      <c r="I55" s="532" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" ht="32.25">
+      <c r="H55" s="530"/>
+      <c r="I55" s="531" t="s">
+        <v>754</v>
+      </c>
+      <c r="J55" s="532" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="32.25">
       <c r="B56" s="533">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -17236,21 +17658,22 @@
       <c r="D56" s="535" t="s">
         <v>456</v>
       </c>
-      <c r="E56" s="536" t="s">
+      <c r="E56" s="535"/>
+      <c r="F56" s="536" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="520" t="s">
+      <c r="G56" s="520" t="s">
         <v>91</v>
       </c>
-      <c r="G56" s="537"/>
-      <c r="H56" s="538" t="s">
-        <v>756</v>
-      </c>
-      <c r="I56" s="539" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" ht="32.25">
+      <c r="H56" s="537"/>
+      <c r="I56" s="538" t="s">
+        <v>755</v>
+      </c>
+      <c r="J56" s="539" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="32.25">
       <c r="B57" s="533">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -17259,21 +17682,22 @@
       <c r="D57" s="518" t="s">
         <v>249</v>
       </c>
-      <c r="E57" s="519" t="s">
+      <c r="E57" s="518"/>
+      <c r="F57" s="519" t="s">
         <v>109</v>
       </c>
-      <c r="F57" s="520" t="s">
+      <c r="G57" s="520" t="s">
         <v>441</v>
       </c>
-      <c r="G57" s="530"/>
-      <c r="H57" s="538" t="s">
-        <v>757</v>
-      </c>
-      <c r="I57" s="540" t="s">
+      <c r="H57" s="530"/>
+      <c r="I57" s="538" t="s">
+        <v>756</v>
+      </c>
+      <c r="J57" s="540" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="58" spans="2:13" ht="32.25">
+    <row r="58" spans="2:14" ht="32.25">
       <c r="B58" s="541">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -17282,21 +17706,22 @@
       <c r="D58" s="543" t="s">
         <v>460</v>
       </c>
-      <c r="E58" s="544" t="s">
+      <c r="E58" s="543"/>
+      <c r="F58" s="544" t="s">
         <v>284</v>
       </c>
-      <c r="F58" s="545" t="s">
+      <c r="G58" s="545" t="s">
         <v>284</v>
       </c>
-      <c r="G58" s="537"/>
-      <c r="H58" s="546" t="s">
-        <v>758</v>
-      </c>
-      <c r="I58" s="547" t="s">
+      <c r="H58" s="537"/>
+      <c r="I58" s="546" t="s">
+        <v>757</v>
+      </c>
+      <c r="J58" s="547" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="21">
+    <row r="59" spans="2:14" ht="21">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -17305,162 +17730,169 @@
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
-    </row>
-    <row r="60" spans="2:13" ht="32.25">
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="2:14" ht="32.25">
       <c r="B60" s="516">
         <f>ROW() - 2</f>
         <v>58</v>
       </c>
       <c r="C60" s="517" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC30,#REF!, 0)), "")</f>
+        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD30,#REF!, 0)), "")</f>
         <v/>
       </c>
       <c r="D60" s="518" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC30,#REF!, 0)), "")</f>
+        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD30,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="E60" s="519"/>
-      <c r="F60" s="520" t="s">
-        <v>809</v>
-      </c>
-      <c r="G60" s="537" t="s">
-        <v>777</v>
-      </c>
-      <c r="H60" s="522" t="s">
-        <v>775</v>
-      </c>
-      <c r="I60" s="551" t="s">
+      <c r="E60" s="518"/>
+      <c r="F60" s="519"/>
+      <c r="G60" s="520" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="61" spans="2:13" ht="32.25">
+      <c r="H60" s="537" t="s">
+        <v>776</v>
+      </c>
+      <c r="I60" s="522" t="s">
+        <v>774</v>
+      </c>
+      <c r="J60" s="551" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" ht="32.25">
       <c r="B61" s="516">
         <f>ROW() - 2</f>
         <v>59</v>
       </c>
       <c r="C61" s="517" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC31,#REF!, 0)), "")</f>
+        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD31,#REF!, 0)), "")</f>
         <v/>
       </c>
       <c r="D61" s="518" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC31,#REF!, 0)), "")</f>
+        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD31,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="E61" s="519"/>
-      <c r="F61" s="520" t="s">
+      <c r="E61" s="518"/>
+      <c r="F61" s="519"/>
+      <c r="G61" s="520" t="s">
+        <v>795</v>
+      </c>
+      <c r="H61" s="521"/>
+      <c r="I61" s="522" t="s">
         <v>796</v>
       </c>
-      <c r="G61" s="521"/>
-      <c r="H61" s="522" t="s">
+      <c r="J61" s="523" t="s">
         <v>797</v>
       </c>
-      <c r="I61" s="523" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" ht="32.25">
+    </row>
+    <row r="62" spans="2:14" ht="32.25">
       <c r="B62" s="516">
         <f>ROW() - 2</f>
         <v>60</v>
       </c>
       <c r="C62" s="517" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC32,#REF!, 0)), "")</f>
+        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD32,#REF!, 0)), "")</f>
         <v/>
       </c>
       <c r="D62" s="518" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC32,#REF!, 0)), "")</f>
+        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD32,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="E62" s="519"/>
-      <c r="F62" s="520" t="s">
+      <c r="E62" s="518"/>
+      <c r="F62" s="519"/>
+      <c r="G62" s="520" t="s">
+        <v>792</v>
+      </c>
+      <c r="H62" s="524"/>
+      <c r="I62" s="522" t="s">
         <v>793</v>
       </c>
-      <c r="G62" s="524"/>
-      <c r="H62" s="522" t="s">
+      <c r="J62" s="523" t="s">
         <v>794</v>
       </c>
-      <c r="I62" s="523" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13" ht="32.25">
+    </row>
+    <row r="63" spans="2:14" ht="32.25">
       <c r="B63" s="516">
         <f>ROW() - 2</f>
         <v>61</v>
       </c>
       <c r="C63" s="517" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC34,#REF!, 0)), "")</f>
+        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD34,#REF!, 0)), "")</f>
         <v/>
       </c>
       <c r="D63" s="518" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC34,#REF!, 0)), "")</f>
+        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD34,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="E63" s="519"/>
-      <c r="F63" s="520" t="s">
-        <v>782</v>
-      </c>
-      <c r="G63" s="521" t="s">
+      <c r="E63" s="518"/>
+      <c r="F63" s="519"/>
+      <c r="G63" s="520" t="s">
+        <v>781</v>
+      </c>
+      <c r="H63" s="521" t="s">
+        <v>778</v>
+      </c>
+      <c r="I63" s="522" t="s">
         <v>779</v>
       </c>
-      <c r="H63" s="522" t="s">
+      <c r="J63" s="523" t="s">
         <v>780</v>
       </c>
-      <c r="I63" s="523" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="64" spans="2:13" ht="32.25">
+    </row>
+    <row r="64" spans="2:14" ht="32.25">
       <c r="B64" s="516">
-        <f t="shared" ref="B64:B65" si="1">ROW() - 2</f>
+        <f t="shared" ref="B64:B65" si="3">ROW() - 2</f>
         <v>62</v>
       </c>
       <c r="C64" s="517" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC36,#REF!, 0)), "")</f>
+        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD36,#REF!, 0)), "")</f>
         <v/>
       </c>
       <c r="D64" s="518" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC36,#REF!, 0)), "")</f>
+        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD36,#REF!, 0)), "")</f>
         <v/>
       </c>
-      <c r="E64" s="519"/>
-      <c r="F64" s="520" t="s">
+      <c r="E64" s="518"/>
+      <c r="F64" s="519"/>
+      <c r="G64" s="520" t="s">
+        <v>788</v>
+      </c>
+      <c r="H64" s="524"/>
+      <c r="I64" s="522" t="s">
+        <v>768</v>
+      </c>
+      <c r="J64" s="523" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" ht="32.25">
+      <c r="B65" s="516">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C65" s="517" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD37,#REF!, 0)), "")</f>
+        <v/>
+      </c>
+      <c r="D65" s="518" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD37,#REF!, 0)), "")</f>
+        <v/>
+      </c>
+      <c r="E65" s="518"/>
+      <c r="F65" s="519"/>
+      <c r="G65" s="520" t="s">
         <v>789</v>
       </c>
-      <c r="G64" s="524"/>
-      <c r="H64" s="522" t="s">
-        <v>769</v>
-      </c>
-      <c r="I64" s="523" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" ht="32.25">
-      <c r="B65" s="516">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="C65" s="517" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC37,#REF!, 0)), "")</f>
-        <v/>
-      </c>
-      <c r="D65" s="518" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AC37,#REF!, 0)), "")</f>
-        <v/>
-      </c>
-      <c r="E65" s="519"/>
-      <c r="F65" s="520" t="s">
+      <c r="H65" s="521"/>
+      <c r="I65" s="522" t="s">
+        <v>770</v>
+      </c>
+      <c r="J65" s="523" t="s">
         <v>790</v>
       </c>
-      <c r="G65" s="521"/>
-      <c r="H65" s="522" t="s">
-        <v>771</v>
-      </c>
-      <c r="I65" s="523" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="32.25">
+    </row>
+    <row r="66" spans="2:10" ht="32.25">
       <c r="B66" s="516">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -17471,134 +17903,136 @@
       <c r="D66" s="518" t="s">
         <v>426</v>
       </c>
-      <c r="E66" s="519" t="s">
+      <c r="E66" s="518"/>
+      <c r="F66" s="519" t="s">
         <v>125</v>
       </c>
-      <c r="F66" s="520" t="s">
-        <v>639</v>
-      </c>
-      <c r="G66" s="530"/>
-      <c r="H66" s="522"/>
-      <c r="I66" s="523" t="s">
+      <c r="G66" s="520" t="s">
+        <v>638</v>
+      </c>
+      <c r="H66" s="530"/>
+      <c r="I66" s="522"/>
+      <c r="J66" s="523" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="25.5">
+    <row r="67" spans="2:10" ht="25.5">
       <c r="D67" s="404"/>
-      <c r="E67" s="435" t="s">
+      <c r="E67" s="404"/>
+      <c r="F67" s="435" t="s">
+        <v>669</v>
+      </c>
+      <c r="G67" s="429" t="s">
+        <v>679</v>
+      </c>
+      <c r="H67" s="508" t="s">
+        <v>690</v>
+      </c>
+      <c r="I67" s="429"/>
+      <c r="J67" s="405" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="F68" s="435" t="s">
         <v>670</v>
       </c>
-      <c r="F67" s="429" t="s">
+      <c r="G68" s="11" t="s">
         <v>680</v>
       </c>
-      <c r="G67" s="508" t="s">
-        <v>691</v>
-      </c>
-      <c r="H67" s="429"/>
-      <c r="I67" s="405" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="E68" s="435" t="s">
+    </row>
+    <row r="69" spans="2:10">
+      <c r="F69" s="435" t="s">
         <v>671</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="G69" s="11" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="69" spans="2:9">
-      <c r="E69" s="435" t="s">
+    <row r="70" spans="2:10">
+      <c r="F70" s="435" t="s">
         <v>672</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="G70" s="11" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
-      <c r="E70" s="435" t="s">
+    <row r="72" spans="2:10">
+      <c r="F72" s="435" t="s">
         <v>673</v>
       </c>
-      <c r="F70" s="11" t="s">
+      <c r="G72" s="11" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="72" spans="2:9">
-      <c r="E72" s="435" t="s">
+    <row r="73" spans="2:10">
+      <c r="F73" s="435" t="s">
         <v>674</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="G73" s="11" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="73" spans="2:9">
-      <c r="E73" s="435" t="s">
+    <row r="75" spans="2:10">
+      <c r="F75" s="435" t="s">
         <v>675</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="G75" s="11" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="75" spans="2:9">
-      <c r="E75" s="435" t="s">
+    <row r="76" spans="2:10">
+      <c r="F76" s="435" t="s">
         <v>676</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="G76" s="11" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
-      <c r="E76" s="435" t="s">
+    <row r="77" spans="2:10">
+      <c r="F77" s="435" t="s">
         <v>677</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="G77" s="11" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
-      <c r="E77" s="435" t="s">
+    <row r="78" spans="2:10">
+      <c r="F78" s="435" t="s">
         <v>678</v>
       </c>
-      <c r="F77" s="11" t="s">
+      <c r="G78" s="11" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
-      <c r="E78" s="435" t="s">
-        <v>679</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" ht="25.5">
-      <c r="F79" s="508" t="s">
+    <row r="79" spans="2:10" ht="25.5">
+      <c r="G79" s="508" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" ht="25.5">
+      <c r="G80" s="508" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="25.5">
-      <c r="F80" s="508" t="s">
+    <row r="81" spans="7:7" ht="25.5">
+      <c r="G81" s="508" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="81" spans="6:6" ht="25.5">
-      <c r="F81" s="508" t="s">
+    <row r="82" spans="7:7" ht="25.5">
+      <c r="G82" s="508" t="s">
         <v>907</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6" ht="25.5">
-      <c r="F82" s="508" t="s">
-        <v>908</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="C3:D53 C55:D58">
+  <conditionalFormatting sqref="C3:E53 C55:E58">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>CHAR(32)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60:D66">
+  <conditionalFormatting sqref="C60:E66">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>CHAR(32)</formula>
     </cfRule>
@@ -17619,7 +18053,7 @@
   <dimension ref="B1:DA99"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="BG11" sqref="BG11"/>
     </sheetView>
@@ -17703,7 +18137,7 @@
     </row>
     <row r="2" spans="2:105" ht="26.25" thickBot="1">
       <c r="B2" s="430" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>585</v>
@@ -17721,19 +18155,19 @@
         <v>7</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="U2" s="396" t="s">
         <v>11</v>
       </c>
       <c r="V2" s="396" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="W2" s="396" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="X2" s="396" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="Y2" s="396"/>
       <c r="Z2" s="554" t="s">
@@ -17746,10 +18180,10 @@
         <v>585</v>
       </c>
       <c r="AC2" s="381" t="s">
+        <v>665</v>
+      </c>
+      <c r="AD2" s="514" t="s">
         <v>666</v>
-      </c>
-      <c r="AD2" s="514" t="s">
-        <v>667</v>
       </c>
       <c r="AE2" s="555" t="s">
         <v>388</v>
@@ -17819,7 +18253,7 @@
         <v>ㄅ</v>
       </c>
       <c r="X3" s="391" t="str" cm="1">
-        <f t="array" ref="X3" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X3" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>p</v>
       </c>
       <c r="Y3" s="24"/>
@@ -17844,7 +18278,7 @@
         <v>ㄅ</v>
       </c>
       <c r="AE3" s="461" t="str" cm="1">
-        <f t="array" ref="AE3" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA3, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE3" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA3, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>p</v>
       </c>
       <c r="AF3" s="391"/>
@@ -17925,7 +18359,7 @@
         <v>ㄅㆷ</v>
       </c>
       <c r="X4" s="391" t="str" cm="1">
-        <f t="array" ref="X4" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X4" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>b</v>
       </c>
       <c r="Y4" s="24"/>
@@ -17950,7 +18384,7 @@
         <v>ㄆ</v>
       </c>
       <c r="AE4" s="461" t="str" cm="1">
-        <f t="array" ref="AE4" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA4, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE4" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA4, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ph</v>
       </c>
       <c r="AF4" s="391"/>
@@ -18031,7 +18465,7 @@
         <v>ㄆ</v>
       </c>
       <c r="X5" s="391" t="str" cm="1">
-        <f t="array" ref="X5" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X5" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>ph</v>
       </c>
       <c r="Y5" s="24"/>
@@ -18056,7 +18490,7 @@
         <v>ㄅㆷ</v>
       </c>
       <c r="AE5" s="461" t="str" cm="1">
-        <f t="array" ref="AE5" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA5, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE5" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA5, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>b</v>
       </c>
       <c r="AF5" s="391"/>
@@ -18141,7 +18575,7 @@
         <v>ㄇ</v>
       </c>
       <c r="X6" s="391" t="str" cm="1">
-        <f t="array" ref="X6" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X6" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>m</v>
       </c>
       <c r="Y6" s="24"/>
@@ -18166,7 +18600,7 @@
         <v>ㄇ</v>
       </c>
       <c r="AE6" s="461" t="str" cm="1">
-        <f t="array" ref="AE6" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA6, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE6" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA6, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>m</v>
       </c>
       <c r="AF6" s="391"/>
@@ -18241,7 +18675,7 @@
         <v>ㄉ</v>
       </c>
       <c r="X7" s="391" t="str" cm="1">
-        <f t="array" ref="X7" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X7" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>t</v>
       </c>
       <c r="Y7" s="24"/>
@@ -18266,7 +18700,7 @@
         <v>ㄉ</v>
       </c>
       <c r="AE7" s="461" t="str" cm="1">
-        <f t="array" ref="AE7" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA7, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE7" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA7, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>t</v>
       </c>
       <c r="AF7" s="391"/>
@@ -18333,7 +18767,7 @@
         <v>ㄊ</v>
       </c>
       <c r="X8" s="391" t="str" cm="1">
-        <f t="array" ref="X8" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X8" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>th</v>
       </c>
       <c r="Y8" s="24"/>
@@ -18358,7 +18792,7 @@
         <v>ㄊ</v>
       </c>
       <c r="AE8" s="461" t="str" cm="1">
-        <f t="array" ref="AE8" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA8, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE8" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA8, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>th</v>
       </c>
       <c r="AF8" s="391"/>
@@ -18368,7 +18802,7 @@
       </c>
       <c r="AH8" s="2"/>
       <c r="AI8" s="398" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="423" t="str">
@@ -18650,7 +19084,7 @@
         <v>ㄋ</v>
       </c>
       <c r="X9" s="391" t="str" cm="1">
-        <f t="array" ref="X9" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X9" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>n</v>
       </c>
       <c r="Y9" s="24"/>
@@ -18675,7 +19109,7 @@
         <v>ㄋ</v>
       </c>
       <c r="AE9" s="461" t="str" cm="1">
-        <f t="array" ref="AE9" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA9, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE9" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA9, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>n</v>
       </c>
       <c r="AF9" s="391"/>
@@ -18685,7 +19119,7 @@
       </c>
       <c r="AH9" s="2"/>
       <c r="AI9" s="399" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AJ9" s="1">
         <f xml:space="preserve"> LEN(AK9)</f>
@@ -18978,7 +19412,7 @@
         <v>ㄌ</v>
       </c>
       <c r="X10" s="391" t="str" cm="1">
-        <f t="array" ref="X10" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X10" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>l</v>
       </c>
       <c r="Y10" s="24"/>
@@ -19003,7 +19437,7 @@
         <v>ㄌ</v>
       </c>
       <c r="AE10" s="461" t="str" cm="1">
-        <f t="array" ref="AE10" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA10, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE10" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA10, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>l</v>
       </c>
       <c r="AF10" s="391"/>
@@ -19252,7 +19686,7 @@
     </row>
     <row r="11" spans="2:105" ht="32.25">
       <c r="B11" s="387" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="9"/>
@@ -19304,7 +19738,7 @@
         <v>ㄍ</v>
       </c>
       <c r="X11" s="391" t="str" cm="1">
-        <f t="array" ref="X11" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X11" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>k</v>
       </c>
       <c r="Y11" s="24"/>
@@ -19329,7 +19763,7 @@
         <v>ㄗ</v>
       </c>
       <c r="AE11" s="461" t="str" cm="1">
-        <f t="array" ref="AE11" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA11, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE11" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA11, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>z</v>
       </c>
       <c r="AF11" s="391"/>
@@ -19402,7 +19836,7 @@
         <v>ㄍㆷ</v>
       </c>
       <c r="X12" s="391" t="str" cm="1">
-        <f t="array" ref="X12" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X12" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>g</v>
       </c>
       <c r="Y12" s="24"/>
@@ -19427,7 +19861,7 @@
         <v>ㄘ</v>
       </c>
       <c r="AE12" s="461" t="str" cm="1">
-        <f t="array" ref="AE12" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA12, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE12" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA12, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>c</v>
       </c>
       <c r="AF12" s="391"/>
@@ -19499,7 +19933,7 @@
         <v>ㄎ</v>
       </c>
       <c r="X13" s="391" t="str" cm="1">
-        <f t="array" ref="X13" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X13" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>kh</v>
       </c>
       <c r="Y13" s="24"/>
@@ -19524,7 +19958,7 @@
         <v>ㄖ</v>
       </c>
       <c r="AE13" s="461" t="str" cm="1">
-        <f t="array" ref="AE13" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA13, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE13" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA13, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>j</v>
       </c>
       <c r="AF13" s="391"/>
@@ -19820,7 +20254,7 @@
         <v>ㄏ</v>
       </c>
       <c r="X14" s="391" t="str" cm="1">
-        <f t="array" ref="X14" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X14" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>h</v>
       </c>
       <c r="Y14" s="24"/>
@@ -19845,7 +20279,7 @@
         <v>ㄙ</v>
       </c>
       <c r="AE14" s="461" t="str" cm="1">
-        <f t="array" ref="AE14" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA14, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE14" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA14, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>s</v>
       </c>
       <c r="AF14" s="391"/>
@@ -20142,7 +20576,7 @@
         <v>ㄗ</v>
       </c>
       <c r="X15" s="391" t="str" cm="1">
-        <f t="array" ref="X15" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X15" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>z</v>
       </c>
       <c r="Y15" s="24"/>
@@ -20167,7 +20601,7 @@
         <v>ㄍ</v>
       </c>
       <c r="AE15" s="461" t="str" cm="1">
-        <f t="array" ref="AE15" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA15, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE15" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA15, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>k</v>
       </c>
       <c r="AF15" s="391"/>
@@ -20458,7 +20892,7 @@
         <v>ㄘ</v>
       </c>
       <c r="X16" s="391" t="str" cm="1">
-        <f t="array" ref="X16" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X16" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>c</v>
       </c>
       <c r="Y16" s="24"/>
@@ -20483,7 +20917,7 @@
         <v>ㄎ</v>
       </c>
       <c r="AE16" s="461" t="str" cm="1">
-        <f t="array" ref="AE16" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA16, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE16" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA16, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>kh</v>
       </c>
       <c r="AF16" s="391"/>
@@ -20551,7 +20985,7 @@
         <v>ㄙ</v>
       </c>
       <c r="X17" s="391" t="str" cm="1">
-        <f t="array" ref="X17" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X17" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>s</v>
       </c>
       <c r="Y17" s="24"/>
@@ -20576,7 +21010,7 @@
         <v>ㄍㆷ</v>
       </c>
       <c r="AE17" s="461" t="str" cm="1">
-        <f t="array" ref="AE17" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA17, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE17" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA17, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>g</v>
       </c>
       <c r="AF17" s="391"/>
@@ -20662,7 +21096,7 @@
         <v>ㄖ</v>
       </c>
       <c r="X18" s="391" t="str" cm="1">
-        <f t="array" ref="X18" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X18" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>j</v>
       </c>
       <c r="Y18" s="24"/>
@@ -20687,7 +21121,7 @@
         <v>ㄥ</v>
       </c>
       <c r="AE18" s="461" t="str" cm="1">
-        <f t="array" ref="AE18" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA18, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE18" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA18, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ng-</v>
       </c>
       <c r="AF18" s="391"/>
@@ -20773,7 +21207,7 @@
         <v>#N/A</v>
       </c>
       <c r="X19" s="391" t="e" cm="1">
-        <f t="array" ref="X19" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X19" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>#N/A</v>
       </c>
       <c r="Y19" s="24"/>
@@ -20798,7 +21232,7 @@
         <v>ㄏ</v>
       </c>
       <c r="AE19" s="461" t="str" cm="1">
-        <f t="array" ref="AE19" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA19, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE19" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA19, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>h</v>
       </c>
       <c r="AF19" s="391"/>
@@ -20808,7 +21242,7 @@
       </c>
       <c r="AH19" s="2"/>
       <c r="AI19" s="402" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AJ19" s="1">
         <f xml:space="preserve"> LEN(AK19)</f>
@@ -20881,7 +21315,7 @@
         <v>#N/A</v>
       </c>
       <c r="X20" s="391" t="e" cm="1">
-        <f t="array" ref="X20" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X20" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>#N/A</v>
       </c>
       <c r="Y20" s="24"/>
@@ -20906,7 +21340,7 @@
         <v>ㄧ</v>
       </c>
       <c r="AE20" s="461" t="str" cm="1">
-        <f t="array" ref="AE20" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA20, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE20" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA20, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>i</v>
       </c>
       <c r="AF20" s="391"/>
@@ -20976,7 +21410,7 @@
         <v>#N/A</v>
       </c>
       <c r="X21" s="391" t="e" cm="1">
-        <f t="array" ref="X21" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X21" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>#N/A</v>
       </c>
       <c r="Y21" s="24"/>
@@ -21001,7 +21435,7 @@
         <v>ㄨ</v>
       </c>
       <c r="AE21" s="461" t="str" cm="1">
-        <f t="array" ref="AE21" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA21, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE21" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA21, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>u</v>
       </c>
       <c r="AF21" s="391"/>
@@ -21072,7 +21506,7 @@
         <v>ㄥ</v>
       </c>
       <c r="X22" s="391" t="str" cm="1">
-        <f t="array" ref="X22" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X22" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>ng-</v>
       </c>
       <c r="Y22" s="24"/>
@@ -21097,7 +21531,7 @@
         <v>ㄚ</v>
       </c>
       <c r="AE22" s="461" t="str" cm="1">
-        <f t="array" ref="AE22" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA22, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE22" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA22, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>a</v>
       </c>
       <c r="AF22" s="391"/>
@@ -21168,7 +21602,7 @@
         <v>ㄧ</v>
       </c>
       <c r="X23" s="391" t="str" cm="1">
-        <f t="array" ref="X23" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X23" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>i</v>
       </c>
       <c r="Y23" s="24"/>
@@ -21193,7 +21627,7 @@
         <v>ㄛ</v>
       </c>
       <c r="AE23" s="461" t="str" cm="1">
-        <f t="array" ref="AE23" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA23, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE23" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA23, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>oo</v>
       </c>
       <c r="AF23" s="391"/>
@@ -21264,7 +21698,7 @@
         <v>ㄨ</v>
       </c>
       <c r="X24" s="391" t="str" cm="1">
-        <f t="array" ref="X24" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X24" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>u</v>
       </c>
       <c r="Y24" s="24"/>
@@ -21289,7 +21723,7 @@
         <v>ㄜ</v>
       </c>
       <c r="AE24" s="461" t="str" cm="1">
-        <f t="array" ref="AE24" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA24, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE24" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA24, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>o</v>
       </c>
       <c r="AF24" s="391"/>
@@ -21364,7 +21798,7 @@
         <v>ㄇ</v>
       </c>
       <c r="X25" s="391" t="str" cm="1">
-        <f t="array" ref="X25" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X25" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>-m</v>
       </c>
       <c r="Y25" s="24"/>
@@ -21389,7 +21823,7 @@
         <v>ㄝ</v>
       </c>
       <c r="AE25" s="461" t="str" cm="1">
-        <f t="array" ref="AE25" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA25, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE25" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA25, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>e</v>
       </c>
       <c r="AF25" s="391"/>
@@ -21464,7 +21898,7 @@
         <v>ㄚ</v>
       </c>
       <c r="X26" s="391" t="str" cm="1">
-        <f t="array" ref="X26" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X26" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>a</v>
       </c>
       <c r="Y26" s="24"/>
@@ -21489,7 +21923,7 @@
         <v>ㄞ</v>
       </c>
       <c r="AE26" s="461" t="str" cm="1">
-        <f t="array" ref="AE26" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA26, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE26" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA26, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ai</v>
       </c>
       <c r="AF26" s="391"/>
@@ -21558,7 +21992,7 @@
         <v>ㄛ</v>
       </c>
       <c r="X27" s="391" t="str" cm="1">
-        <f t="array" ref="X27" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X27" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>oo</v>
       </c>
       <c r="Y27" s="24"/>
@@ -21583,7 +22017,7 @@
         <v>ㄠ</v>
       </c>
       <c r="AE27" s="461" t="str" cm="1">
-        <f t="array" ref="AE27" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA27, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE27" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA27, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>au</v>
       </c>
       <c r="AF27" s="391"/>
@@ -21652,7 +22086,7 @@
         <v>ㄜ</v>
       </c>
       <c r="X28" s="391" t="str" cm="1">
-        <f t="array" ref="X28" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X28" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>o</v>
       </c>
       <c r="Y28" s="24"/>
@@ -21677,7 +22111,7 @@
         <v>ㄢ</v>
       </c>
       <c r="AE28" s="461" t="str" cm="1">
-        <f t="array" ref="AE28" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA28, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE28" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA28, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>an</v>
       </c>
       <c r="AF28" s="391"/>
@@ -21746,7 +22180,7 @@
         <v>ㄝ</v>
       </c>
       <c r="X29" s="391" t="str" cm="1">
-        <f t="array" ref="X29" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X29" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>e</v>
       </c>
       <c r="Y29" s="24"/>
@@ -21771,7 +22205,7 @@
         <v>ㄤ</v>
       </c>
       <c r="AE29" s="461" t="str" cm="1">
-        <f t="array" ref="AE29" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA29, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE29" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA29, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ang</v>
       </c>
       <c r="AF29" s="391"/>
@@ -21840,7 +22274,7 @@
         <v>ㄞ</v>
       </c>
       <c r="X30" s="391" t="str" cm="1">
-        <f t="array" ref="X30" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X30" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>ai</v>
       </c>
       <c r="Y30" s="24"/>
@@ -21865,7 +22299,7 @@
         <v>ㄦ</v>
       </c>
       <c r="AE30" s="461" t="str" cm="1">
-        <f t="array" ref="AE30" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA30, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE30" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA30, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ir</v>
       </c>
       <c r="AF30" s="391"/>
@@ -21934,7 +22368,7 @@
         <v>ㄠ</v>
       </c>
       <c r="X31" s="391" t="str" cm="1">
-        <f t="array" ref="X31" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X31" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>au</v>
       </c>
       <c r="Y31" s="24"/>
@@ -21959,7 +22393,7 @@
         <v>ㄥㄧ</v>
       </c>
       <c r="AE31" s="461" t="str" cm="1">
-        <f t="array" ref="AE31" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA31, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE31" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA31, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>inn</v>
       </c>
       <c r="AF31" s="391"/>
@@ -22028,7 +22462,7 @@
         <v>ㄬ</v>
       </c>
       <c r="X32" s="391" t="str" cm="1">
-        <f t="array" ref="X32" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X32" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>-nn</v>
       </c>
       <c r="Y32" s="24"/>
@@ -22053,7 +22487,7 @@
         <v>ㄥㄨ</v>
       </c>
       <c r="AE32" s="461" t="str" cm="1">
-        <f t="array" ref="AE32" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA32, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE32" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA32, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>unn</v>
       </c>
       <c r="AF32" s="391"/>
@@ -22121,7 +22555,7 @@
         <v>ㄢ</v>
       </c>
       <c r="X33" s="391" t="str" cm="1">
-        <f t="array" ref="X33" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X33" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>an</v>
       </c>
       <c r="Y33" s="24"/>
@@ -22146,7 +22580,7 @@
         <v>ㄥㄚ</v>
       </c>
       <c r="AE33" s="461" t="str" cm="1">
-        <f t="array" ref="AE33" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA33, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE33" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA33, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ann</v>
       </c>
       <c r="AF33" s="391"/>
@@ -22215,7 +22649,7 @@
         <v>ㄯ</v>
       </c>
       <c r="X34" s="391" t="str" cm="1">
-        <f t="array" ref="X34" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X34" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>-n</v>
       </c>
       <c r="Y34" s="24"/>
@@ -22240,7 +22674,7 @@
         <v>ㄥㄛ</v>
       </c>
       <c r="AE34" s="461" t="str" cm="1">
-        <f t="array" ref="AE34" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA34, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE34" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA34, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>onn</v>
       </c>
       <c r="AF34" s="391"/>
@@ -22309,7 +22743,7 @@
         <v>#N/A</v>
       </c>
       <c r="X35" s="391" t="e" cm="1">
-        <f t="array" ref="X35" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X35" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>#N/A</v>
       </c>
       <c r="Y35" s="24"/>
@@ -22334,7 +22768,7 @@
         <v>ㄥㄝ</v>
       </c>
       <c r="AE35" s="461" t="str" cm="1">
-        <f t="array" ref="AE35" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA35, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE35" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA35, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>enn</v>
       </c>
       <c r="AF35" s="391"/>
@@ -22403,7 +22837,7 @@
         <v>ㆭ</v>
       </c>
       <c r="X36" s="391" t="str" cm="1">
-        <f t="array" ref="X36" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X36" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>-ng</v>
       </c>
       <c r="Y36" s="24"/>
@@ -22428,7 +22862,7 @@
         <v>ㄥㄞ</v>
       </c>
       <c r="AE36" s="461" t="str" cm="1">
-        <f t="array" ref="AE36" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA36, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE36" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA36, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ainn</v>
       </c>
       <c r="AF36" s="391"/>
@@ -22497,7 +22931,7 @@
         <v>ㄦ</v>
       </c>
       <c r="X37" s="391" t="str" cm="1">
-        <f t="array" ref="X37" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X37" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>ir</v>
       </c>
       <c r="Y37" s="24"/>
@@ -22522,7 +22956,7 @@
         <v>ㄥㄠ</v>
       </c>
       <c r="AE37" s="461" t="str" cm="1">
-        <f t="array" ref="AE37" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA37, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE37" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA37, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>aunn</v>
       </c>
       <c r="AF37" s="391"/>
@@ -22591,7 +23025,7 @@
         <v>ㄥㄧ</v>
       </c>
       <c r="X38" s="391" t="str" cm="1">
-        <f t="array" ref="X38" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X38" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>inn</v>
       </c>
       <c r="Y38" s="24"/>
@@ -22616,7 +23050,7 @@
         <v>ㄚㄇ</v>
       </c>
       <c r="AE38" s="461" t="str" cm="1">
-        <f t="array" ref="AE38" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA38, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE38" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA38, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>am</v>
       </c>
       <c r="AF38" s="391"/>
@@ -22685,7 +23119,7 @@
         <v>ㄥㄨ</v>
       </c>
       <c r="X39" s="391" t="str" cm="1">
-        <f t="array" ref="X39" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X39" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>unn</v>
       </c>
       <c r="Y39" s="24"/>
@@ -22710,7 +23144,7 @@
         <v>ㄛㆭ</v>
       </c>
       <c r="AE39" s="461" t="str" cm="1">
-        <f t="array" ref="AE39" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA39, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE39" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA39, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>ong</v>
       </c>
       <c r="AF39" s="391"/>
@@ -22779,7 +23213,7 @@
         <v>ㄥㄚ</v>
       </c>
       <c r="X40" s="391" t="str" cm="1">
-        <f t="array" ref="X40" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X40" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>ann</v>
       </c>
       <c r="Y40" s="24"/>
@@ -22804,7 +23238,7 @@
         <v>ㆭ</v>
       </c>
       <c r="AE40" s="461" t="str" cm="1">
-        <f t="array" ref="AE40" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA40, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE40" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA40, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>-ng</v>
       </c>
       <c r="AF40" s="391"/>
@@ -22873,7 +23307,7 @@
         <v>ㄥㄛ</v>
       </c>
       <c r="X41" s="391" t="str" cm="1">
-        <f t="array" ref="X41" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X41" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>onn</v>
       </c>
       <c r="Y41" s="24"/>
@@ -22898,7 +23332,7 @@
         <v>ㄯ</v>
       </c>
       <c r="AE41" s="461" t="str" cm="1">
-        <f t="array" ref="AE41" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA41, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE41" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA41, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>-n</v>
       </c>
       <c r="AF41" s="391"/>
@@ -22967,7 +23401,7 @@
         <v>ㄥㄝ</v>
       </c>
       <c r="X42" s="391" t="str" cm="1">
-        <f t="array" ref="X42" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X42" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>enn</v>
       </c>
       <c r="Y42" s="24"/>
@@ -22992,7 +23426,7 @@
         <v>ㄇ</v>
       </c>
       <c r="AE42" s="461" t="str" cm="1">
-        <f t="array" ref="AE42" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA42, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE42" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA42, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>-m</v>
       </c>
       <c r="AF42" s="391"/>
@@ -23061,7 +23495,7 @@
         <v>ㄥㄞ</v>
       </c>
       <c r="X43" s="391" t="str" cm="1">
-        <f t="array" ref="X43" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X43" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>ainn</v>
       </c>
       <c r="Y43" s="24"/>
@@ -23086,7 +23520,7 @@
         <v>ㄬ</v>
       </c>
       <c r="AE43" s="461" t="str" cm="1">
-        <f t="array" ref="AE43" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA43, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE43" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA43, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>-nn</v>
       </c>
       <c r="AF43" s="391"/>
@@ -23155,7 +23589,7 @@
         <v>ㄥㄠ</v>
       </c>
       <c r="X44" s="391" t="str" cm="1">
-        <f t="array" ref="X44" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X44" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>aunn</v>
       </c>
       <c r="Y44" s="24"/>
@@ -23180,7 +23614,7 @@
         <v>ˉ</v>
       </c>
       <c r="AE44" s="460" cm="1">
-        <f t="array" ref="AE44" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA44, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE44" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA44, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>1</v>
       </c>
       <c r="AF44" s="391"/>
@@ -23239,7 +23673,7 @@
         <v>#N/A</v>
       </c>
       <c r="X45" s="391" t="e" cm="1">
-        <f t="array" ref="X45" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X45" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>#N/A</v>
       </c>
       <c r="Y45" s="24"/>
@@ -23264,7 +23698,7 @@
         <v>ˋ</v>
       </c>
       <c r="AE45" s="461" cm="1">
-        <f t="array" ref="AE45" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA45, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE45" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA45, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>2</v>
       </c>
       <c r="AF45" s="391"/>
@@ -23334,7 +23768,7 @@
         <v>#N/A</v>
       </c>
       <c r="X46" s="391" t="e" cm="1">
-        <f t="array" ref="X46" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X46" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>#N/A</v>
       </c>
       <c r="Y46" s="24"/>
@@ -23359,7 +23793,7 @@
         <v>˪</v>
       </c>
       <c r="AE46" s="461" cm="1">
-        <f t="array" ref="AE46" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA46, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE46" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA46, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>3</v>
       </c>
       <c r="AF46" s="391"/>
@@ -23435,7 +23869,7 @@
         <v>#N/A</v>
       </c>
       <c r="X47" s="391" t="e" cm="1">
-        <f t="array" ref="X47" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X47" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>#N/A</v>
       </c>
       <c r="Y47" s="24"/>
@@ -23460,7 +23894,7 @@
         <v>ˊ</v>
       </c>
       <c r="AE47" s="461" cm="1">
-        <f t="array" ref="AE47" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA47, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE47" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA47, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>5</v>
       </c>
       <c r="AF47" s="391"/>
@@ -23537,7 +23971,7 @@
         <v>ˉ</v>
       </c>
       <c r="X48" s="391" cm="1">
-        <f t="array" ref="X48" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X48" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>1</v>
       </c>
       <c r="Y48" s="24"/>
@@ -23562,7 +23996,7 @@
         <v>˫</v>
       </c>
       <c r="AE48" s="461" cm="1">
-        <f t="array" ref="AE48" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA48, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE48" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA48, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>7</v>
       </c>
       <c r="AF48" s="391"/>
@@ -23635,7 +24069,7 @@
         <v>ˋ</v>
       </c>
       <c r="X49" s="391" cm="1">
-        <f t="array" ref="X49" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X49" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>2</v>
       </c>
       <c r="Y49" s="24"/>
@@ -23660,7 +24094,7 @@
         <v>˙</v>
       </c>
       <c r="AE49" s="464" t="str" cm="1">
-        <f t="array" ref="AE49" xml:space="preserve"> INDEX(注音編碼對照表[台語音標], MATCH(TRUE, EXACT(RIME設定解析!$AA49, 注音編碼對照表[鍵盤按鍵] ),0))</f>
+        <f t="array" ref="AE49" xml:space="preserve"> INDEX(注音編碼對照表[台語音標2], MATCH(TRUE, EXACT(RIME設定解析!$AA49, 注音編碼對照表[鍵盤按鍵] ),0))</f>
         <v>[48]</v>
       </c>
       <c r="AF49" s="391"/>
@@ -23733,7 +24167,7 @@
         <v>˪</v>
       </c>
       <c r="X50" s="391" cm="1">
-        <f t="array" ref="X50" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X50" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>3</v>
       </c>
       <c r="Y50" s="24"/>
@@ -23819,7 +24253,7 @@
         <v>ˊ</v>
       </c>
       <c r="X51" s="391" cm="1">
-        <f t="array" ref="X51" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X51" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>5</v>
       </c>
       <c r="Y51" s="24"/>
@@ -23905,7 +24339,7 @@
         <v>˫</v>
       </c>
       <c r="X52" s="391" cm="1">
-        <f t="array" ref="X52" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X52" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>7</v>
       </c>
       <c r="Y52" s="24"/>
@@ -23988,7 +24422,7 @@
         <v>˙</v>
       </c>
       <c r="X53" s="391" t="str" cm="1">
-        <f t="array" ref="X53" xml:space="preserve"> INDEX(注音編碼對照表!$I$3:$I$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
+        <f t="array" ref="X53" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$53, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</f>
         <v>[48]</v>
       </c>
       <c r="Y53" s="24"/>
@@ -24184,10 +24618,10 @@
         <v>11</v>
       </c>
       <c r="V57" s="417" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="W57" s="417" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="X57" s="418" t="s">
         <v>383</v>
@@ -24236,7 +24670,7 @@
         <v>267</v>
       </c>
       <c r="V58" s="390" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="W58" s="389" t="s">
         <v>125</v>
@@ -24288,7 +24722,7 @@
         <v>612</v>
       </c>
       <c r="V59" s="390" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="W59" s="389" t="s">
         <v>99</v>
@@ -24347,7 +24781,7 @@
       <c r="AA60" s="404"/>
       <c r="AC60" s="404"/>
       <c r="AE60" s="405" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AF60" s="391"/>
       <c r="AG60" s="391"/>
@@ -25161,19 +25595,19 @@
   <sheetData>
     <row r="4" spans="2:12">
       <c r="B4" s="576" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C4" s="576" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D4" s="576"/>
       <c r="E4" s="570" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F4" s="571"/>
       <c r="G4" s="572"/>
       <c r="H4" s="577" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I4" s="579"/>
       <c r="J4" s="579"/>
@@ -25194,16 +25628,16 @@
         <v>440</v>
       </c>
       <c r="H5" s="574" t="s">
+        <v>825</v>
+      </c>
+      <c r="I5" s="574" t="s">
         <v>826</v>
       </c>
-      <c r="I5" s="574" t="s">
+      <c r="J5" s="574" t="s">
         <v>827</v>
       </c>
-      <c r="J5" s="574" t="s">
+      <c r="K5" s="577" t="s">
         <v>828</v>
-      </c>
-      <c r="K5" s="577" t="s">
-        <v>829</v>
       </c>
       <c r="L5" s="578"/>
     </row>
@@ -25233,18 +25667,18 @@
         <v>323</v>
       </c>
       <c r="J6" s="575" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K6" s="575" t="s">
         <v>355</v>
       </c>
       <c r="L6" s="575" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="22.5">
       <c r="B7" s="569" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C7" s="569" t="s">
         <v>330</v>
@@ -25259,15 +25693,15 @@
       <c r="I7" s="575"/>
       <c r="J7" s="575"/>
       <c r="K7" s="575" t="s">
+        <v>832</v>
+      </c>
+      <c r="L7" s="575" t="s">
         <v>833</v>
-      </c>
-      <c r="L7" s="575" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="22.5">
       <c r="B8" s="569" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C8" s="569" t="s">
         <v>326</v>
@@ -25280,32 +25714,32 @@
       <c r="I8" s="575"/>
       <c r="J8" s="575"/>
       <c r="K8" s="575" t="s">
+        <v>835</v>
+      </c>
+      <c r="L8" s="575" t="s">
         <v>836</v>
-      </c>
-      <c r="L8" s="575" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="22.5">
       <c r="B9" s="569" t="s">
+        <v>837</v>
+      </c>
+      <c r="C9" s="569" t="s">
         <v>838</v>
-      </c>
-      <c r="C9" s="569" t="s">
-        <v>839</v>
       </c>
       <c r="D9" s="569"/>
       <c r="E9" s="569"/>
       <c r="F9" s="569"/>
       <c r="G9" s="569" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H9" s="575"/>
       <c r="I9" s="575"/>
       <c r="J9" s="575" t="s">
+        <v>840</v>
+      </c>
+      <c r="K9" s="575" t="s">
         <v>841</v>
-      </c>
-      <c r="K9" s="575" t="s">
-        <v>842</v>
       </c>
       <c r="L9" s="575"/>
     </row>
@@ -25326,10 +25760,10 @@
       <c r="I10" s="575"/>
       <c r="J10" s="575"/>
       <c r="K10" s="575" t="s">
+        <v>842</v>
+      </c>
+      <c r="L10" s="575" t="s">
         <v>843</v>
-      </c>
-      <c r="L10" s="575" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="22.5">
@@ -25352,24 +25786,24 @@
         <v>155</v>
       </c>
       <c r="H11" s="575" t="s">
+        <v>844</v>
+      </c>
+      <c r="I11" s="575" t="s">
         <v>845</v>
       </c>
-      <c r="I11" s="575" t="s">
+      <c r="J11" s="575" t="s">
         <v>846</v>
       </c>
-      <c r="J11" s="575" t="s">
+      <c r="K11" s="575" t="s">
         <v>847</v>
       </c>
-      <c r="K11" s="575" t="s">
+      <c r="L11" s="575" t="s">
         <v>848</v>
-      </c>
-      <c r="L11" s="575" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="22.5">
       <c r="B12" s="569" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C12" s="569" t="s">
         <v>313</v>
@@ -25387,30 +25821,30 @@
         <v>157</v>
       </c>
       <c r="H12" s="575" t="s">
+        <v>850</v>
+      </c>
+      <c r="I12" s="575" t="s">
         <v>851</v>
       </c>
-      <c r="I12" s="575" t="s">
+      <c r="J12" s="575" t="s">
         <v>852</v>
       </c>
-      <c r="J12" s="575" t="s">
+      <c r="K12" s="575" t="s">
         <v>853</v>
       </c>
-      <c r="K12" s="575" t="s">
+      <c r="L12" s="575" t="s">
         <v>854</v>
-      </c>
-      <c r="L12" s="575" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="22.5">
       <c r="B13" s="569" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C13" s="569" t="s">
         <v>301</v>
       </c>
       <c r="D13" s="569" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E13" s="569"/>
       <c r="F13" s="569"/>
@@ -25419,13 +25853,13 @@
       <c r="I13" s="575"/>
       <c r="J13" s="575"/>
       <c r="K13" s="575" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L13" s="575"/>
     </row>
     <row r="14" spans="2:12" ht="22.5">
       <c r="B14" s="569" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C14" s="569" t="s">
         <v>306</v>
@@ -25438,16 +25872,16 @@
       <c r="I14" s="575"/>
       <c r="J14" s="575"/>
       <c r="K14" s="575" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="L14" s="575"/>
     </row>
     <row r="15" spans="2:12" ht="22.5">
       <c r="B15" s="569" t="s">
+        <v>860</v>
+      </c>
+      <c r="C15" s="569" t="s">
         <v>861</v>
-      </c>
-      <c r="C15" s="569" t="s">
-        <v>862</v>
       </c>
       <c r="D15" s="569" t="s">
         <v>250</v>
@@ -25460,16 +25894,16 @@
       <c r="H15" s="575"/>
       <c r="I15" s="575"/>
       <c r="J15" s="575" t="s">
+        <v>862</v>
+      </c>
+      <c r="K15" s="575" t="s">
         <v>863</v>
-      </c>
-      <c r="K15" s="575" t="s">
-        <v>864</v>
       </c>
       <c r="L15" s="575"/>
     </row>
     <row r="16" spans="2:12" ht="22.5">
       <c r="B16" s="569" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C16" s="569" t="s">
         <v>318</v>
@@ -25484,10 +25918,10 @@
       <c r="I16" s="575"/>
       <c r="J16" s="575"/>
       <c r="K16" s="575" t="s">
+        <v>865</v>
+      </c>
+      <c r="L16" s="575" t="s">
         <v>866</v>
-      </c>
-      <c r="L16" s="575" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="22.5">
@@ -25495,7 +25929,7 @@
         <v>475</v>
       </c>
       <c r="C17" s="569" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D17" s="569"/>
       <c r="E17" s="569"/>
@@ -25505,13 +25939,13 @@
       <c r="I17" s="575"/>
       <c r="J17" s="575"/>
       <c r="K17" s="575" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="L17" s="575"/>
     </row>
     <row r="18" spans="2:12" ht="22.5">
       <c r="B18" s="569" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C18" s="569" t="s">
         <v>65</v>
@@ -25524,7 +25958,7 @@
       <c r="I18" s="575"/>
       <c r="J18" s="575"/>
       <c r="K18" s="575" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="L18" s="575"/>
     </row>
@@ -25542,16 +25976,16 @@
         <v>440</v>
       </c>
       <c r="H19" s="575" t="s">
+        <v>825</v>
+      </c>
+      <c r="I19" s="575" t="s">
         <v>826</v>
       </c>
-      <c r="I19" s="575" t="s">
+      <c r="J19" s="575" t="s">
         <v>827</v>
       </c>
-      <c r="J19" s="575" t="s">
+      <c r="K19" s="575" t="s">
         <v>828</v>
-      </c>
-      <c r="K19" s="575" t="s">
-        <v>829</v>
       </c>
       <c r="L19" s="575"/>
     </row>
@@ -25573,47 +26007,47 @@
         <v>160</v>
       </c>
       <c r="H20" s="575" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I20" s="575"/>
       <c r="J20" s="575" t="s">
+        <v>872</v>
+      </c>
+      <c r="K20" s="575" t="s">
         <v>873</v>
       </c>
-      <c r="K20" s="575" t="s">
+      <c r="L20" s="575" t="s">
         <v>874</v>
-      </c>
-      <c r="L20" s="575" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="22.5">
       <c r="B21" s="569" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C21" s="569" t="s">
         <v>522</v>
       </c>
       <c r="D21" s="569"/>
       <c r="E21" s="569" t="s">
+        <v>876</v>
+      </c>
+      <c r="F21" s="569" t="s">
         <v>877</v>
       </c>
-      <c r="F21" s="569" t="s">
+      <c r="G21" s="569" t="s">
         <v>878</v>
       </c>
-      <c r="G21" s="569" t="s">
+      <c r="H21" s="575" t="s">
         <v>879</v>
       </c>
-      <c r="H21" s="575" t="s">
+      <c r="I21" s="575" t="s">
         <v>880</v>
       </c>
-      <c r="I21" s="575" t="s">
+      <c r="J21" s="575" t="s">
         <v>881</v>
       </c>
-      <c r="J21" s="575" t="s">
+      <c r="K21" s="575" t="s">
         <v>882</v>
-      </c>
-      <c r="K21" s="575" t="s">
-        <v>883</v>
       </c>
       <c r="L21" s="575"/>
     </row>
@@ -25632,17 +26066,17 @@
       <c r="G22" s="569"/>
       <c r="H22" s="575"/>
       <c r="I22" s="575" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J22" s="575"/>
       <c r="K22" s="575" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="L22" s="575"/>
     </row>
     <row r="23" spans="2:12" ht="22.5">
       <c r="B23" s="569" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C23" s="569" t="s">
         <v>295</v>
@@ -25659,23 +26093,23 @@
       </c>
       <c r="H23" s="575"/>
       <c r="I23" s="575" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J23" s="575"/>
       <c r="K23" s="575" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="L23" s="575"/>
     </row>
     <row r="24" spans="2:12" ht="22.5">
       <c r="B24" s="569" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C24" s="569" t="s">
         <v>288</v>
       </c>
       <c r="D24" s="569" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E24" s="569"/>
       <c r="F24" s="569"/>
@@ -25688,10 +26122,10 @@
     </row>
     <row r="25" spans="2:12" ht="22.5">
       <c r="B25" s="569" t="s">
+        <v>890</v>
+      </c>
+      <c r="C25" s="569" t="s">
         <v>891</v>
-      </c>
-      <c r="C25" s="569" t="s">
-        <v>892</v>
       </c>
       <c r="D25" s="569"/>
       <c r="E25" s="569"/>
@@ -25701,13 +26135,13 @@
       <c r="I25" s="575"/>
       <c r="J25" s="575"/>
       <c r="K25" s="575" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="L25" s="575"/>
     </row>
     <row r="26" spans="2:12" ht="22.5">
       <c r="B26" s="569" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C26" s="569" t="s">
         <v>292</v>
@@ -25720,13 +26154,13 @@
       <c r="I26" s="575"/>
       <c r="J26" s="575"/>
       <c r="K26" s="575" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="L26" s="575"/>
     </row>
     <row r="27" spans="2:12" ht="22.5">
       <c r="B27" s="569" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C27" s="569" t="s">
         <v>298</v>
@@ -25743,11 +26177,11 @@
     </row>
     <row r="28" spans="2:12" ht="22.5">
       <c r="B28" s="569" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C28" s="569"/>
       <c r="D28" s="569" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E28" s="569"/>
       <c r="F28" s="569"/>
@@ -25760,10 +26194,10 @@
     </row>
     <row r="29" spans="2:12" ht="22.5">
       <c r="B29" s="569" t="s">
+        <v>898</v>
+      </c>
+      <c r="C29" s="569" t="s">
         <v>899</v>
-      </c>
-      <c r="C29" s="569" t="s">
-        <v>900</v>
       </c>
       <c r="D29" s="569"/>
       <c r="E29" s="569"/>
@@ -25773,7 +26207,7 @@
       <c r="I29" s="575"/>
       <c r="J29" s="575"/>
       <c r="K29" s="575" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="L29" s="575"/>
     </row>
@@ -25786,7 +26220,7 @@
       </c>
       <c r="D30" s="569"/>
       <c r="E30" s="569" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F30" s="569"/>
       <c r="G30" s="569"/>
@@ -25794,7 +26228,7 @@
       <c r="I30" s="575"/>
       <c r="J30" s="575"/>
       <c r="K30" s="575" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="L30" s="575"/>
     </row>
@@ -25807,7 +26241,7 @@
       </c>
       <c r="D31" s="569"/>
       <c r="E31" s="569" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F31" s="569"/>
       <c r="G31" s="569"/>
@@ -25815,7 +26249,7 @@
       <c r="I31" s="575"/>
       <c r="J31" s="575"/>
       <c r="K31" s="575" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="L31" s="575"/>
     </row>
@@ -25912,66 +26346,66 @@
     </row>
     <row r="2" spans="1:75" s="147" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="239"/>
-      <c r="B2" s="583" t="s">
+      <c r="B2" s="586" t="s">
         <v>539</v>
       </c>
-      <c r="C2" s="584"/>
-      <c r="D2" s="585"/>
-      <c r="E2" s="583" t="s">
+      <c r="C2" s="587"/>
+      <c r="D2" s="588"/>
+      <c r="E2" s="586" t="s">
         <v>540</v>
       </c>
-      <c r="F2" s="584"/>
-      <c r="G2" s="585"/>
-      <c r="H2" s="580" t="s">
+      <c r="F2" s="587"/>
+      <c r="G2" s="588"/>
+      <c r="H2" s="595" t="s">
         <v>541</v>
       </c>
-      <c r="I2" s="581"/>
-      <c r="J2" s="582"/>
-      <c r="K2" s="580" t="s">
+      <c r="I2" s="596"/>
+      <c r="J2" s="597"/>
+      <c r="K2" s="595" t="s">
         <v>542</v>
       </c>
-      <c r="L2" s="581"/>
-      <c r="M2" s="582"/>
-      <c r="N2" s="586">
+      <c r="L2" s="596"/>
+      <c r="M2" s="597"/>
+      <c r="N2" s="598">
         <v>0.05</v>
       </c>
-      <c r="O2" s="587"/>
-      <c r="P2" s="588"/>
-      <c r="Q2" s="580" t="s">
+      <c r="O2" s="599"/>
+      <c r="P2" s="600"/>
+      <c r="Q2" s="595" t="s">
         <v>543</v>
       </c>
-      <c r="R2" s="581"/>
-      <c r="S2" s="582"/>
-      <c r="T2" s="580" t="s">
+      <c r="R2" s="596"/>
+      <c r="S2" s="597"/>
+      <c r="T2" s="595" t="s">
         <v>544</v>
       </c>
-      <c r="U2" s="581"/>
-      <c r="V2" s="582"/>
-      <c r="W2" s="591" t="s">
+      <c r="U2" s="596"/>
+      <c r="V2" s="597"/>
+      <c r="W2" s="580" t="s">
         <v>545</v>
       </c>
-      <c r="X2" s="592"/>
-      <c r="Y2" s="593"/>
-      <c r="Z2" s="591" t="s">
+      <c r="X2" s="581"/>
+      <c r="Y2" s="582"/>
+      <c r="Z2" s="580" t="s">
         <v>546</v>
       </c>
-      <c r="AA2" s="592"/>
-      <c r="AB2" s="593"/>
-      <c r="AC2" s="591" t="s">
+      <c r="AA2" s="581"/>
+      <c r="AB2" s="582"/>
+      <c r="AC2" s="580" t="s">
         <v>547</v>
       </c>
-      <c r="AD2" s="592"/>
-      <c r="AE2" s="593"/>
-      <c r="AF2" s="594" t="s">
+      <c r="AD2" s="581"/>
+      <c r="AE2" s="582"/>
+      <c r="AF2" s="583" t="s">
         <v>548</v>
       </c>
-      <c r="AG2" s="595"/>
-      <c r="AH2" s="596"/>
-      <c r="AI2" s="594" t="s">
+      <c r="AG2" s="584"/>
+      <c r="AH2" s="585"/>
+      <c r="AI2" s="583" t="s">
         <v>549</v>
       </c>
-      <c r="AJ2" s="595"/>
-      <c r="AK2" s="596"/>
+      <c r="AJ2" s="584"/>
+      <c r="AK2" s="585"/>
       <c r="AL2" s="239"/>
       <c r="AM2" s="239"/>
       <c r="AN2" s="239"/>
@@ -26103,38 +26537,38 @@
       <c r="G4" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="597" t="s">
+      <c r="H4" s="591" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="598"/>
+      <c r="I4" s="592"/>
       <c r="J4" s="272" t="s">
         <v>552</v>
       </c>
-      <c r="K4" s="599" t="s">
+      <c r="K4" s="593" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="600"/>
+      <c r="L4" s="594"/>
       <c r="M4" s="272" t="s">
         <v>553</v>
       </c>
-      <c r="N4" s="597" t="s">
+      <c r="N4" s="591" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="598"/>
+      <c r="O4" s="592"/>
       <c r="P4" s="272" t="s">
         <v>554</v>
       </c>
-      <c r="Q4" s="599" t="s">
+      <c r="Q4" s="593" t="s">
         <v>106</v>
       </c>
-      <c r="R4" s="600"/>
+      <c r="R4" s="594"/>
       <c r="S4" s="272" t="s">
         <v>555</v>
       </c>
-      <c r="T4" s="597" t="s">
+      <c r="T4" s="591" t="s">
         <v>556</v>
       </c>
-      <c r="U4" s="598"/>
+      <c r="U4" s="592"/>
       <c r="V4" s="272" t="s">
         <v>557</v>
       </c>
@@ -26233,71 +26667,71 @@
     <row r="5" spans="1:75" s="147" customFormat="1" ht="45" customHeight="1">
       <c r="A5" s="239"/>
       <c r="B5" s="239"/>
-      <c r="C5" s="583" t="s">
+      <c r="C5" s="586" t="s">
         <v>558</v>
       </c>
-      <c r="D5" s="584"/>
-      <c r="E5" s="585"/>
-      <c r="F5" s="583" t="s">
+      <c r="D5" s="587"/>
+      <c r="E5" s="588"/>
+      <c r="F5" s="586" t="s">
         <v>559</v>
       </c>
-      <c r="G5" s="584"/>
-      <c r="H5" s="585"/>
-      <c r="I5" s="583" t="s">
+      <c r="G5" s="587"/>
+      <c r="H5" s="588"/>
+      <c r="I5" s="586" t="s">
         <v>322</v>
       </c>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="583" t="s">
+      <c r="J5" s="587"/>
+      <c r="K5" s="588"/>
+      <c r="L5" s="586" t="s">
         <v>560</v>
       </c>
-      <c r="M5" s="584"/>
-      <c r="N5" s="585"/>
-      <c r="O5" s="583" t="s">
+      <c r="M5" s="587"/>
+      <c r="N5" s="588"/>
+      <c r="O5" s="586" t="s">
         <v>408</v>
       </c>
-      <c r="P5" s="584"/>
-      <c r="Q5" s="585"/>
-      <c r="R5" s="583" t="s">
+      <c r="P5" s="587"/>
+      <c r="Q5" s="588"/>
+      <c r="R5" s="586" t="s">
         <v>447</v>
       </c>
-      <c r="S5" s="584"/>
-      <c r="T5" s="585"/>
-      <c r="U5" s="591" t="s">
+      <c r="S5" s="587"/>
+      <c r="T5" s="588"/>
+      <c r="U5" s="580" t="s">
         <v>259</v>
       </c>
-      <c r="V5" s="592"/>
-      <c r="W5" s="593"/>
-      <c r="X5" s="591" t="s">
+      <c r="V5" s="581"/>
+      <c r="W5" s="582"/>
+      <c r="X5" s="580" t="s">
         <v>275</v>
       </c>
-      <c r="Y5" s="592"/>
-      <c r="Z5" s="593"/>
-      <c r="AA5" s="591" t="s">
+      <c r="Y5" s="581"/>
+      <c r="Z5" s="582"/>
+      <c r="AA5" s="580" t="s">
         <v>267</v>
       </c>
-      <c r="AB5" s="592"/>
-      <c r="AC5" s="593"/>
-      <c r="AD5" s="591" t="s">
+      <c r="AB5" s="581"/>
+      <c r="AC5" s="582"/>
+      <c r="AD5" s="580" t="s">
         <v>400</v>
       </c>
-      <c r="AE5" s="592"/>
-      <c r="AF5" s="593"/>
-      <c r="AG5" s="591" t="s">
+      <c r="AE5" s="581"/>
+      <c r="AF5" s="582"/>
+      <c r="AG5" s="580" t="s">
         <v>561</v>
       </c>
-      <c r="AH5" s="592"/>
-      <c r="AI5" s="593"/>
-      <c r="AJ5" s="591" t="s">
+      <c r="AH5" s="581"/>
+      <c r="AI5" s="582"/>
+      <c r="AJ5" s="580" t="s">
         <v>562</v>
       </c>
-      <c r="AK5" s="592"/>
-      <c r="AL5" s="593"/>
-      <c r="AM5" s="594" t="s">
+      <c r="AK5" s="581"/>
+      <c r="AL5" s="582"/>
+      <c r="AM5" s="583" t="s">
         <v>563</v>
       </c>
-      <c r="AN5" s="595"/>
-      <c r="AO5" s="596"/>
+      <c r="AN5" s="584"/>
+      <c r="AO5" s="585"/>
       <c r="AP5" s="239"/>
       <c r="AQ5" s="239"/>
       <c r="AR5" s="240"/>
@@ -26607,61 +27041,61 @@
       <c r="A8" s="239"/>
       <c r="B8" s="239"/>
       <c r="C8" s="289"/>
-      <c r="D8" s="583" t="s">
+      <c r="D8" s="586" t="s">
         <v>401</v>
       </c>
-      <c r="E8" s="584"/>
-      <c r="F8" s="585"/>
-      <c r="G8" s="583" t="s">
+      <c r="E8" s="587"/>
+      <c r="F8" s="588"/>
+      <c r="G8" s="586" t="s">
         <v>460</v>
       </c>
-      <c r="H8" s="584"/>
-      <c r="I8" s="585"/>
-      <c r="J8" s="583" t="s">
+      <c r="H8" s="587"/>
+      <c r="I8" s="588"/>
+      <c r="J8" s="586" t="s">
         <v>189</v>
       </c>
-      <c r="K8" s="584"/>
-      <c r="L8" s="585"/>
-      <c r="M8" s="583" t="s">
+      <c r="K8" s="587"/>
+      <c r="L8" s="588"/>
+      <c r="M8" s="586" t="s">
         <v>566</v>
       </c>
-      <c r="N8" s="584"/>
-      <c r="O8" s="585"/>
-      <c r="P8" s="583" t="s">
+      <c r="N8" s="587"/>
+      <c r="O8" s="588"/>
+      <c r="P8" s="586" t="s">
         <v>141</v>
       </c>
-      <c r="Q8" s="584"/>
-      <c r="R8" s="585"/>
-      <c r="S8" s="583" t="s">
+      <c r="Q8" s="587"/>
+      <c r="R8" s="588"/>
+      <c r="S8" s="586" t="s">
         <v>454</v>
       </c>
-      <c r="T8" s="584"/>
-      <c r="U8" s="585"/>
-      <c r="V8" s="591" t="s">
+      <c r="T8" s="587"/>
+      <c r="U8" s="588"/>
+      <c r="V8" s="580" t="s">
         <v>249</v>
       </c>
-      <c r="W8" s="592"/>
-      <c r="X8" s="593"/>
-      <c r="Y8" s="591" t="s">
+      <c r="W8" s="581"/>
+      <c r="X8" s="582"/>
+      <c r="Y8" s="580" t="s">
         <v>425</v>
       </c>
-      <c r="Z8" s="592"/>
-      <c r="AA8" s="593"/>
-      <c r="AB8" s="591" t="s">
+      <c r="Z8" s="581"/>
+      <c r="AA8" s="582"/>
+      <c r="AB8" s="580" t="s">
         <v>231</v>
       </c>
-      <c r="AC8" s="592"/>
-      <c r="AD8" s="593"/>
-      <c r="AE8" s="591" t="s">
+      <c r="AC8" s="581"/>
+      <c r="AD8" s="582"/>
+      <c r="AE8" s="580" t="s">
         <v>567</v>
       </c>
-      <c r="AF8" s="592"/>
-      <c r="AG8" s="593"/>
-      <c r="AH8" s="594" t="s">
+      <c r="AF8" s="581"/>
+      <c r="AG8" s="582"/>
+      <c r="AH8" s="583" t="s">
         <v>568</v>
       </c>
-      <c r="AI8" s="595"/>
-      <c r="AJ8" s="596"/>
+      <c r="AI8" s="584"/>
+      <c r="AJ8" s="585"/>
       <c r="AK8" s="239"/>
       <c r="AL8" s="239"/>
       <c r="AM8" s="239"/>
@@ -26975,56 +27409,56 @@
       <c r="B11" s="239"/>
       <c r="C11" s="239"/>
       <c r="D11" s="239"/>
-      <c r="E11" s="583" t="s">
+      <c r="E11" s="586" t="s">
         <v>449</v>
       </c>
-      <c r="F11" s="584"/>
-      <c r="G11" s="585"/>
-      <c r="H11" s="583" t="s">
+      <c r="F11" s="587"/>
+      <c r="G11" s="588"/>
+      <c r="H11" s="586" t="s">
         <v>569</v>
       </c>
-      <c r="I11" s="584"/>
-      <c r="J11" s="585"/>
-      <c r="K11" s="583" t="s">
+      <c r="I11" s="587"/>
+      <c r="J11" s="588"/>
+      <c r="K11" s="586" t="s">
         <v>456</v>
       </c>
-      <c r="L11" s="584"/>
-      <c r="M11" s="585"/>
-      <c r="N11" s="583" t="s">
+      <c r="L11" s="587"/>
+      <c r="M11" s="588"/>
+      <c r="N11" s="586" t="s">
         <v>570</v>
       </c>
-      <c r="O11" s="584"/>
-      <c r="P11" s="585"/>
-      <c r="Q11" s="583" t="s">
+      <c r="O11" s="587"/>
+      <c r="P11" s="588"/>
+      <c r="Q11" s="586" t="s">
         <v>144</v>
       </c>
-      <c r="R11" s="584"/>
-      <c r="S11" s="585"/>
-      <c r="T11" s="583" t="s">
+      <c r="R11" s="587"/>
+      <c r="S11" s="588"/>
+      <c r="T11" s="586" t="s">
         <v>571</v>
       </c>
-      <c r="U11" s="584"/>
-      <c r="V11" s="585"/>
-      <c r="W11" s="591" t="s">
+      <c r="U11" s="587"/>
+      <c r="V11" s="588"/>
+      <c r="W11" s="580" t="s">
         <v>525</v>
       </c>
-      <c r="X11" s="592"/>
-      <c r="Y11" s="593"/>
-      <c r="Z11" s="591" t="s">
+      <c r="X11" s="581"/>
+      <c r="Y11" s="582"/>
+      <c r="Z11" s="580" t="s">
         <v>572</v>
       </c>
-      <c r="AA11" s="592"/>
-      <c r="AB11" s="593"/>
-      <c r="AC11" s="591" t="s">
+      <c r="AA11" s="581"/>
+      <c r="AB11" s="582"/>
+      <c r="AC11" s="580" t="s">
         <v>573</v>
       </c>
-      <c r="AD11" s="592"/>
-      <c r="AE11" s="593"/>
-      <c r="AF11" s="594" t="s">
+      <c r="AD11" s="581"/>
+      <c r="AE11" s="582"/>
+      <c r="AF11" s="583" t="s">
         <v>574</v>
       </c>
-      <c r="AG11" s="595"/>
-      <c r="AH11" s="596"/>
+      <c r="AG11" s="584"/>
+      <c r="AH11" s="585"/>
       <c r="AI11" s="239"/>
       <c r="AJ11" s="239"/>
       <c r="AK11" s="239"/>
@@ -33083,6 +33517,52 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="W11:Y11"/>
     <mergeCell ref="Z11:AB11"/>
     <mergeCell ref="AC11:AE11"/>
@@ -33093,52 +33573,6 @@
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="T11:V11"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/鍵盤設計規格_台語方音V3.xlsx
+++ b/docs/鍵盤設計規格_台語方音V3.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8190A3E1-CFBF-494D-A28F-6AD458259D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC624973-0D70-499C-ABE5-33A33A3C8CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="762" activeTab="3" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
-    <workbookView minimized="1" xWindow="-25470" yWindow="2760" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{EEC5A07A-C06A-4334-8550-8557E22E5017}"/>
+    <workbookView xWindow="3450" yWindow="2580" windowWidth="28800" windowHeight="11295" tabRatio="762" activeTab="3" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{EEC5A07A-C06A-4334-8550-8557E22E5017}"/>
   </bookViews>
   <sheets>
     <sheet name="使用按鍵解析" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,6 @@
   <externalReferences>
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
-    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">RIME設定解析!$Z$2:$AE$58</definedName>
@@ -7726,75 +7725,6 @@
     <xf numFmtId="0" fontId="185" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="73" fillId="16" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="73" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="73" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="186" fillId="6" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7837,108 +7767,15 @@
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="2" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="191" fillId="2" borderId="18" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="20" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="20" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="20" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="20" borderId="18" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="2" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="195" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="195" fillId="2" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="195" fillId="2" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="195" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="195" fillId="2" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="193" fillId="20" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="194" fillId="20" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="194" fillId="20" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="196" fillId="20" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="196" fillId="20" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="196" fillId="20" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="20" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="20" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="20" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="196" fillId="20" borderId="23" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="20" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="199" fillId="20" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="199" fillId="20" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="202" fillId="20" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="202" fillId="20" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="202" fillId="20" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="20" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7980,48 +7817,6 @@
     </xf>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="20" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="193" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="194" fillId="4" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="194" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="198" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="199" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="199" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="200" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="4" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8030,9 +7825,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="28" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="213" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8047,7 +7839,214 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="214" fillId="28" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="28" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="73" fillId="16" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="73" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="73" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="20" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="20" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="20" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="20" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="20" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="20" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="20" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="20" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="20" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="20" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="20" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="20" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="4" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="4" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="20" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="20" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="20" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="20" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="20" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="20" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="20" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="2" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="2" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="20" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="20" borderId="23" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="2" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="2" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="2" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="20" borderId="18" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="191" fillId="2" borderId="18" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -8057,17 +8056,7 @@
     <cellStyle name="一般 4" xfId="1" xr:uid="{D00E67AF-1809-4A9B-A488-D9A10688594D}"/>
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="82">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="81">
     <dxf>
       <fill>
         <patternFill>
@@ -11154,108 +11143,62 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="聲母發音表"/>
-      <sheetName val="國語注音符號"/>
-      <sheetName val="切語聲母"/>
-      <sheetName val=" 拼音對照表 (2)"/>
-      <sheetName val=" 拼音對照表"/>
-      <sheetName val="河洛方音鍵盤"/>
-      <sheetName val="河洛注音鍵盤"/>
-      <sheetName val=" 台語ABC鍵盤設計"/>
-      <sheetName val=" 台語ABC鍵盤編碼"/>
-      <sheetName val="萌台語方音鍵盤"/>
-      <sheetName val="河洛白話音"/>
-      <sheetName val="河洛白話音 (2)"/>
-      <sheetName val=" 注音符號"/>
-      <sheetName val="河洛注音使用符號"/>
-      <sheetName val="聲韻母"/>
-      <sheetName val="說明"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{779076CF-6DEF-4E4E-89FE-E37B7352A3DC}" name="注音編碼對照表" displayName="注音編碼對照表" ref="B2:J49" totalsRowShown="0" headerRowBorderDxfId="81" tableBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{779076CF-6DEF-4E4E-89FE-E37B7352A3DC}" name="注音編碼對照表" displayName="注音編碼對照表" ref="B2:J49" totalsRowShown="0" headerRowBorderDxfId="80" tableBorderDxfId="79">
   <autoFilter ref="B2:J49" xr:uid="{779076CF-6DEF-4E4E-89FE-E37B7352A3DC}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7ED75D5E-652B-4A3F-A63F-E28CD639A2D8}" name="序號" dataDxfId="79">
+    <tableColumn id="1" xr3:uid="{7ED75D5E-652B-4A3F-A63F-E28CD639A2D8}" name="序號" dataDxfId="78">
       <calculatedColumnFormula>ROW() - 2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A7CD0E37-FA88-4B7F-9344-02DCFD03CA57}" name="鍵盤按鍵" dataDxfId="78">
+    <tableColumn id="2" xr3:uid="{A7CD0E37-FA88-4B7F-9344-02DCFD03CA57}" name="鍵盤按鍵" dataDxfId="77">
       <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD3,#REF!, 0)), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5803CFB3-58F1-42C5-8A9B-67D4C055A271}" name="注音編碼" dataDxfId="77">
+    <tableColumn id="3" xr3:uid="{5803CFB3-58F1-42C5-8A9B-67D4C055A271}" name="注音編碼" dataDxfId="76">
       <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX(#REF!, MATCH($AD3,#REF!, 0)), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{09D9CE2F-FF7F-4954-9029-DC42E2224DD4}" name="台語音標注音" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{529434D2-88AB-4124-93AE-208E9AF52CB4}" name="方音符號" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{A0645D5D-DBED-4761-A763-4D6D5538C014}" name="注音符號" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{66F8B891-9FE4-45B3-8BD8-51BA7DD3D43F}" name="組合符號" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{F4C14CB4-A82C-41D9-AF30-BE553CA46FA3}" name="國際音標" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{5020FE3A-F6A8-4B02-9B83-6BADE97A0BE0}" name="台語音標" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{09D9CE2F-FF7F-4954-9029-DC42E2224DD4}" name="台語音標注音" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{529434D2-88AB-4124-93AE-208E9AF52CB4}" name="方音符號" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{A0645D5D-DBED-4761-A763-4D6D5538C014}" name="注音符號" dataDxfId="73"/>
+    <tableColumn id="8" xr3:uid="{66F8B891-9FE4-45B3-8BD8-51BA7DD3D43F}" name="組合符號" dataDxfId="72"/>
+    <tableColumn id="7" xr3:uid="{F4C14CB4-A82C-41D9-AF30-BE553CA46FA3}" name="國際音標" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{5020FE3A-F6A8-4B02-9B83-6BADE97A0BE0}" name="台語音標" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6A40958B-9384-4E59-AE7A-3C944257DC11}" name="方音聲母表格9" displayName="方音聲母表格9" ref="L2:R8" totalsRowShown="0" headerRowDxfId="70" dataDxfId="68" headerRowBorderDxfId="69" tableBorderDxfId="67" totalsRowBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6A40958B-9384-4E59-AE7A-3C944257DC11}" name="方音聲母表格9" displayName="方音聲母表格9" ref="L2:R8" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66" totalsRowBorderDxfId="65">
   <autoFilter ref="L2:R8" xr:uid="{6A40958B-9384-4E59-AE7A-3C944257DC11}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8F368751-5DB2-45B7-AEA8-1EA789D18D9E}" name="發音部位" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{565C2DE6-6770-43E6-8E08-95DB3D74F449}" name="塞音_x000a_(不送氣)" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{C60AB197-3C88-4553-AC8F-FA44CBAED771}" name="塞音_x000a_(送氣)" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{D3AC809B-436F-4540-B125-7D7963B95663}" name="濁音" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{E45EF470-ADED-4F00-ADA7-0F1E5230D10E}" name="鼻音" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{67CD2B7D-B586-43C6-A726-BDF60FE9AE6C}" name="擦音" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{0BF3A333-A1A0-4499-BCC9-FE62942F95E5}" name="邊音" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{8F368751-5DB2-45B7-AEA8-1EA789D18D9E}" name="發音部位" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{565C2DE6-6770-43E6-8E08-95DB3D74F449}" name="塞音_x000a_(不送氣)" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{C60AB197-3C88-4553-AC8F-FA44CBAED771}" name="塞音_x000a_(送氣)" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{D3AC809B-436F-4540-B125-7D7963B95663}" name="濁音" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{E45EF470-ADED-4F00-ADA7-0F1E5230D10E}" name="鼻音" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{67CD2B7D-B586-43C6-A726-BDF60FE9AE6C}" name="擦音" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{0BF3A333-A1A0-4499-BCC9-FE62942F95E5}" name="邊音" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F95EEBA-DAA3-4529-9F77-47C4D0A27E24}" name="表格1_33411" displayName="表格1_33411" ref="U2:X53" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F95EEBA-DAA3-4529-9F77-47C4D0A27E24}" name="表格1_33411" displayName="表格1_33411" ref="U2:X53" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U3:X54">
     <sortCondition ref="U3:U54" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{039C6BD6-DD3C-423D-A3C9-F25D72737C8D}" name="鍵盤按鍵" dataDxfId="56">
+    <tableColumn id="1" xr3:uid="{039C6BD6-DD3C-423D-A3C9-F25D72737C8D}" name="鍵盤按鍵" dataDxfId="55">
       <calculatedColumnFormula xml:space="preserve"> J3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7407D282-3312-489C-B29B-19D43E4E79D6}" name="注音編碼" dataDxfId="55" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{7407D282-3312-489C-B29B-19D43E4E79D6}" name="注音編碼" dataDxfId="54" dataCellStyle="一般 4">
       <calculatedColumnFormula>I3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DAFEC160-B656-4EE0-9837-61A87BB277BC}" name="注音符號" dataDxfId="54" dataCellStyle="一般 4">
+    <tableColumn id="2" xr3:uid="{DAFEC160-B656-4EE0-9837-61A87BB277BC}" name="注音符號" dataDxfId="53" dataCellStyle="一般 4">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX(注音編碼對照表[注音符號], MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表[注音編碼]), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{716636BA-FE9C-4F70-80B3-61C875130210}" name="台語音標" dataDxfId="53" dataCellStyle="一般 4">
+    <tableColumn id="3" xr3:uid="{716636BA-FE9C-4F70-80B3-61C875130210}" name="台語音標" dataDxfId="52" dataCellStyle="一般 4">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX(注音編碼對照表!$J$3:$J$54, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$D$3:$D$49), 0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11264,33 +11207,33 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8316A4BE-CA72-47DE-AE0C-9F97AD29E366}" name="表格1" displayName="表格1" ref="C4:G56" totalsRowShown="0" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8316A4BE-CA72-47DE-AE0C-9F97AD29E366}" name="表格1" displayName="表格1" ref="C4:G56" totalsRowShown="0" tableBorderDxfId="51">
   <autoFilter ref="C4:G56" xr:uid="{CBD99B6E-1695-45CA-A35A-919D424705A0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{23C441A4-A9BF-4AF3-9A00-C54EFA849863}" name="按鍵字元" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{BF68382C-29B0-42B3-B1E7-6BBFB43FDBF8}" name="注音符號" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{53638260-1BF6-4965-A4AE-956982740802}" name="方音符號" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{DCF6B5DB-F2BF-4A75-8F81-445A20F5EFEC}" name="音標編碼" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{138EEA27-F029-4B76-B6E7-B073EAAE87F1}" name="台語音標" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{23C441A4-A9BF-4AF3-9A00-C54EFA849863}" name="按鍵字元" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{BF68382C-29B0-42B3-B1E7-6BBFB43FDBF8}" name="注音符號" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{53638260-1BF6-4965-A4AE-956982740802}" name="方音符號" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{DCF6B5DB-F2BF-4A75-8F81-445A20F5EFEC}" name="音標編碼" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{138EEA27-F029-4B76-B6E7-B073EAAE87F1}" name="台語音標" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77F4D247-1923-4E49-B92A-50848D28AF83}" name="表格1_334" displayName="表格1_334" ref="S2:U44" totalsRowShown="0" headerRowDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77F4D247-1923-4E49-B92A-50848D28AF83}" name="表格1_334" displayName="表格1_334" ref="S2:U44" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="S2:U44" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S3:U44">
     <sortCondition ref="S3:S44" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2CDC81F5-DBE5-45CF-8D10-9B558D6422EC}" name="鍵盤按鍵" dataDxfId="45">
+    <tableColumn id="1" xr3:uid="{2CDC81F5-DBE5-45CF-8D10-9B558D6422EC}" name="鍵盤按鍵" dataDxfId="44">
       <calculatedColumnFormula>H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{52141FD4-4282-4655-8FDB-25D018179FEA}" name="字典編碼" dataDxfId="44" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{52141FD4-4282-4655-8FDB-25D018179FEA}" name="字典編碼" dataDxfId="43" dataCellStyle="一般 4">
       <calculatedColumnFormula>G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{59B967E3-C71C-4CF6-991D-C8F093BAB101}" name="方音符號" dataDxfId="43">
+    <tableColumn id="2" xr3:uid="{59B967E3-C71C-4CF6-991D-C8F093BAB101}" name="方音符號" dataDxfId="42">
       <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11299,44 +11242,44 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CB332761-5FFA-4AA1-A510-7EB68827E47D}" name="方音聲母表格" displayName="方音聲母表格" ref="B3:H9" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39" totalsRowBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CB332761-5FFA-4AA1-A510-7EB68827E47D}" name="方音聲母表格" displayName="方音聲母表格" ref="B3:H9" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
   <autoFilter ref="B3:H9" xr:uid="{CB332761-5FFA-4AA1-A510-7EB68827E47D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D99DF20F-51FB-47D5-B4CC-DA04A48AAC2D}" name="發音部位" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{6BC15A71-E0D5-404C-A6A6-8B01367E9B89}" name="塞音(不送氣)" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{44295C3E-0304-4D25-AA15-E5C51BA36FD4}" name="塞音(送氣)" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{F4CC72CD-7170-4DE4-8D5A-C18C426CA527}" name="濁音" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{CE151E5C-E9DA-4A02-AD63-353CCFA6087C}" name="鼻音" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{69AB656D-E99F-4EEB-9854-42DF77ECEB05}" name="擦音" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{F61BA027-9E56-47A1-8224-3F0734C11F32}" name="邊音" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{D99DF20F-51FB-47D5-B4CC-DA04A48AAC2D}" name="發音部位" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{6BC15A71-E0D5-404C-A6A6-8B01367E9B89}" name="塞音(不送氣)" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{44295C3E-0304-4D25-AA15-E5C51BA36FD4}" name="塞音(送氣)" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{F4CC72CD-7170-4DE4-8D5A-C18C426CA527}" name="濁音" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{CE151E5C-E9DA-4A02-AD63-353CCFA6087C}" name="鼻音" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{69AB656D-E99F-4EEB-9854-42DF77ECEB05}" name="擦音" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{F61BA027-9E56-47A1-8224-3F0734C11F32}" name="邊音" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{279C6517-7F6D-480E-B1F2-0C6C64BD340C}" name="方音韻母表格" displayName="方音韻母表格" ref="B3:U8" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{279C6517-7F6D-480E-B1F2-0C6C64BD340C}" name="方音韻母表格" displayName="方音韻母表格" ref="B3:U8" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{D5BB5D32-B8B3-4985-99FE-4CAE416F8896}" name="韻腹" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{2E75F452-C9EB-485A-898D-31B0B52F386A}" name="a" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{232D45FA-6A65-4DC6-83E0-957B07FDBA26}" name="aɪ" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{70955649-D6B5-40D6-8690-B978B91DB6A6}" name="aʊ" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{17517C7F-5843-41D1-B4A0-D822E2A05A3F}" name="e" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{A32FB388-F51D-4A09-8143-A8FE8C2735DE}" name="i" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{0E349367-F4AB-4C53-8AD3-78E3A14DA801}" name="ɪa" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{79DEC6A5-E8D0-4D21-9F9D-F46FE120B69D}" name="ɪaʊ" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{9744BF02-11F5-4A49-94C9-F7ABD46F3CF7}" name="ɪə" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{7ECBA68D-4E2D-4AE6-95E9-14B150FB60F3}" name="ɪɔ" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{AA74AB0B-66F4-4084-A3FE-D313C4537337}" name="iu" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{952CA3C9-B72B-4B4A-8975-0116A219DC35}" name="ə" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{889BAAAD-336F-4D7B-A274-546C3C9BAC2F}" name="ɔ" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{91C2AF01-8439-4A47-A026-6CDF055DF255}" name="u" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{5AC88F01-3D1A-4AB5-A9A0-C569C4DDA3AA}" name="ua" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{53FD8BAA-0AD0-4BA5-A488-E8FBF6E3B776}" name="uaɪ" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{AA997DB6-667B-42B6-9983-F5C6536CECFC}" name="ue" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{07146182-EDC0-48F7-B098-DF65D5099290}" name="ui" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{C0F0792E-1F02-4269-AD48-9C7CAC2FFDA8}" name="m̩" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{CC92EBF2-6977-48AE-A3D3-E116BF9C29F9}" name="ŋ̍" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{D5BB5D32-B8B3-4985-99FE-4CAE416F8896}" name="韻腹" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{2E75F452-C9EB-485A-898D-31B0B52F386A}" name="a" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{232D45FA-6A65-4DC6-83E0-957B07FDBA26}" name="aɪ" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{70955649-D6B5-40D6-8690-B978B91DB6A6}" name="aʊ" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{17517C7F-5843-41D1-B4A0-D822E2A05A3F}" name="e" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{A32FB388-F51D-4A09-8143-A8FE8C2735DE}" name="i" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{0E349367-F4AB-4C53-8AD3-78E3A14DA801}" name="ɪa" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{79DEC6A5-E8D0-4D21-9F9D-F46FE120B69D}" name="ɪaʊ" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{9744BF02-11F5-4A49-94C9-F7ABD46F3CF7}" name="ɪə" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{7ECBA68D-4E2D-4AE6-95E9-14B150FB60F3}" name="ɪɔ" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{AA74AB0B-66F4-4084-A3FE-D313C4537337}" name="iu" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{952CA3C9-B72B-4B4A-8975-0116A219DC35}" name="ə" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{889BAAAD-336F-4D7B-A274-546C3C9BAC2F}" name="ɔ" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{91C2AF01-8439-4A47-A026-6CDF055DF255}" name="u" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{5AC88F01-3D1A-4AB5-A9A0-C569C4DDA3AA}" name="ua" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{53FD8BAA-0AD0-4BA5-A488-E8FBF6E3B776}" name="uaɪ" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{AA997DB6-667B-42B6-9983-F5C6536CECFC}" name="ue" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{07146182-EDC0-48F7-B098-DF65D5099290}" name="ui" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{C0F0792E-1F02-4269-AD48-9C7CAC2FFDA8}" name="m̩" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{CC92EBF2-6977-48AE-A3D3-E116BF9C29F9}" name="ŋ̍" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12275,7 +12218,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="C11:C63">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>CHAR(32)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30148,7 +30091,7 @@
   <autoFilter ref="P2:T54" xr:uid="{5071FD87-44AE-4789-9C3B-6156A4BF1897}"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D3:D54 G3:G54 K3:L54 Q3:R54">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula xml:space="preserve"> CHAR(32)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30626,7 +30569,7 @@
       <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="1">
+    <sheetView topLeftCell="A20" workbookViewId="1">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -31022,7 +30965,7 @@
       <c r="J10" s="436" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="655" t="s">
+      <c r="L10" s="587" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -31053,11 +30996,11 @@
       <c r="J11" s="450" t="s">
         <v>179</v>
       </c>
-      <c r="L11" s="656" cm="1">
+      <c r="L11" s="588" cm="1">
         <f t="array" ref="L11" xml:space="preserve"> ROW() - ROW($10:$10)</f>
         <v>1</v>
       </c>
-      <c r="M11" s="656" t="str">
+      <c r="M11" s="588" t="str">
         <f xml:space="preserve"> MID($L$10, L11, 1)</f>
         <v>t</v>
       </c>
@@ -31065,10 +31008,10 @@
         <f t="array" ref="N11" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(M11, 注音編碼對照表[台語音標]), 0))</f>
         <v>ㄉ</v>
       </c>
-      <c r="O11" s="656"/>
-      <c r="P11" s="656"/>
-      <c r="Q11" s="656"/>
-      <c r="R11" s="656"/>
+      <c r="O11" s="588"/>
+      <c r="P11" s="588"/>
+      <c r="Q11" s="588"/>
+      <c r="R11" s="588"/>
     </row>
     <row r="12" spans="2:18" ht="44.25">
       <c r="B12" s="31">
@@ -31097,11 +31040,11 @@
       <c r="J12" s="454" t="s">
         <v>305</v>
       </c>
-      <c r="L12" s="656" cm="1">
+      <c r="L12" s="588" cm="1">
         <f t="array" ref="L12" xml:space="preserve"> ROW() - ROW($10:$10)</f>
         <v>2</v>
       </c>
-      <c r="M12" s="656" t="str">
+      <c r="M12" s="588" t="str">
         <f t="shared" ref="M12:M16" si="1" xml:space="preserve"> MID($L$10, L12, 1)</f>
         <v>a</v>
       </c>
@@ -31109,8 +31052,8 @@
         <f t="array" ref="N12" xml:space="preserve"> INDEX(注音編碼對照表[方音符號], MATCH(TRUE, EXACT(M12, 注音編碼對照表[台語音標]), 0))</f>
         <v>ㄚ</v>
       </c>
-      <c r="O12" s="656"/>
-      <c r="P12" s="656"/>
+      <c r="O12" s="588"/>
+      <c r="P12" s="588"/>
     </row>
     <row r="13" spans="2:18" ht="44.25">
       <c r="B13" s="31">
@@ -31139,11 +31082,11 @@
       <c r="J13" s="433" t="s">
         <v>254</v>
       </c>
-      <c r="L13" s="656" cm="1">
+      <c r="L13" s="588" cm="1">
         <f t="array" ref="L13" xml:space="preserve"> ROW() - ROW($10:$10)</f>
         <v>3</v>
       </c>
-      <c r="M13" s="656" t="str">
+      <c r="M13" s="588" t="str">
         <f t="shared" si="1"/>
         <v>n</v>
       </c>
@@ -31181,11 +31124,11 @@
       <c r="J14" s="458" t="s">
         <v>338</v>
       </c>
-      <c r="L14" s="656" cm="1">
+      <c r="L14" s="588" cm="1">
         <f t="array" ref="L14" xml:space="preserve"> ROW() - ROW($10:$10)</f>
         <v>4</v>
       </c>
-      <c r="M14" s="656" t="str">
+      <c r="M14" s="588" t="str">
         <f t="shared" si="1"/>
         <v>g</v>
       </c>
@@ -31221,11 +31164,11 @@
       <c r="J15" s="432" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="656" cm="1">
+      <c r="L15" s="588" cm="1">
         <f t="array" ref="L15" xml:space="preserve"> ROW() - ROW($10:$10)</f>
         <v>5</v>
       </c>
-      <c r="M15" s="656" t="str">
+      <c r="M15" s="588" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -31261,11 +31204,11 @@
       <c r="J16" s="433" t="s">
         <v>418</v>
       </c>
-      <c r="L16" s="656" cm="1">
+      <c r="L16" s="588" cm="1">
         <f t="array" ref="L16" xml:space="preserve"> ROW() - ROW($10:$10)</f>
         <v>6</v>
       </c>
-      <c r="M16" s="656" t="str">
+      <c r="M16" s="588" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -31297,7 +31240,7 @@
       <c r="J17" s="433" t="s">
         <v>184</v>
       </c>
-      <c r="L17" s="656" cm="1">
+      <c r="L17" s="588" cm="1">
         <f t="array" ref="L17" xml:space="preserve"> ROW() - ROW($10:$10)</f>
         <v>7</v>
       </c>
@@ -31330,7 +31273,7 @@
       <c r="J18" s="458" t="s">
         <v>612</v>
       </c>
-      <c r="L18" s="656" cm="1">
+      <c r="L18" s="588" cm="1">
         <f t="array" ref="L18" xml:space="preserve"> ROW() - ROW($10:$10)</f>
         <v>8</v>
       </c>
@@ -32991,12 +32934,12 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="C3:E49 C51:E58">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>CHAR(32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:E66">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>CHAR(32)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33010,355 +32953,364 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED891A65-D3F4-4D7F-8821-6DB681163119}">
-  <dimension ref="B2:Y7"/>
+  <dimension ref="B1:Y8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="1">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="2.69921875" customWidth="1"/>
+    <col min="2" max="25" width="6.69921875" customWidth="1"/>
+    <col min="26" max="26" width="2.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="2:25" ht="9.9499999999999993" customHeight="1"/>
     <row r="2" spans="2:25" ht="45" customHeight="1">
-      <c r="B2" s="658" t="s">
+      <c r="B2" s="595" t="s">
         <v>1002</v>
       </c>
-      <c r="C2" s="658"/>
-      <c r="D2" s="658"/>
-      <c r="E2" s="658"/>
-      <c r="F2" s="658"/>
-      <c r="G2" s="658"/>
-      <c r="H2" s="658"/>
-      <c r="I2" s="658"/>
-      <c r="J2" s="658"/>
-      <c r="K2" s="658"/>
-      <c r="L2" s="658"/>
-      <c r="M2" s="658"/>
-      <c r="N2" s="658"/>
-      <c r="O2" s="658"/>
-      <c r="P2" s="658"/>
-      <c r="Q2" s="658"/>
-      <c r="R2" s="658"/>
-      <c r="S2" s="658"/>
-      <c r="T2" s="658"/>
-      <c r="U2" s="658"/>
-      <c r="V2" s="658"/>
-      <c r="W2" s="658"/>
-      <c r="X2" s="658"/>
-      <c r="Y2" s="658"/>
+      <c r="C2" s="595"/>
+      <c r="D2" s="595"/>
+      <c r="E2" s="595"/>
+      <c r="F2" s="595"/>
+      <c r="G2" s="595"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="595"/>
+      <c r="J2" s="595"/>
+      <c r="K2" s="595"/>
+      <c r="L2" s="595"/>
+      <c r="M2" s="595"/>
+      <c r="N2" s="595"/>
+      <c r="O2" s="595"/>
+      <c r="P2" s="595"/>
+      <c r="Q2" s="595"/>
+      <c r="R2" s="595"/>
+      <c r="S2" s="595"/>
+      <c r="T2" s="595"/>
+      <c r="U2" s="595"/>
+      <c r="V2" s="595"/>
+      <c r="W2" s="595"/>
+      <c r="X2" s="595"/>
+      <c r="Y2" s="595"/>
     </row>
     <row r="3" spans="2:25" ht="45" customHeight="1">
-      <c r="B3" s="659" t="s">
+      <c r="B3" s="590" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="659" t="s">
+      <c r="C3" s="590" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="659" t="s">
+      <c r="D3" s="590" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="659" t="s">
+      <c r="E3" s="590" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="659" t="s">
+      <c r="F3" s="590" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="659" t="s">
+      <c r="G3" s="590" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="659" t="s">
+      <c r="H3" s="590" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="659" t="s">
+      <c r="I3" s="590" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="659" t="s">
+      <c r="J3" s="590" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="659" t="s">
+      <c r="K3" s="590" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="659" t="s">
+      <c r="L3" s="590" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="659" t="s">
+      <c r="M3" s="590" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="659" t="s">
+      <c r="N3" s="590" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="659" t="s">
+      <c r="O3" s="590" t="s">
         <v>1008</v>
       </c>
-      <c r="P3" s="659" t="s">
+      <c r="P3" s="590" t="s">
         <v>1016</v>
       </c>
-      <c r="Q3" s="659" t="s">
+      <c r="Q3" s="590" t="s">
         <v>1007</v>
       </c>
-      <c r="R3" s="659" t="s">
+      <c r="R3" s="590" t="s">
         <v>1005</v>
       </c>
-      <c r="S3" s="659" t="s">
+      <c r="S3" s="590" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="659" t="s">
+      <c r="T3" s="590" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="659" t="s">
+      <c r="U3" s="590" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="659" t="s">
+      <c r="V3" s="590" t="s">
         <v>50</v>
       </c>
-      <c r="W3" s="660"/>
-      <c r="X3" s="660"/>
-      <c r="Y3" s="660"/>
+      <c r="W3" s="591"/>
+      <c r="X3" s="591"/>
+      <c r="Y3" s="591"/>
     </row>
     <row r="4" spans="2:25" ht="45" customHeight="1">
-      <c r="B4" s="661" t="s">
+      <c r="B4" s="592" t="s">
         <v>389</v>
       </c>
-      <c r="C4" s="661" t="s">
+      <c r="C4" s="592" t="s">
         <v>402</v>
       </c>
-      <c r="D4" s="661" t="s">
+      <c r="D4" s="592" t="s">
         <v>393</v>
       </c>
-      <c r="E4" s="661" t="s">
+      <c r="E4" s="592" t="s">
         <v>398</v>
       </c>
-      <c r="F4" s="661" t="s">
+      <c r="F4" s="592" t="s">
         <v>403</v>
       </c>
-      <c r="G4" s="661" t="s">
+      <c r="G4" s="592" t="s">
         <v>406</v>
       </c>
-      <c r="H4" s="661" t="s">
+      <c r="H4" s="592" t="s">
         <v>411</v>
       </c>
-      <c r="I4" s="661" t="s">
+      <c r="I4" s="592" t="s">
         <v>412</v>
       </c>
-      <c r="J4" s="661" t="s">
+      <c r="J4" s="592" t="s">
         <v>415</v>
       </c>
-      <c r="K4" s="661" t="s">
+      <c r="K4" s="592" t="s">
         <v>437</v>
       </c>
-      <c r="L4" s="661" t="s">
+      <c r="L4" s="592" t="s">
         <v>419</v>
       </c>
-      <c r="M4" s="661" t="s">
+      <c r="M4" s="592" t="s">
         <v>1004</v>
       </c>
-      <c r="N4" s="661" t="s">
+      <c r="N4" s="592" t="s">
         <v>423</v>
       </c>
-      <c r="O4" s="661" t="s">
+      <c r="O4" s="592" t="s">
         <v>428</v>
       </c>
-      <c r="P4" s="661" t="s">
+      <c r="P4" s="592" t="s">
         <v>446</v>
       </c>
-      <c r="Q4" s="661" t="s">
+      <c r="Q4" s="592" t="s">
         <v>431</v>
       </c>
-      <c r="R4" s="661" t="s">
+      <c r="R4" s="592" t="s">
         <v>434</v>
       </c>
-      <c r="S4" s="661" t="s">
+      <c r="S4" s="592" t="s">
         <v>459</v>
       </c>
-      <c r="T4" s="661" t="s">
+      <c r="T4" s="592" t="s">
         <v>453</v>
       </c>
-      <c r="U4" s="661" t="s">
+      <c r="U4" s="592" t="s">
         <v>464</v>
       </c>
-      <c r="V4" s="661" t="s">
+      <c r="V4" s="592" t="s">
         <v>465</v>
       </c>
-      <c r="W4" s="660"/>
-      <c r="X4" s="660"/>
-      <c r="Y4" s="660"/>
+      <c r="W4" s="591"/>
+      <c r="X4" s="591"/>
+      <c r="Y4" s="591"/>
     </row>
     <row r="5" spans="2:25" ht="45" customHeight="1">
-      <c r="B5" s="658" t="s">
+      <c r="B5" s="595" t="s">
         <v>1003</v>
       </c>
-      <c r="C5" s="658"/>
-      <c r="D5" s="658"/>
-      <c r="E5" s="658"/>
-      <c r="F5" s="658"/>
-      <c r="G5" s="658"/>
-      <c r="H5" s="658"/>
-      <c r="I5" s="658"/>
-      <c r="J5" s="658"/>
-      <c r="K5" s="658"/>
-      <c r="L5" s="658"/>
-      <c r="M5" s="658"/>
-      <c r="N5" s="658"/>
-      <c r="O5" s="658"/>
-      <c r="P5" s="658"/>
-      <c r="Q5" s="658"/>
-      <c r="R5" s="658"/>
-      <c r="S5" s="658"/>
-      <c r="T5" s="658"/>
-      <c r="U5" s="658"/>
-      <c r="V5" s="658"/>
-      <c r="W5" s="658"/>
-      <c r="X5" s="658"/>
-      <c r="Y5" s="658"/>
+      <c r="C5" s="595"/>
+      <c r="D5" s="595"/>
+      <c r="E5" s="595"/>
+      <c r="F5" s="595"/>
+      <c r="G5" s="595"/>
+      <c r="H5" s="595"/>
+      <c r="I5" s="595"/>
+      <c r="J5" s="595"/>
+      <c r="K5" s="595"/>
+      <c r="L5" s="595"/>
+      <c r="M5" s="595"/>
+      <c r="N5" s="595"/>
+      <c r="O5" s="595"/>
+      <c r="P5" s="595"/>
+      <c r="Q5" s="595"/>
+      <c r="R5" s="595"/>
+      <c r="S5" s="595"/>
+      <c r="T5" s="595"/>
+      <c r="U5" s="595"/>
+      <c r="V5" s="595"/>
+      <c r="W5" s="595"/>
+      <c r="X5" s="595"/>
+      <c r="Y5" s="595"/>
     </row>
     <row r="6" spans="2:25" ht="45" customHeight="1">
-      <c r="B6" s="659" t="s">
+      <c r="B6" s="590" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="659" t="s">
+      <c r="C6" s="590" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="659" t="s">
+      <c r="D6" s="590" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="659" t="s">
+      <c r="E6" s="590" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="659" t="s">
+      <c r="F6" s="590" t="s">
         <v>483</v>
       </c>
-      <c r="G6" s="659" t="s">
+      <c r="G6" s="590" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="659" t="s">
+      <c r="H6" s="590" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="659" t="s">
+      <c r="I6" s="590" t="s">
         <v>241</v>
       </c>
-      <c r="J6" s="659" t="s">
+      <c r="J6" s="590" t="s">
         <v>117</v>
       </c>
-      <c r="K6" s="659" t="s">
+      <c r="K6" s="590" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="659" t="s">
+      <c r="L6" s="590" t="s">
         <v>123</v>
       </c>
-      <c r="M6" s="659" t="s">
+      <c r="M6" s="590" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="659" t="s">
+      <c r="N6" s="590" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="659" t="s">
+      <c r="O6" s="590" t="s">
         <v>145</v>
       </c>
-      <c r="P6" s="659" t="s">
+      <c r="P6" s="590" t="s">
         <v>97</v>
       </c>
-      <c r="Q6" s="659" t="s">
+      <c r="Q6" s="590" t="s">
         <v>76</v>
       </c>
-      <c r="R6" s="659" t="s">
+      <c r="R6" s="590" t="s">
         <v>95</v>
       </c>
-      <c r="S6" s="659" t="s">
+      <c r="S6" s="590" t="s">
         <v>101</v>
       </c>
-      <c r="T6" s="659" t="s">
+      <c r="T6" s="590" t="s">
         <v>127</v>
       </c>
-      <c r="U6" s="659" t="s">
+      <c r="U6" s="590" t="s">
         <v>74</v>
       </c>
-      <c r="V6" s="659" t="s">
+      <c r="V6" s="590" t="s">
         <v>54</v>
       </c>
-      <c r="W6" s="659" t="s">
+      <c r="W6" s="590" t="s">
         <v>111</v>
       </c>
-      <c r="X6" s="659" t="s">
+      <c r="X6" s="590" t="s">
         <v>56</v>
       </c>
-      <c r="Y6" s="659" t="s">
+      <c r="Y6" s="590" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="45" customHeight="1">
-      <c r="B7" s="661" t="s">
+      <c r="B7" s="592" t="s">
         <v>471</v>
       </c>
-      <c r="C7" s="661" t="s">
+      <c r="C7" s="592" t="s">
         <v>508</v>
       </c>
-      <c r="D7" s="661" t="s">
+      <c r="D7" s="592" t="s">
         <v>474</v>
       </c>
-      <c r="E7" s="661" t="s">
+      <c r="E7" s="592" t="s">
         <v>990</v>
       </c>
-      <c r="F7" s="661" t="s">
+      <c r="F7" s="592" t="s">
         <v>868</v>
       </c>
-      <c r="G7" s="661" t="s">
+      <c r="G7" s="592" t="s">
         <v>482</v>
       </c>
-      <c r="H7" s="661" t="s">
+      <c r="H7" s="592" t="s">
         <v>524</v>
       </c>
-      <c r="I7" s="661" t="s">
+      <c r="I7" s="592" t="s">
         <v>479</v>
       </c>
-      <c r="J7" s="661" t="s">
+      <c r="J7" s="592" t="s">
         <v>991</v>
       </c>
-      <c r="K7" s="661" t="s">
+      <c r="K7" s="592" t="s">
         <v>485</v>
       </c>
-      <c r="L7" s="661" t="s">
+      <c r="L7" s="592" t="s">
         <v>992</v>
       </c>
-      <c r="M7" s="661" t="s">
+      <c r="M7" s="592" t="s">
         <v>501</v>
       </c>
-      <c r="N7" s="661" t="s">
+      <c r="N7" s="592" t="s">
         <v>505</v>
       </c>
-      <c r="O7" s="661" t="s">
+      <c r="O7" s="592" t="s">
         <v>470</v>
       </c>
-      <c r="P7" s="661" t="s">
+      <c r="P7" s="592" t="s">
         <v>488</v>
       </c>
-      <c r="Q7" s="661" t="s">
+      <c r="Q7" s="592" t="s">
         <v>411</v>
       </c>
-      <c r="R7" s="661" t="s">
+      <c r="R7" s="592" t="s">
         <v>492</v>
       </c>
-      <c r="S7" s="661" t="s">
+      <c r="S7" s="592" t="s">
         <v>487</v>
       </c>
-      <c r="T7" s="661" t="s">
+      <c r="T7" s="592" t="s">
         <v>495</v>
       </c>
-      <c r="U7" s="661" t="s">
+      <c r="U7" s="592" t="s">
         <v>498</v>
       </c>
-      <c r="V7" s="661" t="s">
+      <c r="V7" s="592" t="s">
         <v>468</v>
       </c>
-      <c r="W7" s="661" t="s">
+      <c r="W7" s="592" t="s">
         <v>514</v>
       </c>
-      <c r="X7" s="661" t="s">
+      <c r="X7" s="592" t="s">
         <v>469</v>
       </c>
-      <c r="Y7" s="661" t="s">
+      <c r="Y7" s="592" t="s">
         <v>519</v>
       </c>
     </row>
+    <row r="8" spans="2:25" ht="9.9499999999999993" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:Y2"/>
@@ -33376,7 +33328,9 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
   <cols>
@@ -33385,344 +33339,344 @@
     <col min="26" max="26" width="3.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" s="657" customFormat="1" ht="45" customHeight="1">
-      <c r="B2" s="664" t="s">
+    <row r="2" spans="2:25" s="589" customFormat="1" ht="45" customHeight="1">
+      <c r="B2" s="596" t="s">
         <v>1002</v>
       </c>
-      <c r="C2" s="664"/>
-      <c r="D2" s="664"/>
-      <c r="E2" s="664"/>
-      <c r="F2" s="664"/>
-      <c r="G2" s="664"/>
-      <c r="H2" s="664"/>
-      <c r="I2" s="664"/>
-      <c r="J2" s="664"/>
-      <c r="K2" s="664"/>
-      <c r="L2" s="664"/>
-      <c r="M2" s="664"/>
-      <c r="N2" s="664"/>
-      <c r="O2" s="664"/>
-      <c r="P2" s="664"/>
-      <c r="Q2" s="664"/>
-      <c r="R2" s="664"/>
-      <c r="S2" s="664"/>
-      <c r="T2" s="664"/>
-      <c r="U2" s="664"/>
-      <c r="V2" s="664"/>
-      <c r="W2" s="664"/>
-      <c r="X2" s="664"/>
-      <c r="Y2" s="664"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="596"/>
+      <c r="E2" s="596"/>
+      <c r="F2" s="596"/>
+      <c r="G2" s="596"/>
+      <c r="H2" s="596"/>
+      <c r="I2" s="596"/>
+      <c r="J2" s="596"/>
+      <c r="K2" s="596"/>
+      <c r="L2" s="596"/>
+      <c r="M2" s="596"/>
+      <c r="N2" s="596"/>
+      <c r="O2" s="596"/>
+      <c r="P2" s="596"/>
+      <c r="Q2" s="596"/>
+      <c r="R2" s="596"/>
+      <c r="S2" s="596"/>
+      <c r="T2" s="596"/>
+      <c r="U2" s="596"/>
+      <c r="V2" s="596"/>
+      <c r="W2" s="596"/>
+      <c r="X2" s="596"/>
+      <c r="Y2" s="596"/>
     </row>
     <row r="3" spans="2:25" ht="45" customHeight="1">
-      <c r="B3" s="659" t="s">
+      <c r="B3" s="590" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="659" t="s">
+      <c r="C3" s="590" t="s">
         <v>908</v>
       </c>
-      <c r="D3" s="659" t="s">
+      <c r="D3" s="590" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="659" t="s">
+      <c r="E3" s="590" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="659" t="s">
+      <c r="F3" s="590" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="659" t="s">
+      <c r="G3" s="590" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="659" t="s">
+      <c r="H3" s="590" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="659" t="s">
+      <c r="I3" s="590" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="659" t="s">
+      <c r="J3" s="590" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="659" t="s">
+      <c r="K3" s="590" t="s">
         <v>911</v>
       </c>
-      <c r="L3" s="659" t="s">
+      <c r="L3" s="590" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="659" t="str">
+      <c r="M3" s="590" t="str">
         <f xml:space="preserve"> _xlfn.UNICHAR(8304) &amp; "兀"</f>
         <v>⁰兀</v>
       </c>
-      <c r="N3" s="659" t="s">
+      <c r="N3" s="590" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="659" t="s">
+      <c r="O3" s="590" t="s">
         <v>1008</v>
       </c>
-      <c r="P3" s="659" t="s">
+      <c r="P3" s="590" t="s">
         <v>441</v>
       </c>
-      <c r="Q3" s="659" t="s">
+      <c r="Q3" s="590" t="s">
         <v>1007</v>
       </c>
-      <c r="R3" s="659" t="s">
+      <c r="R3" s="590" t="s">
         <v>1006</v>
       </c>
-      <c r="S3" s="659" t="s">
+      <c r="S3" s="590" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="659" t="s">
+      <c r="T3" s="590" t="s">
         <v>441</v>
       </c>
-      <c r="U3" s="659" t="s">
+      <c r="U3" s="590" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="659" t="s">
+      <c r="V3" s="590" t="s">
         <v>50</v>
       </c>
-      <c r="W3" s="660"/>
-      <c r="X3" s="660"/>
-      <c r="Y3" s="660"/>
+      <c r="W3" s="591"/>
+      <c r="X3" s="591"/>
+      <c r="Y3" s="591"/>
     </row>
     <row r="4" spans="2:25" ht="45" customHeight="1">
-      <c r="B4" s="661" t="s">
+      <c r="B4" s="592" t="s">
         <v>389</v>
       </c>
-      <c r="C4" s="661" t="s">
+      <c r="C4" s="592" t="s">
         <v>402</v>
       </c>
-      <c r="D4" s="661" t="s">
+      <c r="D4" s="592" t="s">
         <v>393</v>
       </c>
-      <c r="E4" s="661" t="s">
+      <c r="E4" s="592" t="s">
         <v>398</v>
       </c>
-      <c r="F4" s="661" t="s">
+      <c r="F4" s="592" t="s">
         <v>403</v>
       </c>
-      <c r="G4" s="661" t="s">
+      <c r="G4" s="592" t="s">
         <v>406</v>
       </c>
-      <c r="H4" s="661" t="s">
+      <c r="H4" s="592" t="s">
         <v>411</v>
       </c>
-      <c r="I4" s="661" t="s">
+      <c r="I4" s="592" t="s">
         <v>412</v>
       </c>
-      <c r="J4" s="661" t="s">
+      <c r="J4" s="592" t="s">
         <v>415</v>
       </c>
-      <c r="K4" s="661" t="s">
+      <c r="K4" s="592" t="s">
         <v>437</v>
       </c>
-      <c r="L4" s="661" t="s">
+      <c r="L4" s="592" t="s">
         <v>419</v>
       </c>
-      <c r="M4" s="661" t="s">
+      <c r="M4" s="592" t="s">
         <v>1004</v>
       </c>
-      <c r="N4" s="661" t="s">
+      <c r="N4" s="592" t="s">
         <v>423</v>
       </c>
-      <c r="O4" s="661" t="s">
+      <c r="O4" s="592" t="s">
         <v>428</v>
       </c>
-      <c r="P4" s="661" t="s">
+      <c r="P4" s="592" t="s">
         <v>446</v>
       </c>
-      <c r="Q4" s="661" t="s">
+      <c r="Q4" s="592" t="s">
         <v>431</v>
       </c>
-      <c r="R4" s="661" t="s">
+      <c r="R4" s="592" t="s">
         <v>434</v>
       </c>
-      <c r="S4" s="661" t="s">
+      <c r="S4" s="592" t="s">
         <v>459</v>
       </c>
-      <c r="T4" s="661" t="s">
+      <c r="T4" s="592" t="s">
         <v>453</v>
       </c>
-      <c r="U4" s="661" t="s">
+      <c r="U4" s="592" t="s">
         <v>464</v>
       </c>
-      <c r="V4" s="661" t="s">
+      <c r="V4" s="592" t="s">
         <v>465</v>
       </c>
-      <c r="W4" s="660"/>
-      <c r="X4" s="660"/>
-      <c r="Y4" s="660"/>
-    </row>
-    <row r="5" spans="2:25" s="657" customFormat="1" ht="45" customHeight="1">
-      <c r="B5" s="664" t="s">
+      <c r="W4" s="591"/>
+      <c r="X4" s="591"/>
+      <c r="Y4" s="591"/>
+    </row>
+    <row r="5" spans="2:25" s="589" customFormat="1" ht="45" customHeight="1">
+      <c r="B5" s="596" t="s">
         <v>1003</v>
       </c>
-      <c r="C5" s="664"/>
-      <c r="D5" s="664"/>
-      <c r="E5" s="664"/>
-      <c r="F5" s="664"/>
-      <c r="G5" s="664"/>
-      <c r="H5" s="664"/>
-      <c r="I5" s="664"/>
-      <c r="J5" s="664"/>
-      <c r="K5" s="664"/>
-      <c r="L5" s="664"/>
-      <c r="M5" s="664"/>
-      <c r="N5" s="664"/>
-      <c r="O5" s="664"/>
-      <c r="P5" s="664"/>
-      <c r="Q5" s="664"/>
-      <c r="R5" s="664"/>
-      <c r="S5" s="664"/>
-      <c r="T5" s="664"/>
-      <c r="U5" s="664"/>
-      <c r="V5" s="664"/>
-      <c r="W5" s="664"/>
-      <c r="X5" s="664"/>
-      <c r="Y5" s="664"/>
+      <c r="C5" s="596"/>
+      <c r="D5" s="596"/>
+      <c r="E5" s="596"/>
+      <c r="F5" s="596"/>
+      <c r="G5" s="596"/>
+      <c r="H5" s="596"/>
+      <c r="I5" s="596"/>
+      <c r="J5" s="596"/>
+      <c r="K5" s="596"/>
+      <c r="L5" s="596"/>
+      <c r="M5" s="596"/>
+      <c r="N5" s="596"/>
+      <c r="O5" s="596"/>
+      <c r="P5" s="596"/>
+      <c r="Q5" s="596"/>
+      <c r="R5" s="596"/>
+      <c r="S5" s="596"/>
+      <c r="T5" s="596"/>
+      <c r="U5" s="596"/>
+      <c r="V5" s="596"/>
+      <c r="W5" s="596"/>
+      <c r="X5" s="596"/>
+      <c r="Y5" s="596"/>
     </row>
     <row r="6" spans="2:25" ht="45" customHeight="1">
-      <c r="B6" s="659" t="s">
+      <c r="B6" s="590" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="659" t="s">
+      <c r="C6" s="590" t="s">
         <v>1009</v>
       </c>
-      <c r="D6" s="659" t="s">
+      <c r="D6" s="590" t="s">
         <v>912</v>
       </c>
-      <c r="E6" s="659" t="s">
+      <c r="E6" s="590" t="s">
         <v>1013</v>
       </c>
-      <c r="F6" s="659" t="s">
+      <c r="F6" s="590" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="659" t="s">
+      <c r="G6" s="590" t="s">
         <v>477</v>
       </c>
-      <c r="H6" s="659" t="s">
+      <c r="H6" s="590" t="s">
         <v>1010</v>
       </c>
-      <c r="I6" s="659" t="s">
+      <c r="I6" s="590" t="s">
         <v>241</v>
       </c>
-      <c r="J6" s="659" t="s">
+      <c r="J6" s="590" t="s">
         <v>1011</v>
       </c>
-      <c r="K6" s="659" t="s">
+      <c r="K6" s="590" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="659" t="s">
+      <c r="L6" s="590" t="s">
         <v>1012</v>
       </c>
-      <c r="M6" s="659" t="s">
+      <c r="M6" s="590" t="s">
         <v>644</v>
       </c>
-      <c r="N6" s="659" t="s">
+      <c r="N6" s="590" t="s">
         <v>637</v>
       </c>
-      <c r="O6" s="659" t="s">
+      <c r="O6" s="590" t="s">
         <v>636</v>
       </c>
-      <c r="P6" s="659" t="s">
+      <c r="P6" s="590" t="s">
         <v>97</v>
       </c>
-      <c r="Q6" s="659" t="s">
+      <c r="Q6" s="590" t="s">
         <v>76</v>
       </c>
-      <c r="R6" s="659" t="s">
+      <c r="R6" s="590" t="s">
         <v>95</v>
       </c>
-      <c r="S6" s="659" t="s">
+      <c r="S6" s="590" t="s">
         <v>1014</v>
       </c>
-      <c r="T6" s="659" t="s">
+      <c r="T6" s="590" t="s">
         <v>127</v>
       </c>
-      <c r="U6" s="659" t="s">
+      <c r="U6" s="590" t="s">
         <v>54</v>
       </c>
-      <c r="V6" s="659" t="s">
+      <c r="V6" s="590" t="s">
         <v>926</v>
       </c>
-      <c r="W6" s="659" t="s">
+      <c r="W6" s="590" t="s">
         <v>56</v>
       </c>
-      <c r="X6" s="659" t="s">
+      <c r="X6" s="590" t="s">
         <v>917</v>
       </c>
-      <c r="Y6" s="662" t="s">
+      <c r="Y6" s="593" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="45" customHeight="1">
-      <c r="B7" s="661" t="s">
+      <c r="B7" s="592" t="s">
         <v>471</v>
       </c>
-      <c r="C7" s="661" t="s">
+      <c r="C7" s="592" t="s">
         <v>508</v>
       </c>
-      <c r="D7" s="661" t="s">
+      <c r="D7" s="592" t="s">
         <v>474</v>
       </c>
-      <c r="E7" s="661" t="s">
+      <c r="E7" s="592" t="s">
         <v>990</v>
       </c>
-      <c r="F7" s="661" t="s">
+      <c r="F7" s="592" t="s">
         <v>868</v>
       </c>
-      <c r="G7" s="661" t="s">
+      <c r="G7" s="592" t="s">
         <v>482</v>
       </c>
-      <c r="H7" s="661" t="s">
+      <c r="H7" s="592" t="s">
         <v>524</v>
       </c>
-      <c r="I7" s="661" t="s">
+      <c r="I7" s="592" t="s">
         <v>479</v>
       </c>
-      <c r="J7" s="661" t="s">
+      <c r="J7" s="592" t="s">
         <v>991</v>
       </c>
-      <c r="K7" s="661" t="s">
+      <c r="K7" s="592" t="s">
         <v>485</v>
       </c>
-      <c r="L7" s="661" t="s">
+      <c r="L7" s="592" t="s">
         <v>992</v>
       </c>
-      <c r="M7" s="661" t="s">
+      <c r="M7" s="592" t="s">
         <v>501</v>
       </c>
-      <c r="N7" s="661" t="s">
+      <c r="N7" s="592" t="s">
         <v>505</v>
       </c>
-      <c r="O7" s="661" t="s">
+      <c r="O7" s="592" t="s">
         <v>470</v>
       </c>
-      <c r="P7" s="661" t="s">
+      <c r="P7" s="592" t="s">
         <v>488</v>
       </c>
-      <c r="Q7" s="661" t="s">
+      <c r="Q7" s="592" t="s">
         <v>411</v>
       </c>
-      <c r="R7" s="661" t="s">
+      <c r="R7" s="592" t="s">
         <v>492</v>
       </c>
-      <c r="S7" s="661" t="s">
+      <c r="S7" s="592" t="s">
         <v>487</v>
       </c>
-      <c r="T7" s="661" t="s">
+      <c r="T7" s="592" t="s">
         <v>498</v>
       </c>
-      <c r="U7" s="661" t="s">
+      <c r="U7" s="592" t="s">
         <v>468</v>
       </c>
-      <c r="V7" s="661" t="s">
+      <c r="V7" s="592" t="s">
         <v>514</v>
       </c>
-      <c r="W7" s="661" t="s">
+      <c r="W7" s="592" t="s">
         <v>469</v>
       </c>
-      <c r="X7" s="661" t="s">
+      <c r="X7" s="592" t="s">
         <v>519</v>
       </c>
-      <c r="Y7" s="663" t="s">
+      <c r="Y7" s="594" t="s">
         <v>1015</v>
       </c>
     </row>
@@ -41255,7 +41209,7 @@
   <autoFilter ref="Z2:AE58" xr:uid="{75B49C6C-D82D-4721-BCB2-CDFB1A07BE11}"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="AA3:AD58">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>CHAR(32)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41287,30 +41241,30 @@
   <sheetFormatPr defaultRowHeight="21"/>
   <sheetData>
     <row r="4" spans="2:12">
-      <c r="B4" s="556" t="s">
+      <c r="B4" s="597" t="s">
         <v>727</v>
       </c>
-      <c r="C4" s="556" t="s">
+      <c r="C4" s="597" t="s">
         <v>730</v>
       </c>
-      <c r="D4" s="556"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="541" t="s">
         <v>822</v>
       </c>
       <c r="F4" s="542"/>
       <c r="G4" s="543"/>
-      <c r="H4" s="557" t="s">
+      <c r="H4" s="598" t="s">
         <v>823</v>
       </c>
-      <c r="I4" s="559"/>
-      <c r="J4" s="559"/>
-      <c r="K4" s="559"/>
-      <c r="L4" s="558"/>
+      <c r="I4" s="600"/>
+      <c r="J4" s="600"/>
+      <c r="K4" s="600"/>
+      <c r="L4" s="599"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="556"/>
-      <c r="C5" s="556"/>
-      <c r="D5" s="556"/>
+      <c r="B5" s="597"/>
+      <c r="C5" s="597"/>
+      <c r="D5" s="597"/>
       <c r="E5" s="544" t="s">
         <v>398</v>
       </c>
@@ -41329,10 +41283,10 @@
       <c r="J5" s="545" t="s">
         <v>826</v>
       </c>
-      <c r="K5" s="557" t="s">
+      <c r="K5" s="598" t="s">
         <v>827</v>
       </c>
-      <c r="L5" s="558"/>
+      <c r="L5" s="599"/>
     </row>
     <row r="6" spans="2:12" ht="22.5">
       <c r="B6" s="540" t="s">
@@ -42040,66 +41994,66 @@
     </row>
     <row r="2" spans="1:75" s="147" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="239"/>
-      <c r="B2" s="563" t="s">
+      <c r="B2" s="607" t="s">
         <v>539</v>
       </c>
-      <c r="C2" s="564"/>
-      <c r="D2" s="565"/>
-      <c r="E2" s="563" t="s">
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="607" t="s">
         <v>540</v>
       </c>
-      <c r="F2" s="564"/>
-      <c r="G2" s="565"/>
-      <c r="H2" s="560" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="614" t="s">
         <v>541</v>
       </c>
-      <c r="I2" s="561"/>
-      <c r="J2" s="562"/>
-      <c r="K2" s="560" t="s">
+      <c r="I2" s="615"/>
+      <c r="J2" s="616"/>
+      <c r="K2" s="614" t="s">
         <v>542</v>
       </c>
-      <c r="L2" s="561"/>
-      <c r="M2" s="562"/>
-      <c r="N2" s="566">
+      <c r="L2" s="615"/>
+      <c r="M2" s="616"/>
+      <c r="N2" s="617">
         <v>0.05</v>
       </c>
-      <c r="O2" s="567"/>
-      <c r="P2" s="568"/>
-      <c r="Q2" s="560" t="s">
+      <c r="O2" s="618"/>
+      <c r="P2" s="619"/>
+      <c r="Q2" s="614" t="s">
         <v>543</v>
       </c>
-      <c r="R2" s="561"/>
-      <c r="S2" s="562"/>
-      <c r="T2" s="560" t="s">
+      <c r="R2" s="615"/>
+      <c r="S2" s="616"/>
+      <c r="T2" s="614" t="s">
         <v>544</v>
       </c>
-      <c r="U2" s="561"/>
-      <c r="V2" s="562"/>
-      <c r="W2" s="569" t="s">
+      <c r="U2" s="615"/>
+      <c r="V2" s="616"/>
+      <c r="W2" s="601" t="s">
         <v>545</v>
       </c>
-      <c r="X2" s="570"/>
-      <c r="Y2" s="571"/>
-      <c r="Z2" s="569" t="s">
+      <c r="X2" s="602"/>
+      <c r="Y2" s="603"/>
+      <c r="Z2" s="601" t="s">
         <v>546</v>
       </c>
-      <c r="AA2" s="570"/>
-      <c r="AB2" s="571"/>
-      <c r="AC2" s="569" t="s">
+      <c r="AA2" s="602"/>
+      <c r="AB2" s="603"/>
+      <c r="AC2" s="601" t="s">
         <v>547</v>
       </c>
-      <c r="AD2" s="570"/>
-      <c r="AE2" s="571"/>
-      <c r="AF2" s="572" t="s">
+      <c r="AD2" s="602"/>
+      <c r="AE2" s="603"/>
+      <c r="AF2" s="604" t="s">
         <v>548</v>
       </c>
-      <c r="AG2" s="573"/>
-      <c r="AH2" s="574"/>
-      <c r="AI2" s="572" t="s">
+      <c r="AG2" s="605"/>
+      <c r="AH2" s="606"/>
+      <c r="AI2" s="604" t="s">
         <v>549</v>
       </c>
-      <c r="AJ2" s="573"/>
-      <c r="AK2" s="574"/>
+      <c r="AJ2" s="605"/>
+      <c r="AK2" s="606"/>
       <c r="AL2" s="239"/>
       <c r="AM2" s="239"/>
       <c r="AN2" s="239"/>
@@ -42127,15 +42081,15 @@
     </row>
     <row r="3" spans="1:75" s="147" customFormat="1" ht="45" customHeight="1">
       <c r="A3" s="239"/>
-      <c r="B3" s="579" t="str">
+      <c r="B3" s="556" t="str">
         <f ca="1">F18</f>
         <v>ㆠ</v>
       </c>
-      <c r="C3" s="591"/>
-      <c r="D3" s="587" t="s">
+      <c r="C3" s="568"/>
+      <c r="D3" s="564" t="s">
         <v>551</v>
       </c>
-      <c r="E3" s="579"/>
+      <c r="E3" s="556"/>
       <c r="F3" s="244"/>
       <c r="G3" s="245"/>
       <c r="H3" s="246"/>
@@ -42153,31 +42107,31 @@
       <c r="T3" s="246"/>
       <c r="U3" s="247"/>
       <c r="V3" s="248"/>
-      <c r="W3" s="585" t="str">
+      <c r="W3" s="562" t="str">
         <f ca="1">AH19</f>
         <v>ㆩ</v>
       </c>
       <c r="X3" s="252"/>
-      <c r="Y3" s="589" t="str">
+      <c r="Y3" s="566" t="str">
         <f ca="1">AH20</f>
         <v>ann</v>
       </c>
-      <c r="Z3" s="585" t="str">
+      <c r="Z3" s="562" t="str">
         <f ca="1">AK19</f>
         <v>ㆮ</v>
       </c>
       <c r="AA3" s="252"/>
-      <c r="AB3" s="589" t="str">
+      <c r="AB3" s="566" t="str">
         <f ca="1">AK20</f>
         <v>ainn</v>
       </c>
-      <c r="AC3" s="585"/>
+      <c r="AC3" s="562"/>
       <c r="AD3" s="252"/>
       <c r="AE3" s="253"/>
-      <c r="AF3" s="585"/>
+      <c r="AF3" s="562"/>
       <c r="AG3" s="252"/>
       <c r="AH3" s="253"/>
-      <c r="AI3" s="585"/>
+      <c r="AI3" s="562"/>
       <c r="AJ3" s="252"/>
       <c r="AK3" s="253"/>
       <c r="AL3" s="239"/>
@@ -42215,7 +42169,7 @@
     </row>
     <row r="4" spans="1:75" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="258"/>
-      <c r="B4" s="580" t="str">
+      <c r="B4" s="557" t="str">
         <f ca="1">D19</f>
         <v>ㄅ</v>
       </c>
@@ -42223,7 +42177,7 @@
       <c r="D4" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="580" t="str">
+      <c r="E4" s="557" t="str">
         <f ca="1">H19</f>
         <v>ㄉ</v>
       </c>
@@ -42231,42 +42185,42 @@
       <c r="G4" s="260" t="s">
         <v>340</v>
       </c>
-      <c r="H4" s="575" t="s">
+      <c r="H4" s="610" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="576"/>
+      <c r="I4" s="611"/>
       <c r="J4" s="261" t="s">
         <v>552</v>
       </c>
-      <c r="K4" s="577" t="s">
+      <c r="K4" s="612" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="578"/>
+      <c r="L4" s="613"/>
       <c r="M4" s="261" t="s">
         <v>553</v>
       </c>
-      <c r="N4" s="575" t="s">
+      <c r="N4" s="610" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="576"/>
+      <c r="O4" s="611"/>
       <c r="P4" s="261" t="s">
         <v>554</v>
       </c>
-      <c r="Q4" s="577" t="s">
+      <c r="Q4" s="612" t="s">
         <v>106</v>
       </c>
-      <c r="R4" s="578"/>
+      <c r="R4" s="613"/>
       <c r="S4" s="261" t="s">
         <v>555</v>
       </c>
-      <c r="T4" s="575" t="s">
+      <c r="T4" s="610" t="s">
         <v>556</v>
       </c>
-      <c r="U4" s="576"/>
+      <c r="U4" s="611"/>
       <c r="V4" s="261" t="s">
         <v>557</v>
       </c>
-      <c r="W4" s="586" t="str">
+      <c r="W4" s="563" t="str">
         <f ca="1">W19</f>
         <v>ㄚ</v>
       </c>
@@ -42275,7 +42229,7 @@
         <f ca="1">W20</f>
         <v>a</v>
       </c>
-      <c r="Z4" s="586" t="str">
+      <c r="Z4" s="563" t="str">
         <f ca="1">AA19</f>
         <v>ㄞ</v>
       </c>
@@ -42284,7 +42238,7 @@
         <f ca="1">AA20</f>
         <v>ai</v>
       </c>
-      <c r="AC4" s="586" t="str">
+      <c r="AC4" s="563" t="str">
         <f ca="1">AC19</f>
         <v>ㄢ</v>
       </c>
@@ -42293,7 +42247,7 @@
         <f ca="1">AC20</f>
         <v>an</v>
       </c>
-      <c r="AF4" s="586" t="str">
+      <c r="AF4" s="563" t="str">
         <f ca="1">AE19</f>
         <v>ㆨ</v>
       </c>
@@ -42302,7 +42256,7 @@
         <f ca="1">AE20</f>
         <v>ir</v>
       </c>
-      <c r="AI4" s="586"/>
+      <c r="AI4" s="563"/>
       <c r="AJ4" s="262"/>
       <c r="AK4" s="263"/>
       <c r="AL4" s="258"/>
@@ -42324,25 +42278,25 @@
         <f>注音編碼對照表!C3</f>
         <v>1</v>
       </c>
-      <c r="BL4" s="583" t="str" cm="1">
+      <c r="BL4" s="560" t="str" cm="1">
         <f t="array" ref="BL4" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK4, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄅ</v>
       </c>
-      <c r="BM4" s="584" t="str" cm="1">
+      <c r="BM4" s="561" t="str" cm="1">
         <f t="array" ref="BM4" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK4, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄅ</v>
       </c>
-      <c r="BN4" s="581" t="str" cm="1">
+      <c r="BN4" s="558" t="str" cm="1">
         <f t="array" ref="BN4" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK4, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>p</v>
       </c>
-      <c r="BO4" s="582" t="str" cm="1">
+      <c r="BO4" s="559" t="str" cm="1">
         <f t="array" ref="BO4" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK4, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>p</v>
       </c>
       <c r="BP4" s="107"/>
       <c r="BR4" s="265" t="str">
-        <f t="shared" ref="BR4:BR55" si="1" xml:space="preserve"> """" &amp; BK4 &amp; """: { commit: """ &amp; BL4 &amp; """ }"</f>
+        <f t="shared" ref="BR4:BR22" si="1" xml:space="preserve"> """" &amp; BK4 &amp; """: { commit: """ &amp; BL4 &amp; """ }"</f>
         <v>"1": { commit: "ㄅ" }</v>
       </c>
       <c r="BT4" s="242">
@@ -42361,71 +42315,71 @@
     <row r="5" spans="1:75" s="147" customFormat="1" ht="45" customHeight="1">
       <c r="A5" s="239"/>
       <c r="B5" s="239"/>
-      <c r="C5" s="563" t="s">
+      <c r="C5" s="607" t="s">
         <v>558</v>
       </c>
-      <c r="D5" s="564"/>
-      <c r="E5" s="565"/>
-      <c r="F5" s="563" t="s">
+      <c r="D5" s="608"/>
+      <c r="E5" s="609"/>
+      <c r="F5" s="607" t="s">
         <v>559</v>
       </c>
-      <c r="G5" s="564"/>
-      <c r="H5" s="565"/>
-      <c r="I5" s="563" t="s">
+      <c r="G5" s="608"/>
+      <c r="H5" s="609"/>
+      <c r="I5" s="607" t="s">
         <v>322</v>
       </c>
-      <c r="J5" s="564"/>
-      <c r="K5" s="565"/>
-      <c r="L5" s="563" t="s">
+      <c r="J5" s="608"/>
+      <c r="K5" s="609"/>
+      <c r="L5" s="607" t="s">
         <v>560</v>
       </c>
-      <c r="M5" s="564"/>
-      <c r="N5" s="565"/>
-      <c r="O5" s="563" t="s">
+      <c r="M5" s="608"/>
+      <c r="N5" s="609"/>
+      <c r="O5" s="607" t="s">
         <v>408</v>
       </c>
-      <c r="P5" s="564"/>
-      <c r="Q5" s="565"/>
-      <c r="R5" s="563" t="s">
+      <c r="P5" s="608"/>
+      <c r="Q5" s="609"/>
+      <c r="R5" s="607" t="s">
         <v>447</v>
       </c>
-      <c r="S5" s="564"/>
-      <c r="T5" s="565"/>
-      <c r="U5" s="569" t="s">
+      <c r="S5" s="608"/>
+      <c r="T5" s="609"/>
+      <c r="U5" s="601" t="s">
         <v>259</v>
       </c>
-      <c r="V5" s="570"/>
-      <c r="W5" s="571"/>
-      <c r="X5" s="569" t="s">
+      <c r="V5" s="602"/>
+      <c r="W5" s="603"/>
+      <c r="X5" s="601" t="s">
         <v>275</v>
       </c>
-      <c r="Y5" s="570"/>
-      <c r="Z5" s="571"/>
-      <c r="AA5" s="569" t="s">
+      <c r="Y5" s="602"/>
+      <c r="Z5" s="603"/>
+      <c r="AA5" s="601" t="s">
         <v>267</v>
       </c>
-      <c r="AB5" s="570"/>
-      <c r="AC5" s="571"/>
-      <c r="AD5" s="569" t="s">
+      <c r="AB5" s="602"/>
+      <c r="AC5" s="603"/>
+      <c r="AD5" s="601" t="s">
         <v>400</v>
       </c>
-      <c r="AE5" s="570"/>
-      <c r="AF5" s="571"/>
-      <c r="AG5" s="569" t="s">
+      <c r="AE5" s="602"/>
+      <c r="AF5" s="603"/>
+      <c r="AG5" s="601" t="s">
         <v>561</v>
       </c>
-      <c r="AH5" s="570"/>
-      <c r="AI5" s="571"/>
-      <c r="AJ5" s="569" t="s">
+      <c r="AH5" s="602"/>
+      <c r="AI5" s="603"/>
+      <c r="AJ5" s="601" t="s">
         <v>562</v>
       </c>
-      <c r="AK5" s="570"/>
-      <c r="AL5" s="571"/>
-      <c r="AM5" s="572" t="s">
+      <c r="AK5" s="602"/>
+      <c r="AL5" s="603"/>
+      <c r="AM5" s="604" t="s">
         <v>563</v>
       </c>
-      <c r="AN5" s="573"/>
-      <c r="AO5" s="574"/>
+      <c r="AN5" s="605"/>
+      <c r="AO5" s="606"/>
       <c r="AP5" s="239"/>
       <c r="AQ5" s="239"/>
       <c r="AR5" s="240"/>
@@ -42441,19 +42395,19 @@
         <f>注音編碼對照表!C4</f>
         <v>q</v>
       </c>
-      <c r="BL5" s="583" t="str" cm="1">
+      <c r="BL5" s="560" t="str" cm="1">
         <f t="array" ref="BL5" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK5, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄆ</v>
       </c>
-      <c r="BM5" s="584" t="str" cm="1">
+      <c r="BM5" s="561" t="str" cm="1">
         <f t="array" ref="BM5" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK5, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄆ</v>
       </c>
-      <c r="BN5" s="581" t="str" cm="1">
+      <c r="BN5" s="558" t="str" cm="1">
         <f t="array" ref="BN5" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK5, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>pʰ</v>
       </c>
-      <c r="BO5" s="582" t="str" cm="1">
+      <c r="BO5" s="559" t="str" cm="1">
         <f t="array" ref="BO5" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK5, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ph</v>
       </c>
@@ -42467,72 +42421,72 @@
         <v>2</v>
       </c>
       <c r="BU5" s="266" t="str">
-        <f t="shared" ref="BU5:BU55" si="3" xml:space="preserve"> "- xform/" &amp; BN5 &amp; "/" &amp; BK5 &amp; "/"</f>
+        <f t="shared" ref="BU5:BU22" si="3" xml:space="preserve"> "- xform/" &amp; BN5 &amp; "/" &amp; BK5 &amp; "/"</f>
         <v>- xform/pʰ/q/</v>
       </c>
       <c r="BW5" s="266" t="str">
-        <f t="shared" ref="BW5:BW55" si="4" xml:space="preserve"> "- xform/" &amp; BK5 &amp; "/" &amp; BL5 &amp; "/"</f>
+        <f t="shared" ref="BW5:BW22" si="4" xml:space="preserve"> "- xform/" &amp; BK5 &amp; "/" &amp; BL5 &amp; "/"</f>
         <v>- xform/q/ㄆ/</v>
       </c>
     </row>
     <row r="6" spans="1:75" s="147" customFormat="1" ht="45" customHeight="1">
       <c r="A6" s="239"/>
       <c r="B6" s="239"/>
-      <c r="C6" s="579"/>
+      <c r="C6" s="556"/>
       <c r="D6" s="244"/>
       <c r="E6" s="245"/>
-      <c r="F6" s="579"/>
+      <c r="F6" s="556"/>
       <c r="G6" s="244"/>
       <c r="H6" s="245"/>
-      <c r="I6" s="579" t="str">
+      <c r="I6" s="556" t="str">
         <f ca="1">R19</f>
         <v>ㆣ</v>
       </c>
       <c r="J6" s="244"/>
-      <c r="K6" s="587" t="str">
+      <c r="K6" s="564" t="str">
         <f ca="1">R20</f>
         <v>g</v>
       </c>
-      <c r="L6" s="579"/>
+      <c r="L6" s="556"/>
       <c r="M6" s="244"/>
       <c r="N6" s="245"/>
-      <c r="O6" s="579"/>
+      <c r="O6" s="556"/>
       <c r="P6" s="244"/>
       <c r="Q6" s="245"/>
-      <c r="R6" s="579"/>
+      <c r="R6" s="556"/>
       <c r="S6" s="244"/>
       <c r="T6" s="245"/>
-      <c r="U6" s="585" t="str">
+      <c r="U6" s="562" t="str">
         <f ca="1">AF19</f>
         <v>ㆪ</v>
       </c>
       <c r="V6" s="252"/>
-      <c r="W6" s="589" t="str">
+      <c r="W6" s="566" t="str">
         <f ca="1">AF20</f>
         <v>inn</v>
       </c>
-      <c r="X6" s="585" t="str">
+      <c r="X6" s="562" t="str">
         <f ca="1">AI19</f>
         <v>ㆧ</v>
       </c>
-      <c r="Y6" s="588"/>
-      <c r="Z6" s="589" t="str">
+      <c r="Y6" s="565"/>
+      <c r="Z6" s="566" t="str">
         <f ca="1">AI20</f>
         <v>onn</v>
       </c>
-      <c r="AA6" s="585"/>
+      <c r="AA6" s="562"/>
       <c r="AB6" s="252"/>
-      <c r="AC6" s="589"/>
-      <c r="AD6" s="585"/>
+      <c r="AC6" s="566"/>
+      <c r="AD6" s="562"/>
       <c r="AE6" s="252"/>
       <c r="AF6" s="253"/>
-      <c r="AG6" s="585"/>
+      <c r="AG6" s="562"/>
       <c r="AH6" s="252"/>
       <c r="AI6" s="253"/>
-      <c r="AJ6" s="585"/>
+      <c r="AJ6" s="562"/>
       <c r="AK6" s="252"/>
       <c r="AL6" s="253"/>
-      <c r="AM6" s="585"/>
+      <c r="AM6" s="562"/>
       <c r="AN6" s="252"/>
       <c r="AO6" s="253"/>
       <c r="AP6" s="239"/>
@@ -42550,19 +42504,19 @@
         <f>注音編碼對照表!C5</f>
         <v>!</v>
       </c>
-      <c r="BL6" s="583" t="str" cm="1">
+      <c r="BL6" s="560" t="str" cm="1">
         <f t="array" ref="BL6" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK6, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆠ</v>
       </c>
-      <c r="BM6" s="584" t="str" cm="1">
+      <c r="BM6" s="561" t="str" cm="1">
         <f t="array" ref="BM6" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK6, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆠ</v>
       </c>
-      <c r="BN6" s="581" t="str" cm="1">
+      <c r="BN6" s="558" t="str" cm="1">
         <f t="array" ref="BN6" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK6, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>b</v>
       </c>
-      <c r="BO6" s="582" t="str" cm="1">
+      <c r="BO6" s="559" t="str" cm="1">
         <f t="array" ref="BO6" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK6, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>b</v>
       </c>
@@ -42587,7 +42541,7 @@
     <row r="7" spans="1:75" ht="45" customHeight="1" thickBot="1">
       <c r="A7" s="258"/>
       <c r="B7" s="258"/>
-      <c r="C7" s="580" t="str">
+      <c r="C7" s="557" t="str">
         <f ca="1">E19</f>
         <v>ㄆ</v>
       </c>
@@ -42595,7 +42549,7 @@
       <c r="E7" s="260" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="580" t="str">
+      <c r="F7" s="557" t="str">
         <f ca="1">I19</f>
         <v>ㄊ</v>
       </c>
@@ -42603,7 +42557,7 @@
       <c r="H7" s="260" t="s">
         <v>604</v>
       </c>
-      <c r="I7" s="580" t="str">
+      <c r="I7" s="557" t="str">
         <f ca="1">P19</f>
         <v>ㄍ</v>
       </c>
@@ -42612,13 +42566,13 @@
         <f ca="1">P20</f>
         <v>k</v>
       </c>
-      <c r="L7" s="580"/>
+      <c r="L7" s="557"/>
       <c r="M7" s="259"/>
       <c r="N7" s="260"/>
-      <c r="O7" s="580"/>
+      <c r="O7" s="557"/>
       <c r="P7" s="259"/>
       <c r="Q7" s="260"/>
-      <c r="R7" s="580" t="str">
+      <c r="R7" s="557" t="str">
         <f ca="1">L19</f>
         <v>ㄗ</v>
       </c>
@@ -42627,7 +42581,7 @@
         <f ca="1">L20</f>
         <v>z</v>
       </c>
-      <c r="U7" s="586" t="str">
+      <c r="U7" s="563" t="str">
         <f ca="1">U18</f>
         <v>ㄧ</v>
       </c>
@@ -42636,7 +42590,7 @@
         <f ca="1">U20</f>
         <v>i</v>
       </c>
-      <c r="X7" s="586" t="str">
+      <c r="X7" s="563" t="str">
         <f ca="1">X19</f>
         <v>ㆦ</v>
       </c>
@@ -42645,7 +42599,7 @@
         <f ca="1">X20</f>
         <v>oo</v>
       </c>
-      <c r="AA7" s="586" t="str">
+      <c r="AA7" s="563" t="str">
         <f ca="1">AN19</f>
         <v>ㆲ</v>
       </c>
@@ -42654,7 +42608,7 @@
         <f ca="1">AN20</f>
         <v>ong</v>
       </c>
-      <c r="AD7" s="586" t="str">
+      <c r="AD7" s="563" t="str">
         <f ca="1">AP19</f>
         <v>ㄣ</v>
       </c>
@@ -42663,13 +42617,13 @@
         <f ca="1">AP20</f>
         <v>-n</v>
       </c>
-      <c r="AG7" s="586"/>
+      <c r="AG7" s="563"/>
       <c r="AH7" s="262"/>
       <c r="AI7" s="263"/>
-      <c r="AJ7" s="586"/>
+      <c r="AJ7" s="563"/>
       <c r="AK7" s="262"/>
       <c r="AL7" s="263"/>
-      <c r="AM7" s="586"/>
+      <c r="AM7" s="563"/>
       <c r="AN7" s="262"/>
       <c r="AO7" s="263"/>
       <c r="AP7" s="258"/>
@@ -42687,19 +42641,19 @@
         <f>注音編碼對照表!C6</f>
         <v>a</v>
       </c>
-      <c r="BL7" s="583" t="str" cm="1">
+      <c r="BL7" s="560" t="str" cm="1">
         <f t="array" ref="BL7" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK7, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄇ</v>
       </c>
-      <c r="BM7" s="584" t="str" cm="1">
+      <c r="BM7" s="561" t="str" cm="1">
         <f t="array" ref="BM7" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK7, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄇ</v>
       </c>
-      <c r="BN7" s="581" t="str" cm="1">
+      <c r="BN7" s="558" t="str" cm="1">
         <f t="array" ref="BN7" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK7, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>m</v>
       </c>
-      <c r="BO7" s="582" t="str" cm="1">
+      <c r="BO7" s="559" t="str" cm="1">
         <f t="array" ref="BO7" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK7, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>m</v>
       </c>
@@ -42725,61 +42679,61 @@
       <c r="A8" s="239"/>
       <c r="B8" s="239"/>
       <c r="C8" s="267"/>
-      <c r="D8" s="563" t="s">
+      <c r="D8" s="607" t="s">
         <v>401</v>
       </c>
-      <c r="E8" s="564"/>
-      <c r="F8" s="565"/>
-      <c r="G8" s="563" t="s">
+      <c r="E8" s="608"/>
+      <c r="F8" s="609"/>
+      <c r="G8" s="607" t="s">
         <v>460</v>
       </c>
-      <c r="H8" s="564"/>
-      <c r="I8" s="565"/>
-      <c r="J8" s="563" t="s">
+      <c r="H8" s="608"/>
+      <c r="I8" s="609"/>
+      <c r="J8" s="607" t="s">
         <v>189</v>
       </c>
-      <c r="K8" s="564"/>
-      <c r="L8" s="565"/>
-      <c r="M8" s="563" t="s">
+      <c r="K8" s="608"/>
+      <c r="L8" s="609"/>
+      <c r="M8" s="607" t="s">
         <v>565</v>
       </c>
-      <c r="N8" s="564"/>
-      <c r="O8" s="565"/>
-      <c r="P8" s="563" t="s">
+      <c r="N8" s="608"/>
+      <c r="O8" s="609"/>
+      <c r="P8" s="607" t="s">
         <v>141</v>
       </c>
-      <c r="Q8" s="564"/>
-      <c r="R8" s="565"/>
-      <c r="S8" s="563" t="s">
+      <c r="Q8" s="608"/>
+      <c r="R8" s="609"/>
+      <c r="S8" s="607" t="s">
         <v>454</v>
       </c>
-      <c r="T8" s="564"/>
-      <c r="U8" s="565"/>
-      <c r="V8" s="569" t="s">
+      <c r="T8" s="608"/>
+      <c r="U8" s="609"/>
+      <c r="V8" s="601" t="s">
         <v>249</v>
       </c>
-      <c r="W8" s="570"/>
-      <c r="X8" s="571"/>
-      <c r="Y8" s="569" t="s">
+      <c r="W8" s="602"/>
+      <c r="X8" s="603"/>
+      <c r="Y8" s="601" t="s">
         <v>425</v>
       </c>
-      <c r="Z8" s="570"/>
-      <c r="AA8" s="571"/>
-      <c r="AB8" s="569" t="s">
+      <c r="Z8" s="602"/>
+      <c r="AA8" s="603"/>
+      <c r="AB8" s="601" t="s">
         <v>231</v>
       </c>
-      <c r="AC8" s="570"/>
-      <c r="AD8" s="571"/>
-      <c r="AE8" s="569" t="s">
+      <c r="AC8" s="602"/>
+      <c r="AD8" s="603"/>
+      <c r="AE8" s="601" t="s">
         <v>566</v>
       </c>
-      <c r="AF8" s="570"/>
-      <c r="AG8" s="571"/>
-      <c r="AH8" s="572" t="s">
+      <c r="AF8" s="602"/>
+      <c r="AG8" s="603"/>
+      <c r="AH8" s="604" t="s">
         <v>567</v>
       </c>
-      <c r="AI8" s="573"/>
-      <c r="AJ8" s="574"/>
+      <c r="AI8" s="605"/>
+      <c r="AJ8" s="606"/>
       <c r="AK8" s="239"/>
       <c r="AL8" s="239"/>
       <c r="AM8" s="239"/>
@@ -42800,19 +42754,19 @@
         <f>注音編碼對照表!C7</f>
         <v>2</v>
       </c>
-      <c r="BL8" s="583" t="str" cm="1">
+      <c r="BL8" s="560" t="str" cm="1">
         <f t="array" ref="BL8" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK8, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄉ</v>
       </c>
-      <c r="BM8" s="584" t="str" cm="1">
+      <c r="BM8" s="561" t="str" cm="1">
         <f t="array" ref="BM8" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK8, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄉ</v>
       </c>
-      <c r="BN8" s="581" t="str" cm="1">
+      <c r="BN8" s="558" t="str" cm="1">
         <f t="array" ref="BN8" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK8, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>t</v>
       </c>
-      <c r="BO8" s="582" t="str" cm="1">
+      <c r="BO8" s="559" t="str" cm="1">
         <f t="array" ref="BO8" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK8, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>t</v>
       </c>
@@ -42838,52 +42792,52 @@
       <c r="A9" s="239"/>
       <c r="B9" s="239"/>
       <c r="C9" s="267"/>
-      <c r="D9" s="579"/>
+      <c r="D9" s="556"/>
       <c r="E9" s="244"/>
       <c r="F9" s="245" t="str">
         <f ca="1">AP20</f>
         <v>-n</v>
       </c>
-      <c r="G9" s="579"/>
+      <c r="G9" s="556"/>
       <c r="H9" s="244"/>
       <c r="I9" s="245"/>
-      <c r="J9" s="579"/>
+      <c r="J9" s="556"/>
       <c r="K9" s="244"/>
       <c r="L9" s="245"/>
-      <c r="M9" s="579"/>
+      <c r="M9" s="556"/>
       <c r="N9" s="244"/>
       <c r="O9" s="245"/>
-      <c r="P9" s="579"/>
+      <c r="P9" s="556"/>
       <c r="Q9" s="244"/>
       <c r="R9" s="245"/>
-      <c r="S9" s="579"/>
+      <c r="S9" s="556"/>
       <c r="T9" s="244"/>
       <c r="U9" s="245"/>
-      <c r="V9" s="585" t="str">
+      <c r="V9" s="562" t="str">
         <f ca="1">AG19</f>
         <v>ㆫ</v>
       </c>
-      <c r="W9" s="588"/>
-      <c r="X9" s="589" t="str">
+      <c r="W9" s="565"/>
+      <c r="X9" s="566" t="str">
         <f ca="1">AG20</f>
         <v>unn</v>
       </c>
-      <c r="Y9" s="585"/>
+      <c r="Y9" s="562"/>
       <c r="Z9" s="252"/>
       <c r="AA9" s="253"/>
-      <c r="AB9" s="585" t="str">
+      <c r="AB9" s="562" t="str">
         <f ca="1">AL19</f>
         <v>ㆯ</v>
       </c>
       <c r="AC9" s="252"/>
-      <c r="AD9" s="590" t="str">
+      <c r="AD9" s="567" t="str">
         <f ca="1">AL20</f>
         <v>aunn</v>
       </c>
-      <c r="AE9" s="585"/>
-      <c r="AF9" s="588"/>
-      <c r="AG9" s="589"/>
-      <c r="AH9" s="585"/>
+      <c r="AE9" s="562"/>
+      <c r="AF9" s="565"/>
+      <c r="AG9" s="566"/>
+      <c r="AH9" s="562"/>
       <c r="AI9" s="252"/>
       <c r="AJ9" s="253"/>
       <c r="AK9" s="239"/>
@@ -42906,19 +42860,19 @@
         <f>注音編碼對照表!C8</f>
         <v>w</v>
       </c>
-      <c r="BL9" s="583" t="str" cm="1">
+      <c r="BL9" s="560" t="str" cm="1">
         <f t="array" ref="BL9" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK9, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄊ</v>
       </c>
-      <c r="BM9" s="584" t="str" cm="1">
+      <c r="BM9" s="561" t="str" cm="1">
         <f t="array" ref="BM9" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK9, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄊ</v>
       </c>
-      <c r="BN9" s="581" t="str" cm="1">
+      <c r="BN9" s="558" t="str" cm="1">
         <f t="array" ref="BN9" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK9, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>tʰ</v>
       </c>
-      <c r="BO9" s="582" t="str" cm="1">
+      <c r="BO9" s="559" t="str" cm="1">
         <f t="array" ref="BO9" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK9, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>th</v>
       </c>
@@ -42944,7 +42898,7 @@
       <c r="A10" s="258"/>
       <c r="B10" s="258"/>
       <c r="C10" s="258"/>
-      <c r="D10" s="580" t="str">
+      <c r="D10" s="557" t="str">
         <f ca="1">G19</f>
         <v>ㄇ</v>
       </c>
@@ -42952,7 +42906,7 @@
       <c r="F10" s="260" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="580" t="str">
+      <c r="G10" s="557" t="str">
         <f ca="1">J19</f>
         <v>ㄋ</v>
       </c>
@@ -42960,7 +42914,7 @@
       <c r="I10" s="260" t="s">
         <v>372</v>
       </c>
-      <c r="J10" s="580" t="str">
+      <c r="J10" s="557" t="str">
         <f ca="1">Q19</f>
         <v>ㄎ</v>
       </c>
@@ -42968,10 +42922,10 @@
       <c r="L10" s="260" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="580"/>
+      <c r="M10" s="557"/>
       <c r="N10" s="259"/>
       <c r="O10" s="260"/>
-      <c r="P10" s="580" t="str">
+      <c r="P10" s="557" t="str">
         <f ca="1">S19</f>
         <v>ㄫ</v>
       </c>
@@ -42980,7 +42934,7 @@
         <f ca="1">S20</f>
         <v>ng-</v>
       </c>
-      <c r="S10" s="580" t="str">
+      <c r="S10" s="557" t="str">
         <f ca="1">M19</f>
         <v>ㄘ</v>
       </c>
@@ -42989,7 +42943,7 @@
         <f ca="1">M20</f>
         <v>c</v>
       </c>
-      <c r="V10" s="586" t="str">
+      <c r="V10" s="563" t="str">
         <f ca="1">V19</f>
         <v>ㄨ</v>
       </c>
@@ -42998,7 +42952,7 @@
         <f ca="1">V20</f>
         <v>u</v>
       </c>
-      <c r="Y10" s="586" t="str">
+      <c r="Y10" s="563" t="str">
         <f ca="1">Y19</f>
         <v>ㄜ</v>
       </c>
@@ -43007,7 +42961,7 @@
         <f ca="1">Y20</f>
         <v>o</v>
       </c>
-      <c r="AB10" s="586" t="str">
+      <c r="AB10" s="563" t="str">
         <f ca="1">AB19</f>
         <v>ㄠ</v>
       </c>
@@ -43016,7 +42970,7 @@
         <f ca="1">AB20</f>
         <v>au</v>
       </c>
-      <c r="AE10" s="586" t="str">
+      <c r="AE10" s="563" t="str">
         <f ca="1">AD19</f>
         <v>ㄤ</v>
       </c>
@@ -43025,7 +42979,7 @@
         <f ca="1">AD20</f>
         <v>ang</v>
       </c>
-      <c r="AH10" s="586"/>
+      <c r="AH10" s="563"/>
       <c r="AI10" s="262"/>
       <c r="AJ10" s="263"/>
       <c r="AK10" s="258"/>
@@ -43048,19 +43002,19 @@
         <f>注音編碼對照表!C9</f>
         <v>s</v>
       </c>
-      <c r="BL10" s="583" t="str" cm="1">
+      <c r="BL10" s="560" t="str" cm="1">
         <f t="array" ref="BL10" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK10, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄋ</v>
       </c>
-      <c r="BM10" s="584" t="str" cm="1">
+      <c r="BM10" s="561" t="str" cm="1">
         <f t="array" ref="BM10" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK10, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄋ</v>
       </c>
-      <c r="BN10" s="581" t="str" cm="1">
+      <c r="BN10" s="558" t="str" cm="1">
         <f t="array" ref="BN10" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK10, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>n</v>
       </c>
-      <c r="BO10" s="582" t="str" cm="1">
+      <c r="BO10" s="559" t="str" cm="1">
         <f t="array" ref="BO10" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK10, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>n</v>
       </c>
@@ -43087,56 +43041,56 @@
       <c r="B11" s="239"/>
       <c r="C11" s="239"/>
       <c r="D11" s="239"/>
-      <c r="E11" s="563" t="s">
+      <c r="E11" s="607" t="s">
         <v>449</v>
       </c>
-      <c r="F11" s="564"/>
-      <c r="G11" s="565"/>
-      <c r="H11" s="563" t="s">
+      <c r="F11" s="608"/>
+      <c r="G11" s="609"/>
+      <c r="H11" s="607" t="s">
         <v>568</v>
       </c>
-      <c r="I11" s="564"/>
-      <c r="J11" s="565"/>
-      <c r="K11" s="563" t="s">
+      <c r="I11" s="608"/>
+      <c r="J11" s="609"/>
+      <c r="K11" s="607" t="s">
         <v>456</v>
       </c>
-      <c r="L11" s="564"/>
-      <c r="M11" s="565"/>
-      <c r="N11" s="563" t="s">
+      <c r="L11" s="608"/>
+      <c r="M11" s="609"/>
+      <c r="N11" s="607" t="s">
         <v>569</v>
       </c>
-      <c r="O11" s="564"/>
-      <c r="P11" s="565"/>
-      <c r="Q11" s="563" t="s">
+      <c r="O11" s="608"/>
+      <c r="P11" s="609"/>
+      <c r="Q11" s="607" t="s">
         <v>144</v>
       </c>
-      <c r="R11" s="564"/>
-      <c r="S11" s="565"/>
-      <c r="T11" s="563" t="s">
+      <c r="R11" s="608"/>
+      <c r="S11" s="609"/>
+      <c r="T11" s="607" t="s">
         <v>570</v>
       </c>
-      <c r="U11" s="564"/>
-      <c r="V11" s="565"/>
-      <c r="W11" s="569" t="s">
+      <c r="U11" s="608"/>
+      <c r="V11" s="609"/>
+      <c r="W11" s="601" t="s">
         <v>525</v>
       </c>
-      <c r="X11" s="570"/>
-      <c r="Y11" s="571"/>
-      <c r="Z11" s="569" t="s">
+      <c r="X11" s="602"/>
+      <c r="Y11" s="603"/>
+      <c r="Z11" s="601" t="s">
         <v>571</v>
       </c>
-      <c r="AA11" s="570"/>
-      <c r="AB11" s="571"/>
-      <c r="AC11" s="569" t="s">
+      <c r="AA11" s="602"/>
+      <c r="AB11" s="603"/>
+      <c r="AC11" s="601" t="s">
         <v>572</v>
       </c>
-      <c r="AD11" s="570"/>
-      <c r="AE11" s="571"/>
-      <c r="AF11" s="572" t="s">
+      <c r="AD11" s="602"/>
+      <c r="AE11" s="603"/>
+      <c r="AF11" s="604" t="s">
         <v>573</v>
       </c>
-      <c r="AG11" s="573"/>
-      <c r="AH11" s="574"/>
+      <c r="AG11" s="605"/>
+      <c r="AH11" s="606"/>
       <c r="AI11" s="239"/>
       <c r="AJ11" s="239"/>
       <c r="AK11" s="239"/>
@@ -43159,19 +43113,19 @@
         <f>注音編碼對照表!C10</f>
         <v>x</v>
       </c>
-      <c r="BL11" s="583" t="str" cm="1">
+      <c r="BL11" s="560" t="str" cm="1">
         <f t="array" ref="BL11" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK11, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄌ</v>
       </c>
-      <c r="BM11" s="584" t="str" cm="1">
+      <c r="BM11" s="561" t="str" cm="1">
         <f t="array" ref="BM11" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK11, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄌ</v>
       </c>
-      <c r="BN11" s="581" t="str" cm="1">
+      <c r="BN11" s="558" t="str" cm="1">
         <f t="array" ref="BN11" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK11, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>l</v>
       </c>
-      <c r="BO11" s="582" t="str" cm="1">
+      <c r="BO11" s="559" t="str" cm="1">
         <f t="array" ref="BO11" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK11, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>l</v>
       </c>
@@ -43198,46 +43152,46 @@
       <c r="B12" s="239"/>
       <c r="C12" s="239"/>
       <c r="D12" s="239"/>
-      <c r="E12" s="579"/>
+      <c r="E12" s="556"/>
       <c r="F12" s="244"/>
       <c r="G12" s="245"/>
-      <c r="H12" s="579"/>
+      <c r="H12" s="556"/>
       <c r="I12" s="244"/>
       <c r="J12" s="245"/>
-      <c r="K12" s="579"/>
+      <c r="K12" s="556"/>
       <c r="L12" s="244"/>
       <c r="M12" s="245"/>
-      <c r="N12" s="579"/>
+      <c r="N12" s="556"/>
       <c r="O12" s="244"/>
       <c r="P12" s="245"/>
-      <c r="Q12" s="579"/>
+      <c r="Q12" s="556"/>
       <c r="R12" s="244"/>
       <c r="S12" s="245"/>
-      <c r="T12" s="579"/>
+      <c r="T12" s="556"/>
       <c r="U12" s="244"/>
       <c r="V12" s="245"/>
-      <c r="W12" s="585" t="str">
+      <c r="W12" s="562" t="str">
         <f ca="1">AM19</f>
         <v>ㆰ</v>
       </c>
-      <c r="X12" s="588"/>
-      <c r="Y12" s="589" t="str">
+      <c r="X12" s="565"/>
+      <c r="Y12" s="566" t="str">
         <f ca="1">AM20</f>
         <v>am</v>
       </c>
-      <c r="Z12" s="585" t="str">
+      <c r="Z12" s="562" t="str">
         <f ca="1">AJ19</f>
         <v>ㆥ</v>
       </c>
       <c r="AA12" s="252"/>
-      <c r="AB12" s="589" t="str">
+      <c r="AB12" s="566" t="str">
         <f ca="1">AJ20</f>
         <v>enn</v>
       </c>
-      <c r="AC12" s="585"/>
+      <c r="AC12" s="562"/>
       <c r="AD12" s="252"/>
       <c r="AE12" s="253"/>
-      <c r="AF12" s="585"/>
+      <c r="AF12" s="562"/>
       <c r="AG12" s="252"/>
       <c r="AH12" s="253"/>
       <c r="AI12" s="239"/>
@@ -43264,19 +43218,19 @@
         <f>注音編碼對照表!C11</f>
         <v>y</v>
       </c>
-      <c r="BL12" s="583" t="str" cm="1">
+      <c r="BL12" s="560" t="str" cm="1">
         <f t="array" ref="BL12" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK12, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄗ</v>
       </c>
-      <c r="BM12" s="584" t="str" cm="1">
+      <c r="BM12" s="561" t="str" cm="1">
         <f t="array" ref="BM12" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK12, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄗ</v>
       </c>
-      <c r="BN12" s="581" t="str" cm="1">
+      <c r="BN12" s="558" t="str" cm="1">
         <f t="array" ref="BN12" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK12, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ts</v>
       </c>
-      <c r="BO12" s="582" t="str" cm="1">
+      <c r="BO12" s="559" t="str" cm="1">
         <f t="array" ref="BO12" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK12, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>z</v>
       </c>
@@ -43303,10 +43257,10 @@
       <c r="B13" s="258"/>
       <c r="C13" s="258"/>
       <c r="D13" s="258"/>
-      <c r="E13" s="580"/>
+      <c r="E13" s="557"/>
       <c r="F13" s="259"/>
       <c r="G13" s="260"/>
-      <c r="H13" s="580" t="str">
+      <c r="H13" s="557" t="str">
         <f ca="1">K19</f>
         <v>ㄌ</v>
       </c>
@@ -43314,7 +43268,7 @@
       <c r="J13" s="260" t="s">
         <v>496</v>
       </c>
-      <c r="K13" s="580" t="str">
+      <c r="K13" s="557" t="str">
         <f ca="1">T19</f>
         <v>ㄏ</v>
       </c>
@@ -43323,10 +43277,10 @@
         <f ca="1">T20</f>
         <v>h</v>
       </c>
-      <c r="N13" s="580"/>
+      <c r="N13" s="557"/>
       <c r="O13" s="259"/>
       <c r="P13" s="260"/>
-      <c r="Q13" s="580" t="str">
+      <c r="Q13" s="557" t="str">
         <f ca="1">N19</f>
         <v>ㆡ</v>
       </c>
@@ -43335,7 +43289,7 @@
         <f ca="1">N20</f>
         <v>j</v>
       </c>
-      <c r="T13" s="580" t="str">
+      <c r="T13" s="557" t="str">
         <f ca="1">O19</f>
         <v>ㄙ</v>
       </c>
@@ -43344,7 +43298,7 @@
         <f ca="1">O20</f>
         <v>s</v>
       </c>
-      <c r="W13" s="586" t="str">
+      <c r="W13" s="563" t="str">
         <f ca="1">AQ19</f>
         <v>ㆬ</v>
       </c>
@@ -43353,7 +43307,7 @@
         <f ca="1">AQ20</f>
         <v>-m</v>
       </c>
-      <c r="Z13" s="586" t="str">
+      <c r="Z13" s="563" t="str">
         <f ca="1">Z19</f>
         <v>ㆤ</v>
       </c>
@@ -43362,7 +43316,7 @@
         <f ca="1">Z20</f>
         <v>e</v>
       </c>
-      <c r="AC13" s="586" t="str">
+      <c r="AC13" s="563" t="str">
         <f ca="1">AR19</f>
         <v>ㄬ</v>
       </c>
@@ -43371,7 +43325,7 @@
         <f ca="1">AR20</f>
         <v>-nn</v>
       </c>
-      <c r="AF13" s="586" t="str">
+      <c r="AF13" s="563" t="str">
         <f ca="1">AO19</f>
         <v>ㆭ</v>
       </c>
@@ -43403,19 +43357,19 @@
         <f>注音編碼對照表!C12</f>
         <v>h</v>
       </c>
-      <c r="BL13" s="583" t="str" cm="1">
+      <c r="BL13" s="560" t="str" cm="1">
         <f t="array" ref="BL13" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK13, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄘ</v>
       </c>
-      <c r="BM13" s="584" t="str" cm="1">
+      <c r="BM13" s="561" t="str" cm="1">
         <f t="array" ref="BM13" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK13, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄘ</v>
       </c>
-      <c r="BN13" s="581" t="str" cm="1">
+      <c r="BN13" s="558" t="str" cm="1">
         <f t="array" ref="BN13" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK13, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ʦʰ</v>
       </c>
-      <c r="BO13" s="582" t="str" cm="1">
+      <c r="BO13" s="559" t="str" cm="1">
         <f t="array" ref="BO13" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK13, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>c</v>
       </c>
@@ -43447,19 +43401,19 @@
         <f>注音編碼對照表!C13</f>
         <v>b</v>
       </c>
-      <c r="BL14" s="583" t="str" cm="1">
+      <c r="BL14" s="560" t="str" cm="1">
         <f t="array" ref="BL14" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK14, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆡ</v>
       </c>
-      <c r="BM14" s="584" t="str" cm="1">
+      <c r="BM14" s="561" t="str" cm="1">
         <f t="array" ref="BM14" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK14, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆡ</v>
       </c>
-      <c r="BN14" s="581" t="str" cm="1">
+      <c r="BN14" s="558" t="str" cm="1">
         <f t="array" ref="BN14" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK14, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ʣ</v>
       </c>
-      <c r="BO14" s="582" t="str" cm="1">
+      <c r="BO14" s="559" t="str" cm="1">
         <f t="array" ref="BO14" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK14, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>j</v>
       </c>
@@ -43549,19 +43503,19 @@
         <f>注音編碼對照表!C14</f>
         <v>n</v>
       </c>
-      <c r="BL15" s="583" t="str" cm="1">
+      <c r="BL15" s="560" t="str" cm="1">
         <f t="array" ref="BL15" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK15, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄙ</v>
       </c>
-      <c r="BM15" s="584" t="str" cm="1">
+      <c r="BM15" s="561" t="str" cm="1">
         <f t="array" ref="BM15" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK15, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄙ</v>
       </c>
-      <c r="BN15" s="581" t="str" cm="1">
+      <c r="BN15" s="558" t="str" cm="1">
         <f t="array" ref="BN15" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK15, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>s</v>
       </c>
-      <c r="BO15" s="582" t="str" cm="1">
+      <c r="BO15" s="559" t="str" cm="1">
         <f t="array" ref="BO15" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK15, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>s</v>
       </c>
@@ -43794,19 +43748,19 @@
         <f>注音編碼對照表!C15</f>
         <v>e</v>
       </c>
-      <c r="BL16" s="583" t="str" cm="1">
+      <c r="BL16" s="560" t="str" cm="1">
         <f t="array" ref="BL16" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK16, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄍ</v>
       </c>
-      <c r="BM16" s="584" t="str" cm="1">
+      <c r="BM16" s="561" t="str" cm="1">
         <f t="array" ref="BM16" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK16, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄍ</v>
       </c>
-      <c r="BN16" s="581" t="str" cm="1">
+      <c r="BN16" s="558" t="str" cm="1">
         <f t="array" ref="BN16" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK16, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>k</v>
       </c>
-      <c r="BO16" s="582" t="str" cm="1">
+      <c r="BO16" s="559" t="str" cm="1">
         <f t="array" ref="BO16" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK16, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>k</v>
       </c>
@@ -44039,19 +43993,19 @@
         <f>注音編碼對照表!C16</f>
         <v>d</v>
       </c>
-      <c r="BL17" s="583" t="str" cm="1">
+      <c r="BL17" s="560" t="str" cm="1">
         <f t="array" ref="BL17" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK17, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄎ</v>
       </c>
-      <c r="BM17" s="584" t="str" cm="1">
+      <c r="BM17" s="561" t="str" cm="1">
         <f t="array" ref="BM17" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK17, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄎ</v>
       </c>
-      <c r="BN17" s="581" t="str" cm="1">
+      <c r="BN17" s="558" t="str" cm="1">
         <f t="array" ref="BN17" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK17, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>kʰ</v>
       </c>
-      <c r="BO17" s="582" t="str" cm="1">
+      <c r="BO17" s="559" t="str" cm="1">
         <f t="array" ref="BO17" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK17, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>kh</v>
       </c>
@@ -44284,19 +44238,19 @@
         <f>注音編碼對照表!C17</f>
         <v>E</v>
       </c>
-      <c r="BL18" s="583" t="str" cm="1">
+      <c r="BL18" s="560" t="str" cm="1">
         <f t="array" ref="BL18" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK18, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆣ</v>
       </c>
-      <c r="BM18" s="584" t="str" cm="1">
+      <c r="BM18" s="561" t="str" cm="1">
         <f t="array" ref="BM18" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK18, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆣ</v>
       </c>
-      <c r="BN18" s="581" t="str" cm="1">
+      <c r="BN18" s="558" t="str" cm="1">
         <f t="array" ref="BN18" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK18, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>g</v>
       </c>
-      <c r="BO18" s="582" t="str" cm="1">
+      <c r="BO18" s="559" t="str" cm="1">
         <f t="array" ref="BO18" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK18, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>g</v>
       </c>
@@ -44529,19 +44483,19 @@
         <f>注音編碼對照表!C18</f>
         <v>g</v>
       </c>
-      <c r="BL19" s="583" t="str" cm="1">
+      <c r="BL19" s="560" t="str" cm="1">
         <f t="array" ref="BL19" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK19, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄫ</v>
       </c>
-      <c r="BM19" s="584" t="str" cm="1">
+      <c r="BM19" s="561" t="str" cm="1">
         <f t="array" ref="BM19" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK19, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄫ</v>
       </c>
-      <c r="BN19" s="581" t="str" cm="1">
+      <c r="BN19" s="558" t="str" cm="1">
         <f t="array" ref="BN19" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK19, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ŋ</v>
       </c>
-      <c r="BO19" s="582" t="str" cm="1">
+      <c r="BO19" s="559" t="str" cm="1">
         <f t="array" ref="BO19" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK19, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ng-</v>
       </c>
@@ -44765,19 +44719,19 @@
         <f>注音編碼對照表!C19</f>
         <v>c</v>
       </c>
-      <c r="BL20" s="583" t="str" cm="1">
+      <c r="BL20" s="560" t="str" cm="1">
         <f t="array" ref="BL20" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK20, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄏ</v>
       </c>
-      <c r="BM20" s="584" t="str" cm="1">
+      <c r="BM20" s="561" t="str" cm="1">
         <f t="array" ref="BM20" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK20, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄏ</v>
       </c>
-      <c r="BN20" s="581" t="str" cm="1">
+      <c r="BN20" s="558" t="str" cm="1">
         <f t="array" ref="BN20" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK20, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>h</v>
       </c>
-      <c r="BO20" s="582" t="str" cm="1">
+      <c r="BO20" s="559" t="str" cm="1">
         <f t="array" ref="BO20" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK20, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>h</v>
       </c>
@@ -45009,19 +44963,19 @@
         <f>注音編碼對照表!C20</f>
         <v>u</v>
       </c>
-      <c r="BL21" s="583" t="str" cm="1">
+      <c r="BL21" s="560" t="str" cm="1">
         <f t="array" ref="BL21" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK21, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄧ</v>
       </c>
-      <c r="BM21" s="584" t="str" cm="1">
+      <c r="BM21" s="561" t="str" cm="1">
         <f t="array" ref="BM21" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK21, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄧ</v>
       </c>
-      <c r="BN21" s="581" t="str" cm="1">
+      <c r="BN21" s="558" t="str" cm="1">
         <f t="array" ref="BN21" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK21, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>i</v>
       </c>
-      <c r="BO21" s="582" t="str" cm="1">
+      <c r="BO21" s="559" t="str" cm="1">
         <f t="array" ref="BO21" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK21, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>i</v>
       </c>
@@ -45107,19 +45061,19 @@
         <f>注音編碼對照表!C21</f>
         <v>j</v>
       </c>
-      <c r="BL22" s="583" t="str" cm="1">
+      <c r="BL22" s="560" t="str" cm="1">
         <f t="array" ref="BL22" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK22, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄨ</v>
       </c>
-      <c r="BM22" s="584" t="str" cm="1">
+      <c r="BM22" s="561" t="str" cm="1">
         <f t="array" ref="BM22" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK22, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄨ</v>
       </c>
-      <c r="BN22" s="581" t="str" cm="1">
+      <c r="BN22" s="558" t="str" cm="1">
         <f t="array" ref="BN22" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK22, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>u</v>
       </c>
-      <c r="BO22" s="582" t="str" cm="1">
+      <c r="BO22" s="559" t="str" cm="1">
         <f t="array" ref="BO22" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK22, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>u</v>
       </c>
@@ -45194,19 +45148,19 @@
         <f>注音編碼對照表!C22</f>
         <v>8</v>
       </c>
-      <c r="BL23" s="583" t="str" cm="1">
+      <c r="BL23" s="560" t="str" cm="1">
         <f t="array" ref="BL23" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK23, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄚ</v>
       </c>
-      <c r="BM23" s="584" t="str" cm="1">
+      <c r="BM23" s="561" t="str" cm="1">
         <f t="array" ref="BM23" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK23, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄚ</v>
       </c>
-      <c r="BN23" s="581" t="str" cm="1">
+      <c r="BN23" s="558" t="str" cm="1">
         <f t="array" ref="BN23" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK23, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>a</v>
       </c>
-      <c r="BO23" s="582" t="str" cm="1">
+      <c r="BO23" s="559" t="str" cm="1">
         <f t="array" ref="BO23" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK23, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>a</v>
       </c>
@@ -45299,25 +45253,25 @@
         <f>注音編碼對照表!C23</f>
         <v>i</v>
       </c>
-      <c r="BL24" s="583" t="str" cm="1">
+      <c r="BL24" s="560" t="str" cm="1">
         <f t="array" ref="BL24" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK24, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆦ</v>
       </c>
-      <c r="BM24" s="584" t="str" cm="1">
+      <c r="BM24" s="561" t="str" cm="1">
         <f t="array" ref="BM24" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK24, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆦ</v>
       </c>
-      <c r="BN24" s="581" t="str" cm="1">
+      <c r="BN24" s="558" t="str" cm="1">
         <f t="array" ref="BN24" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK24, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ɔ</v>
       </c>
-      <c r="BO24" s="582" t="str" cm="1">
+      <c r="BO24" s="559" t="str" cm="1">
         <f t="array" ref="BO24" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK24, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>oo</v>
       </c>
       <c r="BP24" s="111"/>
       <c r="BR24" s="265" t="str">
-        <f t="shared" ref="BR24:BR75" si="5" xml:space="preserve"> """" &amp; BK24 &amp; """: { commit: """ &amp; BL24 &amp; """ }"</f>
+        <f t="shared" ref="BR24:BR55" si="5" xml:space="preserve"> """" &amp; BK24 &amp; """: { commit: """ &amp; BL24 &amp; """ }"</f>
         <v>"i": { commit: "ㆦ" }</v>
       </c>
       <c r="BT24" s="195">
@@ -45325,11 +45279,11 @@
         <v>20</v>
       </c>
       <c r="BU24" s="266" t="str">
-        <f t="shared" ref="BU24:BU74" si="7" xml:space="preserve"> "- xform/" &amp; BN24 &amp; "/" &amp; BK24 &amp; "/"</f>
+        <f t="shared" ref="BU24:BU55" si="7" xml:space="preserve"> "- xform/" &amp; BN24 &amp; "/" &amp; BK24 &amp; "/"</f>
         <v>- xform/ɔ/i/</v>
       </c>
       <c r="BW24" s="266" t="str">
-        <f t="shared" ref="BW24:BW74" si="8" xml:space="preserve"> "- xform/" &amp; BK24 &amp; "/" &amp; BL24 &amp; "/"</f>
+        <f t="shared" ref="BW24:BW55" si="8" xml:space="preserve"> "- xform/" &amp; BK24 &amp; "/" &amp; BL24 &amp; "/"</f>
         <v>- xform/i/ㆦ/</v>
       </c>
     </row>
@@ -45406,19 +45360,19 @@
         <f>注音編碼對照表!C24</f>
         <v>k</v>
       </c>
-      <c r="BL25" s="583" t="str" cm="1">
+      <c r="BL25" s="560" t="str" cm="1">
         <f t="array" ref="BL25" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK25, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄜ</v>
       </c>
-      <c r="BM25" s="584" t="str" cm="1">
+      <c r="BM25" s="561" t="str" cm="1">
         <f t="array" ref="BM25" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK25, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄜ</v>
       </c>
-      <c r="BN25" s="581" t="str" cm="1">
+      <c r="BN25" s="558" t="str" cm="1">
         <f t="array" ref="BN25" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK25, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ə</v>
       </c>
-      <c r="BO25" s="582" t="str" cm="1">
+      <c r="BO25" s="559" t="str" cm="1">
         <f t="array" ref="BO25" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK25, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>o</v>
       </c>
@@ -45517,19 +45471,19 @@
         <f>注音編碼對照表!C25</f>
         <v>,</v>
       </c>
-      <c r="BL26" s="583" t="str" cm="1">
+      <c r="BL26" s="560" t="str" cm="1">
         <f t="array" ref="BL26" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK26, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆤ</v>
       </c>
-      <c r="BM26" s="584" t="str" cm="1">
+      <c r="BM26" s="561" t="str" cm="1">
         <f t="array" ref="BM26" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK26, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆤ</v>
       </c>
-      <c r="BN26" s="581" t="str" cm="1">
+      <c r="BN26" s="558" t="str" cm="1">
         <f t="array" ref="BN26" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK26, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>e</v>
       </c>
-      <c r="BO26" s="582" t="str" cm="1">
+      <c r="BO26" s="559" t="str" cm="1">
         <f t="array" ref="BO26" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK26, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>e</v>
       </c>
@@ -45639,19 +45593,19 @@
         <f>注音編碼對照表!C26</f>
         <v>9</v>
       </c>
-      <c r="BL27" s="583" t="str" cm="1">
+      <c r="BL27" s="560" t="str" cm="1">
         <f t="array" ref="BL27" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK27, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄞ</v>
       </c>
-      <c r="BM27" s="584" t="str" cm="1">
+      <c r="BM27" s="561" t="str" cm="1">
         <f t="array" ref="BM27" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK27, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄞ</v>
       </c>
-      <c r="BN27" s="581" t="str" cm="1">
+      <c r="BN27" s="558" t="str" cm="1">
         <f t="array" ref="BN27" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK27, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ai̯</v>
       </c>
-      <c r="BO27" s="582" t="str" cm="1">
+      <c r="BO27" s="559" t="str" cm="1">
         <f t="array" ref="BO27" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK27, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ai</v>
       </c>
@@ -45757,19 +45711,19 @@
         <f>注音編碼對照表!C27</f>
         <v>l</v>
       </c>
-      <c r="BL28" s="583" t="str" cm="1">
+      <c r="BL28" s="560" t="str" cm="1">
         <f t="array" ref="BL28" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK28, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄠ</v>
       </c>
-      <c r="BM28" s="584" t="str" cm="1">
+      <c r="BM28" s="561" t="str" cm="1">
         <f t="array" ref="BM28" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK28, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄠ</v>
       </c>
-      <c r="BN28" s="581" t="str" cm="1">
+      <c r="BN28" s="558" t="str" cm="1">
         <f t="array" ref="BN28" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK28, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ɑu̯</v>
       </c>
-      <c r="BO28" s="582" t="str" cm="1">
+      <c r="BO28" s="559" t="str" cm="1">
         <f t="array" ref="BO28" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK28, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>au</v>
       </c>
@@ -45864,19 +45818,19 @@
         <f>注音編碼對照表!C28</f>
         <v>0</v>
       </c>
-      <c r="BL29" s="583" t="str" cm="1">
+      <c r="BL29" s="560" t="str" cm="1">
         <f t="array" ref="BL29" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK29, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄢ</v>
       </c>
-      <c r="BM29" s="584" t="str" cm="1">
+      <c r="BM29" s="561" t="str" cm="1">
         <f t="array" ref="BM29" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK29, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄢ</v>
       </c>
-      <c r="BN29" s="581" t="str" cm="1">
+      <c r="BN29" s="558" t="str" cm="1">
         <f t="array" ref="BN29" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK29, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>an</v>
       </c>
-      <c r="BO29" s="582" t="str" cm="1">
+      <c r="BO29" s="559" t="str" cm="1">
         <f t="array" ref="BO29" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK29, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>an</v>
       </c>
@@ -45971,19 +45925,19 @@
         <f>注音編碼對照表!C29</f>
         <v>;</v>
       </c>
-      <c r="BL30" s="583" t="str" cm="1">
+      <c r="BL30" s="560" t="str" cm="1">
         <f t="array" ref="BL30" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK30, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄤ</v>
       </c>
-      <c r="BM30" s="584" t="str" cm="1">
+      <c r="BM30" s="561" t="str" cm="1">
         <f t="array" ref="BM30" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK30, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄤ</v>
       </c>
-      <c r="BN30" s="581" t="str" cm="1">
+      <c r="BN30" s="558" t="str" cm="1">
         <f t="array" ref="BN30" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK30, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ɑŋ</v>
       </c>
-      <c r="BO30" s="582" t="str" cm="1">
+      <c r="BO30" s="559" t="str" cm="1">
         <f t="array" ref="BO30" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK30, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ang</v>
       </c>
@@ -46075,19 +46029,19 @@
         <f>注音編碼對照表!C30</f>
         <v>-</v>
       </c>
-      <c r="BL31" s="583" t="str" cm="1">
+      <c r="BL31" s="560" t="str" cm="1">
         <f t="array" ref="BL31" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK31, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆨ</v>
       </c>
-      <c r="BM31" s="584" t="str" cm="1">
+      <c r="BM31" s="561" t="str" cm="1">
         <f t="array" ref="BM31" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK31, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆨ</v>
       </c>
-      <c r="BN31" s="581" t="str" cm="1">
+      <c r="BN31" s="558" t="str" cm="1">
         <f t="array" ref="BN31" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK31, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ɨ</v>
       </c>
-      <c r="BO31" s="582" t="str" cm="1">
+      <c r="BO31" s="559" t="str" cm="1">
         <f t="array" ref="BO31" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK31, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ir</v>
       </c>
@@ -46144,19 +46098,19 @@
         <f>注音編碼對照表!C31</f>
         <v>U</v>
       </c>
-      <c r="BL32" s="583" t="str" cm="1">
+      <c r="BL32" s="560" t="str" cm="1">
         <f t="array" ref="BL32" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK32, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆪ</v>
       </c>
-      <c r="BM32" s="584" t="str" cm="1">
+      <c r="BM32" s="561" t="str" cm="1">
         <f t="array" ref="BM32" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK32, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆪ</v>
       </c>
-      <c r="BN32" s="581" t="str" cm="1">
+      <c r="BN32" s="558" t="str" cm="1">
         <f t="array" ref="BN32" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK32, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ĩ</v>
       </c>
-      <c r="BO32" s="582" t="str" cm="1">
+      <c r="BO32" s="559" t="str" cm="1">
         <f t="array" ref="BO32" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK32, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>inn</v>
       </c>
@@ -46247,19 +46201,19 @@
         <f>注音編碼對照表!C32</f>
         <v>J</v>
       </c>
-      <c r="BL33" s="583" t="str" cm="1">
+      <c r="BL33" s="560" t="str" cm="1">
         <f t="array" ref="BL33" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK33, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆫ</v>
       </c>
-      <c r="BM33" s="584" t="str" cm="1">
+      <c r="BM33" s="561" t="str" cm="1">
         <f t="array" ref="BM33" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK33, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆫ</v>
       </c>
-      <c r="BN33" s="581" t="str" cm="1">
+      <c r="BN33" s="558" t="str" cm="1">
         <f t="array" ref="BN33" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK33, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ũ</v>
       </c>
-      <c r="BO33" s="582" t="str" cm="1">
+      <c r="BO33" s="559" t="str" cm="1">
         <f t="array" ref="BO33" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK33, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>unn</v>
       </c>
@@ -46351,19 +46305,19 @@
         <f>注音編碼對照表!C33</f>
         <v>*</v>
       </c>
-      <c r="BL34" s="583" t="str" cm="1">
+      <c r="BL34" s="560" t="str" cm="1">
         <f t="array" ref="BL34" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK34, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆩ</v>
       </c>
-      <c r="BM34" s="584" t="str" cm="1">
+      <c r="BM34" s="561" t="str" cm="1">
         <f t="array" ref="BM34" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK34, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆩ</v>
       </c>
-      <c r="BN34" s="581" t="str" cm="1">
+      <c r="BN34" s="558" t="str" cm="1">
         <f t="array" ref="BN34" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK34, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ã</v>
       </c>
-      <c r="BO34" s="582" t="str" cm="1">
+      <c r="BO34" s="559" t="str" cm="1">
         <f t="array" ref="BO34" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK34, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ann</v>
       </c>
@@ -46461,19 +46415,19 @@
         <f>注音編碼對照表!C34</f>
         <v>I</v>
       </c>
-      <c r="BL35" s="583" t="str" cm="1">
+      <c r="BL35" s="560" t="str" cm="1">
         <f t="array" ref="BL35" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK35, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆧ</v>
       </c>
-      <c r="BM35" s="584" t="str" cm="1">
+      <c r="BM35" s="561" t="str" cm="1">
         <f t="array" ref="BM35" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK35, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆧ</v>
       </c>
-      <c r="BN35" s="581" t="str" cm="1">
+      <c r="BN35" s="558" t="str" cm="1">
         <f t="array" ref="BN35" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK35, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ɔ̃</v>
       </c>
-      <c r="BO35" s="582" t="str" cm="1">
+      <c r="BO35" s="559" t="str" cm="1">
         <f t="array" ref="BO35" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK35, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>onn</v>
       </c>
@@ -46581,19 +46535,19 @@
         <f>注音編碼對照表!C35</f>
         <v>&lt;</v>
       </c>
-      <c r="BL36" s="583" t="str" cm="1">
+      <c r="BL36" s="560" t="str" cm="1">
         <f t="array" ref="BL36" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK36, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆥ</v>
       </c>
-      <c r="BM36" s="584" t="str" cm="1">
+      <c r="BM36" s="561" t="str" cm="1">
         <f t="array" ref="BM36" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK36, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆥ</v>
       </c>
-      <c r="BN36" s="581" t="str" cm="1">
+      <c r="BN36" s="558" t="str" cm="1">
         <f t="array" ref="BN36" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK36, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ẽ</v>
       </c>
-      <c r="BO36" s="582" t="str" cm="1">
+      <c r="BO36" s="559" t="str" cm="1">
         <f t="array" ref="BO36" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK36, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>enn</v>
       </c>
@@ -46701,19 +46655,19 @@
         <f>注音編碼對照表!C36</f>
         <v>(</v>
       </c>
-      <c r="BL37" s="583" t="str" cm="1">
+      <c r="BL37" s="560" t="str" cm="1">
         <f t="array" ref="BL37" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK37, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆮ</v>
       </c>
-      <c r="BM37" s="584" t="str" cm="1">
+      <c r="BM37" s="561" t="str" cm="1">
         <f t="array" ref="BM37" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK37, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆮ</v>
       </c>
-      <c r="BN37" s="581" t="str" cm="1">
+      <c r="BN37" s="558" t="str" cm="1">
         <f t="array" ref="BN37" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK37, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ãĩ</v>
       </c>
-      <c r="BO37" s="582" t="str" cm="1">
+      <c r="BO37" s="559" t="str" cm="1">
         <f t="array" ref="BO37" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK37, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ainn</v>
       </c>
@@ -46818,19 +46772,19 @@
         <f>注音編碼對照表!C37</f>
         <v>L</v>
       </c>
-      <c r="BL38" s="583" t="str" cm="1">
+      <c r="BL38" s="560" t="str" cm="1">
         <f t="array" ref="BL38" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK38, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆯ</v>
       </c>
-      <c r="BM38" s="584" t="str" cm="1">
+      <c r="BM38" s="561" t="str" cm="1">
         <f t="array" ref="BM38" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK38, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆯ</v>
       </c>
-      <c r="BN38" s="581" t="str" cm="1">
+      <c r="BN38" s="558" t="str" cm="1">
         <f t="array" ref="BN38" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK38, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ãũ</v>
       </c>
-      <c r="BO38" s="582" t="str" cm="1">
+      <c r="BO38" s="559" t="str" cm="1">
         <f t="array" ref="BO38" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK38, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>aunn</v>
       </c>
@@ -46944,19 +46898,19 @@
         <f>注音編碼對照表!C38</f>
         <v>M</v>
       </c>
-      <c r="BL39" s="583" t="str" cm="1">
+      <c r="BL39" s="560" t="str" cm="1">
         <f t="array" ref="BL39" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK39, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆰ</v>
       </c>
-      <c r="BM39" s="584" t="str" cm="1">
+      <c r="BM39" s="561" t="str" cm="1">
         <f t="array" ref="BM39" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK39, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆰ</v>
       </c>
-      <c r="BN39" s="581" t="str" cm="1">
+      <c r="BN39" s="558" t="str" cm="1">
         <f t="array" ref="BN39" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK39, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>am</v>
       </c>
-      <c r="BO39" s="582" t="str" cm="1">
+      <c r="BO39" s="559" t="str" cm="1">
         <f t="array" ref="BO39" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK39, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>am</v>
       </c>
@@ -47070,19 +47024,19 @@
         <f>注音編碼對照表!C39</f>
         <v>o</v>
       </c>
-      <c r="BL40" s="583" t="str" cm="1">
+      <c r="BL40" s="560" t="str" cm="1">
         <f t="array" ref="BL40" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK40, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆲ</v>
       </c>
-      <c r="BM40" s="584" t="str" cm="1">
+      <c r="BM40" s="561" t="str" cm="1">
         <f t="array" ref="BM40" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK40, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆲ</v>
       </c>
-      <c r="BN40" s="581" t="str" cm="1">
+      <c r="BN40" s="558" t="str" cm="1">
         <f t="array" ref="BN40" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK40, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ɔŋ</v>
       </c>
-      <c r="BO40" s="582" t="str" cm="1">
+      <c r="BO40" s="559" t="str" cm="1">
         <f t="array" ref="BO40" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK40, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ong</v>
       </c>
@@ -47175,19 +47129,19 @@
         <f>注音編碼對照表!C40</f>
         <v>/</v>
       </c>
-      <c r="BL41" s="583" t="str" cm="1">
+      <c r="BL41" s="560" t="str" cm="1">
         <f t="array" ref="BL41" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK41, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆭ</v>
       </c>
-      <c r="BM41" s="584" t="str" cm="1">
+      <c r="BM41" s="561" t="str" cm="1">
         <f t="array" ref="BM41" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK41, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆭ</v>
       </c>
-      <c r="BN41" s="581" t="str" cm="1">
+      <c r="BN41" s="558" t="str" cm="1">
         <f t="array" ref="BN41" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK41, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ŋ̍</v>
       </c>
-      <c r="BO41" s="582" t="str" cm="1">
+      <c r="BO41" s="559" t="str" cm="1">
         <f t="array" ref="BO41" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK41, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>-ng</v>
       </c>
@@ -47248,19 +47202,19 @@
         <f>注音編碼對照表!C41</f>
         <v>p</v>
       </c>
-      <c r="BL42" s="583" t="str" cm="1">
+      <c r="BL42" s="560" t="str" cm="1">
         <f t="array" ref="BL42" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK42, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄣ</v>
       </c>
-      <c r="BM42" s="584" t="str" cm="1">
+      <c r="BM42" s="561" t="str" cm="1">
         <f t="array" ref="BM42" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK42, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄣ</v>
       </c>
-      <c r="BN42" s="581" t="str" cm="1">
+      <c r="BN42" s="558" t="str" cm="1">
         <f t="array" ref="BN42" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK42, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>n</v>
       </c>
-      <c r="BO42" s="582" t="str" cm="1">
+      <c r="BO42" s="559" t="str" cm="1">
         <f t="array" ref="BO42" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK42, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>-n</v>
       </c>
@@ -47356,19 +47310,19 @@
         <f>注音編碼對照表!C42</f>
         <v>m</v>
       </c>
-      <c r="BL43" s="583" t="str" cm="1">
+      <c r="BL43" s="560" t="str" cm="1">
         <f t="array" ref="BL43" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK43, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆬ</v>
       </c>
-      <c r="BM43" s="584" t="str" cm="1">
+      <c r="BM43" s="561" t="str" cm="1">
         <f t="array" ref="BM43" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK43, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆬ</v>
       </c>
-      <c r="BN43" s="581" t="str" cm="1">
+      <c r="BN43" s="558" t="str" cm="1">
         <f t="array" ref="BN43" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK43, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>m̩</v>
       </c>
-      <c r="BO43" s="582" t="str" cm="1">
+      <c r="BO43" s="559" t="str" cm="1">
         <f t="array" ref="BO43" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK43, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>-m</v>
       </c>
@@ -47477,19 +47431,19 @@
         <f>注音編碼對照表!C43</f>
         <v>.</v>
       </c>
-      <c r="BL44" s="583" t="str" cm="1">
+      <c r="BL44" s="560" t="str" cm="1">
         <f t="array" ref="BL44" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK44, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄬ</v>
       </c>
-      <c r="BM44" s="584" t="str" cm="1">
+      <c r="BM44" s="561" t="str" cm="1">
         <f t="array" ref="BM44" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK44, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄬ</v>
       </c>
-      <c r="BN44" s="581" t="str" cm="1">
+      <c r="BN44" s="558" t="str" cm="1">
         <f t="array" ref="BN44" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK44, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ɲ</v>
       </c>
-      <c r="BO44" s="582" t="str" cm="1">
+      <c r="BO44" s="559" t="str" cm="1">
         <f t="array" ref="BO44" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK44, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>-nn</v>
       </c>
@@ -47583,19 +47537,19 @@
         <f>注音編碼對照表!C44</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BL45" s="583" t="str" cm="1">
+      <c r="BL45" s="560" t="str" cm="1">
         <f t="array" ref="BL45" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK45, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ˉ</v>
       </c>
-      <c r="BM45" s="584" t="str" cm="1">
+      <c r="BM45" s="561" t="str" cm="1">
         <f t="array" ref="BM45" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK45, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ˉ</v>
       </c>
-      <c r="BN45" s="581" cm="1">
+      <c r="BN45" s="558" cm="1">
         <f t="array" ref="BN45" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK45, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>0</v>
       </c>
-      <c r="BO45" s="582" cm="1">
+      <c r="BO45" s="559" cm="1">
         <f t="array" ref="BO45" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK45, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>1</v>
       </c>
@@ -47671,19 +47625,19 @@
         <f>注音編碼對照表!C45</f>
         <v>4</v>
       </c>
-      <c r="BL46" s="583" t="str" cm="1">
+      <c r="BL46" s="560" t="str" cm="1">
         <f t="array" ref="BL46" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK46, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ˋ</v>
       </c>
-      <c r="BM46" s="584" t="str" cm="1">
+      <c r="BM46" s="561" t="str" cm="1">
         <f t="array" ref="BM46" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK46, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ˋ</v>
       </c>
-      <c r="BN46" s="581" cm="1">
+      <c r="BN46" s="558" cm="1">
         <f t="array" ref="BN46" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK46, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>0</v>
       </c>
-      <c r="BO46" s="582" cm="1">
+      <c r="BO46" s="559" cm="1">
         <f t="array" ref="BO46" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK46, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>2</v>
       </c>
@@ -47754,19 +47708,19 @@
         <f>注音編碼對照表!C46</f>
         <v>3</v>
       </c>
-      <c r="BL47" s="583" t="str" cm="1">
+      <c r="BL47" s="560" t="str" cm="1">
         <f t="array" ref="BL47" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK47, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>˪</v>
       </c>
-      <c r="BM47" s="584" t="str" cm="1">
+      <c r="BM47" s="561" t="str" cm="1">
         <f t="array" ref="BM47" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK47, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>˪</v>
       </c>
-      <c r="BN47" s="581" cm="1">
+      <c r="BN47" s="558" cm="1">
         <f t="array" ref="BN47" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK47, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>0</v>
       </c>
-      <c r="BO47" s="582" cm="1">
+      <c r="BO47" s="559" cm="1">
         <f t="array" ref="BO47" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK47, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>3</v>
       </c>
@@ -47834,19 +47788,19 @@
         <f>注音編碼對照表!C47</f>
         <v>6</v>
       </c>
-      <c r="BL48" s="583" t="str" cm="1">
+      <c r="BL48" s="560" t="str" cm="1">
         <f t="array" ref="BL48" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK48, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ˊ</v>
       </c>
-      <c r="BM48" s="584" t="str" cm="1">
+      <c r="BM48" s="561" t="str" cm="1">
         <f t="array" ref="BM48" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK48, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ˊ</v>
       </c>
-      <c r="BN48" s="581" cm="1">
+      <c r="BN48" s="558" cm="1">
         <f t="array" ref="BN48" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK48, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>0</v>
       </c>
-      <c r="BO48" s="582" cm="1">
+      <c r="BO48" s="559" cm="1">
         <f t="array" ref="BO48" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK48, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>5</v>
       </c>
@@ -47914,19 +47868,19 @@
         <f>注音編碼對照表!C48</f>
         <v>5</v>
       </c>
-      <c r="BL49" s="583" t="str" cm="1">
+      <c r="BL49" s="560" t="str" cm="1">
         <f t="array" ref="BL49" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK49, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>˫</v>
       </c>
-      <c r="BM49" s="584" t="str" cm="1">
+      <c r="BM49" s="561" t="str" cm="1">
         <f t="array" ref="BM49" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK49, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>˫</v>
       </c>
-      <c r="BN49" s="581" cm="1">
+      <c r="BN49" s="558" cm="1">
         <f t="array" ref="BN49" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK49, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>0</v>
       </c>
-      <c r="BO49" s="582" cm="1">
+      <c r="BO49" s="559" cm="1">
         <f t="array" ref="BO49" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK49, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>7</v>
       </c>
@@ -47966,19 +47920,19 @@
         <f>注音編碼對照表!C49</f>
         <v>7</v>
       </c>
-      <c r="BL50" s="583" t="str" cm="1">
+      <c r="BL50" s="560" t="str" cm="1">
         <f t="array" ref="BL50" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK50, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>˙</v>
       </c>
-      <c r="BM50" s="584" t="str" cm="1">
+      <c r="BM50" s="561" t="str" cm="1">
         <f t="array" ref="BM50" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(方音鍵盤!$BK50, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>˙</v>
       </c>
-      <c r="BN50" s="581" cm="1">
+      <c r="BN50" s="558" cm="1">
         <f t="array" ref="BN50" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(方音鍵盤!$BK50, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>0</v>
       </c>
-      <c r="BO50" s="582" t="str" cm="1">
+      <c r="BO50" s="559" t="str" cm="1">
         <f t="array" ref="BO50" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(方音鍵盤!$BK50, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>[48]</v>
       </c>
@@ -48921,17 +48875,30 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
     <mergeCell ref="T11:V11"/>
     <mergeCell ref="W11:Y11"/>
     <mergeCell ref="AJ5:AL5"/>
@@ -48948,30 +48915,17 @@
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="X5:Z5"/>
     <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49060,66 +49014,66 @@
     </row>
     <row r="2" spans="1:75" s="147" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="239"/>
-      <c r="B2" s="563" t="s">
+      <c r="B2" s="607" t="s">
         <v>539</v>
       </c>
-      <c r="C2" s="564"/>
-      <c r="D2" s="565"/>
-      <c r="E2" s="563" t="s">
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="607" t="s">
         <v>540</v>
       </c>
-      <c r="F2" s="564"/>
-      <c r="G2" s="565"/>
-      <c r="H2" s="560" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="614" t="s">
         <v>541</v>
       </c>
-      <c r="I2" s="561"/>
-      <c r="J2" s="562"/>
-      <c r="K2" s="560" t="s">
+      <c r="I2" s="615"/>
+      <c r="J2" s="616"/>
+      <c r="K2" s="614" t="s">
         <v>542</v>
       </c>
-      <c r="L2" s="561"/>
-      <c r="M2" s="562"/>
-      <c r="N2" s="566">
+      <c r="L2" s="615"/>
+      <c r="M2" s="616"/>
+      <c r="N2" s="617">
         <v>0.05</v>
       </c>
-      <c r="O2" s="567"/>
-      <c r="P2" s="568"/>
-      <c r="Q2" s="560" t="s">
+      <c r="O2" s="618"/>
+      <c r="P2" s="619"/>
+      <c r="Q2" s="614" t="s">
         <v>543</v>
       </c>
-      <c r="R2" s="561"/>
-      <c r="S2" s="562"/>
-      <c r="T2" s="560" t="s">
+      <c r="R2" s="615"/>
+      <c r="S2" s="616"/>
+      <c r="T2" s="614" t="s">
         <v>544</v>
       </c>
-      <c r="U2" s="561"/>
-      <c r="V2" s="562"/>
-      <c r="W2" s="569" t="s">
+      <c r="U2" s="615"/>
+      <c r="V2" s="616"/>
+      <c r="W2" s="601" t="s">
         <v>545</v>
       </c>
-      <c r="X2" s="570"/>
-      <c r="Y2" s="571"/>
-      <c r="Z2" s="569" t="s">
+      <c r="X2" s="602"/>
+      <c r="Y2" s="603"/>
+      <c r="Z2" s="601" t="s">
         <v>546</v>
       </c>
-      <c r="AA2" s="570"/>
-      <c r="AB2" s="571"/>
-      <c r="AC2" s="569" t="s">
+      <c r="AA2" s="602"/>
+      <c r="AB2" s="603"/>
+      <c r="AC2" s="601" t="s">
         <v>547</v>
       </c>
-      <c r="AD2" s="570"/>
-      <c r="AE2" s="571"/>
-      <c r="AF2" s="572" t="s">
+      <c r="AD2" s="602"/>
+      <c r="AE2" s="603"/>
+      <c r="AF2" s="604" t="s">
         <v>548</v>
       </c>
-      <c r="AG2" s="573"/>
-      <c r="AH2" s="574"/>
-      <c r="AI2" s="572" t="s">
+      <c r="AG2" s="605"/>
+      <c r="AH2" s="606"/>
+      <c r="AI2" s="604" t="s">
         <v>549</v>
       </c>
-      <c r="AJ2" s="573"/>
-      <c r="AK2" s="574"/>
+      <c r="AJ2" s="605"/>
+      <c r="AK2" s="606"/>
       <c r="AL2" s="239"/>
       <c r="AM2" s="239"/>
       <c r="AN2" s="239"/>
@@ -49147,15 +49101,15 @@
     </row>
     <row r="3" spans="1:75" s="147" customFormat="1" ht="45" customHeight="1">
       <c r="A3" s="239"/>
-      <c r="B3" s="579" t="str">
+      <c r="B3" s="556" t="str">
         <f ca="1">F18</f>
         <v>ㆠ</v>
       </c>
-      <c r="C3" s="591"/>
-      <c r="D3" s="587" t="s">
+      <c r="C3" s="568"/>
+      <c r="D3" s="564" t="s">
         <v>551</v>
       </c>
-      <c r="E3" s="579"/>
+      <c r="E3" s="556"/>
       <c r="F3" s="244"/>
       <c r="G3" s="245"/>
       <c r="H3" s="246"/>
@@ -49173,31 +49127,31 @@
       <c r="T3" s="246"/>
       <c r="U3" s="247"/>
       <c r="V3" s="248"/>
-      <c r="W3" s="585" t="str">
+      <c r="W3" s="562" t="str">
         <f ca="1">AH19</f>
         <v>⁰ㄚ</v>
       </c>
       <c r="X3" s="252"/>
-      <c r="Y3" s="589" t="str">
+      <c r="Y3" s="566" t="str">
         <f ca="1">AH20</f>
         <v>ann</v>
       </c>
-      <c r="Z3" s="585" t="str">
+      <c r="Z3" s="562" t="str">
         <f ca="1">AK19</f>
         <v>⁰ㄞ</v>
       </c>
       <c r="AA3" s="252"/>
-      <c r="AB3" s="589" t="str">
+      <c r="AB3" s="566" t="str">
         <f ca="1">AK20</f>
         <v>ainn</v>
       </c>
-      <c r="AC3" s="585"/>
+      <c r="AC3" s="562"/>
       <c r="AD3" s="252"/>
       <c r="AE3" s="253"/>
-      <c r="AF3" s="585"/>
+      <c r="AF3" s="562"/>
       <c r="AG3" s="252"/>
       <c r="AH3" s="253"/>
-      <c r="AI3" s="585"/>
+      <c r="AI3" s="562"/>
       <c r="AJ3" s="252"/>
       <c r="AK3" s="253"/>
       <c r="AL3" s="239"/>
@@ -49235,7 +49189,7 @@
     </row>
     <row r="4" spans="1:75" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="258"/>
-      <c r="B4" s="580" t="str">
+      <c r="B4" s="557" t="str">
         <f ca="1">D19</f>
         <v>ㄅ</v>
       </c>
@@ -49243,7 +49197,7 @@
       <c r="D4" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="580" t="str">
+      <c r="E4" s="557" t="str">
         <f ca="1">H19</f>
         <v>ㄉ</v>
       </c>
@@ -49251,42 +49205,42 @@
       <c r="G4" s="260" t="s">
         <v>340</v>
       </c>
-      <c r="H4" s="575" t="s">
+      <c r="H4" s="610" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="576"/>
+      <c r="I4" s="611"/>
       <c r="J4" s="261" t="s">
         <v>552</v>
       </c>
-      <c r="K4" s="577" t="s">
+      <c r="K4" s="612" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="578"/>
+      <c r="L4" s="613"/>
       <c r="M4" s="261" t="s">
         <v>553</v>
       </c>
-      <c r="N4" s="575" t="s">
+      <c r="N4" s="610" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="576"/>
+      <c r="O4" s="611"/>
       <c r="P4" s="261" t="s">
         <v>554</v>
       </c>
-      <c r="Q4" s="577" t="s">
+      <c r="Q4" s="612" t="s">
         <v>106</v>
       </c>
-      <c r="R4" s="578"/>
+      <c r="R4" s="613"/>
       <c r="S4" s="261" t="s">
         <v>555</v>
       </c>
-      <c r="T4" s="575" t="s">
+      <c r="T4" s="610" t="s">
         <v>556</v>
       </c>
-      <c r="U4" s="576"/>
+      <c r="U4" s="611"/>
       <c r="V4" s="261" t="s">
         <v>557</v>
       </c>
-      <c r="W4" s="586" t="str">
+      <c r="W4" s="563" t="str">
         <f ca="1">W19</f>
         <v>ㄚ</v>
       </c>
@@ -49295,7 +49249,7 @@
         <f ca="1">W20</f>
         <v>a</v>
       </c>
-      <c r="Z4" s="586" t="str">
+      <c r="Z4" s="563" t="str">
         <f ca="1">AA19</f>
         <v>ㄞ</v>
       </c>
@@ -49304,7 +49258,7 @@
         <f ca="1">AA20</f>
         <v>ai</v>
       </c>
-      <c r="AC4" s="586" t="str">
+      <c r="AC4" s="563" t="str">
         <f ca="1">AC19</f>
         <v>ㄢ</v>
       </c>
@@ -49313,7 +49267,7 @@
         <f ca="1">AC20</f>
         <v>an</v>
       </c>
-      <c r="AF4" s="586" t="str">
+      <c r="AF4" s="563" t="str">
         <f ca="1">AE19</f>
         <v>ㄭ</v>
       </c>
@@ -49322,7 +49276,7 @@
         <f ca="1">AE20</f>
         <v>ir</v>
       </c>
-      <c r="AI4" s="586"/>
+      <c r="AI4" s="563"/>
       <c r="AJ4" s="262"/>
       <c r="AK4" s="263"/>
       <c r="AL4" s="258"/>
@@ -49344,19 +49298,19 @@
         <f>注音編碼對照表!C3</f>
         <v>1</v>
       </c>
-      <c r="BL4" s="583" t="str" cm="1">
+      <c r="BL4" s="560" t="str" cm="1">
         <f t="array" ref="BL4" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK4, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄅ</v>
       </c>
-      <c r="BM4" s="584" t="str" cm="1">
+      <c r="BM4" s="561" t="str" cm="1">
         <f t="array" ref="BM4" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK4, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄅ</v>
       </c>
-      <c r="BN4" s="581" t="str" cm="1">
+      <c r="BN4" s="558" t="str" cm="1">
         <f t="array" ref="BN4" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK4, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>p</v>
       </c>
-      <c r="BO4" s="582" t="str" cm="1">
+      <c r="BO4" s="559" t="str" cm="1">
         <f t="array" ref="BO4" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK4, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>p</v>
       </c>
@@ -49381,71 +49335,71 @@
     <row r="5" spans="1:75" s="147" customFormat="1" ht="45" customHeight="1">
       <c r="A5" s="239"/>
       <c r="B5" s="239"/>
-      <c r="C5" s="563" t="s">
+      <c r="C5" s="607" t="s">
         <v>558</v>
       </c>
-      <c r="D5" s="564"/>
-      <c r="E5" s="565"/>
-      <c r="F5" s="563" t="s">
+      <c r="D5" s="608"/>
+      <c r="E5" s="609"/>
+      <c r="F5" s="607" t="s">
         <v>559</v>
       </c>
-      <c r="G5" s="564"/>
-      <c r="H5" s="565"/>
-      <c r="I5" s="563" t="s">
+      <c r="G5" s="608"/>
+      <c r="H5" s="609"/>
+      <c r="I5" s="607" t="s">
         <v>322</v>
       </c>
-      <c r="J5" s="564"/>
-      <c r="K5" s="565"/>
-      <c r="L5" s="563" t="s">
+      <c r="J5" s="608"/>
+      <c r="K5" s="609"/>
+      <c r="L5" s="607" t="s">
         <v>560</v>
       </c>
-      <c r="M5" s="564"/>
-      <c r="N5" s="565"/>
-      <c r="O5" s="563" t="s">
+      <c r="M5" s="608"/>
+      <c r="N5" s="609"/>
+      <c r="O5" s="607" t="s">
         <v>408</v>
       </c>
-      <c r="P5" s="564"/>
-      <c r="Q5" s="565"/>
-      <c r="R5" s="563" t="s">
+      <c r="P5" s="608"/>
+      <c r="Q5" s="609"/>
+      <c r="R5" s="607" t="s">
         <v>447</v>
       </c>
-      <c r="S5" s="564"/>
-      <c r="T5" s="565"/>
-      <c r="U5" s="569" t="s">
+      <c r="S5" s="608"/>
+      <c r="T5" s="609"/>
+      <c r="U5" s="601" t="s">
         <v>259</v>
       </c>
-      <c r="V5" s="570"/>
-      <c r="W5" s="571"/>
-      <c r="X5" s="569" t="s">
+      <c r="V5" s="602"/>
+      <c r="W5" s="603"/>
+      <c r="X5" s="601" t="s">
         <v>275</v>
       </c>
-      <c r="Y5" s="570"/>
-      <c r="Z5" s="571"/>
-      <c r="AA5" s="569" t="s">
+      <c r="Y5" s="602"/>
+      <c r="Z5" s="603"/>
+      <c r="AA5" s="601" t="s">
         <v>267</v>
       </c>
-      <c r="AB5" s="570"/>
-      <c r="AC5" s="571"/>
-      <c r="AD5" s="569" t="s">
+      <c r="AB5" s="602"/>
+      <c r="AC5" s="603"/>
+      <c r="AD5" s="601" t="s">
         <v>400</v>
       </c>
-      <c r="AE5" s="570"/>
-      <c r="AF5" s="571"/>
-      <c r="AG5" s="569" t="s">
+      <c r="AE5" s="602"/>
+      <c r="AF5" s="603"/>
+      <c r="AG5" s="601" t="s">
         <v>561</v>
       </c>
-      <c r="AH5" s="570"/>
-      <c r="AI5" s="571"/>
-      <c r="AJ5" s="569" t="s">
+      <c r="AH5" s="602"/>
+      <c r="AI5" s="603"/>
+      <c r="AJ5" s="601" t="s">
         <v>562</v>
       </c>
-      <c r="AK5" s="570"/>
-      <c r="AL5" s="571"/>
-      <c r="AM5" s="572" t="s">
+      <c r="AK5" s="602"/>
+      <c r="AL5" s="603"/>
+      <c r="AM5" s="604" t="s">
         <v>563</v>
       </c>
-      <c r="AN5" s="573"/>
-      <c r="AO5" s="574"/>
+      <c r="AN5" s="605"/>
+      <c r="AO5" s="606"/>
       <c r="AP5" s="239"/>
       <c r="AQ5" s="239"/>
       <c r="AR5" s="240"/>
@@ -49461,19 +49415,19 @@
         <f>注音編碼對照表!C4</f>
         <v>q</v>
       </c>
-      <c r="BL5" s="583" t="str" cm="1">
+      <c r="BL5" s="560" t="str" cm="1">
         <f t="array" ref="BL5" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK5, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄆ</v>
       </c>
-      <c r="BM5" s="584" t="str" cm="1">
+      <c r="BM5" s="561" t="str" cm="1">
         <f t="array" ref="BM5" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK5, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄆ</v>
       </c>
-      <c r="BN5" s="581" t="str" cm="1">
+      <c r="BN5" s="558" t="str" cm="1">
         <f t="array" ref="BN5" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK5, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>pʰ</v>
       </c>
-      <c r="BO5" s="582" t="str" cm="1">
+      <c r="BO5" s="559" t="str" cm="1">
         <f t="array" ref="BO5" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK5, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ph</v>
       </c>
@@ -49498,61 +49452,61 @@
     <row r="6" spans="1:75" s="147" customFormat="1" ht="45" customHeight="1">
       <c r="A6" s="239"/>
       <c r="B6" s="239"/>
-      <c r="C6" s="579"/>
+      <c r="C6" s="556"/>
       <c r="D6" s="244"/>
       <c r="E6" s="245"/>
-      <c r="F6" s="579"/>
+      <c r="F6" s="556"/>
       <c r="G6" s="244"/>
       <c r="H6" s="245"/>
-      <c r="I6" s="579" t="str">
+      <c r="I6" s="556" t="str">
         <f ca="1">R19</f>
         <v>兀</v>
       </c>
       <c r="J6" s="244"/>
-      <c r="K6" s="587" t="str">
+      <c r="K6" s="564" t="str">
         <f ca="1">R20</f>
         <v>g</v>
       </c>
-      <c r="L6" s="579"/>
+      <c r="L6" s="556"/>
       <c r="M6" s="244"/>
       <c r="N6" s="245"/>
-      <c r="O6" s="579"/>
+      <c r="O6" s="556"/>
       <c r="P6" s="244"/>
       <c r="Q6" s="245"/>
-      <c r="R6" s="579"/>
+      <c r="R6" s="556"/>
       <c r="S6" s="244"/>
       <c r="T6" s="245"/>
-      <c r="U6" s="585" t="str">
+      <c r="U6" s="562" t="str">
         <f ca="1">AF19</f>
         <v>⁰ㄧ</v>
       </c>
       <c r="V6" s="252"/>
-      <c r="W6" s="589" t="str">
+      <c r="W6" s="566" t="str">
         <f ca="1">AF20</f>
         <v>inn</v>
       </c>
-      <c r="X6" s="585" t="str">
+      <c r="X6" s="562" t="str">
         <f ca="1">AI19</f>
         <v>⁰ㆦ</v>
       </c>
-      <c r="Y6" s="588"/>
-      <c r="Z6" s="589" t="str">
+      <c r="Y6" s="565"/>
+      <c r="Z6" s="566" t="str">
         <f ca="1">AI20</f>
         <v>onn</v>
       </c>
-      <c r="AA6" s="585"/>
+      <c r="AA6" s="562"/>
       <c r="AB6" s="252"/>
-      <c r="AC6" s="589"/>
-      <c r="AD6" s="585"/>
+      <c r="AC6" s="566"/>
+      <c r="AD6" s="562"/>
       <c r="AE6" s="252"/>
       <c r="AF6" s="253"/>
-      <c r="AG6" s="585"/>
+      <c r="AG6" s="562"/>
       <c r="AH6" s="252"/>
       <c r="AI6" s="253"/>
-      <c r="AJ6" s="585"/>
+      <c r="AJ6" s="562"/>
       <c r="AK6" s="252"/>
       <c r="AL6" s="253"/>
-      <c r="AM6" s="585"/>
+      <c r="AM6" s="562"/>
       <c r="AN6" s="252"/>
       <c r="AO6" s="253"/>
       <c r="AP6" s="239"/>
@@ -49570,19 +49524,19 @@
         <f>注音編碼對照表!C5</f>
         <v>!</v>
       </c>
-      <c r="BL6" s="583" t="str" cm="1">
+      <c r="BL6" s="560" t="str" cm="1">
         <f t="array" ref="BL6" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK6, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆠ</v>
       </c>
-      <c r="BM6" s="584" t="str" cm="1">
+      <c r="BM6" s="561" t="str" cm="1">
         <f t="array" ref="BM6" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK6, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>万</v>
       </c>
-      <c r="BN6" s="581" t="str" cm="1">
+      <c r="BN6" s="558" t="str" cm="1">
         <f t="array" ref="BN6" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK6, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>b</v>
       </c>
-      <c r="BO6" s="582" t="str" cm="1">
+      <c r="BO6" s="559" t="str" cm="1">
         <f t="array" ref="BO6" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK6, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>b</v>
       </c>
@@ -49607,7 +49561,7 @@
     <row r="7" spans="1:75" ht="45" customHeight="1" thickBot="1">
       <c r="A7" s="258"/>
       <c r="B7" s="258"/>
-      <c r="C7" s="580" t="str">
+      <c r="C7" s="557" t="str">
         <f ca="1">E19</f>
         <v>ㄆ</v>
       </c>
@@ -49615,7 +49569,7 @@
       <c r="E7" s="260" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="580" t="str">
+      <c r="F7" s="557" t="str">
         <f ca="1">I19</f>
         <v>ㄊ</v>
       </c>
@@ -49623,7 +49577,7 @@
       <c r="H7" s="260" t="s">
         <v>604</v>
       </c>
-      <c r="I7" s="580" t="str">
+      <c r="I7" s="557" t="str">
         <f ca="1">P19</f>
         <v>ㄍ</v>
       </c>
@@ -49632,13 +49586,13 @@
         <f ca="1">P20</f>
         <v>k</v>
       </c>
-      <c r="L7" s="580"/>
+      <c r="L7" s="557"/>
       <c r="M7" s="259"/>
       <c r="N7" s="260"/>
-      <c r="O7" s="580"/>
+      <c r="O7" s="557"/>
       <c r="P7" s="259"/>
       <c r="Q7" s="260"/>
-      <c r="R7" s="580" t="str">
+      <c r="R7" s="557" t="str">
         <f ca="1">L19</f>
         <v>ㄗ</v>
       </c>
@@ -49647,7 +49601,7 @@
         <f ca="1">L20</f>
         <v>z</v>
       </c>
-      <c r="U7" s="586" t="str">
+      <c r="U7" s="563" t="str">
         <f ca="1">U18</f>
         <v>ㄧ</v>
       </c>
@@ -49656,7 +49610,7 @@
         <f ca="1">U20</f>
         <v>i</v>
       </c>
-      <c r="X7" s="586" t="str">
+      <c r="X7" s="563" t="str">
         <f ca="1">X19</f>
         <v>ㄛ</v>
       </c>
@@ -49665,7 +49619,7 @@
         <f ca="1">X20</f>
         <v>oo</v>
       </c>
-      <c r="AA7" s="586" t="str">
+      <c r="AA7" s="563" t="str">
         <f ca="1">AN19</f>
         <v>ㄛㄥ</v>
       </c>
@@ -49674,7 +49628,7 @@
         <f ca="1">AN20</f>
         <v>ong</v>
       </c>
-      <c r="AD7" s="586" t="str">
+      <c r="AD7" s="563" t="str">
         <f ca="1">AP19</f>
         <v>ㄣ</v>
       </c>
@@ -49683,13 +49637,13 @@
         <f ca="1">AP20</f>
         <v>-n</v>
       </c>
-      <c r="AG7" s="586"/>
+      <c r="AG7" s="563"/>
       <c r="AH7" s="262"/>
       <c r="AI7" s="263"/>
-      <c r="AJ7" s="586"/>
+      <c r="AJ7" s="563"/>
       <c r="AK7" s="262"/>
       <c r="AL7" s="263"/>
-      <c r="AM7" s="586"/>
+      <c r="AM7" s="563"/>
       <c r="AN7" s="262"/>
       <c r="AO7" s="263"/>
       <c r="AP7" s="258"/>
@@ -49707,19 +49661,19 @@
         <f>注音編碼對照表!C6</f>
         <v>a</v>
       </c>
-      <c r="BL7" s="583" t="str" cm="1">
+      <c r="BL7" s="560" t="str" cm="1">
         <f t="array" ref="BL7" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK7, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄇ</v>
       </c>
-      <c r="BM7" s="584" t="str" cm="1">
+      <c r="BM7" s="561" t="str" cm="1">
         <f t="array" ref="BM7" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK7, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄇ</v>
       </c>
-      <c r="BN7" s="581" t="str" cm="1">
+      <c r="BN7" s="558" t="str" cm="1">
         <f t="array" ref="BN7" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK7, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>m</v>
       </c>
-      <c r="BO7" s="582" t="str" cm="1">
+      <c r="BO7" s="559" t="str" cm="1">
         <f t="array" ref="BO7" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK7, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>m</v>
       </c>
@@ -49745,61 +49699,61 @@
       <c r="A8" s="239"/>
       <c r="B8" s="239"/>
       <c r="C8" s="267"/>
-      <c r="D8" s="563" t="s">
+      <c r="D8" s="607" t="s">
         <v>401</v>
       </c>
-      <c r="E8" s="564"/>
-      <c r="F8" s="565"/>
-      <c r="G8" s="563" t="s">
+      <c r="E8" s="608"/>
+      <c r="F8" s="609"/>
+      <c r="G8" s="607" t="s">
         <v>460</v>
       </c>
-      <c r="H8" s="564"/>
-      <c r="I8" s="565"/>
-      <c r="J8" s="563" t="s">
+      <c r="H8" s="608"/>
+      <c r="I8" s="609"/>
+      <c r="J8" s="607" t="s">
         <v>189</v>
       </c>
-      <c r="K8" s="564"/>
-      <c r="L8" s="565"/>
-      <c r="M8" s="563" t="s">
+      <c r="K8" s="608"/>
+      <c r="L8" s="609"/>
+      <c r="M8" s="607" t="s">
         <v>565</v>
       </c>
-      <c r="N8" s="564"/>
-      <c r="O8" s="565"/>
-      <c r="P8" s="563" t="s">
+      <c r="N8" s="608"/>
+      <c r="O8" s="609"/>
+      <c r="P8" s="607" t="s">
         <v>141</v>
       </c>
-      <c r="Q8" s="564"/>
-      <c r="R8" s="565"/>
-      <c r="S8" s="563" t="s">
+      <c r="Q8" s="608"/>
+      <c r="R8" s="609"/>
+      <c r="S8" s="607" t="s">
         <v>454</v>
       </c>
-      <c r="T8" s="564"/>
-      <c r="U8" s="565"/>
-      <c r="V8" s="569" t="s">
+      <c r="T8" s="608"/>
+      <c r="U8" s="609"/>
+      <c r="V8" s="601" t="s">
         <v>249</v>
       </c>
-      <c r="W8" s="570"/>
-      <c r="X8" s="571"/>
-      <c r="Y8" s="569" t="s">
+      <c r="W8" s="602"/>
+      <c r="X8" s="603"/>
+      <c r="Y8" s="601" t="s">
         <v>425</v>
       </c>
-      <c r="Z8" s="570"/>
-      <c r="AA8" s="571"/>
-      <c r="AB8" s="569" t="s">
+      <c r="Z8" s="602"/>
+      <c r="AA8" s="603"/>
+      <c r="AB8" s="601" t="s">
         <v>231</v>
       </c>
-      <c r="AC8" s="570"/>
-      <c r="AD8" s="571"/>
-      <c r="AE8" s="569" t="s">
+      <c r="AC8" s="602"/>
+      <c r="AD8" s="603"/>
+      <c r="AE8" s="601" t="s">
         <v>566</v>
       </c>
-      <c r="AF8" s="570"/>
-      <c r="AG8" s="571"/>
-      <c r="AH8" s="572" t="s">
+      <c r="AF8" s="602"/>
+      <c r="AG8" s="603"/>
+      <c r="AH8" s="604" t="s">
         <v>567</v>
       </c>
-      <c r="AI8" s="573"/>
-      <c r="AJ8" s="574"/>
+      <c r="AI8" s="605"/>
+      <c r="AJ8" s="606"/>
       <c r="AK8" s="239"/>
       <c r="AL8" s="239"/>
       <c r="AM8" s="239"/>
@@ -49820,19 +49774,19 @@
         <f>注音編碼對照表!C7</f>
         <v>2</v>
       </c>
-      <c r="BL8" s="583" t="str" cm="1">
+      <c r="BL8" s="560" t="str" cm="1">
         <f t="array" ref="BL8" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK8, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄉ</v>
       </c>
-      <c r="BM8" s="584" t="str" cm="1">
+      <c r="BM8" s="561" t="str" cm="1">
         <f t="array" ref="BM8" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK8, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄉ</v>
       </c>
-      <c r="BN8" s="581" t="str" cm="1">
+      <c r="BN8" s="558" t="str" cm="1">
         <f t="array" ref="BN8" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK8, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>t</v>
       </c>
-      <c r="BO8" s="582" t="str" cm="1">
+      <c r="BO8" s="559" t="str" cm="1">
         <f t="array" ref="BO8" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK8, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>t</v>
       </c>
@@ -49858,52 +49812,52 @@
       <c r="A9" s="239"/>
       <c r="B9" s="239"/>
       <c r="C9" s="267"/>
-      <c r="D9" s="579"/>
+      <c r="D9" s="556"/>
       <c r="E9" s="244"/>
       <c r="F9" s="245" t="str">
         <f ca="1">AP20</f>
         <v>-n</v>
       </c>
-      <c r="G9" s="579"/>
+      <c r="G9" s="556"/>
       <c r="H9" s="244"/>
       <c r="I9" s="245"/>
-      <c r="J9" s="579"/>
+      <c r="J9" s="556"/>
       <c r="K9" s="244"/>
       <c r="L9" s="245"/>
-      <c r="M9" s="579"/>
+      <c r="M9" s="556"/>
       <c r="N9" s="244"/>
       <c r="O9" s="245"/>
-      <c r="P9" s="579"/>
+      <c r="P9" s="556"/>
       <c r="Q9" s="244"/>
       <c r="R9" s="245"/>
-      <c r="S9" s="579"/>
+      <c r="S9" s="556"/>
       <c r="T9" s="244"/>
       <c r="U9" s="245"/>
-      <c r="V9" s="585" t="str">
+      <c r="V9" s="562" t="str">
         <f ca="1">AG19</f>
         <v>⁰ㄨ</v>
       </c>
-      <c r="W9" s="588"/>
-      <c r="X9" s="589" t="str">
+      <c r="W9" s="565"/>
+      <c r="X9" s="566" t="str">
         <f ca="1">AG20</f>
         <v>unn</v>
       </c>
-      <c r="Y9" s="585"/>
+      <c r="Y9" s="562"/>
       <c r="Z9" s="252"/>
       <c r="AA9" s="253"/>
-      <c r="AB9" s="585" t="str">
+      <c r="AB9" s="562" t="str">
         <f ca="1">AL19</f>
         <v>⁰ㄠ</v>
       </c>
       <c r="AC9" s="252"/>
-      <c r="AD9" s="590" t="str">
+      <c r="AD9" s="567" t="str">
         <f ca="1">AL20</f>
         <v>aunn</v>
       </c>
-      <c r="AE9" s="585"/>
-      <c r="AF9" s="588"/>
-      <c r="AG9" s="589"/>
-      <c r="AH9" s="585"/>
+      <c r="AE9" s="562"/>
+      <c r="AF9" s="565"/>
+      <c r="AG9" s="566"/>
+      <c r="AH9" s="562"/>
       <c r="AI9" s="252"/>
       <c r="AJ9" s="253"/>
       <c r="AK9" s="239"/>
@@ -49926,19 +49880,19 @@
         <f>注音編碼對照表!C8</f>
         <v>w</v>
       </c>
-      <c r="BL9" s="583" t="str" cm="1">
+      <c r="BL9" s="560" t="str" cm="1">
         <f t="array" ref="BL9" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK9, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄊ</v>
       </c>
-      <c r="BM9" s="584" t="str" cm="1">
+      <c r="BM9" s="561" t="str" cm="1">
         <f t="array" ref="BM9" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK9, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄊ</v>
       </c>
-      <c r="BN9" s="581" t="str" cm="1">
+      <c r="BN9" s="558" t="str" cm="1">
         <f t="array" ref="BN9" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK9, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>tʰ</v>
       </c>
-      <c r="BO9" s="582" t="str" cm="1">
+      <c r="BO9" s="559" t="str" cm="1">
         <f t="array" ref="BO9" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK9, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>th</v>
       </c>
@@ -49964,7 +49918,7 @@
       <c r="A10" s="258"/>
       <c r="B10" s="258"/>
       <c r="C10" s="258"/>
-      <c r="D10" s="580" t="str">
+      <c r="D10" s="557" t="str">
         <f ca="1">G19</f>
         <v>ㄇ</v>
       </c>
@@ -49972,7 +49926,7 @@
       <c r="F10" s="260" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="580" t="str">
+      <c r="G10" s="557" t="str">
         <f ca="1">J19</f>
         <v>ㄋ</v>
       </c>
@@ -49980,7 +49934,7 @@
       <c r="I10" s="260" t="s">
         <v>372</v>
       </c>
-      <c r="J10" s="580" t="str">
+      <c r="J10" s="557" t="str">
         <f ca="1">Q19</f>
         <v>ㄎ</v>
       </c>
@@ -49988,10 +49942,10 @@
       <c r="L10" s="260" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="580"/>
+      <c r="M10" s="557"/>
       <c r="N10" s="259"/>
       <c r="O10" s="260"/>
-      <c r="P10" s="580" t="str">
+      <c r="P10" s="557" t="str">
         <f ca="1">S19</f>
         <v>⁰兀</v>
       </c>
@@ -50000,7 +49954,7 @@
         <f ca="1">S20</f>
         <v>ng-</v>
       </c>
-      <c r="S10" s="580" t="str">
+      <c r="S10" s="557" t="str">
         <f ca="1">M19</f>
         <v>ㄘ</v>
       </c>
@@ -50009,7 +49963,7 @@
         <f ca="1">M20</f>
         <v>c</v>
       </c>
-      <c r="V10" s="586" t="str">
+      <c r="V10" s="563" t="str">
         <f ca="1">V19</f>
         <v>ㄨ</v>
       </c>
@@ -50018,7 +49972,7 @@
         <f ca="1">V20</f>
         <v>u</v>
       </c>
-      <c r="Y10" s="586" t="str">
+      <c r="Y10" s="563" t="str">
         <f ca="1">Y19</f>
         <v>ㄜ</v>
       </c>
@@ -50027,7 +49981,7 @@
         <f ca="1">Y20</f>
         <v>o</v>
       </c>
-      <c r="AB10" s="586" t="str">
+      <c r="AB10" s="563" t="str">
         <f ca="1">AB19</f>
         <v>ㄠ</v>
       </c>
@@ -50036,7 +49990,7 @@
         <f ca="1">AB20</f>
         <v>au</v>
       </c>
-      <c r="AE10" s="586" t="str">
+      <c r="AE10" s="563" t="str">
         <f ca="1">AD19</f>
         <v>ㄤ</v>
       </c>
@@ -50045,7 +49999,7 @@
         <f ca="1">AD20</f>
         <v>ang</v>
       </c>
-      <c r="AH10" s="586"/>
+      <c r="AH10" s="563"/>
       <c r="AI10" s="262"/>
       <c r="AJ10" s="263"/>
       <c r="AK10" s="258"/>
@@ -50068,19 +50022,19 @@
         <f>注音編碼對照表!C9</f>
         <v>s</v>
       </c>
-      <c r="BL10" s="583" t="str" cm="1">
+      <c r="BL10" s="560" t="str" cm="1">
         <f t="array" ref="BL10" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK10, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄋ</v>
       </c>
-      <c r="BM10" s="584" t="str" cm="1">
+      <c r="BM10" s="561" t="str" cm="1">
         <f t="array" ref="BM10" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK10, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄋ</v>
       </c>
-      <c r="BN10" s="581" t="str" cm="1">
+      <c r="BN10" s="558" t="str" cm="1">
         <f t="array" ref="BN10" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK10, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>n</v>
       </c>
-      <c r="BO10" s="582" t="str" cm="1">
+      <c r="BO10" s="559" t="str" cm="1">
         <f t="array" ref="BO10" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK10, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>n</v>
       </c>
@@ -50107,56 +50061,56 @@
       <c r="B11" s="239"/>
       <c r="C11" s="239"/>
       <c r="D11" s="239"/>
-      <c r="E11" s="563" t="s">
+      <c r="E11" s="607" t="s">
         <v>449</v>
       </c>
-      <c r="F11" s="564"/>
-      <c r="G11" s="565"/>
-      <c r="H11" s="563" t="s">
+      <c r="F11" s="608"/>
+      <c r="G11" s="609"/>
+      <c r="H11" s="607" t="s">
         <v>568</v>
       </c>
-      <c r="I11" s="564"/>
-      <c r="J11" s="565"/>
-      <c r="K11" s="563" t="s">
+      <c r="I11" s="608"/>
+      <c r="J11" s="609"/>
+      <c r="K11" s="607" t="s">
         <v>456</v>
       </c>
-      <c r="L11" s="564"/>
-      <c r="M11" s="565"/>
-      <c r="N11" s="563" t="s">
+      <c r="L11" s="608"/>
+      <c r="M11" s="609"/>
+      <c r="N11" s="607" t="s">
         <v>569</v>
       </c>
-      <c r="O11" s="564"/>
-      <c r="P11" s="565"/>
-      <c r="Q11" s="563" t="s">
+      <c r="O11" s="608"/>
+      <c r="P11" s="609"/>
+      <c r="Q11" s="607" t="s">
         <v>144</v>
       </c>
-      <c r="R11" s="564"/>
-      <c r="S11" s="565"/>
-      <c r="T11" s="563" t="s">
+      <c r="R11" s="608"/>
+      <c r="S11" s="609"/>
+      <c r="T11" s="607" t="s">
         <v>570</v>
       </c>
-      <c r="U11" s="564"/>
-      <c r="V11" s="565"/>
-      <c r="W11" s="569" t="s">
+      <c r="U11" s="608"/>
+      <c r="V11" s="609"/>
+      <c r="W11" s="601" t="s">
         <v>525</v>
       </c>
-      <c r="X11" s="570"/>
-      <c r="Y11" s="571"/>
-      <c r="Z11" s="569" t="s">
+      <c r="X11" s="602"/>
+      <c r="Y11" s="603"/>
+      <c r="Z11" s="601" t="s">
         <v>571</v>
       </c>
-      <c r="AA11" s="570"/>
-      <c r="AB11" s="571"/>
-      <c r="AC11" s="569" t="s">
+      <c r="AA11" s="602"/>
+      <c r="AB11" s="603"/>
+      <c r="AC11" s="601" t="s">
         <v>572</v>
       </c>
-      <c r="AD11" s="570"/>
-      <c r="AE11" s="571"/>
-      <c r="AF11" s="572" t="s">
+      <c r="AD11" s="602"/>
+      <c r="AE11" s="603"/>
+      <c r="AF11" s="604" t="s">
         <v>573</v>
       </c>
-      <c r="AG11" s="573"/>
-      <c r="AH11" s="574"/>
+      <c r="AG11" s="605"/>
+      <c r="AH11" s="606"/>
       <c r="AI11" s="239"/>
       <c r="AJ11" s="239"/>
       <c r="AK11" s="239"/>
@@ -50179,19 +50133,19 @@
         <f>注音編碼對照表!C10</f>
         <v>x</v>
       </c>
-      <c r="BL11" s="583" t="str" cm="1">
+      <c r="BL11" s="560" t="str" cm="1">
         <f t="array" ref="BL11" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK11, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄌ</v>
       </c>
-      <c r="BM11" s="584" t="str" cm="1">
+      <c r="BM11" s="561" t="str" cm="1">
         <f t="array" ref="BM11" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK11, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄌ</v>
       </c>
-      <c r="BN11" s="581" t="str" cm="1">
+      <c r="BN11" s="558" t="str" cm="1">
         <f t="array" ref="BN11" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK11, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>l</v>
       </c>
-      <c r="BO11" s="582" t="str" cm="1">
+      <c r="BO11" s="559" t="str" cm="1">
         <f t="array" ref="BO11" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK11, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>l</v>
       </c>
@@ -50218,46 +50172,46 @@
       <c r="B12" s="239"/>
       <c r="C12" s="239"/>
       <c r="D12" s="239"/>
-      <c r="E12" s="579"/>
+      <c r="E12" s="556"/>
       <c r="F12" s="244"/>
       <c r="G12" s="245"/>
-      <c r="H12" s="579"/>
+      <c r="H12" s="556"/>
       <c r="I12" s="244"/>
       <c r="J12" s="245"/>
-      <c r="K12" s="579"/>
+      <c r="K12" s="556"/>
       <c r="L12" s="244"/>
       <c r="M12" s="245"/>
-      <c r="N12" s="579"/>
+      <c r="N12" s="556"/>
       <c r="O12" s="244"/>
       <c r="P12" s="245"/>
-      <c r="Q12" s="579"/>
+      <c r="Q12" s="556"/>
       <c r="R12" s="244"/>
       <c r="S12" s="245"/>
-      <c r="T12" s="579"/>
+      <c r="T12" s="556"/>
       <c r="U12" s="244"/>
       <c r="V12" s="245"/>
-      <c r="W12" s="585" t="str">
+      <c r="W12" s="562" t="str">
         <f ca="1">AM19</f>
         <v>ㄚㄇ</v>
       </c>
-      <c r="X12" s="588"/>
-      <c r="Y12" s="589" t="str">
+      <c r="X12" s="565"/>
+      <c r="Y12" s="566" t="str">
         <f ca="1">AM20</f>
         <v>am</v>
       </c>
-      <c r="Z12" s="585" t="str">
+      <c r="Z12" s="562" t="str">
         <f ca="1">AJ19</f>
         <v>⁰ㄝ</v>
       </c>
       <c r="AA12" s="252"/>
-      <c r="AB12" s="589" t="str">
+      <c r="AB12" s="566" t="str">
         <f ca="1">AJ20</f>
         <v>enn</v>
       </c>
-      <c r="AC12" s="585"/>
+      <c r="AC12" s="562"/>
       <c r="AD12" s="252"/>
       <c r="AE12" s="253"/>
-      <c r="AF12" s="585"/>
+      <c r="AF12" s="562"/>
       <c r="AG12" s="252"/>
       <c r="AH12" s="253"/>
       <c r="AI12" s="239"/>
@@ -50284,19 +50238,19 @@
         <f>注音編碼對照表!C11</f>
         <v>y</v>
       </c>
-      <c r="BL12" s="583" t="str" cm="1">
+      <c r="BL12" s="560" t="str" cm="1">
         <f t="array" ref="BL12" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK12, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄗ</v>
       </c>
-      <c r="BM12" s="584" t="str" cm="1">
+      <c r="BM12" s="561" t="str" cm="1">
         <f t="array" ref="BM12" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK12, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄗ</v>
       </c>
-      <c r="BN12" s="581" t="str" cm="1">
+      <c r="BN12" s="558" t="str" cm="1">
         <f t="array" ref="BN12" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK12, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ts</v>
       </c>
-      <c r="BO12" s="582" t="str" cm="1">
+      <c r="BO12" s="559" t="str" cm="1">
         <f t="array" ref="BO12" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK12, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>z</v>
       </c>
@@ -50323,10 +50277,10 @@
       <c r="B13" s="258"/>
       <c r="C13" s="258"/>
       <c r="D13" s="258"/>
-      <c r="E13" s="580"/>
+      <c r="E13" s="557"/>
       <c r="F13" s="259"/>
       <c r="G13" s="260"/>
-      <c r="H13" s="580" t="str">
+      <c r="H13" s="557" t="str">
         <f ca="1">K19</f>
         <v>ㄌ</v>
       </c>
@@ -50334,7 +50288,7 @@
       <c r="J13" s="260" t="s">
         <v>496</v>
       </c>
-      <c r="K13" s="580" t="str">
+      <c r="K13" s="557" t="str">
         <f ca="1">T19</f>
         <v>ㄏ</v>
       </c>
@@ -50343,10 +50297,10 @@
         <f ca="1">T20</f>
         <v>h</v>
       </c>
-      <c r="N13" s="580"/>
+      <c r="N13" s="557"/>
       <c r="O13" s="259"/>
       <c r="P13" s="260"/>
-      <c r="Q13" s="580" t="str">
+      <c r="Q13" s="557" t="str">
         <f ca="1">N19</f>
         <v>ㄖ</v>
       </c>
@@ -50355,7 +50309,7 @@
         <f ca="1">N20</f>
         <v>j</v>
       </c>
-      <c r="T13" s="580" t="str">
+      <c r="T13" s="557" t="str">
         <f ca="1">O19</f>
         <v>ㄙ</v>
       </c>
@@ -50364,7 +50318,7 @@
         <f ca="1">O20</f>
         <v>s</v>
       </c>
-      <c r="W13" s="586" t="str">
+      <c r="W13" s="563" t="str">
         <f ca="1">AQ19</f>
         <v>ㄇ</v>
       </c>
@@ -50373,7 +50327,7 @@
         <f ca="1">AQ20</f>
         <v>-m</v>
       </c>
-      <c r="Z13" s="586" t="str">
+      <c r="Z13" s="563" t="str">
         <f ca="1">Z19</f>
         <v>ㄝ</v>
       </c>
@@ -50382,7 +50336,7 @@
         <f ca="1">Z20</f>
         <v>e</v>
       </c>
-      <c r="AC13" s="586" t="str">
+      <c r="AC13" s="563" t="str">
         <f ca="1">AR19</f>
         <v>ㄬ</v>
       </c>
@@ -50391,7 +50345,7 @@
         <f ca="1">AR20</f>
         <v>-nn</v>
       </c>
-      <c r="AF13" s="586" t="str">
+      <c r="AF13" s="563" t="str">
         <f ca="1">AO19</f>
         <v>ㄥ</v>
       </c>
@@ -50423,19 +50377,19 @@
         <f>注音編碼對照表!C12</f>
         <v>h</v>
       </c>
-      <c r="BL13" s="583" t="str" cm="1">
+      <c r="BL13" s="560" t="str" cm="1">
         <f t="array" ref="BL13" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK13, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄘ</v>
       </c>
-      <c r="BM13" s="584" t="str" cm="1">
+      <c r="BM13" s="561" t="str" cm="1">
         <f t="array" ref="BM13" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK13, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄘ</v>
       </c>
-      <c r="BN13" s="581" t="str" cm="1">
+      <c r="BN13" s="558" t="str" cm="1">
         <f t="array" ref="BN13" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK13, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ʦʰ</v>
       </c>
-      <c r="BO13" s="582" t="str" cm="1">
+      <c r="BO13" s="559" t="str" cm="1">
         <f t="array" ref="BO13" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK13, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>c</v>
       </c>
@@ -50467,19 +50421,19 @@
         <f>注音編碼對照表!C13</f>
         <v>b</v>
       </c>
-      <c r="BL14" s="583" t="str" cm="1">
+      <c r="BL14" s="560" t="str" cm="1">
         <f t="array" ref="BL14" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK14, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆡ</v>
       </c>
-      <c r="BM14" s="584" t="str" cm="1">
+      <c r="BM14" s="561" t="str" cm="1">
         <f t="array" ref="BM14" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK14, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄖ</v>
       </c>
-      <c r="BN14" s="581" t="str" cm="1">
+      <c r="BN14" s="558" t="str" cm="1">
         <f t="array" ref="BN14" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK14, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ʣ</v>
       </c>
-      <c r="BO14" s="582" t="str" cm="1">
+      <c r="BO14" s="559" t="str" cm="1">
         <f t="array" ref="BO14" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK14, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>j</v>
       </c>
@@ -50569,19 +50523,19 @@
         <f>注音編碼對照表!C14</f>
         <v>n</v>
       </c>
-      <c r="BL15" s="583" t="str" cm="1">
+      <c r="BL15" s="560" t="str" cm="1">
         <f t="array" ref="BL15" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK15, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄙ</v>
       </c>
-      <c r="BM15" s="584" t="str" cm="1">
+      <c r="BM15" s="561" t="str" cm="1">
         <f t="array" ref="BM15" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK15, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄙ</v>
       </c>
-      <c r="BN15" s="581" t="str" cm="1">
+      <c r="BN15" s="558" t="str" cm="1">
         <f t="array" ref="BN15" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK15, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>s</v>
       </c>
-      <c r="BO15" s="582" t="str" cm="1">
+      <c r="BO15" s="559" t="str" cm="1">
         <f t="array" ref="BO15" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK15, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>s</v>
       </c>
@@ -50814,19 +50768,19 @@
         <f>注音編碼對照表!C15</f>
         <v>e</v>
       </c>
-      <c r="BL16" s="583" t="str" cm="1">
+      <c r="BL16" s="560" t="str" cm="1">
         <f t="array" ref="BL16" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK16, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄍ</v>
       </c>
-      <c r="BM16" s="584" t="str" cm="1">
+      <c r="BM16" s="561" t="str" cm="1">
         <f t="array" ref="BM16" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK16, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄍ</v>
       </c>
-      <c r="BN16" s="581" t="str" cm="1">
+      <c r="BN16" s="558" t="str" cm="1">
         <f t="array" ref="BN16" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK16, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>k</v>
       </c>
-      <c r="BO16" s="582" t="str" cm="1">
+      <c r="BO16" s="559" t="str" cm="1">
         <f t="array" ref="BO16" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK16, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>k</v>
       </c>
@@ -51059,19 +51013,19 @@
         <f>注音編碼對照表!C16</f>
         <v>d</v>
       </c>
-      <c r="BL17" s="583" t="str" cm="1">
+      <c r="BL17" s="560" t="str" cm="1">
         <f t="array" ref="BL17" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK17, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄎ</v>
       </c>
-      <c r="BM17" s="584" t="str" cm="1">
+      <c r="BM17" s="561" t="str" cm="1">
         <f t="array" ref="BM17" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK17, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄎ</v>
       </c>
-      <c r="BN17" s="581" t="str" cm="1">
+      <c r="BN17" s="558" t="str" cm="1">
         <f t="array" ref="BN17" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK17, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>kʰ</v>
       </c>
-      <c r="BO17" s="582" t="str" cm="1">
+      <c r="BO17" s="559" t="str" cm="1">
         <f t="array" ref="BO17" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK17, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>kh</v>
       </c>
@@ -51304,19 +51258,19 @@
         <f>注音編碼對照表!C17</f>
         <v>E</v>
       </c>
-      <c r="BL18" s="583" t="str" cm="1">
+      <c r="BL18" s="560" t="str" cm="1">
         <f t="array" ref="BL18" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK18, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆣ</v>
       </c>
-      <c r="BM18" s="584" t="str" cm="1">
+      <c r="BM18" s="561" t="str" cm="1">
         <f t="array" ref="BM18" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK18, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>兀</v>
       </c>
-      <c r="BN18" s="581" t="str" cm="1">
+      <c r="BN18" s="558" t="str" cm="1">
         <f t="array" ref="BN18" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK18, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>g</v>
       </c>
-      <c r="BO18" s="582" t="str" cm="1">
+      <c r="BO18" s="559" t="str" cm="1">
         <f t="array" ref="BO18" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK18, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>g</v>
       </c>
@@ -51549,19 +51503,19 @@
         <f>注音編碼對照表!C18</f>
         <v>g</v>
       </c>
-      <c r="BL19" s="583" t="str" cm="1">
+      <c r="BL19" s="560" t="str" cm="1">
         <f t="array" ref="BL19" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK19, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄫ</v>
       </c>
-      <c r="BM19" s="584" t="str" cm="1">
+      <c r="BM19" s="561" t="str" cm="1">
         <f t="array" ref="BM19" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK19, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>⁰兀</v>
       </c>
-      <c r="BN19" s="581" t="str" cm="1">
+      <c r="BN19" s="558" t="str" cm="1">
         <f t="array" ref="BN19" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK19, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ŋ</v>
       </c>
-      <c r="BO19" s="582" t="str" cm="1">
+      <c r="BO19" s="559" t="str" cm="1">
         <f t="array" ref="BO19" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK19, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ng-</v>
       </c>
@@ -51785,19 +51739,19 @@
         <f>注音編碼對照表!C19</f>
         <v>c</v>
       </c>
-      <c r="BL20" s="583" t="str" cm="1">
+      <c r="BL20" s="560" t="str" cm="1">
         <f t="array" ref="BL20" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK20, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄏ</v>
       </c>
-      <c r="BM20" s="584" t="str" cm="1">
+      <c r="BM20" s="561" t="str" cm="1">
         <f t="array" ref="BM20" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK20, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄏ</v>
       </c>
-      <c r="BN20" s="581" t="str" cm="1">
+      <c r="BN20" s="558" t="str" cm="1">
         <f t="array" ref="BN20" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK20, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>h</v>
       </c>
-      <c r="BO20" s="582" t="str" cm="1">
+      <c r="BO20" s="559" t="str" cm="1">
         <f t="array" ref="BO20" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK20, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>h</v>
       </c>
@@ -52029,19 +51983,19 @@
         <f>注音編碼對照表!C20</f>
         <v>u</v>
       </c>
-      <c r="BL21" s="583" t="str" cm="1">
+      <c r="BL21" s="560" t="str" cm="1">
         <f t="array" ref="BL21" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK21, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄧ</v>
       </c>
-      <c r="BM21" s="584" t="str" cm="1">
+      <c r="BM21" s="561" t="str" cm="1">
         <f t="array" ref="BM21" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK21, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄧ</v>
       </c>
-      <c r="BN21" s="581" t="str" cm="1">
+      <c r="BN21" s="558" t="str" cm="1">
         <f t="array" ref="BN21" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK21, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>i</v>
       </c>
-      <c r="BO21" s="582" t="str" cm="1">
+      <c r="BO21" s="559" t="str" cm="1">
         <f t="array" ref="BO21" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK21, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>i</v>
       </c>
@@ -52127,19 +52081,19 @@
         <f>注音編碼對照表!C21</f>
         <v>j</v>
       </c>
-      <c r="BL22" s="583" t="str" cm="1">
+      <c r="BL22" s="560" t="str" cm="1">
         <f t="array" ref="BL22" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK22, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄨ</v>
       </c>
-      <c r="BM22" s="584" t="str" cm="1">
+      <c r="BM22" s="561" t="str" cm="1">
         <f t="array" ref="BM22" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK22, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄨ</v>
       </c>
-      <c r="BN22" s="581" t="str" cm="1">
+      <c r="BN22" s="558" t="str" cm="1">
         <f t="array" ref="BN22" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK22, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>u</v>
       </c>
-      <c r="BO22" s="582" t="str" cm="1">
+      <c r="BO22" s="559" t="str" cm="1">
         <f t="array" ref="BO22" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK22, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>u</v>
       </c>
@@ -52214,19 +52168,19 @@
         <f>注音編碼對照表!C22</f>
         <v>8</v>
       </c>
-      <c r="BL23" s="583" t="str" cm="1">
+      <c r="BL23" s="560" t="str" cm="1">
         <f t="array" ref="BL23" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK23, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄚ</v>
       </c>
-      <c r="BM23" s="584" t="str" cm="1">
+      <c r="BM23" s="561" t="str" cm="1">
         <f t="array" ref="BM23" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK23, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄚ</v>
       </c>
-      <c r="BN23" s="581" t="str" cm="1">
+      <c r="BN23" s="558" t="str" cm="1">
         <f t="array" ref="BN23" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK23, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>a</v>
       </c>
-      <c r="BO23" s="582" t="str" cm="1">
+      <c r="BO23" s="559" t="str" cm="1">
         <f t="array" ref="BO23" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK23, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>a</v>
       </c>
@@ -52319,19 +52273,19 @@
         <f>注音編碼對照表!C23</f>
         <v>i</v>
       </c>
-      <c r="BL24" s="583" t="str" cm="1">
+      <c r="BL24" s="560" t="str" cm="1">
         <f t="array" ref="BL24" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK24, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆦ</v>
       </c>
-      <c r="BM24" s="584" t="str" cm="1">
+      <c r="BM24" s="561" t="str" cm="1">
         <f t="array" ref="BM24" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK24, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄛ</v>
       </c>
-      <c r="BN24" s="581" t="str" cm="1">
+      <c r="BN24" s="558" t="str" cm="1">
         <f t="array" ref="BN24" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK24, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ɔ</v>
       </c>
-      <c r="BO24" s="582" t="str" cm="1">
+      <c r="BO24" s="559" t="str" cm="1">
         <f t="array" ref="BO24" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK24, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>oo</v>
       </c>
@@ -52426,19 +52380,19 @@
         <f>注音編碼對照表!C24</f>
         <v>k</v>
       </c>
-      <c r="BL25" s="583" t="str" cm="1">
+      <c r="BL25" s="560" t="str" cm="1">
         <f t="array" ref="BL25" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK25, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄜ</v>
       </c>
-      <c r="BM25" s="584" t="str" cm="1">
+      <c r="BM25" s="561" t="str" cm="1">
         <f t="array" ref="BM25" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK25, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄜ</v>
       </c>
-      <c r="BN25" s="581" t="str" cm="1">
+      <c r="BN25" s="558" t="str" cm="1">
         <f t="array" ref="BN25" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK25, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ə</v>
       </c>
-      <c r="BO25" s="582" t="str" cm="1">
+      <c r="BO25" s="559" t="str" cm="1">
         <f t="array" ref="BO25" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK25, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>o</v>
       </c>
@@ -52537,19 +52491,19 @@
         <f>注音編碼對照表!C25</f>
         <v>,</v>
       </c>
-      <c r="BL26" s="583" t="str" cm="1">
+      <c r="BL26" s="560" t="str" cm="1">
         <f t="array" ref="BL26" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK26, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆤ</v>
       </c>
-      <c r="BM26" s="584" t="str" cm="1">
+      <c r="BM26" s="561" t="str" cm="1">
         <f t="array" ref="BM26" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK26, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄝ</v>
       </c>
-      <c r="BN26" s="581" t="str" cm="1">
+      <c r="BN26" s="558" t="str" cm="1">
         <f t="array" ref="BN26" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK26, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>e</v>
       </c>
-      <c r="BO26" s="582" t="str" cm="1">
+      <c r="BO26" s="559" t="str" cm="1">
         <f t="array" ref="BO26" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK26, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>e</v>
       </c>
@@ -52659,19 +52613,19 @@
         <f>注音編碼對照表!C26</f>
         <v>9</v>
       </c>
-      <c r="BL27" s="583" t="str" cm="1">
+      <c r="BL27" s="560" t="str" cm="1">
         <f t="array" ref="BL27" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK27, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄞ</v>
       </c>
-      <c r="BM27" s="584" t="str" cm="1">
+      <c r="BM27" s="561" t="str" cm="1">
         <f t="array" ref="BM27" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK27, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄞ</v>
       </c>
-      <c r="BN27" s="581" t="str" cm="1">
+      <c r="BN27" s="558" t="str" cm="1">
         <f t="array" ref="BN27" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK27, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ai̯</v>
       </c>
-      <c r="BO27" s="582" t="str" cm="1">
+      <c r="BO27" s="559" t="str" cm="1">
         <f t="array" ref="BO27" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK27, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ai</v>
       </c>
@@ -52777,19 +52731,19 @@
         <f>注音編碼對照表!C27</f>
         <v>l</v>
       </c>
-      <c r="BL28" s="583" t="str" cm="1">
+      <c r="BL28" s="560" t="str" cm="1">
         <f t="array" ref="BL28" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK28, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄠ</v>
       </c>
-      <c r="BM28" s="584" t="str" cm="1">
+      <c r="BM28" s="561" t="str" cm="1">
         <f t="array" ref="BM28" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK28, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄠ</v>
       </c>
-      <c r="BN28" s="581" t="str" cm="1">
+      <c r="BN28" s="558" t="str" cm="1">
         <f t="array" ref="BN28" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK28, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ɑu̯</v>
       </c>
-      <c r="BO28" s="582" t="str" cm="1">
+      <c r="BO28" s="559" t="str" cm="1">
         <f t="array" ref="BO28" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK28, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>au</v>
       </c>
@@ -52884,19 +52838,19 @@
         <f>注音編碼對照表!C28</f>
         <v>0</v>
       </c>
-      <c r="BL29" s="583" t="str" cm="1">
+      <c r="BL29" s="560" t="str" cm="1">
         <f t="array" ref="BL29" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK29, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄢ</v>
       </c>
-      <c r="BM29" s="584" t="str" cm="1">
+      <c r="BM29" s="561" t="str" cm="1">
         <f t="array" ref="BM29" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK29, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄢ</v>
       </c>
-      <c r="BN29" s="581" t="str" cm="1">
+      <c r="BN29" s="558" t="str" cm="1">
         <f t="array" ref="BN29" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK29, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>an</v>
       </c>
-      <c r="BO29" s="582" t="str" cm="1">
+      <c r="BO29" s="559" t="str" cm="1">
         <f t="array" ref="BO29" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK29, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>an</v>
       </c>
@@ -52991,19 +52945,19 @@
         <f>注音編碼對照表!C29</f>
         <v>;</v>
       </c>
-      <c r="BL30" s="583" t="str" cm="1">
+      <c r="BL30" s="560" t="str" cm="1">
         <f t="array" ref="BL30" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK30, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄤ</v>
       </c>
-      <c r="BM30" s="584" t="str" cm="1">
+      <c r="BM30" s="561" t="str" cm="1">
         <f t="array" ref="BM30" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK30, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄤ</v>
       </c>
-      <c r="BN30" s="581" t="str" cm="1">
+      <c r="BN30" s="558" t="str" cm="1">
         <f t="array" ref="BN30" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK30, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ɑŋ</v>
       </c>
-      <c r="BO30" s="582" t="str" cm="1">
+      <c r="BO30" s="559" t="str" cm="1">
         <f t="array" ref="BO30" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK30, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ang</v>
       </c>
@@ -53095,19 +53049,19 @@
         <f>注音編碼對照表!C30</f>
         <v>-</v>
       </c>
-      <c r="BL31" s="583" t="str" cm="1">
+      <c r="BL31" s="560" t="str" cm="1">
         <f t="array" ref="BL31" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK31, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆨ</v>
       </c>
-      <c r="BM31" s="584" t="str" cm="1">
+      <c r="BM31" s="561" t="str" cm="1">
         <f t="array" ref="BM31" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK31, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄭ</v>
       </c>
-      <c r="BN31" s="581" t="str" cm="1">
+      <c r="BN31" s="558" t="str" cm="1">
         <f t="array" ref="BN31" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK31, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ɨ</v>
       </c>
-      <c r="BO31" s="582" t="str" cm="1">
+      <c r="BO31" s="559" t="str" cm="1">
         <f t="array" ref="BO31" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK31, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ir</v>
       </c>
@@ -53164,19 +53118,19 @@
         <f>注音編碼對照表!C31</f>
         <v>U</v>
       </c>
-      <c r="BL32" s="583" t="str" cm="1">
+      <c r="BL32" s="560" t="str" cm="1">
         <f t="array" ref="BL32" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK32, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆪ</v>
       </c>
-      <c r="BM32" s="584" t="str" cm="1">
+      <c r="BM32" s="561" t="str" cm="1">
         <f t="array" ref="BM32" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK32, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>⁰ㄧ</v>
       </c>
-      <c r="BN32" s="581" t="str" cm="1">
+      <c r="BN32" s="558" t="str" cm="1">
         <f t="array" ref="BN32" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK32, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ĩ</v>
       </c>
-      <c r="BO32" s="582" t="str" cm="1">
+      <c r="BO32" s="559" t="str" cm="1">
         <f t="array" ref="BO32" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK32, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>inn</v>
       </c>
@@ -53267,19 +53221,19 @@
         <f>注音編碼對照表!C32</f>
         <v>J</v>
       </c>
-      <c r="BL33" s="583" t="str" cm="1">
+      <c r="BL33" s="560" t="str" cm="1">
         <f t="array" ref="BL33" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK33, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆫ</v>
       </c>
-      <c r="BM33" s="584" t="str" cm="1">
+      <c r="BM33" s="561" t="str" cm="1">
         <f t="array" ref="BM33" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK33, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>⁰ㄨ</v>
       </c>
-      <c r="BN33" s="581" t="str" cm="1">
+      <c r="BN33" s="558" t="str" cm="1">
         <f t="array" ref="BN33" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK33, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ũ</v>
       </c>
-      <c r="BO33" s="582" t="str" cm="1">
+      <c r="BO33" s="559" t="str" cm="1">
         <f t="array" ref="BO33" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK33, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>unn</v>
       </c>
@@ -53371,19 +53325,19 @@
         <f>注音編碼對照表!C33</f>
         <v>*</v>
       </c>
-      <c r="BL34" s="583" t="str" cm="1">
+      <c r="BL34" s="560" t="str" cm="1">
         <f t="array" ref="BL34" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK34, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆩ</v>
       </c>
-      <c r="BM34" s="584" t="str" cm="1">
+      <c r="BM34" s="561" t="str" cm="1">
         <f t="array" ref="BM34" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK34, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>⁰ㄚ</v>
       </c>
-      <c r="BN34" s="581" t="str" cm="1">
+      <c r="BN34" s="558" t="str" cm="1">
         <f t="array" ref="BN34" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK34, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ã</v>
       </c>
-      <c r="BO34" s="582" t="str" cm="1">
+      <c r="BO34" s="559" t="str" cm="1">
         <f t="array" ref="BO34" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK34, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ann</v>
       </c>
@@ -53481,19 +53435,19 @@
         <f>注音編碼對照表!C34</f>
         <v>I</v>
       </c>
-      <c r="BL35" s="583" t="str" cm="1">
+      <c r="BL35" s="560" t="str" cm="1">
         <f t="array" ref="BL35" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK35, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆧ</v>
       </c>
-      <c r="BM35" s="584" t="str" cm="1">
+      <c r="BM35" s="561" t="str" cm="1">
         <f t="array" ref="BM35" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK35, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>⁰ㆦ</v>
       </c>
-      <c r="BN35" s="581" t="str" cm="1">
+      <c r="BN35" s="558" t="str" cm="1">
         <f t="array" ref="BN35" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK35, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ɔ̃</v>
       </c>
-      <c r="BO35" s="582" t="str" cm="1">
+      <c r="BO35" s="559" t="str" cm="1">
         <f t="array" ref="BO35" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK35, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>onn</v>
       </c>
@@ -53601,19 +53555,19 @@
         <f>注音編碼對照表!C35</f>
         <v>&lt;</v>
       </c>
-      <c r="BL36" s="583" t="str" cm="1">
+      <c r="BL36" s="560" t="str" cm="1">
         <f t="array" ref="BL36" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK36, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆥ</v>
       </c>
-      <c r="BM36" s="584" t="str" cm="1">
+      <c r="BM36" s="561" t="str" cm="1">
         <f t="array" ref="BM36" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK36, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>⁰ㄝ</v>
       </c>
-      <c r="BN36" s="581" t="str" cm="1">
+      <c r="BN36" s="558" t="str" cm="1">
         <f t="array" ref="BN36" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK36, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ẽ</v>
       </c>
-      <c r="BO36" s="582" t="str" cm="1">
+      <c r="BO36" s="559" t="str" cm="1">
         <f t="array" ref="BO36" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK36, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>enn</v>
       </c>
@@ -53721,19 +53675,19 @@
         <f>注音編碼對照表!C36</f>
         <v>(</v>
       </c>
-      <c r="BL37" s="583" t="str" cm="1">
+      <c r="BL37" s="560" t="str" cm="1">
         <f t="array" ref="BL37" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK37, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆮ</v>
       </c>
-      <c r="BM37" s="584" t="str" cm="1">
+      <c r="BM37" s="561" t="str" cm="1">
         <f t="array" ref="BM37" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK37, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>⁰ㄞ</v>
       </c>
-      <c r="BN37" s="581" t="str" cm="1">
+      <c r="BN37" s="558" t="str" cm="1">
         <f t="array" ref="BN37" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK37, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ãĩ</v>
       </c>
-      <c r="BO37" s="582" t="str" cm="1">
+      <c r="BO37" s="559" t="str" cm="1">
         <f t="array" ref="BO37" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK37, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ainn</v>
       </c>
@@ -53838,19 +53792,19 @@
         <f>注音編碼對照表!C37</f>
         <v>L</v>
       </c>
-      <c r="BL38" s="583" t="str" cm="1">
+      <c r="BL38" s="560" t="str" cm="1">
         <f t="array" ref="BL38" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK38, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆯ</v>
       </c>
-      <c r="BM38" s="584" t="str" cm="1">
+      <c r="BM38" s="561" t="str" cm="1">
         <f t="array" ref="BM38" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK38, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>⁰ㄠ</v>
       </c>
-      <c r="BN38" s="581" t="str" cm="1">
+      <c r="BN38" s="558" t="str" cm="1">
         <f t="array" ref="BN38" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK38, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ãũ</v>
       </c>
-      <c r="BO38" s="582" t="str" cm="1">
+      <c r="BO38" s="559" t="str" cm="1">
         <f t="array" ref="BO38" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK38, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>aunn</v>
       </c>
@@ -53964,19 +53918,19 @@
         <f>注音編碼對照表!C38</f>
         <v>M</v>
       </c>
-      <c r="BL39" s="583" t="str" cm="1">
+      <c r="BL39" s="560" t="str" cm="1">
         <f t="array" ref="BL39" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK39, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆰ</v>
       </c>
-      <c r="BM39" s="584" t="str" cm="1">
+      <c r="BM39" s="561" t="str" cm="1">
         <f t="array" ref="BM39" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK39, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄚㄇ</v>
       </c>
-      <c r="BN39" s="581" t="str" cm="1">
+      <c r="BN39" s="558" t="str" cm="1">
         <f t="array" ref="BN39" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK39, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>am</v>
       </c>
-      <c r="BO39" s="582" t="str" cm="1">
+      <c r="BO39" s="559" t="str" cm="1">
         <f t="array" ref="BO39" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK39, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>am</v>
       </c>
@@ -54090,19 +54044,19 @@
         <f>注音編碼對照表!C39</f>
         <v>o</v>
       </c>
-      <c r="BL40" s="583" t="str" cm="1">
+      <c r="BL40" s="560" t="str" cm="1">
         <f t="array" ref="BL40" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK40, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆲ</v>
       </c>
-      <c r="BM40" s="584" t="str" cm="1">
+      <c r="BM40" s="561" t="str" cm="1">
         <f t="array" ref="BM40" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK40, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄛㄥ</v>
       </c>
-      <c r="BN40" s="581" t="str" cm="1">
+      <c r="BN40" s="558" t="str" cm="1">
         <f t="array" ref="BN40" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK40, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ɔŋ</v>
       </c>
-      <c r="BO40" s="582" t="str" cm="1">
+      <c r="BO40" s="559" t="str" cm="1">
         <f t="array" ref="BO40" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK40, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ong</v>
       </c>
@@ -54195,19 +54149,19 @@
         <f>注音編碼對照表!C40</f>
         <v>/</v>
       </c>
-      <c r="BL41" s="583" t="str" cm="1">
+      <c r="BL41" s="560" t="str" cm="1">
         <f t="array" ref="BL41" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK41, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆭ</v>
       </c>
-      <c r="BM41" s="584" t="str" cm="1">
+      <c r="BM41" s="561" t="str" cm="1">
         <f t="array" ref="BM41" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK41, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄥ</v>
       </c>
-      <c r="BN41" s="581" t="str" cm="1">
+      <c r="BN41" s="558" t="str" cm="1">
         <f t="array" ref="BN41" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK41, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ŋ̍</v>
       </c>
-      <c r="BO41" s="582" t="str" cm="1">
+      <c r="BO41" s="559" t="str" cm="1">
         <f t="array" ref="BO41" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK41, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>-ng</v>
       </c>
@@ -54268,19 +54222,19 @@
         <f>注音編碼對照表!C41</f>
         <v>p</v>
       </c>
-      <c r="BL42" s="583" t="str" cm="1">
+      <c r="BL42" s="560" t="str" cm="1">
         <f t="array" ref="BL42" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK42, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄣ</v>
       </c>
-      <c r="BM42" s="584" t="str" cm="1">
+      <c r="BM42" s="561" t="str" cm="1">
         <f t="array" ref="BM42" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK42, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄣ</v>
       </c>
-      <c r="BN42" s="581" t="str" cm="1">
+      <c r="BN42" s="558" t="str" cm="1">
         <f t="array" ref="BN42" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK42, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>n</v>
       </c>
-      <c r="BO42" s="582" t="str" cm="1">
+      <c r="BO42" s="559" t="str" cm="1">
         <f t="array" ref="BO42" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK42, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>-n</v>
       </c>
@@ -54376,19 +54330,19 @@
         <f>注音編碼對照表!C42</f>
         <v>m</v>
       </c>
-      <c r="BL43" s="583" t="str" cm="1">
+      <c r="BL43" s="560" t="str" cm="1">
         <f t="array" ref="BL43" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK43, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㆬ</v>
       </c>
-      <c r="BM43" s="584" t="str" cm="1">
+      <c r="BM43" s="561" t="str" cm="1">
         <f t="array" ref="BM43" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK43, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄇ</v>
       </c>
-      <c r="BN43" s="581" t="str" cm="1">
+      <c r="BN43" s="558" t="str" cm="1">
         <f t="array" ref="BN43" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK43, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>m̩</v>
       </c>
-      <c r="BO43" s="582" t="str" cm="1">
+      <c r="BO43" s="559" t="str" cm="1">
         <f t="array" ref="BO43" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK43, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>-m</v>
       </c>
@@ -54497,19 +54451,19 @@
         <f>注音編碼對照表!C43</f>
         <v>.</v>
       </c>
-      <c r="BL44" s="583" t="str" cm="1">
+      <c r="BL44" s="560" t="str" cm="1">
         <f t="array" ref="BL44" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK44, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄬ</v>
       </c>
-      <c r="BM44" s="584" t="str" cm="1">
+      <c r="BM44" s="561" t="str" cm="1">
         <f t="array" ref="BM44" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK44, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ㄬ</v>
       </c>
-      <c r="BN44" s="581" t="str" cm="1">
+      <c r="BN44" s="558" t="str" cm="1">
         <f t="array" ref="BN44" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK44, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ɲ</v>
       </c>
-      <c r="BO44" s="582" t="str" cm="1">
+      <c r="BO44" s="559" t="str" cm="1">
         <f t="array" ref="BO44" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK44, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>-nn</v>
       </c>
@@ -54603,19 +54557,19 @@
         <f>注音編碼對照表!C44</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BL45" s="583" t="str" cm="1">
+      <c r="BL45" s="560" t="str" cm="1">
         <f t="array" ref="BL45" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK45, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ˉ</v>
       </c>
-      <c r="BM45" s="584" cm="1">
+      <c r="BM45" s="561" cm="1">
         <f t="array" ref="BM45" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK45, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>0</v>
       </c>
-      <c r="BN45" s="581" cm="1">
+      <c r="BN45" s="558" cm="1">
         <f t="array" ref="BN45" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK45, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>0</v>
       </c>
-      <c r="BO45" s="582" cm="1">
+      <c r="BO45" s="559" cm="1">
         <f t="array" ref="BO45" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK45, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>1</v>
       </c>
@@ -54691,19 +54645,19 @@
         <f>注音編碼對照表!C45</f>
         <v>4</v>
       </c>
-      <c r="BL46" s="583" t="str" cm="1">
+      <c r="BL46" s="560" t="str" cm="1">
         <f t="array" ref="BL46" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK46, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ˋ</v>
       </c>
-      <c r="BM46" s="584" cm="1">
+      <c r="BM46" s="561" cm="1">
         <f t="array" ref="BM46" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK46, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>0</v>
       </c>
-      <c r="BN46" s="581" cm="1">
+      <c r="BN46" s="558" cm="1">
         <f t="array" ref="BN46" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK46, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>0</v>
       </c>
-      <c r="BO46" s="582" cm="1">
+      <c r="BO46" s="559" cm="1">
         <f t="array" ref="BO46" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK46, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>2</v>
       </c>
@@ -54774,19 +54728,19 @@
         <f>注音編碼對照表!C46</f>
         <v>3</v>
       </c>
-      <c r="BL47" s="583" t="str" cm="1">
+      <c r="BL47" s="560" t="str" cm="1">
         <f t="array" ref="BL47" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK47, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>˪</v>
       </c>
-      <c r="BM47" s="584" cm="1">
+      <c r="BM47" s="561" cm="1">
         <f t="array" ref="BM47" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK47, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>0</v>
       </c>
-      <c r="BN47" s="581" cm="1">
+      <c r="BN47" s="558" cm="1">
         <f t="array" ref="BN47" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK47, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>0</v>
       </c>
-      <c r="BO47" s="582" cm="1">
+      <c r="BO47" s="559" cm="1">
         <f t="array" ref="BO47" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK47, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>3</v>
       </c>
@@ -54854,19 +54808,19 @@
         <f>注音編碼對照表!C47</f>
         <v>6</v>
       </c>
-      <c r="BL48" s="583" t="str" cm="1">
+      <c r="BL48" s="560" t="str" cm="1">
         <f t="array" ref="BL48" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK48, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>ˊ</v>
       </c>
-      <c r="BM48" s="584" cm="1">
+      <c r="BM48" s="561" cm="1">
         <f t="array" ref="BM48" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK48, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>0</v>
       </c>
-      <c r="BN48" s="581" cm="1">
+      <c r="BN48" s="558" cm="1">
         <f t="array" ref="BN48" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK48, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>0</v>
       </c>
-      <c r="BO48" s="582" cm="1">
+      <c r="BO48" s="559" cm="1">
         <f t="array" ref="BO48" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK48, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>5</v>
       </c>
@@ -54934,19 +54888,19 @@
         <f>注音編碼對照表!C48</f>
         <v>5</v>
       </c>
-      <c r="BL49" s="583" t="str" cm="1">
+      <c r="BL49" s="560" t="str" cm="1">
         <f t="array" ref="BL49" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK49, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>˫</v>
       </c>
-      <c r="BM49" s="584" cm="1">
+      <c r="BM49" s="561" cm="1">
         <f t="array" ref="BM49" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK49, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>0</v>
       </c>
-      <c r="BN49" s="581" cm="1">
+      <c r="BN49" s="558" cm="1">
         <f t="array" ref="BN49" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK49, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>0</v>
       </c>
-      <c r="BO49" s="582" cm="1">
+      <c r="BO49" s="559" cm="1">
         <f t="array" ref="BO49" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK49, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>7</v>
       </c>
@@ -54986,19 +54940,19 @@
         <f>注音編碼對照表!C49</f>
         <v>7</v>
       </c>
-      <c r="BL50" s="583" t="str" cm="1">
+      <c r="BL50" s="560" t="str" cm="1">
         <f t="array" ref="BL50" xml:space="preserve"> INDEX( 注音編碼對照表[方音符號], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK50, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>˙</v>
       </c>
-      <c r="BM50" s="584" cm="1">
+      <c r="BM50" s="561" cm="1">
         <f t="array" ref="BM50" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標注音], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK50, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>0</v>
       </c>
-      <c r="BN50" s="581" cm="1">
+      <c r="BN50" s="558" cm="1">
         <f t="array" ref="BN50" xml:space="preserve"> INDEX( 注音編碼對照表[國際音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK50, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>0</v>
       </c>
-      <c r="BO50" s="582" t="str" cm="1">
+      <c r="BO50" s="559" t="str" cm="1">
         <f t="array" ref="BO50" xml:space="preserve"> INDEX( 注音編碼對照表[台語音標], MATCH(TRUE, EXACT(台語音標注音鍵盤!$BK50, 注音編碼對照表[鍵盤按鍵]), 0))</f>
         <v>[48]</v>
       </c>
@@ -55941,21 +55895,26 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
     <mergeCell ref="AM5:AO5"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
@@ -55972,26 +55931,21 @@
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -56009,1078 +55963,1062 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.19921875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="1.8984375" style="592" customWidth="1"/>
-    <col min="3" max="42" width="2.8984375" style="592" customWidth="1"/>
-    <col min="43" max="44" width="2.296875" style="592" customWidth="1"/>
-    <col min="45" max="16384" width="7.19921875" style="592"/>
+    <col min="1" max="2" width="1.8984375" style="569" customWidth="1"/>
+    <col min="3" max="42" width="2.8984375" style="569" customWidth="1"/>
+    <col min="43" max="44" width="2.296875" style="569" customWidth="1"/>
+    <col min="45" max="16384" width="7.19921875" style="569"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:48" ht="15" thickBot="1"/>
-    <row r="2" spans="3:48" s="601" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="642" t="s">
+    <row r="2" spans="3:48" s="570" customFormat="1" ht="18" customHeight="1">
+      <c r="C2" s="649" t="s">
         <v>929</v>
       </c>
-      <c r="D2" s="643"/>
-      <c r="E2" s="644"/>
-      <c r="F2" s="642" t="s">
+      <c r="D2" s="650"/>
+      <c r="E2" s="651"/>
+      <c r="F2" s="649" t="s">
         <v>930</v>
       </c>
-      <c r="G2" s="643"/>
-      <c r="H2" s="644"/>
-      <c r="I2" s="593" t="s">
+      <c r="G2" s="650"/>
+      <c r="H2" s="651"/>
+      <c r="I2" s="660" t="s">
         <v>931</v>
       </c>
-      <c r="J2" s="594"/>
-      <c r="K2" s="595"/>
-      <c r="L2" s="593" t="s">
+      <c r="J2" s="661"/>
+      <c r="K2" s="662"/>
+      <c r="L2" s="660" t="s">
         <v>932</v>
       </c>
-      <c r="M2" s="594"/>
-      <c r="N2" s="595"/>
-      <c r="O2" s="596" t="s">
+      <c r="M2" s="661"/>
+      <c r="N2" s="662"/>
+      <c r="O2" s="664" t="s">
         <v>933</v>
       </c>
-      <c r="P2" s="594"/>
-      <c r="Q2" s="595"/>
-      <c r="R2" s="593" t="s">
+      <c r="P2" s="661"/>
+      <c r="Q2" s="662"/>
+      <c r="R2" s="660" t="s">
         <v>934</v>
       </c>
-      <c r="S2" s="594"/>
-      <c r="T2" s="595"/>
-      <c r="U2" s="593" t="s">
+      <c r="S2" s="661"/>
+      <c r="T2" s="662"/>
+      <c r="U2" s="660" t="s">
         <v>935</v>
       </c>
-      <c r="V2" s="594"/>
-      <c r="W2" s="595"/>
-      <c r="X2" s="597" t="s">
+      <c r="V2" s="661"/>
+      <c r="W2" s="662"/>
+      <c r="X2" s="629" t="s">
         <v>936</v>
       </c>
-      <c r="Y2" s="598"/>
-      <c r="Z2" s="599"/>
-      <c r="AA2" s="597" t="s">
+      <c r="Y2" s="630"/>
+      <c r="Z2" s="631"/>
+      <c r="AA2" s="629" t="s">
         <v>937</v>
       </c>
-      <c r="AB2" s="598"/>
-      <c r="AC2" s="599"/>
-      <c r="AD2" s="597" t="s">
+      <c r="AB2" s="630"/>
+      <c r="AC2" s="631"/>
+      <c r="AD2" s="629" t="s">
         <v>938</v>
       </c>
-      <c r="AE2" s="598"/>
-      <c r="AF2" s="599"/>
-      <c r="AG2" s="597" t="s">
+      <c r="AE2" s="630"/>
+      <c r="AF2" s="631"/>
+      <c r="AG2" s="629" t="s">
         <v>939</v>
       </c>
-      <c r="AH2" s="598"/>
-      <c r="AI2" s="599"/>
-      <c r="AJ2" s="600" t="s">
+      <c r="AH2" s="630"/>
+      <c r="AI2" s="631"/>
+      <c r="AJ2" s="663" t="s">
         <v>940</v>
       </c>
-      <c r="AK2" s="598"/>
-      <c r="AL2" s="599"/>
-    </row>
-    <row r="3" spans="3:48" s="618" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C3" s="645"/>
-      <c r="D3" s="646"/>
-      <c r="E3" s="647"/>
-      <c r="F3" s="645"/>
-      <c r="G3" s="646"/>
-      <c r="H3" s="647"/>
-      <c r="I3" s="602"/>
-      <c r="J3" s="603"/>
-      <c r="K3" s="604"/>
-      <c r="L3" s="602"/>
-      <c r="M3" s="603"/>
-      <c r="N3" s="604"/>
-      <c r="O3" s="602"/>
-      <c r="P3" s="603"/>
-      <c r="Q3" s="604"/>
-      <c r="R3" s="602"/>
-      <c r="S3" s="603"/>
-      <c r="T3" s="604"/>
-      <c r="U3" s="605"/>
-      <c r="V3" s="606"/>
-      <c r="W3" s="607"/>
-      <c r="X3" s="608"/>
-      <c r="Y3" s="609"/>
-      <c r="Z3" s="610"/>
-      <c r="AA3" s="611"/>
-      <c r="AB3" s="612"/>
-      <c r="AC3" s="613"/>
-      <c r="AD3" s="611"/>
-      <c r="AE3" s="612"/>
-      <c r="AF3" s="613"/>
-      <c r="AG3" s="641" t="s">
+      <c r="AK2" s="630"/>
+      <c r="AL2" s="631"/>
+    </row>
+    <row r="3" spans="3:48" s="571" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C3" s="635"/>
+      <c r="D3" s="636"/>
+      <c r="E3" s="637"/>
+      <c r="F3" s="635"/>
+      <c r="G3" s="636"/>
+      <c r="H3" s="637"/>
+      <c r="I3" s="657"/>
+      <c r="J3" s="658"/>
+      <c r="K3" s="659"/>
+      <c r="L3" s="657"/>
+      <c r="M3" s="658"/>
+      <c r="N3" s="659"/>
+      <c r="O3" s="657"/>
+      <c r="P3" s="658"/>
+      <c r="Q3" s="659"/>
+      <c r="R3" s="657"/>
+      <c r="S3" s="658"/>
+      <c r="T3" s="659"/>
+      <c r="U3" s="652"/>
+      <c r="V3" s="653"/>
+      <c r="W3" s="654"/>
+      <c r="X3" s="620"/>
+      <c r="Y3" s="621"/>
+      <c r="Z3" s="622"/>
+      <c r="AA3" s="642"/>
+      <c r="AB3" s="643"/>
+      <c r="AC3" s="644"/>
+      <c r="AD3" s="642"/>
+      <c r="AE3" s="643"/>
+      <c r="AF3" s="644"/>
+      <c r="AG3" s="655" t="s">
         <v>997</v>
       </c>
-      <c r="AH3" s="615"/>
-      <c r="AI3" s="616"/>
-      <c r="AJ3" s="617"/>
-      <c r="AK3" s="612"/>
-      <c r="AL3" s="613"/>
-    </row>
-    <row r="4" spans="3:48" s="601" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="642" t="s">
+      <c r="AH3" s="624"/>
+      <c r="AI3" s="625"/>
+      <c r="AJ3" s="656"/>
+      <c r="AK3" s="643"/>
+      <c r="AL3" s="644"/>
+    </row>
+    <row r="4" spans="3:48" s="570" customFormat="1" ht="18" customHeight="1">
+      <c r="D4" s="649" t="s">
         <v>1000</v>
       </c>
-      <c r="E4" s="643"/>
-      <c r="F4" s="644"/>
-      <c r="G4" s="648" t="s">
+      <c r="E4" s="650"/>
+      <c r="F4" s="651"/>
+      <c r="G4" s="638" t="s">
         <v>941</v>
       </c>
-      <c r="H4" s="649"/>
-      <c r="I4" s="650"/>
-      <c r="J4" s="648" t="s">
+      <c r="H4" s="639"/>
+      <c r="I4" s="640"/>
+      <c r="J4" s="638" t="s">
         <v>942</v>
       </c>
-      <c r="K4" s="649"/>
-      <c r="L4" s="650"/>
-      <c r="M4" s="648" t="s">
+      <c r="K4" s="639"/>
+      <c r="L4" s="640"/>
+      <c r="M4" s="638" t="s">
         <v>943</v>
       </c>
-      <c r="N4" s="649"/>
-      <c r="O4" s="650"/>
-      <c r="P4" s="648" t="s">
+      <c r="N4" s="639"/>
+      <c r="O4" s="640"/>
+      <c r="P4" s="638" t="s">
         <v>944</v>
       </c>
-      <c r="Q4" s="649"/>
-      <c r="R4" s="650"/>
-      <c r="S4" s="648" t="s">
+      <c r="Q4" s="639"/>
+      <c r="R4" s="640"/>
+      <c r="S4" s="638" t="s">
         <v>945</v>
       </c>
-      <c r="T4" s="649"/>
-      <c r="U4" s="650"/>
-      <c r="V4" s="619" t="s">
+      <c r="T4" s="639"/>
+      <c r="U4" s="640"/>
+      <c r="V4" s="626" t="s">
         <v>946</v>
       </c>
-      <c r="W4" s="620"/>
-      <c r="X4" s="621"/>
-      <c r="Y4" s="619" t="s">
+      <c r="W4" s="627"/>
+      <c r="X4" s="628"/>
+      <c r="Y4" s="626" t="s">
         <v>947</v>
       </c>
-      <c r="Z4" s="620"/>
-      <c r="AA4" s="621"/>
-      <c r="AB4" s="619" t="s">
+      <c r="Z4" s="627"/>
+      <c r="AA4" s="628"/>
+      <c r="AB4" s="626" t="s">
         <v>948</v>
       </c>
-      <c r="AC4" s="620"/>
-      <c r="AD4" s="621"/>
-      <c r="AE4" s="619" t="s">
+      <c r="AC4" s="627"/>
+      <c r="AD4" s="628"/>
+      <c r="AE4" s="626" t="s">
         <v>949</v>
       </c>
-      <c r="AF4" s="620"/>
-      <c r="AG4" s="621"/>
-      <c r="AH4" s="597" t="s">
+      <c r="AF4" s="627"/>
+      <c r="AG4" s="628"/>
+      <c r="AH4" s="629" t="s">
         <v>950</v>
       </c>
-      <c r="AI4" s="598"/>
-      <c r="AJ4" s="599"/>
-      <c r="AK4" s="597" t="s">
+      <c r="AI4" s="630"/>
+      <c r="AJ4" s="631"/>
+      <c r="AK4" s="629" t="s">
         <v>951</v>
       </c>
-      <c r="AL4" s="598"/>
-      <c r="AM4" s="599"/>
-      <c r="AN4" s="597" t="s">
+      <c r="AL4" s="630"/>
+      <c r="AM4" s="631"/>
+      <c r="AN4" s="629" t="s">
         <v>952</v>
       </c>
-      <c r="AO4" s="598"/>
-      <c r="AP4" s="599"/>
-    </row>
-    <row r="5" spans="3:48" s="618" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="D5" s="645"/>
-      <c r="E5" s="646"/>
-      <c r="F5" s="647"/>
-      <c r="G5" s="645"/>
-      <c r="H5" s="646"/>
-      <c r="I5" s="647"/>
-      <c r="J5" s="645"/>
-      <c r="K5" s="646"/>
-      <c r="L5" s="647"/>
-      <c r="M5" s="645"/>
-      <c r="N5" s="646"/>
-      <c r="O5" s="647"/>
-      <c r="P5" s="651"/>
-      <c r="Q5" s="652"/>
-      <c r="R5" s="653"/>
-      <c r="S5" s="645"/>
-      <c r="T5" s="646"/>
-      <c r="U5" s="647"/>
-      <c r="V5" s="608"/>
-      <c r="W5" s="609"/>
-      <c r="X5" s="610"/>
-      <c r="Y5" s="608"/>
-      <c r="Z5" s="609"/>
-      <c r="AA5" s="610"/>
-      <c r="AB5" s="608"/>
-      <c r="AC5" s="609"/>
-      <c r="AD5" s="610"/>
-      <c r="AE5" s="608"/>
-      <c r="AF5" s="609"/>
-      <c r="AG5" s="610"/>
-      <c r="AH5" s="622"/>
-      <c r="AI5" s="623"/>
-      <c r="AJ5" s="624"/>
-      <c r="AK5" s="614" t="s">
+      <c r="AO4" s="630"/>
+      <c r="AP4" s="631"/>
+    </row>
+    <row r="5" spans="3:48" s="571" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="D5" s="635"/>
+      <c r="E5" s="636"/>
+      <c r="F5" s="637"/>
+      <c r="G5" s="635"/>
+      <c r="H5" s="636"/>
+      <c r="I5" s="637"/>
+      <c r="J5" s="635"/>
+      <c r="K5" s="636"/>
+      <c r="L5" s="637"/>
+      <c r="M5" s="635"/>
+      <c r="N5" s="636"/>
+      <c r="O5" s="637"/>
+      <c r="P5" s="632"/>
+      <c r="Q5" s="633"/>
+      <c r="R5" s="634"/>
+      <c r="S5" s="635"/>
+      <c r="T5" s="636"/>
+      <c r="U5" s="637"/>
+      <c r="V5" s="620"/>
+      <c r="W5" s="621"/>
+      <c r="X5" s="622"/>
+      <c r="Y5" s="620"/>
+      <c r="Z5" s="621"/>
+      <c r="AA5" s="622"/>
+      <c r="AB5" s="620"/>
+      <c r="AC5" s="621"/>
+      <c r="AD5" s="622"/>
+      <c r="AE5" s="620"/>
+      <c r="AF5" s="621"/>
+      <c r="AG5" s="622"/>
+      <c r="AH5" s="646"/>
+      <c r="AI5" s="647"/>
+      <c r="AJ5" s="648"/>
+      <c r="AK5" s="623" t="s">
         <v>953</v>
       </c>
-      <c r="AL5" s="615"/>
-      <c r="AM5" s="616"/>
-      <c r="AN5" s="614" t="s">
+      <c r="AL5" s="624"/>
+      <c r="AM5" s="625"/>
+      <c r="AN5" s="623" t="s">
         <v>954</v>
       </c>
-      <c r="AO5" s="615"/>
-      <c r="AP5" s="616"/>
-    </row>
-    <row r="6" spans="3:48" s="601" customFormat="1" ht="18" customHeight="1">
-      <c r="D6" s="625"/>
-      <c r="E6" s="648" t="s">
+      <c r="AO5" s="624"/>
+      <c r="AP5" s="625"/>
+    </row>
+    <row r="6" spans="3:48" s="570" customFormat="1" ht="18" customHeight="1">
+      <c r="D6" s="572"/>
+      <c r="E6" s="638" t="s">
         <v>955</v>
       </c>
-      <c r="F6" s="649"/>
-      <c r="G6" s="650"/>
-      <c r="H6" s="648" t="s">
+      <c r="F6" s="639"/>
+      <c r="G6" s="640"/>
+      <c r="H6" s="638" t="s">
         <v>956</v>
       </c>
-      <c r="I6" s="649"/>
-      <c r="J6" s="650"/>
-      <c r="K6" s="648" t="s">
+      <c r="I6" s="639"/>
+      <c r="J6" s="640"/>
+      <c r="K6" s="638" t="s">
         <v>957</v>
       </c>
-      <c r="L6" s="649"/>
-      <c r="M6" s="650"/>
-      <c r="N6" s="648" t="s">
+      <c r="L6" s="639"/>
+      <c r="M6" s="640"/>
+      <c r="N6" s="638" t="s">
         <v>958</v>
       </c>
-      <c r="O6" s="649"/>
-      <c r="P6" s="650"/>
-      <c r="Q6" s="648" t="s">
+      <c r="O6" s="639"/>
+      <c r="P6" s="640"/>
+      <c r="Q6" s="638" t="s">
         <v>959</v>
       </c>
-      <c r="R6" s="649"/>
-      <c r="S6" s="650"/>
-      <c r="T6" s="648" t="s">
+      <c r="R6" s="639"/>
+      <c r="S6" s="640"/>
+      <c r="T6" s="638" t="s">
         <v>960</v>
       </c>
-      <c r="U6" s="649"/>
-      <c r="V6" s="650"/>
-      <c r="W6" s="619" t="s">
+      <c r="U6" s="639"/>
+      <c r="V6" s="640"/>
+      <c r="W6" s="626" t="s">
         <v>961</v>
       </c>
-      <c r="X6" s="620"/>
-      <c r="Y6" s="621"/>
-      <c r="Z6" s="619" t="s">
+      <c r="X6" s="627"/>
+      <c r="Y6" s="628"/>
+      <c r="Z6" s="626" t="s">
         <v>962</v>
       </c>
-      <c r="AA6" s="620"/>
-      <c r="AB6" s="621"/>
-      <c r="AC6" s="619" t="s">
+      <c r="AA6" s="627"/>
+      <c r="AB6" s="628"/>
+      <c r="AC6" s="626" t="s">
         <v>963</v>
       </c>
-      <c r="AD6" s="620"/>
-      <c r="AE6" s="621"/>
-      <c r="AF6" s="597" t="s">
+      <c r="AD6" s="627"/>
+      <c r="AE6" s="628"/>
+      <c r="AF6" s="629" t="s">
         <v>964</v>
       </c>
-      <c r="AG6" s="598"/>
-      <c r="AH6" s="599"/>
-      <c r="AI6" s="597" t="s">
+      <c r="AG6" s="630"/>
+      <c r="AH6" s="631"/>
+      <c r="AI6" s="629" t="s">
         <v>965</v>
       </c>
-      <c r="AJ6" s="598"/>
-      <c r="AK6" s="599"/>
-    </row>
-    <row r="7" spans="3:48" s="618" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="E7" s="645"/>
-      <c r="F7" s="646"/>
-      <c r="G7" s="647"/>
-      <c r="H7" s="645"/>
-      <c r="I7" s="646"/>
-      <c r="J7" s="647"/>
-      <c r="K7" s="645"/>
-      <c r="L7" s="646"/>
-      <c r="M7" s="647"/>
-      <c r="N7" s="645"/>
-      <c r="O7" s="646"/>
-      <c r="P7" s="647"/>
-      <c r="Q7" s="654"/>
-      <c r="R7" s="652"/>
-      <c r="S7" s="653"/>
-      <c r="T7" s="645"/>
-      <c r="U7" s="646"/>
-      <c r="V7" s="647"/>
-      <c r="W7" s="608"/>
-      <c r="X7" s="609"/>
-      <c r="Y7" s="610"/>
-      <c r="Z7" s="608"/>
-      <c r="AA7" s="609"/>
-      <c r="AB7" s="610"/>
-      <c r="AC7" s="626"/>
-      <c r="AD7" s="609"/>
-      <c r="AE7" s="610"/>
-      <c r="AF7" s="614" t="s">
+      <c r="AJ6" s="630"/>
+      <c r="AK6" s="631"/>
+    </row>
+    <row r="7" spans="3:48" s="571" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="E7" s="635"/>
+      <c r="F7" s="636"/>
+      <c r="G7" s="637"/>
+      <c r="H7" s="635"/>
+      <c r="I7" s="636"/>
+      <c r="J7" s="637"/>
+      <c r="K7" s="635"/>
+      <c r="L7" s="636"/>
+      <c r="M7" s="637"/>
+      <c r="N7" s="635"/>
+      <c r="O7" s="636"/>
+      <c r="P7" s="637"/>
+      <c r="Q7" s="645"/>
+      <c r="R7" s="633"/>
+      <c r="S7" s="634"/>
+      <c r="T7" s="635"/>
+      <c r="U7" s="636"/>
+      <c r="V7" s="637"/>
+      <c r="W7" s="620"/>
+      <c r="X7" s="621"/>
+      <c r="Y7" s="622"/>
+      <c r="Z7" s="620"/>
+      <c r="AA7" s="621"/>
+      <c r="AB7" s="622"/>
+      <c r="AC7" s="641"/>
+      <c r="AD7" s="621"/>
+      <c r="AE7" s="622"/>
+      <c r="AF7" s="623" t="s">
         <v>998</v>
       </c>
-      <c r="AG7" s="615"/>
-      <c r="AH7" s="616"/>
-      <c r="AI7" s="611"/>
-      <c r="AJ7" s="612"/>
-      <c r="AK7" s="613"/>
-    </row>
-    <row r="8" spans="3:48" s="601" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="648" t="s">
+      <c r="AG7" s="624"/>
+      <c r="AH7" s="625"/>
+      <c r="AI7" s="642"/>
+      <c r="AJ7" s="643"/>
+      <c r="AK7" s="644"/>
+    </row>
+    <row r="8" spans="3:48" s="570" customFormat="1" ht="18" customHeight="1">
+      <c r="F8" s="638" t="s">
         <v>966</v>
       </c>
-      <c r="G8" s="649"/>
-      <c r="H8" s="650"/>
-      <c r="I8" s="648" t="s">
+      <c r="G8" s="639"/>
+      <c r="H8" s="640"/>
+      <c r="I8" s="638" t="s">
         <v>967</v>
       </c>
-      <c r="J8" s="649"/>
-      <c r="K8" s="650"/>
-      <c r="L8" s="648" t="s">
+      <c r="J8" s="639"/>
+      <c r="K8" s="640"/>
+      <c r="L8" s="638" t="s">
         <v>968</v>
       </c>
-      <c r="M8" s="649"/>
-      <c r="N8" s="650"/>
-      <c r="O8" s="648" t="s">
+      <c r="M8" s="639"/>
+      <c r="N8" s="640"/>
+      <c r="O8" s="638" t="s">
         <v>969</v>
       </c>
-      <c r="P8" s="649"/>
-      <c r="Q8" s="650"/>
-      <c r="R8" s="648" t="s">
+      <c r="P8" s="639"/>
+      <c r="Q8" s="640"/>
+      <c r="R8" s="638" t="s">
         <v>970</v>
       </c>
-      <c r="S8" s="649"/>
-      <c r="T8" s="650"/>
-      <c r="U8" s="648" t="s">
+      <c r="S8" s="639"/>
+      <c r="T8" s="640"/>
+      <c r="U8" s="638" t="s">
         <v>971</v>
       </c>
-      <c r="V8" s="649"/>
-      <c r="W8" s="650"/>
-      <c r="X8" s="619" t="s">
+      <c r="V8" s="639"/>
+      <c r="W8" s="640"/>
+      <c r="X8" s="626" t="s">
         <v>972</v>
       </c>
-      <c r="Y8" s="620"/>
-      <c r="Z8" s="621"/>
-      <c r="AA8" s="597" t="s">
+      <c r="Y8" s="627"/>
+      <c r="Z8" s="628"/>
+      <c r="AA8" s="629" t="s">
         <v>973</v>
       </c>
-      <c r="AB8" s="598"/>
-      <c r="AC8" s="599"/>
-      <c r="AD8" s="597" t="s">
+      <c r="AB8" s="630"/>
+      <c r="AC8" s="631"/>
+      <c r="AD8" s="629" t="s">
         <v>974</v>
       </c>
-      <c r="AE8" s="598"/>
-      <c r="AF8" s="599"/>
-      <c r="AG8" s="597" t="s">
+      <c r="AE8" s="630"/>
+      <c r="AF8" s="631"/>
+      <c r="AG8" s="629" t="s">
         <v>975</v>
       </c>
-      <c r="AH8" s="598"/>
-      <c r="AI8" s="599"/>
-    </row>
-    <row r="9" spans="3:48" s="618" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="F9" s="651"/>
-      <c r="G9" s="652"/>
-      <c r="H9" s="653"/>
-      <c r="I9" s="645"/>
-      <c r="J9" s="646"/>
-      <c r="K9" s="647"/>
-      <c r="L9" s="645"/>
-      <c r="M9" s="646"/>
-      <c r="N9" s="647"/>
-      <c r="O9" s="645"/>
-      <c r="P9" s="646"/>
-      <c r="Q9" s="647"/>
-      <c r="R9" s="651"/>
-      <c r="S9" s="652"/>
-      <c r="T9" s="653"/>
-      <c r="U9" s="645"/>
-      <c r="V9" s="646"/>
-      <c r="W9" s="647"/>
-      <c r="X9" s="608"/>
-      <c r="Y9" s="609"/>
-      <c r="Z9" s="610"/>
-      <c r="AA9" s="614"/>
-      <c r="AB9" s="615"/>
-      <c r="AC9" s="616"/>
-      <c r="AD9" s="614" t="s">
+      <c r="AH8" s="630"/>
+      <c r="AI8" s="631"/>
+    </row>
+    <row r="9" spans="3:48" s="571" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="F9" s="632"/>
+      <c r="G9" s="633"/>
+      <c r="H9" s="634"/>
+      <c r="I9" s="635"/>
+      <c r="J9" s="636"/>
+      <c r="K9" s="637"/>
+      <c r="L9" s="635"/>
+      <c r="M9" s="636"/>
+      <c r="N9" s="637"/>
+      <c r="O9" s="635"/>
+      <c r="P9" s="636"/>
+      <c r="Q9" s="637"/>
+      <c r="R9" s="632"/>
+      <c r="S9" s="633"/>
+      <c r="T9" s="634"/>
+      <c r="U9" s="635"/>
+      <c r="V9" s="636"/>
+      <c r="W9" s="637"/>
+      <c r="X9" s="620"/>
+      <c r="Y9" s="621"/>
+      <c r="Z9" s="622"/>
+      <c r="AA9" s="623"/>
+      <c r="AB9" s="624"/>
+      <c r="AC9" s="625"/>
+      <c r="AD9" s="623" t="s">
         <v>999</v>
       </c>
-      <c r="AE9" s="615"/>
-      <c r="AF9" s="616"/>
-      <c r="AG9" s="614" t="s">
+      <c r="AE9" s="624"/>
+      <c r="AF9" s="625"/>
+      <c r="AG9" s="623" t="s">
         <v>976</v>
       </c>
-      <c r="AH9" s="615"/>
-      <c r="AI9" s="616"/>
-      <c r="AL9" s="627" t="s">
+      <c r="AH9" s="624"/>
+      <c r="AI9" s="625"/>
+      <c r="AL9" s="573" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="11" spans="3:48">
-      <c r="AV11" s="618"/>
+      <c r="AV11" s="571"/>
     </row>
     <row r="13" spans="3:48">
-      <c r="D13" s="592" t="s">
+      <c r="D13" s="569" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="14" spans="3:48">
-      <c r="D14" s="592" t="s">
+      <c r="D14" s="569" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="592" t="s">
+      <c r="E14" s="569" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="592" t="s">
+      <c r="F14" s="569" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="592" t="s">
+      <c r="G14" s="569" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="592" t="s">
+      <c r="H14" s="569" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="592" t="s">
+      <c r="I14" s="569" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="592" t="s">
+      <c r="J14" s="569" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="592" t="s">
+      <c r="K14" s="569" t="s">
         <v>85</v>
       </c>
-      <c r="L14" s="592" t="s">
+      <c r="L14" s="569" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="592" t="s">
+      <c r="M14" s="569" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="592" t="s">
+      <c r="N14" s="569" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="592" t="s">
+      <c r="O14" s="569" t="s">
         <v>87</v>
       </c>
-      <c r="P14" s="592" t="s">
+      <c r="P14" s="569" t="s">
         <v>52</v>
       </c>
-      <c r="Q14" s="592" t="s">
+      <c r="Q14" s="569" t="s">
         <v>89</v>
       </c>
-      <c r="R14" s="592" t="s">
+      <c r="R14" s="569" t="s">
         <v>109</v>
       </c>
-      <c r="S14" s="592" t="s">
+      <c r="S14" s="569" t="s">
         <v>91</v>
       </c>
-      <c r="T14" s="592" t="s">
+      <c r="T14" s="569" t="s">
         <v>284</v>
       </c>
-      <c r="U14" s="592" t="s">
+      <c r="U14" s="569" t="s">
         <v>43</v>
       </c>
-      <c r="V14" s="592" t="s">
+      <c r="V14" s="569" t="s">
         <v>48</v>
       </c>
-      <c r="W14" s="592" t="s">
+      <c r="W14" s="569" t="s">
         <v>46</v>
       </c>
-      <c r="X14" s="592" t="s">
+      <c r="X14" s="569" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="3:48" ht="19.5">
-      <c r="D15" s="628" t="s">
+      <c r="D15" s="574" t="s">
         <v>217</v>
       </c>
-      <c r="E15" s="628" t="s">
+      <c r="E15" s="574" t="s">
         <v>190</v>
       </c>
-      <c r="F15" s="628" t="s">
+      <c r="F15" s="574" t="s">
         <v>392</v>
       </c>
-      <c r="G15" s="628" t="s">
+      <c r="G15" s="574" t="s">
         <v>143</v>
       </c>
-      <c r="H15" s="628" t="s">
+      <c r="H15" s="574" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="628" t="s">
+      <c r="I15" s="574" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="628" t="s">
+      <c r="J15" s="574" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="628" t="s">
+      <c r="K15" s="574" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="628" t="s">
+      <c r="L15" s="574" t="s">
         <v>37</v>
       </c>
-      <c r="M15" s="628" t="s">
+      <c r="M15" s="574" t="s">
         <v>184</v>
       </c>
-      <c r="N15" s="628" t="s">
+      <c r="N15" s="574" t="s">
         <v>418</v>
       </c>
-      <c r="O15" s="628" t="s">
+      <c r="O15" s="574" t="s">
         <v>140</v>
       </c>
-      <c r="P15" s="628" t="s">
+      <c r="P15" s="574" t="s">
         <v>422</v>
       </c>
-      <c r="Q15" s="628" t="s">
+      <c r="Q15" s="574" t="s">
         <v>979</v>
       </c>
-      <c r="R15" s="628" t="s">
+      <c r="R15" s="574" t="s">
         <v>445</v>
       </c>
-      <c r="S15" s="628" t="s">
+      <c r="S15" s="574" t="s">
         <v>980</v>
       </c>
-      <c r="T15" s="628" t="s">
+      <c r="T15" s="574" t="s">
         <v>433</v>
       </c>
-      <c r="U15" s="628" t="s">
+      <c r="U15" s="574" t="s">
         <v>44</v>
       </c>
-      <c r="V15" s="628" t="s">
+      <c r="V15" s="574" t="s">
         <v>445</v>
       </c>
-      <c r="W15" s="628" t="s">
+      <c r="W15" s="574" t="s">
         <v>981</v>
       </c>
-      <c r="X15" s="628" t="s">
+      <c r="X15" s="574" t="s">
         <v>338</v>
       </c>
-      <c r="Y15" s="629"/>
+      <c r="Y15" s="575"/>
     </row>
     <row r="16" spans="3:48" ht="19.5">
-      <c r="D16" s="630" t="s">
+      <c r="D16" s="576" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="630" t="s">
+      <c r="E16" s="576" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="630" t="s">
+      <c r="F16" s="576" t="s">
         <v>400</v>
       </c>
-      <c r="G16" s="630" t="s">
+      <c r="G16" s="576" t="s">
         <v>982</v>
       </c>
-      <c r="H16" s="630" t="s">
+      <c r="H16" s="576" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="630" t="s">
+      <c r="I16" s="576" t="s">
         <v>408</v>
       </c>
-      <c r="J16" s="630" t="s">
+      <c r="J16" s="576" t="s">
         <v>983</v>
       </c>
-      <c r="K16" s="630" t="s">
+      <c r="K16" s="576" t="s">
         <v>309</v>
       </c>
-      <c r="L16" s="630" t="s">
+      <c r="L16" s="576" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="630" t="s">
+      <c r="M16" s="576" t="s">
         <v>184</v>
       </c>
-      <c r="N16" s="630" t="s">
+      <c r="N16" s="576" t="s">
         <v>425</v>
       </c>
-      <c r="O16" s="630" t="s">
+      <c r="O16" s="576" t="s">
         <v>984</v>
       </c>
-      <c r="P16" s="630" t="s">
+      <c r="P16" s="576" t="s">
         <v>422</v>
       </c>
-      <c r="Q16" s="630" t="s">
+      <c r="Q16" s="576" t="s">
         <v>427</v>
       </c>
-      <c r="R16" s="630" t="s">
+      <c r="R16" s="576" t="s">
         <v>985</v>
       </c>
-      <c r="S16" s="630" t="s">
+      <c r="S16" s="576" t="s">
         <v>986</v>
       </c>
-      <c r="T16" s="630" t="s">
+      <c r="T16" s="576" t="s">
         <v>433</v>
       </c>
-      <c r="U16" s="630" t="s">
+      <c r="U16" s="576" t="s">
         <v>305</v>
       </c>
-      <c r="V16" s="630" t="s">
+      <c r="V16" s="576" t="s">
         <v>179</v>
       </c>
-      <c r="W16" s="630" t="s">
+      <c r="W16" s="576" t="s">
         <v>456</v>
       </c>
-      <c r="X16" s="630" t="s">
+      <c r="X16" s="576" t="s">
         <v>338</v>
       </c>
-      <c r="Y16" s="629"/>
+      <c r="Y16" s="575"/>
     </row>
     <row r="17" spans="4:46">
-      <c r="D17" s="631" t="s">
+      <c r="D17" s="577" t="s">
         <v>389</v>
       </c>
-      <c r="E17" s="631" t="s">
+      <c r="E17" s="577" t="s">
         <v>402</v>
       </c>
-      <c r="F17" s="631" t="s">
+      <c r="F17" s="577" t="s">
         <v>393</v>
       </c>
-      <c r="G17" s="631" t="s">
+      <c r="G17" s="577" t="s">
         <v>398</v>
       </c>
-      <c r="H17" s="631" t="s">
+      <c r="H17" s="577" t="s">
         <v>403</v>
       </c>
-      <c r="I17" s="631" t="s">
+      <c r="I17" s="577" t="s">
         <v>406</v>
       </c>
-      <c r="J17" s="631" t="s">
+      <c r="J17" s="577" t="s">
         <v>411</v>
       </c>
-      <c r="K17" s="631" t="s">
+      <c r="K17" s="577" t="s">
         <v>412</v>
       </c>
-      <c r="L17" s="631" t="s">
+      <c r="L17" s="577" t="s">
         <v>415</v>
       </c>
-      <c r="M17" s="631" t="s">
+      <c r="M17" s="577" t="s">
         <v>437</v>
       </c>
-      <c r="N17" s="631" t="s">
+      <c r="N17" s="577" t="s">
         <v>419</v>
       </c>
-      <c r="O17" s="631" t="s">
+      <c r="O17" s="577" t="s">
         <v>440</v>
       </c>
-      <c r="P17" s="631" t="s">
+      <c r="P17" s="577" t="s">
         <v>423</v>
       </c>
-      <c r="Q17" s="631" t="s">
+      <c r="Q17" s="577" t="s">
         <v>428</v>
       </c>
-      <c r="R17" s="631" t="s">
+      <c r="R17" s="577" t="s">
         <v>446</v>
       </c>
-      <c r="S17" s="631" t="s">
+      <c r="S17" s="577" t="s">
         <v>431</v>
       </c>
-      <c r="T17" s="631" t="s">
+      <c r="T17" s="577" t="s">
         <v>434</v>
       </c>
-      <c r="U17" s="631" t="s">
+      <c r="U17" s="577" t="s">
         <v>459</v>
       </c>
-      <c r="V17" s="631" t="s">
+      <c r="V17" s="577" t="s">
         <v>453</v>
       </c>
-      <c r="W17" s="631" t="s">
+      <c r="W17" s="577" t="s">
         <v>464</v>
       </c>
-      <c r="X17" s="631" t="s">
+      <c r="X17" s="577" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="19" spans="4:46">
-      <c r="D19" s="592" t="s">
+      <c r="D19" s="569" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="20" spans="4:46">
-      <c r="D20" s="592" t="s">
+      <c r="D20" s="569" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="592" t="s">
+      <c r="E20" s="569" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="592" t="s">
+      <c r="F20" s="569" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="592" t="s">
+      <c r="G20" s="569" t="s">
         <v>121</v>
       </c>
-      <c r="H20" s="592" t="s">
+      <c r="H20" s="569" t="s">
         <v>473</v>
       </c>
-      <c r="I20" s="592" t="s">
+      <c r="I20" s="569" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="592" t="s">
+      <c r="J20" s="569" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="592" t="s">
+      <c r="K20" s="569" t="s">
         <v>241</v>
       </c>
-      <c r="L20" s="592" t="s">
+      <c r="L20" s="569" t="s">
         <v>117</v>
       </c>
-      <c r="M20" s="592" t="s">
+      <c r="M20" s="569" t="s">
         <v>72</v>
       </c>
-      <c r="N20" s="592" t="s">
+      <c r="N20" s="569" t="s">
         <v>123</v>
       </c>
-      <c r="O20" s="592" t="s">
+      <c r="O20" s="569" t="s">
         <v>99</v>
       </c>
-      <c r="P20" s="592" t="s">
+      <c r="P20" s="569" t="s">
         <v>125</v>
       </c>
-      <c r="Q20" s="592" t="s">
+      <c r="Q20" s="569" t="s">
         <v>145</v>
       </c>
-      <c r="R20" s="592" t="s">
+      <c r="R20" s="569" t="s">
         <v>97</v>
       </c>
-      <c r="S20" s="592" t="s">
+      <c r="S20" s="569" t="s">
         <v>76</v>
       </c>
-      <c r="T20" s="592" t="s">
+      <c r="T20" s="569" t="s">
         <v>95</v>
       </c>
-      <c r="U20" s="592" t="s">
+      <c r="U20" s="569" t="s">
         <v>101</v>
       </c>
-      <c r="V20" s="592" t="s">
+      <c r="V20" s="569" t="s">
         <v>127</v>
       </c>
-      <c r="W20" s="592" t="s">
+      <c r="W20" s="569" t="s">
         <v>74</v>
       </c>
-      <c r="X20" s="592" t="s">
+      <c r="X20" s="569" t="s">
         <v>54</v>
       </c>
-      <c r="Y20" s="592" t="s">
+      <c r="Y20" s="569" t="s">
         <v>111</v>
       </c>
-      <c r="Z20" s="592" t="s">
+      <c r="Z20" s="569" t="s">
         <v>56</v>
       </c>
-      <c r="AA20" s="592" t="s">
+      <c r="AA20" s="569" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="21" spans="4:46" ht="15">
-      <c r="D21" s="632" t="s">
+      <c r="D21" s="578" t="s">
         <v>351</v>
       </c>
-      <c r="E21" s="632" t="s">
+      <c r="E21" s="578" t="s">
         <v>276</v>
       </c>
-      <c r="F21" s="632" t="s">
+      <c r="F21" s="578" t="s">
         <v>346</v>
       </c>
-      <c r="G21" s="632" t="s">
+      <c r="G21" s="578" t="s">
         <v>273</v>
       </c>
-      <c r="H21" s="632" t="s">
+      <c r="H21" s="578" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="632" t="s">
+      <c r="I21" s="578" t="s">
         <v>329</v>
       </c>
-      <c r="J21" s="632" t="s">
+      <c r="J21" s="578" t="s">
         <v>270</v>
       </c>
-      <c r="K21" s="632" t="s">
+      <c r="K21" s="578" t="s">
         <v>330</v>
       </c>
-      <c r="L21" s="632" t="s">
+      <c r="L21" s="578" t="s">
         <v>268</v>
       </c>
-      <c r="M21" s="632" t="s">
+      <c r="M21" s="578" t="s">
         <v>326</v>
       </c>
-      <c r="N21" s="632" t="s">
+      <c r="N21" s="578" t="s">
         <v>265</v>
       </c>
-      <c r="O21" s="632" t="s">
+      <c r="O21" s="578" t="s">
         <v>207</v>
       </c>
-      <c r="P21" s="632" t="s">
+      <c r="P21" s="578" t="s">
         <v>203</v>
       </c>
-      <c r="Q21" s="632" t="s">
+      <c r="Q21" s="578" t="s">
         <v>143</v>
       </c>
-      <c r="R21" s="632" t="s">
+      <c r="R21" s="578" t="s">
         <v>177</v>
       </c>
-      <c r="S21" s="632" t="s">
+      <c r="S21" s="578" t="s">
         <v>489</v>
       </c>
-      <c r="T21" s="632" t="s">
+      <c r="T21" s="578" t="s">
         <v>163</v>
       </c>
-      <c r="U21" s="632" t="s">
+      <c r="U21" s="578" t="s">
         <v>160</v>
       </c>
-      <c r="V21" s="632" t="s">
+      <c r="V21" s="578" t="s">
         <v>494</v>
       </c>
-      <c r="W21" s="632" t="s">
+      <c r="W21" s="578" t="s">
         <v>140</v>
       </c>
-      <c r="X21" s="632" t="s">
+      <c r="X21" s="578" t="s">
         <v>279</v>
       </c>
-      <c r="Y21" s="632" t="s">
+      <c r="Y21" s="578" t="s">
         <v>513</v>
       </c>
-      <c r="Z21" s="632" t="s">
+      <c r="Z21" s="578" t="s">
         <v>196</v>
       </c>
-      <c r="AA21" s="632" t="s">
+      <c r="AA21" s="578" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="22" spans="4:46" ht="16.5">
-      <c r="D22" s="633" t="s">
+      <c r="D22" s="579" t="s">
         <v>351</v>
       </c>
-      <c r="E22" s="633" t="s">
+      <c r="E22" s="579" t="s">
         <v>277</v>
       </c>
-      <c r="F22" s="633" t="s">
+      <c r="F22" s="579" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="633" t="s">
+      <c r="G22" s="579" t="s">
         <v>274</v>
       </c>
-      <c r="H22" s="633" t="s">
+      <c r="H22" s="579" t="s">
         <v>988</v>
       </c>
-      <c r="I22" s="633" t="s">
+      <c r="I22" s="579" t="s">
         <v>329</v>
       </c>
-      <c r="J22" s="633" t="s">
+      <c r="J22" s="579" t="s">
         <v>271</v>
       </c>
-      <c r="K22" s="633" t="s">
+      <c r="K22" s="579" t="s">
         <v>275</v>
       </c>
-      <c r="L22" s="633" t="s">
+      <c r="L22" s="579" t="s">
         <v>269</v>
       </c>
-      <c r="M22" s="633" t="s">
+      <c r="M22" s="579" t="s">
         <v>259</v>
       </c>
-      <c r="N22" s="633" t="s">
+      <c r="N22" s="579" t="s">
         <v>266</v>
       </c>
-      <c r="O22" s="633" t="s">
+      <c r="O22" s="579" t="s">
         <v>208</v>
       </c>
-      <c r="P22" s="633" t="s">
+      <c r="P22" s="579" t="s">
         <v>204</v>
       </c>
-      <c r="Q22" s="633" t="s">
+      <c r="Q22" s="579" t="s">
         <v>144</v>
       </c>
-      <c r="R22" s="633" t="s">
+      <c r="R22" s="579" t="s">
         <v>176</v>
       </c>
-      <c r="S22" s="633" t="s">
+      <c r="S22" s="579" t="s">
         <v>189</v>
       </c>
-      <c r="T22" s="633" t="s">
+      <c r="T22" s="579" t="s">
         <v>164</v>
       </c>
-      <c r="U22" s="633" t="s">
+      <c r="U22" s="579" t="s">
         <v>162</v>
       </c>
-      <c r="V22" s="633" t="s">
+      <c r="V22" s="579" t="s">
         <v>989</v>
       </c>
-      <c r="W22" s="633" t="s">
+      <c r="W22" s="579" t="s">
         <v>141</v>
       </c>
-      <c r="X22" s="633" t="s">
+      <c r="X22" s="579" t="s">
         <v>279</v>
       </c>
-      <c r="Y22" s="633" t="s">
+      <c r="Y22" s="579" t="s">
         <v>282</v>
       </c>
-      <c r="Z22" s="633" t="s">
+      <c r="Z22" s="579" t="s">
         <v>196</v>
       </c>
-      <c r="AA22" s="633" t="s">
+      <c r="AA22" s="579" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="23" spans="4:46">
-      <c r="D23" s="634" t="s">
+      <c r="D23" s="580" t="s">
         <v>471</v>
       </c>
-      <c r="E23" s="634" t="s">
+      <c r="E23" s="580" t="s">
         <v>508</v>
       </c>
-      <c r="F23" s="634" t="s">
+      <c r="F23" s="580" t="s">
         <v>474</v>
       </c>
-      <c r="G23" s="634" t="s">
+      <c r="G23" s="580" t="s">
         <v>990</v>
       </c>
-      <c r="H23" s="634" t="s">
+      <c r="H23" s="580" t="s">
         <v>475</v>
       </c>
-      <c r="I23" s="634" t="s">
+      <c r="I23" s="580" t="s">
         <v>482</v>
       </c>
-      <c r="J23" s="634" t="s">
+      <c r="J23" s="580" t="s">
         <v>524</v>
       </c>
-      <c r="K23" s="634" t="s">
+      <c r="K23" s="580" t="s">
         <v>479</v>
       </c>
-      <c r="L23" s="634" t="s">
+      <c r="L23" s="580" t="s">
         <v>991</v>
       </c>
-      <c r="M23" s="634" t="s">
+      <c r="M23" s="580" t="s">
         <v>485</v>
       </c>
-      <c r="N23" s="634" t="s">
+      <c r="N23" s="580" t="s">
         <v>992</v>
       </c>
-      <c r="O23" s="634" t="s">
+      <c r="O23" s="580" t="s">
         <v>501</v>
       </c>
-      <c r="P23" s="634" t="s">
+      <c r="P23" s="580" t="s">
         <v>505</v>
       </c>
-      <c r="Q23" s="634" t="s">
+      <c r="Q23" s="580" t="s">
         <v>470</v>
       </c>
-      <c r="R23" s="634" t="s">
+      <c r="R23" s="580" t="s">
         <v>488</v>
       </c>
-      <c r="S23" s="634" t="s">
+      <c r="S23" s="580" t="s">
         <v>490</v>
       </c>
-      <c r="T23" s="634" t="s">
+      <c r="T23" s="580" t="s">
         <v>492</v>
       </c>
-      <c r="U23" s="634" t="s">
+      <c r="U23" s="580" t="s">
         <v>487</v>
       </c>
-      <c r="V23" s="634" t="s">
+      <c r="V23" s="580" t="s">
         <v>495</v>
       </c>
-      <c r="W23" s="634" t="s">
+      <c r="W23" s="580" t="s">
         <v>498</v>
       </c>
-      <c r="X23" s="634" t="s">
+      <c r="X23" s="580" t="s">
         <v>468</v>
       </c>
-      <c r="Y23" s="634" t="s">
+      <c r="Y23" s="580" t="s">
         <v>514</v>
       </c>
-      <c r="Z23" s="634" t="s">
+      <c r="Z23" s="580" t="s">
         <v>469</v>
       </c>
-      <c r="AA23" s="634" t="s">
+      <c r="AA23" s="580" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="25" spans="4:46" ht="38.25">
-      <c r="AM25" s="635" t="s">
+      <c r="AM25" s="581" t="s">
         <v>993</v>
       </c>
-      <c r="AN25" s="636"/>
-      <c r="AO25" s="637"/>
-      <c r="AP25" s="637"/>
-      <c r="AQ25" s="637"/>
-      <c r="AS25" s="638" t="str">
+      <c r="AN25" s="582"/>
+      <c r="AO25" s="583"/>
+      <c r="AP25" s="583"/>
+      <c r="AQ25" s="583"/>
+      <c r="AS25" s="584" t="str">
         <f xml:space="preserve"> MID($AM$25, 1, 2)</f>
         <v>ㆴ̇</v>
       </c>
-      <c r="AT25" s="639" t="s">
+      <c r="AT25" s="585" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="26" spans="4:46" ht="38.25">
-      <c r="AR26" s="601"/>
-      <c r="AS26" s="638" t="str">
+      <c r="AR26" s="570"/>
+      <c r="AS26" s="584" t="str">
         <f xml:space="preserve"> MID($AM$25, 3, 2)</f>
         <v>ㆵ̇</v>
       </c>
-      <c r="AT26" s="639" t="s">
+      <c r="AT26" s="585" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="27" spans="4:46" ht="38.25">
-      <c r="AR27" s="618"/>
-      <c r="AS27" s="638" t="str">
+      <c r="AR27" s="571"/>
+      <c r="AS27" s="584" t="str">
         <f xml:space="preserve"> MID($AM$25, 5, 2)</f>
         <v>ㆻ̇</v>
       </c>
-      <c r="AT27" s="639" t="s">
+      <c r="AT27" s="585" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="28" spans="4:46" ht="38.25">
-      <c r="AK28" s="640"/>
-      <c r="AS28" s="638" t="str">
+      <c r="AK28" s="586"/>
+      <c r="AS28" s="584" t="str">
         <f xml:space="preserve"> MID($AM$25, 7, 2)</f>
         <v>ㆷ̇</v>
       </c>
-      <c r="AT28" s="639" t="s">
+      <c r="AT28" s="585" t="s">
         <v>996</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AI7:AK7"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
     <mergeCell ref="AN4:AP4"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
@@ -57097,36 +57035,52 @@
     <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="AI7:AK7"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AG8:AI8"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
